--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC358"/>
+  <dimension ref="A1:AC357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6588,7 +6588,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5240692</v>
+        <v>5240690</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6600,10 +6600,10 @@
         <v>44997.66666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6615,43 +6615,43 @@
         <v>48</v>
       </c>
       <c r="K69">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="L69">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M69">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N69">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="O69">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S69">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V69">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W69">
-        <v>1.875</v>
+        <v>0.833</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6660,7 +6660,7 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA69">
         <v>-1</v>
@@ -6669,7 +6669,7 @@
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6677,7 +6677,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5240690</v>
+        <v>5240692</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6689,10 +6689,10 @@
         <v>44997.66666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6704,43 +6704,43 @@
         <v>48</v>
       </c>
       <c r="K70">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="L70">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M70">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N70">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="O70">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P70">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R70">
+        <v>2.1</v>
+      </c>
+      <c r="S70">
+        <v>1.775</v>
+      </c>
+      <c r="T70">
+        <v>2</v>
+      </c>
+      <c r="U70">
+        <v>2</v>
+      </c>
+      <c r="V70">
         <v>1.85</v>
       </c>
-      <c r="S70">
-        <v>2</v>
-      </c>
-      <c r="T70">
-        <v>2.5</v>
-      </c>
-      <c r="U70">
-        <v>1.95</v>
-      </c>
-      <c r="V70">
-        <v>1.9</v>
-      </c>
       <c r="W70">
-        <v>0.833</v>
+        <v>1.875</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6749,16 +6749,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
+        <v>1.1</v>
+      </c>
+      <c r="AA70">
+        <v>-1</v>
+      </c>
+      <c r="AB70">
+        <v>-1</v>
+      </c>
+      <c r="AC70">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA70">
-        <v>-1</v>
-      </c>
-      <c r="AB70">
-        <v>-1</v>
-      </c>
-      <c r="AC70">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -31864,7 +31864,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6835794</v>
+        <v>6836256</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31873,49 +31873,49 @@
         <v>28</v>
       </c>
       <c r="E353" s="2">
-        <v>45339.375</v>
+        <v>45339.6875</v>
       </c>
       <c r="F353" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G353" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K353">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L353">
         <v>3.1</v>
       </c>
       <c r="M353">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="N353">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="O353">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P353">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q353">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R353">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S353">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T353">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U353">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V353">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W353">
         <v>0</v>
@@ -31938,7 +31938,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>6836256</v>
+        <v>6836255</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31947,49 +31947,49 @@
         <v>28</v>
       </c>
       <c r="E354" s="2">
-        <v>45339.6875</v>
+        <v>45340.51041666666</v>
       </c>
       <c r="F354" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G354" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K354">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L354">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M354">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N354">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O354">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P354">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="Q354">
         <v>0.5</v>
       </c>
       <c r="R354">
+        <v>2</v>
+      </c>
+      <c r="S354">
         <v>1.85</v>
       </c>
-      <c r="S354">
-        <v>2</v>
-      </c>
       <c r="T354">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U354">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V354">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W354">
         <v>0</v>
@@ -32012,7 +32012,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>6836255</v>
+        <v>6836258</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32021,49 +32021,49 @@
         <v>28</v>
       </c>
       <c r="E355" s="2">
-        <v>45340.51041666666</v>
+        <v>45340.625</v>
       </c>
       <c r="F355" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G355" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K355">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="L355">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M355">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="N355">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="O355">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P355">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q355">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R355">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S355">
-        <v>1.875</v>
+        <v>2.125</v>
       </c>
       <c r="T355">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U355">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V355">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W355">
         <v>0</v>
@@ -32086,7 +32086,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>6836258</v>
+        <v>6836259</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32095,43 +32095,43 @@
         <v>28</v>
       </c>
       <c r="E356" s="2">
-        <v>45340.625</v>
+        <v>45341.52083333334</v>
       </c>
       <c r="F356" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G356" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K356">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L356">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M356">
         <v>2.9</v>
       </c>
       <c r="N356">
+        <v>2.25</v>
+      </c>
+      <c r="O356">
+        <v>3.2</v>
+      </c>
+      <c r="P356">
+        <v>3</v>
+      </c>
+      <c r="Q356">
+        <v>-0.25</v>
+      </c>
+      <c r="R356">
+        <v>2</v>
+      </c>
+      <c r="S356">
+        <v>1.85</v>
+      </c>
+      <c r="T356">
         <v>2.5</v>
-      </c>
-      <c r="O356">
-        <v>2.9</v>
-      </c>
-      <c r="P356">
-        <v>2.9</v>
-      </c>
-      <c r="Q356">
-        <v>0</v>
-      </c>
-      <c r="R356">
-        <v>1.75</v>
-      </c>
-      <c r="S356">
-        <v>2.125</v>
-      </c>
-      <c r="T356">
-        <v>2</v>
       </c>
       <c r="U356">
         <v>2.05</v>
@@ -32160,7 +32160,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>6836259</v>
+        <v>6836257</v>
       </c>
       <c r="C357" t="s">
         <v>28</v>
@@ -32169,49 +32169,49 @@
         <v>28</v>
       </c>
       <c r="E357" s="2">
-        <v>45341.52083333334</v>
+        <v>45341.64583333334</v>
       </c>
       <c r="F357" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G357" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K357">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="L357">
         <v>3.2</v>
       </c>
       <c r="M357">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="N357">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="O357">
         <v>3.2</v>
       </c>
       <c r="P357">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="Q357">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R357">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S357">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T357">
         <v>2.5</v>
       </c>
       <c r="U357">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V357">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W357">
         <v>0</v>
@@ -32226,80 +32226,6 @@
         <v>0</v>
       </c>
       <c r="AA357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:27">
-      <c r="A358" s="1">
-        <v>356</v>
-      </c>
-      <c r="B358">
-        <v>6836257</v>
-      </c>
-      <c r="C358" t="s">
-        <v>28</v>
-      </c>
-      <c r="D358" t="s">
-        <v>28</v>
-      </c>
-      <c r="E358" s="2">
-        <v>45341.64583333334</v>
-      </c>
-      <c r="F358" t="s">
-        <v>29</v>
-      </c>
-      <c r="G358" t="s">
-        <v>41</v>
-      </c>
-      <c r="K358">
-        <v>3.6</v>
-      </c>
-      <c r="L358">
-        <v>3.2</v>
-      </c>
-      <c r="M358">
-        <v>2</v>
-      </c>
-      <c r="N358">
-        <v>3.6</v>
-      </c>
-      <c r="O358">
-        <v>3.2</v>
-      </c>
-      <c r="P358">
-        <v>2.05</v>
-      </c>
-      <c r="Q358">
-        <v>0.5</v>
-      </c>
-      <c r="R358">
-        <v>1.8</v>
-      </c>
-      <c r="S358">
-        <v>2.05</v>
-      </c>
-      <c r="T358">
-        <v>2.5</v>
-      </c>
-      <c r="U358">
-        <v>2.025</v>
-      </c>
-      <c r="V358">
-        <v>1.825</v>
-      </c>
-      <c r="W358">
-        <v>0</v>
-      </c>
-      <c r="X358">
-        <v>0</v>
-      </c>
-      <c r="Y358">
-        <v>0</v>
-      </c>
-      <c r="Z358">
-        <v>0</v>
-      </c>
-      <c r="AA358">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC357"/>
+  <dimension ref="A1:AC356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31864,7 +31864,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6836256</v>
+        <v>6836255</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31873,49 +31873,49 @@
         <v>28</v>
       </c>
       <c r="E353" s="2">
-        <v>45339.6875</v>
+        <v>45340.51041666666</v>
       </c>
       <c r="F353" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G353" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K353">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L353">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M353">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N353">
+        <v>4</v>
+      </c>
+      <c r="O353">
         <v>3.5</v>
       </c>
-      <c r="O353">
-        <v>3.4</v>
-      </c>
       <c r="P353">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="Q353">
         <v>0.5</v>
       </c>
       <c r="R353">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S353">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T353">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U353">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V353">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W353">
         <v>0</v>
@@ -31938,7 +31938,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>6836255</v>
+        <v>6836258</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31947,49 +31947,49 @@
         <v>28</v>
       </c>
       <c r="E354" s="2">
-        <v>45340.51041666666</v>
+        <v>45340.625</v>
       </c>
       <c r="F354" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G354" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K354">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="L354">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M354">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="N354">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="O354">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P354">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q354">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R354">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S354">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T354">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U354">
+        <v>2.025</v>
+      </c>
+      <c r="V354">
         <v>1.825</v>
-      </c>
-      <c r="V354">
-        <v>2.025</v>
       </c>
       <c r="W354">
         <v>0</v>
@@ -32012,7 +32012,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>6836258</v>
+        <v>6836259</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32021,43 +32021,43 @@
         <v>28</v>
       </c>
       <c r="E355" s="2">
-        <v>45340.625</v>
+        <v>45341.52083333334</v>
       </c>
       <c r="F355" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G355" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K355">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L355">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M355">
         <v>2.9</v>
       </c>
       <c r="N355">
+        <v>2.25</v>
+      </c>
+      <c r="O355">
+        <v>3.2</v>
+      </c>
+      <c r="P355">
+        <v>3</v>
+      </c>
+      <c r="Q355">
+        <v>-0.25</v>
+      </c>
+      <c r="R355">
+        <v>2</v>
+      </c>
+      <c r="S355">
+        <v>1.85</v>
+      </c>
+      <c r="T355">
         <v>2.5</v>
-      </c>
-      <c r="O355">
-        <v>2.9</v>
-      </c>
-      <c r="P355">
-        <v>2.9</v>
-      </c>
-      <c r="Q355">
-        <v>0</v>
-      </c>
-      <c r="R355">
-        <v>1.75</v>
-      </c>
-      <c r="S355">
-        <v>2.125</v>
-      </c>
-      <c r="T355">
-        <v>2</v>
       </c>
       <c r="U355">
         <v>2.05</v>
@@ -32086,7 +32086,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>6836259</v>
+        <v>6836257</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32095,49 +32095,49 @@
         <v>28</v>
       </c>
       <c r="E356" s="2">
-        <v>45341.52083333334</v>
+        <v>45341.64583333334</v>
       </c>
       <c r="F356" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G356" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K356">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="L356">
         <v>3.2</v>
       </c>
       <c r="M356">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="N356">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="O356">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P356">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="Q356">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R356">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S356">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T356">
         <v>2.5</v>
       </c>
       <c r="U356">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V356">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W356">
         <v>0</v>
@@ -32152,80 +32152,6 @@
         <v>0</v>
       </c>
       <c r="AA356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:27">
-      <c r="A357" s="1">
-        <v>355</v>
-      </c>
-      <c r="B357">
-        <v>6836257</v>
-      </c>
-      <c r="C357" t="s">
-        <v>28</v>
-      </c>
-      <c r="D357" t="s">
-        <v>28</v>
-      </c>
-      <c r="E357" s="2">
-        <v>45341.64583333334</v>
-      </c>
-      <c r="F357" t="s">
-        <v>29</v>
-      </c>
-      <c r="G357" t="s">
-        <v>41</v>
-      </c>
-      <c r="K357">
-        <v>3.6</v>
-      </c>
-      <c r="L357">
-        <v>3.2</v>
-      </c>
-      <c r="M357">
-        <v>2</v>
-      </c>
-      <c r="N357">
-        <v>3.6</v>
-      </c>
-      <c r="O357">
-        <v>3.2</v>
-      </c>
-      <c r="P357">
-        <v>2.05</v>
-      </c>
-      <c r="Q357">
-        <v>0.5</v>
-      </c>
-      <c r="R357">
-        <v>1.8</v>
-      </c>
-      <c r="S357">
-        <v>2.05</v>
-      </c>
-      <c r="T357">
-        <v>2.5</v>
-      </c>
-      <c r="U357">
-        <v>2.025</v>
-      </c>
-      <c r="V357">
-        <v>1.825</v>
-      </c>
-      <c r="W357">
-        <v>0</v>
-      </c>
-      <c r="X357">
-        <v>0</v>
-      </c>
-      <c r="Y357">
-        <v>0</v>
-      </c>
-      <c r="Z357">
-        <v>0</v>
-      </c>
-      <c r="AA357">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC356"/>
+  <dimension ref="A1:AC358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6410319</v>
+        <v>6410322</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,76 +12830,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K139">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L139">
         <v>3.2</v>
       </c>
       <c r="M139">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N139">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O139">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P139">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q139">
         <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S139">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T139">
         <v>2.25</v>
       </c>
       <c r="U139">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W139">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB139">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6410322</v>
+        <v>6410318</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,61 +12919,61 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
         <v>49</v>
       </c>
       <c r="K140">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L140">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M140">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N140">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O140">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P140">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q140">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S140">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T140">
         <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V140">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -12982,13 +12982,13 @@
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB140">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC140">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6410318</v>
+        <v>6410319</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,73 +13008,73 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K141">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L141">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M141">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N141">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O141">
         <v>3.5</v>
       </c>
       <c r="P141">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
+        <v>1.825</v>
+      </c>
+      <c r="S141">
         <v>2.025</v>
-      </c>
-      <c r="S141">
-        <v>1.825</v>
       </c>
       <c r="T141">
         <v>2.25</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X141">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -31859,12 +31859,12 @@
         <v>0.4125</v>
       </c>
     </row>
-    <row r="353" spans="1:27">
+    <row r="353" spans="1:29">
       <c r="A353" s="1">
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6836255</v>
+        <v>6835794</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31873,72 +31873,87 @@
         <v>28</v>
       </c>
       <c r="E353" s="2">
-        <v>45340.51041666666</v>
+        <v>45339.375</v>
       </c>
       <c r="F353" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G353" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="H353">
+        <v>0</v>
+      </c>
+      <c r="I353">
+        <v>1</v>
+      </c>
+      <c r="J353" t="s">
+        <v>50</v>
       </c>
       <c r="K353">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="L353">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M353">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="N353">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="O353">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P353">
+        <v>2.9</v>
+      </c>
+      <c r="Q353">
+        <v>-0.25</v>
+      </c>
+      <c r="R353">
+        <v>2.05</v>
+      </c>
+      <c r="S353">
         <v>1.8</v>
-      </c>
-      <c r="Q353">
-        <v>0.5</v>
-      </c>
-      <c r="R353">
-        <v>2</v>
-      </c>
-      <c r="S353">
-        <v>1.85</v>
       </c>
       <c r="T353">
         <v>2.25</v>
       </c>
       <c r="U353">
+        <v>2</v>
+      </c>
+      <c r="V353">
         <v>1.85</v>
       </c>
-      <c r="V353">
-        <v>2</v>
-      </c>
       <c r="W353">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X353">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y353">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="Z353">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:27">
+        <v>0.8</v>
+      </c>
+      <c r="AB353">
+        <v>-1</v>
+      </c>
+      <c r="AC353">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="354" spans="1:29">
       <c r="A354" s="1">
         <v>352</v>
       </c>
       <c r="B354">
-        <v>6836258</v>
+        <v>6836256</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31947,72 +31962,87 @@
         <v>28</v>
       </c>
       <c r="E354" s="2">
-        <v>45340.625</v>
+        <v>45339.6875</v>
       </c>
       <c r="F354" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G354" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="H354">
+        <v>1</v>
+      </c>
+      <c r="I354">
+        <v>3</v>
+      </c>
+      <c r="J354" t="s">
+        <v>50</v>
       </c>
       <c r="K354">
+        <v>3.1</v>
+      </c>
+      <c r="L354">
+        <v>3.1</v>
+      </c>
+      <c r="M354">
+        <v>2.25</v>
+      </c>
+      <c r="N354">
+        <v>3.5</v>
+      </c>
+      <c r="O354">
+        <v>3.4</v>
+      </c>
+      <c r="P354">
+        <v>1.95</v>
+      </c>
+      <c r="Q354">
+        <v>0.5</v>
+      </c>
+      <c r="R354">
+        <v>1.8</v>
+      </c>
+      <c r="S354">
+        <v>2.05</v>
+      </c>
+      <c r="T354">
         <v>2.5</v>
       </c>
-      <c r="L354">
-        <v>2.9</v>
-      </c>
-      <c r="M354">
-        <v>2.9</v>
-      </c>
-      <c r="N354">
-        <v>2.5</v>
-      </c>
-      <c r="O354">
-        <v>2.9</v>
-      </c>
-      <c r="P354">
-        <v>2.9</v>
-      </c>
-      <c r="Q354">
-        <v>0</v>
-      </c>
-      <c r="R354">
-        <v>1.775</v>
-      </c>
-      <c r="S354">
-        <v>2.1</v>
-      </c>
-      <c r="T354">
-        <v>2</v>
-      </c>
       <c r="U354">
+        <v>1.825</v>
+      </c>
+      <c r="V354">
         <v>2.025</v>
       </c>
-      <c r="V354">
-        <v>1.825</v>
-      </c>
       <c r="W354">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X354">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y354">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Z354">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:27">
+        <v>1.05</v>
+      </c>
+      <c r="AB354">
+        <v>0.825</v>
+      </c>
+      <c r="AC354">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:29">
       <c r="A355" s="1">
         <v>353</v>
       </c>
       <c r="B355">
-        <v>6836259</v>
+        <v>6836255</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32021,137 +32051,315 @@
         <v>28</v>
       </c>
       <c r="E355" s="2">
-        <v>45341.52083333334</v>
+        <v>45340.51041666666</v>
       </c>
       <c r="F355" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G355" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="H355">
+        <v>2</v>
+      </c>
+      <c r="I355">
+        <v>2</v>
+      </c>
+      <c r="J355" t="s">
+        <v>49</v>
       </c>
       <c r="K355">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="L355">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M355">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="N355">
+        <v>4.2</v>
+      </c>
+      <c r="O355">
+        <v>3.6</v>
+      </c>
+      <c r="P355">
+        <v>1.75</v>
+      </c>
+      <c r="Q355">
+        <v>0.75</v>
+      </c>
+      <c r="R355">
+        <v>1.85</v>
+      </c>
+      <c r="S355">
+        <v>2</v>
+      </c>
+      <c r="T355">
         <v>2.25</v>
       </c>
-      <c r="O355">
-        <v>3.2</v>
-      </c>
-      <c r="P355">
-        <v>3</v>
-      </c>
-      <c r="Q355">
-        <v>-0.25</v>
-      </c>
-      <c r="R355">
-        <v>2</v>
-      </c>
-      <c r="S355">
+      <c r="U355">
         <v>1.85</v>
       </c>
-      <c r="T355">
-        <v>2.5</v>
-      </c>
-      <c r="U355">
-        <v>2.05</v>
-      </c>
       <c r="V355">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W355">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X355">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y355">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z355">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB355">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC355">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:29">
       <c r="A356" s="1">
         <v>354</v>
       </c>
       <c r="B356">
+        <v>6836258</v>
+      </c>
+      <c r="C356" t="s">
+        <v>28</v>
+      </c>
+      <c r="D356" t="s">
+        <v>28</v>
+      </c>
+      <c r="E356" s="2">
+        <v>45340.625</v>
+      </c>
+      <c r="F356" t="s">
+        <v>46</v>
+      </c>
+      <c r="G356" t="s">
+        <v>45</v>
+      </c>
+      <c r="H356">
+        <v>3</v>
+      </c>
+      <c r="I356">
+        <v>1</v>
+      </c>
+      <c r="J356" t="s">
+        <v>48</v>
+      </c>
+      <c r="K356">
+        <v>2.5</v>
+      </c>
+      <c r="L356">
+        <v>2.9</v>
+      </c>
+      <c r="M356">
+        <v>2.9</v>
+      </c>
+      <c r="N356">
+        <v>2.7</v>
+      </c>
+      <c r="O356">
+        <v>2.875</v>
+      </c>
+      <c r="P356">
+        <v>2.75</v>
+      </c>
+      <c r="Q356">
+        <v>0</v>
+      </c>
+      <c r="R356">
+        <v>1.875</v>
+      </c>
+      <c r="S356">
+        <v>1.975</v>
+      </c>
+      <c r="T356">
+        <v>1.75</v>
+      </c>
+      <c r="U356">
+        <v>1.8</v>
+      </c>
+      <c r="V356">
+        <v>2.05</v>
+      </c>
+      <c r="W356">
+        <v>1.7</v>
+      </c>
+      <c r="X356">
+        <v>-1</v>
+      </c>
+      <c r="Y356">
+        <v>-1</v>
+      </c>
+      <c r="Z356">
+        <v>0.875</v>
+      </c>
+      <c r="AA356">
+        <v>-1</v>
+      </c>
+      <c r="AB356">
+        <v>0.8</v>
+      </c>
+      <c r="AC356">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:29">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>6836259</v>
+      </c>
+      <c r="C357" t="s">
+        <v>28</v>
+      </c>
+      <c r="D357" t="s">
+        <v>28</v>
+      </c>
+      <c r="E357" s="2">
+        <v>45341.52083333334</v>
+      </c>
+      <c r="F357" t="s">
+        <v>44</v>
+      </c>
+      <c r="G357" t="s">
+        <v>36</v>
+      </c>
+      <c r="K357">
+        <v>2.3</v>
+      </c>
+      <c r="L357">
+        <v>3.2</v>
+      </c>
+      <c r="M357">
+        <v>2.9</v>
+      </c>
+      <c r="N357">
+        <v>2.25</v>
+      </c>
+      <c r="O357">
+        <v>3.2</v>
+      </c>
+      <c r="P357">
+        <v>3</v>
+      </c>
+      <c r="Q357">
+        <v>-0.25</v>
+      </c>
+      <c r="R357">
+        <v>1.975</v>
+      </c>
+      <c r="S357">
+        <v>1.875</v>
+      </c>
+      <c r="T357">
+        <v>2.5</v>
+      </c>
+      <c r="U357">
+        <v>2.025</v>
+      </c>
+      <c r="V357">
+        <v>1.825</v>
+      </c>
+      <c r="W357">
+        <v>0</v>
+      </c>
+      <c r="X357">
+        <v>0</v>
+      </c>
+      <c r="Y357">
+        <v>0</v>
+      </c>
+      <c r="Z357">
+        <v>0</v>
+      </c>
+      <c r="AA357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:29">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358">
         <v>6836257</v>
       </c>
-      <c r="C356" t="s">
-        <v>28</v>
-      </c>
-      <c r="D356" t="s">
-        <v>28</v>
-      </c>
-      <c r="E356" s="2">
+      <c r="C358" t="s">
+        <v>28</v>
+      </c>
+      <c r="D358" t="s">
+        <v>28</v>
+      </c>
+      <c r="E358" s="2">
         <v>45341.64583333334</v>
       </c>
-      <c r="F356" t="s">
+      <c r="F358" t="s">
         <v>29</v>
       </c>
-      <c r="G356" t="s">
+      <c r="G358" t="s">
         <v>41</v>
       </c>
-      <c r="K356">
+      <c r="K358">
         <v>3.6</v>
       </c>
-      <c r="L356">
+      <c r="L358">
         <v>3.2</v>
       </c>
-      <c r="M356">
-        <v>2</v>
-      </c>
-      <c r="N356">
-        <v>4</v>
-      </c>
-      <c r="O356">
-        <v>3.25</v>
-      </c>
-      <c r="P356">
-        <v>1.85</v>
-      </c>
-      <c r="Q356">
+      <c r="M358">
+        <v>2</v>
+      </c>
+      <c r="N358">
+        <v>3.6</v>
+      </c>
+      <c r="O358">
+        <v>3.4</v>
+      </c>
+      <c r="P358">
+        <v>2</v>
+      </c>
+      <c r="Q358">
         <v>0.5</v>
       </c>
-      <c r="R356">
-        <v>1.925</v>
-      </c>
-      <c r="S356">
-        <v>1.925</v>
-      </c>
-      <c r="T356">
+      <c r="R358">
+        <v>1.825</v>
+      </c>
+      <c r="S358">
+        <v>2.025</v>
+      </c>
+      <c r="T358">
         <v>2.5</v>
       </c>
-      <c r="U356">
-        <v>2</v>
-      </c>
-      <c r="V356">
-        <v>1.85</v>
-      </c>
-      <c r="W356">
-        <v>0</v>
-      </c>
-      <c r="X356">
-        <v>0</v>
-      </c>
-      <c r="Y356">
-        <v>0</v>
-      </c>
-      <c r="Z356">
-        <v>0</v>
-      </c>
-      <c r="AA356">
+      <c r="U358">
+        <v>1.975</v>
+      </c>
+      <c r="V358">
+        <v>1.875</v>
+      </c>
+      <c r="W358">
+        <v>0</v>
+      </c>
+      <c r="X358">
+        <v>0</v>
+      </c>
+      <c r="Y358">
+        <v>0</v>
+      </c>
+      <c r="Z358">
+        <v>0</v>
+      </c>
+      <c r="AA358">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6410322</v>
+        <v>6410319</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,76 +12830,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L139">
         <v>3.2</v>
       </c>
       <c r="M139">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N139">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O139">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P139">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q139">
         <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T139">
         <v>2.25</v>
       </c>
       <c r="U139">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V139">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X139">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA139">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC139">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6410319</v>
+        <v>6410322</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,76 +13008,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K141">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L141">
         <v>3.2</v>
       </c>
       <c r="M141">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N141">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O141">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P141">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q141">
         <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T141">
         <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V141">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W141">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB141">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -32237,6 +32237,15 @@
       <c r="G357" t="s">
         <v>36</v>
       </c>
+      <c r="H357">
+        <v>0</v>
+      </c>
+      <c r="I357">
+        <v>1</v>
+      </c>
+      <c r="J357" t="s">
+        <v>50</v>
+      </c>
       <c r="K357">
         <v>2.3</v>
       </c>
@@ -32247,46 +32256,52 @@
         <v>2.9</v>
       </c>
       <c r="N357">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O357">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P357">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q357">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R357">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S357">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T357">
         <v>2.5</v>
       </c>
       <c r="U357">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V357">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W357">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X357">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y357">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Z357">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA357">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB357">
+        <v>-1</v>
+      </c>
+      <c r="AC357">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="358" spans="1:29">
@@ -32311,6 +32326,15 @@
       <c r="G358" t="s">
         <v>41</v>
       </c>
+      <c r="H358">
+        <v>0</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358" t="s">
+        <v>49</v>
+      </c>
       <c r="K358">
         <v>3.6</v>
       </c>
@@ -32321,25 +32345,25 @@
         <v>2</v>
       </c>
       <c r="N358">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O358">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P358">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q358">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R358">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S358">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T358">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U358">
         <v>1.975</v>
@@ -32348,19 +32372,25 @@
         <v>1.875</v>
       </c>
       <c r="W358">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X358">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y358">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z358">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA358">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB358">
+        <v>-1</v>
+      </c>
+      <c r="AC358">
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC358"/>
+  <dimension ref="A1:AC366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6588,7 +6588,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5240690</v>
+        <v>5240692</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6600,10 +6600,10 @@
         <v>44997.66666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6615,43 +6615,43 @@
         <v>48</v>
       </c>
       <c r="K69">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="L69">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M69">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N69">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="O69">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P69">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q69">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R69">
+        <v>2.1</v>
+      </c>
+      <c r="S69">
+        <v>1.775</v>
+      </c>
+      <c r="T69">
+        <v>2</v>
+      </c>
+      <c r="U69">
+        <v>2</v>
+      </c>
+      <c r="V69">
         <v>1.85</v>
       </c>
-      <c r="S69">
-        <v>2</v>
-      </c>
-      <c r="T69">
-        <v>2.5</v>
-      </c>
-      <c r="U69">
-        <v>1.95</v>
-      </c>
-      <c r="V69">
-        <v>1.9</v>
-      </c>
       <c r="W69">
-        <v>0.833</v>
+        <v>1.875</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6660,16 +6660,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
+        <v>1.1</v>
+      </c>
+      <c r="AA69">
+        <v>-1</v>
+      </c>
+      <c r="AB69">
+        <v>-1</v>
+      </c>
+      <c r="AC69">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA69">
-        <v>-1</v>
-      </c>
-      <c r="AB69">
-        <v>-1</v>
-      </c>
-      <c r="AC69">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6677,7 +6677,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5240692</v>
+        <v>5240690</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6689,10 +6689,10 @@
         <v>44997.66666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6704,43 +6704,43 @@
         <v>48</v>
       </c>
       <c r="K70">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="L70">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M70">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N70">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="O70">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="P70">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T70">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
-        <v>1.875</v>
+        <v>0.833</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6749,7 +6749,7 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA70">
         <v>-1</v>
@@ -6758,7 +6758,7 @@
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6410319</v>
+        <v>6410318</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,73 +12830,73 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K139">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L139">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M139">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N139">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O139">
         <v>3.5</v>
       </c>
       <c r="P139">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q139">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R139">
+        <v>2.025</v>
+      </c>
+      <c r="S139">
         <v>1.825</v>
-      </c>
-      <c r="S139">
-        <v>2.025</v>
       </c>
       <c r="T139">
         <v>2.25</v>
       </c>
       <c r="U139">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V139">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W139">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
+        <v>-1</v>
+      </c>
+      <c r="AA139">
         <v>0.825</v>
       </c>
-      <c r="AA139">
-        <v>-1</v>
-      </c>
       <c r="AB139">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6410318</v>
+        <v>6410322</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,61 +12919,61 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
         <v>49</v>
       </c>
       <c r="K140">
+        <v>2.2</v>
+      </c>
+      <c r="L140">
+        <v>3.2</v>
+      </c>
+      <c r="M140">
+        <v>3.1</v>
+      </c>
+      <c r="N140">
+        <v>1.85</v>
+      </c>
+      <c r="O140">
+        <v>3</v>
+      </c>
+      <c r="P140">
+        <v>4.2</v>
+      </c>
+      <c r="Q140">
+        <v>-0.5</v>
+      </c>
+      <c r="R140">
         <v>1.95</v>
       </c>
-      <c r="L140">
-        <v>3.3</v>
-      </c>
-      <c r="M140">
-        <v>3.6</v>
-      </c>
-      <c r="N140">
-        <v>1.727</v>
-      </c>
-      <c r="O140">
-        <v>3.5</v>
-      </c>
-      <c r="P140">
-        <v>4.5</v>
-      </c>
-      <c r="Q140">
-        <v>-0.75</v>
-      </c>
-      <c r="R140">
-        <v>2.025</v>
-      </c>
       <c r="S140">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T140">
         <v>2.25</v>
       </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -12982,13 +12982,13 @@
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6410322</v>
+        <v>6410319</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,76 +13008,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K141">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L141">
         <v>3.2</v>
       </c>
       <c r="M141">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N141">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O141">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P141">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q141">
         <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
         <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X141">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA141">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC141">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13619,7 +13619,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6409652</v>
+        <v>6410282</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13631,25 +13631,25 @@
         <v>45074.625</v>
       </c>
       <c r="F148" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
         <v>1</v>
-      </c>
-      <c r="I148">
-        <v>2</v>
       </c>
       <c r="J148" t="s">
         <v>50</v>
       </c>
       <c r="K148">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="L148">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M148">
         <v>5.5</v>
@@ -13658,28 +13658,28 @@
         <v>1.363</v>
       </c>
       <c r="O148">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P148">
         <v>7</v>
       </c>
       <c r="Q148">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R148">
+        <v>1.875</v>
+      </c>
+      <c r="S148">
+        <v>1.975</v>
+      </c>
+      <c r="T148">
+        <v>2.5</v>
+      </c>
+      <c r="U148">
+        <v>1.825</v>
+      </c>
+      <c r="V148">
         <v>2.025</v>
-      </c>
-      <c r="S148">
-        <v>1.825</v>
-      </c>
-      <c r="T148">
-        <v>2.75</v>
-      </c>
-      <c r="U148">
-        <v>1.875</v>
-      </c>
-      <c r="V148">
-        <v>1.975</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13694,13 +13694,13 @@
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB148">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13708,7 +13708,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6410282</v>
+        <v>6409652</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13720,25 +13720,25 @@
         <v>45074.625</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
         <v>50</v>
       </c>
       <c r="K149">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="L149">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M149">
         <v>5.5</v>
@@ -13747,28 +13747,28 @@
         <v>1.363</v>
       </c>
       <c r="O149">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P149">
         <v>7</v>
       </c>
       <c r="Q149">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R149">
+        <v>2.025</v>
+      </c>
+      <c r="S149">
+        <v>1.825</v>
+      </c>
+      <c r="T149">
+        <v>2.75</v>
+      </c>
+      <c r="U149">
         <v>1.875</v>
       </c>
-      <c r="S149">
+      <c r="V149">
         <v>1.975</v>
-      </c>
-      <c r="T149">
-        <v>2.5</v>
-      </c>
-      <c r="U149">
-        <v>1.825</v>
-      </c>
-      <c r="V149">
-        <v>2.025</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13783,13 +13783,13 @@
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC149">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -32391,6 +32391,598 @@
       </c>
       <c r="AC358">
         <v>0.875</v>
+      </c>
+    </row>
+    <row r="359" spans="1:29">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>6836260</v>
+      </c>
+      <c r="C359" t="s">
+        <v>28</v>
+      </c>
+      <c r="D359" t="s">
+        <v>28</v>
+      </c>
+      <c r="E359" s="2">
+        <v>45345.5</v>
+      </c>
+      <c r="F359" t="s">
+        <v>34</v>
+      </c>
+      <c r="G359" t="s">
+        <v>33</v>
+      </c>
+      <c r="K359">
+        <v>2.1</v>
+      </c>
+      <c r="L359">
+        <v>3.25</v>
+      </c>
+      <c r="M359">
+        <v>3.6</v>
+      </c>
+      <c r="N359">
+        <v>2.15</v>
+      </c>
+      <c r="O359">
+        <v>3.3</v>
+      </c>
+      <c r="P359">
+        <v>3.4</v>
+      </c>
+      <c r="Q359">
+        <v>-0.25</v>
+      </c>
+      <c r="R359">
+        <v>1.875</v>
+      </c>
+      <c r="S359">
+        <v>1.975</v>
+      </c>
+      <c r="T359">
+        <v>2.25</v>
+      </c>
+      <c r="U359">
+        <v>2.05</v>
+      </c>
+      <c r="V359">
+        <v>1.8</v>
+      </c>
+      <c r="W359">
+        <v>0</v>
+      </c>
+      <c r="X359">
+        <v>0</v>
+      </c>
+      <c r="Y359">
+        <v>0</v>
+      </c>
+      <c r="Z359">
+        <v>0</v>
+      </c>
+      <c r="AA359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:29">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>6836263</v>
+      </c>
+      <c r="C360" t="s">
+        <v>28</v>
+      </c>
+      <c r="D360" t="s">
+        <v>28</v>
+      </c>
+      <c r="E360" s="2">
+        <v>45345.625</v>
+      </c>
+      <c r="F360" t="s">
+        <v>43</v>
+      </c>
+      <c r="G360" t="s">
+        <v>46</v>
+      </c>
+      <c r="K360">
+        <v>1.5</v>
+      </c>
+      <c r="L360">
+        <v>4.1</v>
+      </c>
+      <c r="M360">
+        <v>6.5</v>
+      </c>
+      <c r="N360">
+        <v>1.444</v>
+      </c>
+      <c r="O360">
+        <v>4</v>
+      </c>
+      <c r="P360">
+        <v>8.5</v>
+      </c>
+      <c r="Q360">
+        <v>-1.25</v>
+      </c>
+      <c r="R360">
+        <v>2.025</v>
+      </c>
+      <c r="S360">
+        <v>1.825</v>
+      </c>
+      <c r="T360">
+        <v>2.5</v>
+      </c>
+      <c r="U360">
+        <v>2.05</v>
+      </c>
+      <c r="V360">
+        <v>1.8</v>
+      </c>
+      <c r="W360">
+        <v>0</v>
+      </c>
+      <c r="X360">
+        <v>0</v>
+      </c>
+      <c r="Y360">
+        <v>0</v>
+      </c>
+      <c r="Z360">
+        <v>0</v>
+      </c>
+      <c r="AA360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:29">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>6836261</v>
+      </c>
+      <c r="C361" t="s">
+        <v>28</v>
+      </c>
+      <c r="D361" t="s">
+        <v>28</v>
+      </c>
+      <c r="E361" s="2">
+        <v>45346.375</v>
+      </c>
+      <c r="F361" t="s">
+        <v>37</v>
+      </c>
+      <c r="G361" t="s">
+        <v>38</v>
+      </c>
+      <c r="K361">
+        <v>2.4</v>
+      </c>
+      <c r="L361">
+        <v>3.1</v>
+      </c>
+      <c r="M361">
+        <v>3.1</v>
+      </c>
+      <c r="N361">
+        <v>2.2</v>
+      </c>
+      <c r="O361">
+        <v>3.1</v>
+      </c>
+      <c r="P361">
+        <v>3.4</v>
+      </c>
+      <c r="Q361">
+        <v>-0.25</v>
+      </c>
+      <c r="R361">
+        <v>1.9</v>
+      </c>
+      <c r="S361">
+        <v>1.95</v>
+      </c>
+      <c r="T361">
+        <v>2.25</v>
+      </c>
+      <c r="U361">
+        <v>2.05</v>
+      </c>
+      <c r="V361">
+        <v>1.8</v>
+      </c>
+      <c r="W361">
+        <v>0</v>
+      </c>
+      <c r="X361">
+        <v>0</v>
+      </c>
+      <c r="Y361">
+        <v>0</v>
+      </c>
+      <c r="Z361">
+        <v>0</v>
+      </c>
+      <c r="AA361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:29">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>6836265</v>
+      </c>
+      <c r="C362" t="s">
+        <v>28</v>
+      </c>
+      <c r="D362" t="s">
+        <v>28</v>
+      </c>
+      <c r="E362" s="2">
+        <v>45346.5</v>
+      </c>
+      <c r="F362" t="s">
+        <v>36</v>
+      </c>
+      <c r="G362" t="s">
+        <v>45</v>
+      </c>
+      <c r="K362">
+        <v>1.833</v>
+      </c>
+      <c r="L362">
+        <v>3.4</v>
+      </c>
+      <c r="M362">
+        <v>4.5</v>
+      </c>
+      <c r="N362">
+        <v>1.8</v>
+      </c>
+      <c r="O362">
+        <v>3.4</v>
+      </c>
+      <c r="P362">
+        <v>4.75</v>
+      </c>
+      <c r="Q362">
+        <v>-0.5</v>
+      </c>
+      <c r="R362">
+        <v>1.8</v>
+      </c>
+      <c r="S362">
+        <v>2.05</v>
+      </c>
+      <c r="T362">
+        <v>2.25</v>
+      </c>
+      <c r="U362">
+        <v>2.05</v>
+      </c>
+      <c r="V362">
+        <v>1.8</v>
+      </c>
+      <c r="W362">
+        <v>0</v>
+      </c>
+      <c r="X362">
+        <v>0</v>
+      </c>
+      <c r="Y362">
+        <v>0</v>
+      </c>
+      <c r="Z362">
+        <v>0</v>
+      </c>
+      <c r="AA362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:29">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>6835220</v>
+      </c>
+      <c r="C363" t="s">
+        <v>28</v>
+      </c>
+      <c r="D363" t="s">
+        <v>28</v>
+      </c>
+      <c r="E363" s="2">
+        <v>45346.625</v>
+      </c>
+      <c r="F363" t="s">
+        <v>47</v>
+      </c>
+      <c r="G363" t="s">
+        <v>30</v>
+      </c>
+      <c r="K363">
+        <v>4.2</v>
+      </c>
+      <c r="L363">
+        <v>3.3</v>
+      </c>
+      <c r="M363">
+        <v>1.909</v>
+      </c>
+      <c r="N363">
+        <v>4.2</v>
+      </c>
+      <c r="O363">
+        <v>3.3</v>
+      </c>
+      <c r="P363">
+        <v>1.909</v>
+      </c>
+      <c r="Q363">
+        <v>0.5</v>
+      </c>
+      <c r="R363">
+        <v>1.9</v>
+      </c>
+      <c r="S363">
+        <v>1.95</v>
+      </c>
+      <c r="T363">
+        <v>2.5</v>
+      </c>
+      <c r="U363">
+        <v>1.975</v>
+      </c>
+      <c r="V363">
+        <v>1.875</v>
+      </c>
+      <c r="W363">
+        <v>0</v>
+      </c>
+      <c r="X363">
+        <v>0</v>
+      </c>
+      <c r="Y363">
+        <v>0</v>
+      </c>
+      <c r="Z363">
+        <v>0</v>
+      </c>
+      <c r="AA363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:29">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>6836264</v>
+      </c>
+      <c r="C364" t="s">
+        <v>28</v>
+      </c>
+      <c r="D364" t="s">
+        <v>28</v>
+      </c>
+      <c r="E364" s="2">
+        <v>45347.375</v>
+      </c>
+      <c r="F364" t="s">
+        <v>44</v>
+      </c>
+      <c r="G364" t="s">
+        <v>29</v>
+      </c>
+      <c r="K364">
+        <v>2.25</v>
+      </c>
+      <c r="L364">
+        <v>3.2</v>
+      </c>
+      <c r="M364">
+        <v>3.25</v>
+      </c>
+      <c r="N364">
+        <v>2.2</v>
+      </c>
+      <c r="O364">
+        <v>3.2</v>
+      </c>
+      <c r="P364">
+        <v>3.4</v>
+      </c>
+      <c r="Q364">
+        <v>-0.25</v>
+      </c>
+      <c r="R364">
+        <v>1.9</v>
+      </c>
+      <c r="S364">
+        <v>1.95</v>
+      </c>
+      <c r="T364">
+        <v>2.25</v>
+      </c>
+      <c r="U364">
+        <v>1.85</v>
+      </c>
+      <c r="V364">
+        <v>2</v>
+      </c>
+      <c r="W364">
+        <v>0</v>
+      </c>
+      <c r="X364">
+        <v>0</v>
+      </c>
+      <c r="Y364">
+        <v>0</v>
+      </c>
+      <c r="Z364">
+        <v>0</v>
+      </c>
+      <c r="AA364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:29">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>6836262</v>
+      </c>
+      <c r="C365" t="s">
+        <v>28</v>
+      </c>
+      <c r="D365" t="s">
+        <v>28</v>
+      </c>
+      <c r="E365" s="2">
+        <v>45347.625</v>
+      </c>
+      <c r="F365" t="s">
+        <v>41</v>
+      </c>
+      <c r="G365" t="s">
+        <v>32</v>
+      </c>
+      <c r="K365">
+        <v>1.363</v>
+      </c>
+      <c r="L365">
+        <v>4.75</v>
+      </c>
+      <c r="M365">
+        <v>8.5</v>
+      </c>
+      <c r="N365">
+        <v>1.333</v>
+      </c>
+      <c r="O365">
+        <v>4.75</v>
+      </c>
+      <c r="P365">
+        <v>10</v>
+      </c>
+      <c r="Q365">
+        <v>-1.5</v>
+      </c>
+      <c r="R365">
+        <v>2.05</v>
+      </c>
+      <c r="S365">
+        <v>1.8</v>
+      </c>
+      <c r="T365">
+        <v>2.5</v>
+      </c>
+      <c r="U365">
+        <v>1.975</v>
+      </c>
+      <c r="V365">
+        <v>1.875</v>
+      </c>
+      <c r="W365">
+        <v>0</v>
+      </c>
+      <c r="X365">
+        <v>0</v>
+      </c>
+      <c r="Y365">
+        <v>0</v>
+      </c>
+      <c r="Z365">
+        <v>0</v>
+      </c>
+      <c r="AA365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:29">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>6835795</v>
+      </c>
+      <c r="C366" t="s">
+        <v>28</v>
+      </c>
+      <c r="D366" t="s">
+        <v>28</v>
+      </c>
+      <c r="E366" s="2">
+        <v>45348.625</v>
+      </c>
+      <c r="F366" t="s">
+        <v>39</v>
+      </c>
+      <c r="G366" t="s">
+        <v>42</v>
+      </c>
+      <c r="K366">
+        <v>1.533</v>
+      </c>
+      <c r="L366">
+        <v>4.1</v>
+      </c>
+      <c r="M366">
+        <v>6</v>
+      </c>
+      <c r="N366">
+        <v>1.533</v>
+      </c>
+      <c r="O366">
+        <v>4.2</v>
+      </c>
+      <c r="P366">
+        <v>6</v>
+      </c>
+      <c r="Q366">
+        <v>-1</v>
+      </c>
+      <c r="R366">
+        <v>1.975</v>
+      </c>
+      <c r="S366">
+        <v>1.875</v>
+      </c>
+      <c r="T366">
+        <v>2.25</v>
+      </c>
+      <c r="U366">
+        <v>1.8</v>
+      </c>
+      <c r="V366">
+        <v>2.05</v>
+      </c>
+      <c r="W366">
+        <v>0</v>
+      </c>
+      <c r="X366">
+        <v>0</v>
+      </c>
+      <c r="Y366">
+        <v>0</v>
+      </c>
+      <c r="Z366">
+        <v>0</v>
+      </c>
+      <c r="AA366">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -6588,7 +6588,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5240692</v>
+        <v>5240690</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6600,10 +6600,10 @@
         <v>44997.66666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6615,43 +6615,43 @@
         <v>48</v>
       </c>
       <c r="K69">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="L69">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M69">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N69">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="O69">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S69">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V69">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W69">
-        <v>1.875</v>
+        <v>0.833</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6660,7 +6660,7 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA69">
         <v>-1</v>
@@ -6669,7 +6669,7 @@
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6677,7 +6677,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5240690</v>
+        <v>5240692</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6689,10 +6689,10 @@
         <v>44997.66666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6704,43 +6704,43 @@
         <v>48</v>
       </c>
       <c r="K70">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="L70">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M70">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N70">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="O70">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P70">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R70">
+        <v>2.1</v>
+      </c>
+      <c r="S70">
+        <v>1.775</v>
+      </c>
+      <c r="T70">
+        <v>2</v>
+      </c>
+      <c r="U70">
+        <v>2</v>
+      </c>
+      <c r="V70">
         <v>1.85</v>
       </c>
-      <c r="S70">
-        <v>2</v>
-      </c>
-      <c r="T70">
-        <v>2.5</v>
-      </c>
-      <c r="U70">
-        <v>1.95</v>
-      </c>
-      <c r="V70">
-        <v>1.9</v>
-      </c>
       <c r="W70">
-        <v>0.833</v>
+        <v>1.875</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6749,16 +6749,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
+        <v>1.1</v>
+      </c>
+      <c r="AA70">
+        <v>-1</v>
+      </c>
+      <c r="AB70">
+        <v>-1</v>
+      </c>
+      <c r="AC70">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA70">
-        <v>-1</v>
-      </c>
-      <c r="AB70">
-        <v>-1</v>
-      </c>
-      <c r="AC70">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6410322</v>
+        <v>6410319</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,76 +12919,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L140">
         <v>3.2</v>
       </c>
       <c r="M140">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N140">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O140">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P140">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q140">
         <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T140">
         <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V140">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X140">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA140">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC140">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6410319</v>
+        <v>6410322</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,76 +13008,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K141">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L141">
         <v>3.2</v>
       </c>
       <c r="M141">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N141">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O141">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P141">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q141">
         <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T141">
         <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V141">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W141">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB141">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -32425,31 +32425,31 @@
         <v>3.6</v>
       </c>
       <c r="N359">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O359">
         <v>3.3</v>
       </c>
       <c r="P359">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q359">
         <v>-0.25</v>
       </c>
       <c r="R359">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S359">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T359">
         <v>2.25</v>
       </c>
       <c r="U359">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V359">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W359">
         <v>0</v>
@@ -32511,19 +32511,19 @@
         <v>-1.25</v>
       </c>
       <c r="R360">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S360">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T360">
         <v>2.5</v>
       </c>
       <c r="U360">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V360">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W360">
         <v>0</v>
@@ -32573,7 +32573,7 @@
         <v>3.1</v>
       </c>
       <c r="N361">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O361">
         <v>3.1</v>
@@ -32585,19 +32585,19 @@
         <v>-0.25</v>
       </c>
       <c r="R361">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S361">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T361">
         <v>2.25</v>
       </c>
       <c r="U361">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V361">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W361">
         <v>0</v>
@@ -32668,10 +32668,10 @@
         <v>2.25</v>
       </c>
       <c r="U362">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V362">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W362">
         <v>0</v>
@@ -32733,10 +32733,10 @@
         <v>0.5</v>
       </c>
       <c r="R363">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S363">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T363">
         <v>2.5</v>
@@ -32943,31 +32943,31 @@
         <v>6</v>
       </c>
       <c r="N366">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="O366">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P366">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="Q366">
         <v>-1</v>
       </c>
       <c r="R366">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S366">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T366">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U366">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V366">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W366">
         <v>0</v>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6410318</v>
+        <v>6410319</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,73 +12830,73 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L139">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M139">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N139">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O139">
         <v>3.5</v>
       </c>
       <c r="P139">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q139">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R139">
+        <v>1.825</v>
+      </c>
+      <c r="S139">
         <v>2.025</v>
-      </c>
-      <c r="S139">
-        <v>1.825</v>
       </c>
       <c r="T139">
         <v>2.25</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V139">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X139">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA139">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6410319</v>
+        <v>6410322</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,76 +12919,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L140">
         <v>3.2</v>
       </c>
       <c r="M140">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N140">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O140">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P140">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q140">
         <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S140">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T140">
         <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V140">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W140">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB140">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6410322</v>
+        <v>6410318</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,61 +13008,61 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>49</v>
       </c>
       <c r="K141">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L141">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M141">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N141">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O141">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P141">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S141">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T141">
         <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Y141">
         <v>-1</v>
@@ -13071,13 +13071,13 @@
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB141">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC141">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13619,7 +13619,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6410282</v>
+        <v>6409652</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13631,25 +13631,25 @@
         <v>45074.625</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G148" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J148" t="s">
         <v>50</v>
       </c>
       <c r="K148">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="L148">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M148">
         <v>5.5</v>
@@ -13658,28 +13658,28 @@
         <v>1.363</v>
       </c>
       <c r="O148">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P148">
         <v>7</v>
       </c>
       <c r="Q148">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R148">
+        <v>2.025</v>
+      </c>
+      <c r="S148">
+        <v>1.825</v>
+      </c>
+      <c r="T148">
+        <v>2.75</v>
+      </c>
+      <c r="U148">
         <v>1.875</v>
       </c>
-      <c r="S148">
+      <c r="V148">
         <v>1.975</v>
-      </c>
-      <c r="T148">
-        <v>2.5</v>
-      </c>
-      <c r="U148">
-        <v>1.825</v>
-      </c>
-      <c r="V148">
-        <v>2.025</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13694,13 +13694,13 @@
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC148">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13708,7 +13708,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6409652</v>
+        <v>6410282</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13720,25 +13720,25 @@
         <v>45074.625</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
         <v>1</v>
-      </c>
-      <c r="I149">
-        <v>2</v>
       </c>
       <c r="J149" t="s">
         <v>50</v>
       </c>
       <c r="K149">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="L149">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M149">
         <v>5.5</v>
@@ -13747,28 +13747,28 @@
         <v>1.363</v>
       </c>
       <c r="O149">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P149">
         <v>7</v>
       </c>
       <c r="Q149">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R149">
+        <v>1.875</v>
+      </c>
+      <c r="S149">
+        <v>1.975</v>
+      </c>
+      <c r="T149">
+        <v>2.5</v>
+      </c>
+      <c r="U149">
+        <v>1.825</v>
+      </c>
+      <c r="V149">
         <v>2.025</v>
-      </c>
-      <c r="S149">
-        <v>1.825</v>
-      </c>
-      <c r="T149">
-        <v>2.75</v>
-      </c>
-      <c r="U149">
-        <v>1.875</v>
-      </c>
-      <c r="V149">
-        <v>1.975</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13783,13 +13783,13 @@
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB149">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -32431,7 +32431,7 @@
         <v>3.3</v>
       </c>
       <c r="P359">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q359">
         <v>-0.25</v>
@@ -32443,13 +32443,13 @@
         <v>2.05</v>
       </c>
       <c r="T359">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U359">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V359">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W359">
         <v>0</v>
@@ -32499,31 +32499,31 @@
         <v>6.5</v>
       </c>
       <c r="N360">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="O360">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P360">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q360">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R360">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S360">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T360">
         <v>2.5</v>
       </c>
       <c r="U360">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V360">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W360">
         <v>0</v>
@@ -32585,10 +32585,10 @@
         <v>-0.25</v>
       </c>
       <c r="R361">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S361">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T361">
         <v>2.25</v>
@@ -32721,31 +32721,31 @@
         <v>1.909</v>
       </c>
       <c r="N363">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O363">
         <v>3.3</v>
       </c>
       <c r="P363">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="Q363">
         <v>0.5</v>
       </c>
       <c r="R363">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S363">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T363">
         <v>2.5</v>
       </c>
       <c r="U363">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V363">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W363">
         <v>0</v>
@@ -32795,22 +32795,22 @@
         <v>3.25</v>
       </c>
       <c r="N364">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O364">
         <v>3.2</v>
       </c>
       <c r="P364">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q364">
         <v>-0.25</v>
       </c>
       <c r="R364">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S364">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T364">
         <v>2.25</v>
@@ -32881,19 +32881,19 @@
         <v>-1.5</v>
       </c>
       <c r="R365">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S365">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T365">
         <v>2.5</v>
       </c>
       <c r="U365">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V365">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W365">
         <v>0</v>
@@ -32955,10 +32955,10 @@
         <v>-1</v>
       </c>
       <c r="R366">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S366">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T366">
         <v>2.5</v>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6410319</v>
+        <v>6410322</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,76 +12830,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K139">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L139">
         <v>3.2</v>
       </c>
       <c r="M139">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N139">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O139">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P139">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q139">
         <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S139">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T139">
         <v>2.25</v>
       </c>
       <c r="U139">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W139">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB139">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6410322</v>
+        <v>6410319</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,76 +12919,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L140">
         <v>3.2</v>
       </c>
       <c r="M140">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N140">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O140">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P140">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q140">
         <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T140">
         <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V140">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X140">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA140">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC140">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -32415,6 +32415,15 @@
       <c r="G359" t="s">
         <v>33</v>
       </c>
+      <c r="H359">
+        <v>1</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359" t="s">
+        <v>48</v>
+      </c>
       <c r="K359">
         <v>2.1</v>
       </c>
@@ -32425,46 +32434,52 @@
         <v>3.6</v>
       </c>
       <c r="N359">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O359">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P359">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q359">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R359">
+        <v>1.9</v>
+      </c>
+      <c r="S359">
+        <v>1.95</v>
+      </c>
+      <c r="T359">
+        <v>2.25</v>
+      </c>
+      <c r="U359">
+        <v>2.05</v>
+      </c>
+      <c r="V359">
         <v>1.8</v>
       </c>
-      <c r="S359">
-        <v>2.05</v>
-      </c>
-      <c r="T359">
-        <v>2</v>
-      </c>
-      <c r="U359">
-        <v>1.8</v>
-      </c>
-      <c r="V359">
-        <v>2.05</v>
-      </c>
       <c r="W359">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X359">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y359">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z359">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA359">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB359">
+        <v>-1</v>
+      </c>
+      <c r="AC359">
+        <v>0.8</v>
       </c>
     </row>
     <row r="360" spans="1:29">
@@ -32489,6 +32504,15 @@
       <c r="G360" t="s">
         <v>46</v>
       </c>
+      <c r="H360">
+        <v>4</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360" t="s">
+        <v>48</v>
+      </c>
       <c r="K360">
         <v>1.5</v>
       </c>
@@ -32499,46 +32523,52 @@
         <v>6.5</v>
       </c>
       <c r="N360">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="O360">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P360">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Q360">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R360">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S360">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T360">
         <v>2.5</v>
       </c>
       <c r="U360">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V360">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W360">
-        <v>0</v>
+        <v>0.444</v>
       </c>
       <c r="X360">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y360">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA360">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB360">
+        <v>0.875</v>
+      </c>
+      <c r="AC360">
+        <v>-1</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32594,10 +32624,10 @@
         <v>2.25</v>
       </c>
       <c r="U361">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V361">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W361">
         <v>0</v>
@@ -32659,19 +32689,19 @@
         <v>-0.5</v>
       </c>
       <c r="R362">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S362">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T362">
         <v>2.25</v>
       </c>
       <c r="U362">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V362">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W362">
         <v>0</v>
@@ -32733,19 +32763,19 @@
         <v>0.5</v>
       </c>
       <c r="R363">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S363">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T363">
         <v>2.5</v>
       </c>
       <c r="U363">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V363">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W363">
         <v>0</v>
@@ -32881,10 +32911,10 @@
         <v>-1.5</v>
       </c>
       <c r="R365">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S365">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T365">
         <v>2.5</v>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC366"/>
+  <dimension ref="A1:AC365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32576,7 +32576,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>6836261</v>
+        <v>6836265</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32585,40 +32585,40 @@
         <v>28</v>
       </c>
       <c r="E361" s="2">
-        <v>45346.375</v>
+        <v>45346.5</v>
       </c>
       <c r="F361" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G361" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K361">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L361">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M361">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N361">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O361">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P361">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q361">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R361">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S361">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T361">
         <v>2.25</v>
@@ -32650,7 +32650,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>6836265</v>
+        <v>6835220</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32659,49 +32659,49 @@
         <v>28</v>
       </c>
       <c r="E362" s="2">
-        <v>45346.5</v>
+        <v>45346.625</v>
       </c>
       <c r="F362" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G362" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K362">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="L362">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M362">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="N362">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="O362">
         <v>3.4</v>
       </c>
       <c r="P362">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q362">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R362">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S362">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T362">
         <v>2.25</v>
       </c>
       <c r="U362">
+        <v>1.8</v>
+      </c>
+      <c r="V362">
         <v>2.05</v>
-      </c>
-      <c r="V362">
-        <v>1.8</v>
       </c>
       <c r="W362">
         <v>0</v>
@@ -32724,7 +32724,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>6835220</v>
+        <v>6836264</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32733,49 +32733,49 @@
         <v>28</v>
       </c>
       <c r="E363" s="2">
-        <v>45346.625</v>
+        <v>45347.375</v>
       </c>
       <c r="F363" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G363" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K363">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="L363">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M363">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="N363">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O363">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P363">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="Q363">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R363">
+        <v>1.9</v>
+      </c>
+      <c r="S363">
+        <v>1.95</v>
+      </c>
+      <c r="T363">
+        <v>2.25</v>
+      </c>
+      <c r="U363">
         <v>1.85</v>
       </c>
-      <c r="S363">
-        <v>2</v>
-      </c>
-      <c r="T363">
-        <v>2.5</v>
-      </c>
-      <c r="U363">
-        <v>1.975</v>
-      </c>
       <c r="V363">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W363">
         <v>0</v>
@@ -32798,7 +32798,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6836264</v>
+        <v>6836262</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32807,49 +32807,49 @@
         <v>28</v>
       </c>
       <c r="E364" s="2">
-        <v>45347.375</v>
+        <v>45347.625</v>
       </c>
       <c r="F364" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G364" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K364">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="L364">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M364">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="N364">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="O364">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P364">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="Q364">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R364">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S364">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T364">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U364">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V364">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W364">
         <v>0</v>
@@ -32872,7 +32872,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6836262</v>
+        <v>6835795</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32881,49 +32881,49 @@
         <v>28</v>
       </c>
       <c r="E365" s="2">
-        <v>45347.625</v>
+        <v>45348.625</v>
       </c>
       <c r="F365" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G365" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K365">
-        <v>1.363</v>
+        <v>1.533</v>
       </c>
       <c r="L365">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="M365">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="N365">
-        <v>1.333</v>
+        <v>1.55</v>
       </c>
       <c r="O365">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P365">
-        <v>10</v>
+        <v>5.75</v>
       </c>
       <c r="Q365">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R365">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S365">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T365">
         <v>2.5</v>
       </c>
       <c r="U365">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V365">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W365">
         <v>0</v>
@@ -32938,80 +32938,6 @@
         <v>0</v>
       </c>
       <c r="AA365">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:29">
-      <c r="A366" s="1">
-        <v>364</v>
-      </c>
-      <c r="B366">
-        <v>6835795</v>
-      </c>
-      <c r="C366" t="s">
-        <v>28</v>
-      </c>
-      <c r="D366" t="s">
-        <v>28</v>
-      </c>
-      <c r="E366" s="2">
-        <v>45348.625</v>
-      </c>
-      <c r="F366" t="s">
-        <v>39</v>
-      </c>
-      <c r="G366" t="s">
-        <v>42</v>
-      </c>
-      <c r="K366">
-        <v>1.533</v>
-      </c>
-      <c r="L366">
-        <v>4.1</v>
-      </c>
-      <c r="M366">
-        <v>6</v>
-      </c>
-      <c r="N366">
-        <v>1.55</v>
-      </c>
-      <c r="O366">
-        <v>4</v>
-      </c>
-      <c r="P366">
-        <v>5.75</v>
-      </c>
-      <c r="Q366">
-        <v>-1</v>
-      </c>
-      <c r="R366">
-        <v>1.95</v>
-      </c>
-      <c r="S366">
-        <v>1.9</v>
-      </c>
-      <c r="T366">
-        <v>2.5</v>
-      </c>
-      <c r="U366">
-        <v>2</v>
-      </c>
-      <c r="V366">
-        <v>1.85</v>
-      </c>
-      <c r="W366">
-        <v>0</v>
-      </c>
-      <c r="X366">
-        <v>0</v>
-      </c>
-      <c r="Y366">
-        <v>0</v>
-      </c>
-      <c r="Z366">
-        <v>0</v>
-      </c>
-      <c r="AA366">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC365"/>
+  <dimension ref="A1:AC369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12818,7 +12818,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6410322</v>
+        <v>6410319</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12830,76 +12830,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L139">
         <v>3.2</v>
       </c>
       <c r="M139">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N139">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O139">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P139">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q139">
         <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T139">
         <v>2.25</v>
       </c>
       <c r="U139">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V139">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X139">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA139">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC139">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6410319</v>
+        <v>6410322</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,76 +12919,76 @@
         <v>45065.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L140">
         <v>3.2</v>
       </c>
       <c r="M140">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N140">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O140">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P140">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q140">
         <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S140">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T140">
         <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V140">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W140">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB140">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13619,7 +13619,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6409652</v>
+        <v>6410282</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13631,25 +13631,25 @@
         <v>45074.625</v>
       </c>
       <c r="F148" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
         <v>1</v>
-      </c>
-      <c r="I148">
-        <v>2</v>
       </c>
       <c r="J148" t="s">
         <v>50</v>
       </c>
       <c r="K148">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="L148">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M148">
         <v>5.5</v>
@@ -13658,28 +13658,28 @@
         <v>1.363</v>
       </c>
       <c r="O148">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P148">
         <v>7</v>
       </c>
       <c r="Q148">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R148">
+        <v>1.875</v>
+      </c>
+      <c r="S148">
+        <v>1.975</v>
+      </c>
+      <c r="T148">
+        <v>2.5</v>
+      </c>
+      <c r="U148">
+        <v>1.825</v>
+      </c>
+      <c r="V148">
         <v>2.025</v>
-      </c>
-      <c r="S148">
-        <v>1.825</v>
-      </c>
-      <c r="T148">
-        <v>2.75</v>
-      </c>
-      <c r="U148">
-        <v>1.875</v>
-      </c>
-      <c r="V148">
-        <v>1.975</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13694,13 +13694,13 @@
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB148">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13708,7 +13708,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6410282</v>
+        <v>6409652</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13720,25 +13720,25 @@
         <v>45074.625</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
         <v>50</v>
       </c>
       <c r="K149">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="L149">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M149">
         <v>5.5</v>
@@ -13747,28 +13747,28 @@
         <v>1.363</v>
       </c>
       <c r="O149">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P149">
         <v>7</v>
       </c>
       <c r="Q149">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R149">
+        <v>2.025</v>
+      </c>
+      <c r="S149">
+        <v>1.825</v>
+      </c>
+      <c r="T149">
+        <v>2.75</v>
+      </c>
+      <c r="U149">
         <v>1.875</v>
       </c>
-      <c r="S149">
+      <c r="V149">
         <v>1.975</v>
-      </c>
-      <c r="T149">
-        <v>2.5</v>
-      </c>
-      <c r="U149">
-        <v>1.825</v>
-      </c>
-      <c r="V149">
-        <v>2.025</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13783,13 +13783,13 @@
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC149">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -32576,7 +32576,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>6836265</v>
+        <v>6836261</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32585,64 +32585,79 @@
         <v>28</v>
       </c>
       <c r="E361" s="2">
-        <v>45346.5</v>
+        <v>45346.375</v>
       </c>
       <c r="F361" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G361" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="H361">
+        <v>1</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361" t="s">
+        <v>48</v>
       </c>
       <c r="K361">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L361">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M361">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N361">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O361">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P361">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q361">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R361">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S361">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T361">
         <v>2.25</v>
       </c>
       <c r="U361">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V361">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W361">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X361">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y361">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z361">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA361">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB361">
+        <v>-1</v>
+      </c>
+      <c r="AC361">
+        <v>0.875</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -32650,7 +32665,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>6835220</v>
+        <v>6836265</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32659,34 +32674,43 @@
         <v>28</v>
       </c>
       <c r="E362" s="2">
-        <v>45346.625</v>
+        <v>45346.5</v>
       </c>
       <c r="F362" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G362" t="s">
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="H362">
+        <v>1</v>
+      </c>
+      <c r="I362">
+        <v>1</v>
+      </c>
+      <c r="J362" t="s">
+        <v>49</v>
       </c>
       <c r="K362">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="L362">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M362">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N362">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="O362">
         <v>3.4</v>
       </c>
       <c r="P362">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q362">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R362">
         <v>2.05</v>
@@ -32698,25 +32722,31 @@
         <v>2.25</v>
       </c>
       <c r="U362">
+        <v>2.05</v>
+      </c>
+      <c r="V362">
         <v>1.8</v>
       </c>
-      <c r="V362">
-        <v>2.05</v>
-      </c>
       <c r="W362">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X362">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y362">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z362">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA362">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB362">
+        <v>-0.5</v>
+      </c>
+      <c r="AC362">
+        <v>0.4</v>
       </c>
     </row>
     <row r="363" spans="1:29">
@@ -32724,7 +32754,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>6836264</v>
+        <v>6835220</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32733,64 +32763,79 @@
         <v>28</v>
       </c>
       <c r="E363" s="2">
-        <v>45347.375</v>
+        <v>45346.625</v>
       </c>
       <c r="F363" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G363" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="H363">
+        <v>3</v>
+      </c>
+      <c r="I363">
+        <v>1</v>
+      </c>
+      <c r="J363" t="s">
+        <v>48</v>
       </c>
       <c r="K363">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="L363">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M363">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="N363">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="O363">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P363">
-        <v>3.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q363">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R363">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S363">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T363">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U363">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V363">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W363">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="X363">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y363">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z363">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA363">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB363">
+        <v>1.05</v>
+      </c>
+      <c r="AC363">
+        <v>-1</v>
       </c>
     </row>
     <row r="364" spans="1:29">
@@ -32798,7 +32843,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6836262</v>
+        <v>6836264</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32807,49 +32852,49 @@
         <v>28</v>
       </c>
       <c r="E364" s="2">
-        <v>45347.625</v>
+        <v>45347.375</v>
       </c>
       <c r="F364" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G364" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K364">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="L364">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M364">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="N364">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O364">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P364">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="Q364">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R364">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S364">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T364">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U364">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V364">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W364">
         <v>0</v>
@@ -32872,7 +32917,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6835795</v>
+        <v>6836262</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32881,63 +32926,359 @@
         <v>28</v>
       </c>
       <c r="E365" s="2">
-        <v>45348.625</v>
+        <v>45347.625</v>
       </c>
       <c r="F365" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G365" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K365">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="L365">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="M365">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="N365">
-        <v>1.55</v>
+        <v>1.333</v>
       </c>
       <c r="O365">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P365">
-        <v>5.75</v>
+        <v>10</v>
       </c>
       <c r="Q365">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R365">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S365">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T365">
         <v>2.5</v>
       </c>
       <c r="U365">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V365">
+        <v>1.975</v>
+      </c>
+      <c r="W365">
+        <v>0</v>
+      </c>
+      <c r="X365">
+        <v>0</v>
+      </c>
+      <c r="Y365">
+        <v>0</v>
+      </c>
+      <c r="Z365">
+        <v>0</v>
+      </c>
+      <c r="AA365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:29">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>6835795</v>
+      </c>
+      <c r="C366" t="s">
+        <v>28</v>
+      </c>
+      <c r="D366" t="s">
+        <v>28</v>
+      </c>
+      <c r="E366" s="2">
+        <v>45348.625</v>
+      </c>
+      <c r="F366" t="s">
+        <v>39</v>
+      </c>
+      <c r="G366" t="s">
+        <v>42</v>
+      </c>
+      <c r="K366">
+        <v>1.533</v>
+      </c>
+      <c r="L366">
+        <v>4.1</v>
+      </c>
+      <c r="M366">
+        <v>6</v>
+      </c>
+      <c r="N366">
+        <v>1.55</v>
+      </c>
+      <c r="O366">
+        <v>4</v>
+      </c>
+      <c r="P366">
+        <v>5.75</v>
+      </c>
+      <c r="Q366">
+        <v>-1</v>
+      </c>
+      <c r="R366">
+        <v>1.925</v>
+      </c>
+      <c r="S366">
+        <v>1.925</v>
+      </c>
+      <c r="T366">
+        <v>2.5</v>
+      </c>
+      <c r="U366">
+        <v>2</v>
+      </c>
+      <c r="V366">
         <v>1.85</v>
       </c>
-      <c r="W365">
-        <v>0</v>
-      </c>
-      <c r="X365">
-        <v>0</v>
-      </c>
-      <c r="Y365">
-        <v>0</v>
-      </c>
-      <c r="Z365">
-        <v>0</v>
-      </c>
-      <c r="AA365">
+      <c r="W366">
+        <v>0</v>
+      </c>
+      <c r="X366">
+        <v>0</v>
+      </c>
+      <c r="Y366">
+        <v>0</v>
+      </c>
+      <c r="Z366">
+        <v>0</v>
+      </c>
+      <c r="AA366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:29">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>6836267</v>
+      </c>
+      <c r="C367" t="s">
+        <v>28</v>
+      </c>
+      <c r="D367" t="s">
+        <v>28</v>
+      </c>
+      <c r="E367" s="2">
+        <v>45349.46875</v>
+      </c>
+      <c r="F367" t="s">
+        <v>33</v>
+      </c>
+      <c r="G367" t="s">
+        <v>47</v>
+      </c>
+      <c r="K367">
+        <v>1.615</v>
+      </c>
+      <c r="L367">
+        <v>4</v>
+      </c>
+      <c r="M367">
+        <v>4.5</v>
+      </c>
+      <c r="N367">
+        <v>1.8</v>
+      </c>
+      <c r="O367">
+        <v>3.6</v>
+      </c>
+      <c r="P367">
+        <v>3.6</v>
+      </c>
+      <c r="Q367">
+        <v>-0.5</v>
+      </c>
+      <c r="R367">
+        <v>1.85</v>
+      </c>
+      <c r="S367">
+        <v>2</v>
+      </c>
+      <c r="T367">
+        <v>2.5</v>
+      </c>
+      <c r="U367">
+        <v>1.925</v>
+      </c>
+      <c r="V367">
+        <v>1.925</v>
+      </c>
+      <c r="W367">
+        <v>0</v>
+      </c>
+      <c r="X367">
+        <v>0</v>
+      </c>
+      <c r="Y367">
+        <v>0</v>
+      </c>
+      <c r="Z367">
+        <v>0</v>
+      </c>
+      <c r="AA367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:29">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>6836266</v>
+      </c>
+      <c r="C368" t="s">
+        <v>28</v>
+      </c>
+      <c r="D368" t="s">
+        <v>28</v>
+      </c>
+      <c r="E368" s="2">
+        <v>45349.5625</v>
+      </c>
+      <c r="F368" t="s">
+        <v>46</v>
+      </c>
+      <c r="G368" t="s">
+        <v>34</v>
+      </c>
+      <c r="K368">
+        <v>2.3</v>
+      </c>
+      <c r="L368">
+        <v>3</v>
+      </c>
+      <c r="M368">
+        <v>3.2</v>
+      </c>
+      <c r="N368">
+        <v>2.3</v>
+      </c>
+      <c r="O368">
+        <v>3</v>
+      </c>
+      <c r="P368">
+        <v>3.1</v>
+      </c>
+      <c r="Q368">
+        <v>-0.25</v>
+      </c>
+      <c r="R368">
+        <v>2.025</v>
+      </c>
+      <c r="S368">
+        <v>1.825</v>
+      </c>
+      <c r="T368">
+        <v>2</v>
+      </c>
+      <c r="U368">
+        <v>1.775</v>
+      </c>
+      <c r="V368">
+        <v>2.1</v>
+      </c>
+      <c r="W368">
+        <v>0</v>
+      </c>
+      <c r="X368">
+        <v>0</v>
+      </c>
+      <c r="Y368">
+        <v>0</v>
+      </c>
+      <c r="Z368">
+        <v>0</v>
+      </c>
+      <c r="AA368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:27">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>6836271</v>
+      </c>
+      <c r="C369" t="s">
+        <v>28</v>
+      </c>
+      <c r="D369" t="s">
+        <v>28</v>
+      </c>
+      <c r="E369" s="2">
+        <v>45349.66666666666</v>
+      </c>
+      <c r="F369" t="s">
+        <v>45</v>
+      </c>
+      <c r="G369" t="s">
+        <v>43</v>
+      </c>
+      <c r="K369">
+        <v>4.2</v>
+      </c>
+      <c r="L369">
+        <v>3.4</v>
+      </c>
+      <c r="M369">
+        <v>1.8</v>
+      </c>
+      <c r="N369">
+        <v>4.5</v>
+      </c>
+      <c r="O369">
+        <v>3.4</v>
+      </c>
+      <c r="P369">
+        <v>1.75</v>
+      </c>
+      <c r="Q369">
+        <v>0.75</v>
+      </c>
+      <c r="R369">
+        <v>1.8</v>
+      </c>
+      <c r="S369">
+        <v>2.05</v>
+      </c>
+      <c r="T369">
+        <v>2.25</v>
+      </c>
+      <c r="U369">
+        <v>2</v>
+      </c>
+      <c r="V369">
+        <v>1.85</v>
+      </c>
+      <c r="W369">
+        <v>0</v>
+      </c>
+      <c r="X369">
+        <v>0</v>
+      </c>
+      <c r="Y369">
+        <v>0</v>
+      </c>
+      <c r="Z369">
+        <v>0</v>
+      </c>
+      <c r="AA369">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -19857,6 +19857,15 @@
       <c r="G218" t="s">
         <v>35</v>
       </c>
+      <c r="H218">
+        <v>2</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218" t="s">
+        <v>45</v>
+      </c>
       <c r="K218">
         <v>1.533</v>
       </c>
@@ -19867,46 +19876,52 @@
         <v>6</v>
       </c>
       <c r="N218">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="O218">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P218">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q218">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R218">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S218">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T218">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U218">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V218">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W218">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA218">
-        <v>0</v>
+        <v>0.4875</v>
+      </c>
+      <c r="AB218">
+        <v>0.4875</v>
+      </c>
+      <c r="AC218">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19941,31 +19956,31 @@
         <v>4.5</v>
       </c>
       <c r="N219">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="O219">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P219">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q219">
         <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S219">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T219">
         <v>2.5</v>
       </c>
       <c r="U219">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V219">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W219">
         <v>0</v>
@@ -20015,31 +20030,31 @@
         <v>3.2</v>
       </c>
       <c r="N220">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O220">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P220">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R220">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S220">
+        <v>2.025</v>
+      </c>
+      <c r="T220">
+        <v>2</v>
+      </c>
+      <c r="U220">
         <v>1.85</v>
       </c>
-      <c r="T220">
-        <v>2</v>
-      </c>
-      <c r="U220">
-        <v>1.8</v>
-      </c>
       <c r="V220">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W220">
         <v>0</v>
@@ -20089,22 +20104,22 @@
         <v>1.8</v>
       </c>
       <c r="N221">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O221">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P221">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="Q221">
         <v>0.75</v>
       </c>
       <c r="R221">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S221">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T221">
         <v>2.25</v>
@@ -20175,19 +20190,19 @@
         <v>-0.25</v>
       </c>
       <c r="R222">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S222">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T222">
         <v>2.25</v>
       </c>
       <c r="U222">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V222">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W222">
         <v>0</v>
@@ -20249,10 +20264,10 @@
         <v>-0.75</v>
       </c>
       <c r="R223">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S223">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T223">
         <v>2.5</v>
@@ -20311,31 +20326,31 @@
         <v>2.2</v>
       </c>
       <c r="N224">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O224">
         <v>3.1</v>
       </c>
       <c r="P224">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="Q224">
         <v>0.5</v>
       </c>
       <c r="R224">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S224">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T224">
         <v>2.25</v>
       </c>
       <c r="U224">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V224">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W224">
         <v>0</v>
@@ -20385,31 +20400,31 @@
         <v>2.4</v>
       </c>
       <c r="N225">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="O225">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P225">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q225">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R225">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S225">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T225">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U225">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V225">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W225">
         <v>0</v>
@@ -20459,22 +20474,22 @@
         <v>1.833</v>
       </c>
       <c r="N226">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O226">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P226">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q226">
         <v>0.5</v>
       </c>
       <c r="R226">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S226">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T226">
         <v>2.25</v>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC226"/>
+  <dimension ref="A1:AC230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19946,6 +19946,15 @@
       <c r="G219" t="s">
         <v>41</v>
       </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219" t="s">
+        <v>46</v>
+      </c>
       <c r="K219">
         <v>1.615</v>
       </c>
@@ -19956,46 +19965,52 @@
         <v>4.5</v>
       </c>
       <c r="N219">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O219">
         <v>3.5</v>
       </c>
       <c r="P219">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q219">
         <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S219">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T219">
         <v>2.5</v>
       </c>
       <c r="U219">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V219">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X219">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB219">
+        <v>-1</v>
+      </c>
+      <c r="AC219">
+        <v>0.925</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20020,6 +20035,15 @@
       <c r="G220" t="s">
         <v>32</v>
       </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220" t="s">
+        <v>45</v>
+      </c>
       <c r="K220">
         <v>2.3</v>
       </c>
@@ -20030,46 +20054,52 @@
         <v>3.2</v>
       </c>
       <c r="N220">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="O220">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P220">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q220">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R220">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S220">
-        <v>2.025</v>
+        <v>2.125</v>
       </c>
       <c r="T220">
         <v>2</v>
       </c>
       <c r="U220">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V220">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W220">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA220">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB220">
+        <v>-1</v>
+      </c>
+      <c r="AC220">
+        <v>0.8</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20094,6 +20124,15 @@
       <c r="G221" t="s">
         <v>29</v>
       </c>
+      <c r="H221">
+        <v>2</v>
+      </c>
+      <c r="I221">
+        <v>2</v>
+      </c>
+      <c r="J221" t="s">
+        <v>46</v>
+      </c>
       <c r="K221">
         <v>4.2</v>
       </c>
@@ -20104,46 +20143,52 @@
         <v>1.8</v>
       </c>
       <c r="N221">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O221">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P221">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="Q221">
         <v>0.75</v>
       </c>
       <c r="R221">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S221">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T221">
         <v>2.25</v>
       </c>
       <c r="U221">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V221">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X221">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA221">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB221">
+        <v>0.825</v>
+      </c>
+      <c r="AC221">
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20168,6 +20213,15 @@
       <c r="G222" t="s">
         <v>39</v>
       </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222" t="s">
+        <v>45</v>
+      </c>
       <c r="K222">
         <v>2.7</v>
       </c>
@@ -20178,7 +20232,7 @@
         <v>2.6</v>
       </c>
       <c r="N222">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O222">
         <v>3</v>
@@ -20190,34 +20244,40 @@
         <v>-0.25</v>
       </c>
       <c r="R222">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S222">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T222">
         <v>2.25</v>
       </c>
       <c r="U222">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V222">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W222">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA222">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB222">
+        <v>-1</v>
+      </c>
+      <c r="AC222">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20242,6 +20302,15 @@
       <c r="G223" t="s">
         <v>38</v>
       </c>
+      <c r="H223">
+        <v>4</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223" t="s">
+        <v>45</v>
+      </c>
       <c r="K223">
         <v>1.727</v>
       </c>
@@ -20252,46 +20321,52 @@
         <v>4.5</v>
       </c>
       <c r="N223">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="O223">
         <v>3.75</v>
       </c>
       <c r="P223">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q223">
         <v>-0.75</v>
       </c>
       <c r="R223">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S223">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U223">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V223">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W223">
-        <v>0</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA223">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB223">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC223">
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20326,31 +20401,31 @@
         <v>2.2</v>
       </c>
       <c r="N224">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O224">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P224">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="Q224">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R224">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S224">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T224">
         <v>2.25</v>
       </c>
       <c r="U224">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V224">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W224">
         <v>0</v>
@@ -20400,31 +20475,31 @@
         <v>2.4</v>
       </c>
       <c r="N225">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O225">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P225">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="Q225">
         <v>0.25</v>
       </c>
       <c r="R225">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S225">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T225">
         <v>2.25</v>
       </c>
       <c r="U225">
+        <v>1.825</v>
+      </c>
+      <c r="V225">
         <v>2.025</v>
-      </c>
-      <c r="V225">
-        <v>1.825</v>
       </c>
       <c r="W225">
         <v>0</v>
@@ -20474,45 +20549,341 @@
         <v>1.833</v>
       </c>
       <c r="N226">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O226">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P226">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="Q226">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R226">
+        <v>1.875</v>
+      </c>
+      <c r="S226">
         <v>1.975</v>
-      </c>
-      <c r="S226">
-        <v>1.875</v>
       </c>
       <c r="T226">
         <v>2.25</v>
       </c>
       <c r="U226">
+        <v>1.875</v>
+      </c>
+      <c r="V226">
+        <v>1.975</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>6836274</v>
+      </c>
+      <c r="C227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" t="s">
+        <v>28</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45352.625</v>
+      </c>
+      <c r="F227" t="s">
+        <v>41</v>
+      </c>
+      <c r="G227" t="s">
+        <v>36</v>
+      </c>
+      <c r="K227">
+        <v>2.4</v>
+      </c>
+      <c r="L227">
+        <v>3.1</v>
+      </c>
+      <c r="M227">
+        <v>2.875</v>
+      </c>
+      <c r="N227">
+        <v>2.3</v>
+      </c>
+      <c r="O227">
+        <v>3.1</v>
+      </c>
+      <c r="P227">
+        <v>3</v>
+      </c>
+      <c r="Q227">
+        <v>-0.25</v>
+      </c>
+      <c r="R227">
+        <v>2.025</v>
+      </c>
+      <c r="S227">
+        <v>1.825</v>
+      </c>
+      <c r="T227">
+        <v>2.25</v>
+      </c>
+      <c r="U227">
         <v>1.925</v>
       </c>
-      <c r="V226">
+      <c r="V227">
         <v>1.925</v>
       </c>
-      <c r="W226">
-        <v>0</v>
-      </c>
-      <c r="X226">
-        <v>0</v>
-      </c>
-      <c r="Y226">
-        <v>0</v>
-      </c>
-      <c r="Z226">
-        <v>0</v>
-      </c>
-      <c r="AA226">
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>6836275</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45353.375</v>
+      </c>
+      <c r="F228" t="s">
+        <v>38</v>
+      </c>
+      <c r="G228" t="s">
+        <v>34</v>
+      </c>
+      <c r="K228">
+        <v>2.25</v>
+      </c>
+      <c r="L228">
+        <v>3.2</v>
+      </c>
+      <c r="M228">
+        <v>3</v>
+      </c>
+      <c r="N228">
+        <v>2.45</v>
+      </c>
+      <c r="O228">
+        <v>3.2</v>
+      </c>
+      <c r="P228">
+        <v>2.75</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>1.8</v>
+      </c>
+      <c r="S228">
+        <v>2.05</v>
+      </c>
+      <c r="T228">
+        <v>2.25</v>
+      </c>
+      <c r="U228">
+        <v>1.925</v>
+      </c>
+      <c r="V228">
+        <v>1.925</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:27">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>6836273</v>
+      </c>
+      <c r="C229" t="s">
+        <v>28</v>
+      </c>
+      <c r="D229" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45353.5</v>
+      </c>
+      <c r="F229" t="s">
+        <v>32</v>
+      </c>
+      <c r="G229" t="s">
+        <v>30</v>
+      </c>
+      <c r="K229">
+        <v>2.1</v>
+      </c>
+      <c r="L229">
+        <v>3</v>
+      </c>
+      <c r="M229">
+        <v>3.6</v>
+      </c>
+      <c r="N229">
+        <v>2.1</v>
+      </c>
+      <c r="O229">
+        <v>3</v>
+      </c>
+      <c r="P229">
+        <v>3.4</v>
+      </c>
+      <c r="Q229">
+        <v>-0.25</v>
+      </c>
+      <c r="R229">
+        <v>1.85</v>
+      </c>
+      <c r="S229">
+        <v>2</v>
+      </c>
+      <c r="T229">
+        <v>2</v>
+      </c>
+      <c r="U229">
+        <v>1.925</v>
+      </c>
+      <c r="V229">
+        <v>1.925</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:27">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>6907421</v>
+      </c>
+      <c r="C230" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" t="s">
+        <v>28</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45353.625</v>
+      </c>
+      <c r="F230" t="s">
+        <v>39</v>
+      </c>
+      <c r="G230" t="s">
+        <v>29</v>
+      </c>
+      <c r="K230">
+        <v>2.7</v>
+      </c>
+      <c r="L230">
+        <v>3.2</v>
+      </c>
+      <c r="M230">
+        <v>2.5</v>
+      </c>
+      <c r="N230">
+        <v>2.75</v>
+      </c>
+      <c r="O230">
+        <v>3.2</v>
+      </c>
+      <c r="P230">
+        <v>2.45</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>2.05</v>
+      </c>
+      <c r="S230">
+        <v>1.8</v>
+      </c>
+      <c r="T230">
+        <v>2.25</v>
+      </c>
+      <c r="U230">
+        <v>1.925</v>
+      </c>
+      <c r="V230">
+        <v>1.925</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC230"/>
+  <dimension ref="A1:AC234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20391,6 +20391,15 @@
       <c r="G224" t="s">
         <v>37</v>
       </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="I224">
+        <v>2</v>
+      </c>
+      <c r="J224" t="s">
+        <v>47</v>
+      </c>
       <c r="K224">
         <v>3.2</v>
       </c>
@@ -20401,10 +20410,10 @@
         <v>2.2</v>
       </c>
       <c r="N224">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O224">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P224">
         <v>2.05</v>
@@ -20428,22 +20437,28 @@
         <v>1.775</v>
       </c>
       <c r="W224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Z224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:27">
+        <v>0.8</v>
+      </c>
+      <c r="AB224">
+        <v>1.1</v>
+      </c>
+      <c r="AC224">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -20465,6 +20480,15 @@
       <c r="G225" t="s">
         <v>44</v>
       </c>
+      <c r="H225">
+        <v>2</v>
+      </c>
+      <c r="I225">
+        <v>3</v>
+      </c>
+      <c r="J225" t="s">
+        <v>47</v>
+      </c>
       <c r="K225">
         <v>3</v>
       </c>
@@ -20475,49 +20499,55 @@
         <v>2.4</v>
       </c>
       <c r="N225">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O225">
         <v>3.3</v>
       </c>
       <c r="P225">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q225">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R225">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S225">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T225">
         <v>2.25</v>
       </c>
       <c r="U225">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V225">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:27">
+        <v>1.05</v>
+      </c>
+      <c r="AB225">
+        <v>0.875</v>
+      </c>
+      <c r="AC225">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -20539,6 +20569,15 @@
       <c r="G226" t="s">
         <v>40</v>
       </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+      <c r="I226">
+        <v>2</v>
+      </c>
+      <c r="J226" t="s">
+        <v>47</v>
+      </c>
       <c r="K226">
         <v>4</v>
       </c>
@@ -20549,49 +20588,55 @@
         <v>1.833</v>
       </c>
       <c r="N226">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="O226">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P226">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="Q226">
         <v>0.75</v>
       </c>
       <c r="R226">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S226">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T226">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U226">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V226">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
-        <v>0</v>
+        <v>0.615</v>
       </c>
       <c r="Z226">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:27">
+        <v>0.4125</v>
+      </c>
+      <c r="AB226">
+        <v>1.05</v>
+      </c>
+      <c r="AC226">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -20613,6 +20658,15 @@
       <c r="G227" t="s">
         <v>36</v>
       </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227" t="s">
+        <v>46</v>
+      </c>
       <c r="K227">
         <v>2.4</v>
       </c>
@@ -20623,49 +20677,55 @@
         <v>2.875</v>
       </c>
       <c r="N227">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O227">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P227">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q227">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R227">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S227">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T227">
         <v>2.25</v>
       </c>
       <c r="U227">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V227">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
         <v>0</v>
       </c>
       <c r="AA227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:27">
+        <v>-0</v>
+      </c>
+      <c r="AB227">
+        <v>-1</v>
+      </c>
+      <c r="AC227">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -20697,31 +20757,31 @@
         <v>3</v>
       </c>
       <c r="N228">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O228">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P228">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q228">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R228">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S228">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T228">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V228">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W228">
         <v>0</v>
@@ -20739,7 +20799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:27">
+    <row r="229" spans="1:29">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -20771,31 +20831,31 @@
         <v>3.6</v>
       </c>
       <c r="N229">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O229">
         <v>3</v>
       </c>
       <c r="P229">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q229">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R229">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S229">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T229">
         <v>2</v>
       </c>
       <c r="U229">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V229">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W229">
         <v>0</v>
@@ -20813,7 +20873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:27">
+    <row r="230" spans="1:29">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -20845,45 +20905,341 @@
         <v>2.5</v>
       </c>
       <c r="N230">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="O230">
+        <v>3.3</v>
+      </c>
+      <c r="P230">
+        <v>2.3</v>
+      </c>
+      <c r="Q230">
+        <v>0.25</v>
+      </c>
+      <c r="R230">
+        <v>1.825</v>
+      </c>
+      <c r="S230">
+        <v>2.025</v>
+      </c>
+      <c r="T230">
+        <v>2.5</v>
+      </c>
+      <c r="U230">
+        <v>2</v>
+      </c>
+      <c r="V230">
+        <v>1.85</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>6838744</v>
+      </c>
+      <c r="C231" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45354.39583333334</v>
+      </c>
+      <c r="F231" t="s">
+        <v>42</v>
+      </c>
+      <c r="G231" t="s">
+        <v>43</v>
+      </c>
+      <c r="K231">
+        <v>1.8</v>
+      </c>
+      <c r="L231">
+        <v>3.5</v>
+      </c>
+      <c r="M231">
+        <v>4</v>
+      </c>
+      <c r="N231">
+        <v>1.571</v>
+      </c>
+      <c r="O231">
+        <v>3.8</v>
+      </c>
+      <c r="P231">
+        <v>5.25</v>
+      </c>
+      <c r="Q231">
+        <v>-1</v>
+      </c>
+      <c r="R231">
+        <v>2.025</v>
+      </c>
+      <c r="S231">
+        <v>1.825</v>
+      </c>
+      <c r="T231">
+        <v>2.5</v>
+      </c>
+      <c r="U231">
+        <v>1.925</v>
+      </c>
+      <c r="V231">
+        <v>1.925</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>6848293</v>
+      </c>
+      <c r="C232" t="s">
+        <v>28</v>
+      </c>
+      <c r="D232" t="s">
+        <v>28</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45354.64583333334</v>
+      </c>
+      <c r="F232" t="s">
+        <v>40</v>
+      </c>
+      <c r="G232" t="s">
+        <v>33</v>
+      </c>
+      <c r="K232">
+        <v>1.6</v>
+      </c>
+      <c r="L232">
+        <v>3.7</v>
+      </c>
+      <c r="M232">
+        <v>5.25</v>
+      </c>
+      <c r="N232">
+        <v>1.5</v>
+      </c>
+      <c r="O232">
+        <v>3.8</v>
+      </c>
+      <c r="P232">
+        <v>6.5</v>
+      </c>
+      <c r="Q232">
+        <v>-1</v>
+      </c>
+      <c r="R232">
+        <v>1.875</v>
+      </c>
+      <c r="S232">
+        <v>1.975</v>
+      </c>
+      <c r="T232">
+        <v>2.5</v>
+      </c>
+      <c r="U232">
+        <v>1.975</v>
+      </c>
+      <c r="V232">
+        <v>1.875</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>6848294</v>
+      </c>
+      <c r="C233" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" t="s">
+        <v>28</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45355.5</v>
+      </c>
+      <c r="F233" t="s">
+        <v>37</v>
+      </c>
+      <c r="G233" t="s">
+        <v>35</v>
+      </c>
+      <c r="K233">
+        <v>1.8</v>
+      </c>
+      <c r="L233">
+        <v>3.4</v>
+      </c>
+      <c r="M233">
+        <v>4.2</v>
+      </c>
+      <c r="N233">
+        <v>1.7</v>
+      </c>
+      <c r="O233">
+        <v>3.5</v>
+      </c>
+      <c r="P233">
+        <v>4.75</v>
+      </c>
+      <c r="Q233">
+        <v>-0.75</v>
+      </c>
+      <c r="R233">
+        <v>1.925</v>
+      </c>
+      <c r="S233">
+        <v>1.925</v>
+      </c>
+      <c r="T233">
+        <v>2.25</v>
+      </c>
+      <c r="U233">
+        <v>1.85</v>
+      </c>
+      <c r="V233">
+        <v>2</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>6836276</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45355.625</v>
+      </c>
+      <c r="F234" t="s">
+        <v>44</v>
+      </c>
+      <c r="G234" t="s">
+        <v>31</v>
+      </c>
+      <c r="K234">
+        <v>2.5</v>
+      </c>
+      <c r="L234">
+        <v>3.1</v>
+      </c>
+      <c r="M234">
+        <v>2.8</v>
+      </c>
+      <c r="N234">
+        <v>2.2</v>
+      </c>
+      <c r="O234">
         <v>3.2</v>
       </c>
-      <c r="P230">
-        <v>2.45</v>
-      </c>
-      <c r="Q230">
-        <v>0</v>
-      </c>
-      <c r="R230">
-        <v>2.05</v>
-      </c>
-      <c r="S230">
-        <v>1.8</v>
-      </c>
-      <c r="T230">
-        <v>2.25</v>
-      </c>
-      <c r="U230">
+      <c r="P234">
+        <v>3.25</v>
+      </c>
+      <c r="Q234">
+        <v>-0.25</v>
+      </c>
+      <c r="R234">
+        <v>1.975</v>
+      </c>
+      <c r="S234">
+        <v>1.875</v>
+      </c>
+      <c r="T234">
+        <v>2.5</v>
+      </c>
+      <c r="U234">
         <v>1.925</v>
       </c>
-      <c r="V230">
+      <c r="V234">
         <v>1.925</v>
       </c>
-      <c r="W230">
-        <v>0</v>
-      </c>
-      <c r="X230">
-        <v>0</v>
-      </c>
-      <c r="Y230">
-        <v>0</v>
-      </c>
-      <c r="Z230">
-        <v>0</v>
-      </c>
-      <c r="AA230">
+      <c r="W234">
+        <v>0</v>
+      </c>
+      <c r="X234">
+        <v>0</v>
+      </c>
+      <c r="Y234">
+        <v>0</v>
+      </c>
+      <c r="Z234">
+        <v>0</v>
+      </c>
+      <c r="AA234">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -20747,6 +20747,15 @@
       <c r="G228" t="s">
         <v>34</v>
       </c>
+      <c r="H228">
+        <v>3</v>
+      </c>
+      <c r="I228">
+        <v>2</v>
+      </c>
+      <c r="J228" t="s">
+        <v>45</v>
+      </c>
       <c r="K228">
         <v>2.25</v>
       </c>
@@ -20757,46 +20766,52 @@
         <v>3</v>
       </c>
       <c r="N228">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O228">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P228">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q228">
         <v>-0.5</v>
       </c>
       <c r="R228">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S228">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T228">
         <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V228">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W228">
-        <v>0</v>
+        <v>0.833</v>
       </c>
       <c r="X228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA228">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB228">
+        <v>0.825</v>
+      </c>
+      <c r="AC228">
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20821,6 +20836,15 @@
       <c r="G229" t="s">
         <v>30</v>
       </c>
+      <c r="H229">
+        <v>4</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229" t="s">
+        <v>45</v>
+      </c>
       <c r="K229">
         <v>2.1</v>
       </c>
@@ -20831,46 +20855,52 @@
         <v>3.6</v>
       </c>
       <c r="N229">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O229">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P229">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q229">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R229">
+        <v>1.8</v>
+      </c>
+      <c r="S229">
         <v>2.05</v>
       </c>
-      <c r="S229">
-        <v>1.8</v>
-      </c>
       <c r="T229">
         <v>2</v>
       </c>
       <c r="U229">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V229">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W229">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA229">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB229">
+        <v>1.1</v>
+      </c>
+      <c r="AC229">
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20895,6 +20925,15 @@
       <c r="G230" t="s">
         <v>29</v>
       </c>
+      <c r="H230">
+        <v>1</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230" t="s">
+        <v>46</v>
+      </c>
       <c r="K230">
         <v>2.7</v>
       </c>
@@ -20905,22 +20944,22 @@
         <v>2.5</v>
       </c>
       <c r="N230">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O230">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P230">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q230">
         <v>0.25</v>
       </c>
       <c r="R230">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S230">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T230">
         <v>2.5</v>
@@ -20932,19 +20971,25 @@
         <v>1.85</v>
       </c>
       <c r="W230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA230">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB230">
+        <v>-1</v>
+      </c>
+      <c r="AC230">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21000,10 +21045,10 @@
         <v>2.5</v>
       </c>
       <c r="U231">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V231">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
         <v>0</v>
@@ -21065,19 +21110,19 @@
         <v>-1</v>
       </c>
       <c r="R232">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S232">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T232">
         <v>2.5</v>
       </c>
       <c r="U232">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V232">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W232">
         <v>0</v>
@@ -21148,10 +21193,10 @@
         <v>2.25</v>
       </c>
       <c r="U233">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V233">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W233">
         <v>0</v>
@@ -21222,10 +21267,10 @@
         <v>2.5</v>
       </c>
       <c r="U234">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V234">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W234">
         <v>0</v>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC234"/>
+  <dimension ref="A1:AC242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21014,6 +21014,15 @@
       <c r="G231" t="s">
         <v>43</v>
       </c>
+      <c r="H231">
+        <v>1</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231" t="s">
+        <v>45</v>
+      </c>
       <c r="K231">
         <v>1.8</v>
       </c>
@@ -21024,46 +21033,52 @@
         <v>4</v>
       </c>
       <c r="N231">
-        <v>1.571</v>
+        <v>1.45</v>
       </c>
       <c r="O231">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P231">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q231">
         <v>-1</v>
       </c>
       <c r="R231">
+        <v>1.875</v>
+      </c>
+      <c r="S231">
+        <v>1.975</v>
+      </c>
+      <c r="T231">
+        <v>2.25</v>
+      </c>
+      <c r="U231">
+        <v>1.825</v>
+      </c>
+      <c r="V231">
         <v>2.025</v>
       </c>
-      <c r="S231">
-        <v>1.825</v>
-      </c>
-      <c r="T231">
-        <v>2.5</v>
-      </c>
-      <c r="U231">
-        <v>1.95</v>
-      </c>
-      <c r="V231">
-        <v>1.9</v>
-      </c>
       <c r="W231">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="X231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
         <v>0</v>
       </c>
       <c r="AA231">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB231">
+        <v>-1</v>
+      </c>
+      <c r="AC231">
+        <v>1.025</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21088,6 +21103,15 @@
       <c r="G232" t="s">
         <v>33</v>
       </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232" t="s">
+        <v>45</v>
+      </c>
       <c r="K232">
         <v>1.6</v>
       </c>
@@ -21098,10 +21122,10 @@
         <v>5.25</v>
       </c>
       <c r="N232">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O232">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P232">
         <v>6.5</v>
@@ -21110,34 +21134,40 @@
         <v>-1</v>
       </c>
       <c r="R232">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S232">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T232">
         <v>2.5</v>
       </c>
       <c r="U232">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V232">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W232">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="X232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
         <v>0</v>
       </c>
       <c r="AA232">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB232">
+        <v>-1</v>
+      </c>
+      <c r="AC232">
+        <v>1.025</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21162,6 +21192,15 @@
       <c r="G233" t="s">
         <v>35</v>
       </c>
+      <c r="H233">
+        <v>4</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233" t="s">
+        <v>45</v>
+      </c>
       <c r="K233">
         <v>1.8</v>
       </c>
@@ -21172,46 +21211,52 @@
         <v>4.2</v>
       </c>
       <c r="N233">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="O233">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P233">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q233">
         <v>-0.75</v>
       </c>
       <c r="R233">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S233">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T233">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U233">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V233">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W233">
-        <v>0</v>
+        <v>0.615</v>
       </c>
       <c r="X233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA233">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB233">
+        <v>1.05</v>
+      </c>
+      <c r="AC233">
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21236,6 +21281,15 @@
       <c r="G234" t="s">
         <v>31</v>
       </c>
+      <c r="H234">
+        <v>1</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234" t="s">
+        <v>46</v>
+      </c>
       <c r="K234">
         <v>2.5</v>
       </c>
@@ -21246,45 +21300,643 @@
         <v>2.8</v>
       </c>
       <c r="N234">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O234">
+        <v>3.4</v>
+      </c>
+      <c r="P234">
+        <v>3.5</v>
+      </c>
+      <c r="Q234">
+        <v>-0.5</v>
+      </c>
+      <c r="R234">
+        <v>2.05</v>
+      </c>
+      <c r="S234">
+        <v>1.8</v>
+      </c>
+      <c r="T234">
+        <v>2.75</v>
+      </c>
+      <c r="U234">
+        <v>1.975</v>
+      </c>
+      <c r="V234">
+        <v>1.875</v>
+      </c>
+      <c r="W234">
+        <v>-1</v>
+      </c>
+      <c r="X234">
+        <v>2.4</v>
+      </c>
+      <c r="Y234">
+        <v>-1</v>
+      </c>
+      <c r="Z234">
+        <v>-1</v>
+      </c>
+      <c r="AA234">
+        <v>0.8</v>
+      </c>
+      <c r="AB234">
+        <v>-1</v>
+      </c>
+      <c r="AC234">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>6865915</v>
+      </c>
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45359.625</v>
+      </c>
+      <c r="F235" t="s">
+        <v>35</v>
+      </c>
+      <c r="G235" t="s">
+        <v>42</v>
+      </c>
+      <c r="K235">
+        <v>3.5</v>
+      </c>
+      <c r="L235">
+        <v>3.25</v>
+      </c>
+      <c r="M235">
+        <v>2.05</v>
+      </c>
+      <c r="N235">
+        <v>3.3</v>
+      </c>
+      <c r="O235">
         <v>3.2</v>
       </c>
-      <c r="P234">
-        <v>3.25</v>
-      </c>
-      <c r="Q234">
+      <c r="P235">
+        <v>2.15</v>
+      </c>
+      <c r="Q235">
+        <v>0.25</v>
+      </c>
+      <c r="R235">
+        <v>1.925</v>
+      </c>
+      <c r="S235">
+        <v>1.925</v>
+      </c>
+      <c r="T235">
+        <v>2.25</v>
+      </c>
+      <c r="U235">
+        <v>1.875</v>
+      </c>
+      <c r="V235">
+        <v>1.975</v>
+      </c>
+      <c r="W235">
+        <v>0</v>
+      </c>
+      <c r="X235">
+        <v>0</v>
+      </c>
+      <c r="Y235">
+        <v>0</v>
+      </c>
+      <c r="Z235">
+        <v>0</v>
+      </c>
+      <c r="AA235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>6870268</v>
+      </c>
+      <c r="C236" t="s">
+        <v>28</v>
+      </c>
+      <c r="D236" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45359.625</v>
+      </c>
+      <c r="F236" t="s">
+        <v>33</v>
+      </c>
+      <c r="G236" t="s">
+        <v>37</v>
+      </c>
+      <c r="K236">
+        <v>2.8</v>
+      </c>
+      <c r="L236">
+        <v>3</v>
+      </c>
+      <c r="M236">
+        <v>2.55</v>
+      </c>
+      <c r="N236">
+        <v>3</v>
+      </c>
+      <c r="O236">
+        <v>3.1</v>
+      </c>
+      <c r="P236">
+        <v>2.375</v>
+      </c>
+      <c r="Q236">
+        <v>0.25</v>
+      </c>
+      <c r="R236">
+        <v>1.8</v>
+      </c>
+      <c r="S236">
+        <v>2.05</v>
+      </c>
+      <c r="T236">
+        <v>2.25</v>
+      </c>
+      <c r="U236">
+        <v>2.1</v>
+      </c>
+      <c r="V236">
+        <v>1.775</v>
+      </c>
+      <c r="W236">
+        <v>0</v>
+      </c>
+      <c r="X236">
+        <v>0</v>
+      </c>
+      <c r="Y236">
+        <v>0</v>
+      </c>
+      <c r="Z236">
+        <v>0</v>
+      </c>
+      <c r="AA236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>6861095</v>
+      </c>
+      <c r="C237" t="s">
+        <v>28</v>
+      </c>
+      <c r="D237" t="s">
+        <v>28</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45359.625</v>
+      </c>
+      <c r="F237" t="s">
+        <v>43</v>
+      </c>
+      <c r="G237" t="s">
+        <v>39</v>
+      </c>
+      <c r="K237">
+        <v>3.75</v>
+      </c>
+      <c r="L237">
+        <v>3.4</v>
+      </c>
+      <c r="M237">
+        <v>1.909</v>
+      </c>
+      <c r="N237">
+        <v>3.8</v>
+      </c>
+      <c r="O237">
+        <v>3.4</v>
+      </c>
+      <c r="P237">
+        <v>1.909</v>
+      </c>
+      <c r="Q237">
+        <v>0.5</v>
+      </c>
+      <c r="R237">
+        <v>1.875</v>
+      </c>
+      <c r="S237">
+        <v>1.975</v>
+      </c>
+      <c r="T237">
+        <v>2.5</v>
+      </c>
+      <c r="U237">
+        <v>2</v>
+      </c>
+      <c r="V237">
+        <v>1.85</v>
+      </c>
+      <c r="W237">
+        <v>0</v>
+      </c>
+      <c r="X237">
+        <v>0</v>
+      </c>
+      <c r="Y237">
+        <v>0</v>
+      </c>
+      <c r="Z237">
+        <v>0</v>
+      </c>
+      <c r="AA237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>6836277</v>
+      </c>
+      <c r="C238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" t="s">
+        <v>28</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45359.625</v>
+      </c>
+      <c r="F238" t="s">
+        <v>29</v>
+      </c>
+      <c r="G238" t="s">
+        <v>32</v>
+      </c>
+      <c r="K238">
+        <v>1.7</v>
+      </c>
+      <c r="L238">
+        <v>3.4</v>
+      </c>
+      <c r="M238">
+        <v>5</v>
+      </c>
+      <c r="N238">
+        <v>1.65</v>
+      </c>
+      <c r="O238">
+        <v>3.5</v>
+      </c>
+      <c r="P238">
+        <v>5.25</v>
+      </c>
+      <c r="Q238">
+        <v>-0.75</v>
+      </c>
+      <c r="R238">
+        <v>1.9</v>
+      </c>
+      <c r="S238">
+        <v>1.95</v>
+      </c>
+      <c r="T238">
+        <v>2.25</v>
+      </c>
+      <c r="U238">
+        <v>1.825</v>
+      </c>
+      <c r="V238">
+        <v>2.025</v>
+      </c>
+      <c r="W238">
+        <v>0</v>
+      </c>
+      <c r="X238">
+        <v>0</v>
+      </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
+      <c r="Z238">
+        <v>0</v>
+      </c>
+      <c r="AA238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>6852370</v>
+      </c>
+      <c r="C239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239" t="s">
+        <v>28</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45359.625</v>
+      </c>
+      <c r="F239" t="s">
+        <v>36</v>
+      </c>
+      <c r="G239" t="s">
+        <v>38</v>
+      </c>
+      <c r="K239">
+        <v>2.55</v>
+      </c>
+      <c r="L239">
+        <v>2.875</v>
+      </c>
+      <c r="M239">
+        <v>3</v>
+      </c>
+      <c r="N239">
+        <v>2.45</v>
+      </c>
+      <c r="O239">
+        <v>2.9</v>
+      </c>
+      <c r="P239">
+        <v>3.1</v>
+      </c>
+      <c r="Q239">
         <v>-0.25</v>
       </c>
-      <c r="R234">
+      <c r="R239">
+        <v>2.1</v>
+      </c>
+      <c r="S239">
+        <v>1.775</v>
+      </c>
+      <c r="T239">
+        <v>2.25</v>
+      </c>
+      <c r="U239">
         <v>1.975</v>
       </c>
-      <c r="S234">
+      <c r="V239">
         <v>1.875</v>
       </c>
-      <c r="T234">
+      <c r="W239">
+        <v>0</v>
+      </c>
+      <c r="X239">
+        <v>0</v>
+      </c>
+      <c r="Y239">
+        <v>0</v>
+      </c>
+      <c r="Z239">
+        <v>0</v>
+      </c>
+      <c r="AA239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>6870267</v>
+      </c>
+      <c r="C240" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240" t="s">
+        <v>28</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45360.625</v>
+      </c>
+      <c r="F240" t="s">
+        <v>31</v>
+      </c>
+      <c r="G240" t="s">
+        <v>40</v>
+      </c>
+      <c r="K240">
+        <v>2.7</v>
+      </c>
+      <c r="L240">
+        <v>3.2</v>
+      </c>
+      <c r="M240">
+        <v>2.55</v>
+      </c>
+      <c r="N240">
+        <v>2.7</v>
+      </c>
+      <c r="O240">
+        <v>3.2</v>
+      </c>
+      <c r="P240">
+        <v>2.55</v>
+      </c>
+      <c r="Q240">
+        <v>0</v>
+      </c>
+      <c r="R240">
+        <v>2.025</v>
+      </c>
+      <c r="S240">
+        <v>1.825</v>
+      </c>
+      <c r="T240">
         <v>2.5</v>
       </c>
-      <c r="U234">
+      <c r="U240">
+        <v>1.925</v>
+      </c>
+      <c r="V240">
+        <v>1.925</v>
+      </c>
+      <c r="W240">
+        <v>0</v>
+      </c>
+      <c r="X240">
+        <v>0</v>
+      </c>
+      <c r="Y240">
+        <v>0</v>
+      </c>
+      <c r="Z240">
+        <v>0</v>
+      </c>
+      <c r="AA240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>6836278</v>
+      </c>
+      <c r="C241" t="s">
+        <v>28</v>
+      </c>
+      <c r="D241" t="s">
+        <v>28</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45361.65625</v>
+      </c>
+      <c r="F241" t="s">
+        <v>34</v>
+      </c>
+      <c r="G241" t="s">
+        <v>44</v>
+      </c>
+      <c r="K241">
+        <v>3.6</v>
+      </c>
+      <c r="L241">
+        <v>3.4</v>
+      </c>
+      <c r="M241">
         <v>1.95</v>
       </c>
-      <c r="V234">
-        <v>1.9</v>
-      </c>
-      <c r="W234">
-        <v>0</v>
-      </c>
-      <c r="X234">
-        <v>0</v>
-      </c>
-      <c r="Y234">
-        <v>0</v>
-      </c>
-      <c r="Z234">
-        <v>0</v>
-      </c>
-      <c r="AA234">
+      <c r="N241">
+        <v>3.6</v>
+      </c>
+      <c r="O241">
+        <v>3.4</v>
+      </c>
+      <c r="P241">
+        <v>1.95</v>
+      </c>
+      <c r="Q241">
+        <v>0.5</v>
+      </c>
+      <c r="R241">
+        <v>1.875</v>
+      </c>
+      <c r="S241">
+        <v>1.975</v>
+      </c>
+      <c r="T241">
+        <v>2.5</v>
+      </c>
+      <c r="U241">
+        <v>1.85</v>
+      </c>
+      <c r="V241">
+        <v>2</v>
+      </c>
+      <c r="W241">
+        <v>0</v>
+      </c>
+      <c r="X241">
+        <v>0</v>
+      </c>
+      <c r="Y241">
+        <v>0</v>
+      </c>
+      <c r="Z241">
+        <v>0</v>
+      </c>
+      <c r="AA241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>6836954</v>
+      </c>
+      <c r="C242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242" t="s">
+        <v>28</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45362.625</v>
+      </c>
+      <c r="F242" t="s">
+        <v>30</v>
+      </c>
+      <c r="G242" t="s">
+        <v>41</v>
+      </c>
+      <c r="K242">
+        <v>2.15</v>
+      </c>
+      <c r="L242">
+        <v>3.1</v>
+      </c>
+      <c r="M242">
+        <v>3.4</v>
+      </c>
+      <c r="N242">
+        <v>2.1</v>
+      </c>
+      <c r="O242">
+        <v>3.1</v>
+      </c>
+      <c r="P242">
+        <v>3.5</v>
+      </c>
+      <c r="Q242">
+        <v>-0.25</v>
+      </c>
+      <c r="R242">
+        <v>1.875</v>
+      </c>
+      <c r="S242">
+        <v>1.975</v>
+      </c>
+      <c r="T242">
+        <v>2.25</v>
+      </c>
+      <c r="U242">
+        <v>2.025</v>
+      </c>
+      <c r="V242">
+        <v>1.825</v>
+      </c>
+      <c r="W242">
+        <v>0</v>
+      </c>
+      <c r="X242">
+        <v>0</v>
+      </c>
+      <c r="Y242">
+        <v>0</v>
+      </c>
+      <c r="Z242">
+        <v>0</v>
+      </c>
+      <c r="AA242">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6865915</v>
+        <v>6852370</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,61 +21365,76 @@
         <v>45359.625</v>
       </c>
       <c r="F235" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G235" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235" t="s">
+        <v>45</v>
       </c>
       <c r="K235">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="L235">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M235">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="N235">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="O235">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P235">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q235">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R235">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S235">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T235">
         <v>2.25</v>
       </c>
       <c r="U235">
+        <v>1.975</v>
+      </c>
+      <c r="V235">
         <v>1.875</v>
       </c>
-      <c r="V235">
-        <v>1.975</v>
-      </c>
       <c r="W235">
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="X235">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA235">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB235">
+        <v>-1</v>
+      </c>
+      <c r="AC235">
+        <v>0.875</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21427,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6870268</v>
+        <v>6836277</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21439,61 +21454,76 @@
         <v>45359.625</v>
       </c>
       <c r="F236" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G236" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236" t="s">
+        <v>45</v>
       </c>
       <c r="K236">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="L236">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M236">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N236">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O236">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P236">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q236">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R236">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S236">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T236">
         <v>2.25</v>
       </c>
       <c r="U236">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V236">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W236">
-        <v>0</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X236">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA236">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB236">
+        <v>-1</v>
+      </c>
+      <c r="AC236">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21518,6 +21548,15 @@
       <c r="G237" t="s">
         <v>39</v>
       </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237" t="s">
+        <v>46</v>
+      </c>
       <c r="K237">
         <v>3.75</v>
       </c>
@@ -21528,46 +21567,52 @@
         <v>1.909</v>
       </c>
       <c r="N237">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O237">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P237">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="Q237">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R237">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S237">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T237">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U237">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V237">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA237">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB237">
+        <v>-1</v>
+      </c>
+      <c r="AC237">
+        <v>1.05</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21575,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6836277</v>
+        <v>6865915</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21587,61 +21632,76 @@
         <v>45359.625</v>
       </c>
       <c r="F238" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G238" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238" t="s">
+        <v>46</v>
       </c>
       <c r="K238">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L238">
+        <v>3.25</v>
+      </c>
+      <c r="M238">
+        <v>2.05</v>
+      </c>
+      <c r="N238">
         <v>3.4</v>
       </c>
-      <c r="M238">
-        <v>5</v>
-      </c>
-      <c r="N238">
-        <v>1.65</v>
-      </c>
       <c r="O238">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P238">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q238">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R238">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S238">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T238">
         <v>2.25</v>
       </c>
       <c r="U238">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V238">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X238">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA238">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB238">
+        <v>-1</v>
+      </c>
+      <c r="AC238">
+        <v>0.75</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21649,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6852370</v>
+        <v>6870268</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21661,61 +21721,76 @@
         <v>45359.625</v>
       </c>
       <c r="F239" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G239" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="I239">
+        <v>2</v>
+      </c>
+      <c r="J239" t="s">
+        <v>47</v>
       </c>
       <c r="K239">
+        <v>2.8</v>
+      </c>
+      <c r="L239">
+        <v>3</v>
+      </c>
+      <c r="M239">
         <v>2.55</v>
       </c>
-      <c r="L239">
-        <v>2.875</v>
-      </c>
-      <c r="M239">
+      <c r="N239">
         <v>3</v>
       </c>
-      <c r="N239">
-        <v>2.45</v>
-      </c>
       <c r="O239">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P239">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q239">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R239">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S239">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T239">
         <v>2.25</v>
       </c>
       <c r="U239">
+        <v>1.875</v>
+      </c>
+      <c r="V239">
         <v>1.975</v>
       </c>
-      <c r="V239">
-        <v>1.875</v>
-      </c>
       <c r="W239">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X239">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Z239">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB239">
+        <v>0.875</v>
+      </c>
+      <c r="AC239">
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21735,31 +21810,31 @@
         <v>45360.625</v>
       </c>
       <c r="F240" t="s">
+        <v>40</v>
+      </c>
+      <c r="G240" t="s">
         <v>31</v>
       </c>
-      <c r="G240" t="s">
-        <v>40</v>
-      </c>
       <c r="K240">
+        <v>2.45</v>
+      </c>
+      <c r="L240">
+        <v>3.3</v>
+      </c>
+      <c r="M240">
         <v>2.7</v>
       </c>
-      <c r="L240">
-        <v>3.2</v>
-      </c>
-      <c r="M240">
-        <v>2.55</v>
-      </c>
       <c r="N240">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O240">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P240">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q240">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R240">
         <v>2.025</v>
@@ -21824,22 +21899,22 @@
         <v>1.95</v>
       </c>
       <c r="N241">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O241">
         <v>3.4</v>
       </c>
       <c r="P241">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Q241">
         <v>0.5</v>
       </c>
       <c r="R241">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S241">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T241">
         <v>2.5</v>
@@ -21910,19 +21985,19 @@
         <v>-0.25</v>
       </c>
       <c r="R242">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S242">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T242">
         <v>2.25</v>
       </c>
       <c r="U242">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V242">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W242">
         <v>0</v>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6836277</v>
+        <v>6870268</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,40 +21454,40 @@
         <v>45359.625</v>
       </c>
       <c r="F236" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G236" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H236">
         <v>1</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K236">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="L236">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M236">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N236">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O236">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P236">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q236">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R236">
         <v>1.85</v>
@@ -21505,25 +21505,25 @@
         <v>1.975</v>
       </c>
       <c r="W236">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z236">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC236">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6861095</v>
+        <v>6836277</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,67 +21543,67 @@
         <v>45359.625</v>
       </c>
       <c r="F237" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G237" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237">
         <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K237">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="L237">
         <v>3.4</v>
       </c>
       <c r="M237">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N237">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O237">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P237">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q237">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R237">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S237">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T237">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U237">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V237">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X237">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.3875</v>
+        <v>0.425</v>
       </c>
       <c r="AA237">
         <v>-0.5</v>
@@ -21612,7 +21612,7 @@
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6865915</v>
+        <v>6861095</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,10 +21632,10 @@
         <v>45359.625</v>
       </c>
       <c r="F238" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G238" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -21647,52 +21647,52 @@
         <v>46</v>
       </c>
       <c r="K238">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L238">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M238">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N238">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O238">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P238">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q238">
         <v>0.25</v>
       </c>
       <c r="R238">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S238">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T238">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U238">
+        <v>1.8</v>
+      </c>
+      <c r="V238">
         <v>2.05</v>
       </c>
-      <c r="V238">
-        <v>1.75</v>
-      </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.4875</v>
+        <v>0.3875</v>
       </c>
       <c r="AA238">
         <v>-0.5</v>
@@ -21701,7 +21701,7 @@
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6870268</v>
+        <v>6865915</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,76 +21721,76 @@
         <v>45359.625</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G239" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K239">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="L239">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M239">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="N239">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O239">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P239">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q239">
         <v>0.25</v>
       </c>
       <c r="R239">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S239">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T239">
         <v>2.25</v>
       </c>
       <c r="U239">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V239">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y239">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA239">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB239">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21815,6 +21815,15 @@
       <c r="G240" t="s">
         <v>31</v>
       </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>4</v>
+      </c>
+      <c r="J240" t="s">
+        <v>47</v>
+      </c>
       <c r="K240">
         <v>2.45</v>
       </c>
@@ -21825,16 +21834,16 @@
         <v>2.7</v>
       </c>
       <c r="N240">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="O240">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P240">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R240">
         <v>2.025</v>
@@ -21852,22 +21861,28 @@
         <v>1.925</v>
       </c>
       <c r="W240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:27">
+        <v>0.825</v>
+      </c>
+      <c r="AB240">
+        <v>0.925</v>
+      </c>
+      <c r="AC240">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:29">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -21889,6 +21904,15 @@
       <c r="G241" t="s">
         <v>44</v>
       </c>
+      <c r="H241">
+        <v>1</v>
+      </c>
+      <c r="I241">
+        <v>2</v>
+      </c>
+      <c r="J241" t="s">
+        <v>47</v>
+      </c>
       <c r="K241">
         <v>3.6</v>
       </c>
@@ -21899,49 +21923,55 @@
         <v>1.95</v>
       </c>
       <c r="N241">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O241">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P241">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Q241">
+        <v>0.75</v>
+      </c>
+      <c r="R241">
+        <v>1.85</v>
+      </c>
+      <c r="S241">
+        <v>2</v>
+      </c>
+      <c r="T241">
+        <v>2.75</v>
+      </c>
+      <c r="U241">
+        <v>1.925</v>
+      </c>
+      <c r="V241">
+        <v>1.925</v>
+      </c>
+      <c r="W241">
+        <v>-1</v>
+      </c>
+      <c r="X241">
+        <v>-1</v>
+      </c>
+      <c r="Y241">
+        <v>0.8</v>
+      </c>
+      <c r="Z241">
+        <v>-0.5</v>
+      </c>
+      <c r="AA241">
         <v>0.5</v>
       </c>
-      <c r="R241">
-        <v>1.8</v>
-      </c>
-      <c r="S241">
-        <v>2.05</v>
-      </c>
-      <c r="T241">
-        <v>2.5</v>
-      </c>
-      <c r="U241">
-        <v>1.85</v>
-      </c>
-      <c r="V241">
-        <v>2</v>
-      </c>
-      <c r="W241">
-        <v>0</v>
-      </c>
-      <c r="X241">
-        <v>0</v>
-      </c>
-      <c r="Y241">
-        <v>0</v>
-      </c>
-      <c r="Z241">
-        <v>0</v>
-      </c>
-      <c r="AA241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:27">
+      <c r="AB241">
+        <v>0.4625</v>
+      </c>
+      <c r="AC241">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:29">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -21963,6 +21993,15 @@
       <c r="G242" t="s">
         <v>41</v>
       </c>
+      <c r="H242">
+        <v>1</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242" t="s">
+        <v>46</v>
+      </c>
       <c r="K242">
         <v>2.15</v>
       </c>
@@ -21973,46 +22012,52 @@
         <v>3.4</v>
       </c>
       <c r="N242">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O242">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P242">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q242">
         <v>-0.25</v>
       </c>
       <c r="R242">
+        <v>1.75</v>
+      </c>
+      <c r="S242">
+        <v>2.05</v>
+      </c>
+      <c r="T242">
+        <v>2</v>
+      </c>
+      <c r="U242">
         <v>1.9</v>
       </c>
-      <c r="S242">
+      <c r="V242">
         <v>1.95</v>
       </c>
-      <c r="T242">
-        <v>2.25</v>
-      </c>
-      <c r="U242">
-        <v>2.1</v>
-      </c>
-      <c r="V242">
-        <v>1.775</v>
-      </c>
       <c r="W242">
+        <v>-1</v>
+      </c>
+      <c r="X242">
+        <v>2</v>
+      </c>
+      <c r="Y242">
+        <v>-1</v>
+      </c>
+      <c r="Z242">
+        <v>-0.5</v>
+      </c>
+      <c r="AA242">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AB242">
         <v>0</v>
       </c>
-      <c r="X242">
-        <v>0</v>
-      </c>
-      <c r="Y242">
-        <v>0</v>
-      </c>
-      <c r="Z242">
-        <v>0</v>
-      </c>
-      <c r="AA242">
-        <v>0</v>
+      <c r="AC242">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC242"/>
+  <dimension ref="A1:AC250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6852370</v>
+        <v>6861095</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21365,76 @@
         <v>45359.625</v>
       </c>
       <c r="F235" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G235" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235">
         <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K235">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="L235">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M235">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N235">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="O235">
         <v>3</v>
       </c>
       <c r="P235">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q235">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R235">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S235">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T235">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U235">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V235">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W235">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB235">
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6870268</v>
+        <v>6852370</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,76 +21454,76 @@
         <v>45359.625</v>
       </c>
       <c r="F236" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G236" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H236">
         <v>1</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K236">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="L236">
+        <v>2.875</v>
+      </c>
+      <c r="M236">
         <v>3</v>
       </c>
-      <c r="M236">
-        <v>2.55</v>
-      </c>
       <c r="N236">
+        <v>2.375</v>
+      </c>
+      <c r="O236">
         <v>3</v>
       </c>
-      <c r="O236">
-        <v>3.2</v>
-      </c>
       <c r="P236">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q236">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R236">
+        <v>2</v>
+      </c>
+      <c r="S236">
         <v>1.85</v>
-      </c>
-      <c r="S236">
-        <v>2</v>
       </c>
       <c r="T236">
         <v>2.25</v>
       </c>
       <c r="U236">
+        <v>1.975</v>
+      </c>
+      <c r="V236">
         <v>1.875</v>
       </c>
-      <c r="V236">
-        <v>1.975</v>
-      </c>
       <c r="W236">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA236">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
+        <v>-1</v>
+      </c>
+      <c r="AC236">
         <v>0.875</v>
-      </c>
-      <c r="AC236">
-        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6836277</v>
+        <v>6865915</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,67 +21543,67 @@
         <v>45359.625</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G237" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237">
         <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K237">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L237">
+        <v>3.25</v>
+      </c>
+      <c r="M237">
+        <v>2.05</v>
+      </c>
+      <c r="N237">
         <v>3.4</v>
       </c>
-      <c r="M237">
-        <v>5</v>
-      </c>
-      <c r="N237">
-        <v>1.65</v>
-      </c>
       <c r="O237">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P237">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q237">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R237">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S237">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T237">
         <v>2.25</v>
       </c>
       <c r="U237">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V237">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W237">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AA237">
         <v>-0.5</v>
@@ -21612,7 +21612,7 @@
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6861095</v>
+        <v>6870268</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45359.625</v>
       </c>
       <c r="F238" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G238" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J238" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K238">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="L238">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M238">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="N238">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O238">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P238">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="Q238">
         <v>0.25</v>
       </c>
       <c r="R238">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S238">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T238">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U238">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V238">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z238">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC238">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6865915</v>
+        <v>6836277</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,67 +21721,67 @@
         <v>45359.625</v>
       </c>
       <c r="F239" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G239" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K239">
+        <v>1.7</v>
+      </c>
+      <c r="L239">
+        <v>3.4</v>
+      </c>
+      <c r="M239">
+        <v>5</v>
+      </c>
+      <c r="N239">
+        <v>1.65</v>
+      </c>
+      <c r="O239">
         <v>3.5</v>
       </c>
-      <c r="L239">
-        <v>3.25</v>
-      </c>
-      <c r="M239">
-        <v>2.05</v>
-      </c>
-      <c r="N239">
-        <v>3.4</v>
-      </c>
-      <c r="O239">
-        <v>3.1</v>
-      </c>
       <c r="P239">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q239">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R239">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S239">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T239">
         <v>2.25</v>
       </c>
       <c r="U239">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V239">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X239">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AA239">
         <v>-0.5</v>
@@ -21790,7 +21790,7 @@
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -22058,6 +22058,658 @@
       </c>
       <c r="AC242">
         <v>-0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:29">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>7951557</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45366.52083333334</v>
+      </c>
+      <c r="F243" t="s">
+        <v>42</v>
+      </c>
+      <c r="G243" t="s">
+        <v>43</v>
+      </c>
+      <c r="H243">
+        <v>3</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243" t="s">
+        <v>45</v>
+      </c>
+      <c r="K243">
+        <v>1.615</v>
+      </c>
+      <c r="L243">
+        <v>3.6</v>
+      </c>
+      <c r="M243">
+        <v>5</v>
+      </c>
+      <c r="N243">
+        <v>1.909</v>
+      </c>
+      <c r="O243">
+        <v>2.75</v>
+      </c>
+      <c r="P243">
+        <v>5.25</v>
+      </c>
+      <c r="Q243">
+        <v>-0.5</v>
+      </c>
+      <c r="R243">
+        <v>1.975</v>
+      </c>
+      <c r="S243">
+        <v>1.875</v>
+      </c>
+      <c r="T243">
+        <v>1.75</v>
+      </c>
+      <c r="U243">
+        <v>1.775</v>
+      </c>
+      <c r="V243">
+        <v>2.1</v>
+      </c>
+      <c r="W243">
+        <v>0.909</v>
+      </c>
+      <c r="X243">
+        <v>-1</v>
+      </c>
+      <c r="Y243">
+        <v>-1</v>
+      </c>
+      <c r="Z243">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA243">
+        <v>-1</v>
+      </c>
+      <c r="AB243">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC243">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:29">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>7949044</v>
+      </c>
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45366.64583333334</v>
+      </c>
+      <c r="F244" t="s">
+        <v>31</v>
+      </c>
+      <c r="G244" t="s">
+        <v>39</v>
+      </c>
+      <c r="H244">
+        <v>1</v>
+      </c>
+      <c r="I244">
+        <v>2</v>
+      </c>
+      <c r="J244" t="s">
+        <v>47</v>
+      </c>
+      <c r="K244">
+        <v>1.75</v>
+      </c>
+      <c r="L244">
+        <v>3.5</v>
+      </c>
+      <c r="M244">
+        <v>4.2</v>
+      </c>
+      <c r="N244">
+        <v>1.6</v>
+      </c>
+      <c r="O244">
+        <v>3.75</v>
+      </c>
+      <c r="P244">
+        <v>5</v>
+      </c>
+      <c r="Q244">
+        <v>-0.75</v>
+      </c>
+      <c r="R244">
+        <v>1.8</v>
+      </c>
+      <c r="S244">
+        <v>2.05</v>
+      </c>
+      <c r="T244">
+        <v>2.5</v>
+      </c>
+      <c r="U244">
+        <v>1.925</v>
+      </c>
+      <c r="V244">
+        <v>1.925</v>
+      </c>
+      <c r="W244">
+        <v>-1</v>
+      </c>
+      <c r="X244">
+        <v>-1</v>
+      </c>
+      <c r="Y244">
+        <v>4</v>
+      </c>
+      <c r="Z244">
+        <v>-1</v>
+      </c>
+      <c r="AA244">
+        <v>1.05</v>
+      </c>
+      <c r="AB244">
+        <v>0.925</v>
+      </c>
+      <c r="AC244">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:29">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>7951558</v>
+      </c>
+      <c r="C245" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245" t="s">
+        <v>28</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45367.5</v>
+      </c>
+      <c r="F245" t="s">
+        <v>30</v>
+      </c>
+      <c r="G245" t="s">
+        <v>41</v>
+      </c>
+      <c r="H245">
+        <v>1</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245" t="s">
+        <v>45</v>
+      </c>
+      <c r="K245">
+        <v>2.1</v>
+      </c>
+      <c r="L245">
+        <v>3.1</v>
+      </c>
+      <c r="M245">
+        <v>3.4</v>
+      </c>
+      <c r="N245">
+        <v>2</v>
+      </c>
+      <c r="O245">
+        <v>3</v>
+      </c>
+      <c r="P245">
+        <v>3.75</v>
+      </c>
+      <c r="Q245">
+        <v>-0.25</v>
+      </c>
+      <c r="R245">
+        <v>1.75</v>
+      </c>
+      <c r="S245">
+        <v>2.05</v>
+      </c>
+      <c r="T245">
+        <v>2</v>
+      </c>
+      <c r="U245">
+        <v>2.025</v>
+      </c>
+      <c r="V245">
+        <v>1.825</v>
+      </c>
+      <c r="W245">
+        <v>1</v>
+      </c>
+      <c r="X245">
+        <v>-1</v>
+      </c>
+      <c r="Y245">
+        <v>-1</v>
+      </c>
+      <c r="Z245">
+        <v>0.75</v>
+      </c>
+      <c r="AA245">
+        <v>-1</v>
+      </c>
+      <c r="AB245">
+        <v>-1</v>
+      </c>
+      <c r="AC245">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="246" spans="1:29">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>7949046</v>
+      </c>
+      <c r="C246" t="s">
+        <v>28</v>
+      </c>
+      <c r="D246" t="s">
+        <v>28</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45367.625</v>
+      </c>
+      <c r="F246" t="s">
+        <v>29</v>
+      </c>
+      <c r="G246" t="s">
+        <v>44</v>
+      </c>
+      <c r="H246">
+        <v>1</v>
+      </c>
+      <c r="I246">
+        <v>2</v>
+      </c>
+      <c r="J246" t="s">
+        <v>47</v>
+      </c>
+      <c r="K246">
+        <v>2.05</v>
+      </c>
+      <c r="L246">
+        <v>3.2</v>
+      </c>
+      <c r="M246">
+        <v>3.4</v>
+      </c>
+      <c r="N246">
+        <v>1.833</v>
+      </c>
+      <c r="O246">
+        <v>3.4</v>
+      </c>
+      <c r="P246">
+        <v>4</v>
+      </c>
+      <c r="Q246">
+        <v>-0.5</v>
+      </c>
+      <c r="R246">
+        <v>1.9</v>
+      </c>
+      <c r="S246">
+        <v>1.95</v>
+      </c>
+      <c r="T246">
+        <v>2.5</v>
+      </c>
+      <c r="U246">
+        <v>1.95</v>
+      </c>
+      <c r="V246">
+        <v>1.9</v>
+      </c>
+      <c r="W246">
+        <v>-1</v>
+      </c>
+      <c r="X246">
+        <v>-1</v>
+      </c>
+      <c r="Y246">
+        <v>3</v>
+      </c>
+      <c r="Z246">
+        <v>-1</v>
+      </c>
+      <c r="AA246">
+        <v>0.95</v>
+      </c>
+      <c r="AB246">
+        <v>0.95</v>
+      </c>
+      <c r="AC246">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:29">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>7951775</v>
+      </c>
+      <c r="C247" t="s">
+        <v>28</v>
+      </c>
+      <c r="D247" t="s">
+        <v>28</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45368.55208333334</v>
+      </c>
+      <c r="F247" t="s">
+        <v>32</v>
+      </c>
+      <c r="G247" t="s">
+        <v>36</v>
+      </c>
+      <c r="K247">
+        <v>1.909</v>
+      </c>
+      <c r="L247">
+        <v>3.1</v>
+      </c>
+      <c r="M247">
+        <v>4</v>
+      </c>
+      <c r="N247">
+        <v>1.95</v>
+      </c>
+      <c r="O247">
+        <v>3</v>
+      </c>
+      <c r="P247">
+        <v>4</v>
+      </c>
+      <c r="Q247">
+        <v>-0.5</v>
+      </c>
+      <c r="R247">
+        <v>2.025</v>
+      </c>
+      <c r="S247">
+        <v>1.825</v>
+      </c>
+      <c r="T247">
+        <v>1.75</v>
+      </c>
+      <c r="U247">
+        <v>1.8</v>
+      </c>
+      <c r="V247">
+        <v>2.05</v>
+      </c>
+      <c r="W247">
+        <v>0</v>
+      </c>
+      <c r="X247">
+        <v>0</v>
+      </c>
+      <c r="Y247">
+        <v>0</v>
+      </c>
+      <c r="Z247">
+        <v>0</v>
+      </c>
+      <c r="AA247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:29">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>7953049</v>
+      </c>
+      <c r="C248" t="s">
+        <v>28</v>
+      </c>
+      <c r="D248" t="s">
+        <v>28</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45368.66666666666</v>
+      </c>
+      <c r="F248" t="s">
+        <v>40</v>
+      </c>
+      <c r="G248" t="s">
+        <v>37</v>
+      </c>
+      <c r="K248">
+        <v>1.65</v>
+      </c>
+      <c r="L248">
+        <v>3.5</v>
+      </c>
+      <c r="M248">
+        <v>5</v>
+      </c>
+      <c r="N248">
+        <v>1.75</v>
+      </c>
+      <c r="O248">
+        <v>3.4</v>
+      </c>
+      <c r="P248">
+        <v>4.5</v>
+      </c>
+      <c r="Q248">
+        <v>-0.75</v>
+      </c>
+      <c r="R248">
+        <v>1.975</v>
+      </c>
+      <c r="S248">
+        <v>1.875</v>
+      </c>
+      <c r="T248">
+        <v>2.5</v>
+      </c>
+      <c r="U248">
+        <v>2</v>
+      </c>
+      <c r="V248">
+        <v>1.85</v>
+      </c>
+      <c r="W248">
+        <v>0</v>
+      </c>
+      <c r="X248">
+        <v>0</v>
+      </c>
+      <c r="Y248">
+        <v>0</v>
+      </c>
+      <c r="Z248">
+        <v>0</v>
+      </c>
+      <c r="AA248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:29">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>7951776</v>
+      </c>
+      <c r="C249" t="s">
+        <v>28</v>
+      </c>
+      <c r="D249" t="s">
+        <v>28</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45369.52083333334</v>
+      </c>
+      <c r="F249" t="s">
+        <v>38</v>
+      </c>
+      <c r="G249" t="s">
+        <v>35</v>
+      </c>
+      <c r="K249">
+        <v>1.909</v>
+      </c>
+      <c r="L249">
+        <v>3.1</v>
+      </c>
+      <c r="M249">
+        <v>4</v>
+      </c>
+      <c r="N249">
+        <v>1.85</v>
+      </c>
+      <c r="O249">
+        <v>3.1</v>
+      </c>
+      <c r="P249">
+        <v>4.2</v>
+      </c>
+      <c r="Q249">
+        <v>-0.5</v>
+      </c>
+      <c r="R249">
+        <v>1.925</v>
+      </c>
+      <c r="S249">
+        <v>1.925</v>
+      </c>
+      <c r="T249">
+        <v>2.25</v>
+      </c>
+      <c r="U249">
+        <v>1.95</v>
+      </c>
+      <c r="V249">
+        <v>1.9</v>
+      </c>
+      <c r="W249">
+        <v>0</v>
+      </c>
+      <c r="X249">
+        <v>0</v>
+      </c>
+      <c r="Y249">
+        <v>0</v>
+      </c>
+      <c r="Z249">
+        <v>0</v>
+      </c>
+      <c r="AA249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:29">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>7951777</v>
+      </c>
+      <c r="C250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D250" t="s">
+        <v>28</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45369.64583333334</v>
+      </c>
+      <c r="F250" t="s">
+        <v>33</v>
+      </c>
+      <c r="G250" t="s">
+        <v>34</v>
+      </c>
+      <c r="K250">
+        <v>2.25</v>
+      </c>
+      <c r="L250">
+        <v>3.2</v>
+      </c>
+      <c r="M250">
+        <v>3</v>
+      </c>
+      <c r="N250">
+        <v>2.15</v>
+      </c>
+      <c r="O250">
+        <v>3.2</v>
+      </c>
+      <c r="P250">
+        <v>3.2</v>
+      </c>
+      <c r="Q250">
+        <v>-0.25</v>
+      </c>
+      <c r="R250">
+        <v>1.9</v>
+      </c>
+      <c r="S250">
+        <v>1.95</v>
+      </c>
+      <c r="T250">
+        <v>2.25</v>
+      </c>
+      <c r="U250">
+        <v>1.95</v>
+      </c>
+      <c r="V250">
+        <v>1.9</v>
+      </c>
+      <c r="W250">
+        <v>0</v>
+      </c>
+      <c r="X250">
+        <v>0</v>
+      </c>
+      <c r="Y250">
+        <v>0</v>
+      </c>
+      <c r="Z250">
+        <v>0</v>
+      </c>
+      <c r="AA250">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC250"/>
+  <dimension ref="A1:AC257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6861095</v>
+        <v>6836277</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,67 +21365,67 @@
         <v>45359.625</v>
       </c>
       <c r="F235" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G235" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I235">
         <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K235">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="L235">
         <v>3.4</v>
       </c>
       <c r="M235">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N235">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O235">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P235">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q235">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R235">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S235">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T235">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U235">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V235">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X235">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.3875</v>
+        <v>0.425</v>
       </c>
       <c r="AA235">
         <v>-0.5</v>
@@ -21434,7 +21434,7 @@
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6852370</v>
+        <v>6870268</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,76 +21454,76 @@
         <v>45359.625</v>
       </c>
       <c r="F236" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G236" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H236">
         <v>1</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K236">
+        <v>2.8</v>
+      </c>
+      <c r="L236">
+        <v>3</v>
+      </c>
+      <c r="M236">
         <v>2.55</v>
       </c>
-      <c r="L236">
-        <v>2.875</v>
-      </c>
-      <c r="M236">
+      <c r="N236">
         <v>3</v>
       </c>
-      <c r="N236">
-        <v>2.375</v>
-      </c>
       <c r="O236">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P236">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q236">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R236">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S236">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T236">
         <v>2.25</v>
       </c>
       <c r="U236">
+        <v>1.875</v>
+      </c>
+      <c r="V236">
         <v>1.975</v>
       </c>
-      <c r="V236">
-        <v>1.875</v>
-      </c>
       <c r="W236">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z236">
+        <v>-1</v>
+      </c>
+      <c r="AA236">
         <v>1</v>
       </c>
-      <c r="AA236">
-        <v>-1</v>
-      </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC236">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6865915</v>
+        <v>6861095</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,10 +21543,10 @@
         <v>45359.625</v>
       </c>
       <c r="F237" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G237" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -21558,52 +21558,52 @@
         <v>46</v>
       </c>
       <c r="K237">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L237">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M237">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N237">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O237">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P237">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q237">
         <v>0.25</v>
       </c>
       <c r="R237">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S237">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T237">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U237">
+        <v>1.8</v>
+      </c>
+      <c r="V237">
         <v>2.05</v>
       </c>
-      <c r="V237">
-        <v>1.75</v>
-      </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.4875</v>
+        <v>0.3875</v>
       </c>
       <c r="AA237">
         <v>-0.5</v>
@@ -21612,7 +21612,7 @@
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6870268</v>
+        <v>6865915</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45359.625</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G238" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K238">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="L238">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M238">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="N238">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O238">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P238">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q238">
         <v>0.25</v>
       </c>
       <c r="R238">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S238">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T238">
         <v>2.25</v>
       </c>
       <c r="U238">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V238">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y238">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA238">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB238">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6836277</v>
+        <v>6852370</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,10 +21721,10 @@
         <v>45359.625</v>
       </c>
       <c r="F239" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G239" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -21736,43 +21736,43 @@
         <v>45</v>
       </c>
       <c r="K239">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="L239">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M239">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N239">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="O239">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P239">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q239">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R239">
+        <v>2</v>
+      </c>
+      <c r="S239">
         <v>1.85</v>
-      </c>
-      <c r="S239">
-        <v>2</v>
       </c>
       <c r="T239">
         <v>2.25</v>
       </c>
       <c r="U239">
+        <v>1.975</v>
+      </c>
+      <c r="V239">
         <v>1.875</v>
       </c>
-      <c r="V239">
-        <v>1.975</v>
-      </c>
       <c r="W239">
-        <v>0.6499999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X239">
         <v>-1</v>
@@ -21781,16 +21781,16 @@
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AA239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -22438,6 +22438,15 @@
       <c r="G247" t="s">
         <v>36</v>
       </c>
+      <c r="H247">
+        <v>3</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247" t="s">
+        <v>45</v>
+      </c>
       <c r="K247">
         <v>1.909</v>
       </c>
@@ -22460,10 +22469,10 @@
         <v>-0.5</v>
       </c>
       <c r="R247">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S247">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T247">
         <v>1.75</v>
@@ -22475,19 +22484,25 @@
         <v>2.05</v>
       </c>
       <c r="W247">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="X247">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA247">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB247">
+        <v>0.8</v>
+      </c>
+      <c r="AC247">
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22512,6 +22527,15 @@
       <c r="G248" t="s">
         <v>37</v>
       </c>
+      <c r="H248">
+        <v>2</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+      <c r="J248" t="s">
+        <v>45</v>
+      </c>
       <c r="K248">
         <v>1.65</v>
       </c>
@@ -22522,25 +22546,25 @@
         <v>5</v>
       </c>
       <c r="N248">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="O248">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P248">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="Q248">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R248">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S248">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T248">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U248">
         <v>2</v>
@@ -22549,19 +22573,25 @@
         <v>1.85</v>
       </c>
       <c r="W248">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="X248">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA248">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB248">
+        <v>0.5</v>
+      </c>
+      <c r="AC248">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22586,6 +22616,15 @@
       <c r="G249" t="s">
         <v>35</v>
       </c>
+      <c r="H249">
+        <v>4</v>
+      </c>
+      <c r="I249">
+        <v>3</v>
+      </c>
+      <c r="J249" t="s">
+        <v>45</v>
+      </c>
       <c r="K249">
         <v>1.909</v>
       </c>
@@ -22596,46 +22635,52 @@
         <v>4</v>
       </c>
       <c r="N249">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O249">
         <v>3.1</v>
       </c>
       <c r="P249">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q249">
         <v>-0.5</v>
       </c>
       <c r="R249">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S249">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T249">
         <v>2.25</v>
       </c>
       <c r="U249">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V249">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W249">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X249">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y249">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA249">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB249">
+        <v>1.025</v>
+      </c>
+      <c r="AC249">
+        <v>-1</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22660,6 +22705,15 @@
       <c r="G250" t="s">
         <v>34</v>
       </c>
+      <c r="H250">
+        <v>1</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250" t="s">
+        <v>45</v>
+      </c>
       <c r="K250">
         <v>2.25</v>
       </c>
@@ -22682,33 +22736,557 @@
         <v>-0.25</v>
       </c>
       <c r="R250">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S250">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T250">
         <v>2.25</v>
       </c>
       <c r="U250">
+        <v>1.9</v>
+      </c>
+      <c r="V250">
         <v>1.95</v>
       </c>
-      <c r="V250">
+      <c r="W250">
+        <v>1.15</v>
+      </c>
+      <c r="X250">
+        <v>-1</v>
+      </c>
+      <c r="Y250">
+        <v>-1</v>
+      </c>
+      <c r="Z250">
+        <v>0.875</v>
+      </c>
+      <c r="AA250">
+        <v>-1</v>
+      </c>
+      <c r="AB250">
+        <v>-1</v>
+      </c>
+      <c r="AC250">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="251" spans="1:29">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>7951781</v>
+      </c>
+      <c r="C251" t="s">
+        <v>28</v>
+      </c>
+      <c r="D251" t="s">
+        <v>28</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45380.52083333334</v>
+      </c>
+      <c r="F251" t="s">
+        <v>35</v>
+      </c>
+      <c r="G251" t="s">
+        <v>32</v>
+      </c>
+      <c r="K251">
+        <v>3</v>
+      </c>
+      <c r="L251">
+        <v>3.1</v>
+      </c>
+      <c r="M251">
+        <v>2.45</v>
+      </c>
+      <c r="N251">
+        <v>3</v>
+      </c>
+      <c r="O251">
+        <v>3.1</v>
+      </c>
+      <c r="P251">
+        <v>2.45</v>
+      </c>
+      <c r="Q251">
+        <v>0.25</v>
+      </c>
+      <c r="R251">
+        <v>1.75</v>
+      </c>
+      <c r="S251">
+        <v>2.125</v>
+      </c>
+      <c r="T251">
+        <v>2</v>
+      </c>
+      <c r="U251">
+        <v>1.975</v>
+      </c>
+      <c r="V251">
+        <v>1.875</v>
+      </c>
+      <c r="W251">
+        <v>0</v>
+      </c>
+      <c r="X251">
+        <v>0</v>
+      </c>
+      <c r="Y251">
+        <v>0</v>
+      </c>
+      <c r="Z251">
+        <v>0</v>
+      </c>
+      <c r="AA251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:29">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>7951750</v>
+      </c>
+      <c r="C252" t="s">
+        <v>28</v>
+      </c>
+      <c r="D252" t="s">
+        <v>28</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45380.64583333334</v>
+      </c>
+      <c r="F252" t="s">
+        <v>37</v>
+      </c>
+      <c r="G252" t="s">
+        <v>29</v>
+      </c>
+      <c r="K252">
+        <v>3.3</v>
+      </c>
+      <c r="L252">
+        <v>3.4</v>
+      </c>
+      <c r="M252">
+        <v>2.15</v>
+      </c>
+      <c r="N252">
+        <v>3.5</v>
+      </c>
+      <c r="O252">
+        <v>3.4</v>
+      </c>
+      <c r="P252">
+        <v>2.05</v>
+      </c>
+      <c r="Q252">
+        <v>0.25</v>
+      </c>
+      <c r="R252">
+        <v>2.05</v>
+      </c>
+      <c r="S252">
+        <v>1.8</v>
+      </c>
+      <c r="T252">
+        <v>2.25</v>
+      </c>
+      <c r="U252">
+        <v>1.825</v>
+      </c>
+      <c r="V252">
+        <v>2.025</v>
+      </c>
+      <c r="W252">
+        <v>0</v>
+      </c>
+      <c r="X252">
+        <v>0</v>
+      </c>
+      <c r="Y252">
+        <v>0</v>
+      </c>
+      <c r="Z252">
+        <v>0</v>
+      </c>
+      <c r="AA252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:29">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>8010912</v>
+      </c>
+      <c r="C253" t="s">
+        <v>28</v>
+      </c>
+      <c r="D253" t="s">
+        <v>28</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45381.44791666666</v>
+      </c>
+      <c r="F253" t="s">
+        <v>43</v>
+      </c>
+      <c r="G253" t="s">
+        <v>41</v>
+      </c>
+      <c r="K253">
+        <v>2.55</v>
+      </c>
+      <c r="L253">
+        <v>3.1</v>
+      </c>
+      <c r="M253">
+        <v>2.875</v>
+      </c>
+      <c r="N253">
+        <v>2.45</v>
+      </c>
+      <c r="O253">
+        <v>3.1</v>
+      </c>
+      <c r="P253">
+        <v>3</v>
+      </c>
+      <c r="Q253">
+        <v>0</v>
+      </c>
+      <c r="R253">
+        <v>1.75</v>
+      </c>
+      <c r="S253">
+        <v>2.125</v>
+      </c>
+      <c r="T253">
+        <v>2</v>
+      </c>
+      <c r="U253">
+        <v>1.8</v>
+      </c>
+      <c r="V253">
+        <v>2.05</v>
+      </c>
+      <c r="W253">
+        <v>0</v>
+      </c>
+      <c r="X253">
+        <v>0</v>
+      </c>
+      <c r="Y253">
+        <v>0</v>
+      </c>
+      <c r="Z253">
+        <v>0</v>
+      </c>
+      <c r="AA253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:29">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>8010913</v>
+      </c>
+      <c r="C254" t="s">
+        <v>28</v>
+      </c>
+      <c r="D254" t="s">
+        <v>28</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45381.54166666666</v>
+      </c>
+      <c r="F254" t="s">
+        <v>42</v>
+      </c>
+      <c r="G254" t="s">
+        <v>38</v>
+      </c>
+      <c r="K254">
+        <v>1.95</v>
+      </c>
+      <c r="L254">
+        <v>3.4</v>
+      </c>
+      <c r="M254">
+        <v>4</v>
+      </c>
+      <c r="N254">
+        <v>1.95</v>
+      </c>
+      <c r="O254">
+        <v>3.4</v>
+      </c>
+      <c r="P254">
+        <v>4</v>
+      </c>
+      <c r="Q254">
+        <v>-0.5</v>
+      </c>
+      <c r="R254">
+        <v>1.925</v>
+      </c>
+      <c r="S254">
+        <v>1.925</v>
+      </c>
+      <c r="T254">
+        <v>2.25</v>
+      </c>
+      <c r="U254">
+        <v>2.025</v>
+      </c>
+      <c r="V254">
+        <v>1.825</v>
+      </c>
+      <c r="W254">
+        <v>0</v>
+      </c>
+      <c r="X254">
+        <v>0</v>
+      </c>
+      <c r="Y254">
+        <v>0</v>
+      </c>
+      <c r="Z254">
+        <v>0</v>
+      </c>
+      <c r="AA254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:29">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>7951749</v>
+      </c>
+      <c r="C255" t="s">
+        <v>28</v>
+      </c>
+      <c r="D255" t="s">
+        <v>28</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45381.66666666666</v>
+      </c>
+      <c r="F255" t="s">
+        <v>44</v>
+      </c>
+      <c r="G255" t="s">
+        <v>31</v>
+      </c>
+      <c r="K255">
+        <v>2.1</v>
+      </c>
+      <c r="L255">
+        <v>3.4</v>
+      </c>
+      <c r="M255">
+        <v>3.3</v>
+      </c>
+      <c r="N255">
+        <v>2.1</v>
+      </c>
+      <c r="O255">
+        <v>3.4</v>
+      </c>
+      <c r="P255">
+        <v>3.3</v>
+      </c>
+      <c r="Q255">
+        <v>-0.25</v>
+      </c>
+      <c r="R255">
+        <v>1.85</v>
+      </c>
+      <c r="S255">
+        <v>2</v>
+      </c>
+      <c r="T255">
+        <v>2.5</v>
+      </c>
+      <c r="U255">
         <v>1.9</v>
       </c>
-      <c r="W250">
-        <v>0</v>
-      </c>
-      <c r="X250">
-        <v>0</v>
-      </c>
-      <c r="Y250">
-        <v>0</v>
-      </c>
-      <c r="Z250">
-        <v>0</v>
-      </c>
-      <c r="AA250">
+      <c r="V255">
+        <v>1.95</v>
+      </c>
+      <c r="W255">
+        <v>0</v>
+      </c>
+      <c r="X255">
+        <v>0</v>
+      </c>
+      <c r="Y255">
+        <v>0</v>
+      </c>
+      <c r="Z255">
+        <v>0</v>
+      </c>
+      <c r="AA255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:29">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>7951779</v>
+      </c>
+      <c r="C256" t="s">
+        <v>28</v>
+      </c>
+      <c r="D256" t="s">
+        <v>28</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45382.33333333334</v>
+      </c>
+      <c r="F256" t="s">
+        <v>34</v>
+      </c>
+      <c r="G256" t="s">
+        <v>30</v>
+      </c>
+      <c r="K256">
+        <v>2.3</v>
+      </c>
+      <c r="L256">
+        <v>3.2</v>
+      </c>
+      <c r="M256">
+        <v>3.2</v>
+      </c>
+      <c r="N256">
+        <v>2.3</v>
+      </c>
+      <c r="O256">
+        <v>3.2</v>
+      </c>
+      <c r="P256">
+        <v>3.2</v>
+      </c>
+      <c r="Q256">
+        <v>-0.25</v>
+      </c>
+      <c r="R256">
+        <v>2</v>
+      </c>
+      <c r="S256">
+        <v>1.85</v>
+      </c>
+      <c r="T256">
+        <v>2.25</v>
+      </c>
+      <c r="U256">
+        <v>2.05</v>
+      </c>
+      <c r="V256">
+        <v>1.8</v>
+      </c>
+      <c r="W256">
+        <v>0</v>
+      </c>
+      <c r="X256">
+        <v>0</v>
+      </c>
+      <c r="Y256">
+        <v>0</v>
+      </c>
+      <c r="Z256">
+        <v>0</v>
+      </c>
+      <c r="AA256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:27">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>7951748</v>
+      </c>
+      <c r="C257" t="s">
+        <v>28</v>
+      </c>
+      <c r="D257" t="s">
+        <v>28</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45382.625</v>
+      </c>
+      <c r="F257" t="s">
+        <v>39</v>
+      </c>
+      <c r="G257" t="s">
+        <v>40</v>
+      </c>
+      <c r="K257">
+        <v>3.6</v>
+      </c>
+      <c r="L257">
+        <v>3.3</v>
+      </c>
+      <c r="M257">
+        <v>2</v>
+      </c>
+      <c r="N257">
+        <v>3.6</v>
+      </c>
+      <c r="O257">
+        <v>3.3</v>
+      </c>
+      <c r="P257">
+        <v>2</v>
+      </c>
+      <c r="Q257">
+        <v>0.25</v>
+      </c>
+      <c r="R257">
+        <v>2.1</v>
+      </c>
+      <c r="S257">
+        <v>1.775</v>
+      </c>
+      <c r="T257">
+        <v>2.25</v>
+      </c>
+      <c r="U257">
+        <v>1.825</v>
+      </c>
+      <c r="V257">
+        <v>2.025</v>
+      </c>
+      <c r="W257">
+        <v>0</v>
+      </c>
+      <c r="X257">
+        <v>0</v>
+      </c>
+      <c r="Y257">
+        <v>0</v>
+      </c>
+      <c r="Z257">
+        <v>0</v>
+      </c>
+      <c r="AA257">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC257"/>
+  <dimension ref="A1:AC256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6836277</v>
+        <v>6852370</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,10 +21365,10 @@
         <v>45359.625</v>
       </c>
       <c r="F235" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G235" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21380,43 +21380,43 @@
         <v>45</v>
       </c>
       <c r="K235">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="L235">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M235">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N235">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="O235">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P235">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q235">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R235">
+        <v>2</v>
+      </c>
+      <c r="S235">
         <v>1.85</v>
-      </c>
-      <c r="S235">
-        <v>2</v>
       </c>
       <c r="T235">
         <v>2.25</v>
       </c>
       <c r="U235">
+        <v>1.975</v>
+      </c>
+      <c r="V235">
         <v>1.875</v>
       </c>
-      <c r="V235">
-        <v>1.975</v>
-      </c>
       <c r="W235">
-        <v>0.6499999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X235">
         <v>-1</v>
@@ -21425,16 +21425,16 @@
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AA235">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6870268</v>
+        <v>6836277</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,40 +21454,40 @@
         <v>45359.625</v>
       </c>
       <c r="F236" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G236" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H236">
         <v>1</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K236">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="L236">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M236">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N236">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O236">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P236">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q236">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R236">
         <v>1.85</v>
@@ -21505,25 +21505,25 @@
         <v>1.975</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA236">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB236">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6861095</v>
+        <v>6870268</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,76 +21543,76 @@
         <v>45359.625</v>
       </c>
       <c r="F237" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G237" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K237">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="L237">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M237">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="N237">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O237">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P237">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="Q237">
         <v>0.25</v>
       </c>
       <c r="R237">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S237">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T237">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U237">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V237">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z237">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA237">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC237">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6865915</v>
+        <v>6861095</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,10 +21632,10 @@
         <v>45359.625</v>
       </c>
       <c r="F238" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G238" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -21647,52 +21647,52 @@
         <v>46</v>
       </c>
       <c r="K238">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L238">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M238">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N238">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O238">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P238">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q238">
         <v>0.25</v>
       </c>
       <c r="R238">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S238">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T238">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U238">
+        <v>1.8</v>
+      </c>
+      <c r="V238">
         <v>2.05</v>
       </c>
-      <c r="V238">
-        <v>1.75</v>
-      </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.4875</v>
+        <v>0.3875</v>
       </c>
       <c r="AA238">
         <v>-0.5</v>
@@ -21701,7 +21701,7 @@
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6852370</v>
+        <v>6865915</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,76 +21721,76 @@
         <v>45359.625</v>
       </c>
       <c r="F239" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G239" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K239">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="L239">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M239">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N239">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O239">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P239">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q239">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R239">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S239">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T239">
         <v>2.25</v>
       </c>
       <c r="U239">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V239">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W239">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -22777,7 +22777,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7951781</v>
+        <v>7951750</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22786,49 +22786,49 @@
         <v>28</v>
       </c>
       <c r="E251" s="2">
-        <v>45380.52083333334</v>
+        <v>45380.64583333334</v>
       </c>
       <c r="F251" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G251" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K251">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="L251">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M251">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N251">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O251">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P251">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="Q251">
         <v>0.25</v>
       </c>
       <c r="R251">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="S251">
-        <v>2.125</v>
+        <v>1.8</v>
       </c>
       <c r="T251">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U251">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V251">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W251">
         <v>0</v>
@@ -22851,7 +22851,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7951750</v>
+        <v>8010912</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22860,49 +22860,49 @@
         <v>28</v>
       </c>
       <c r="E252" s="2">
-        <v>45380.64583333334</v>
+        <v>45381.44791666666</v>
       </c>
       <c r="F252" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G252" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="K252">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="L252">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M252">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="N252">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="O252">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P252">
+        <v>3</v>
+      </c>
+      <c r="Q252">
+        <v>-0.25</v>
+      </c>
+      <c r="R252">
+        <v>2.1</v>
+      </c>
+      <c r="S252">
+        <v>1.775</v>
+      </c>
+      <c r="T252">
+        <v>2</v>
+      </c>
+      <c r="U252">
+        <v>1.8</v>
+      </c>
+      <c r="V252">
         <v>2.05</v>
-      </c>
-      <c r="Q252">
-        <v>0.25</v>
-      </c>
-      <c r="R252">
-        <v>2.05</v>
-      </c>
-      <c r="S252">
-        <v>1.8</v>
-      </c>
-      <c r="T252">
-        <v>2.25</v>
-      </c>
-      <c r="U252">
-        <v>1.825</v>
-      </c>
-      <c r="V252">
-        <v>2.025</v>
       </c>
       <c r="W252">
         <v>0</v>
@@ -22925,7 +22925,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>8010912</v>
+        <v>8010913</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22934,49 +22934,49 @@
         <v>28</v>
       </c>
       <c r="E253" s="2">
-        <v>45381.44791666666</v>
+        <v>45381.54166666666</v>
       </c>
       <c r="F253" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G253" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K253">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="L253">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M253">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N253">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O253">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P253">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q253">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R253">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S253">
-        <v>2.125</v>
+        <v>1.9</v>
       </c>
       <c r="T253">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U253">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V253">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W253">
         <v>0</v>
@@ -22999,7 +22999,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>8010913</v>
+        <v>7951749</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23008,49 +23008,49 @@
         <v>28</v>
       </c>
       <c r="E254" s="2">
-        <v>45381.54166666666</v>
+        <v>45381.66666666666</v>
       </c>
       <c r="F254" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G254" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K254">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L254">
         <v>3.4</v>
       </c>
       <c r="M254">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N254">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O254">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P254">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q254">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R254">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S254">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T254">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U254">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V254">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W254">
         <v>0</v>
@@ -23073,7 +23073,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7951749</v>
+        <v>7951779</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23082,49 +23082,49 @@
         <v>28</v>
       </c>
       <c r="E255" s="2">
-        <v>45381.66666666666</v>
+        <v>45382.33333333334</v>
       </c>
       <c r="F255" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G255" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K255">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L255">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M255">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N255">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O255">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P255">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q255">
         <v>-0.25</v>
       </c>
       <c r="R255">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S255">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T255">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U255">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V255">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W255">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7951779</v>
+        <v>7951748</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23156,49 +23156,49 @@
         <v>28</v>
       </c>
       <c r="E256" s="2">
-        <v>45382.33333333334</v>
+        <v>45382.625</v>
       </c>
       <c r="F256" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G256" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K256">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="L256">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M256">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N256">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="O256">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P256">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q256">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R256">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S256">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T256">
         <v>2.25</v>
       </c>
       <c r="U256">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V256">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W256">
         <v>0</v>
@@ -23213,80 +23213,6 @@
         <v>0</v>
       </c>
       <c r="AA256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:27">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
-      <c r="B257">
-        <v>7951748</v>
-      </c>
-      <c r="C257" t="s">
-        <v>28</v>
-      </c>
-      <c r="D257" t="s">
-        <v>28</v>
-      </c>
-      <c r="E257" s="2">
-        <v>45382.625</v>
-      </c>
-      <c r="F257" t="s">
-        <v>39</v>
-      </c>
-      <c r="G257" t="s">
-        <v>40</v>
-      </c>
-      <c r="K257">
-        <v>3.6</v>
-      </c>
-      <c r="L257">
-        <v>3.3</v>
-      </c>
-      <c r="M257">
-        <v>2</v>
-      </c>
-      <c r="N257">
-        <v>3.6</v>
-      </c>
-      <c r="O257">
-        <v>3.3</v>
-      </c>
-      <c r="P257">
-        <v>2</v>
-      </c>
-      <c r="Q257">
-        <v>0.25</v>
-      </c>
-      <c r="R257">
-        <v>2.1</v>
-      </c>
-      <c r="S257">
-        <v>1.775</v>
-      </c>
-      <c r="T257">
-        <v>2.25</v>
-      </c>
-      <c r="U257">
-        <v>1.825</v>
-      </c>
-      <c r="V257">
-        <v>2.025</v>
-      </c>
-      <c r="W257">
-        <v>0</v>
-      </c>
-      <c r="X257">
-        <v>0</v>
-      </c>
-      <c r="Y257">
-        <v>0</v>
-      </c>
-      <c r="Z257">
-        <v>0</v>
-      </c>
-      <c r="AA257">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC256"/>
+  <dimension ref="A1:AC255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6852370</v>
+        <v>6870268</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21365,76 @@
         <v>45359.625</v>
       </c>
       <c r="F235" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G235" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H235">
         <v>1</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K235">
+        <v>2.8</v>
+      </c>
+      <c r="L235">
+        <v>3</v>
+      </c>
+      <c r="M235">
         <v>2.55</v>
       </c>
-      <c r="L235">
-        <v>2.875</v>
-      </c>
-      <c r="M235">
+      <c r="N235">
         <v>3</v>
       </c>
-      <c r="N235">
-        <v>2.375</v>
-      </c>
       <c r="O235">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P235">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q235">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R235">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S235">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T235">
         <v>2.25</v>
       </c>
       <c r="U235">
+        <v>1.875</v>
+      </c>
+      <c r="V235">
         <v>1.975</v>
       </c>
-      <c r="V235">
-        <v>1.875</v>
-      </c>
       <c r="W235">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z235">
+        <v>-1</v>
+      </c>
+      <c r="AA235">
         <v>1</v>
       </c>
-      <c r="AA235">
-        <v>-1</v>
-      </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC235">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6836277</v>
+        <v>6852370</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,10 +21454,10 @@
         <v>45359.625</v>
       </c>
       <c r="F236" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G236" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H236">
         <v>1</v>
@@ -21469,43 +21469,43 @@
         <v>45</v>
       </c>
       <c r="K236">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="L236">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M236">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N236">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="O236">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P236">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q236">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R236">
+        <v>2</v>
+      </c>
+      <c r="S236">
         <v>1.85</v>
-      </c>
-      <c r="S236">
-        <v>2</v>
       </c>
       <c r="T236">
         <v>2.25</v>
       </c>
       <c r="U236">
+        <v>1.975</v>
+      </c>
+      <c r="V236">
         <v>1.875</v>
       </c>
-      <c r="V236">
-        <v>1.975</v>
-      </c>
       <c r="W236">
-        <v>0.6499999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X236">
         <v>-1</v>
@@ -21514,16 +21514,16 @@
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AA236">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6870268</v>
+        <v>6836277</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,40 +21543,40 @@
         <v>45359.625</v>
       </c>
       <c r="F237" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G237" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H237">
         <v>1</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K237">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="L237">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M237">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N237">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O237">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P237">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q237">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R237">
         <v>1.85</v>
@@ -21594,25 +21594,25 @@
         <v>1.975</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA237">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB237">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -22777,7 +22777,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7951750</v>
+        <v>8010912</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22786,49 +22786,49 @@
         <v>28</v>
       </c>
       <c r="E251" s="2">
-        <v>45380.64583333334</v>
+        <v>45381.44791666666</v>
       </c>
       <c r="F251" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G251" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="K251">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="L251">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M251">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="N251">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="O251">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P251">
+        <v>3</v>
+      </c>
+      <c r="Q251">
+        <v>-0.25</v>
+      </c>
+      <c r="R251">
+        <v>2.1</v>
+      </c>
+      <c r="S251">
+        <v>1.775</v>
+      </c>
+      <c r="T251">
+        <v>2</v>
+      </c>
+      <c r="U251">
+        <v>1.8</v>
+      </c>
+      <c r="V251">
         <v>2.05</v>
-      </c>
-      <c r="Q251">
-        <v>0.25</v>
-      </c>
-      <c r="R251">
-        <v>2.05</v>
-      </c>
-      <c r="S251">
-        <v>1.8</v>
-      </c>
-      <c r="T251">
-        <v>2.25</v>
-      </c>
-      <c r="U251">
-        <v>1.825</v>
-      </c>
-      <c r="V251">
-        <v>2.025</v>
       </c>
       <c r="W251">
         <v>0</v>
@@ -22851,7 +22851,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>8010912</v>
+        <v>8010913</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22860,49 +22860,49 @@
         <v>28</v>
       </c>
       <c r="E252" s="2">
-        <v>45381.44791666666</v>
+        <v>45381.54166666666</v>
       </c>
       <c r="F252" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G252" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K252">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="L252">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M252">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N252">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O252">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P252">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q252">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R252">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S252">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T252">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U252">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V252">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W252">
         <v>0</v>
@@ -22925,7 +22925,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>8010913</v>
+        <v>7951749</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22934,49 +22934,49 @@
         <v>28</v>
       </c>
       <c r="E253" s="2">
-        <v>45381.54166666666</v>
+        <v>45381.66666666666</v>
       </c>
       <c r="F253" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G253" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K253">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L253">
         <v>3.4</v>
       </c>
       <c r="M253">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N253">
+        <v>2.1</v>
+      </c>
+      <c r="O253">
+        <v>3.5</v>
+      </c>
+      <c r="P253">
+        <v>3.25</v>
+      </c>
+      <c r="Q253">
+        <v>-0.25</v>
+      </c>
+      <c r="R253">
+        <v>1.9</v>
+      </c>
+      <c r="S253">
         <v>1.95</v>
       </c>
-      <c r="O253">
-        <v>3.4</v>
-      </c>
-      <c r="P253">
-        <v>4</v>
-      </c>
-      <c r="Q253">
-        <v>-0.5</v>
-      </c>
-      <c r="R253">
-        <v>1.95</v>
-      </c>
-      <c r="S253">
-        <v>1.9</v>
-      </c>
       <c r="T253">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U253">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V253">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W253">
         <v>0</v>
@@ -22999,7 +22999,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7951749</v>
+        <v>7951779</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23008,49 +23008,49 @@
         <v>28</v>
       </c>
       <c r="E254" s="2">
-        <v>45381.66666666666</v>
+        <v>45382.33333333334</v>
       </c>
       <c r="F254" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G254" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K254">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L254">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M254">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N254">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O254">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P254">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q254">
         <v>-0.25</v>
       </c>
       <c r="R254">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S254">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T254">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U254">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V254">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W254">
         <v>0</v>
@@ -23073,7 +23073,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7951779</v>
+        <v>7951748</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23082,49 +23082,49 @@
         <v>28</v>
       </c>
       <c r="E255" s="2">
-        <v>45382.33333333334</v>
+        <v>45382.625</v>
       </c>
       <c r="F255" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G255" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K255">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="L255">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M255">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N255">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="O255">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P255">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q255">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R255">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S255">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T255">
         <v>2.25</v>
       </c>
       <c r="U255">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V255">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W255">
         <v>0</v>
@@ -23139,80 +23139,6 @@
         <v>0</v>
       </c>
       <c r="AA255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:29">
-      <c r="A256" s="1">
-        <v>254</v>
-      </c>
-      <c r="B256">
-        <v>7951748</v>
-      </c>
-      <c r="C256" t="s">
-        <v>28</v>
-      </c>
-      <c r="D256" t="s">
-        <v>28</v>
-      </c>
-      <c r="E256" s="2">
-        <v>45382.625</v>
-      </c>
-      <c r="F256" t="s">
-        <v>39</v>
-      </c>
-      <c r="G256" t="s">
-        <v>40</v>
-      </c>
-      <c r="K256">
-        <v>3.6</v>
-      </c>
-      <c r="L256">
-        <v>3.3</v>
-      </c>
-      <c r="M256">
-        <v>2</v>
-      </c>
-      <c r="N256">
-        <v>3.6</v>
-      </c>
-      <c r="O256">
-        <v>3.3</v>
-      </c>
-      <c r="P256">
-        <v>2.05</v>
-      </c>
-      <c r="Q256">
-        <v>0.25</v>
-      </c>
-      <c r="R256">
-        <v>2.05</v>
-      </c>
-      <c r="S256">
-        <v>1.8</v>
-      </c>
-      <c r="T256">
-        <v>2.25</v>
-      </c>
-      <c r="U256">
-        <v>1.825</v>
-      </c>
-      <c r="V256">
-        <v>2.025</v>
-      </c>
-      <c r="W256">
-        <v>0</v>
-      </c>
-      <c r="X256">
-        <v>0</v>
-      </c>
-      <c r="Y256">
-        <v>0</v>
-      </c>
-      <c r="Z256">
-        <v>0</v>
-      </c>
-      <c r="AA256">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC255"/>
+  <dimension ref="A1:AC253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6870268</v>
+        <v>6852370</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21365,76 @@
         <v>45359.625</v>
       </c>
       <c r="F235" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G235" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H235">
         <v>1</v>
       </c>
       <c r="I235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K235">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="L235">
+        <v>2.875</v>
+      </c>
+      <c r="M235">
         <v>3</v>
       </c>
-      <c r="M235">
-        <v>2.55</v>
-      </c>
       <c r="N235">
+        <v>2.375</v>
+      </c>
+      <c r="O235">
         <v>3</v>
       </c>
-      <c r="O235">
-        <v>3.2</v>
-      </c>
       <c r="P235">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q235">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R235">
+        <v>2</v>
+      </c>
+      <c r="S235">
         <v>1.85</v>
-      </c>
-      <c r="S235">
-        <v>2</v>
       </c>
       <c r="T235">
         <v>2.25</v>
       </c>
       <c r="U235">
+        <v>1.975</v>
+      </c>
+      <c r="V235">
         <v>1.875</v>
       </c>
-      <c r="V235">
-        <v>1.975</v>
-      </c>
       <c r="W235">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA235">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
+        <v>-1</v>
+      </c>
+      <c r="AC235">
         <v>0.875</v>
-      </c>
-      <c r="AC235">
-        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6852370</v>
+        <v>6836277</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,10 +21454,10 @@
         <v>45359.625</v>
       </c>
       <c r="F236" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G236" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H236">
         <v>1</v>
@@ -21469,43 +21469,43 @@
         <v>45</v>
       </c>
       <c r="K236">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="L236">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M236">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N236">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="O236">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P236">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q236">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R236">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S236">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T236">
         <v>2.25</v>
       </c>
       <c r="U236">
+        <v>1.875</v>
+      </c>
+      <c r="V236">
         <v>1.975</v>
       </c>
-      <c r="V236">
-        <v>1.875</v>
-      </c>
       <c r="W236">
-        <v>1.375</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X236">
         <v>-1</v>
@@ -21514,16 +21514,16 @@
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB236">
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6836277</v>
+        <v>6870268</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,40 +21543,40 @@
         <v>45359.625</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G237" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H237">
         <v>1</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K237">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="L237">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M237">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N237">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O237">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P237">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q237">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R237">
         <v>1.85</v>
@@ -21594,25 +21594,25 @@
         <v>1.975</v>
       </c>
       <c r="W237">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z237">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA237">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC237">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -22777,7 +22777,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>8010912</v>
+        <v>7951779</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22786,49 +22786,49 @@
         <v>28</v>
       </c>
       <c r="E251" s="2">
-        <v>45381.44791666666</v>
+        <v>45382.33333333334</v>
       </c>
       <c r="F251" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G251" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K251">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L251">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M251">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N251">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="O251">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P251">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q251">
         <v>-0.25</v>
       </c>
       <c r="R251">
+        <v>2</v>
+      </c>
+      <c r="S251">
+        <v>1.85</v>
+      </c>
+      <c r="T251">
+        <v>2.25</v>
+      </c>
+      <c r="U251">
         <v>2.1</v>
       </c>
-      <c r="S251">
+      <c r="V251">
         <v>1.775</v>
-      </c>
-      <c r="T251">
-        <v>2</v>
-      </c>
-      <c r="U251">
-        <v>1.8</v>
-      </c>
-      <c r="V251">
-        <v>2.05</v>
       </c>
       <c r="W251">
         <v>0</v>
@@ -22851,7 +22851,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>8010913</v>
+        <v>7951748</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22860,49 +22860,49 @@
         <v>28</v>
       </c>
       <c r="E252" s="2">
-        <v>45381.54166666666</v>
+        <v>45382.625</v>
       </c>
       <c r="F252" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G252" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K252">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="L252">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M252">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N252">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="O252">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P252">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q252">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R252">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S252">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T252">
         <v>2.25</v>
       </c>
       <c r="U252">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V252">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W252">
         <v>0</v>
@@ -22925,7 +22925,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7951749</v>
+        <v>7951780</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22934,49 +22934,49 @@
         <v>28</v>
       </c>
       <c r="E253" s="2">
-        <v>45381.66666666666</v>
+        <v>45383.60416666666</v>
       </c>
       <c r="F253" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G253" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K253">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L253">
+        <v>3</v>
+      </c>
+      <c r="M253">
         <v>3.4</v>
       </c>
-      <c r="M253">
+      <c r="N253">
+        <v>2.375</v>
+      </c>
+      <c r="O253">
+        <v>3</v>
+      </c>
+      <c r="P253">
         <v>3.3</v>
-      </c>
-      <c r="N253">
-        <v>2.1</v>
-      </c>
-      <c r="O253">
-        <v>3.5</v>
-      </c>
-      <c r="P253">
-        <v>3.25</v>
       </c>
       <c r="Q253">
         <v>-0.25</v>
       </c>
       <c r="R253">
+        <v>2.05</v>
+      </c>
+      <c r="S253">
+        <v>1.8</v>
+      </c>
+      <c r="T253">
+        <v>2</v>
+      </c>
+      <c r="U253">
+        <v>1.95</v>
+      </c>
+      <c r="V253">
         <v>1.9</v>
-      </c>
-      <c r="S253">
-        <v>1.95</v>
-      </c>
-      <c r="T253">
-        <v>2.5</v>
-      </c>
-      <c r="U253">
-        <v>1.85</v>
-      </c>
-      <c r="V253">
-        <v>2</v>
       </c>
       <c r="W253">
         <v>0</v>
@@ -22991,154 +22991,6 @@
         <v>0</v>
       </c>
       <c r="AA253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:29">
-      <c r="A254" s="1">
-        <v>252</v>
-      </c>
-      <c r="B254">
-        <v>7951779</v>
-      </c>
-      <c r="C254" t="s">
-        <v>28</v>
-      </c>
-      <c r="D254" t="s">
-        <v>28</v>
-      </c>
-      <c r="E254" s="2">
-        <v>45382.33333333334</v>
-      </c>
-      <c r="F254" t="s">
-        <v>34</v>
-      </c>
-      <c r="G254" t="s">
-        <v>30</v>
-      </c>
-      <c r="K254">
-        <v>2.3</v>
-      </c>
-      <c r="L254">
-        <v>3.2</v>
-      </c>
-      <c r="M254">
-        <v>3.2</v>
-      </c>
-      <c r="N254">
-        <v>2.3</v>
-      </c>
-      <c r="O254">
-        <v>3.2</v>
-      </c>
-      <c r="P254">
-        <v>3.2</v>
-      </c>
-      <c r="Q254">
-        <v>-0.25</v>
-      </c>
-      <c r="R254">
-        <v>1.975</v>
-      </c>
-      <c r="S254">
-        <v>1.875</v>
-      </c>
-      <c r="T254">
-        <v>2.25</v>
-      </c>
-      <c r="U254">
-        <v>2.05</v>
-      </c>
-      <c r="V254">
-        <v>1.8</v>
-      </c>
-      <c r="W254">
-        <v>0</v>
-      </c>
-      <c r="X254">
-        <v>0</v>
-      </c>
-      <c r="Y254">
-        <v>0</v>
-      </c>
-      <c r="Z254">
-        <v>0</v>
-      </c>
-      <c r="AA254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:29">
-      <c r="A255" s="1">
-        <v>253</v>
-      </c>
-      <c r="B255">
-        <v>7951748</v>
-      </c>
-      <c r="C255" t="s">
-        <v>28</v>
-      </c>
-      <c r="D255" t="s">
-        <v>28</v>
-      </c>
-      <c r="E255" s="2">
-        <v>45382.625</v>
-      </c>
-      <c r="F255" t="s">
-        <v>39</v>
-      </c>
-      <c r="G255" t="s">
-        <v>40</v>
-      </c>
-      <c r="K255">
-        <v>3.6</v>
-      </c>
-      <c r="L255">
-        <v>3.3</v>
-      </c>
-      <c r="M255">
-        <v>2</v>
-      </c>
-      <c r="N255">
-        <v>3.6</v>
-      </c>
-      <c r="O255">
-        <v>3.3</v>
-      </c>
-      <c r="P255">
-        <v>2.05</v>
-      </c>
-      <c r="Q255">
-        <v>0.25</v>
-      </c>
-      <c r="R255">
-        <v>2.05</v>
-      </c>
-      <c r="S255">
-        <v>1.8</v>
-      </c>
-      <c r="T255">
-        <v>2.25</v>
-      </c>
-      <c r="U255">
-        <v>1.825</v>
-      </c>
-      <c r="V255">
-        <v>2.025</v>
-      </c>
-      <c r="W255">
-        <v>0</v>
-      </c>
-      <c r="X255">
-        <v>0</v>
-      </c>
-      <c r="Y255">
-        <v>0</v>
-      </c>
-      <c r="Z255">
-        <v>0</v>
-      </c>
-      <c r="AA255">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC253"/>
+  <dimension ref="A1:AC256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6836277</v>
+        <v>6861095</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,67 +21454,67 @@
         <v>45359.625</v>
       </c>
       <c r="F236" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G236" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236">
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K236">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="L236">
         <v>3.4</v>
       </c>
       <c r="M236">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="N236">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="O236">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P236">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q236">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R236">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S236">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T236">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U236">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V236">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W236">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.425</v>
+        <v>0.3875</v>
       </c>
       <c r="AA236">
         <v>-0.5</v>
@@ -21523,7 +21523,7 @@
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6870268</v>
+        <v>6865915</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,76 +21543,76 @@
         <v>45359.625</v>
       </c>
       <c r="F237" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G237" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K237">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="L237">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M237">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="N237">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O237">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P237">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q237">
         <v>0.25</v>
       </c>
       <c r="R237">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S237">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T237">
         <v>2.25</v>
       </c>
       <c r="U237">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V237">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y237">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA237">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB237">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6861095</v>
+        <v>6870268</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45359.625</v>
       </c>
       <c r="F238" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G238" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J238" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K238">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="L238">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M238">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="N238">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O238">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P238">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="Q238">
         <v>0.25</v>
       </c>
       <c r="R238">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S238">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T238">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U238">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V238">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z238">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC238">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6865915</v>
+        <v>6836277</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,67 +21721,67 @@
         <v>45359.625</v>
       </c>
       <c r="F239" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G239" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K239">
+        <v>1.7</v>
+      </c>
+      <c r="L239">
+        <v>3.4</v>
+      </c>
+      <c r="M239">
+        <v>5</v>
+      </c>
+      <c r="N239">
+        <v>1.65</v>
+      </c>
+      <c r="O239">
         <v>3.5</v>
       </c>
-      <c r="L239">
-        <v>3.25</v>
-      </c>
-      <c r="M239">
-        <v>2.05</v>
-      </c>
-      <c r="N239">
-        <v>3.4</v>
-      </c>
-      <c r="O239">
-        <v>3.1</v>
-      </c>
       <c r="P239">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q239">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R239">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S239">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T239">
         <v>2.25</v>
       </c>
       <c r="U239">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V239">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X239">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AA239">
         <v>-0.5</v>
@@ -21790,7 +21790,7 @@
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -22777,7 +22777,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7951779</v>
+        <v>7951781</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22786,64 +22786,79 @@
         <v>28</v>
       </c>
       <c r="E251" s="2">
-        <v>45382.33333333334</v>
+        <v>45380.52083333334</v>
       </c>
       <c r="F251" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G251" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="H251">
+        <v>1</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251" t="s">
+        <v>45</v>
       </c>
       <c r="K251">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L251">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M251">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="N251">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="O251">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P251">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q251">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R251">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S251">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T251">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U251">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="V251">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W251">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X251">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y251">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA251">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB251">
+        <v>-1</v>
+      </c>
+      <c r="AC251">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22851,7 +22866,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7951748</v>
+        <v>7951750</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22860,28 +22875,37 @@
         <v>28</v>
       </c>
       <c r="E252" s="2">
-        <v>45382.625</v>
+        <v>45380.64583333334</v>
       </c>
       <c r="F252" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G252" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="H252">
+        <v>1</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="J252" t="s">
+        <v>46</v>
       </c>
       <c r="K252">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L252">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M252">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N252">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O252">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P252">
         <v>2.05</v>
@@ -22890,34 +22914,40 @@
         <v>0.25</v>
       </c>
       <c r="R252">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S252">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T252">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U252">
+        <v>2.05</v>
+      </c>
+      <c r="V252">
         <v>1.8</v>
       </c>
-      <c r="V252">
-        <v>2.05</v>
-      </c>
       <c r="W252">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X252">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y252">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z252">
-        <v>0</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA252">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB252">
+        <v>-1</v>
+      </c>
+      <c r="AC252">
+        <v>0.8</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22925,7 +22955,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7951780</v>
+        <v>8010912</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22934,63 +22964,330 @@
         <v>28</v>
       </c>
       <c r="E253" s="2">
-        <v>45383.60416666666</v>
+        <v>45381.44791666666</v>
       </c>
       <c r="F253" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G253" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="H253">
+        <v>2</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+      <c r="J253" t="s">
+        <v>45</v>
       </c>
       <c r="K253">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L253">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M253">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="N253">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O253">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P253">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q253">
         <v>-0.25</v>
       </c>
       <c r="R253">
+        <v>1.925</v>
+      </c>
+      <c r="S253">
+        <v>1.925</v>
+      </c>
+      <c r="T253">
+        <v>2</v>
+      </c>
+      <c r="U253">
+        <v>1.85</v>
+      </c>
+      <c r="V253">
+        <v>2</v>
+      </c>
+      <c r="W253">
+        <v>1.2</v>
+      </c>
+      <c r="X253">
+        <v>-1</v>
+      </c>
+      <c r="Y253">
+        <v>-1</v>
+      </c>
+      <c r="Z253">
+        <v>0.925</v>
+      </c>
+      <c r="AA253">
+        <v>-1</v>
+      </c>
+      <c r="AB253">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC253">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:29">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>8010913</v>
+      </c>
+      <c r="C254" t="s">
+        <v>28</v>
+      </c>
+      <c r="D254" t="s">
+        <v>28</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45381.54166666666</v>
+      </c>
+      <c r="F254" t="s">
+        <v>42</v>
+      </c>
+      <c r="G254" t="s">
+        <v>38</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254" t="s">
+        <v>46</v>
+      </c>
+      <c r="K254">
+        <v>1.95</v>
+      </c>
+      <c r="L254">
+        <v>3.4</v>
+      </c>
+      <c r="M254">
+        <v>4</v>
+      </c>
+      <c r="N254">
+        <v>1.75</v>
+      </c>
+      <c r="O254">
+        <v>3.5</v>
+      </c>
+      <c r="P254">
+        <v>4.5</v>
+      </c>
+      <c r="Q254">
+        <v>-0.75</v>
+      </c>
+      <c r="R254">
         <v>2.05</v>
       </c>
-      <c r="S253">
+      <c r="S254">
         <v>1.8</v>
       </c>
-      <c r="T253">
-        <v>2</v>
-      </c>
-      <c r="U253">
-        <v>1.95</v>
-      </c>
-      <c r="V253">
-        <v>1.9</v>
-      </c>
-      <c r="W253">
+      <c r="T254">
+        <v>2</v>
+      </c>
+      <c r="U254">
+        <v>1.75</v>
+      </c>
+      <c r="V254">
+        <v>2.05</v>
+      </c>
+      <c r="W254">
+        <v>-1</v>
+      </c>
+      <c r="X254">
+        <v>2.5</v>
+      </c>
+      <c r="Y254">
+        <v>-1</v>
+      </c>
+      <c r="Z254">
+        <v>-1</v>
+      </c>
+      <c r="AA254">
+        <v>0.8</v>
+      </c>
+      <c r="AB254">
+        <v>-1</v>
+      </c>
+      <c r="AC254">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="255" spans="1:29">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>7951749</v>
+      </c>
+      <c r="C255" t="s">
+        <v>28</v>
+      </c>
+      <c r="D255" t="s">
+        <v>28</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45381.66666666666</v>
+      </c>
+      <c r="F255" t="s">
+        <v>44</v>
+      </c>
+      <c r="G255" t="s">
+        <v>31</v>
+      </c>
+      <c r="H255">
+        <v>2</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255" t="s">
+        <v>45</v>
+      </c>
+      <c r="K255">
+        <v>2.1</v>
+      </c>
+      <c r="L255">
+        <v>3.4</v>
+      </c>
+      <c r="M255">
+        <v>3.3</v>
+      </c>
+      <c r="N255">
+        <v>2.45</v>
+      </c>
+      <c r="O255">
+        <v>3.4</v>
+      </c>
+      <c r="P255">
+        <v>2.7</v>
+      </c>
+      <c r="Q255">
         <v>0</v>
       </c>
-      <c r="X253">
+      <c r="R255">
+        <v>1.875</v>
+      </c>
+      <c r="S255">
+        <v>1.975</v>
+      </c>
+      <c r="T255">
+        <v>2.5</v>
+      </c>
+      <c r="U255">
+        <v>1.875</v>
+      </c>
+      <c r="V255">
+        <v>1.975</v>
+      </c>
+      <c r="W255">
+        <v>1.45</v>
+      </c>
+      <c r="X255">
+        <v>-1</v>
+      </c>
+      <c r="Y255">
+        <v>-1</v>
+      </c>
+      <c r="Z255">
+        <v>0.875</v>
+      </c>
+      <c r="AA255">
+        <v>-1</v>
+      </c>
+      <c r="AB255">
+        <v>0.875</v>
+      </c>
+      <c r="AC255">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:29">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>7951780</v>
+      </c>
+      <c r="C256" t="s">
+        <v>28</v>
+      </c>
+      <c r="D256" t="s">
+        <v>28</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45383.60416666666</v>
+      </c>
+      <c r="F256" t="s">
+        <v>36</v>
+      </c>
+      <c r="G256" t="s">
+        <v>33</v>
+      </c>
+      <c r="K256">
+        <v>2.3</v>
+      </c>
+      <c r="L256">
+        <v>3</v>
+      </c>
+      <c r="M256">
+        <v>3.4</v>
+      </c>
+      <c r="N256">
+        <v>2.5</v>
+      </c>
+      <c r="O256">
+        <v>3</v>
+      </c>
+      <c r="P256">
+        <v>3</v>
+      </c>
+      <c r="Q256">
         <v>0</v>
       </c>
-      <c r="Y253">
+      <c r="R256">
+        <v>1.75</v>
+      </c>
+      <c r="S256">
+        <v>2.125</v>
+      </c>
+      <c r="T256">
+        <v>2</v>
+      </c>
+      <c r="U256">
+        <v>2</v>
+      </c>
+      <c r="V256">
+        <v>1.85</v>
+      </c>
+      <c r="W256">
         <v>0</v>
       </c>
-      <c r="Z253">
+      <c r="X256">
         <v>0</v>
       </c>
-      <c r="AA253">
+      <c r="Y256">
+        <v>0</v>
+      </c>
+      <c r="Z256">
+        <v>0</v>
+      </c>
+      <c r="AA256">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC256"/>
+  <dimension ref="A1:AC263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6861095</v>
+        <v>6836277</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,67 +21454,67 @@
         <v>45359.625</v>
       </c>
       <c r="F236" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G236" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236">
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K236">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="L236">
         <v>3.4</v>
       </c>
       <c r="M236">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N236">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O236">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P236">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q236">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R236">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S236">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T236">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U236">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V236">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X236">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.3875</v>
+        <v>0.425</v>
       </c>
       <c r="AA236">
         <v>-0.5</v>
@@ -21523,7 +21523,7 @@
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6865915</v>
+        <v>6870268</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,76 +21543,76 @@
         <v>45359.625</v>
       </c>
       <c r="F237" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G237" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K237">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="L237">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M237">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="N237">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O237">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P237">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q237">
         <v>0.25</v>
       </c>
       <c r="R237">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S237">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T237">
         <v>2.25</v>
       </c>
       <c r="U237">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V237">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z237">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA237">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC237">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6870268</v>
+        <v>6865915</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45359.625</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G238" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K238">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="L238">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M238">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="N238">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O238">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P238">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q238">
         <v>0.25</v>
       </c>
       <c r="R238">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S238">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T238">
         <v>2.25</v>
       </c>
       <c r="U238">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V238">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y238">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA238">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB238">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6836277</v>
+        <v>6861095</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,67 +21721,67 @@
         <v>45359.625</v>
       </c>
       <c r="F239" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G239" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K239">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="L239">
         <v>3.4</v>
       </c>
       <c r="M239">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="N239">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="O239">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P239">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q239">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R239">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S239">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T239">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U239">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V239">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W239">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.425</v>
+        <v>0.3875</v>
       </c>
       <c r="AA239">
         <v>-0.5</v>
@@ -21790,7 +21790,7 @@
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -23222,7 +23222,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7951780</v>
+        <v>7951779</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23231,63 +23231,626 @@
         <v>28</v>
       </c>
       <c r="E256" s="2">
-        <v>45383.60416666666</v>
+        <v>45382.33333333334</v>
       </c>
       <c r="F256" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G256" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="H256">
+        <v>1</v>
+      </c>
+      <c r="I256">
+        <v>2</v>
+      </c>
+      <c r="J256" t="s">
+        <v>47</v>
       </c>
       <c r="K256">
         <v>2.3</v>
       </c>
       <c r="L256">
+        <v>3.2</v>
+      </c>
+      <c r="M256">
+        <v>3.2</v>
+      </c>
+      <c r="N256">
+        <v>2.15</v>
+      </c>
+      <c r="O256">
+        <v>3.25</v>
+      </c>
+      <c r="P256">
+        <v>3.4</v>
+      </c>
+      <c r="Q256">
+        <v>-0.25</v>
+      </c>
+      <c r="R256">
+        <v>1.875</v>
+      </c>
+      <c r="S256">
+        <v>1.975</v>
+      </c>
+      <c r="T256">
+        <v>2.25</v>
+      </c>
+      <c r="U256">
+        <v>2.05</v>
+      </c>
+      <c r="V256">
+        <v>1.8</v>
+      </c>
+      <c r="W256">
+        <v>-1</v>
+      </c>
+      <c r="X256">
+        <v>-1</v>
+      </c>
+      <c r="Y256">
+        <v>2.4</v>
+      </c>
+      <c r="Z256">
+        <v>-1</v>
+      </c>
+      <c r="AA256">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB256">
+        <v>1.05</v>
+      </c>
+      <c r="AC256">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:29">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>7951748</v>
+      </c>
+      <c r="C257" t="s">
+        <v>28</v>
+      </c>
+      <c r="D257" t="s">
+        <v>28</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45382.625</v>
+      </c>
+      <c r="F257" t="s">
+        <v>39</v>
+      </c>
+      <c r="G257" t="s">
+        <v>40</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257" t="s">
+        <v>47</v>
+      </c>
+      <c r="K257">
+        <v>3.6</v>
+      </c>
+      <c r="L257">
+        <v>3.3</v>
+      </c>
+      <c r="M257">
+        <v>2</v>
+      </c>
+      <c r="N257">
+        <v>3.6</v>
+      </c>
+      <c r="O257">
+        <v>3.4</v>
+      </c>
+      <c r="P257">
+        <v>2</v>
+      </c>
+      <c r="Q257">
+        <v>0.5</v>
+      </c>
+      <c r="R257">
+        <v>1.8</v>
+      </c>
+      <c r="S257">
+        <v>2.05</v>
+      </c>
+      <c r="T257">
+        <v>2.5</v>
+      </c>
+      <c r="U257">
+        <v>2</v>
+      </c>
+      <c r="V257">
+        <v>1.85</v>
+      </c>
+      <c r="W257">
+        <v>-1</v>
+      </c>
+      <c r="X257">
+        <v>-1</v>
+      </c>
+      <c r="Y257">
+        <v>1</v>
+      </c>
+      <c r="Z257">
+        <v>-1</v>
+      </c>
+      <c r="AA257">
+        <v>1.05</v>
+      </c>
+      <c r="AB257">
+        <v>-1</v>
+      </c>
+      <c r="AC257">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:29">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>7951780</v>
+      </c>
+      <c r="C258" t="s">
+        <v>28</v>
+      </c>
+      <c r="D258" t="s">
+        <v>28</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45383.60416666666</v>
+      </c>
+      <c r="F258" t="s">
+        <v>36</v>
+      </c>
+      <c r="G258" t="s">
+        <v>33</v>
+      </c>
+      <c r="H258">
+        <v>1</v>
+      </c>
+      <c r="I258">
+        <v>1</v>
+      </c>
+      <c r="J258" t="s">
+        <v>46</v>
+      </c>
+      <c r="K258">
+        <v>2.3</v>
+      </c>
+      <c r="L258">
         <v>3</v>
       </c>
-      <c r="M256">
+      <c r="M258">
         <v>3.4</v>
       </c>
-      <c r="N256">
+      <c r="N258">
+        <v>2.4</v>
+      </c>
+      <c r="O258">
+        <v>2.9</v>
+      </c>
+      <c r="P258">
+        <v>3.3</v>
+      </c>
+      <c r="Q258">
+        <v>-0.25</v>
+      </c>
+      <c r="R258">
+        <v>2</v>
+      </c>
+      <c r="S258">
+        <v>1.85</v>
+      </c>
+      <c r="T258">
+        <v>2</v>
+      </c>
+      <c r="U258">
+        <v>2.05</v>
+      </c>
+      <c r="V258">
+        <v>1.8</v>
+      </c>
+      <c r="W258">
+        <v>-1</v>
+      </c>
+      <c r="X258">
+        <v>1.9</v>
+      </c>
+      <c r="Y258">
+        <v>-1</v>
+      </c>
+      <c r="Z258">
+        <v>-0.5</v>
+      </c>
+      <c r="AA258">
+        <v>0.425</v>
+      </c>
+      <c r="AB258">
+        <v>0</v>
+      </c>
+      <c r="AC258">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:29">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>7951783</v>
+      </c>
+      <c r="C259" t="s">
+        <v>28</v>
+      </c>
+      <c r="D259" t="s">
+        <v>28</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45387.47916666666</v>
+      </c>
+      <c r="F259" t="s">
+        <v>38</v>
+      </c>
+      <c r="G259" t="s">
+        <v>43</v>
+      </c>
+      <c r="K259">
+        <v>1.95</v>
+      </c>
+      <c r="L259">
+        <v>3.3</v>
+      </c>
+      <c r="M259">
+        <v>4</v>
+      </c>
+      <c r="N259">
+        <v>1.95</v>
+      </c>
+      <c r="O259">
+        <v>3.3</v>
+      </c>
+      <c r="P259">
+        <v>4</v>
+      </c>
+      <c r="Q259">
+        <v>-0.5</v>
+      </c>
+      <c r="R259">
+        <v>2</v>
+      </c>
+      <c r="S259">
+        <v>1.85</v>
+      </c>
+      <c r="T259">
+        <v>2.25</v>
+      </c>
+      <c r="U259">
+        <v>1.925</v>
+      </c>
+      <c r="V259">
+        <v>1.925</v>
+      </c>
+      <c r="W259">
+        <v>0</v>
+      </c>
+      <c r="X259">
+        <v>0</v>
+      </c>
+      <c r="Y259">
+        <v>0</v>
+      </c>
+      <c r="Z259">
+        <v>0</v>
+      </c>
+      <c r="AA259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:29">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>7951753</v>
+      </c>
+      <c r="C260" t="s">
+        <v>28</v>
+      </c>
+      <c r="D260" t="s">
+        <v>28</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45387.60416666666</v>
+      </c>
+      <c r="F260" t="s">
+        <v>37</v>
+      </c>
+      <c r="G260" t="s">
+        <v>39</v>
+      </c>
+      <c r="K260">
+        <v>2.15</v>
+      </c>
+      <c r="L260">
+        <v>3.25</v>
+      </c>
+      <c r="M260">
+        <v>3.4</v>
+      </c>
+      <c r="N260">
+        <v>2.15</v>
+      </c>
+      <c r="O260">
+        <v>3.25</v>
+      </c>
+      <c r="P260">
+        <v>3.4</v>
+      </c>
+      <c r="Q260">
+        <v>-0.25</v>
+      </c>
+      <c r="R260">
+        <v>1.875</v>
+      </c>
+      <c r="S260">
+        <v>1.975</v>
+      </c>
+      <c r="T260">
+        <v>2.25</v>
+      </c>
+      <c r="U260">
+        <v>1.825</v>
+      </c>
+      <c r="V260">
+        <v>2.025</v>
+      </c>
+      <c r="W260">
+        <v>0</v>
+      </c>
+      <c r="X260">
+        <v>0</v>
+      </c>
+      <c r="Y260">
+        <v>0</v>
+      </c>
+      <c r="Z260">
+        <v>0</v>
+      </c>
+      <c r="AA260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:29">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>7951752</v>
+      </c>
+      <c r="C261" t="s">
+        <v>28</v>
+      </c>
+      <c r="D261" t="s">
+        <v>28</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45388.60416666666</v>
+      </c>
+      <c r="F261" t="s">
+        <v>31</v>
+      </c>
+      <c r="G261" t="s">
+        <v>29</v>
+      </c>
+      <c r="K261">
+        <v>2.8</v>
+      </c>
+      <c r="L261">
+        <v>3.1</v>
+      </c>
+      <c r="M261">
+        <v>2.6</v>
+      </c>
+      <c r="N261">
+        <v>2.8</v>
+      </c>
+      <c r="O261">
+        <v>3.1</v>
+      </c>
+      <c r="P261">
+        <v>2.6</v>
+      </c>
+      <c r="Q261">
+        <v>0</v>
+      </c>
+      <c r="R261">
+        <v>2</v>
+      </c>
+      <c r="S261">
+        <v>1.85</v>
+      </c>
+      <c r="T261">
+        <v>2.25</v>
+      </c>
+      <c r="U261">
+        <v>1.875</v>
+      </c>
+      <c r="V261">
+        <v>1.975</v>
+      </c>
+      <c r="W261">
+        <v>0</v>
+      </c>
+      <c r="X261">
+        <v>0</v>
+      </c>
+      <c r="Y261">
+        <v>0</v>
+      </c>
+      <c r="Z261">
+        <v>0</v>
+      </c>
+      <c r="AA261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:29">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>7951784</v>
+      </c>
+      <c r="C262" t="s">
+        <v>28</v>
+      </c>
+      <c r="D262" t="s">
+        <v>28</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45389.35416666666</v>
+      </c>
+      <c r="F262" t="s">
+        <v>32</v>
+      </c>
+      <c r="G262" t="s">
+        <v>42</v>
+      </c>
+      <c r="K262">
+        <v>2.4</v>
+      </c>
+      <c r="L262">
+        <v>2.875</v>
+      </c>
+      <c r="M262">
+        <v>3.3</v>
+      </c>
+      <c r="N262">
+        <v>2.4</v>
+      </c>
+      <c r="O262">
+        <v>2.875</v>
+      </c>
+      <c r="P262">
+        <v>3.3</v>
+      </c>
+      <c r="Q262">
+        <v>-0.25</v>
+      </c>
+      <c r="R262">
+        <v>2.05</v>
+      </c>
+      <c r="S262">
+        <v>1.8</v>
+      </c>
+      <c r="T262">
+        <v>2</v>
+      </c>
+      <c r="U262">
+        <v>2.025</v>
+      </c>
+      <c r="V262">
+        <v>1.825</v>
+      </c>
+      <c r="W262">
+        <v>0</v>
+      </c>
+      <c r="X262">
+        <v>0</v>
+      </c>
+      <c r="Y262">
+        <v>0</v>
+      </c>
+      <c r="Z262">
+        <v>0</v>
+      </c>
+      <c r="AA262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:29">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>7951751</v>
+      </c>
+      <c r="C263" t="s">
+        <v>28</v>
+      </c>
+      <c r="D263" t="s">
+        <v>28</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45389.60416666666</v>
+      </c>
+      <c r="F263" t="s">
+        <v>40</v>
+      </c>
+      <c r="G263" t="s">
+        <v>44</v>
+      </c>
+      <c r="K263">
+        <v>1.85</v>
+      </c>
+      <c r="L263">
+        <v>3.4</v>
+      </c>
+      <c r="M263">
+        <v>4.2</v>
+      </c>
+      <c r="N263">
+        <v>1.85</v>
+      </c>
+      <c r="O263">
+        <v>3.4</v>
+      </c>
+      <c r="P263">
+        <v>4.2</v>
+      </c>
+      <c r="Q263">
+        <v>-0.5</v>
+      </c>
+      <c r="R263">
+        <v>1.875</v>
+      </c>
+      <c r="S263">
+        <v>1.975</v>
+      </c>
+      <c r="T263">
         <v>2.5</v>
       </c>
-      <c r="O256">
-        <v>3</v>
-      </c>
-      <c r="P256">
-        <v>3</v>
-      </c>
-      <c r="Q256">
-        <v>0</v>
-      </c>
-      <c r="R256">
-        <v>1.75</v>
-      </c>
-      <c r="S256">
-        <v>2.125</v>
-      </c>
-      <c r="T256">
-        <v>2</v>
-      </c>
-      <c r="U256">
-        <v>2</v>
-      </c>
-      <c r="V256">
-        <v>1.85</v>
-      </c>
-      <c r="W256">
-        <v>0</v>
-      </c>
-      <c r="X256">
-        <v>0</v>
-      </c>
-      <c r="Y256">
-        <v>0</v>
-      </c>
-      <c r="Z256">
-        <v>0</v>
-      </c>
-      <c r="AA256">
+      <c r="U263">
+        <v>1.925</v>
+      </c>
+      <c r="V263">
+        <v>1.925</v>
+      </c>
+      <c r="W263">
+        <v>0</v>
+      </c>
+      <c r="X263">
+        <v>0</v>
+      </c>
+      <c r="Y263">
+        <v>0</v>
+      </c>
+      <c r="Z263">
+        <v>0</v>
+      </c>
+      <c r="AA263">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6852370</v>
+        <v>6861095</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21365,76 @@
         <v>45359.625</v>
       </c>
       <c r="F235" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G235" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235">
         <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K235">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="L235">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M235">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N235">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="O235">
         <v>3</v>
       </c>
       <c r="P235">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q235">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R235">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S235">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T235">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U235">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V235">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W235">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB235">
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6836277</v>
+        <v>6865915</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,67 +21454,67 @@
         <v>45359.625</v>
       </c>
       <c r="F236" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G236" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236">
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K236">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L236">
+        <v>3.25</v>
+      </c>
+      <c r="M236">
+        <v>2.05</v>
+      </c>
+      <c r="N236">
         <v>3.4</v>
       </c>
-      <c r="M236">
-        <v>5</v>
-      </c>
-      <c r="N236">
-        <v>1.65</v>
-      </c>
       <c r="O236">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P236">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q236">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R236">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S236">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T236">
         <v>2.25</v>
       </c>
       <c r="U236">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V236">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W236">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AA236">
         <v>-0.5</v>
@@ -21523,7 +21523,7 @@
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6870268</v>
+        <v>6836277</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,40 +21543,40 @@
         <v>45359.625</v>
       </c>
       <c r="F237" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G237" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H237">
         <v>1</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K237">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="L237">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M237">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N237">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O237">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P237">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q237">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R237">
         <v>1.85</v>
@@ -21594,25 +21594,25 @@
         <v>1.975</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA237">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB237">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6865915</v>
+        <v>6852370</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45359.625</v>
       </c>
       <c r="F238" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G238" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238">
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K238">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="L238">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M238">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="N238">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O238">
+        <v>3</v>
+      </c>
+      <c r="P238">
         <v>3.1</v>
       </c>
-      <c r="P238">
-        <v>2.15</v>
-      </c>
       <c r="Q238">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R238">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S238">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T238">
         <v>2.25</v>
       </c>
       <c r="U238">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V238">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X238">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AA238">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6861095</v>
+        <v>6870268</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,76 +21721,76 @@
         <v>45359.625</v>
       </c>
       <c r="F239" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G239" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K239">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="L239">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M239">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="N239">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O239">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P239">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="Q239">
         <v>0.25</v>
       </c>
       <c r="R239">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S239">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T239">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U239">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V239">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z239">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC239">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -23664,22 +23664,22 @@
         <v>2.6</v>
       </c>
       <c r="N261">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="O261">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P261">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q261">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R261">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S261">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T261">
         <v>2.25</v>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC263"/>
+  <dimension ref="A1:AC266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6861095</v>
+        <v>6852370</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21365,76 @@
         <v>45359.625</v>
       </c>
       <c r="F235" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G235" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I235">
         <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K235">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="L235">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M235">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N235">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="O235">
         <v>3</v>
       </c>
       <c r="P235">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="Q235">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R235">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S235">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T235">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U235">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V235">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X235">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="AA235">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6865915</v>
+        <v>6836277</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,67 +21454,67 @@
         <v>45359.625</v>
       </c>
       <c r="F236" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G236" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236">
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K236">
+        <v>1.7</v>
+      </c>
+      <c r="L236">
+        <v>3.4</v>
+      </c>
+      <c r="M236">
+        <v>5</v>
+      </c>
+      <c r="N236">
+        <v>1.65</v>
+      </c>
+      <c r="O236">
         <v>3.5</v>
       </c>
-      <c r="L236">
-        <v>3.25</v>
-      </c>
-      <c r="M236">
-        <v>2.05</v>
-      </c>
-      <c r="N236">
-        <v>3.4</v>
-      </c>
-      <c r="O236">
-        <v>3.1</v>
-      </c>
       <c r="P236">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q236">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R236">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S236">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T236">
         <v>2.25</v>
       </c>
       <c r="U236">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V236">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X236">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AA236">
         <v>-0.5</v>
@@ -21523,7 +21523,7 @@
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6836277</v>
+        <v>6865915</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,67 +21543,67 @@
         <v>45359.625</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G237" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237">
         <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K237">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L237">
+        <v>3.25</v>
+      </c>
+      <c r="M237">
+        <v>2.05</v>
+      </c>
+      <c r="N237">
         <v>3.4</v>
       </c>
-      <c r="M237">
-        <v>5</v>
-      </c>
-      <c r="N237">
-        <v>1.65</v>
-      </c>
       <c r="O237">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P237">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q237">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R237">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S237">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T237">
         <v>2.25</v>
       </c>
       <c r="U237">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V237">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W237">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AA237">
         <v>-0.5</v>
@@ -21612,7 +21612,7 @@
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6852370</v>
+        <v>6861095</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45359.625</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G238" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238">
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K238">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="L238">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M238">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N238">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="O238">
         <v>3</v>
       </c>
       <c r="P238">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R238">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S238">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T238">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U238">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V238">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W238">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -23611,10 +23611,10 @@
         <v>2.25</v>
       </c>
       <c r="U260">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V260">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W260">
         <v>0</v>
@@ -23637,7 +23637,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7951752</v>
+        <v>7951785</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23646,28 +23646,28 @@
         <v>28</v>
       </c>
       <c r="E261" s="2">
-        <v>45388.60416666666</v>
+        <v>45388.47916666666</v>
       </c>
       <c r="F261" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G261" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K261">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="L261">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M261">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N261">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O261">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P261">
         <v>3.5</v>
@@ -23676,19 +23676,19 @@
         <v>-0.25</v>
       </c>
       <c r="R261">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S261">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T261">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U261">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V261">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W261">
         <v>0</v>
@@ -23711,7 +23711,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7951784</v>
+        <v>7951752</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23720,49 +23720,49 @@
         <v>28</v>
       </c>
       <c r="E262" s="2">
-        <v>45389.35416666666</v>
+        <v>45388.60416666666</v>
       </c>
       <c r="F262" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G262" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="K262">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="L262">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M262">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="N262">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O262">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P262">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q262">
         <v>-0.25</v>
       </c>
       <c r="R262">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S262">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T262">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U262">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V262">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W262">
         <v>0</v>
@@ -23785,72 +23785,294 @@
         <v>261</v>
       </c>
       <c r="B263">
+        <v>7951784</v>
+      </c>
+      <c r="C263" t="s">
+        <v>28</v>
+      </c>
+      <c r="D263" t="s">
+        <v>28</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45389.35416666666</v>
+      </c>
+      <c r="F263" t="s">
+        <v>32</v>
+      </c>
+      <c r="G263" t="s">
+        <v>42</v>
+      </c>
+      <c r="K263">
+        <v>2.4</v>
+      </c>
+      <c r="L263">
+        <v>2.875</v>
+      </c>
+      <c r="M263">
+        <v>3.3</v>
+      </c>
+      <c r="N263">
+        <v>2.4</v>
+      </c>
+      <c r="O263">
+        <v>2.875</v>
+      </c>
+      <c r="P263">
+        <v>3.3</v>
+      </c>
+      <c r="Q263">
+        <v>-0.25</v>
+      </c>
+      <c r="R263">
+        <v>2.05</v>
+      </c>
+      <c r="S263">
+        <v>1.8</v>
+      </c>
+      <c r="T263">
+        <v>2</v>
+      </c>
+      <c r="U263">
+        <v>2.025</v>
+      </c>
+      <c r="V263">
+        <v>1.825</v>
+      </c>
+      <c r="W263">
+        <v>0</v>
+      </c>
+      <c r="X263">
+        <v>0</v>
+      </c>
+      <c r="Y263">
+        <v>0</v>
+      </c>
+      <c r="Z263">
+        <v>0</v>
+      </c>
+      <c r="AA263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:29">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
         <v>7951751</v>
       </c>
-      <c r="C263" t="s">
-        <v>28</v>
-      </c>
-      <c r="D263" t="s">
-        <v>28</v>
-      </c>
-      <c r="E263" s="2">
+      <c r="C264" t="s">
+        <v>28</v>
+      </c>
+      <c r="D264" t="s">
+        <v>28</v>
+      </c>
+      <c r="E264" s="2">
         <v>45389.60416666666</v>
       </c>
-      <c r="F263" t="s">
+      <c r="F264" t="s">
         <v>40</v>
       </c>
-      <c r="G263" t="s">
+      <c r="G264" t="s">
         <v>44</v>
       </c>
-      <c r="K263">
+      <c r="K264">
         <v>1.85</v>
       </c>
-      <c r="L263">
+      <c r="L264">
         <v>3.4</v>
       </c>
-      <c r="M263">
+      <c r="M264">
         <v>4.2</v>
       </c>
-      <c r="N263">
+      <c r="N264">
         <v>1.85</v>
       </c>
-      <c r="O263">
+      <c r="O264">
         <v>3.4</v>
       </c>
-      <c r="P263">
+      <c r="P264">
         <v>4.2</v>
       </c>
-      <c r="Q263">
+      <c r="Q264">
         <v>-0.5</v>
       </c>
-      <c r="R263">
+      <c r="R264">
         <v>1.875</v>
       </c>
-      <c r="S263">
+      <c r="S264">
         <v>1.975</v>
       </c>
-      <c r="T263">
+      <c r="T264">
         <v>2.5</v>
       </c>
-      <c r="U263">
+      <c r="U264">
         <v>1.925</v>
       </c>
-      <c r="V263">
+      <c r="V264">
         <v>1.925</v>
       </c>
-      <c r="W263">
-        <v>0</v>
-      </c>
-      <c r="X263">
-        <v>0</v>
-      </c>
-      <c r="Y263">
-        <v>0</v>
-      </c>
-      <c r="Z263">
-        <v>0</v>
-      </c>
-      <c r="AA263">
+      <c r="W264">
+        <v>0</v>
+      </c>
+      <c r="X264">
+        <v>0</v>
+      </c>
+      <c r="Y264">
+        <v>0</v>
+      </c>
+      <c r="Z264">
+        <v>0</v>
+      </c>
+      <c r="AA264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:29">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>7951787</v>
+      </c>
+      <c r="C265" t="s">
+        <v>28</v>
+      </c>
+      <c r="D265" t="s">
+        <v>28</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45390.47916666666</v>
+      </c>
+      <c r="F265" t="s">
+        <v>41</v>
+      </c>
+      <c r="G265" t="s">
+        <v>34</v>
+      </c>
+      <c r="K265">
+        <v>2.2</v>
+      </c>
+      <c r="L265">
+        <v>3.2</v>
+      </c>
+      <c r="M265">
+        <v>3</v>
+      </c>
+      <c r="N265">
+        <v>2.25</v>
+      </c>
+      <c r="O265">
+        <v>3.2</v>
+      </c>
+      <c r="P265">
+        <v>2.9</v>
+      </c>
+      <c r="Q265">
+        <v>-0.25</v>
+      </c>
+      <c r="R265">
+        <v>2.025</v>
+      </c>
+      <c r="S265">
+        <v>1.825</v>
+      </c>
+      <c r="T265">
+        <v>2.5</v>
+      </c>
+      <c r="U265">
+        <v>2.025</v>
+      </c>
+      <c r="V265">
+        <v>1.825</v>
+      </c>
+      <c r="W265">
+        <v>0</v>
+      </c>
+      <c r="X265">
+        <v>0</v>
+      </c>
+      <c r="Y265">
+        <v>0</v>
+      </c>
+      <c r="Z265">
+        <v>0</v>
+      </c>
+      <c r="AA265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:29">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>7951786</v>
+      </c>
+      <c r="C266" t="s">
+        <v>28</v>
+      </c>
+      <c r="D266" t="s">
+        <v>28</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45390.60416666666</v>
+      </c>
+      <c r="F266" t="s">
+        <v>30</v>
+      </c>
+      <c r="G266" t="s">
+        <v>36</v>
+      </c>
+      <c r="K266">
+        <v>2.05</v>
+      </c>
+      <c r="L266">
+        <v>3</v>
+      </c>
+      <c r="M266">
+        <v>3.6</v>
+      </c>
+      <c r="N266">
+        <v>2.15</v>
+      </c>
+      <c r="O266">
+        <v>3</v>
+      </c>
+      <c r="P266">
+        <v>3.4</v>
+      </c>
+      <c r="Q266">
+        <v>-0.25</v>
+      </c>
+      <c r="R266">
+        <v>1.875</v>
+      </c>
+      <c r="S266">
+        <v>1.975</v>
+      </c>
+      <c r="T266">
+        <v>2</v>
+      </c>
+      <c r="U266">
+        <v>1.925</v>
+      </c>
+      <c r="V266">
+        <v>1.925</v>
+      </c>
+      <c r="W266">
+        <v>0</v>
+      </c>
+      <c r="X266">
+        <v>0</v>
+      </c>
+      <c r="Y266">
+        <v>0</v>
+      </c>
+      <c r="Z266">
+        <v>0</v>
+      </c>
+      <c r="AA266">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6852370</v>
+        <v>6861095</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21365,76 @@
         <v>45359.625</v>
       </c>
       <c r="F235" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G235" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235">
         <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K235">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="L235">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M235">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N235">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="O235">
         <v>3</v>
       </c>
       <c r="P235">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q235">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R235">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S235">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T235">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U235">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V235">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W235">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB235">
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6836277</v>
+        <v>6865915</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,67 +21454,67 @@
         <v>45359.625</v>
       </c>
       <c r="F236" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G236" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236">
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K236">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L236">
+        <v>3.25</v>
+      </c>
+      <c r="M236">
+        <v>2.05</v>
+      </c>
+      <c r="N236">
         <v>3.4</v>
       </c>
-      <c r="M236">
-        <v>5</v>
-      </c>
-      <c r="N236">
-        <v>1.65</v>
-      </c>
       <c r="O236">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P236">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q236">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R236">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S236">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T236">
         <v>2.25</v>
       </c>
       <c r="U236">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V236">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W236">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AA236">
         <v>-0.5</v>
@@ -21523,7 +21523,7 @@
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6865915</v>
+        <v>6836277</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,67 +21543,67 @@
         <v>45359.625</v>
       </c>
       <c r="F237" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G237" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237">
         <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K237">
+        <v>1.7</v>
+      </c>
+      <c r="L237">
+        <v>3.4</v>
+      </c>
+      <c r="M237">
+        <v>5</v>
+      </c>
+      <c r="N237">
+        <v>1.65</v>
+      </c>
+      <c r="O237">
         <v>3.5</v>
       </c>
-      <c r="L237">
-        <v>3.25</v>
-      </c>
-      <c r="M237">
-        <v>2.05</v>
-      </c>
-      <c r="N237">
-        <v>3.4</v>
-      </c>
-      <c r="O237">
-        <v>3.1</v>
-      </c>
       <c r="P237">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q237">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R237">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S237">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T237">
         <v>2.25</v>
       </c>
       <c r="U237">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V237">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X237">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AA237">
         <v>-0.5</v>
@@ -21612,7 +21612,7 @@
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6861095</v>
+        <v>6852370</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45359.625</v>
       </c>
       <c r="F238" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G238" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238">
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K238">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="L238">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M238">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N238">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="O238">
         <v>3</v>
       </c>
       <c r="P238">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="Q238">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R238">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S238">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T238">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U238">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V238">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X238">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="AA238">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -23528,19 +23528,19 @@
         <v>-0.5</v>
       </c>
       <c r="R259">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S259">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T259">
         <v>2.25</v>
       </c>
       <c r="U259">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V259">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W259">
         <v>0</v>
@@ -23611,10 +23611,10 @@
         <v>2.25</v>
       </c>
       <c r="U260">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V260">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W260">
         <v>0</v>
@@ -23664,22 +23664,22 @@
         <v>3.6</v>
       </c>
       <c r="N261">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O261">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P261">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q261">
         <v>-0.25</v>
       </c>
       <c r="R261">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S261">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T261">
         <v>2</v>
@@ -23738,22 +23738,22 @@
         <v>2.6</v>
       </c>
       <c r="N262">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O262">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P262">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q262">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R262">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S262">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T262">
         <v>2.25</v>
@@ -23886,31 +23886,31 @@
         <v>4.2</v>
       </c>
       <c r="N264">
+        <v>1.7</v>
+      </c>
+      <c r="O264">
+        <v>3.6</v>
+      </c>
+      <c r="P264">
+        <v>4.75</v>
+      </c>
+      <c r="Q264">
+        <v>-0.75</v>
+      </c>
+      <c r="R264">
+        <v>2</v>
+      </c>
+      <c r="S264">
         <v>1.85</v>
-      </c>
-      <c r="O264">
-        <v>3.4</v>
-      </c>
-      <c r="P264">
-        <v>4.2</v>
-      </c>
-      <c r="Q264">
-        <v>-0.5</v>
-      </c>
-      <c r="R264">
-        <v>1.875</v>
-      </c>
-      <c r="S264">
-        <v>1.975</v>
       </c>
       <c r="T264">
         <v>2.5</v>
       </c>
       <c r="U264">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V264">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W264">
         <v>0</v>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6861095</v>
+        <v>6870268</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21365,76 @@
         <v>45359.625</v>
       </c>
       <c r="F235" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G235" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K235">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="L235">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M235">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="N235">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O235">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P235">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="Q235">
         <v>0.25</v>
       </c>
       <c r="R235">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S235">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T235">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U235">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V235">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W235">
         <v>-1</v>
       </c>
       <c r="X235">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z235">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC235">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6865915</v>
+        <v>6861095</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,10 +21454,10 @@
         <v>45359.625</v>
       </c>
       <c r="F236" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G236" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -21469,52 +21469,52 @@
         <v>46</v>
       </c>
       <c r="K236">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L236">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M236">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N236">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O236">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P236">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="Q236">
         <v>0.25</v>
       </c>
       <c r="R236">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S236">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T236">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U236">
+        <v>1.8</v>
+      </c>
+      <c r="V236">
         <v>2.05</v>
       </c>
-      <c r="V236">
-        <v>1.75</v>
-      </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.4875</v>
+        <v>0.3875</v>
       </c>
       <c r="AA236">
         <v>-0.5</v>
@@ -21523,7 +21523,7 @@
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6836277</v>
+        <v>6865915</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,67 +21543,67 @@
         <v>45359.625</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G237" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237">
         <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K237">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L237">
+        <v>3.25</v>
+      </c>
+      <c r="M237">
+        <v>2.05</v>
+      </c>
+      <c r="N237">
         <v>3.4</v>
       </c>
-      <c r="M237">
-        <v>5</v>
-      </c>
-      <c r="N237">
-        <v>1.65</v>
-      </c>
       <c r="O237">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P237">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q237">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R237">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S237">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T237">
         <v>2.25</v>
       </c>
       <c r="U237">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V237">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W237">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AA237">
         <v>-0.5</v>
@@ -21612,7 +21612,7 @@
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6852370</v>
+        <v>6836277</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,10 +21632,10 @@
         <v>45359.625</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G238" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H238">
         <v>1</v>
@@ -21647,43 +21647,43 @@
         <v>45</v>
       </c>
       <c r="K238">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="L238">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M238">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N238">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="O238">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P238">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R238">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S238">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T238">
         <v>2.25</v>
       </c>
       <c r="U238">
+        <v>1.875</v>
+      </c>
+      <c r="V238">
         <v>1.975</v>
       </c>
-      <c r="V238">
-        <v>1.875</v>
-      </c>
       <c r="W238">
-        <v>1.375</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X238">
         <v>-1</v>
@@ -21692,16 +21692,16 @@
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6870268</v>
+        <v>6852370</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,76 +21721,76 @@
         <v>45359.625</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G239" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H239">
         <v>1</v>
       </c>
       <c r="I239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K239">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="L239">
+        <v>2.875</v>
+      </c>
+      <c r="M239">
         <v>3</v>
       </c>
-      <c r="M239">
-        <v>2.55</v>
-      </c>
       <c r="N239">
+        <v>2.375</v>
+      </c>
+      <c r="O239">
         <v>3</v>
       </c>
-      <c r="O239">
-        <v>3.2</v>
-      </c>
       <c r="P239">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q239">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R239">
+        <v>2</v>
+      </c>
+      <c r="S239">
         <v>1.85</v>
-      </c>
-      <c r="S239">
-        <v>2</v>
       </c>
       <c r="T239">
         <v>2.25</v>
       </c>
       <c r="U239">
+        <v>1.975</v>
+      </c>
+      <c r="V239">
         <v>1.875</v>
       </c>
-      <c r="V239">
-        <v>1.975</v>
-      </c>
       <c r="W239">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA239">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
+        <v>-1</v>
+      </c>
+      <c r="AC239">
         <v>0.875</v>
-      </c>
-      <c r="AC239">
-        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -23506,6 +23506,15 @@
       <c r="G259" t="s">
         <v>43</v>
       </c>
+      <c r="H259">
+        <v>1</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259" t="s">
+        <v>45</v>
+      </c>
       <c r="K259">
         <v>1.95</v>
       </c>
@@ -23516,46 +23525,52 @@
         <v>4</v>
       </c>
       <c r="N259">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="O259">
         <v>3.3</v>
       </c>
       <c r="P259">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q259">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R259">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S259">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T259">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U259">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V259">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W259">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X259">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y259">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z259">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA259">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB259">
+        <v>-1</v>
+      </c>
+      <c r="AC259">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23580,6 +23595,15 @@
       <c r="G260" t="s">
         <v>39</v>
       </c>
+      <c r="H260">
+        <v>1</v>
+      </c>
+      <c r="I260">
+        <v>1</v>
+      </c>
+      <c r="J260" t="s">
+        <v>46</v>
+      </c>
       <c r="K260">
         <v>2.15</v>
       </c>
@@ -23590,22 +23614,22 @@
         <v>3.4</v>
       </c>
       <c r="N260">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O260">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P260">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q260">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R260">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S260">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T260">
         <v>2.25</v>
@@ -23617,19 +23641,25 @@
         <v>2.025</v>
       </c>
       <c r="W260">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X260">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y260">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z260">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA260">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB260">
+        <v>-0.5</v>
+      </c>
+      <c r="AC260">
+        <v>0.5125</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23676,10 +23706,10 @@
         <v>-0.25</v>
       </c>
       <c r="R261">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S261">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T261">
         <v>2</v>
@@ -23750,19 +23780,19 @@
         <v>-0.5</v>
       </c>
       <c r="R262">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S262">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T262">
         <v>2.25</v>
       </c>
       <c r="U262">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V262">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W262">
         <v>0</v>
@@ -23833,10 +23863,10 @@
         <v>2</v>
       </c>
       <c r="U263">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V263">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W263">
         <v>0</v>
@@ -23898,10 +23928,10 @@
         <v>-0.75</v>
       </c>
       <c r="R264">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S264">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T264">
         <v>2.5</v>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC266"/>
+  <dimension ref="A1:AC265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6861095</v>
+        <v>6865915</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,10 +21454,10 @@
         <v>45359.625</v>
       </c>
       <c r="F236" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G236" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -21469,52 +21469,52 @@
         <v>46</v>
       </c>
       <c r="K236">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L236">
+        <v>3.25</v>
+      </c>
+      <c r="M236">
+        <v>2.05</v>
+      </c>
+      <c r="N236">
         <v>3.4</v>
       </c>
-      <c r="M236">
-        <v>1.909</v>
-      </c>
-      <c r="N236">
+      <c r="O236">
         <v>3.1</v>
       </c>
-      <c r="O236">
-        <v>3</v>
-      </c>
       <c r="P236">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q236">
         <v>0.25</v>
       </c>
       <c r="R236">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S236">
+        <v>1.875</v>
+      </c>
+      <c r="T236">
+        <v>2.25</v>
+      </c>
+      <c r="U236">
+        <v>2.05</v>
+      </c>
+      <c r="V236">
+        <v>1.75</v>
+      </c>
+      <c r="W236">
+        <v>-1</v>
+      </c>
+      <c r="X236">
         <v>2.1</v>
       </c>
-      <c r="T236">
-        <v>2</v>
-      </c>
-      <c r="U236">
-        <v>1.8</v>
-      </c>
-      <c r="V236">
-        <v>2.05</v>
-      </c>
-      <c r="W236">
-        <v>-1</v>
-      </c>
-      <c r="X236">
-        <v>2</v>
-      </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.3875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA236">
         <v>-0.5</v>
@@ -21523,7 +21523,7 @@
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6865915</v>
+        <v>6836277</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,67 +21543,67 @@
         <v>45359.625</v>
       </c>
       <c r="F237" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G237" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237">
         <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K237">
+        <v>1.7</v>
+      </c>
+      <c r="L237">
+        <v>3.4</v>
+      </c>
+      <c r="M237">
+        <v>5</v>
+      </c>
+      <c r="N237">
+        <v>1.65</v>
+      </c>
+      <c r="O237">
         <v>3.5</v>
       </c>
-      <c r="L237">
-        <v>3.25</v>
-      </c>
-      <c r="M237">
-        <v>2.05</v>
-      </c>
-      <c r="N237">
-        <v>3.4</v>
-      </c>
-      <c r="O237">
-        <v>3.1</v>
-      </c>
       <c r="P237">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q237">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R237">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S237">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T237">
         <v>2.25</v>
       </c>
       <c r="U237">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V237">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X237">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AA237">
         <v>-0.5</v>
@@ -21612,7 +21612,7 @@
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6836277</v>
+        <v>6852370</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,10 +21632,10 @@
         <v>45359.625</v>
       </c>
       <c r="F238" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G238" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H238">
         <v>1</v>
@@ -21647,43 +21647,43 @@
         <v>45</v>
       </c>
       <c r="K238">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="L238">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M238">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N238">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="O238">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P238">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q238">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R238">
+        <v>2</v>
+      </c>
+      <c r="S238">
         <v>1.85</v>
-      </c>
-      <c r="S238">
-        <v>2</v>
       </c>
       <c r="T238">
         <v>2.25</v>
       </c>
       <c r="U238">
+        <v>1.975</v>
+      </c>
+      <c r="V238">
         <v>1.875</v>
       </c>
-      <c r="V238">
-        <v>1.975</v>
-      </c>
       <c r="W238">
-        <v>0.6499999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X238">
         <v>-1</v>
@@ -21692,16 +21692,16 @@
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AA238">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6852370</v>
+        <v>6861095</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,76 +21721,76 @@
         <v>45359.625</v>
       </c>
       <c r="F239" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G239" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K239">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="L239">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M239">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N239">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="O239">
         <v>3</v>
       </c>
       <c r="P239">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q239">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R239">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S239">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T239">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U239">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V239">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W239">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -23667,7 +23667,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7951785</v>
+        <v>7951752</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23676,49 +23676,49 @@
         <v>28</v>
       </c>
       <c r="E261" s="2">
-        <v>45388.47916666666</v>
+        <v>45388.60416666666</v>
       </c>
       <c r="F261" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G261" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K261">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="L261">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M261">
+        <v>2.6</v>
+      </c>
+      <c r="N261">
+        <v>2.1</v>
+      </c>
+      <c r="O261">
+        <v>3.3</v>
+      </c>
+      <c r="P261">
         <v>3.6</v>
-      </c>
-      <c r="N261">
-        <v>2.25</v>
-      </c>
-      <c r="O261">
-        <v>3.1</v>
-      </c>
-      <c r="P261">
-        <v>3.1</v>
       </c>
       <c r="Q261">
         <v>-0.25</v>
       </c>
       <c r="R261">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S261">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T261">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U261">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V261">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W261">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7951752</v>
+        <v>7951784</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23750,49 +23750,49 @@
         <v>28</v>
       </c>
       <c r="E262" s="2">
-        <v>45388.60416666666</v>
+        <v>45389.35416666666</v>
       </c>
       <c r="F262" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G262" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="K262">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="L262">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M262">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="N262">
+        <v>2.4</v>
+      </c>
+      <c r="O262">
+        <v>2.875</v>
+      </c>
+      <c r="P262">
+        <v>3.4</v>
+      </c>
+      <c r="Q262">
+        <v>-0.25</v>
+      </c>
+      <c r="R262">
         <v>2.05</v>
       </c>
-      <c r="O262">
-        <v>3.3</v>
-      </c>
-      <c r="P262">
-        <v>3.75</v>
-      </c>
-      <c r="Q262">
-        <v>-0.5</v>
-      </c>
-      <c r="R262">
+      <c r="S262">
+        <v>1.8</v>
+      </c>
+      <c r="T262">
+        <v>2</v>
+      </c>
+      <c r="U262">
         <v>2.025</v>
       </c>
-      <c r="S262">
+      <c r="V262">
         <v>1.825</v>
-      </c>
-      <c r="T262">
-        <v>2.25</v>
-      </c>
-      <c r="U262">
-        <v>1.825</v>
-      </c>
-      <c r="V262">
-        <v>2.025</v>
       </c>
       <c r="W262">
         <v>0</v>
@@ -23815,7 +23815,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7951784</v>
+        <v>7951751</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23824,49 +23824,49 @@
         <v>28</v>
       </c>
       <c r="E263" s="2">
-        <v>45389.35416666666</v>
+        <v>45389.60416666666</v>
       </c>
       <c r="F263" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G263" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K263">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="L263">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M263">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N263">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="O263">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P263">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q263">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R263">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S263">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T263">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U263">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V263">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W263">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7951751</v>
+        <v>7951787</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23898,49 +23898,49 @@
         <v>28</v>
       </c>
       <c r="E264" s="2">
-        <v>45389.60416666666</v>
+        <v>45390.47916666666</v>
       </c>
       <c r="F264" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G264" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K264">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L264">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M264">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N264">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="O264">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P264">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q264">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R264">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S264">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T264">
         <v>2.5</v>
       </c>
       <c r="U264">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V264">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W264">
         <v>0</v>
@@ -23963,7 +23963,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7951787</v>
+        <v>7951786</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -23972,49 +23972,49 @@
         <v>28</v>
       </c>
       <c r="E265" s="2">
-        <v>45390.47916666666</v>
+        <v>45390.60416666666</v>
       </c>
       <c r="F265" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G265" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K265">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L265">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M265">
+        <v>3.6</v>
+      </c>
+      <c r="N265">
+        <v>2.15</v>
+      </c>
+      <c r="O265">
         <v>3</v>
       </c>
-      <c r="N265">
-        <v>2.25</v>
-      </c>
-      <c r="O265">
-        <v>3.2</v>
-      </c>
       <c r="P265">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q265">
         <v>-0.25</v>
       </c>
       <c r="R265">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S265">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T265">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U265">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V265">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W265">
         <v>0</v>
@@ -24029,80 +24029,6 @@
         <v>0</v>
       </c>
       <c r="AA265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:29">
-      <c r="A266" s="1">
-        <v>264</v>
-      </c>
-      <c r="B266">
-        <v>7951786</v>
-      </c>
-      <c r="C266" t="s">
-        <v>28</v>
-      </c>
-      <c r="D266" t="s">
-        <v>28</v>
-      </c>
-      <c r="E266" s="2">
-        <v>45390.60416666666</v>
-      </c>
-      <c r="F266" t="s">
-        <v>30</v>
-      </c>
-      <c r="G266" t="s">
-        <v>36</v>
-      </c>
-      <c r="K266">
-        <v>2.05</v>
-      </c>
-      <c r="L266">
-        <v>3</v>
-      </c>
-      <c r="M266">
-        <v>3.6</v>
-      </c>
-      <c r="N266">
-        <v>2.15</v>
-      </c>
-      <c r="O266">
-        <v>3</v>
-      </c>
-      <c r="P266">
-        <v>3.4</v>
-      </c>
-      <c r="Q266">
-        <v>-0.25</v>
-      </c>
-      <c r="R266">
-        <v>1.875</v>
-      </c>
-      <c r="S266">
-        <v>1.975</v>
-      </c>
-      <c r="T266">
-        <v>2</v>
-      </c>
-      <c r="U266">
-        <v>1.925</v>
-      </c>
-      <c r="V266">
-        <v>1.925</v>
-      </c>
-      <c r="W266">
-        <v>0</v>
-      </c>
-      <c r="X266">
-        <v>0</v>
-      </c>
-      <c r="Y266">
-        <v>0</v>
-      </c>
-      <c r="Z266">
-        <v>0</v>
-      </c>
-      <c r="AA266">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC265"/>
+  <dimension ref="A1:AC266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6870268</v>
+        <v>6852370</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21365,76 @@
         <v>45359.625</v>
       </c>
       <c r="F235" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G235" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H235">
         <v>1</v>
       </c>
       <c r="I235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K235">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="L235">
+        <v>2.875</v>
+      </c>
+      <c r="M235">
         <v>3</v>
       </c>
-      <c r="M235">
-        <v>2.55</v>
-      </c>
       <c r="N235">
+        <v>2.375</v>
+      </c>
+      <c r="O235">
         <v>3</v>
       </c>
-      <c r="O235">
-        <v>3.2</v>
-      </c>
       <c r="P235">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q235">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R235">
+        <v>2</v>
+      </c>
+      <c r="S235">
         <v>1.85</v>
-      </c>
-      <c r="S235">
-        <v>2</v>
       </c>
       <c r="T235">
         <v>2.25</v>
       </c>
       <c r="U235">
+        <v>1.975</v>
+      </c>
+      <c r="V235">
         <v>1.875</v>
       </c>
-      <c r="V235">
-        <v>1.975</v>
-      </c>
       <c r="W235">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA235">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
+        <v>-1</v>
+      </c>
+      <c r="AC235">
         <v>0.875</v>
-      </c>
-      <c r="AC235">
-        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6865915</v>
+        <v>6870268</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,76 +21454,76 @@
         <v>45359.625</v>
       </c>
       <c r="F236" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G236" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K236">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="L236">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M236">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="N236">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O236">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P236">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q236">
         <v>0.25</v>
       </c>
       <c r="R236">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S236">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T236">
         <v>2.25</v>
       </c>
       <c r="U236">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V236">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z236">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC236">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6836277</v>
+        <v>6861095</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,67 +21543,67 @@
         <v>45359.625</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G237" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237">
         <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K237">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="L237">
         <v>3.4</v>
       </c>
       <c r="M237">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="N237">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="O237">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P237">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q237">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R237">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S237">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T237">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U237">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V237">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W237">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.425</v>
+        <v>0.3875</v>
       </c>
       <c r="AA237">
         <v>-0.5</v>
@@ -21612,7 +21612,7 @@
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6852370</v>
+        <v>6865915</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45359.625</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G238" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238">
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K238">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="L238">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M238">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N238">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O238">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P238">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R238">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S238">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T238">
         <v>2.25</v>
       </c>
       <c r="U238">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V238">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W238">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6861095</v>
+        <v>6836277</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,67 +21721,67 @@
         <v>45359.625</v>
       </c>
       <c r="F239" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G239" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K239">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="L239">
         <v>3.4</v>
       </c>
       <c r="M239">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N239">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O239">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P239">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q239">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R239">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S239">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T239">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U239">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V239">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X239">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.3875</v>
+        <v>0.425</v>
       </c>
       <c r="AA239">
         <v>-0.5</v>
@@ -21790,7 +21790,7 @@
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -23667,7 +23667,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7951752</v>
+        <v>7951785</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23676,64 +23676,79 @@
         <v>28</v>
       </c>
       <c r="E261" s="2">
-        <v>45388.60416666666</v>
+        <v>45388.47916666666</v>
       </c>
       <c r="F261" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G261" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
+        <v>4</v>
+      </c>
+      <c r="J261" t="s">
+        <v>47</v>
       </c>
       <c r="K261">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="L261">
+        <v>3.2</v>
+      </c>
+      <c r="M261">
+        <v>3.6</v>
+      </c>
+      <c r="N261">
+        <v>2.05</v>
+      </c>
+      <c r="O261">
         <v>3.1</v>
       </c>
-      <c r="M261">
-        <v>2.6</v>
-      </c>
-      <c r="N261">
-        <v>2.1</v>
-      </c>
-      <c r="O261">
-        <v>3.3</v>
-      </c>
       <c r="P261">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q261">
         <v>-0.25</v>
       </c>
       <c r="R261">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S261">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T261">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U261">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V261">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W261">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X261">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y261">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Z261">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA261">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB261">
+        <v>0.825</v>
+      </c>
+      <c r="AC261">
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23741,7 +23756,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7951784</v>
+        <v>7951752</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23750,64 +23765,79 @@
         <v>28</v>
       </c>
       <c r="E262" s="2">
-        <v>45389.35416666666</v>
+        <v>45388.60416666666</v>
       </c>
       <c r="F262" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G262" t="s">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="H262">
+        <v>1</v>
+      </c>
+      <c r="I262">
+        <v>4</v>
+      </c>
+      <c r="J262" t="s">
+        <v>47</v>
       </c>
       <c r="K262">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="L262">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M262">
+        <v>2.6</v>
+      </c>
+      <c r="N262">
+        <v>2.15</v>
+      </c>
+      <c r="O262">
+        <v>3.4</v>
+      </c>
+      <c r="P262">
         <v>3.3</v>
-      </c>
-      <c r="N262">
-        <v>2.4</v>
-      </c>
-      <c r="O262">
-        <v>2.875</v>
-      </c>
-      <c r="P262">
-        <v>3.4</v>
       </c>
       <c r="Q262">
         <v>-0.25</v>
       </c>
       <c r="R262">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S262">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T262">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U262">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V262">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W262">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X262">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y262">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Z262">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA262">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB262">
+        <v>0.925</v>
+      </c>
+      <c r="AC262">
+        <v>-1</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23815,7 +23845,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7951751</v>
+        <v>7951784</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23824,64 +23854,79 @@
         <v>28</v>
       </c>
       <c r="E263" s="2">
-        <v>45389.60416666666</v>
+        <v>45389.35416666666</v>
       </c>
       <c r="F263" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G263" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="H263">
+        <v>1</v>
+      </c>
+      <c r="I263">
+        <v>1</v>
+      </c>
+      <c r="J263" t="s">
+        <v>46</v>
       </c>
       <c r="K263">
+        <v>2.4</v>
+      </c>
+      <c r="L263">
+        <v>2.875</v>
+      </c>
+      <c r="M263">
+        <v>3.3</v>
+      </c>
+      <c r="N263">
+        <v>2.4</v>
+      </c>
+      <c r="O263">
+        <v>2.8</v>
+      </c>
+      <c r="P263">
+        <v>3.5</v>
+      </c>
+      <c r="Q263">
+        <v>-0.25</v>
+      </c>
+      <c r="R263">
+        <v>2.05</v>
+      </c>
+      <c r="S263">
+        <v>1.8</v>
+      </c>
+      <c r="T263">
+        <v>1.75</v>
+      </c>
+      <c r="U263">
         <v>1.85</v>
       </c>
-      <c r="L263">
-        <v>3.4</v>
-      </c>
-      <c r="M263">
-        <v>4.2</v>
-      </c>
-      <c r="N263">
-        <v>1.7</v>
-      </c>
-      <c r="O263">
-        <v>3.6</v>
-      </c>
-      <c r="P263">
-        <v>5</v>
-      </c>
-      <c r="Q263">
-        <v>-0.75</v>
-      </c>
-      <c r="R263">
-        <v>1.9</v>
-      </c>
-      <c r="S263">
-        <v>1.95</v>
-      </c>
-      <c r="T263">
-        <v>2.5</v>
-      </c>
-      <c r="U263">
-        <v>1.875</v>
-      </c>
       <c r="V263">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X263">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Y263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA263">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="AB263">
+        <v>0.425</v>
+      </c>
+      <c r="AC263">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23889,7 +23934,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7951787</v>
+        <v>7951751</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23898,64 +23943,79 @@
         <v>28</v>
       </c>
       <c r="E264" s="2">
-        <v>45390.47916666666</v>
+        <v>45389.60416666666</v>
       </c>
       <c r="F264" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G264" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="H264">
+        <v>2</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264" t="s">
+        <v>45</v>
       </c>
       <c r="K264">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L264">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M264">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N264">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="O264">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P264">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q264">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R264">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S264">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T264">
         <v>2.5</v>
       </c>
       <c r="U264">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V264">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W264">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="X264">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA264">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB264">
+        <v>-1</v>
+      </c>
+      <c r="AC264">
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -23963,7 +24023,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7951786</v>
+        <v>7951787</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -23972,49 +24032,49 @@
         <v>28</v>
       </c>
       <c r="E265" s="2">
-        <v>45390.60416666666</v>
+        <v>45390.47916666666</v>
       </c>
       <c r="F265" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G265" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K265">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L265">
+        <v>3.2</v>
+      </c>
+      <c r="M265">
         <v>3</v>
       </c>
-      <c r="M265">
-        <v>3.6</v>
-      </c>
       <c r="N265">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O265">
+        <v>3.2</v>
+      </c>
+      <c r="P265">
         <v>3</v>
-      </c>
-      <c r="P265">
-        <v>3.4</v>
       </c>
       <c r="Q265">
         <v>-0.25</v>
       </c>
       <c r="R265">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S265">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T265">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U265">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V265">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W265">
         <v>0</v>
@@ -24029,6 +24089,80 @@
         <v>0</v>
       </c>
       <c r="AA265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:29">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>7951786</v>
+      </c>
+      <c r="C266" t="s">
+        <v>28</v>
+      </c>
+      <c r="D266" t="s">
+        <v>28</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45390.60416666666</v>
+      </c>
+      <c r="F266" t="s">
+        <v>30</v>
+      </c>
+      <c r="G266" t="s">
+        <v>36</v>
+      </c>
+      <c r="K266">
+        <v>2.05</v>
+      </c>
+      <c r="L266">
+        <v>3</v>
+      </c>
+      <c r="M266">
+        <v>3.6</v>
+      </c>
+      <c r="N266">
+        <v>2.15</v>
+      </c>
+      <c r="O266">
+        <v>3</v>
+      </c>
+      <c r="P266">
+        <v>3.4</v>
+      </c>
+      <c r="Q266">
+        <v>-0.25</v>
+      </c>
+      <c r="R266">
+        <v>1.875</v>
+      </c>
+      <c r="S266">
+        <v>1.975</v>
+      </c>
+      <c r="T266">
+        <v>2</v>
+      </c>
+      <c r="U266">
+        <v>1.975</v>
+      </c>
+      <c r="V266">
+        <v>1.875</v>
+      </c>
+      <c r="W266">
+        <v>0</v>
+      </c>
+      <c r="X266">
+        <v>0</v>
+      </c>
+      <c r="Y266">
+        <v>0</v>
+      </c>
+      <c r="Z266">
+        <v>0</v>
+      </c>
+      <c r="AA266">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC266"/>
+  <dimension ref="A1:AC270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6852370</v>
+        <v>6861095</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21365,76 @@
         <v>45359.625</v>
       </c>
       <c r="F235" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G235" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235">
         <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K235">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="L235">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M235">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N235">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="O235">
         <v>3</v>
       </c>
       <c r="P235">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q235">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R235">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S235">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T235">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U235">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V235">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W235">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB235">
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6861095</v>
+        <v>6836277</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,67 +21543,67 @@
         <v>45359.625</v>
       </c>
       <c r="F237" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G237" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237">
         <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K237">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="L237">
         <v>3.4</v>
       </c>
       <c r="M237">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N237">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O237">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P237">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q237">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R237">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S237">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T237">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U237">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V237">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X237">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.3875</v>
+        <v>0.425</v>
       </c>
       <c r="AA237">
         <v>-0.5</v>
@@ -21612,7 +21612,7 @@
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6836277</v>
+        <v>6852370</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,10 +21721,10 @@
         <v>45359.625</v>
       </c>
       <c r="F239" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G239" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -21736,43 +21736,43 @@
         <v>45</v>
       </c>
       <c r="K239">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="L239">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M239">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N239">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="O239">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P239">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q239">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R239">
+        <v>2</v>
+      </c>
+      <c r="S239">
         <v>1.85</v>
-      </c>
-      <c r="S239">
-        <v>2</v>
       </c>
       <c r="T239">
         <v>2.25</v>
       </c>
       <c r="U239">
+        <v>1.975</v>
+      </c>
+      <c r="V239">
         <v>1.875</v>
       </c>
-      <c r="V239">
-        <v>1.975</v>
-      </c>
       <c r="W239">
-        <v>0.6499999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X239">
         <v>-1</v>
@@ -21781,16 +21781,16 @@
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AA239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -24040,6 +24040,15 @@
       <c r="G265" t="s">
         <v>34</v>
       </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265" t="s">
+        <v>46</v>
+      </c>
       <c r="K265">
         <v>2.2</v>
       </c>
@@ -24053,7 +24062,7 @@
         <v>2.25</v>
       </c>
       <c r="O265">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P265">
         <v>3</v>
@@ -24071,25 +24080,31 @@
         <v>2.25</v>
       </c>
       <c r="U265">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V265">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W265">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X265">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y265">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA265">
-        <v>0</v>
+        <v>0.4125</v>
+      </c>
+      <c r="AB265">
+        <v>-1</v>
+      </c>
+      <c r="AC265">
+        <v>0.95</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24114,6 +24129,15 @@
       <c r="G266" t="s">
         <v>36</v>
       </c>
+      <c r="H266">
+        <v>1</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266" t="s">
+        <v>45</v>
+      </c>
       <c r="K266">
         <v>2.05</v>
       </c>
@@ -24127,10 +24151,10 @@
         <v>2.15</v>
       </c>
       <c r="O266">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P266">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q266">
         <v>-0.25</v>
@@ -24142,27 +24166,329 @@
         <v>1.975</v>
       </c>
       <c r="T266">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U266">
+        <v>1.85</v>
+      </c>
+      <c r="V266">
+        <v>2</v>
+      </c>
+      <c r="W266">
+        <v>1.15</v>
+      </c>
+      <c r="X266">
+        <v>-1</v>
+      </c>
+      <c r="Y266">
+        <v>-1</v>
+      </c>
+      <c r="Z266">
+        <v>0.875</v>
+      </c>
+      <c r="AA266">
+        <v>-1</v>
+      </c>
+      <c r="AB266">
+        <v>-1</v>
+      </c>
+      <c r="AC266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:29">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>7951792</v>
+      </c>
+      <c r="C267" t="s">
+        <v>28</v>
+      </c>
+      <c r="D267" t="s">
+        <v>28</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45394.47916666666</v>
+      </c>
+      <c r="F267" t="s">
+        <v>38</v>
+      </c>
+      <c r="G267" t="s">
+        <v>32</v>
+      </c>
+      <c r="K267">
+        <v>2.3</v>
+      </c>
+      <c r="L267">
+        <v>2.9</v>
+      </c>
+      <c r="M267">
+        <v>3.1</v>
+      </c>
+      <c r="N267">
+        <v>2.5</v>
+      </c>
+      <c r="O267">
+        <v>2.9</v>
+      </c>
+      <c r="P267">
+        <v>2.875</v>
+      </c>
+      <c r="Q267">
+        <v>0</v>
+      </c>
+      <c r="R267">
+        <v>1.775</v>
+      </c>
+      <c r="S267">
+        <v>2.1</v>
+      </c>
+      <c r="T267">
+        <v>2</v>
+      </c>
+      <c r="U267">
+        <v>1.875</v>
+      </c>
+      <c r="V267">
         <v>1.975</v>
       </c>
-      <c r="V266">
+      <c r="W267">
+        <v>0</v>
+      </c>
+      <c r="X267">
+        <v>0</v>
+      </c>
+      <c r="Y267">
+        <v>0</v>
+      </c>
+      <c r="Z267">
+        <v>0</v>
+      </c>
+      <c r="AA267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:29">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>7951755</v>
+      </c>
+      <c r="C268" t="s">
+        <v>28</v>
+      </c>
+      <c r="D268" t="s">
+        <v>28</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45394.60416666666</v>
+      </c>
+      <c r="F268" t="s">
+        <v>44</v>
+      </c>
+      <c r="G268" t="s">
+        <v>39</v>
+      </c>
+      <c r="K268">
+        <v>1.8</v>
+      </c>
+      <c r="L268">
+        <v>3.4</v>
+      </c>
+      <c r="M268">
+        <v>4.2</v>
+      </c>
+      <c r="N268">
+        <v>1.8</v>
+      </c>
+      <c r="O268">
+        <v>3.4</v>
+      </c>
+      <c r="P268">
+        <v>4.2</v>
+      </c>
+      <c r="Q268">
+        <v>-0.5</v>
+      </c>
+      <c r="R268">
+        <v>1.825</v>
+      </c>
+      <c r="S268">
+        <v>2.025</v>
+      </c>
+      <c r="T268">
+        <v>2.5</v>
+      </c>
+      <c r="U268">
+        <v>1.95</v>
+      </c>
+      <c r="V268">
+        <v>1.9</v>
+      </c>
+      <c r="W268">
+        <v>0</v>
+      </c>
+      <c r="X268">
+        <v>0</v>
+      </c>
+      <c r="Y268">
+        <v>0</v>
+      </c>
+      <c r="Z268">
+        <v>0</v>
+      </c>
+      <c r="AA268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:29">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>7951791</v>
+      </c>
+      <c r="C269" t="s">
+        <v>28</v>
+      </c>
+      <c r="D269" t="s">
+        <v>28</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45395.64583333334</v>
+      </c>
+      <c r="F269" t="s">
+        <v>42</v>
+      </c>
+      <c r="G269" t="s">
+        <v>33</v>
+      </c>
+      <c r="K269">
+        <v>1.909</v>
+      </c>
+      <c r="L269">
+        <v>3.2</v>
+      </c>
+      <c r="M269">
+        <v>4</v>
+      </c>
+      <c r="N269">
+        <v>1.909</v>
+      </c>
+      <c r="O269">
+        <v>3.2</v>
+      </c>
+      <c r="P269">
+        <v>4</v>
+      </c>
+      <c r="Q269">
+        <v>-0.5</v>
+      </c>
+      <c r="R269">
+        <v>1.975</v>
+      </c>
+      <c r="S269">
         <v>1.875</v>
       </c>
-      <c r="W266">
+      <c r="T269">
+        <v>2</v>
+      </c>
+      <c r="U269">
+        <v>1.875</v>
+      </c>
+      <c r="V269">
+        <v>1.975</v>
+      </c>
+      <c r="W269">
         <v>0</v>
       </c>
-      <c r="X266">
+      <c r="X269">
         <v>0</v>
       </c>
-      <c r="Y266">
+      <c r="Y269">
         <v>0</v>
       </c>
-      <c r="Z266">
+      <c r="Z269">
         <v>0</v>
       </c>
-      <c r="AA266">
+      <c r="AA269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:29">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>7951754</v>
+      </c>
+      <c r="C270" t="s">
+        <v>28</v>
+      </c>
+      <c r="D270" t="s">
+        <v>28</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45396.625</v>
+      </c>
+      <c r="F270" t="s">
+        <v>29</v>
+      </c>
+      <c r="G270" t="s">
+        <v>40</v>
+      </c>
+      <c r="K270">
+        <v>2.3</v>
+      </c>
+      <c r="L270">
+        <v>3.1</v>
+      </c>
+      <c r="M270">
+        <v>3</v>
+      </c>
+      <c r="N270">
+        <v>2.3</v>
+      </c>
+      <c r="O270">
+        <v>3.1</v>
+      </c>
+      <c r="P270">
+        <v>3</v>
+      </c>
+      <c r="Q270">
+        <v>-0.25</v>
+      </c>
+      <c r="R270">
+        <v>2.05</v>
+      </c>
+      <c r="S270">
+        <v>1.8</v>
+      </c>
+      <c r="T270">
+        <v>2.25</v>
+      </c>
+      <c r="U270">
+        <v>1.85</v>
+      </c>
+      <c r="V270">
+        <v>2</v>
+      </c>
+      <c r="W270">
+        <v>0</v>
+      </c>
+      <c r="X270">
+        <v>0</v>
+      </c>
+      <c r="Y270">
+        <v>0</v>
+      </c>
+      <c r="Z270">
+        <v>0</v>
+      </c>
+      <c r="AA270">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC270"/>
+  <dimension ref="A1:AC274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6870268</v>
+        <v>6865915</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,76 +21454,76 @@
         <v>45359.625</v>
       </c>
       <c r="F236" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G236" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K236">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="L236">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M236">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="N236">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O236">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P236">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q236">
         <v>0.25</v>
       </c>
       <c r="R236">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S236">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T236">
         <v>2.25</v>
       </c>
       <c r="U236">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V236">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y236">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA236">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB236">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6836277</v>
+        <v>6870268</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,40 +21543,40 @@
         <v>45359.625</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G237" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H237">
         <v>1</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K237">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="L237">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M237">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N237">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O237">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P237">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q237">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R237">
         <v>1.85</v>
@@ -21594,25 +21594,25 @@
         <v>1.975</v>
       </c>
       <c r="W237">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z237">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA237">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC237">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6865915</v>
+        <v>6852370</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45359.625</v>
       </c>
       <c r="F238" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G238" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238">
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K238">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="L238">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M238">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="N238">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O238">
+        <v>3</v>
+      </c>
+      <c r="P238">
         <v>3.1</v>
       </c>
-      <c r="P238">
-        <v>2.15</v>
-      </c>
       <c r="Q238">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R238">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S238">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T238">
         <v>2.25</v>
       </c>
       <c r="U238">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V238">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X238">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AA238">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6852370</v>
+        <v>6836277</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,10 +21721,10 @@
         <v>45359.625</v>
       </c>
       <c r="F239" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G239" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -21736,43 +21736,43 @@
         <v>45</v>
       </c>
       <c r="K239">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="L239">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M239">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N239">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="O239">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P239">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q239">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R239">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S239">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T239">
         <v>2.25</v>
       </c>
       <c r="U239">
+        <v>1.875</v>
+      </c>
+      <c r="V239">
         <v>1.975</v>
       </c>
-      <c r="V239">
-        <v>1.875</v>
-      </c>
       <c r="W239">
-        <v>1.375</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X239">
         <v>-1</v>
@@ -21781,16 +21781,16 @@
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -24349,7 +24349,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7951791</v>
+        <v>7951790</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24358,49 +24358,49 @@
         <v>28</v>
       </c>
       <c r="E269" s="2">
-        <v>45395.64583333334</v>
+        <v>45395.45833333334</v>
       </c>
       <c r="F269" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G269" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K269">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L269">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M269">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N269">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O269">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P269">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q269">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R269">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S269">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T269">
         <v>2</v>
       </c>
       <c r="U269">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V269">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W269">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7951754</v>
+        <v>7951791</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24432,43 +24432,43 @@
         <v>28</v>
       </c>
       <c r="E270" s="2">
-        <v>45396.625</v>
+        <v>45395.64583333334</v>
       </c>
       <c r="F270" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G270" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K270">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L270">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M270">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N270">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O270">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P270">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q270">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R270">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S270">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T270">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U270">
         <v>1.85</v>
@@ -24489,6 +24489,302 @@
         <v>0</v>
       </c>
       <c r="AA270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:29">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>7951788</v>
+      </c>
+      <c r="C271" t="s">
+        <v>28</v>
+      </c>
+      <c r="D271" t="s">
+        <v>28</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45396.3125</v>
+      </c>
+      <c r="F271" t="s">
+        <v>43</v>
+      </c>
+      <c r="G271" t="s">
+        <v>34</v>
+      </c>
+      <c r="K271">
+        <v>2.4</v>
+      </c>
+      <c r="L271">
+        <v>3</v>
+      </c>
+      <c r="M271">
+        <v>2.9</v>
+      </c>
+      <c r="N271">
+        <v>2.375</v>
+      </c>
+      <c r="O271">
+        <v>3</v>
+      </c>
+      <c r="P271">
+        <v>3</v>
+      </c>
+      <c r="Q271">
+        <v>-0.25</v>
+      </c>
+      <c r="R271">
+        <v>2.1</v>
+      </c>
+      <c r="S271">
+        <v>1.775</v>
+      </c>
+      <c r="T271">
+        <v>2.25</v>
+      </c>
+      <c r="U271">
+        <v>1.875</v>
+      </c>
+      <c r="V271">
+        <v>1.975</v>
+      </c>
+      <c r="W271">
+        <v>0</v>
+      </c>
+      <c r="X271">
+        <v>0</v>
+      </c>
+      <c r="Y271">
+        <v>0</v>
+      </c>
+      <c r="Z271">
+        <v>0</v>
+      </c>
+      <c r="AA271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:29">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>7951789</v>
+      </c>
+      <c r="C272" t="s">
+        <v>28</v>
+      </c>
+      <c r="D272" t="s">
+        <v>28</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45396.51041666666</v>
+      </c>
+      <c r="F272" t="s">
+        <v>36</v>
+      </c>
+      <c r="G272" t="s">
+        <v>41</v>
+      </c>
+      <c r="K272">
+        <v>2.25</v>
+      </c>
+      <c r="L272">
+        <v>3.1</v>
+      </c>
+      <c r="M272">
+        <v>3.1</v>
+      </c>
+      <c r="N272">
+        <v>2.15</v>
+      </c>
+      <c r="O272">
+        <v>3.1</v>
+      </c>
+      <c r="P272">
+        <v>3.25</v>
+      </c>
+      <c r="Q272">
+        <v>-0.25</v>
+      </c>
+      <c r="R272">
+        <v>1.9</v>
+      </c>
+      <c r="S272">
+        <v>1.95</v>
+      </c>
+      <c r="T272">
+        <v>2.25</v>
+      </c>
+      <c r="U272">
+        <v>2.025</v>
+      </c>
+      <c r="V272">
+        <v>1.825</v>
+      </c>
+      <c r="W272">
+        <v>0</v>
+      </c>
+      <c r="X272">
+        <v>0</v>
+      </c>
+      <c r="Y272">
+        <v>0</v>
+      </c>
+      <c r="Z272">
+        <v>0</v>
+      </c>
+      <c r="AA272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:27">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>7951754</v>
+      </c>
+      <c r="C273" t="s">
+        <v>28</v>
+      </c>
+      <c r="D273" t="s">
+        <v>28</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45396.625</v>
+      </c>
+      <c r="F273" t="s">
+        <v>29</v>
+      </c>
+      <c r="G273" t="s">
+        <v>40</v>
+      </c>
+      <c r="K273">
+        <v>2.3</v>
+      </c>
+      <c r="L273">
+        <v>3.1</v>
+      </c>
+      <c r="M273">
+        <v>3</v>
+      </c>
+      <c r="N273">
+        <v>2.3</v>
+      </c>
+      <c r="O273">
+        <v>3.1</v>
+      </c>
+      <c r="P273">
+        <v>3</v>
+      </c>
+      <c r="Q273">
+        <v>-0.25</v>
+      </c>
+      <c r="R273">
+        <v>2.1</v>
+      </c>
+      <c r="S273">
+        <v>1.775</v>
+      </c>
+      <c r="T273">
+        <v>2.25</v>
+      </c>
+      <c r="U273">
+        <v>1.85</v>
+      </c>
+      <c r="V273">
+        <v>2</v>
+      </c>
+      <c r="W273">
+        <v>0</v>
+      </c>
+      <c r="X273">
+        <v>0</v>
+      </c>
+      <c r="Y273">
+        <v>0</v>
+      </c>
+      <c r="Z273">
+        <v>0</v>
+      </c>
+      <c r="AA273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:27">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>7951756</v>
+      </c>
+      <c r="C274" t="s">
+        <v>28</v>
+      </c>
+      <c r="D274" t="s">
+        <v>28</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45397.60416666666</v>
+      </c>
+      <c r="F274" t="s">
+        <v>31</v>
+      </c>
+      <c r="G274" t="s">
+        <v>37</v>
+      </c>
+      <c r="K274">
+        <v>1.95</v>
+      </c>
+      <c r="L274">
+        <v>3.25</v>
+      </c>
+      <c r="M274">
+        <v>3.75</v>
+      </c>
+      <c r="N274">
+        <v>1.95</v>
+      </c>
+      <c r="O274">
+        <v>3.25</v>
+      </c>
+      <c r="P274">
+        <v>3.8</v>
+      </c>
+      <c r="Q274">
+        <v>-0.5</v>
+      </c>
+      <c r="R274">
+        <v>2</v>
+      </c>
+      <c r="S274">
+        <v>1.85</v>
+      </c>
+      <c r="T274">
+        <v>2.5</v>
+      </c>
+      <c r="U274">
+        <v>1.975</v>
+      </c>
+      <c r="V274">
+        <v>1.875</v>
+      </c>
+      <c r="W274">
+        <v>0</v>
+      </c>
+      <c r="X274">
+        <v>0</v>
+      </c>
+      <c r="Y274">
+        <v>0</v>
+      </c>
+      <c r="Z274">
+        <v>0</v>
+      </c>
+      <c r="AA274">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -24240,10 +24240,10 @@
         <v>0</v>
       </c>
       <c r="R267">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S267">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T267">
         <v>2</v>
@@ -24471,10 +24471,10 @@
         <v>2</v>
       </c>
       <c r="U270">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V270">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W270">
         <v>0</v>
@@ -24610,19 +24610,19 @@
         <v>-0.25</v>
       </c>
       <c r="R272">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S272">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T272">
         <v>2.25</v>
       </c>
       <c r="U272">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V272">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W272">
         <v>0</v>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6861095</v>
+        <v>6836277</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,67 +21365,67 @@
         <v>45359.625</v>
       </c>
       <c r="F235" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G235" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I235">
         <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K235">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="L235">
         <v>3.4</v>
       </c>
       <c r="M235">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N235">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O235">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P235">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q235">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R235">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S235">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T235">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U235">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V235">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X235">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.3875</v>
+        <v>0.425</v>
       </c>
       <c r="AA235">
         <v>-0.5</v>
@@ -21434,7 +21434,7 @@
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6865915</v>
+        <v>6852370</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,76 +21454,76 @@
         <v>45359.625</v>
       </c>
       <c r="F236" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G236" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236">
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K236">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="L236">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M236">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="N236">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O236">
+        <v>3</v>
+      </c>
+      <c r="P236">
         <v>3.1</v>
       </c>
-      <c r="P236">
-        <v>2.15</v>
-      </c>
       <c r="Q236">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R236">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S236">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T236">
         <v>2.25</v>
       </c>
       <c r="U236">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V236">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X236">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AA236">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6870268</v>
+        <v>6861095</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,76 +21543,76 @@
         <v>45359.625</v>
       </c>
       <c r="F237" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G237" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K237">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="L237">
+        <v>3.4</v>
+      </c>
+      <c r="M237">
+        <v>1.909</v>
+      </c>
+      <c r="N237">
+        <v>3.1</v>
+      </c>
+      <c r="O237">
         <v>3</v>
       </c>
-      <c r="M237">
-        <v>2.55</v>
-      </c>
-      <c r="N237">
-        <v>3</v>
-      </c>
-      <c r="O237">
-        <v>3.2</v>
-      </c>
       <c r="P237">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q237">
         <v>0.25</v>
       </c>
       <c r="R237">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S237">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T237">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U237">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V237">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y237">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA237">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB237">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6852370</v>
+        <v>6870268</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45359.625</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G238" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H238">
         <v>1</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J238" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K238">
+        <v>2.8</v>
+      </c>
+      <c r="L238">
+        <v>3</v>
+      </c>
+      <c r="M238">
         <v>2.55</v>
       </c>
-      <c r="L238">
-        <v>2.875</v>
-      </c>
-      <c r="M238">
+      <c r="N238">
         <v>3</v>
       </c>
-      <c r="N238">
-        <v>2.375</v>
-      </c>
       <c r="O238">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P238">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R238">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S238">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T238">
         <v>2.25</v>
       </c>
       <c r="U238">
+        <v>1.875</v>
+      </c>
+      <c r="V238">
         <v>1.975</v>
       </c>
-      <c r="V238">
-        <v>1.875</v>
-      </c>
       <c r="W238">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z238">
+        <v>-1</v>
+      </c>
+      <c r="AA238">
         <v>1</v>
       </c>
-      <c r="AA238">
-        <v>-1</v>
-      </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC238">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6836277</v>
+        <v>6865915</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,67 +21721,67 @@
         <v>45359.625</v>
       </c>
       <c r="F239" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G239" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K239">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L239">
+        <v>3.25</v>
+      </c>
+      <c r="M239">
+        <v>2.05</v>
+      </c>
+      <c r="N239">
         <v>3.4</v>
       </c>
-      <c r="M239">
-        <v>5</v>
-      </c>
-      <c r="N239">
-        <v>1.65</v>
-      </c>
       <c r="O239">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P239">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q239">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R239">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S239">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T239">
         <v>2.25</v>
       </c>
       <c r="U239">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V239">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W239">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AA239">
         <v>-0.5</v>
@@ -21790,7 +21790,7 @@
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -24228,31 +24228,31 @@
         <v>3.1</v>
       </c>
       <c r="N267">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="O267">
         <v>2.9</v>
       </c>
       <c r="P267">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="Q267">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R267">
-        <v>1.8</v>
+        <v>2.125</v>
       </c>
       <c r="S267">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="T267">
         <v>2</v>
       </c>
       <c r="U267">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V267">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W267">
         <v>0</v>
@@ -24302,31 +24302,31 @@
         <v>4.2</v>
       </c>
       <c r="N268">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O268">
         <v>3.4</v>
       </c>
       <c r="P268">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q268">
         <v>-0.5</v>
       </c>
       <c r="R268">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S268">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T268">
         <v>2.5</v>
       </c>
       <c r="U268">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V268">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W268">
         <v>0</v>
@@ -24471,10 +24471,10 @@
         <v>2</v>
       </c>
       <c r="U270">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V270">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W270">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>2.15</v>
       </c>
       <c r="O272">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P272">
         <v>3.25</v>
@@ -24619,10 +24619,10 @@
         <v>2.25</v>
       </c>
       <c r="U272">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V272">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W272">
         <v>0</v>
@@ -24672,22 +24672,22 @@
         <v>3</v>
       </c>
       <c r="N273">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O273">
         <v>3.1</v>
       </c>
       <c r="P273">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q273">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R273">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S273">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T273">
         <v>2.25</v>
@@ -24746,22 +24746,22 @@
         <v>3.75</v>
       </c>
       <c r="N274">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O274">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P274">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q274">
         <v>-0.5</v>
       </c>
       <c r="R274">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S274">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T274">
         <v>2.5</v>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC274"/>
+  <dimension ref="A1:AC272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6836277</v>
+        <v>6852370</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,10 +21365,10 @@
         <v>45359.625</v>
       </c>
       <c r="F235" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G235" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21380,43 +21380,43 @@
         <v>45</v>
       </c>
       <c r="K235">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="L235">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M235">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N235">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="O235">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P235">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q235">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R235">
+        <v>2</v>
+      </c>
+      <c r="S235">
         <v>1.85</v>
-      </c>
-      <c r="S235">
-        <v>2</v>
       </c>
       <c r="T235">
         <v>2.25</v>
       </c>
       <c r="U235">
+        <v>1.975</v>
+      </c>
+      <c r="V235">
         <v>1.875</v>
       </c>
-      <c r="V235">
-        <v>1.975</v>
-      </c>
       <c r="W235">
-        <v>0.6499999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X235">
         <v>-1</v>
@@ -21425,16 +21425,16 @@
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AA235">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6852370</v>
+        <v>6865915</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,76 +21454,76 @@
         <v>45359.625</v>
       </c>
       <c r="F236" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G236" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236">
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K236">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="L236">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M236">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N236">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O236">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P236">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q236">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R236">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S236">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T236">
         <v>2.25</v>
       </c>
       <c r="U236">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V236">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W236">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB236">
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6861095</v>
+        <v>6870268</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,76 +21543,76 @@
         <v>45359.625</v>
       </c>
       <c r="F237" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G237" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K237">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="L237">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M237">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="N237">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O237">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P237">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="Q237">
         <v>0.25</v>
       </c>
       <c r="R237">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S237">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T237">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U237">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V237">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z237">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA237">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC237">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6870268</v>
+        <v>6861095</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45359.625</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G238" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K238">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="L238">
+        <v>3.4</v>
+      </c>
+      <c r="M238">
+        <v>1.909</v>
+      </c>
+      <c r="N238">
+        <v>3.1</v>
+      </c>
+      <c r="O238">
         <v>3</v>
       </c>
-      <c r="M238">
-        <v>2.55</v>
-      </c>
-      <c r="N238">
-        <v>3</v>
-      </c>
-      <c r="O238">
-        <v>3.2</v>
-      </c>
       <c r="P238">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q238">
         <v>0.25</v>
       </c>
       <c r="R238">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S238">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T238">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U238">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V238">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y238">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA238">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB238">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6865915</v>
+        <v>6836277</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,67 +21721,67 @@
         <v>45359.625</v>
       </c>
       <c r="F239" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G239" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K239">
+        <v>1.7</v>
+      </c>
+      <c r="L239">
+        <v>3.4</v>
+      </c>
+      <c r="M239">
+        <v>5</v>
+      </c>
+      <c r="N239">
+        <v>1.65</v>
+      </c>
+      <c r="O239">
         <v>3.5</v>
       </c>
-      <c r="L239">
-        <v>3.25</v>
-      </c>
-      <c r="M239">
-        <v>2.05</v>
-      </c>
-      <c r="N239">
-        <v>3.4</v>
-      </c>
-      <c r="O239">
-        <v>3.1</v>
-      </c>
       <c r="P239">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q239">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R239">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S239">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T239">
         <v>2.25</v>
       </c>
       <c r="U239">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V239">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X239">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AA239">
         <v>-0.5</v>
@@ -21790,7 +21790,7 @@
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -24201,7 +24201,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>7951792</v>
+        <v>7951790</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24210,40 +24210,40 @@
         <v>28</v>
       </c>
       <c r="E267" s="2">
-        <v>45394.47916666666</v>
+        <v>45395.45833333334</v>
       </c>
       <c r="F267" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G267" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K267">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L267">
         <v>2.9</v>
       </c>
       <c r="M267">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N267">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="O267">
         <v>2.9</v>
       </c>
       <c r="P267">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q267">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R267">
-        <v>2.125</v>
+        <v>1.95</v>
       </c>
       <c r="S267">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T267">
         <v>2</v>
@@ -24275,7 +24275,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7951755</v>
+        <v>7951791</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24284,31 +24284,31 @@
         <v>28</v>
       </c>
       <c r="E268" s="2">
-        <v>45394.60416666666</v>
+        <v>45395.64583333334</v>
       </c>
       <c r="F268" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G268" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K268">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L268">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M268">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N268">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O268">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P268">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q268">
         <v>-0.5</v>
@@ -24320,13 +24320,13 @@
         <v>1.975</v>
       </c>
       <c r="T268">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U268">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V268">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W268">
         <v>0</v>
@@ -24349,7 +24349,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7951790</v>
+        <v>7951788</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24358,49 +24358,49 @@
         <v>28</v>
       </c>
       <c r="E269" s="2">
-        <v>45395.45833333334</v>
+        <v>45396.3125</v>
       </c>
       <c r="F269" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G269" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K269">
         <v>2.4</v>
       </c>
       <c r="L269">
+        <v>3</v>
+      </c>
+      <c r="M269">
         <v>2.9</v>
       </c>
-      <c r="M269">
+      <c r="N269">
+        <v>2.375</v>
+      </c>
+      <c r="O269">
         <v>3</v>
       </c>
-      <c r="N269">
-        <v>2.7</v>
-      </c>
-      <c r="O269">
-        <v>2.9</v>
-      </c>
       <c r="P269">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q269">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R269">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S269">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T269">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U269">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V269">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W269">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7951791</v>
+        <v>7951789</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24432,34 +24432,34 @@
         <v>28</v>
       </c>
       <c r="E270" s="2">
-        <v>45395.64583333334</v>
+        <v>45396.51041666666</v>
       </c>
       <c r="F270" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G270" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K270">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L270">
+        <v>3.1</v>
+      </c>
+      <c r="M270">
+        <v>3.1</v>
+      </c>
+      <c r="N270">
+        <v>2.1</v>
+      </c>
+      <c r="O270">
+        <v>3.3</v>
+      </c>
+      <c r="P270">
         <v>3.2</v>
       </c>
-      <c r="M270">
-        <v>4</v>
-      </c>
-      <c r="N270">
-        <v>1.833</v>
-      </c>
-      <c r="O270">
-        <v>3.25</v>
-      </c>
-      <c r="P270">
-        <v>4.333</v>
-      </c>
       <c r="Q270">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R270">
         <v>1.875</v>
@@ -24468,13 +24468,13 @@
         <v>1.975</v>
       </c>
       <c r="T270">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U270">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V270">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W270">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7951788</v>
+        <v>7951754</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24506,49 +24506,49 @@
         <v>28</v>
       </c>
       <c r="E271" s="2">
-        <v>45396.3125</v>
+        <v>45396.625</v>
       </c>
       <c r="F271" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G271" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K271">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L271">
+        <v>3.1</v>
+      </c>
+      <c r="M271">
         <v>3</v>
       </c>
-      <c r="M271">
-        <v>2.9</v>
-      </c>
       <c r="N271">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O271">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P271">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q271">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R271">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S271">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T271">
         <v>2.25</v>
       </c>
       <c r="U271">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V271">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W271">
         <v>0</v>
@@ -24571,7 +24571,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7951789</v>
+        <v>7951756</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24580,50 +24580,50 @@
         <v>28</v>
       </c>
       <c r="E272" s="2">
-        <v>45396.51041666666</v>
+        <v>45397.60416666666</v>
       </c>
       <c r="F272" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G272" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K272">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L272">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M272">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N272">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O272">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P272">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q272">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R272">
+        <v>1.925</v>
+      </c>
+      <c r="S272">
+        <v>1.925</v>
+      </c>
+      <c r="T272">
+        <v>2.5</v>
+      </c>
+      <c r="U272">
+        <v>1.975</v>
+      </c>
+      <c r="V272">
         <v>1.875</v>
       </c>
-      <c r="S272">
-        <v>1.975</v>
-      </c>
-      <c r="T272">
-        <v>2.25</v>
-      </c>
-      <c r="U272">
-        <v>1.925</v>
-      </c>
-      <c r="V272">
-        <v>1.925</v>
-      </c>
       <c r="W272">
         <v>0</v>
       </c>
@@ -24637,154 +24637,6 @@
         <v>0</v>
       </c>
       <c r="AA272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:27">
-      <c r="A273" s="1">
-        <v>271</v>
-      </c>
-      <c r="B273">
-        <v>7951754</v>
-      </c>
-      <c r="C273" t="s">
-        <v>28</v>
-      </c>
-      <c r="D273" t="s">
-        <v>28</v>
-      </c>
-      <c r="E273" s="2">
-        <v>45396.625</v>
-      </c>
-      <c r="F273" t="s">
-        <v>29</v>
-      </c>
-      <c r="G273" t="s">
-        <v>40</v>
-      </c>
-      <c r="K273">
-        <v>2.3</v>
-      </c>
-      <c r="L273">
-        <v>3.1</v>
-      </c>
-      <c r="M273">
-        <v>3</v>
-      </c>
-      <c r="N273">
-        <v>2.5</v>
-      </c>
-      <c r="O273">
-        <v>3.1</v>
-      </c>
-      <c r="P273">
-        <v>2.8</v>
-      </c>
-      <c r="Q273">
-        <v>0</v>
-      </c>
-      <c r="R273">
-        <v>1.8</v>
-      </c>
-      <c r="S273">
-        <v>2.05</v>
-      </c>
-      <c r="T273">
-        <v>2.25</v>
-      </c>
-      <c r="U273">
-        <v>1.85</v>
-      </c>
-      <c r="V273">
-        <v>2</v>
-      </c>
-      <c r="W273">
-        <v>0</v>
-      </c>
-      <c r="X273">
-        <v>0</v>
-      </c>
-      <c r="Y273">
-        <v>0</v>
-      </c>
-      <c r="Z273">
-        <v>0</v>
-      </c>
-      <c r="AA273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:27">
-      <c r="A274" s="1">
-        <v>272</v>
-      </c>
-      <c r="B274">
-        <v>7951756</v>
-      </c>
-      <c r="C274" t="s">
-        <v>28</v>
-      </c>
-      <c r="D274" t="s">
-        <v>28</v>
-      </c>
-      <c r="E274" s="2">
-        <v>45397.60416666666</v>
-      </c>
-      <c r="F274" t="s">
-        <v>31</v>
-      </c>
-      <c r="G274" t="s">
-        <v>37</v>
-      </c>
-      <c r="K274">
-        <v>1.95</v>
-      </c>
-      <c r="L274">
-        <v>3.25</v>
-      </c>
-      <c r="M274">
-        <v>3.75</v>
-      </c>
-      <c r="N274">
-        <v>1.85</v>
-      </c>
-      <c r="O274">
-        <v>3.3</v>
-      </c>
-      <c r="P274">
-        <v>4</v>
-      </c>
-      <c r="Q274">
-        <v>-0.5</v>
-      </c>
-      <c r="R274">
-        <v>1.925</v>
-      </c>
-      <c r="S274">
-        <v>1.925</v>
-      </c>
-      <c r="T274">
-        <v>2.5</v>
-      </c>
-      <c r="U274">
-        <v>1.975</v>
-      </c>
-      <c r="V274">
-        <v>1.875</v>
-      </c>
-      <c r="W274">
-        <v>0</v>
-      </c>
-      <c r="X274">
-        <v>0</v>
-      </c>
-      <c r="Y274">
-        <v>0</v>
-      </c>
-      <c r="Z274">
-        <v>0</v>
-      </c>
-      <c r="AA274">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC272"/>
+  <dimension ref="A1:AC273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6852370</v>
+        <v>6836277</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,10 +21365,10 @@
         <v>45359.625</v>
       </c>
       <c r="F235" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G235" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21380,43 +21380,43 @@
         <v>45</v>
       </c>
       <c r="K235">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="L235">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M235">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N235">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="O235">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P235">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q235">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R235">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S235">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T235">
         <v>2.25</v>
       </c>
       <c r="U235">
+        <v>1.875</v>
+      </c>
+      <c r="V235">
         <v>1.975</v>
       </c>
-      <c r="V235">
-        <v>1.875</v>
-      </c>
       <c r="W235">
-        <v>1.375</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X235">
         <v>-1</v>
@@ -21425,16 +21425,16 @@
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB235">
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6865915</v>
+        <v>6870268</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,76 +21454,76 @@
         <v>45359.625</v>
       </c>
       <c r="F236" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G236" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K236">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="L236">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M236">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="N236">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O236">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P236">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q236">
         <v>0.25</v>
       </c>
       <c r="R236">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S236">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T236">
         <v>2.25</v>
       </c>
       <c r="U236">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V236">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z236">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC236">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6870268</v>
+        <v>6865915</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,76 +21543,76 @@
         <v>45359.625</v>
       </c>
       <c r="F237" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G237" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K237">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="L237">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M237">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="N237">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O237">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P237">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q237">
         <v>0.25</v>
       </c>
       <c r="R237">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S237">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T237">
         <v>2.25</v>
       </c>
       <c r="U237">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V237">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y237">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA237">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB237">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6836277</v>
+        <v>6852370</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,10 +21721,10 @@
         <v>45359.625</v>
       </c>
       <c r="F239" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G239" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -21736,43 +21736,43 @@
         <v>45</v>
       </c>
       <c r="K239">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="L239">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M239">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N239">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="O239">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P239">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q239">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R239">
+        <v>2</v>
+      </c>
+      <c r="S239">
         <v>1.85</v>
-      </c>
-      <c r="S239">
-        <v>2</v>
       </c>
       <c r="T239">
         <v>2.25</v>
       </c>
       <c r="U239">
+        <v>1.975</v>
+      </c>
+      <c r="V239">
         <v>1.875</v>
       </c>
-      <c r="V239">
-        <v>1.975</v>
-      </c>
       <c r="W239">
-        <v>0.6499999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X239">
         <v>-1</v>
@@ -21781,16 +21781,16 @@
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AA239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -24201,7 +24201,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>7951790</v>
+        <v>7951792</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24210,64 +24210,79 @@
         <v>28</v>
       </c>
       <c r="E267" s="2">
-        <v>45395.45833333334</v>
+        <v>45394.47916666666</v>
       </c>
       <c r="F267" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G267" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="H267">
+        <v>1</v>
+      </c>
+      <c r="I267">
+        <v>3</v>
+      </c>
+      <c r="J267" t="s">
+        <v>47</v>
       </c>
       <c r="K267">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L267">
         <v>2.9</v>
       </c>
       <c r="M267">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N267">
         <v>2.7</v>
       </c>
       <c r="O267">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P267">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="Q267">
         <v>0</v>
       </c>
       <c r="R267">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S267">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T267">
         <v>2</v>
       </c>
       <c r="U267">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V267">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W267">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X267">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y267">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Z267">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA267">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB267">
+        <v>0.8</v>
+      </c>
+      <c r="AC267">
+        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24275,7 +24290,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7951791</v>
+        <v>7951755</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24284,64 +24299,79 @@
         <v>28</v>
       </c>
       <c r="E268" s="2">
-        <v>45395.64583333334</v>
+        <v>45394.60416666666</v>
       </c>
       <c r="F268" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G268" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="H268">
+        <v>1</v>
+      </c>
+      <c r="I268">
+        <v>2</v>
+      </c>
+      <c r="J268" t="s">
+        <v>47</v>
       </c>
       <c r="K268">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L268">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M268">
+        <v>4.2</v>
+      </c>
+      <c r="N268">
+        <v>1.8</v>
+      </c>
+      <c r="O268">
+        <v>3.6</v>
+      </c>
+      <c r="P268">
         <v>4</v>
-      </c>
-      <c r="N268">
-        <v>1.833</v>
-      </c>
-      <c r="O268">
-        <v>3.25</v>
-      </c>
-      <c r="P268">
-        <v>4.333</v>
       </c>
       <c r="Q268">
         <v>-0.5</v>
       </c>
       <c r="R268">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S268">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T268">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U268">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V268">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W268">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X268">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y268">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z268">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA268">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB268">
+        <v>0.475</v>
+      </c>
+      <c r="AC268">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24349,7 +24379,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7951788</v>
+        <v>7951791</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24358,43 +24388,43 @@
         <v>28</v>
       </c>
       <c r="E269" s="2">
-        <v>45396.3125</v>
+        <v>45395.64583333334</v>
       </c>
       <c r="F269" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G269" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K269">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L269">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M269">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N269">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O269">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P269">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q269">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R269">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S269">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T269">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U269">
         <v>1.875</v>
@@ -24423,7 +24453,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7951789</v>
+        <v>7951788</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24432,49 +24462,49 @@
         <v>28</v>
       </c>
       <c r="E270" s="2">
-        <v>45396.51041666666</v>
+        <v>45396.3125</v>
       </c>
       <c r="F270" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G270" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K270">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L270">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M270">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N270">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O270">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P270">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q270">
         <v>-0.25</v>
       </c>
       <c r="R270">
+        <v>2.1</v>
+      </c>
+      <c r="S270">
+        <v>1.775</v>
+      </c>
+      <c r="T270">
+        <v>2.25</v>
+      </c>
+      <c r="U270">
         <v>1.875</v>
       </c>
-      <c r="S270">
+      <c r="V270">
         <v>1.975</v>
-      </c>
-      <c r="T270">
-        <v>2.5</v>
-      </c>
-      <c r="U270">
-        <v>2.025</v>
-      </c>
-      <c r="V270">
-        <v>1.825</v>
       </c>
       <c r="W270">
         <v>0</v>
@@ -24497,7 +24527,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7951754</v>
+        <v>7951789</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24506,49 +24536,49 @@
         <v>28</v>
       </c>
       <c r="E271" s="2">
-        <v>45396.625</v>
+        <v>45396.51041666666</v>
       </c>
       <c r="F271" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G271" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K271">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L271">
         <v>3.1</v>
       </c>
       <c r="M271">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N271">
+        <v>2.1</v>
+      </c>
+      <c r="O271">
+        <v>3.2</v>
+      </c>
+      <c r="P271">
+        <v>3.2</v>
+      </c>
+      <c r="Q271">
+        <v>-0.25</v>
+      </c>
+      <c r="R271">
+        <v>1.875</v>
+      </c>
+      <c r="S271">
+        <v>1.975</v>
+      </c>
+      <c r="T271">
         <v>2.5</v>
       </c>
-      <c r="O271">
-        <v>3.1</v>
-      </c>
-      <c r="P271">
-        <v>2.8</v>
-      </c>
-      <c r="Q271">
-        <v>0</v>
-      </c>
-      <c r="R271">
-        <v>1.8</v>
-      </c>
-      <c r="S271">
-        <v>2.05</v>
-      </c>
-      <c r="T271">
-        <v>2.25</v>
-      </c>
       <c r="U271">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="V271">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="W271">
         <v>0</v>
@@ -24571,72 +24601,146 @@
         <v>270</v>
       </c>
       <c r="B272">
+        <v>7951754</v>
+      </c>
+      <c r="C272" t="s">
+        <v>28</v>
+      </c>
+      <c r="D272" t="s">
+        <v>28</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45396.625</v>
+      </c>
+      <c r="F272" t="s">
+        <v>29</v>
+      </c>
+      <c r="G272" t="s">
+        <v>40</v>
+      </c>
+      <c r="K272">
+        <v>2.3</v>
+      </c>
+      <c r="L272">
+        <v>3.1</v>
+      </c>
+      <c r="M272">
+        <v>3</v>
+      </c>
+      <c r="N272">
+        <v>2.5</v>
+      </c>
+      <c r="O272">
+        <v>3.1</v>
+      </c>
+      <c r="P272">
+        <v>2.8</v>
+      </c>
+      <c r="Q272">
+        <v>0</v>
+      </c>
+      <c r="R272">
+        <v>1.775</v>
+      </c>
+      <c r="S272">
+        <v>2.1</v>
+      </c>
+      <c r="T272">
+        <v>2.25</v>
+      </c>
+      <c r="U272">
+        <v>1.85</v>
+      </c>
+      <c r="V272">
+        <v>2</v>
+      </c>
+      <c r="W272">
+        <v>0</v>
+      </c>
+      <c r="X272">
+        <v>0</v>
+      </c>
+      <c r="Y272">
+        <v>0</v>
+      </c>
+      <c r="Z272">
+        <v>0</v>
+      </c>
+      <c r="AA272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:27">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
         <v>7951756</v>
       </c>
-      <c r="C272" t="s">
-        <v>28</v>
-      </c>
-      <c r="D272" t="s">
-        <v>28</v>
-      </c>
-      <c r="E272" s="2">
+      <c r="C273" t="s">
+        <v>28</v>
+      </c>
+      <c r="D273" t="s">
+        <v>28</v>
+      </c>
+      <c r="E273" s="2">
         <v>45397.60416666666</v>
       </c>
-      <c r="F272" t="s">
+      <c r="F273" t="s">
         <v>31</v>
       </c>
-      <c r="G272" t="s">
+      <c r="G273" t="s">
         <v>37</v>
       </c>
-      <c r="K272">
+      <c r="K273">
         <v>1.95</v>
       </c>
-      <c r="L272">
+      <c r="L273">
         <v>3.25</v>
       </c>
-      <c r="M272">
+      <c r="M273">
         <v>3.75</v>
       </c>
-      <c r="N272">
+      <c r="N273">
+        <v>1.8</v>
+      </c>
+      <c r="O273">
+        <v>3.3</v>
+      </c>
+      <c r="P273">
+        <v>4.2</v>
+      </c>
+      <c r="Q273">
+        <v>-0.5</v>
+      </c>
+      <c r="R273">
         <v>1.85</v>
       </c>
-      <c r="O272">
-        <v>3.3</v>
-      </c>
-      <c r="P272">
-        <v>4</v>
-      </c>
-      <c r="Q272">
-        <v>-0.5</v>
-      </c>
-      <c r="R272">
-        <v>1.925</v>
-      </c>
-      <c r="S272">
-        <v>1.925</v>
-      </c>
-      <c r="T272">
+      <c r="S273">
+        <v>2</v>
+      </c>
+      <c r="T273">
         <v>2.5</v>
       </c>
-      <c r="U272">
-        <v>1.975</v>
-      </c>
-      <c r="V272">
-        <v>1.875</v>
-      </c>
-      <c r="W272">
-        <v>0</v>
-      </c>
-      <c r="X272">
-        <v>0</v>
-      </c>
-      <c r="Y272">
-        <v>0</v>
-      </c>
-      <c r="Z272">
-        <v>0</v>
-      </c>
-      <c r="AA272">
+      <c r="U273">
+        <v>1.95</v>
+      </c>
+      <c r="V273">
+        <v>1.9</v>
+      </c>
+      <c r="W273">
+        <v>0</v>
+      </c>
+      <c r="X273">
+        <v>0</v>
+      </c>
+      <c r="Y273">
+        <v>0</v>
+      </c>
+      <c r="Z273">
+        <v>0</v>
+      </c>
+      <c r="AA273">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC273"/>
+  <dimension ref="A1:AC270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6836277</v>
+        <v>6861095</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,67 +21365,67 @@
         <v>45359.625</v>
       </c>
       <c r="F235" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G235" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235">
         <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K235">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="L235">
         <v>3.4</v>
       </c>
       <c r="M235">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="N235">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="O235">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P235">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q235">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R235">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S235">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T235">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U235">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V235">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W235">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.425</v>
+        <v>0.3875</v>
       </c>
       <c r="AA235">
         <v>-0.5</v>
@@ -21434,7 +21434,7 @@
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6870268</v>
+        <v>6865915</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,76 +21454,76 @@
         <v>45359.625</v>
       </c>
       <c r="F236" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G236" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K236">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="L236">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M236">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="N236">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O236">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P236">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q236">
         <v>0.25</v>
       </c>
       <c r="R236">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S236">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T236">
         <v>2.25</v>
       </c>
       <c r="U236">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V236">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y236">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA236">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB236">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6865915</v>
+        <v>6852370</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,76 +21543,76 @@
         <v>45359.625</v>
       </c>
       <c r="F237" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G237" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237">
         <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K237">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="L237">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M237">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="N237">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O237">
+        <v>3</v>
+      </c>
+      <c r="P237">
         <v>3.1</v>
       </c>
-      <c r="P237">
-        <v>2.15</v>
-      </c>
       <c r="Q237">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R237">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S237">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T237">
         <v>2.25</v>
       </c>
       <c r="U237">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V237">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X237">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AA237">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6861095</v>
+        <v>6836277</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,67 +21632,67 @@
         <v>45359.625</v>
       </c>
       <c r="F238" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G238" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238">
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K238">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="L238">
         <v>3.4</v>
       </c>
       <c r="M238">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N238">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O238">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P238">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q238">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R238">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S238">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T238">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U238">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V238">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X238">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.3875</v>
+        <v>0.425</v>
       </c>
       <c r="AA238">
         <v>-0.5</v>
@@ -21701,7 +21701,7 @@
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6852370</v>
+        <v>6870268</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,76 +21721,76 @@
         <v>45359.625</v>
       </c>
       <c r="F239" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G239" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H239">
         <v>1</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K239">
+        <v>2.8</v>
+      </c>
+      <c r="L239">
+        <v>3</v>
+      </c>
+      <c r="M239">
         <v>2.55</v>
       </c>
-      <c r="L239">
-        <v>2.875</v>
-      </c>
-      <c r="M239">
+      <c r="N239">
         <v>3</v>
       </c>
-      <c r="N239">
-        <v>2.375</v>
-      </c>
       <c r="O239">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P239">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q239">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R239">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S239">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T239">
         <v>2.25</v>
       </c>
       <c r="U239">
+        <v>1.875</v>
+      </c>
+      <c r="V239">
         <v>1.975</v>
       </c>
-      <c r="V239">
-        <v>1.875</v>
-      </c>
       <c r="W239">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z239">
+        <v>-1</v>
+      </c>
+      <c r="AA239">
         <v>1</v>
       </c>
-      <c r="AA239">
-        <v>-1</v>
-      </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC239">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -24379,7 +24379,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7951791</v>
+        <v>7951790</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24388,64 +24388,79 @@
         <v>28</v>
       </c>
       <c r="E269" s="2">
-        <v>45395.64583333334</v>
+        <v>45395.45833333334</v>
       </c>
       <c r="F269" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G269" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="H269">
+        <v>1</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269" t="s">
+        <v>46</v>
       </c>
       <c r="K269">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L269">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M269">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N269">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O269">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P269">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q269">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R269">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S269">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T269">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U269">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V269">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="W269">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X269">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Y269">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z269">
         <v>0</v>
       </c>
       <c r="AA269">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB269">
+        <v>0.3875</v>
+      </c>
+      <c r="AC269">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24453,7 +24468,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7951788</v>
+        <v>7951756</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24462,49 +24477,49 @@
         <v>28</v>
       </c>
       <c r="E270" s="2">
-        <v>45396.3125</v>
+        <v>45397.60416666666</v>
       </c>
       <c r="F270" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G270" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K270">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L270">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M270">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N270">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O270">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P270">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q270">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R270">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S270">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T270">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U270">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V270">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W270">
         <v>0</v>
@@ -24519,228 +24534,6 @@
         <v>0</v>
       </c>
       <c r="AA270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:29">
-      <c r="A271" s="1">
-        <v>269</v>
-      </c>
-      <c r="B271">
-        <v>7951789</v>
-      </c>
-      <c r="C271" t="s">
-        <v>28</v>
-      </c>
-      <c r="D271" t="s">
-        <v>28</v>
-      </c>
-      <c r="E271" s="2">
-        <v>45396.51041666666</v>
-      </c>
-      <c r="F271" t="s">
-        <v>36</v>
-      </c>
-      <c r="G271" t="s">
-        <v>41</v>
-      </c>
-      <c r="K271">
-        <v>2.25</v>
-      </c>
-      <c r="L271">
-        <v>3.1</v>
-      </c>
-      <c r="M271">
-        <v>3.1</v>
-      </c>
-      <c r="N271">
-        <v>2.1</v>
-      </c>
-      <c r="O271">
-        <v>3.2</v>
-      </c>
-      <c r="P271">
-        <v>3.2</v>
-      </c>
-      <c r="Q271">
-        <v>-0.25</v>
-      </c>
-      <c r="R271">
-        <v>1.875</v>
-      </c>
-      <c r="S271">
-        <v>1.975</v>
-      </c>
-      <c r="T271">
-        <v>2.5</v>
-      </c>
-      <c r="U271">
-        <v>2.15</v>
-      </c>
-      <c r="V271">
-        <v>1.725</v>
-      </c>
-      <c r="W271">
-        <v>0</v>
-      </c>
-      <c r="X271">
-        <v>0</v>
-      </c>
-      <c r="Y271">
-        <v>0</v>
-      </c>
-      <c r="Z271">
-        <v>0</v>
-      </c>
-      <c r="AA271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:29">
-      <c r="A272" s="1">
-        <v>270</v>
-      </c>
-      <c r="B272">
-        <v>7951754</v>
-      </c>
-      <c r="C272" t="s">
-        <v>28</v>
-      </c>
-      <c r="D272" t="s">
-        <v>28</v>
-      </c>
-      <c r="E272" s="2">
-        <v>45396.625</v>
-      </c>
-      <c r="F272" t="s">
-        <v>29</v>
-      </c>
-      <c r="G272" t="s">
-        <v>40</v>
-      </c>
-      <c r="K272">
-        <v>2.3</v>
-      </c>
-      <c r="L272">
-        <v>3.1</v>
-      </c>
-      <c r="M272">
-        <v>3</v>
-      </c>
-      <c r="N272">
-        <v>2.5</v>
-      </c>
-      <c r="O272">
-        <v>3.1</v>
-      </c>
-      <c r="P272">
-        <v>2.8</v>
-      </c>
-      <c r="Q272">
-        <v>0</v>
-      </c>
-      <c r="R272">
-        <v>1.775</v>
-      </c>
-      <c r="S272">
-        <v>2.1</v>
-      </c>
-      <c r="T272">
-        <v>2.25</v>
-      </c>
-      <c r="U272">
-        <v>1.85</v>
-      </c>
-      <c r="V272">
-        <v>2</v>
-      </c>
-      <c r="W272">
-        <v>0</v>
-      </c>
-      <c r="X272">
-        <v>0</v>
-      </c>
-      <c r="Y272">
-        <v>0</v>
-      </c>
-      <c r="Z272">
-        <v>0</v>
-      </c>
-      <c r="AA272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:27">
-      <c r="A273" s="1">
-        <v>271</v>
-      </c>
-      <c r="B273">
-        <v>7951756</v>
-      </c>
-      <c r="C273" t="s">
-        <v>28</v>
-      </c>
-      <c r="D273" t="s">
-        <v>28</v>
-      </c>
-      <c r="E273" s="2">
-        <v>45397.60416666666</v>
-      </c>
-      <c r="F273" t="s">
-        <v>31</v>
-      </c>
-      <c r="G273" t="s">
-        <v>37</v>
-      </c>
-      <c r="K273">
-        <v>1.95</v>
-      </c>
-      <c r="L273">
-        <v>3.25</v>
-      </c>
-      <c r="M273">
-        <v>3.75</v>
-      </c>
-      <c r="N273">
-        <v>1.8</v>
-      </c>
-      <c r="O273">
-        <v>3.3</v>
-      </c>
-      <c r="P273">
-        <v>4.2</v>
-      </c>
-      <c r="Q273">
-        <v>-0.5</v>
-      </c>
-      <c r="R273">
-        <v>1.85</v>
-      </c>
-      <c r="S273">
-        <v>2</v>
-      </c>
-      <c r="T273">
-        <v>2.5</v>
-      </c>
-      <c r="U273">
-        <v>1.95</v>
-      </c>
-      <c r="V273">
-        <v>1.9</v>
-      </c>
-      <c r="W273">
-        <v>0</v>
-      </c>
-      <c r="X273">
-        <v>0</v>
-      </c>
-      <c r="Y273">
-        <v>0</v>
-      </c>
-      <c r="Z273">
-        <v>0</v>
-      </c>
-      <c r="AA273">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC270"/>
+  <dimension ref="A1:AC272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6861095</v>
+        <v>6852370</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21365,76 @@
         <v>45359.625</v>
       </c>
       <c r="F235" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G235" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I235">
         <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K235">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="L235">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M235">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N235">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="O235">
         <v>3</v>
       </c>
       <c r="P235">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="Q235">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R235">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S235">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T235">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U235">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V235">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X235">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="AA235">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6865915</v>
+        <v>6836277</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,67 +21454,67 @@
         <v>45359.625</v>
       </c>
       <c r="F236" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G236" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236">
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K236">
+        <v>1.7</v>
+      </c>
+      <c r="L236">
+        <v>3.4</v>
+      </c>
+      <c r="M236">
+        <v>5</v>
+      </c>
+      <c r="N236">
+        <v>1.65</v>
+      </c>
+      <c r="O236">
         <v>3.5</v>
       </c>
-      <c r="L236">
-        <v>3.25</v>
-      </c>
-      <c r="M236">
-        <v>2.05</v>
-      </c>
-      <c r="N236">
-        <v>3.4</v>
-      </c>
-      <c r="O236">
-        <v>3.1</v>
-      </c>
       <c r="P236">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q236">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R236">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S236">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T236">
         <v>2.25</v>
       </c>
       <c r="U236">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V236">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X236">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AA236">
         <v>-0.5</v>
@@ -21523,7 +21523,7 @@
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6852370</v>
+        <v>6870268</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,76 +21543,76 @@
         <v>45359.625</v>
       </c>
       <c r="F237" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G237" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H237">
         <v>1</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K237">
+        <v>2.8</v>
+      </c>
+      <c r="L237">
+        <v>3</v>
+      </c>
+      <c r="M237">
         <v>2.55</v>
       </c>
-      <c r="L237">
-        <v>2.875</v>
-      </c>
-      <c r="M237">
+      <c r="N237">
         <v>3</v>
       </c>
-      <c r="N237">
-        <v>2.375</v>
-      </c>
       <c r="O237">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P237">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q237">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R237">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S237">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T237">
         <v>2.25</v>
       </c>
       <c r="U237">
+        <v>1.875</v>
+      </c>
+      <c r="V237">
         <v>1.975</v>
       </c>
-      <c r="V237">
-        <v>1.875</v>
-      </c>
       <c r="W237">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z237">
+        <v>-1</v>
+      </c>
+      <c r="AA237">
         <v>1</v>
       </c>
-      <c r="AA237">
-        <v>-1</v>
-      </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC237">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6836277</v>
+        <v>6865915</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,67 +21632,67 @@
         <v>45359.625</v>
       </c>
       <c r="F238" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G238" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238">
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K238">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L238">
+        <v>3.25</v>
+      </c>
+      <c r="M238">
+        <v>2.05</v>
+      </c>
+      <c r="N238">
         <v>3.4</v>
       </c>
-      <c r="M238">
-        <v>5</v>
-      </c>
-      <c r="N238">
-        <v>1.65</v>
-      </c>
       <c r="O238">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P238">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q238">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R238">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S238">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T238">
         <v>2.25</v>
       </c>
       <c r="U238">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V238">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W238">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AA238">
         <v>-0.5</v>
@@ -21701,7 +21701,7 @@
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6870268</v>
+        <v>6861095</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,76 +21721,76 @@
         <v>45359.625</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G239" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K239">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="L239">
+        <v>3.4</v>
+      </c>
+      <c r="M239">
+        <v>1.909</v>
+      </c>
+      <c r="N239">
+        <v>3.1</v>
+      </c>
+      <c r="O239">
         <v>3</v>
       </c>
-      <c r="M239">
-        <v>2.55</v>
-      </c>
-      <c r="N239">
-        <v>3</v>
-      </c>
-      <c r="O239">
-        <v>3.2</v>
-      </c>
       <c r="P239">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q239">
         <v>0.25</v>
       </c>
       <c r="R239">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S239">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T239">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U239">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V239">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y239">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA239">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB239">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -24468,7 +24468,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7951756</v>
+        <v>7951791</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24477,28 +24477,37 @@
         <v>28</v>
       </c>
       <c r="E270" s="2">
-        <v>45397.60416666666</v>
+        <v>45395.64583333334</v>
       </c>
       <c r="F270" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G270" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="H270">
+        <v>1</v>
+      </c>
+      <c r="I270">
+        <v>2</v>
+      </c>
+      <c r="J270" t="s">
+        <v>47</v>
       </c>
       <c r="K270">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L270">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M270">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N270">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O270">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P270">
         <v>4.2</v>
@@ -24507,13 +24516,13 @@
         <v>-0.5</v>
       </c>
       <c r="R270">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S270">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T270">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U270">
         <v>1.95</v>
@@ -24522,19 +24531,203 @@
         <v>1.9</v>
       </c>
       <c r="W270">
+        <v>-1</v>
+      </c>
+      <c r="X270">
+        <v>-1</v>
+      </c>
+      <c r="Y270">
+        <v>3.2</v>
+      </c>
+      <c r="Z270">
+        <v>-1</v>
+      </c>
+      <c r="AA270">
+        <v>0.925</v>
+      </c>
+      <c r="AB270">
+        <v>0.95</v>
+      </c>
+      <c r="AC270">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:29">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>7951788</v>
+      </c>
+      <c r="C271" t="s">
+        <v>28</v>
+      </c>
+      <c r="D271" t="s">
+        <v>28</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45396.3125</v>
+      </c>
+      <c r="F271" t="s">
+        <v>43</v>
+      </c>
+      <c r="G271" t="s">
+        <v>34</v>
+      </c>
+      <c r="H271">
+        <v>4</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271" t="s">
+        <v>45</v>
+      </c>
+      <c r="K271">
+        <v>2.4</v>
+      </c>
+      <c r="L271">
+        <v>3</v>
+      </c>
+      <c r="M271">
+        <v>2.9</v>
+      </c>
+      <c r="N271">
+        <v>2.3</v>
+      </c>
+      <c r="O271">
+        <v>3</v>
+      </c>
+      <c r="P271">
+        <v>3.1</v>
+      </c>
+      <c r="Q271">
+        <v>-0.25</v>
+      </c>
+      <c r="R271">
+        <v>1.975</v>
+      </c>
+      <c r="S271">
+        <v>1.875</v>
+      </c>
+      <c r="T271">
+        <v>2.25</v>
+      </c>
+      <c r="U271">
+        <v>1.875</v>
+      </c>
+      <c r="V271">
+        <v>1.975</v>
+      </c>
+      <c r="W271">
+        <v>1.3</v>
+      </c>
+      <c r="X271">
+        <v>-1</v>
+      </c>
+      <c r="Y271">
+        <v>-1</v>
+      </c>
+      <c r="Z271">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA271">
+        <v>-1</v>
+      </c>
+      <c r="AB271">
+        <v>0.875</v>
+      </c>
+      <c r="AC271">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:29">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>7951789</v>
+      </c>
+      <c r="C272" t="s">
+        <v>28</v>
+      </c>
+      <c r="D272" t="s">
+        <v>28</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45396.51041666666</v>
+      </c>
+      <c r="F272" t="s">
+        <v>36</v>
+      </c>
+      <c r="G272" t="s">
+        <v>41</v>
+      </c>
+      <c r="H272">
+        <v>1</v>
+      </c>
+      <c r="I272">
         <v>0</v>
       </c>
-      <c r="X270">
-        <v>0</v>
-      </c>
-      <c r="Y270">
-        <v>0</v>
-      </c>
-      <c r="Z270">
-        <v>0</v>
-      </c>
-      <c r="AA270">
-        <v>0</v>
+      <c r="J272" t="s">
+        <v>45</v>
+      </c>
+      <c r="K272">
+        <v>2.25</v>
+      </c>
+      <c r="L272">
+        <v>3.1</v>
+      </c>
+      <c r="M272">
+        <v>3.1</v>
+      </c>
+      <c r="N272">
+        <v>2.1</v>
+      </c>
+      <c r="O272">
+        <v>3.1</v>
+      </c>
+      <c r="P272">
+        <v>3.3</v>
+      </c>
+      <c r="Q272">
+        <v>-0.25</v>
+      </c>
+      <c r="R272">
+        <v>1.875</v>
+      </c>
+      <c r="S272">
+        <v>1.975</v>
+      </c>
+      <c r="T272">
+        <v>2.25</v>
+      </c>
+      <c r="U272">
+        <v>2</v>
+      </c>
+      <c r="V272">
+        <v>1.85</v>
+      </c>
+      <c r="W272">
+        <v>1.1</v>
+      </c>
+      <c r="X272">
+        <v>-1</v>
+      </c>
+      <c r="Y272">
+        <v>-1</v>
+      </c>
+      <c r="Z272">
+        <v>0.875</v>
+      </c>
+      <c r="AA272">
+        <v>-1</v>
+      </c>
+      <c r="AB272">
+        <v>-1</v>
+      </c>
+      <c r="AC272">
+        <v>0.8500000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC272"/>
+  <dimension ref="A1:AC281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6852370</v>
+        <v>6870268</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21365,76 @@
         <v>45359.625</v>
       </c>
       <c r="F235" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G235" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H235">
         <v>1</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K235">
+        <v>2.8</v>
+      </c>
+      <c r="L235">
+        <v>3</v>
+      </c>
+      <c r="M235">
         <v>2.55</v>
       </c>
-      <c r="L235">
-        <v>2.875</v>
-      </c>
-      <c r="M235">
+      <c r="N235">
         <v>3</v>
       </c>
-      <c r="N235">
-        <v>2.375</v>
-      </c>
       <c r="O235">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P235">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q235">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R235">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S235">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T235">
         <v>2.25</v>
       </c>
       <c r="U235">
+        <v>1.875</v>
+      </c>
+      <c r="V235">
         <v>1.975</v>
       </c>
-      <c r="V235">
-        <v>1.875</v>
-      </c>
       <c r="W235">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z235">
+        <v>-1</v>
+      </c>
+      <c r="AA235">
         <v>1</v>
       </c>
-      <c r="AA235">
-        <v>-1</v>
-      </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC235">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6836277</v>
+        <v>6865915</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,67 +21454,67 @@
         <v>45359.625</v>
       </c>
       <c r="F236" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G236" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236">
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K236">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="L236">
+        <v>3.25</v>
+      </c>
+      <c r="M236">
+        <v>2.05</v>
+      </c>
+      <c r="N236">
         <v>3.4</v>
       </c>
-      <c r="M236">
-        <v>5</v>
-      </c>
-      <c r="N236">
-        <v>1.65</v>
-      </c>
       <c r="O236">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P236">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q236">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R236">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S236">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T236">
         <v>2.25</v>
       </c>
       <c r="U236">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V236">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W236">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AA236">
         <v>-0.5</v>
@@ -21523,7 +21523,7 @@
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6870268</v>
+        <v>6861095</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,76 +21543,76 @@
         <v>45359.625</v>
       </c>
       <c r="F237" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G237" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K237">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="L237">
+        <v>3.4</v>
+      </c>
+      <c r="M237">
+        <v>1.909</v>
+      </c>
+      <c r="N237">
+        <v>3.1</v>
+      </c>
+      <c r="O237">
         <v>3</v>
       </c>
-      <c r="M237">
-        <v>2.55</v>
-      </c>
-      <c r="N237">
-        <v>3</v>
-      </c>
-      <c r="O237">
-        <v>3.2</v>
-      </c>
       <c r="P237">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q237">
         <v>0.25</v>
       </c>
       <c r="R237">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S237">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T237">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U237">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V237">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y237">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA237">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB237">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6865915</v>
+        <v>6852370</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45359.625</v>
       </c>
       <c r="F238" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G238" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238">
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K238">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="L238">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M238">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="N238">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O238">
+        <v>3</v>
+      </c>
+      <c r="P238">
         <v>3.1</v>
       </c>
-      <c r="P238">
-        <v>2.15</v>
-      </c>
       <c r="Q238">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R238">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S238">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T238">
         <v>2.25</v>
       </c>
       <c r="U238">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V238">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X238">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AA238">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6861095</v>
+        <v>6836277</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,67 +21721,67 @@
         <v>45359.625</v>
       </c>
       <c r="F239" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G239" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K239">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="L239">
         <v>3.4</v>
       </c>
       <c r="M239">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N239">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O239">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P239">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q239">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R239">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S239">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T239">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U239">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V239">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X239">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.3875</v>
+        <v>0.425</v>
       </c>
       <c r="AA239">
         <v>-0.5</v>
@@ -21790,7 +21790,7 @@
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -24728,6 +24728,702 @@
       </c>
       <c r="AC272">
         <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:29">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>7951754</v>
+      </c>
+      <c r="C273" t="s">
+        <v>28</v>
+      </c>
+      <c r="D273" t="s">
+        <v>28</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45396.625</v>
+      </c>
+      <c r="F273" t="s">
+        <v>29</v>
+      </c>
+      <c r="G273" t="s">
+        <v>40</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273" t="s">
+        <v>47</v>
+      </c>
+      <c r="K273">
+        <v>2.3</v>
+      </c>
+      <c r="L273">
+        <v>3.1</v>
+      </c>
+      <c r="M273">
+        <v>3</v>
+      </c>
+      <c r="N273">
+        <v>2.15</v>
+      </c>
+      <c r="O273">
+        <v>3.1</v>
+      </c>
+      <c r="P273">
+        <v>3.4</v>
+      </c>
+      <c r="Q273">
+        <v>-0.25</v>
+      </c>
+      <c r="R273">
+        <v>1.875</v>
+      </c>
+      <c r="S273">
+        <v>1.975</v>
+      </c>
+      <c r="T273">
+        <v>2.25</v>
+      </c>
+      <c r="U273">
+        <v>1.875</v>
+      </c>
+      <c r="V273">
+        <v>1.975</v>
+      </c>
+      <c r="W273">
+        <v>-1</v>
+      </c>
+      <c r="X273">
+        <v>-1</v>
+      </c>
+      <c r="Y273">
+        <v>2.4</v>
+      </c>
+      <c r="Z273">
+        <v>-1</v>
+      </c>
+      <c r="AA273">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB273">
+        <v>-1</v>
+      </c>
+      <c r="AC273">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:29">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>7951756</v>
+      </c>
+      <c r="C274" t="s">
+        <v>28</v>
+      </c>
+      <c r="D274" t="s">
+        <v>28</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45397.60416666666</v>
+      </c>
+      <c r="F274" t="s">
+        <v>31</v>
+      </c>
+      <c r="G274" t="s">
+        <v>37</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
+        <v>1</v>
+      </c>
+      <c r="J274" t="s">
+        <v>47</v>
+      </c>
+      <c r="K274">
+        <v>1.95</v>
+      </c>
+      <c r="L274">
+        <v>3.25</v>
+      </c>
+      <c r="M274">
+        <v>3.75</v>
+      </c>
+      <c r="N274">
+        <v>1.666</v>
+      </c>
+      <c r="O274">
+        <v>3.6</v>
+      </c>
+      <c r="P274">
+        <v>4.75</v>
+      </c>
+      <c r="Q274">
+        <v>-0.75</v>
+      </c>
+      <c r="R274">
+        <v>1.875</v>
+      </c>
+      <c r="S274">
+        <v>1.975</v>
+      </c>
+      <c r="T274">
+        <v>2.75</v>
+      </c>
+      <c r="U274">
+        <v>1.95</v>
+      </c>
+      <c r="V274">
+        <v>1.9</v>
+      </c>
+      <c r="W274">
+        <v>-1</v>
+      </c>
+      <c r="X274">
+        <v>-1</v>
+      </c>
+      <c r="Y274">
+        <v>3.75</v>
+      </c>
+      <c r="Z274">
+        <v>-1</v>
+      </c>
+      <c r="AA274">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB274">
+        <v>-1</v>
+      </c>
+      <c r="AC274">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:29">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>7951793</v>
+      </c>
+      <c r="C275" t="s">
+        <v>28</v>
+      </c>
+      <c r="D275" t="s">
+        <v>28</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45401.47916666666</v>
+      </c>
+      <c r="F275" t="s">
+        <v>32</v>
+      </c>
+      <c r="G275" t="s">
+        <v>43</v>
+      </c>
+      <c r="K275">
+        <v>1.909</v>
+      </c>
+      <c r="L275">
+        <v>3</v>
+      </c>
+      <c r="M275">
+        <v>4.2</v>
+      </c>
+      <c r="N275">
+        <v>1.909</v>
+      </c>
+      <c r="O275">
+        <v>3</v>
+      </c>
+      <c r="P275">
+        <v>4.2</v>
+      </c>
+      <c r="Q275">
+        <v>-0.5</v>
+      </c>
+      <c r="R275">
+        <v>1.95</v>
+      </c>
+      <c r="S275">
+        <v>1.9</v>
+      </c>
+      <c r="T275">
+        <v>2</v>
+      </c>
+      <c r="U275">
+        <v>1.875</v>
+      </c>
+      <c r="V275">
+        <v>1.975</v>
+      </c>
+      <c r="W275">
+        <v>0</v>
+      </c>
+      <c r="X275">
+        <v>0</v>
+      </c>
+      <c r="Y275">
+        <v>0</v>
+      </c>
+      <c r="Z275">
+        <v>0</v>
+      </c>
+      <c r="AA275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:29">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>7951758</v>
+      </c>
+      <c r="C276" t="s">
+        <v>28</v>
+      </c>
+      <c r="D276" t="s">
+        <v>28</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45401.60416666666</v>
+      </c>
+      <c r="F276" t="s">
+        <v>39</v>
+      </c>
+      <c r="G276" t="s">
+        <v>29</v>
+      </c>
+      <c r="K276">
+        <v>3.1</v>
+      </c>
+      <c r="L276">
+        <v>3.2</v>
+      </c>
+      <c r="M276">
+        <v>2.2</v>
+      </c>
+      <c r="N276">
+        <v>3.1</v>
+      </c>
+      <c r="O276">
+        <v>3.2</v>
+      </c>
+      <c r="P276">
+        <v>2.2</v>
+      </c>
+      <c r="Q276">
+        <v>0.25</v>
+      </c>
+      <c r="R276">
+        <v>1.875</v>
+      </c>
+      <c r="S276">
+        <v>1.975</v>
+      </c>
+      <c r="T276">
+        <v>2.5</v>
+      </c>
+      <c r="U276">
+        <v>2.025</v>
+      </c>
+      <c r="V276">
+        <v>1.825</v>
+      </c>
+      <c r="W276">
+        <v>0</v>
+      </c>
+      <c r="X276">
+        <v>0</v>
+      </c>
+      <c r="Y276">
+        <v>0</v>
+      </c>
+      <c r="Z276">
+        <v>0</v>
+      </c>
+      <c r="AA276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:29">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>7951796</v>
+      </c>
+      <c r="C277" t="s">
+        <v>28</v>
+      </c>
+      <c r="D277" t="s">
+        <v>28</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45402.375</v>
+      </c>
+      <c r="F277" t="s">
+        <v>41</v>
+      </c>
+      <c r="G277" t="s">
+        <v>35</v>
+      </c>
+      <c r="K277">
+        <v>2.25</v>
+      </c>
+      <c r="L277">
+        <v>3</v>
+      </c>
+      <c r="M277">
+        <v>3.25</v>
+      </c>
+      <c r="N277">
+        <v>2.25</v>
+      </c>
+      <c r="O277">
+        <v>3</v>
+      </c>
+      <c r="P277">
+        <v>3.25</v>
+      </c>
+      <c r="Q277">
+        <v>-0.25</v>
+      </c>
+      <c r="R277">
+        <v>1.975</v>
+      </c>
+      <c r="S277">
+        <v>1.875</v>
+      </c>
+      <c r="T277">
+        <v>2.25</v>
+      </c>
+      <c r="U277">
+        <v>2.05</v>
+      </c>
+      <c r="V277">
+        <v>1.8</v>
+      </c>
+      <c r="W277">
+        <v>0</v>
+      </c>
+      <c r="X277">
+        <v>0</v>
+      </c>
+      <c r="Y277">
+        <v>0</v>
+      </c>
+      <c r="Z277">
+        <v>0</v>
+      </c>
+      <c r="AA277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:29">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>7951797</v>
+      </c>
+      <c r="C278" t="s">
+        <v>28</v>
+      </c>
+      <c r="D278" t="s">
+        <v>28</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45402.47916666666</v>
+      </c>
+      <c r="F278" t="s">
+        <v>34</v>
+      </c>
+      <c r="G278" t="s">
+        <v>36</v>
+      </c>
+      <c r="K278">
+        <v>2.2</v>
+      </c>
+      <c r="L278">
+        <v>3.1</v>
+      </c>
+      <c r="M278">
+        <v>3.25</v>
+      </c>
+      <c r="N278">
+        <v>2.05</v>
+      </c>
+      <c r="O278">
+        <v>3.2</v>
+      </c>
+      <c r="P278">
+        <v>3.5</v>
+      </c>
+      <c r="Q278">
+        <v>-0.25</v>
+      </c>
+      <c r="R278">
+        <v>1.8</v>
+      </c>
+      <c r="S278">
+        <v>2.05</v>
+      </c>
+      <c r="T278">
+        <v>2.25</v>
+      </c>
+      <c r="U278">
+        <v>1.9</v>
+      </c>
+      <c r="V278">
+        <v>1.95</v>
+      </c>
+      <c r="W278">
+        <v>0</v>
+      </c>
+      <c r="X278">
+        <v>0</v>
+      </c>
+      <c r="Y278">
+        <v>0</v>
+      </c>
+      <c r="Z278">
+        <v>0</v>
+      </c>
+      <c r="AA278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:29">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>7951757</v>
+      </c>
+      <c r="C279" t="s">
+        <v>28</v>
+      </c>
+      <c r="D279" t="s">
+        <v>28</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45402.60416666666</v>
+      </c>
+      <c r="F279" t="s">
+        <v>40</v>
+      </c>
+      <c r="G279" t="s">
+        <v>31</v>
+      </c>
+      <c r="K279">
+        <v>1.85</v>
+      </c>
+      <c r="L279">
+        <v>3.5</v>
+      </c>
+      <c r="M279">
+        <v>4</v>
+      </c>
+      <c r="N279">
+        <v>1.85</v>
+      </c>
+      <c r="O279">
+        <v>3.5</v>
+      </c>
+      <c r="P279">
+        <v>4</v>
+      </c>
+      <c r="Q279">
+        <v>-0.5</v>
+      </c>
+      <c r="R279">
+        <v>1.9</v>
+      </c>
+      <c r="S279">
+        <v>1.95</v>
+      </c>
+      <c r="T279">
+        <v>2.5</v>
+      </c>
+      <c r="U279">
+        <v>2</v>
+      </c>
+      <c r="V279">
+        <v>1.85</v>
+      </c>
+      <c r="W279">
+        <v>0</v>
+      </c>
+      <c r="X279">
+        <v>0</v>
+      </c>
+      <c r="Y279">
+        <v>0</v>
+      </c>
+      <c r="Z279">
+        <v>0</v>
+      </c>
+      <c r="AA279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:29">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>7951795</v>
+      </c>
+      <c r="C280" t="s">
+        <v>28</v>
+      </c>
+      <c r="D280" t="s">
+        <v>28</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45403.41666666666</v>
+      </c>
+      <c r="F280" t="s">
+        <v>30</v>
+      </c>
+      <c r="G280" t="s">
+        <v>42</v>
+      </c>
+      <c r="K280">
+        <v>2.75</v>
+      </c>
+      <c r="L280">
+        <v>3.2</v>
+      </c>
+      <c r="M280">
+        <v>2.5</v>
+      </c>
+      <c r="N280">
+        <v>2.75</v>
+      </c>
+      <c r="O280">
+        <v>3.2</v>
+      </c>
+      <c r="P280">
+        <v>2.5</v>
+      </c>
+      <c r="Q280">
+        <v>0</v>
+      </c>
+      <c r="R280">
+        <v>2.025</v>
+      </c>
+      <c r="S280">
+        <v>1.825</v>
+      </c>
+      <c r="T280">
+        <v>2.25</v>
+      </c>
+      <c r="U280">
+        <v>1.975</v>
+      </c>
+      <c r="V280">
+        <v>1.875</v>
+      </c>
+      <c r="W280">
+        <v>0</v>
+      </c>
+      <c r="X280">
+        <v>0</v>
+      </c>
+      <c r="Y280">
+        <v>0</v>
+      </c>
+      <c r="Z280">
+        <v>0</v>
+      </c>
+      <c r="AA280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:29">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>7951759</v>
+      </c>
+      <c r="C281" t="s">
+        <v>28</v>
+      </c>
+      <c r="D281" t="s">
+        <v>28</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45403.54166666666</v>
+      </c>
+      <c r="F281" t="s">
+        <v>37</v>
+      </c>
+      <c r="G281" t="s">
+        <v>44</v>
+      </c>
+      <c r="K281">
+        <v>2.6</v>
+      </c>
+      <c r="L281">
+        <v>3.2</v>
+      </c>
+      <c r="M281">
+        <v>2.6</v>
+      </c>
+      <c r="N281">
+        <v>2.55</v>
+      </c>
+      <c r="O281">
+        <v>3.2</v>
+      </c>
+      <c r="P281">
+        <v>2.625</v>
+      </c>
+      <c r="Q281">
+        <v>0</v>
+      </c>
+      <c r="R281">
+        <v>1.875</v>
+      </c>
+      <c r="S281">
+        <v>1.975</v>
+      </c>
+      <c r="T281">
+        <v>2.5</v>
+      </c>
+      <c r="U281">
+        <v>2.05</v>
+      </c>
+      <c r="V281">
+        <v>1.8</v>
+      </c>
+      <c r="W281">
+        <v>0</v>
+      </c>
+      <c r="X281">
+        <v>0</v>
+      </c>
+      <c r="Y281">
+        <v>0</v>
+      </c>
+      <c r="Z281">
+        <v>0</v>
+      </c>
+      <c r="AA281">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6861095</v>
+        <v>6852370</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,76 +21543,76 @@
         <v>45359.625</v>
       </c>
       <c r="F237" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G237" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237">
         <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K237">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="L237">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M237">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N237">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="O237">
         <v>3</v>
       </c>
       <c r="P237">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="Q237">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R237">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S237">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T237">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U237">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V237">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X237">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="AA237">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6852370</v>
+        <v>6861095</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45359.625</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G238" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238">
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K238">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="L238">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M238">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N238">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="O238">
         <v>3</v>
       </c>
       <c r="P238">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R238">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S238">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T238">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U238">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V238">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W238">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -24940,31 +24940,31 @@
         <v>4.2</v>
       </c>
       <c r="N275">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="O275">
         <v>3</v>
       </c>
       <c r="P275">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q275">
         <v>-0.5</v>
       </c>
       <c r="R275">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S275">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T275">
         <v>2</v>
       </c>
       <c r="U275">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V275">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W275">
         <v>0</v>
@@ -25014,22 +25014,22 @@
         <v>2.2</v>
       </c>
       <c r="N276">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O276">
         <v>3.2</v>
       </c>
       <c r="P276">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q276">
         <v>0.25</v>
       </c>
       <c r="R276">
+        <v>1.975</v>
+      </c>
+      <c r="S276">
         <v>1.875</v>
-      </c>
-      <c r="S276">
-        <v>1.975</v>
       </c>
       <c r="T276">
         <v>2.5</v>
@@ -25100,10 +25100,10 @@
         <v>-0.25</v>
       </c>
       <c r="R277">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S277">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T277">
         <v>2.25</v>
@@ -25162,22 +25162,22 @@
         <v>3.25</v>
       </c>
       <c r="N278">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O278">
         <v>3.2</v>
       </c>
       <c r="P278">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q278">
         <v>-0.25</v>
       </c>
       <c r="R278">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S278">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T278">
         <v>2.25</v>
@@ -25248,19 +25248,19 @@
         <v>-0.5</v>
       </c>
       <c r="R279">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S279">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T279">
         <v>2.5</v>
       </c>
       <c r="U279">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V279">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W279">
         <v>0</v>
@@ -25310,13 +25310,13 @@
         <v>2.5</v>
       </c>
       <c r="N280">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O280">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P280">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q280">
         <v>0</v>
@@ -25331,10 +25331,10 @@
         <v>2.25</v>
       </c>
       <c r="U280">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V280">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W280">
         <v>0</v>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC281"/>
+  <dimension ref="A1:AC279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6870268</v>
+        <v>6861095</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21365,76 @@
         <v>45359.625</v>
       </c>
       <c r="F235" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G235" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K235">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="L235">
+        <v>3.4</v>
+      </c>
+      <c r="M235">
+        <v>1.909</v>
+      </c>
+      <c r="N235">
+        <v>3.1</v>
+      </c>
+      <c r="O235">
         <v>3</v>
       </c>
-      <c r="M235">
-        <v>2.55</v>
-      </c>
-      <c r="N235">
-        <v>3</v>
-      </c>
-      <c r="O235">
-        <v>3.2</v>
-      </c>
       <c r="P235">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q235">
         <v>0.25</v>
       </c>
       <c r="R235">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S235">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T235">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U235">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V235">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W235">
         <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y235">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA235">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB235">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC235">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6865915</v>
+        <v>6836277</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,67 +21454,67 @@
         <v>45359.625</v>
       </c>
       <c r="F236" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G236" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236">
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K236">
+        <v>1.7</v>
+      </c>
+      <c r="L236">
+        <v>3.4</v>
+      </c>
+      <c r="M236">
+        <v>5</v>
+      </c>
+      <c r="N236">
+        <v>1.65</v>
+      </c>
+      <c r="O236">
         <v>3.5</v>
       </c>
-      <c r="L236">
-        <v>3.25</v>
-      </c>
-      <c r="M236">
-        <v>2.05</v>
-      </c>
-      <c r="N236">
-        <v>3.4</v>
-      </c>
-      <c r="O236">
-        <v>3.1</v>
-      </c>
       <c r="P236">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q236">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R236">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S236">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T236">
         <v>2.25</v>
       </c>
       <c r="U236">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V236">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X236">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AA236">
         <v>-0.5</v>
@@ -21523,7 +21523,7 @@
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6861095</v>
+        <v>6865915</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,10 +21632,10 @@
         <v>45359.625</v>
       </c>
       <c r="F238" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G238" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -21647,52 +21647,52 @@
         <v>46</v>
       </c>
       <c r="K238">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L238">
+        <v>3.25</v>
+      </c>
+      <c r="M238">
+        <v>2.05</v>
+      </c>
+      <c r="N238">
         <v>3.4</v>
       </c>
-      <c r="M238">
-        <v>1.909</v>
-      </c>
-      <c r="N238">
+      <c r="O238">
         <v>3.1</v>
       </c>
-      <c r="O238">
-        <v>3</v>
-      </c>
       <c r="P238">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q238">
         <v>0.25</v>
       </c>
       <c r="R238">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S238">
+        <v>1.875</v>
+      </c>
+      <c r="T238">
+        <v>2.25</v>
+      </c>
+      <c r="U238">
+        <v>2.05</v>
+      </c>
+      <c r="V238">
+        <v>1.75</v>
+      </c>
+      <c r="W238">
+        <v>-1</v>
+      </c>
+      <c r="X238">
         <v>2.1</v>
       </c>
-      <c r="T238">
-        <v>2</v>
-      </c>
-      <c r="U238">
-        <v>1.8</v>
-      </c>
-      <c r="V238">
-        <v>2.05</v>
-      </c>
-      <c r="W238">
-        <v>-1</v>
-      </c>
-      <c r="X238">
-        <v>2</v>
-      </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.3875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA238">
         <v>-0.5</v>
@@ -21701,7 +21701,7 @@
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6836277</v>
+        <v>6870268</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,40 +21721,40 @@
         <v>45359.625</v>
       </c>
       <c r="F239" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G239" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H239">
         <v>1</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K239">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="L239">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M239">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N239">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O239">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P239">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q239">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R239">
         <v>1.85</v>
@@ -21772,25 +21772,25 @@
         <v>1.975</v>
       </c>
       <c r="W239">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z239">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC239">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -24913,7 +24913,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7951793</v>
+        <v>7951796</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24922,49 +24922,49 @@
         <v>28</v>
       </c>
       <c r="E275" s="2">
-        <v>45401.47916666666</v>
+        <v>45402.375</v>
       </c>
       <c r="F275" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G275" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K275">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L275">
         <v>3</v>
       </c>
       <c r="M275">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N275">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="O275">
         <v>3</v>
       </c>
       <c r="P275">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q275">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R275">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S275">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T275">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U275">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V275">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W275">
         <v>0</v>
@@ -24987,7 +24987,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7951758</v>
+        <v>7951797</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -24996,49 +24996,49 @@
         <v>28</v>
       </c>
       <c r="E276" s="2">
-        <v>45401.60416666666</v>
+        <v>45402.47916666666</v>
       </c>
       <c r="F276" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G276" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K276">
+        <v>2.2</v>
+      </c>
+      <c r="L276">
         <v>3.1</v>
       </c>
-      <c r="L276">
-        <v>3.2</v>
-      </c>
       <c r="M276">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="N276">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="O276">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P276">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Q276">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R276">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S276">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T276">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U276">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V276">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W276">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7951796</v>
+        <v>7951757</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25070,49 +25070,49 @@
         <v>28</v>
       </c>
       <c r="E277" s="2">
-        <v>45402.375</v>
+        <v>45402.60416666666</v>
       </c>
       <c r="F277" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G277" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K277">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="L277">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M277">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N277">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O277">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P277">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q277">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R277">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S277">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T277">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U277">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V277">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W277">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7951797</v>
+        <v>7951795</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25144,49 +25144,49 @@
         <v>28</v>
       </c>
       <c r="E278" s="2">
-        <v>45402.47916666666</v>
+        <v>45403.41666666666</v>
       </c>
       <c r="F278" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G278" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K278">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L278">
+        <v>3.2</v>
+      </c>
+      <c r="M278">
+        <v>2.5</v>
+      </c>
+      <c r="N278">
+        <v>2.8</v>
+      </c>
+      <c r="O278">
         <v>3.1</v>
       </c>
-      <c r="M278">
-        <v>3.25</v>
-      </c>
-      <c r="N278">
-        <v>2.15</v>
-      </c>
-      <c r="O278">
-        <v>3.2</v>
-      </c>
       <c r="P278">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q278">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R278">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S278">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T278">
         <v>2.25</v>
       </c>
       <c r="U278">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V278">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W278">
         <v>0</v>
@@ -25209,7 +25209,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7951757</v>
+        <v>7951759</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25218,34 +25218,34 @@
         <v>28</v>
       </c>
       <c r="E279" s="2">
-        <v>45402.60416666666</v>
+        <v>45403.54166666666</v>
       </c>
       <c r="F279" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G279" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K279">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="L279">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M279">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N279">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="O279">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P279">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q279">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R279">
         <v>1.875</v>
@@ -25257,10 +25257,10 @@
         <v>2.5</v>
       </c>
       <c r="U279">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V279">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W279">
         <v>0</v>
@@ -25275,154 +25275,6 @@
         <v>0</v>
       </c>
       <c r="AA279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:29">
-      <c r="A280" s="1">
-        <v>278</v>
-      </c>
-      <c r="B280">
-        <v>7951795</v>
-      </c>
-      <c r="C280" t="s">
-        <v>28</v>
-      </c>
-      <c r="D280" t="s">
-        <v>28</v>
-      </c>
-      <c r="E280" s="2">
-        <v>45403.41666666666</v>
-      </c>
-      <c r="F280" t="s">
-        <v>30</v>
-      </c>
-      <c r="G280" t="s">
-        <v>42</v>
-      </c>
-      <c r="K280">
-        <v>2.75</v>
-      </c>
-      <c r="L280">
-        <v>3.2</v>
-      </c>
-      <c r="M280">
-        <v>2.5</v>
-      </c>
-      <c r="N280">
-        <v>2.8</v>
-      </c>
-      <c r="O280">
-        <v>3.1</v>
-      </c>
-      <c r="P280">
-        <v>2.45</v>
-      </c>
-      <c r="Q280">
-        <v>0</v>
-      </c>
-      <c r="R280">
-        <v>2.025</v>
-      </c>
-      <c r="S280">
-        <v>1.825</v>
-      </c>
-      <c r="T280">
-        <v>2.25</v>
-      </c>
-      <c r="U280">
-        <v>2.05</v>
-      </c>
-      <c r="V280">
-        <v>1.8</v>
-      </c>
-      <c r="W280">
-        <v>0</v>
-      </c>
-      <c r="X280">
-        <v>0</v>
-      </c>
-      <c r="Y280">
-        <v>0</v>
-      </c>
-      <c r="Z280">
-        <v>0</v>
-      </c>
-      <c r="AA280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:29">
-      <c r="A281" s="1">
-        <v>279</v>
-      </c>
-      <c r="B281">
-        <v>7951759</v>
-      </c>
-      <c r="C281" t="s">
-        <v>28</v>
-      </c>
-      <c r="D281" t="s">
-        <v>28</v>
-      </c>
-      <c r="E281" s="2">
-        <v>45403.54166666666</v>
-      </c>
-      <c r="F281" t="s">
-        <v>37</v>
-      </c>
-      <c r="G281" t="s">
-        <v>44</v>
-      </c>
-      <c r="K281">
-        <v>2.6</v>
-      </c>
-      <c r="L281">
-        <v>3.2</v>
-      </c>
-      <c r="M281">
-        <v>2.6</v>
-      </c>
-      <c r="N281">
-        <v>2.55</v>
-      </c>
-      <c r="O281">
-        <v>3.2</v>
-      </c>
-      <c r="P281">
-        <v>2.625</v>
-      </c>
-      <c r="Q281">
-        <v>0</v>
-      </c>
-      <c r="R281">
-        <v>1.875</v>
-      </c>
-      <c r="S281">
-        <v>1.975</v>
-      </c>
-      <c r="T281">
-        <v>2.5</v>
-      </c>
-      <c r="U281">
-        <v>2.05</v>
-      </c>
-      <c r="V281">
-        <v>1.8</v>
-      </c>
-      <c r="W281">
-        <v>0</v>
-      </c>
-      <c r="X281">
-        <v>0</v>
-      </c>
-      <c r="Y281">
-        <v>0</v>
-      </c>
-      <c r="Z281">
-        <v>0</v>
-      </c>
-      <c r="AA281">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC279"/>
+  <dimension ref="A1:AC281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6861095</v>
+        <v>6836277</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,67 +21365,67 @@
         <v>45359.625</v>
       </c>
       <c r="F235" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G235" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I235">
         <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K235">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="L235">
         <v>3.4</v>
       </c>
       <c r="M235">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N235">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O235">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P235">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q235">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R235">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S235">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T235">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U235">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V235">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X235">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.3875</v>
+        <v>0.425</v>
       </c>
       <c r="AA235">
         <v>-0.5</v>
@@ -21434,7 +21434,7 @@
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6836277</v>
+        <v>6852370</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,10 +21454,10 @@
         <v>45359.625</v>
       </c>
       <c r="F236" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G236" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H236">
         <v>1</v>
@@ -21469,43 +21469,43 @@
         <v>45</v>
       </c>
       <c r="K236">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="L236">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M236">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N236">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="O236">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P236">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q236">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R236">
+        <v>2</v>
+      </c>
+      <c r="S236">
         <v>1.85</v>
-      </c>
-      <c r="S236">
-        <v>2</v>
       </c>
       <c r="T236">
         <v>2.25</v>
       </c>
       <c r="U236">
+        <v>1.975</v>
+      </c>
+      <c r="V236">
         <v>1.875</v>
       </c>
-      <c r="V236">
-        <v>1.975</v>
-      </c>
       <c r="W236">
-        <v>0.6499999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X236">
         <v>-1</v>
@@ -21514,16 +21514,16 @@
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AA236">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6852370</v>
+        <v>6861095</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,76 +21543,76 @@
         <v>45359.625</v>
       </c>
       <c r="F237" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G237" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237">
         <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K237">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="L237">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M237">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N237">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="O237">
         <v>3</v>
       </c>
       <c r="P237">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q237">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R237">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S237">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T237">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U237">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V237">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W237">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA237">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB237">
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -24913,7 +24913,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7951796</v>
+        <v>7951793</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24922,34 +24922,43 @@
         <v>28</v>
       </c>
       <c r="E275" s="2">
-        <v>45402.375</v>
+        <v>45401.47916666666</v>
       </c>
       <c r="F275" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G275" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="H275">
+        <v>1</v>
+      </c>
+      <c r="I275">
+        <v>1</v>
+      </c>
+      <c r="J275" t="s">
+        <v>46</v>
       </c>
       <c r="K275">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L275">
         <v>3</v>
       </c>
       <c r="M275">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="N275">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O275">
         <v>3</v>
       </c>
       <c r="P275">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q275">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R275">
         <v>1.925</v>
@@ -24958,28 +24967,34 @@
         <v>1.925</v>
       </c>
       <c r="T275">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U275">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V275">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W275">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X275">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y275">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z275">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA275">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB275">
+        <v>0</v>
+      </c>
+      <c r="AC275">
+        <v>-0</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -24987,7 +25002,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7951797</v>
+        <v>7951758</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -24996,64 +25011,79 @@
         <v>28</v>
       </c>
       <c r="E276" s="2">
-        <v>45402.47916666666</v>
+        <v>45401.60416666666</v>
       </c>
       <c r="F276" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G276" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="H276">
+        <v>5</v>
+      </c>
+      <c r="I276">
+        <v>1</v>
+      </c>
+      <c r="J276" t="s">
+        <v>45</v>
       </c>
       <c r="K276">
+        <v>3.1</v>
+      </c>
+      <c r="L276">
+        <v>3.2</v>
+      </c>
+      <c r="M276">
         <v>2.2</v>
       </c>
-      <c r="L276">
+      <c r="N276">
         <v>3.1</v>
       </c>
-      <c r="M276">
+      <c r="O276">
         <v>3.25</v>
       </c>
-      <c r="N276">
-        <v>2.3</v>
-      </c>
-      <c r="O276">
-        <v>3.1</v>
-      </c>
       <c r="P276">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q276">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R276">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S276">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T276">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U276">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V276">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W276">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X276">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA276">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB276">
+        <v>0.95</v>
+      </c>
+      <c r="AC276">
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25061,7 +25091,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7951757</v>
+        <v>7951796</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25070,49 +25100,49 @@
         <v>28</v>
       </c>
       <c r="E277" s="2">
-        <v>45402.60416666666</v>
+        <v>45402.375</v>
       </c>
       <c r="F277" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G277" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K277">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="L277">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M277">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N277">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O277">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P277">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q277">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R277">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S277">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T277">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U277">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V277">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W277">
         <v>0</v>
@@ -25135,7 +25165,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7951795</v>
+        <v>7951797</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25144,49 +25174,49 @@
         <v>28</v>
       </c>
       <c r="E278" s="2">
-        <v>45403.41666666666</v>
+        <v>45402.47916666666</v>
       </c>
       <c r="F278" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G278" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K278">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L278">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M278">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="N278">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O278">
         <v>3.1</v>
       </c>
       <c r="P278">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="Q278">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R278">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S278">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T278">
         <v>2.25</v>
       </c>
       <c r="U278">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V278">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W278">
         <v>0</v>
@@ -25209,7 +25239,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7951759</v>
+        <v>7951757</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25218,34 +25248,34 @@
         <v>28</v>
       </c>
       <c r="E279" s="2">
-        <v>45403.54166666666</v>
+        <v>45402.60416666666</v>
       </c>
       <c r="F279" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G279" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="K279">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="L279">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M279">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N279">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="O279">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P279">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q279">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R279">
         <v>1.875</v>
@@ -25257,24 +25287,172 @@
         <v>2.5</v>
       </c>
       <c r="U279">
+        <v>1.95</v>
+      </c>
+      <c r="V279">
+        <v>1.9</v>
+      </c>
+      <c r="W279">
+        <v>0</v>
+      </c>
+      <c r="X279">
+        <v>0</v>
+      </c>
+      <c r="Y279">
+        <v>0</v>
+      </c>
+      <c r="Z279">
+        <v>0</v>
+      </c>
+      <c r="AA279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:29">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>7951795</v>
+      </c>
+      <c r="C280" t="s">
+        <v>28</v>
+      </c>
+      <c r="D280" t="s">
+        <v>28</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45403.41666666666</v>
+      </c>
+      <c r="F280" t="s">
+        <v>30</v>
+      </c>
+      <c r="G280" t="s">
+        <v>42</v>
+      </c>
+      <c r="K280">
+        <v>2.75</v>
+      </c>
+      <c r="L280">
+        <v>3.2</v>
+      </c>
+      <c r="M280">
+        <v>2.5</v>
+      </c>
+      <c r="N280">
+        <v>2.8</v>
+      </c>
+      <c r="O280">
+        <v>3.1</v>
+      </c>
+      <c r="P280">
+        <v>2.45</v>
+      </c>
+      <c r="Q280">
+        <v>0</v>
+      </c>
+      <c r="R280">
         <v>2.025</v>
       </c>
-      <c r="V279">
+      <c r="S280">
         <v>1.825</v>
       </c>
-      <c r="W279">
-        <v>0</v>
-      </c>
-      <c r="X279">
-        <v>0</v>
-      </c>
-      <c r="Y279">
-        <v>0</v>
-      </c>
-      <c r="Z279">
-        <v>0</v>
-      </c>
-      <c r="AA279">
+      <c r="T280">
+        <v>2.25</v>
+      </c>
+      <c r="U280">
+        <v>2.05</v>
+      </c>
+      <c r="V280">
+        <v>1.8</v>
+      </c>
+      <c r="W280">
+        <v>0</v>
+      </c>
+      <c r="X280">
+        <v>0</v>
+      </c>
+      <c r="Y280">
+        <v>0</v>
+      </c>
+      <c r="Z280">
+        <v>0</v>
+      </c>
+      <c r="AA280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:29">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>7951759</v>
+      </c>
+      <c r="C281" t="s">
+        <v>28</v>
+      </c>
+      <c r="D281" t="s">
+        <v>28</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45403.54166666666</v>
+      </c>
+      <c r="F281" t="s">
+        <v>37</v>
+      </c>
+      <c r="G281" t="s">
+        <v>44</v>
+      </c>
+      <c r="K281">
+        <v>2.6</v>
+      </c>
+      <c r="L281">
+        <v>3.2</v>
+      </c>
+      <c r="M281">
+        <v>2.6</v>
+      </c>
+      <c r="N281">
+        <v>2.55</v>
+      </c>
+      <c r="O281">
+        <v>3.2</v>
+      </c>
+      <c r="P281">
+        <v>2.625</v>
+      </c>
+      <c r="Q281">
+        <v>0</v>
+      </c>
+      <c r="R281">
+        <v>1.875</v>
+      </c>
+      <c r="S281">
+        <v>1.975</v>
+      </c>
+      <c r="T281">
+        <v>2.5</v>
+      </c>
+      <c r="U281">
+        <v>2.025</v>
+      </c>
+      <c r="V281">
+        <v>1.825</v>
+      </c>
+      <c r="W281">
+        <v>0</v>
+      </c>
+      <c r="X281">
+        <v>0</v>
+      </c>
+      <c r="Y281">
+        <v>0</v>
+      </c>
+      <c r="Z281">
+        <v>0</v>
+      </c>
+      <c r="AA281">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC281"/>
+  <dimension ref="A1:AC278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25091,7 +25091,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7951796</v>
+        <v>7951759</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25100,49 +25100,49 @@
         <v>28</v>
       </c>
       <c r="E277" s="2">
-        <v>45402.375</v>
+        <v>45403.54166666666</v>
       </c>
       <c r="F277" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G277" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K277">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L277">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M277">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N277">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O277">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P277">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q277">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R277">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S277">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T277">
         <v>2.25</v>
       </c>
       <c r="U277">
+        <v>1.8</v>
+      </c>
+      <c r="V277">
         <v>2.05</v>
-      </c>
-      <c r="V277">
-        <v>1.8</v>
       </c>
       <c r="W277">
         <v>0</v>
@@ -25165,7 +25165,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7951797</v>
+        <v>7951794</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25174,49 +25174,49 @@
         <v>28</v>
       </c>
       <c r="E278" s="2">
-        <v>45402.47916666666</v>
+        <v>45404.54166666666</v>
       </c>
       <c r="F278" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G278" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K278">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L278">
         <v>3.1</v>
       </c>
       <c r="M278">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N278">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O278">
         <v>3.1</v>
       </c>
       <c r="P278">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q278">
         <v>-0.25</v>
       </c>
       <c r="R278">
+        <v>1.8</v>
+      </c>
+      <c r="S278">
         <v>2.05</v>
-      </c>
-      <c r="S278">
-        <v>1.8</v>
       </c>
       <c r="T278">
         <v>2.25</v>
       </c>
       <c r="U278">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V278">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W278">
         <v>0</v>
@@ -25231,228 +25231,6 @@
         <v>0</v>
       </c>
       <c r="AA278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:29">
-      <c r="A279" s="1">
-        <v>277</v>
-      </c>
-      <c r="B279">
-        <v>7951757</v>
-      </c>
-      <c r="C279" t="s">
-        <v>28</v>
-      </c>
-      <c r="D279" t="s">
-        <v>28</v>
-      </c>
-      <c r="E279" s="2">
-        <v>45402.60416666666</v>
-      </c>
-      <c r="F279" t="s">
-        <v>40</v>
-      </c>
-      <c r="G279" t="s">
-        <v>31</v>
-      </c>
-      <c r="K279">
-        <v>1.85</v>
-      </c>
-      <c r="L279">
-        <v>3.5</v>
-      </c>
-      <c r="M279">
-        <v>4</v>
-      </c>
-      <c r="N279">
-        <v>1.85</v>
-      </c>
-      <c r="O279">
-        <v>3.5</v>
-      </c>
-      <c r="P279">
-        <v>4</v>
-      </c>
-      <c r="Q279">
-        <v>-0.5</v>
-      </c>
-      <c r="R279">
-        <v>1.875</v>
-      </c>
-      <c r="S279">
-        <v>1.975</v>
-      </c>
-      <c r="T279">
-        <v>2.5</v>
-      </c>
-      <c r="U279">
-        <v>1.95</v>
-      </c>
-      <c r="V279">
-        <v>1.9</v>
-      </c>
-      <c r="W279">
-        <v>0</v>
-      </c>
-      <c r="X279">
-        <v>0</v>
-      </c>
-      <c r="Y279">
-        <v>0</v>
-      </c>
-      <c r="Z279">
-        <v>0</v>
-      </c>
-      <c r="AA279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:29">
-      <c r="A280" s="1">
-        <v>278</v>
-      </c>
-      <c r="B280">
-        <v>7951795</v>
-      </c>
-      <c r="C280" t="s">
-        <v>28</v>
-      </c>
-      <c r="D280" t="s">
-        <v>28</v>
-      </c>
-      <c r="E280" s="2">
-        <v>45403.41666666666</v>
-      </c>
-      <c r="F280" t="s">
-        <v>30</v>
-      </c>
-      <c r="G280" t="s">
-        <v>42</v>
-      </c>
-      <c r="K280">
-        <v>2.75</v>
-      </c>
-      <c r="L280">
-        <v>3.2</v>
-      </c>
-      <c r="M280">
-        <v>2.5</v>
-      </c>
-      <c r="N280">
-        <v>2.8</v>
-      </c>
-      <c r="O280">
-        <v>3.1</v>
-      </c>
-      <c r="P280">
-        <v>2.45</v>
-      </c>
-      <c r="Q280">
-        <v>0</v>
-      </c>
-      <c r="R280">
-        <v>2.025</v>
-      </c>
-      <c r="S280">
-        <v>1.825</v>
-      </c>
-      <c r="T280">
-        <v>2.25</v>
-      </c>
-      <c r="U280">
-        <v>2.05</v>
-      </c>
-      <c r="V280">
-        <v>1.8</v>
-      </c>
-      <c r="W280">
-        <v>0</v>
-      </c>
-      <c r="X280">
-        <v>0</v>
-      </c>
-      <c r="Y280">
-        <v>0</v>
-      </c>
-      <c r="Z280">
-        <v>0</v>
-      </c>
-      <c r="AA280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:29">
-      <c r="A281" s="1">
-        <v>279</v>
-      </c>
-      <c r="B281">
-        <v>7951759</v>
-      </c>
-      <c r="C281" t="s">
-        <v>28</v>
-      </c>
-      <c r="D281" t="s">
-        <v>28</v>
-      </c>
-      <c r="E281" s="2">
-        <v>45403.54166666666</v>
-      </c>
-      <c r="F281" t="s">
-        <v>37</v>
-      </c>
-      <c r="G281" t="s">
-        <v>44</v>
-      </c>
-      <c r="K281">
-        <v>2.6</v>
-      </c>
-      <c r="L281">
-        <v>3.2</v>
-      </c>
-      <c r="M281">
-        <v>2.6</v>
-      </c>
-      <c r="N281">
-        <v>2.55</v>
-      </c>
-      <c r="O281">
-        <v>3.2</v>
-      </c>
-      <c r="P281">
-        <v>2.625</v>
-      </c>
-      <c r="Q281">
-        <v>0</v>
-      </c>
-      <c r="R281">
-        <v>1.875</v>
-      </c>
-      <c r="S281">
-        <v>1.975</v>
-      </c>
-      <c r="T281">
-        <v>2.5</v>
-      </c>
-      <c r="U281">
-        <v>2.025</v>
-      </c>
-      <c r="V281">
-        <v>1.825</v>
-      </c>
-      <c r="W281">
-        <v>0</v>
-      </c>
-      <c r="X281">
-        <v>0</v>
-      </c>
-      <c r="Y281">
-        <v>0</v>
-      </c>
-      <c r="Z281">
-        <v>0</v>
-      </c>
-      <c r="AA281">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC278"/>
+  <dimension ref="A1:AC281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6836277</v>
+        <v>6861095</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,67 +21365,67 @@
         <v>45359.625</v>
       </c>
       <c r="F235" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G235" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235">
         <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K235">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="L235">
         <v>3.4</v>
       </c>
       <c r="M235">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="N235">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="O235">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P235">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q235">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R235">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S235">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T235">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U235">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V235">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W235">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.425</v>
+        <v>0.3875</v>
       </c>
       <c r="AA235">
         <v>-0.5</v>
@@ -21434,7 +21434,7 @@
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6852370</v>
+        <v>6870268</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,76 +21454,76 @@
         <v>45359.625</v>
       </c>
       <c r="F236" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G236" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H236">
         <v>1</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K236">
+        <v>2.8</v>
+      </c>
+      <c r="L236">
+        <v>3</v>
+      </c>
+      <c r="M236">
         <v>2.55</v>
       </c>
-      <c r="L236">
-        <v>2.875</v>
-      </c>
-      <c r="M236">
+      <c r="N236">
         <v>3</v>
       </c>
-      <c r="N236">
-        <v>2.375</v>
-      </c>
       <c r="O236">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P236">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q236">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R236">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S236">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T236">
         <v>2.25</v>
       </c>
       <c r="U236">
+        <v>1.875</v>
+      </c>
+      <c r="V236">
         <v>1.975</v>
       </c>
-      <c r="V236">
-        <v>1.875</v>
-      </c>
       <c r="W236">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z236">
+        <v>-1</v>
+      </c>
+      <c r="AA236">
         <v>1</v>
       </c>
-      <c r="AA236">
-        <v>-1</v>
-      </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC236">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6861095</v>
+        <v>6865915</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,10 +21543,10 @@
         <v>45359.625</v>
       </c>
       <c r="F237" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G237" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -21558,52 +21558,52 @@
         <v>46</v>
       </c>
       <c r="K237">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L237">
+        <v>3.25</v>
+      </c>
+      <c r="M237">
+        <v>2.05</v>
+      </c>
+      <c r="N237">
         <v>3.4</v>
       </c>
-      <c r="M237">
-        <v>1.909</v>
-      </c>
-      <c r="N237">
+      <c r="O237">
         <v>3.1</v>
       </c>
-      <c r="O237">
-        <v>3</v>
-      </c>
       <c r="P237">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q237">
         <v>0.25</v>
       </c>
       <c r="R237">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S237">
+        <v>1.875</v>
+      </c>
+      <c r="T237">
+        <v>2.25</v>
+      </c>
+      <c r="U237">
+        <v>2.05</v>
+      </c>
+      <c r="V237">
+        <v>1.75</v>
+      </c>
+      <c r="W237">
+        <v>-1</v>
+      </c>
+      <c r="X237">
         <v>2.1</v>
       </c>
-      <c r="T237">
-        <v>2</v>
-      </c>
-      <c r="U237">
-        <v>1.8</v>
-      </c>
-      <c r="V237">
-        <v>2.05</v>
-      </c>
-      <c r="W237">
-        <v>-1</v>
-      </c>
-      <c r="X237">
-        <v>2</v>
-      </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.3875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA237">
         <v>-0.5</v>
@@ -21612,7 +21612,7 @@
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6865915</v>
+        <v>6836277</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,67 +21632,67 @@
         <v>45359.625</v>
       </c>
       <c r="F238" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G238" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238">
         <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K238">
+        <v>1.7</v>
+      </c>
+      <c r="L238">
+        <v>3.4</v>
+      </c>
+      <c r="M238">
+        <v>5</v>
+      </c>
+      <c r="N238">
+        <v>1.65</v>
+      </c>
+      <c r="O238">
         <v>3.5</v>
       </c>
-      <c r="L238">
-        <v>3.25</v>
-      </c>
-      <c r="M238">
-        <v>2.05</v>
-      </c>
-      <c r="N238">
-        <v>3.4</v>
-      </c>
-      <c r="O238">
-        <v>3.1</v>
-      </c>
       <c r="P238">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q238">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R238">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S238">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T238">
         <v>2.25</v>
       </c>
       <c r="U238">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V238">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X238">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AA238">
         <v>-0.5</v>
@@ -21701,7 +21701,7 @@
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6870268</v>
+        <v>6852370</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,76 +21721,76 @@
         <v>45359.625</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G239" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H239">
         <v>1</v>
       </c>
       <c r="I239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K239">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="L239">
+        <v>2.875</v>
+      </c>
+      <c r="M239">
         <v>3</v>
       </c>
-      <c r="M239">
-        <v>2.55</v>
-      </c>
       <c r="N239">
+        <v>2.375</v>
+      </c>
+      <c r="O239">
         <v>3</v>
       </c>
-      <c r="O239">
-        <v>3.2</v>
-      </c>
       <c r="P239">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q239">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R239">
+        <v>2</v>
+      </c>
+      <c r="S239">
         <v>1.85</v>
-      </c>
-      <c r="S239">
-        <v>2</v>
       </c>
       <c r="T239">
         <v>2.25</v>
       </c>
       <c r="U239">
+        <v>1.975</v>
+      </c>
+      <c r="V239">
         <v>1.875</v>
       </c>
-      <c r="V239">
-        <v>1.975</v>
-      </c>
       <c r="W239">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA239">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
+        <v>-1</v>
+      </c>
+      <c r="AC239">
         <v>0.875</v>
-      </c>
-      <c r="AC239">
-        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -25091,7 +25091,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7951759</v>
+        <v>7951796</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25100,64 +25100,79 @@
         <v>28</v>
       </c>
       <c r="E277" s="2">
-        <v>45403.54166666666</v>
+        <v>45402.375</v>
       </c>
       <c r="F277" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G277" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="H277">
+        <v>3</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277" t="s">
+        <v>45</v>
       </c>
       <c r="K277">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L277">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M277">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N277">
         <v>2.45</v>
       </c>
       <c r="O277">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P277">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q277">
         <v>0</v>
       </c>
       <c r="R277">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S277">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T277">
         <v>2.25</v>
       </c>
       <c r="U277">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V277">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W277">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X277">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y277">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z277">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA277">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB277">
+        <v>1.025</v>
+      </c>
+      <c r="AC277">
+        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25165,7 +25180,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7951794</v>
+        <v>7951797</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25174,63 +25189,315 @@
         <v>28</v>
       </c>
       <c r="E278" s="2">
-        <v>45404.54166666666</v>
+        <v>45402.47916666666</v>
       </c>
       <c r="F278" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G278" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="H278">
+        <v>1</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278" t="s">
+        <v>46</v>
       </c>
       <c r="K278">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L278">
         <v>3.1</v>
       </c>
       <c r="M278">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N278">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="O278">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P278">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q278">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R278">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S278">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T278">
         <v>2.25</v>
       </c>
       <c r="U278">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V278">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W278">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X278">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y278">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z278">
         <v>0</v>
       </c>
       <c r="AA278">
+        <v>-0</v>
+      </c>
+      <c r="AB278">
+        <v>-0.5</v>
+      </c>
+      <c r="AC278">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:29">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>7951757</v>
+      </c>
+      <c r="C279" t="s">
+        <v>28</v>
+      </c>
+      <c r="D279" t="s">
+        <v>28</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45402.60416666666</v>
+      </c>
+      <c r="F279" t="s">
+        <v>40</v>
+      </c>
+      <c r="G279" t="s">
+        <v>31</v>
+      </c>
+      <c r="H279">
+        <v>2</v>
+      </c>
+      <c r="I279">
+        <v>2</v>
+      </c>
+      <c r="J279" t="s">
+        <v>46</v>
+      </c>
+      <c r="K279">
+        <v>1.85</v>
+      </c>
+      <c r="L279">
+        <v>3.5</v>
+      </c>
+      <c r="M279">
+        <v>4</v>
+      </c>
+      <c r="N279">
+        <v>1.909</v>
+      </c>
+      <c r="O279">
+        <v>3.6</v>
+      </c>
+      <c r="P279">
+        <v>3.75</v>
+      </c>
+      <c r="Q279">
+        <v>-0.5</v>
+      </c>
+      <c r="R279">
+        <v>1.9</v>
+      </c>
+      <c r="S279">
+        <v>1.95</v>
+      </c>
+      <c r="T279">
+        <v>2.5</v>
+      </c>
+      <c r="U279">
+        <v>1.85</v>
+      </c>
+      <c r="V279">
+        <v>2</v>
+      </c>
+      <c r="W279">
+        <v>-1</v>
+      </c>
+      <c r="X279">
+        <v>2.6</v>
+      </c>
+      <c r="Y279">
+        <v>-1</v>
+      </c>
+      <c r="Z279">
+        <v>-1</v>
+      </c>
+      <c r="AA279">
+        <v>0.95</v>
+      </c>
+      <c r="AB279">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC279">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:29">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>7951759</v>
+      </c>
+      <c r="C280" t="s">
+        <v>28</v>
+      </c>
+      <c r="D280" t="s">
+        <v>28</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45403.54166666666</v>
+      </c>
+      <c r="F280" t="s">
+        <v>37</v>
+      </c>
+      <c r="G280" t="s">
+        <v>44</v>
+      </c>
+      <c r="K280">
+        <v>2.6</v>
+      </c>
+      <c r="L280">
+        <v>3.2</v>
+      </c>
+      <c r="M280">
+        <v>2.6</v>
+      </c>
+      <c r="N280">
+        <v>2.45</v>
+      </c>
+      <c r="O280">
+        <v>3.2</v>
+      </c>
+      <c r="P280">
+        <v>2.75</v>
+      </c>
+      <c r="Q280">
+        <v>0</v>
+      </c>
+      <c r="R280">
+        <v>1.8</v>
+      </c>
+      <c r="S280">
+        <v>2.05</v>
+      </c>
+      <c r="T280">
+        <v>2.25</v>
+      </c>
+      <c r="U280">
+        <v>1.8</v>
+      </c>
+      <c r="V280">
+        <v>2.05</v>
+      </c>
+      <c r="W280">
+        <v>0</v>
+      </c>
+      <c r="X280">
+        <v>0</v>
+      </c>
+      <c r="Y280">
+        <v>0</v>
+      </c>
+      <c r="Z280">
+        <v>0</v>
+      </c>
+      <c r="AA280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:29">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>7951794</v>
+      </c>
+      <c r="C281" t="s">
+        <v>28</v>
+      </c>
+      <c r="D281" t="s">
+        <v>28</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45404.54166666666</v>
+      </c>
+      <c r="F281" t="s">
+        <v>33</v>
+      </c>
+      <c r="G281" t="s">
+        <v>38</v>
+      </c>
+      <c r="K281">
+        <v>2.1</v>
+      </c>
+      <c r="L281">
+        <v>3.1</v>
+      </c>
+      <c r="M281">
+        <v>3.4</v>
+      </c>
+      <c r="N281">
+        <v>2.05</v>
+      </c>
+      <c r="O281">
+        <v>3.1</v>
+      </c>
+      <c r="P281">
+        <v>3.5</v>
+      </c>
+      <c r="Q281">
+        <v>-0.25</v>
+      </c>
+      <c r="R281">
+        <v>1.8</v>
+      </c>
+      <c r="S281">
+        <v>2.05</v>
+      </c>
+      <c r="T281">
+        <v>2.25</v>
+      </c>
+      <c r="U281">
+        <v>2</v>
+      </c>
+      <c r="V281">
+        <v>1.85</v>
+      </c>
+      <c r="W281">
+        <v>0</v>
+      </c>
+      <c r="X281">
+        <v>0</v>
+      </c>
+      <c r="Y281">
+        <v>0</v>
+      </c>
+      <c r="Z281">
+        <v>0</v>
+      </c>
+      <c r="AA281">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -97,25 +97,28 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7951800</t>
+    <t>7951807</t>
   </si>
   <si>
-    <t>7951761</t>
+    <t>7951806</t>
   </si>
   <si>
-    <t>7951760</t>
+    <t>7951763</t>
   </si>
   <si>
-    <t>7951801</t>
+    <t>7951804</t>
   </si>
   <si>
-    <t>7951802</t>
+    <t>7951805</t>
   </si>
   <si>
-    <t>7951762</t>
+    <t>7951765</t>
   </si>
   <si>
-    <t>7951807</t>
+    <t>7951803</t>
+  </si>
+  <si>
+    <t>7951764</t>
   </si>
   <si>
     <t>Romania Liga I</t>
@@ -537,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB289"/>
+  <dimension ref="A1:AB298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,16 +637,16 @@
         <v>6708870</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2">
         <v>45078.60416666666</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -652,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J2">
         <v>1.7</v>
@@ -720,16 +723,16 @@
         <v>6831816</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2">
         <v>45121.52083333334</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -738,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -806,16 +809,16 @@
         <v>6871393</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2">
         <v>45121.64583333334</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -824,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J4">
         <v>1.95</v>
@@ -892,16 +895,16 @@
         <v>6836102</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2">
         <v>45122.52083333334</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -910,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J5">
         <v>2.75</v>
@@ -978,16 +981,16 @@
         <v>6871392</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2">
         <v>45122.64583333334</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -996,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J6">
         <v>1.363</v>
@@ -1064,16 +1067,16 @@
         <v>6836106</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2">
         <v>45123.52083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1082,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J7">
         <v>2.5</v>
@@ -1150,16 +1153,16 @@
         <v>6836105</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2">
         <v>45123.64583333334</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1168,7 +1171,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J8">
         <v>3.4</v>
@@ -1236,16 +1239,16 @@
         <v>6831939</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2">
         <v>45124.52083333334</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1254,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J9">
         <v>2.05</v>
@@ -1322,16 +1325,16 @@
         <v>6836104</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2">
         <v>45124.64583333334</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1340,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J10">
         <v>3.5</v>
@@ -1408,16 +1411,16 @@
         <v>6836111</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2">
         <v>45128.52083333334</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1426,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J11">
         <v>1.75</v>
@@ -1494,16 +1497,16 @@
         <v>6836108</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2">
         <v>45128.64583333334</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1512,7 +1515,7 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J12">
         <v>3.5</v>
@@ -1580,16 +1583,16 @@
         <v>6835772</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2">
         <v>45129.51041666666</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1598,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1666,16 +1669,16 @@
         <v>6836110</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2">
         <v>45129.64583333334</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1684,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J14">
         <v>1.533</v>
@@ -1752,16 +1755,16 @@
         <v>6836107</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2">
         <v>45130.52083333334</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1770,7 +1773,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J15">
         <v>2.4</v>
@@ -1838,16 +1841,16 @@
         <v>6835195</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2">
         <v>45130.64583333334</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1856,7 +1859,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J16">
         <v>2.375</v>
@@ -1924,16 +1927,16 @@
         <v>6863931</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2">
         <v>45131.52083333334</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1942,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -2010,16 +2013,16 @@
         <v>6836109</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2">
         <v>45131.64583333334</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2028,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J18">
         <v>1.5</v>
@@ -2096,16 +2099,16 @@
         <v>6836117</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2">
         <v>45135.52083333334</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -2114,7 +2117,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J19">
         <v>2.25</v>
@@ -2182,16 +2185,16 @@
         <v>6835196</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2">
         <v>45135.64583333334</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2200,7 +2203,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J20">
         <v>1.4</v>
@@ -2268,16 +2271,16 @@
         <v>6836113</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2">
         <v>45136.52083333334</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2286,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J21">
         <v>1.909</v>
@@ -2354,16 +2357,16 @@
         <v>6836115</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2">
         <v>45136.64583333334</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2372,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J22">
         <v>4.75</v>
@@ -2440,16 +2443,16 @@
         <v>6836118</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2458,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J23">
         <v>1.615</v>
@@ -2526,16 +2529,16 @@
         <v>6836114</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2">
         <v>45137.64583333334</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2544,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J24">
         <v>2.15</v>
@@ -2612,16 +2615,16 @@
         <v>6835773</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2">
         <v>45138.52083333334</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2630,7 +2633,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J25">
         <v>2.55</v>
@@ -2698,16 +2701,16 @@
         <v>6836116</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2">
         <v>45138.64583333334</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2716,7 +2719,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J26">
         <v>3.75</v>
@@ -2784,16 +2787,16 @@
         <v>6836124</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2">
         <v>45142.52083333334</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2802,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -2870,16 +2873,16 @@
         <v>6836119</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2">
         <v>45142.64583333334</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2888,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J28">
         <v>1.615</v>
@@ -2956,16 +2959,16 @@
         <v>6836123</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2">
         <v>45143.52083333334</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2974,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J29">
         <v>2.375</v>
@@ -3042,16 +3045,16 @@
         <v>6836122</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2">
         <v>45143.64583333334</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3060,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J30">
         <v>2.2</v>
@@ -3128,16 +3131,16 @@
         <v>6836125</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D31" s="2">
         <v>45144.51041666666</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3146,7 +3149,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J31">
         <v>2.875</v>
@@ -3214,16 +3217,16 @@
         <v>6836120</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32" s="2">
         <v>45144.64583333334</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3232,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J32">
         <v>2.1</v>
@@ -3300,16 +3303,16 @@
         <v>6836121</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" s="2">
         <v>45145.52083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3318,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J33">
         <v>1.727</v>
@@ -3386,16 +3389,16 @@
         <v>6835197</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D34" s="2">
         <v>45145.64583333334</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3404,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J34">
         <v>3.1</v>
@@ -3472,16 +3475,16 @@
         <v>6835774</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D35" s="2">
         <v>45149.60416666666</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -3490,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J35">
         <v>2.375</v>
@@ -3558,16 +3561,16 @@
         <v>6836128</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D36" s="2">
         <v>45150.52083333334</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3576,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J36">
         <v>2.6</v>
@@ -3644,16 +3647,16 @@
         <v>6836130</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2">
         <v>45150.64583333334</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3662,7 +3665,7 @@
         <v>4</v>
       </c>
       <c r="I37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J37">
         <v>4</v>
@@ -3730,16 +3733,16 @@
         <v>6835198</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D38" s="2">
         <v>45151.64583333334</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3748,7 +3751,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J38">
         <v>1.8</v>
@@ -3816,16 +3819,16 @@
         <v>6836129</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D39" s="2">
         <v>45152.60416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3834,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -3902,16 +3905,16 @@
         <v>6836136</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D40" s="2">
         <v>45156.52083333334</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -3920,7 +3923,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J40">
         <v>2.3</v>
@@ -3988,16 +3991,16 @@
         <v>6836137</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2">
         <v>45156.64583333334</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -4006,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J41">
         <v>1.45</v>
@@ -4074,16 +4077,16 @@
         <v>6836134</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D42" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4092,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J42">
         <v>2.1</v>
@@ -4160,16 +4163,16 @@
         <v>6835775</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43" s="2">
         <v>45157.65625</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4178,7 +4181,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J43">
         <v>1.95</v>
@@ -4246,16 +4249,16 @@
         <v>6835199</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2">
         <v>45158.51041666666</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -4264,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J44">
         <v>2.05</v>
@@ -4332,16 +4335,16 @@
         <v>6836135</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D45" s="2">
         <v>45158.64583333334</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4350,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J45">
         <v>1.45</v>
@@ -4418,16 +4421,16 @@
         <v>6836132</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D46" s="2">
         <v>45159.52083333334</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4436,7 +4439,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J46">
         <v>2.15</v>
@@ -4504,16 +4507,16 @@
         <v>6836133</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D47" s="2">
         <v>45159.64583333334</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4522,7 +4525,7 @@
         <v>4</v>
       </c>
       <c r="I47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J47">
         <v>4.2</v>
@@ -4590,16 +4593,16 @@
         <v>6835776</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D48" s="2">
         <v>45163.52083333334</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4608,7 +4611,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J48">
         <v>2.7</v>
@@ -4676,16 +4679,16 @@
         <v>6835200</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D49" s="2">
         <v>45163.64583333334</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -4694,7 +4697,7 @@
         <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J49">
         <v>2.7</v>
@@ -4762,16 +4765,16 @@
         <v>6836141</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D50" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4780,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J50">
         <v>1.363</v>
@@ -4848,16 +4851,16 @@
         <v>6836143</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D51" s="2">
         <v>45164.65625</v>
       </c>
       <c r="E51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4866,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J51">
         <v>2.25</v>
@@ -4934,16 +4937,16 @@
         <v>6836139</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D52" s="2">
         <v>45165.64583333334</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4952,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J52">
         <v>2.6</v>
@@ -5020,16 +5023,16 @@
         <v>6836140</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D53" s="2">
         <v>45166.52083333334</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5038,7 +5041,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J53">
         <v>2.2</v>
@@ -5106,16 +5109,16 @@
         <v>6836138</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D54" s="2">
         <v>45166.64583333334</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5124,7 +5127,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J54">
         <v>4</v>
@@ -5192,16 +5195,16 @@
         <v>6836146</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D55" s="2">
         <v>45170.52083333334</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5210,7 +5213,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J55">
         <v>2.05</v>
@@ -5278,16 +5281,16 @@
         <v>6835201</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D56" s="2">
         <v>45170.64583333334</v>
       </c>
       <c r="E56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G56">
         <v>4</v>
@@ -5296,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J56">
         <v>1.7</v>
@@ -5364,16 +5367,16 @@
         <v>6835777</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D57" s="2">
         <v>45171.54166666666</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5382,7 +5385,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J57">
         <v>4.333</v>
@@ -5450,16 +5453,16 @@
         <v>6836148</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D58" s="2">
         <v>45171.65625</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5468,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J58">
         <v>2.8</v>
@@ -5536,16 +5539,16 @@
         <v>6836149</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D59" s="2">
         <v>45172.64583333334</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G59">
         <v>4</v>
@@ -5554,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J59">
         <v>2.5</v>
@@ -5622,17 +5625,17 @@
         <v>6836145</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D60" s="2">
         <v>45173.29166666666</v>
       </c>
       <c r="E60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F60" t="s">
         <v>48</v>
       </c>
-      <c r="F60" t="s">
-        <v>47</v>
-      </c>
       <c r="G60">
         <v>0</v>
       </c>
@@ -5640,7 +5643,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J60">
         <v>1.909</v>
@@ -5708,16 +5711,16 @@
         <v>6836144</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D61" s="2">
         <v>45173.52083333334</v>
       </c>
       <c r="E61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5726,7 +5729,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J61">
         <v>2.8</v>
@@ -5794,16 +5797,16 @@
         <v>6836147</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D62" s="2">
         <v>45173.64583333334</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5812,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J62">
         <v>1.65</v>
@@ -5880,16 +5883,16 @@
         <v>6836152</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D63" s="2">
         <v>45184.52083333334</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5898,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J63">
         <v>2.5</v>
@@ -5966,16 +5969,16 @@
         <v>6836154</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D64" s="2">
         <v>45184.64583333334</v>
       </c>
       <c r="E64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5984,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J64">
         <v>2.75</v>
@@ -6052,16 +6055,16 @@
         <v>6836153</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D65" s="2">
         <v>45185.64583333334</v>
       </c>
       <c r="E65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6070,7 +6073,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J65">
         <v>1.909</v>
@@ -6138,16 +6141,16 @@
         <v>6835778</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D66" s="2">
         <v>45186.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -6156,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J66">
         <v>2</v>
@@ -6224,16 +6227,16 @@
         <v>6835202</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D67" s="2">
         <v>45186.55208333334</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6242,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -6310,16 +6313,16 @@
         <v>6836155</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D68" s="2">
         <v>45186.65625</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6328,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J68">
         <v>2.625</v>
@@ -6396,16 +6399,16 @@
         <v>6836150</v>
       </c>
       <c r="C69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D69" s="2">
         <v>45187.52083333334</v>
       </c>
       <c r="E69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6414,7 +6417,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J69">
         <v>2.4</v>
@@ -6482,16 +6485,16 @@
         <v>6836151</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D70" s="2">
         <v>45187.64583333334</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6500,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J70">
         <v>1.45</v>
@@ -6568,16 +6571,16 @@
         <v>6836126</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D71" s="2">
         <v>45190.58333333334</v>
       </c>
       <c r="E71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6586,7 +6589,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J71">
         <v>3.7</v>
@@ -6654,16 +6657,16 @@
         <v>6836159</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D72" s="2">
         <v>45191.5</v>
       </c>
       <c r="E72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6672,7 +6675,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J72">
         <v>1.95</v>
@@ -6740,16 +6743,16 @@
         <v>6836161</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D73" s="2">
         <v>45191.625</v>
       </c>
       <c r="E73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6758,7 +6761,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J73">
         <v>3.3</v>
@@ -6826,16 +6829,16 @@
         <v>6835779</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D74" s="2">
         <v>45192.35416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6844,7 +6847,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J74">
         <v>2</v>
@@ -6912,16 +6915,16 @@
         <v>6836157</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D75" s="2">
         <v>45192.53125</v>
       </c>
       <c r="E75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -6930,7 +6933,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J75">
         <v>2.25</v>
@@ -6998,16 +7001,16 @@
         <v>6836158</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D76" s="2">
         <v>45192.64583333334</v>
       </c>
       <c r="E76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7016,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -7084,17 +7087,17 @@
         <v>6836156</v>
       </c>
       <c r="C77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D77" s="2">
         <v>45193.51041666666</v>
       </c>
       <c r="E77" t="s">
+        <v>40</v>
+      </c>
+      <c r="F77" t="s">
         <v>39</v>
       </c>
-      <c r="F77" t="s">
-        <v>38</v>
-      </c>
       <c r="G77">
         <v>0</v>
       </c>
@@ -7102,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J77">
         <v>2.4</v>
@@ -7170,16 +7173,16 @@
         <v>6836160</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D78" s="2">
         <v>45193.625</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7188,7 +7191,7 @@
         <v>5</v>
       </c>
       <c r="I78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J78">
         <v>2.7</v>
@@ -7256,16 +7259,16 @@
         <v>6835203</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D79" s="2">
         <v>45194.625</v>
       </c>
       <c r="E79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7274,7 +7277,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J79">
         <v>2.8</v>
@@ -7342,16 +7345,16 @@
         <v>6836166</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D80" s="2">
         <v>45198.625</v>
       </c>
       <c r="E80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7360,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J80">
         <v>2.3</v>
@@ -7428,16 +7431,16 @@
         <v>6835780</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D81" s="2">
         <v>45199.35416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7446,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J81">
         <v>2.2</v>
@@ -7514,16 +7517,16 @@
         <v>6836167</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D82" s="2">
         <v>45199.64583333334</v>
       </c>
       <c r="E82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7532,7 +7535,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J82">
         <v>2.2</v>
@@ -7600,16 +7603,16 @@
         <v>6836163</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D83" s="2">
         <v>45200.375</v>
       </c>
       <c r="E83" t="s">
+        <v>51</v>
+      </c>
+      <c r="F83" t="s">
         <v>50</v>
-      </c>
-      <c r="F83" t="s">
-        <v>49</v>
       </c>
       <c r="G83">
         <v>5</v>
@@ -7618,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J83">
         <v>1.444</v>
@@ -7686,16 +7689,16 @@
         <v>6835204</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D84" s="2">
         <v>45200.5</v>
       </c>
       <c r="E84" t="s">
+        <v>39</v>
+      </c>
+      <c r="F84" t="s">
         <v>38</v>
-      </c>
-      <c r="F84" t="s">
-        <v>37</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7704,7 +7707,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J84">
         <v>2.875</v>
@@ -7772,16 +7775,16 @@
         <v>6836164</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D85" s="2">
         <v>45200.625</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7790,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J85">
         <v>1.5</v>
@@ -7858,16 +7861,16 @@
         <v>6836162</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D86" s="2">
         <v>45201.5</v>
       </c>
       <c r="E86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7876,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J86">
         <v>2.9</v>
@@ -7944,16 +7947,16 @@
         <v>6836165</v>
       </c>
       <c r="C87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D87" s="2">
         <v>45201.625</v>
       </c>
       <c r="E87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7962,7 +7965,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J87">
         <v>1.4</v>
@@ -8030,16 +8033,16 @@
         <v>6836127</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D88" s="2">
         <v>45204.58333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8048,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J88">
         <v>1.8</v>
@@ -8116,16 +8119,16 @@
         <v>6836168</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D89" s="2">
         <v>45205.5</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8134,7 +8137,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J89">
         <v>2.3</v>
@@ -8202,16 +8205,16 @@
         <v>6835205</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D90" s="2">
         <v>45205.625</v>
       </c>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G90">
         <v>3</v>
@@ -8220,7 +8223,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J90">
         <v>1.5</v>
@@ -8288,16 +8291,16 @@
         <v>6836169</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D91" s="2">
         <v>45206.33333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8306,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J91">
         <v>2.1</v>
@@ -8374,16 +8377,16 @@
         <v>6835781</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D92" s="2">
         <v>45206.53125</v>
       </c>
       <c r="E92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F92" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8392,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J92">
         <v>4</v>
@@ -8460,16 +8463,16 @@
         <v>6836170</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D93" s="2">
         <v>45206.64583333334</v>
       </c>
       <c r="E93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8478,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -8546,16 +8549,16 @@
         <v>6836173</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D94" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8564,7 +8567,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J94">
         <v>2.75</v>
@@ -8632,16 +8635,16 @@
         <v>6836171</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D95" s="2">
         <v>45207.64583333334</v>
       </c>
       <c r="E95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8650,7 +8653,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J95">
         <v>4</v>
@@ -8718,16 +8721,16 @@
         <v>6836172</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D96" s="2">
         <v>45208.625</v>
       </c>
       <c r="E96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8736,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J96">
         <v>2.8</v>
@@ -8804,16 +8807,16 @@
         <v>7122732</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D97" s="2">
         <v>45218.58333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8822,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J97">
         <v>2.625</v>
@@ -8890,16 +8893,16 @@
         <v>6835206</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D98" s="2">
         <v>45219.625</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8908,7 +8911,7 @@
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J98">
         <v>3.4</v>
@@ -8976,16 +8979,16 @@
         <v>6836174</v>
       </c>
       <c r="C99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D99" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G99">
         <v>4</v>
@@ -8994,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J99">
         <v>2.1</v>
@@ -9062,16 +9065,16 @@
         <v>6836179</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D100" s="2">
         <v>45220.65625</v>
       </c>
       <c r="E100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F100" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9080,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J100">
         <v>1.833</v>
@@ -9148,16 +9151,16 @@
         <v>6836175</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D101" s="2">
         <v>45221.39583333334</v>
       </c>
       <c r="E101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9166,7 +9169,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J101">
         <v>2.625</v>
@@ -9234,16 +9237,16 @@
         <v>6836176</v>
       </c>
       <c r="C102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D102" s="2">
         <v>45221.5</v>
       </c>
       <c r="E102" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9252,7 +9255,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J102">
         <v>1.571</v>
@@ -9320,16 +9323,16 @@
         <v>6835782</v>
       </c>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D103" s="2">
         <v>45221.625</v>
       </c>
       <c r="E103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9338,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J103">
         <v>1.444</v>
@@ -9406,16 +9409,16 @@
         <v>6836177</v>
       </c>
       <c r="C104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D104" s="2">
         <v>45222.5</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G104">
         <v>5</v>
@@ -9424,7 +9427,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J104">
         <v>1.571</v>
@@ -9492,16 +9495,16 @@
         <v>6836178</v>
       </c>
       <c r="C105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D105" s="2">
         <v>45222.625</v>
       </c>
       <c r="E105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9510,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J105">
         <v>1.4</v>
@@ -9578,17 +9581,17 @@
         <v>6836131</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D106" s="2">
         <v>45225.58333333334</v>
       </c>
       <c r="E106" t="s">
+        <v>46</v>
+      </c>
+      <c r="F106" t="s">
         <v>45</v>
       </c>
-      <c r="F106" t="s">
-        <v>44</v>
-      </c>
       <c r="G106">
         <v>2</v>
       </c>
@@ -9596,7 +9599,7 @@
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J106">
         <v>1.65</v>
@@ -9664,16 +9667,16 @@
         <v>6835783</v>
       </c>
       <c r="C107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D107" s="2">
         <v>45226.47916666666</v>
       </c>
       <c r="E107" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9682,7 +9685,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J107">
         <v>3</v>
@@ -9750,16 +9753,16 @@
         <v>6836181</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D108" s="2">
         <v>45226.60416666666</v>
       </c>
       <c r="E108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9768,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J108">
         <v>2.4</v>
@@ -9836,16 +9839,16 @@
         <v>6836180</v>
       </c>
       <c r="C109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D109" s="2">
         <v>45227.33333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9854,7 +9857,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J109">
         <v>2.6</v>
@@ -9922,16 +9925,16 @@
         <v>6836183</v>
       </c>
       <c r="C110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D110" s="2">
         <v>45227.60416666666</v>
       </c>
       <c r="E110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9940,7 +9943,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J110">
         <v>3.8</v>
@@ -10008,16 +10011,16 @@
         <v>6836182</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D111" s="2">
         <v>45228.375</v>
       </c>
       <c r="E111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10026,7 +10029,7 @@
         <v>3</v>
       </c>
       <c r="I111" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J111">
         <v>2</v>
@@ -10094,16 +10097,16 @@
         <v>6835207</v>
       </c>
       <c r="C112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D112" s="2">
         <v>45228.64583333334</v>
       </c>
       <c r="E112" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10112,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J112">
         <v>2.3</v>
@@ -10180,16 +10183,16 @@
         <v>6836184</v>
       </c>
       <c r="C113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D113" s="2">
         <v>45229.52083333334</v>
       </c>
       <c r="E113" t="s">
+        <v>50</v>
+      </c>
+      <c r="F113" t="s">
         <v>49</v>
-      </c>
-      <c r="F113" t="s">
-        <v>48</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10198,7 +10201,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -10266,16 +10269,16 @@
         <v>6836185</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D114" s="2">
         <v>45229.64583333334</v>
       </c>
       <c r="E114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -10284,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J114">
         <v>1.909</v>
@@ -10352,16 +10355,16 @@
         <v>6836187</v>
       </c>
       <c r="C115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D115" s="2">
         <v>45233.54166666666</v>
       </c>
       <c r="E115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10370,7 +10373,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J115">
         <v>2.3</v>
@@ -10438,16 +10441,16 @@
         <v>6836190</v>
       </c>
       <c r="C116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D116" s="2">
         <v>45234.48958333334</v>
       </c>
       <c r="E116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10456,7 +10459,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J116">
         <v>1.909</v>
@@ -10524,16 +10527,16 @@
         <v>6836189</v>
       </c>
       <c r="C117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D117" s="2">
         <v>45234.67708333334</v>
       </c>
       <c r="E117" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10542,7 +10545,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J117">
         <v>1.75</v>
@@ -10610,16 +10613,16 @@
         <v>6835784</v>
       </c>
       <c r="C118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D118" s="2">
         <v>45235.41666666666</v>
       </c>
       <c r="E118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10628,7 +10631,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J118">
         <v>2</v>
@@ -10696,16 +10699,16 @@
         <v>6836191</v>
       </c>
       <c r="C119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D119" s="2">
         <v>45235.52083333334</v>
       </c>
       <c r="E119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F119" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10714,7 +10717,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J119">
         <v>1.5</v>
@@ -10782,16 +10785,16 @@
         <v>6835208</v>
       </c>
       <c r="C120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D120" s="2">
         <v>45235.64583333334</v>
       </c>
       <c r="E120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10800,7 +10803,7 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J120">
         <v>2</v>
@@ -10868,16 +10871,16 @@
         <v>6836188</v>
       </c>
       <c r="C121" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D121" s="2">
         <v>45236.54166666666</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10886,7 +10889,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J121">
         <v>1.909</v>
@@ -10954,16 +10957,16 @@
         <v>6836186</v>
       </c>
       <c r="C122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D122" s="2">
         <v>45236.66666666666</v>
       </c>
       <c r="E122" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10972,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J122">
         <v>3.5</v>
@@ -11040,16 +11043,16 @@
         <v>6835209</v>
       </c>
       <c r="C123" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D123" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11058,7 +11061,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J123">
         <v>2.5</v>
@@ -11126,16 +11129,16 @@
         <v>6836197</v>
       </c>
       <c r="C124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D124" s="2">
         <v>45241.375</v>
       </c>
       <c r="E124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11144,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J124">
         <v>2.2</v>
@@ -11212,16 +11215,16 @@
         <v>6836193</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D125" s="2">
         <v>45241.57291666666</v>
       </c>
       <c r="E125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -11230,7 +11233,7 @@
         <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J125">
         <v>4.75</v>
@@ -11298,16 +11301,16 @@
         <v>6836192</v>
       </c>
       <c r="C126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D126" s="2">
         <v>45241.66666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11316,7 +11319,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J126">
         <v>1.833</v>
@@ -11384,16 +11387,16 @@
         <v>6835785</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D127" s="2">
         <v>45242.35416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11402,7 +11405,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J127">
         <v>2.5</v>
@@ -11470,16 +11473,16 @@
         <v>6836195</v>
       </c>
       <c r="C128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D128" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E128" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11488,7 +11491,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J128">
         <v>1.333</v>
@@ -11556,16 +11559,16 @@
         <v>6836196</v>
       </c>
       <c r="C129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D129" s="2">
         <v>45242.66666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11574,7 +11577,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J129">
         <v>1.444</v>
@@ -11642,16 +11645,16 @@
         <v>6836194</v>
       </c>
       <c r="C130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D130" s="2">
         <v>45243.64583333334</v>
       </c>
       <c r="E130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11660,7 +11663,7 @@
         <v>4</v>
       </c>
       <c r="I130" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J130">
         <v>2.15</v>
@@ -11728,16 +11731,16 @@
         <v>6836198</v>
       </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D131" s="2">
         <v>45254.52083333334</v>
       </c>
       <c r="E131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11746,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J131">
         <v>2.05</v>
@@ -11814,16 +11817,16 @@
         <v>6836203</v>
       </c>
       <c r="C132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D132" s="2">
         <v>45254.64583333334</v>
       </c>
       <c r="E132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F132" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11832,7 +11835,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J132">
         <v>1.65</v>
@@ -11900,16 +11903,16 @@
         <v>6835786</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D133" s="2">
         <v>45255.52083333334</v>
       </c>
       <c r="E133" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G133">
         <v>4</v>
@@ -11918,7 +11921,7 @@
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J133">
         <v>3.2</v>
@@ -11986,16 +11989,16 @@
         <v>6836199</v>
       </c>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D134" s="2">
         <v>45255.64583333334</v>
       </c>
       <c r="E134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -12004,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J134">
         <v>1.45</v>
@@ -12072,16 +12075,16 @@
         <v>6836200</v>
       </c>
       <c r="C135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D135" s="2">
         <v>45256.52083333334</v>
       </c>
       <c r="E135" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F135" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12090,7 +12093,7 @@
         <v>3</v>
       </c>
       <c r="I135" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J135">
         <v>3.4</v>
@@ -12158,16 +12161,16 @@
         <v>6836201</v>
       </c>
       <c r="C136" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D136" s="2">
         <v>45256.64583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F136" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12176,7 +12179,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J136">
         <v>9</v>
@@ -12244,16 +12247,16 @@
         <v>6836202</v>
       </c>
       <c r="C137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D137" s="2">
         <v>45257.52083333334</v>
       </c>
       <c r="E137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12262,7 +12265,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J137">
         <v>2.6</v>
@@ -12330,16 +12333,16 @@
         <v>6835210</v>
       </c>
       <c r="C138" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D138" s="2">
         <v>45257.64583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12348,7 +12351,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J138">
         <v>1.833</v>
@@ -12416,16 +12419,16 @@
         <v>6835787</v>
       </c>
       <c r="C139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D139" s="2">
         <v>45261.5</v>
       </c>
       <c r="E139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12434,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J139">
         <v>2.3</v>
@@ -12502,16 +12505,16 @@
         <v>7528972</v>
       </c>
       <c r="C140" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D140" s="2">
         <v>45261.625</v>
       </c>
       <c r="E140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F140" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12520,7 +12523,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J140">
         <v>3.3</v>
@@ -12588,16 +12591,16 @@
         <v>6836204</v>
       </c>
       <c r="C141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D141" s="2">
         <v>45262.375</v>
       </c>
       <c r="E141" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -12606,7 +12609,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J141">
         <v>2.5</v>
@@ -12674,16 +12677,16 @@
         <v>6835211</v>
       </c>
       <c r="C142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D142" s="2">
         <v>45262.5</v>
       </c>
       <c r="E142" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12692,7 +12695,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J142">
         <v>4.2</v>
@@ -12760,16 +12763,16 @@
         <v>6836205</v>
       </c>
       <c r="C143" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D143" s="2">
         <v>45262.64583333334</v>
       </c>
       <c r="E143" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12778,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J143">
         <v>2.6</v>
@@ -12846,16 +12849,16 @@
         <v>6836208</v>
       </c>
       <c r="C144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D144" s="2">
         <v>45263.45833333334</v>
       </c>
       <c r="E144" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12864,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -12932,16 +12935,16 @@
         <v>6836206</v>
       </c>
       <c r="C145" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D145" s="2">
         <v>45263.66666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -12950,7 +12953,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J145">
         <v>1.363</v>
@@ -13018,16 +13021,16 @@
         <v>6836207</v>
       </c>
       <c r="C146" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D146" s="2">
         <v>45264.625</v>
       </c>
       <c r="E146" t="s">
+        <v>44</v>
+      </c>
+      <c r="F146" t="s">
         <v>43</v>
-      </c>
-      <c r="F146" t="s">
-        <v>42</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13036,7 +13039,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J146">
         <v>1.6</v>
@@ -13104,16 +13107,16 @@
         <v>6836215</v>
       </c>
       <c r="C147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D147" s="2">
         <v>45268.58333333334</v>
       </c>
       <c r="E147" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F147" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13122,7 +13125,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J147">
         <v>2.3</v>
@@ -13190,16 +13193,16 @@
         <v>6835212</v>
       </c>
       <c r="C148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D148" s="2">
         <v>45269.65625</v>
       </c>
       <c r="E148" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13208,7 +13211,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J148">
         <v>1.7</v>
@@ -13276,16 +13279,16 @@
         <v>6836210</v>
       </c>
       <c r="C149" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D149" s="2">
         <v>45270.375</v>
       </c>
       <c r="E149" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F149" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13294,7 +13297,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J149">
         <v>2.875</v>
@@ -13362,16 +13365,16 @@
         <v>6836216</v>
       </c>
       <c r="C150" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D150" s="2">
         <v>45270.5</v>
       </c>
       <c r="E150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13380,7 +13383,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J150">
         <v>1.9</v>
@@ -13448,16 +13451,16 @@
         <v>6836211</v>
       </c>
       <c r="C151" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D151" s="2">
         <v>45270.625</v>
       </c>
       <c r="E151" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F151" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13466,7 +13469,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J151">
         <v>2.7</v>
@@ -13534,16 +13537,16 @@
         <v>6836214</v>
       </c>
       <c r="C152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D152" s="2">
         <v>45271.5</v>
       </c>
       <c r="E152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F152" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13552,7 +13555,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J152">
         <v>1.85</v>
@@ -13620,16 +13623,16 @@
         <v>6836213</v>
       </c>
       <c r="C153" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D153" s="2">
         <v>45271.65625</v>
       </c>
       <c r="E153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F153" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13638,7 +13641,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J153">
         <v>3.25</v>
@@ -13706,16 +13709,16 @@
         <v>6836212</v>
       </c>
       <c r="C154" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D154" s="2">
         <v>45272.5</v>
       </c>
       <c r="E154" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13724,7 +13727,7 @@
         <v>3</v>
       </c>
       <c r="I154" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J154">
         <v>2.7</v>
@@ -13792,16 +13795,16 @@
         <v>6835788</v>
       </c>
       <c r="C155" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D155" s="2">
         <v>45275.5</v>
       </c>
       <c r="E155" t="s">
+        <v>42</v>
+      </c>
+      <c r="F155" t="s">
         <v>41</v>
-      </c>
-      <c r="F155" t="s">
-        <v>40</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13810,7 +13813,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J155">
         <v>2.3</v>
@@ -13878,16 +13881,16 @@
         <v>6835213</v>
       </c>
       <c r="C156" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D156" s="2">
         <v>45275.625</v>
       </c>
       <c r="E156" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13896,7 +13899,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J156">
         <v>3.1</v>
@@ -13964,16 +13967,16 @@
         <v>6836222</v>
       </c>
       <c r="C157" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D157" s="2">
         <v>45276.375</v>
       </c>
       <c r="E157" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13982,7 +13985,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J157">
         <v>3.1</v>
@@ -14050,16 +14053,16 @@
         <v>6836221</v>
       </c>
       <c r="C158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D158" s="2">
         <v>45276.5</v>
       </c>
       <c r="E158" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F158" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14068,7 +14071,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J158">
         <v>1.45</v>
@@ -14136,16 +14139,16 @@
         <v>6836217</v>
       </c>
       <c r="C159" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D159" s="2">
         <v>45276.625</v>
       </c>
       <c r="E159" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G159">
         <v>3</v>
@@ -14154,7 +14157,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J159">
         <v>1.666</v>
@@ -14222,16 +14225,16 @@
         <v>6836219</v>
       </c>
       <c r="C160" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D160" s="2">
         <v>45277.41666666666</v>
       </c>
       <c r="E160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14240,7 +14243,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J160">
         <v>1.8</v>
@@ -14308,16 +14311,16 @@
         <v>6836218</v>
       </c>
       <c r="C161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D161" s="2">
         <v>45277.66666666666</v>
       </c>
       <c r="E161" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -14326,7 +14329,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J161">
         <v>3.3</v>
@@ -14394,16 +14397,16 @@
         <v>6836220</v>
       </c>
       <c r="C162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D162" s="2">
         <v>45278.625</v>
       </c>
       <c r="E162" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F162" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -14412,7 +14415,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J162">
         <v>2.25</v>
@@ -14480,17 +14483,17 @@
         <v>6836227</v>
       </c>
       <c r="C163" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D163" s="2">
         <v>45279.52083333334</v>
       </c>
       <c r="E163" t="s">
+        <v>41</v>
+      </c>
+      <c r="F163" t="s">
         <v>40</v>
       </c>
-      <c r="F163" t="s">
-        <v>39</v>
-      </c>
       <c r="G163">
         <v>2</v>
       </c>
@@ -14498,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J163">
         <v>2.1</v>
@@ -14566,16 +14569,16 @@
         <v>6836226</v>
       </c>
       <c r="C164" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D164" s="2">
         <v>45279.64583333334</v>
       </c>
       <c r="E164" t="s">
+        <v>48</v>
+      </c>
+      <c r="F164" t="s">
         <v>47</v>
-      </c>
-      <c r="F164" t="s">
-        <v>46</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14584,7 +14587,7 @@
         <v>3</v>
       </c>
       <c r="I164" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J164">
         <v>5.25</v>
@@ -14652,16 +14655,16 @@
         <v>6836228</v>
       </c>
       <c r="C165" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D165" s="2">
         <v>45280.52083333334</v>
       </c>
       <c r="E165" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F165" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14670,7 +14673,7 @@
         <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J165">
         <v>4.5</v>
@@ -14738,16 +14741,16 @@
         <v>6835214</v>
       </c>
       <c r="C166" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D166" s="2">
         <v>45280.64583333334</v>
       </c>
       <c r="E166" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14756,7 +14759,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J166">
         <v>2.25</v>
@@ -14824,16 +14827,16 @@
         <v>6836223</v>
       </c>
       <c r="C167" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D167" s="2">
         <v>45281.5</v>
       </c>
       <c r="E167" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F167" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14842,7 +14845,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J167">
         <v>2.5</v>
@@ -14910,16 +14913,16 @@
         <v>6836224</v>
       </c>
       <c r="C168" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D168" s="2">
         <v>45281.61458333334</v>
       </c>
       <c r="E168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F168" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G168">
         <v>4</v>
@@ -14928,7 +14931,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J168">
         <v>1.95</v>
@@ -14996,16 +14999,16 @@
         <v>6836225</v>
       </c>
       <c r="C169" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D169" s="2">
         <v>45282.52083333334</v>
       </c>
       <c r="E169" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F169" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -15014,7 +15017,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J169">
         <v>1.909</v>
@@ -15082,16 +15085,16 @@
         <v>6835789</v>
       </c>
       <c r="C170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D170" s="2">
         <v>45282.64583333334</v>
       </c>
       <c r="E170" t="s">
+        <v>43</v>
+      </c>
+      <c r="F170" t="s">
         <v>42</v>
-      </c>
-      <c r="F170" t="s">
-        <v>41</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15100,7 +15103,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J170">
         <v>2.875</v>
@@ -15168,16 +15171,16 @@
         <v>6836231</v>
       </c>
       <c r="C171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D171" s="2">
         <v>45310.5</v>
       </c>
       <c r="E171" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F171" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G171">
         <v>6</v>
@@ -15186,7 +15189,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J171">
         <v>1.727</v>
@@ -15254,16 +15257,16 @@
         <v>6835215</v>
       </c>
       <c r="C172" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D172" s="2">
         <v>45310.625</v>
       </c>
       <c r="E172" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F172" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G172">
         <v>4</v>
@@ -15272,7 +15275,7 @@
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J172">
         <v>1.833</v>
@@ -15340,16 +15343,16 @@
         <v>6836229</v>
       </c>
       <c r="C173" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D173" s="2">
         <v>45311.5</v>
       </c>
       <c r="E173" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -15358,7 +15361,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J173">
         <v>2.1</v>
@@ -15426,16 +15429,16 @@
         <v>6836232</v>
       </c>
       <c r="C174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D174" s="2">
         <v>45311.625</v>
       </c>
       <c r="E174" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F174" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15444,7 +15447,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J174">
         <v>2</v>
@@ -15512,16 +15515,16 @@
         <v>6836230</v>
       </c>
       <c r="C175" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D175" s="2">
         <v>45312.41666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15530,7 +15533,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J175">
         <v>4.75</v>
@@ -15598,16 +15601,16 @@
         <v>6836234</v>
       </c>
       <c r="C176" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D176" s="2">
         <v>45312.625</v>
       </c>
       <c r="E176" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F176" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15616,7 +15619,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J176">
         <v>1.833</v>
@@ -15684,16 +15687,16 @@
         <v>6835790</v>
       </c>
       <c r="C177" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D177" s="2">
         <v>45313.5</v>
       </c>
       <c r="E177" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15702,7 +15705,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J177">
         <v>2.625</v>
@@ -15770,16 +15773,16 @@
         <v>6836233</v>
       </c>
       <c r="C178" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D178" s="2">
         <v>45313.625</v>
       </c>
       <c r="E178" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F178" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G178">
         <v>4</v>
@@ -15788,7 +15791,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J178">
         <v>1.363</v>
@@ -15856,16 +15859,16 @@
         <v>6836236</v>
       </c>
       <c r="C179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D179" s="2">
         <v>45317.625</v>
       </c>
       <c r="E179" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -15874,7 +15877,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J179">
         <v>1.85</v>
@@ -15942,16 +15945,16 @@
         <v>6836240</v>
       </c>
       <c r="C180" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D180" s="2">
         <v>45318.375</v>
       </c>
       <c r="E180" t="s">
+        <v>45</v>
+      </c>
+      <c r="F180" t="s">
         <v>44</v>
-      </c>
-      <c r="F180" t="s">
-        <v>43</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -15960,7 +15963,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J180">
         <v>3</v>
@@ -16028,16 +16031,16 @@
         <v>6836239</v>
       </c>
       <c r="C181" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D181" s="2">
         <v>45318.5</v>
       </c>
       <c r="E181" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F181" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16046,7 +16049,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J181">
         <v>2.4</v>
@@ -16114,16 +16117,16 @@
         <v>6835216</v>
       </c>
       <c r="C182" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D182" s="2">
         <v>45318.625</v>
       </c>
       <c r="E182" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16132,7 +16135,7 @@
         <v>2</v>
       </c>
       <c r="I182" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J182">
         <v>4</v>
@@ -16200,16 +16203,16 @@
         <v>6836237</v>
       </c>
       <c r="C183" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D183" s="2">
         <v>45319.375</v>
       </c>
       <c r="E183" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F183" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16218,7 +16221,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J183">
         <v>1.666</v>
@@ -16286,16 +16289,16 @@
         <v>6836238</v>
       </c>
       <c r="C184" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D184" s="2">
         <v>45319.5</v>
       </c>
       <c r="E184" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F184" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16304,7 +16307,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J184">
         <v>3.3</v>
@@ -16372,16 +16375,16 @@
         <v>6836235</v>
       </c>
       <c r="C185" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D185" s="2">
         <v>45319.625</v>
       </c>
       <c r="E185" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F185" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -16390,7 +16393,7 @@
         <v>3</v>
       </c>
       <c r="I185" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J185">
         <v>2.7</v>
@@ -16458,16 +16461,16 @@
         <v>6835791</v>
       </c>
       <c r="C186" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D186" s="2">
         <v>45320.625</v>
       </c>
       <c r="E186" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F186" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G186">
         <v>4</v>
@@ -16476,7 +16479,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J186">
         <v>1.571</v>
@@ -16544,16 +16547,16 @@
         <v>6836241</v>
       </c>
       <c r="C187" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D187" s="2">
         <v>45324.5</v>
       </c>
       <c r="E187" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F187" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G187">
         <v>2</v>
@@ -16562,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J187">
         <v>2.5</v>
@@ -16630,16 +16633,16 @@
         <v>6836245</v>
       </c>
       <c r="C188" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D188" s="2">
         <v>45324.625</v>
       </c>
       <c r="E188" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F188" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16648,7 +16651,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J188">
         <v>1.909</v>
@@ -16716,16 +16719,16 @@
         <v>6836242</v>
       </c>
       <c r="C189" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D189" s="2">
         <v>45325.5</v>
       </c>
       <c r="E189" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -16734,7 +16737,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J189">
         <v>3</v>
@@ -16802,16 +16805,16 @@
         <v>6835217</v>
       </c>
       <c r="C190" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D190" s="2">
         <v>45325.625</v>
       </c>
       <c r="E190" t="s">
+        <v>38</v>
+      </c>
+      <c r="F190" t="s">
         <v>37</v>
-      </c>
-      <c r="F190" t="s">
-        <v>36</v>
       </c>
       <c r="G190">
         <v>2</v>
@@ -16820,7 +16823,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J190">
         <v>1.8</v>
@@ -16888,16 +16891,16 @@
         <v>6836243</v>
       </c>
       <c r="C191" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D191" s="2">
         <v>45326.33333333334</v>
       </c>
       <c r="E191" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F191" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16906,7 +16909,7 @@
         <v>3</v>
       </c>
       <c r="I191" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J191">
         <v>1.8</v>
@@ -16974,16 +16977,16 @@
         <v>6836244</v>
       </c>
       <c r="C192" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D192" s="2">
         <v>45326.4375</v>
       </c>
       <c r="E192" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F192" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -16992,7 +16995,7 @@
         <v>3</v>
       </c>
       <c r="I192" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J192">
         <v>2.6</v>
@@ -17060,16 +17063,16 @@
         <v>6835792</v>
       </c>
       <c r="C193" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D193" s="2">
         <v>45327.5</v>
       </c>
       <c r="E193" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F193" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17078,7 +17081,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J193">
         <v>2.6</v>
@@ -17146,16 +17149,16 @@
         <v>6836246</v>
       </c>
       <c r="C194" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D194" s="2">
         <v>45327.625</v>
       </c>
       <c r="E194" t="s">
+        <v>47</v>
+      </c>
+      <c r="F194" t="s">
         <v>46</v>
-      </c>
-      <c r="F194" t="s">
-        <v>45</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17164,7 +17167,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J194">
         <v>1.8</v>
@@ -17232,16 +17235,16 @@
         <v>6836251</v>
       </c>
       <c r="C195" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D195" s="2">
         <v>45331.5</v>
       </c>
       <c r="E195" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F195" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17250,7 +17253,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J195">
         <v>2.4</v>
@@ -17318,16 +17321,16 @@
         <v>6836250</v>
       </c>
       <c r="C196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D196" s="2">
         <v>45331.625</v>
       </c>
       <c r="E196" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -17336,7 +17339,7 @@
         <v>2</v>
       </c>
       <c r="I196" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J196">
         <v>1.85</v>
@@ -17404,16 +17407,16 @@
         <v>6835793</v>
       </c>
       <c r="C197" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D197" s="2">
         <v>45332.375</v>
       </c>
       <c r="E197" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -17422,7 +17425,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J197">
         <v>2.45</v>
@@ -17490,16 +17493,16 @@
         <v>6835218</v>
       </c>
       <c r="C198" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D198" s="2">
         <v>45332.67708333334</v>
       </c>
       <c r="E198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -17508,7 +17511,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J198">
         <v>2.15</v>
@@ -17576,16 +17579,16 @@
         <v>6836247</v>
       </c>
       <c r="C199" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D199" s="2">
         <v>45333.55208333334</v>
       </c>
       <c r="E199" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F199" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -17594,7 +17597,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J199">
         <v>2.25</v>
@@ -17662,16 +17665,16 @@
         <v>6836252</v>
       </c>
       <c r="C200" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D200" s="2">
         <v>45333.65625</v>
       </c>
       <c r="E200" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F200" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -17680,7 +17683,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J200">
         <v>1.666</v>
@@ -17748,16 +17751,16 @@
         <v>6836249</v>
       </c>
       <c r="C201" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D201" s="2">
         <v>45334.5</v>
       </c>
       <c r="E201" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F201" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17766,7 +17769,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J201">
         <v>1.909</v>
@@ -17834,16 +17837,16 @@
         <v>6836253</v>
       </c>
       <c r="C202" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D202" s="2">
         <v>45334.625</v>
       </c>
       <c r="E202" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F202" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17852,7 +17855,7 @@
         <v>2</v>
       </c>
       <c r="I202" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J202">
         <v>1.55</v>
@@ -17920,16 +17923,16 @@
         <v>6836254</v>
       </c>
       <c r="C203" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D203" s="2">
         <v>45338.5</v>
       </c>
       <c r="E203" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F203" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17938,7 +17941,7 @@
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J203">
         <v>2.15</v>
@@ -18006,16 +18009,16 @@
         <v>6835219</v>
       </c>
       <c r="C204" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D204" s="2">
         <v>45338.625</v>
       </c>
       <c r="E204" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F204" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G204">
         <v>2</v>
@@ -18024,7 +18027,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J204">
         <v>1.833</v>
@@ -18092,16 +18095,16 @@
         <v>6835794</v>
       </c>
       <c r="C205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D205" s="2">
         <v>45339.375</v>
       </c>
       <c r="E205" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F205" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -18110,7 +18113,7 @@
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J205">
         <v>2.4</v>
@@ -18178,16 +18181,16 @@
         <v>6836256</v>
       </c>
       <c r="C206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D206" s="2">
         <v>45339.6875</v>
       </c>
       <c r="E206" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F206" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -18196,7 +18199,7 @@
         <v>3</v>
       </c>
       <c r="I206" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J206">
         <v>3.1</v>
@@ -18264,16 +18267,16 @@
         <v>6836255</v>
       </c>
       <c r="C207" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D207" s="2">
         <v>45340.51041666666</v>
       </c>
       <c r="E207" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F207" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18282,7 +18285,7 @@
         <v>2</v>
       </c>
       <c r="I207" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J207">
         <v>3.4</v>
@@ -18350,16 +18353,16 @@
         <v>6836258</v>
       </c>
       <c r="C208" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D208" s="2">
         <v>45340.625</v>
       </c>
       <c r="E208" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F208" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G208">
         <v>3</v>
@@ -18368,7 +18371,7 @@
         <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J208">
         <v>2.5</v>
@@ -18436,16 +18439,16 @@
         <v>6836259</v>
       </c>
       <c r="C209" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D209" s="2">
         <v>45341.52083333334</v>
       </c>
       <c r="E209" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F209" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -18454,7 +18457,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J209">
         <v>2.3</v>
@@ -18522,16 +18525,16 @@
         <v>6836257</v>
       </c>
       <c r="C210" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D210" s="2">
         <v>45341.64583333334</v>
       </c>
       <c r="E210" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F210" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -18540,7 +18543,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J210">
         <v>3.6</v>
@@ -18608,16 +18611,16 @@
         <v>6836260</v>
       </c>
       <c r="C211" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D211" s="2">
         <v>45345.5</v>
       </c>
       <c r="E211" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F211" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18626,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J211">
         <v>2.1</v>
@@ -18694,16 +18697,16 @@
         <v>6836263</v>
       </c>
       <c r="C212" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D212" s="2">
         <v>45345.625</v>
       </c>
       <c r="E212" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F212" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G212">
         <v>4</v>
@@ -18712,7 +18715,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J212">
         <v>1.5</v>
@@ -18780,16 +18783,16 @@
         <v>6836261</v>
       </c>
       <c r="C213" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D213" s="2">
         <v>45346.375</v>
       </c>
       <c r="E213" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F213" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -18798,7 +18801,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J213">
         <v>2.4</v>
@@ -18866,16 +18869,16 @@
         <v>6836265</v>
       </c>
       <c r="C214" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D214" s="2">
         <v>45346.5</v>
       </c>
       <c r="E214" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F214" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -18884,7 +18887,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J214">
         <v>1.833</v>
@@ -18952,16 +18955,16 @@
         <v>6835220</v>
       </c>
       <c r="C215" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D215" s="2">
         <v>45346.625</v>
       </c>
       <c r="E215" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F215" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G215">
         <v>3</v>
@@ -18970,7 +18973,7 @@
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J215">
         <v>4.2</v>
@@ -19038,16 +19041,16 @@
         <v>6836264</v>
       </c>
       <c r="C216" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D216" s="2">
         <v>45347.375</v>
       </c>
       <c r="E216" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F216" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -19056,7 +19059,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J216">
         <v>2.25</v>
@@ -19124,16 +19127,16 @@
         <v>6836262</v>
       </c>
       <c r="C217" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D217" s="2">
         <v>45347.625</v>
       </c>
       <c r="E217" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F217" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G217">
         <v>3</v>
@@ -19142,7 +19145,7 @@
         <v>2</v>
       </c>
       <c r="I217" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J217">
         <v>1.363</v>
@@ -19210,16 +19213,16 @@
         <v>6835795</v>
       </c>
       <c r="C218" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D218" s="2">
         <v>45348.625</v>
       </c>
       <c r="E218" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F218" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19228,7 +19231,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J218">
         <v>1.533</v>
@@ -19296,16 +19299,16 @@
         <v>6836267</v>
       </c>
       <c r="C219" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D219" s="2">
         <v>45349.46875</v>
       </c>
       <c r="E219" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F219" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19314,7 +19317,7 @@
         <v>1</v>
       </c>
       <c r="I219" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J219">
         <v>1.615</v>
@@ -19382,16 +19385,16 @@
         <v>6836266</v>
       </c>
       <c r="C220" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D220" s="2">
         <v>45349.5625</v>
       </c>
       <c r="E220" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F220" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -19400,7 +19403,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J220">
         <v>2.3</v>
@@ -19468,17 +19471,17 @@
         <v>6836271</v>
       </c>
       <c r="C221" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D221" s="2">
         <v>45349.66666666666</v>
       </c>
       <c r="E221" t="s">
+        <v>37</v>
+      </c>
+      <c r="F221" t="s">
         <v>36</v>
       </c>
-      <c r="F221" t="s">
-        <v>35</v>
-      </c>
       <c r="G221">
         <v>2</v>
       </c>
@@ -19486,7 +19489,7 @@
         <v>2</v>
       </c>
       <c r="I221" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J221">
         <v>4.2</v>
@@ -19554,16 +19557,16 @@
         <v>6836272</v>
       </c>
       <c r="C222" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D222" s="2">
         <v>45350.5625</v>
       </c>
       <c r="E222" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F222" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -19572,7 +19575,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J222">
         <v>2.7</v>
@@ -19640,16 +19643,16 @@
         <v>6835221</v>
       </c>
       <c r="C223" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D223" s="2">
         <v>45350.66666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F223" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G223">
         <v>4</v>
@@ -19658,7 +19661,7 @@
         <v>1</v>
       </c>
       <c r="I223" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J223">
         <v>1.727</v>
@@ -19726,16 +19729,16 @@
         <v>6836270</v>
       </c>
       <c r="C224" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D224" s="2">
         <v>45351.46875</v>
       </c>
       <c r="E224" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F224" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19744,7 +19747,7 @@
         <v>2</v>
       </c>
       <c r="I224" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J224">
         <v>3.2</v>
@@ -19812,16 +19815,16 @@
         <v>6836268</v>
       </c>
       <c r="C225" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D225" s="2">
         <v>45351.5625</v>
       </c>
       <c r="E225" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F225" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -19830,7 +19833,7 @@
         <v>3</v>
       </c>
       <c r="I225" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J225">
         <v>3</v>
@@ -19898,16 +19901,16 @@
         <v>6836269</v>
       </c>
       <c r="C226" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D226" s="2">
         <v>45351.66666666666</v>
       </c>
       <c r="E226" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F226" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -19916,7 +19919,7 @@
         <v>2</v>
       </c>
       <c r="I226" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J226">
         <v>4</v>
@@ -19984,16 +19987,16 @@
         <v>6836274</v>
       </c>
       <c r="C227" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D227" s="2">
         <v>45352.625</v>
       </c>
       <c r="E227" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F227" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -20002,7 +20005,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J227">
         <v>2.4</v>
@@ -20070,16 +20073,16 @@
         <v>6836275</v>
       </c>
       <c r="C228" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D228" s="2">
         <v>45353.375</v>
       </c>
       <c r="E228" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F228" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G228">
         <v>3</v>
@@ -20088,7 +20091,7 @@
         <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J228">
         <v>2.25</v>
@@ -20156,16 +20159,16 @@
         <v>6836273</v>
       </c>
       <c r="C229" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D229" s="2">
         <v>45353.5</v>
       </c>
       <c r="E229" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F229" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G229">
         <v>4</v>
@@ -20174,7 +20177,7 @@
         <v>1</v>
       </c>
       <c r="I229" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J229">
         <v>2.1</v>
@@ -20242,16 +20245,16 @@
         <v>6907421</v>
       </c>
       <c r="C230" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D230" s="2">
         <v>45353.625</v>
       </c>
       <c r="E230" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F230" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20260,7 +20263,7 @@
         <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J230">
         <v>2.7</v>
@@ -20328,16 +20331,16 @@
         <v>6838744</v>
       </c>
       <c r="C231" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D231" s="2">
         <v>45354.39583333334</v>
       </c>
       <c r="E231" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F231" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -20346,7 +20349,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J231">
         <v>1.8</v>
@@ -20414,16 +20417,16 @@
         <v>6848293</v>
       </c>
       <c r="C232" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D232" s="2">
         <v>45354.64583333334</v>
       </c>
       <c r="E232" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F232" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -20432,7 +20435,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J232">
         <v>1.6</v>
@@ -20500,16 +20503,16 @@
         <v>6848294</v>
       </c>
       <c r="C233" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D233" s="2">
         <v>45355.5</v>
       </c>
       <c r="E233" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F233" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G233">
         <v>4</v>
@@ -20518,7 +20521,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J233">
         <v>1.8</v>
@@ -20586,16 +20589,16 @@
         <v>6836276</v>
       </c>
       <c r="C234" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D234" s="2">
         <v>45355.625</v>
       </c>
       <c r="E234" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F234" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -20604,7 +20607,7 @@
         <v>1</v>
       </c>
       <c r="I234" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J234">
         <v>2.5</v>
@@ -20672,16 +20675,16 @@
         <v>6870268</v>
       </c>
       <c r="C235" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D235" s="2">
         <v>45359.625</v>
       </c>
       <c r="E235" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F235" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -20690,7 +20693,7 @@
         <v>2</v>
       </c>
       <c r="I235" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J235">
         <v>2.8</v>
@@ -20755,20 +20758,20 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6861095</v>
+        <v>6865915</v>
       </c>
       <c r="C236" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D236" s="2">
         <v>45359.625</v>
       </c>
       <c r="E236" t="s">
+        <v>42</v>
+      </c>
+      <c r="F236" t="s">
         <v>49</v>
       </c>
-      <c r="F236" t="s">
-        <v>45</v>
-      </c>
       <c r="G236">
         <v>0</v>
       </c>
@@ -20776,55 +20779,55 @@
         <v>0</v>
       </c>
       <c r="I236" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J236">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K236">
+        <v>3.25</v>
+      </c>
+      <c r="L236">
+        <v>2.05</v>
+      </c>
+      <c r="M236">
         <v>3.4</v>
       </c>
-      <c r="L236">
-        <v>1.909</v>
-      </c>
-      <c r="M236">
+      <c r="N236">
         <v>3.1</v>
       </c>
-      <c r="N236">
-        <v>3</v>
-      </c>
       <c r="O236">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="P236">
         <v>0.25</v>
       </c>
       <c r="Q236">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R236">
+        <v>1.875</v>
+      </c>
+      <c r="S236">
+        <v>2.25</v>
+      </c>
+      <c r="T236">
+        <v>2.05</v>
+      </c>
+      <c r="U236">
+        <v>1.75</v>
+      </c>
+      <c r="V236">
+        <v>-1</v>
+      </c>
+      <c r="W236">
         <v>2.1</v>
       </c>
-      <c r="S236">
-        <v>2</v>
-      </c>
-      <c r="T236">
-        <v>1.8</v>
-      </c>
-      <c r="U236">
-        <v>2.05</v>
-      </c>
-      <c r="V236">
-        <v>-1</v>
-      </c>
-      <c r="W236">
-        <v>2</v>
-      </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>0.3875</v>
+        <v>0.4875</v>
       </c>
       <c r="Z236">
         <v>-0.5</v>
@@ -20833,7 +20836,7 @@
         <v>-1</v>
       </c>
       <c r="AB236">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="237" spans="1:28">
@@ -20841,22 +20844,22 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6865915</v>
+        <v>6836277</v>
       </c>
       <c r="C237" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D237" s="2">
         <v>45359.625</v>
       </c>
       <c r="E237" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F237" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -20865,52 +20868,52 @@
         <v>52</v>
       </c>
       <c r="J237">
+        <v>1.7</v>
+      </c>
+      <c r="K237">
+        <v>3.4</v>
+      </c>
+      <c r="L237">
+        <v>5</v>
+      </c>
+      <c r="M237">
+        <v>1.65</v>
+      </c>
+      <c r="N237">
         <v>3.5</v>
       </c>
-      <c r="K237">
-        <v>3.25</v>
-      </c>
-      <c r="L237">
-        <v>2.05</v>
-      </c>
-      <c r="M237">
-        <v>3.4</v>
-      </c>
-      <c r="N237">
-        <v>3.1</v>
-      </c>
       <c r="O237">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="P237">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q237">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R237">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S237">
         <v>2.25</v>
       </c>
       <c r="T237">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U237">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V237">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W237">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="Z237">
         <v>-0.5</v>
@@ -20919,7 +20922,7 @@
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="238" spans="1:28">
@@ -20927,19 +20930,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6836277</v>
+        <v>6852370</v>
       </c>
       <c r="C238" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D238" s="2">
         <v>45359.625</v>
       </c>
       <c r="E238" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F238" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -20948,46 +20951,46 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J238">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="K238">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="L238">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M238">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="N238">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O238">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P238">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q238">
+        <v>2</v>
+      </c>
+      <c r="R238">
         <v>1.85</v>
-      </c>
-      <c r="R238">
-        <v>2</v>
       </c>
       <c r="S238">
         <v>2.25</v>
       </c>
       <c r="T238">
+        <v>1.975</v>
+      </c>
+      <c r="U238">
         <v>1.875</v>
       </c>
-      <c r="U238">
-        <v>1.975</v>
-      </c>
       <c r="V238">
-        <v>0.6499999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="W238">
         <v>-1</v>
@@ -20996,16 +20999,16 @@
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="Z238">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
         <v>-1</v>
       </c>
       <c r="AB238">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="239" spans="1:28">
@@ -21013,85 +21016,85 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6852370</v>
+        <v>6861095</v>
       </c>
       <c r="C239" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D239" s="2">
         <v>45359.625</v>
       </c>
       <c r="E239" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F239" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H239">
         <v>0</v>
       </c>
       <c r="I239" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J239">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="K239">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="L239">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="M239">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="N239">
         <v>3</v>
       </c>
       <c r="O239">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="P239">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q239">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R239">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S239">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T239">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U239">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V239">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>1</v>
+        <v>0.3875</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA239">
         <v>-1</v>
       </c>
       <c r="AB239">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="240" spans="1:28">
@@ -21102,16 +21105,16 @@
         <v>6870267</v>
       </c>
       <c r="C240" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D240" s="2">
         <v>45360.625</v>
       </c>
       <c r="E240" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F240" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -21120,7 +21123,7 @@
         <v>4</v>
       </c>
       <c r="I240" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J240">
         <v>2.45</v>
@@ -21188,16 +21191,16 @@
         <v>6836278</v>
       </c>
       <c r="C241" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D241" s="2">
         <v>45361.65625</v>
       </c>
       <c r="E241" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F241" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -21206,7 +21209,7 @@
         <v>2</v>
       </c>
       <c r="I241" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J241">
         <v>3.6</v>
@@ -21274,16 +21277,16 @@
         <v>6836954</v>
       </c>
       <c r="C242" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D242" s="2">
         <v>45362.625</v>
       </c>
       <c r="E242" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F242" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -21292,7 +21295,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J242">
         <v>2.15</v>
@@ -21360,16 +21363,16 @@
         <v>7951557</v>
       </c>
       <c r="C243" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D243" s="2">
         <v>45366.52083333334</v>
       </c>
       <c r="E243" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F243" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G243">
         <v>3</v>
@@ -21378,7 +21381,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J243">
         <v>1.615</v>
@@ -21446,16 +21449,16 @@
         <v>7949044</v>
       </c>
       <c r="C244" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D244" s="2">
         <v>45366.64583333334</v>
       </c>
       <c r="E244" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F244" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -21464,7 +21467,7 @@
         <v>2</v>
       </c>
       <c r="I244" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J244">
         <v>1.75</v>
@@ -21532,16 +21535,16 @@
         <v>7951558</v>
       </c>
       <c r="C245" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D245" s="2">
         <v>45367.5</v>
       </c>
       <c r="E245" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F245" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G245">
         <v>1</v>
@@ -21550,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J245">
         <v>2.1</v>
@@ -21618,16 +21621,16 @@
         <v>7949046</v>
       </c>
       <c r="C246" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D246" s="2">
         <v>45367.625</v>
       </c>
       <c r="E246" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F246" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G246">
         <v>1</v>
@@ -21636,7 +21639,7 @@
         <v>2</v>
       </c>
       <c r="I246" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J246">
         <v>2.05</v>
@@ -21704,16 +21707,16 @@
         <v>7951775</v>
       </c>
       <c r="C247" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D247" s="2">
         <v>45368.55208333334</v>
       </c>
       <c r="E247" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F247" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G247">
         <v>3</v>
@@ -21722,7 +21725,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J247">
         <v>1.909</v>
@@ -21790,16 +21793,16 @@
         <v>7953049</v>
       </c>
       <c r="C248" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D248" s="2">
         <v>45368.66666666666</v>
       </c>
       <c r="E248" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F248" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G248">
         <v>2</v>
@@ -21808,7 +21811,7 @@
         <v>1</v>
       </c>
       <c r="I248" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J248">
         <v>1.65</v>
@@ -21876,16 +21879,16 @@
         <v>7951776</v>
       </c>
       <c r="C249" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D249" s="2">
         <v>45369.52083333334</v>
       </c>
       <c r="E249" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F249" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G249">
         <v>4</v>
@@ -21894,7 +21897,7 @@
         <v>3</v>
       </c>
       <c r="I249" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J249">
         <v>1.909</v>
@@ -21962,16 +21965,16 @@
         <v>7951777</v>
       </c>
       <c r="C250" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D250" s="2">
         <v>45369.64583333334</v>
       </c>
       <c r="E250" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F250" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -21980,7 +21983,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J250">
         <v>2.25</v>
@@ -22048,16 +22051,16 @@
         <v>7951781</v>
       </c>
       <c r="C251" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D251" s="2">
         <v>45380.52083333334</v>
       </c>
       <c r="E251" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F251" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -22066,7 +22069,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J251">
         <v>3</v>
@@ -22134,16 +22137,16 @@
         <v>7951750</v>
       </c>
       <c r="C252" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D252" s="2">
         <v>45380.64583333334</v>
       </c>
       <c r="E252" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F252" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G252">
         <v>1</v>
@@ -22152,7 +22155,7 @@
         <v>1</v>
       </c>
       <c r="I252" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J252">
         <v>3.3</v>
@@ -22220,16 +22223,16 @@
         <v>8010912</v>
       </c>
       <c r="C253" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D253" s="2">
         <v>45381.44791666666</v>
       </c>
       <c r="E253" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F253" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G253">
         <v>2</v>
@@ -22238,7 +22241,7 @@
         <v>1</v>
       </c>
       <c r="I253" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J253">
         <v>2.55</v>
@@ -22306,16 +22309,16 @@
         <v>8010913</v>
       </c>
       <c r="C254" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D254" s="2">
         <v>45381.54166666666</v>
       </c>
       <c r="E254" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F254" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -22324,7 +22327,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J254">
         <v>1.95</v>
@@ -22392,16 +22395,16 @@
         <v>7951749</v>
       </c>
       <c r="C255" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D255" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E255" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F255" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G255">
         <v>2</v>
@@ -22410,7 +22413,7 @@
         <v>1</v>
       </c>
       <c r="I255" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J255">
         <v>2.1</v>
@@ -22478,16 +22481,16 @@
         <v>7951779</v>
       </c>
       <c r="C256" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D256" s="2">
         <v>45382.33333333334</v>
       </c>
       <c r="E256" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F256" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G256">
         <v>1</v>
@@ -22496,7 +22499,7 @@
         <v>2</v>
       </c>
       <c r="I256" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J256">
         <v>2.3</v>
@@ -22564,16 +22567,16 @@
         <v>7951748</v>
       </c>
       <c r="C257" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D257" s="2">
         <v>45382.625</v>
       </c>
       <c r="E257" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F257" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -22582,7 +22585,7 @@
         <v>1</v>
       </c>
       <c r="I257" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J257">
         <v>3.6</v>
@@ -22650,16 +22653,16 @@
         <v>7951780</v>
       </c>
       <c r="C258" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D258" s="2">
         <v>45383.60416666666</v>
       </c>
       <c r="E258" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F258" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -22668,7 +22671,7 @@
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J258">
         <v>2.3</v>
@@ -22736,16 +22739,16 @@
         <v>7951783</v>
       </c>
       <c r="C259" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D259" s="2">
         <v>45387.47916666666</v>
       </c>
       <c r="E259" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F259" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -22754,7 +22757,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J259">
         <v>1.95</v>
@@ -22822,16 +22825,16 @@
         <v>7951753</v>
       </c>
       <c r="C260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D260" s="2">
         <v>45387.60416666666</v>
       </c>
       <c r="E260" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F260" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G260">
         <v>1</v>
@@ -22840,7 +22843,7 @@
         <v>1</v>
       </c>
       <c r="I260" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J260">
         <v>2.15</v>
@@ -22908,16 +22911,16 @@
         <v>7951785</v>
       </c>
       <c r="C261" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D261" s="2">
         <v>45388.47916666666</v>
       </c>
       <c r="E261" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F261" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -22926,7 +22929,7 @@
         <v>4</v>
       </c>
       <c r="I261" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J261">
         <v>1.95</v>
@@ -22994,16 +22997,16 @@
         <v>7951752</v>
       </c>
       <c r="C262" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D262" s="2">
         <v>45388.60416666666</v>
       </c>
       <c r="E262" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F262" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -23012,7 +23015,7 @@
         <v>4</v>
       </c>
       <c r="I262" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J262">
         <v>2.8</v>
@@ -23080,16 +23083,16 @@
         <v>7951784</v>
       </c>
       <c r="C263" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D263" s="2">
         <v>45389.35416666666</v>
       </c>
       <c r="E263" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F263" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G263">
         <v>1</v>
@@ -23098,7 +23101,7 @@
         <v>1</v>
       </c>
       <c r="I263" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J263">
         <v>2.4</v>
@@ -23166,16 +23169,16 @@
         <v>7951751</v>
       </c>
       <c r="C264" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D264" s="2">
         <v>45389.60416666666</v>
       </c>
       <c r="E264" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F264" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G264">
         <v>2</v>
@@ -23184,7 +23187,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J264">
         <v>1.85</v>
@@ -23252,16 +23255,16 @@
         <v>7951787</v>
       </c>
       <c r="C265" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D265" s="2">
         <v>45390.47916666666</v>
       </c>
       <c r="E265" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F265" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -23270,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J265">
         <v>2.2</v>
@@ -23338,16 +23341,16 @@
         <v>7951786</v>
       </c>
       <c r="C266" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D266" s="2">
         <v>45390.60416666666</v>
       </c>
       <c r="E266" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F266" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -23356,7 +23359,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J266">
         <v>2.05</v>
@@ -23424,16 +23427,16 @@
         <v>7951792</v>
       </c>
       <c r="C267" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D267" s="2">
         <v>45394.47916666666</v>
       </c>
       <c r="E267" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F267" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -23442,7 +23445,7 @@
         <v>3</v>
       </c>
       <c r="I267" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J267">
         <v>2.3</v>
@@ -23510,16 +23513,16 @@
         <v>7951755</v>
       </c>
       <c r="C268" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D268" s="2">
         <v>45394.60416666666</v>
       </c>
       <c r="E268" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F268" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -23528,7 +23531,7 @@
         <v>2</v>
       </c>
       <c r="I268" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J268">
         <v>1.8</v>
@@ -23596,16 +23599,16 @@
         <v>7951790</v>
       </c>
       <c r="C269" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D269" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E269" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F269" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -23614,7 +23617,7 @@
         <v>1</v>
       </c>
       <c r="I269" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J269">
         <v>2.4</v>
@@ -23682,16 +23685,16 @@
         <v>7951791</v>
       </c>
       <c r="C270" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D270" s="2">
         <v>45395.64583333334</v>
       </c>
       <c r="E270" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F270" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -23700,7 +23703,7 @@
         <v>2</v>
       </c>
       <c r="I270" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J270">
         <v>1.909</v>
@@ -23768,16 +23771,16 @@
         <v>7951788</v>
       </c>
       <c r="C271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D271" s="2">
         <v>45396.3125</v>
       </c>
       <c r="E271" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F271" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G271">
         <v>4</v>
@@ -23786,7 +23789,7 @@
         <v>1</v>
       </c>
       <c r="I271" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J271">
         <v>2.4</v>
@@ -23854,16 +23857,16 @@
         <v>7951789</v>
       </c>
       <c r="C272" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D272" s="2">
         <v>45396.51041666666</v>
       </c>
       <c r="E272" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F272" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -23872,7 +23875,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J272">
         <v>2.25</v>
@@ -23940,16 +23943,16 @@
         <v>7951754</v>
       </c>
       <c r="C273" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D273" s="2">
         <v>45396.625</v>
       </c>
       <c r="E273" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F273" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -23958,7 +23961,7 @@
         <v>1</v>
       </c>
       <c r="I273" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J273">
         <v>2.3</v>
@@ -24026,16 +24029,16 @@
         <v>7951756</v>
       </c>
       <c r="C274" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D274" s="2">
         <v>45397.60416666666</v>
       </c>
       <c r="E274" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F274" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -24044,7 +24047,7 @@
         <v>1</v>
       </c>
       <c r="I274" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J274">
         <v>1.95</v>
@@ -24112,16 +24115,16 @@
         <v>7951793</v>
       </c>
       <c r="C275" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D275" s="2">
         <v>45401.47916666666</v>
       </c>
       <c r="E275" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F275" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G275">
         <v>1</v>
@@ -24130,7 +24133,7 @@
         <v>1</v>
       </c>
       <c r="I275" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J275">
         <v>1.909</v>
@@ -24198,16 +24201,16 @@
         <v>7951758</v>
       </c>
       <c r="C276" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D276" s="2">
         <v>45401.60416666666</v>
       </c>
       <c r="E276" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F276" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G276">
         <v>5</v>
@@ -24216,7 +24219,7 @@
         <v>1</v>
       </c>
       <c r="I276" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J276">
         <v>3.1</v>
@@ -24284,16 +24287,16 @@
         <v>7951796</v>
       </c>
       <c r="C277" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D277" s="2">
         <v>45402.375</v>
       </c>
       <c r="E277" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F277" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G277">
         <v>3</v>
@@ -24302,7 +24305,7 @@
         <v>1</v>
       </c>
       <c r="I277" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J277">
         <v>2.25</v>
@@ -24370,16 +24373,16 @@
         <v>7951797</v>
       </c>
       <c r="C278" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D278" s="2">
         <v>45402.47916666666</v>
       </c>
       <c r="E278" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F278" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -24388,7 +24391,7 @@
         <v>1</v>
       </c>
       <c r="I278" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J278">
         <v>2.2</v>
@@ -24456,16 +24459,16 @@
         <v>7951757</v>
       </c>
       <c r="C279" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D279" s="2">
         <v>45402.60416666666</v>
       </c>
       <c r="E279" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F279" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G279">
         <v>2</v>
@@ -24474,7 +24477,7 @@
         <v>2</v>
       </c>
       <c r="I279" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J279">
         <v>1.85</v>
@@ -24542,16 +24545,16 @@
         <v>7951795</v>
       </c>
       <c r="C280" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D280" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E280" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F280" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G280">
         <v>1</v>
@@ -24560,7 +24563,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J280">
         <v>2.75</v>
@@ -24628,16 +24631,16 @@
         <v>7951759</v>
       </c>
       <c r="C281" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D281" s="2">
         <v>45403.54166666666</v>
       </c>
       <c r="E281" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F281" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -24646,7 +24649,7 @@
         <v>3</v>
       </c>
       <c r="I281" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J281">
         <v>2.6</v>
@@ -24714,16 +24717,16 @@
         <v>7951794</v>
       </c>
       <c r="C282" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D282" s="2">
         <v>45404.54166666666</v>
       </c>
       <c r="E282" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F282" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -24732,7 +24735,7 @@
         <v>1</v>
       </c>
       <c r="I282" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J282">
         <v>2.1</v>
@@ -24796,180 +24799,231 @@
       <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="s">
-        <v>27</v>
+      <c r="B283">
+        <v>7951799</v>
       </c>
       <c r="C283" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D283" s="2">
-        <v>45406.44791666666</v>
+        <v>45405.45833333334</v>
       </c>
       <c r="E283" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F283" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283" t="s">
+        <v>53</v>
       </c>
       <c r="J283">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="K283">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L283">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="M283">
+        <v>2.3</v>
+      </c>
+      <c r="N283">
+        <v>3.2</v>
+      </c>
+      <c r="O283">
+        <v>3.2</v>
+      </c>
+      <c r="P283">
+        <v>-0.25</v>
+      </c>
+      <c r="Q283">
+        <v>2</v>
+      </c>
+      <c r="R283">
         <v>1.85</v>
-      </c>
-      <c r="N283">
-        <v>3.4</v>
-      </c>
-      <c r="O283">
-        <v>4.333</v>
-      </c>
-      <c r="P283">
-        <v>-0.5</v>
-      </c>
-      <c r="Q283">
-        <v>1.925</v>
-      </c>
-      <c r="R283">
-        <v>1.925</v>
       </c>
       <c r="S283">
         <v>2.25</v>
       </c>
       <c r="T283">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U283">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V283">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W283">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="X283">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y283">
+        <v>-0.5</v>
+      </c>
+      <c r="Z283">
+        <v>0.425</v>
+      </c>
+      <c r="AA283">
+        <v>-1</v>
+      </c>
+      <c r="AB283">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="284" spans="1:28">
       <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="s">
-        <v>28</v>
+      <c r="B284">
+        <v>7951798</v>
       </c>
       <c r="C284" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D284" s="2">
-        <v>45406.54166666666</v>
+        <v>45405.5625</v>
       </c>
       <c r="E284" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F284" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="G284">
+        <v>2</v>
+      </c>
+      <c r="H284">
+        <v>1</v>
+      </c>
+      <c r="I284" t="s">
+        <v>52</v>
       </c>
       <c r="J284">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="K284">
+        <v>3</v>
+      </c>
+      <c r="L284">
         <v>3.1</v>
       </c>
-      <c r="L284">
-        <v>2.625</v>
-      </c>
       <c r="M284">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N284">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="O284">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="P284">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q284">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R284">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S284">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="T284">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="U284">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V284">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="W284">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X284">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y284">
+        <v>0.875</v>
+      </c>
+      <c r="Z284">
+        <v>-1</v>
+      </c>
+      <c r="AA284">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB284">
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:28">
       <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="s">
-        <v>29</v>
+      <c r="B285">
+        <v>7951800</v>
       </c>
       <c r="C285" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D285" s="2">
-        <v>45406.65625</v>
+        <v>45406.44791666666</v>
       </c>
       <c r="E285" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F285" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="G285">
+        <v>1</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285" t="s">
+        <v>52</v>
       </c>
       <c r="J285">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="K285">
         <v>3.4</v>
       </c>
       <c r="L285">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="M285">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="N285">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O285">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="P285">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q285">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R285">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S285">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T285">
         <v>2.025</v>
@@ -24978,272 +25032,974 @@
         <v>1.825</v>
       </c>
       <c r="V285">
-        <v>0</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W285">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X285">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y285">
+        <v>0.5</v>
+      </c>
+      <c r="Z285">
+        <v>-0.5</v>
+      </c>
+      <c r="AA285">
+        <v>-1</v>
+      </c>
+      <c r="AB285">
+        <v>0.825</v>
       </c>
     </row>
     <row r="286" spans="1:28">
       <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="s">
-        <v>30</v>
+      <c r="B286">
+        <v>7951761</v>
       </c>
       <c r="C286" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D286" s="2">
-        <v>45407.44791666666</v>
+        <v>45406.54166666666</v>
       </c>
       <c r="E286" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F286" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="G286">
+        <v>3</v>
+      </c>
+      <c r="H286">
+        <v>1</v>
+      </c>
+      <c r="I286" t="s">
+        <v>52</v>
       </c>
       <c r="J286">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="K286">
         <v>3.1</v>
       </c>
       <c r="L286">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="M286">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="N286">
         <v>3.1</v>
       </c>
       <c r="O286">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="P286">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q286">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R286">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S286">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T286">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U286">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V286">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W286">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X286">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y286">
+        <v>0.925</v>
+      </c>
+      <c r="Z286">
+        <v>-1</v>
+      </c>
+      <c r="AA286">
+        <v>0.875</v>
+      </c>
+      <c r="AB286">
+        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:28">
       <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="s">
-        <v>31</v>
+      <c r="B287">
+        <v>7951760</v>
       </c>
       <c r="C287" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D287" s="2">
-        <v>45407.54166666666</v>
+        <v>45406.65625</v>
       </c>
       <c r="E287" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F287" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="G287">
+        <v>2</v>
+      </c>
+      <c r="H287">
+        <v>2</v>
+      </c>
+      <c r="I287" t="s">
+        <v>53</v>
       </c>
       <c r="J287">
+        <v>3.1</v>
+      </c>
+      <c r="K287">
+        <v>3.4</v>
+      </c>
+      <c r="L287">
+        <v>2.2</v>
+      </c>
+      <c r="M287">
+        <v>3.5</v>
+      </c>
+      <c r="N287">
+        <v>3.5</v>
+      </c>
+      <c r="O287">
+        <v>2.05</v>
+      </c>
+      <c r="P287">
+        <v>0.5</v>
+      </c>
+      <c r="Q287">
+        <v>1.8</v>
+      </c>
+      <c r="R287">
+        <v>2.05</v>
+      </c>
+      <c r="S287">
+        <v>2.5</v>
+      </c>
+      <c r="T287">
+        <v>1.9</v>
+      </c>
+      <c r="U287">
         <v>1.95</v>
       </c>
-      <c r="K287">
-        <v>3.2</v>
-      </c>
-      <c r="L287">
-        <v>4.2</v>
-      </c>
-      <c r="M287">
-        <v>1.95</v>
-      </c>
-      <c r="N287">
-        <v>3.2</v>
-      </c>
-      <c r="O287">
-        <v>4.2</v>
-      </c>
-      <c r="P287">
-        <v>-0.5</v>
-      </c>
-      <c r="Q287">
-        <v>1.975</v>
-      </c>
-      <c r="R287">
-        <v>1.875</v>
-      </c>
-      <c r="S287">
-        <v>2</v>
-      </c>
-      <c r="T287">
-        <v>1.975</v>
-      </c>
-      <c r="U287">
-        <v>1.875</v>
-      </c>
       <c r="V287">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W287">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X287">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y287">
+        <v>0.8</v>
+      </c>
+      <c r="Z287">
+        <v>-1</v>
+      </c>
+      <c r="AA287">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB287">
+        <v>-1</v>
       </c>
     </row>
     <row r="288" spans="1:28">
       <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="s">
-        <v>32</v>
+      <c r="B288">
+        <v>7951801</v>
       </c>
       <c r="C288" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D288" s="2">
-        <v>45407.65625</v>
+        <v>45407.44791666666</v>
       </c>
       <c r="E288" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F288" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="G288">
+        <v>3</v>
+      </c>
+      <c r="H288">
+        <v>1</v>
+      </c>
+      <c r="I288" t="s">
+        <v>52</v>
       </c>
       <c r="J288">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="K288">
         <v>3.1</v>
       </c>
       <c r="L288">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M288">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="N288">
         <v>3.1</v>
       </c>
       <c r="O288">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P288">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q288">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R288">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S288">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T288">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U288">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V288">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W288">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:24">
+        <v>-1</v>
+      </c>
+      <c r="Y288">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z288">
+        <v>-1</v>
+      </c>
+      <c r="AA288">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB288">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:28">
       <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="s">
-        <v>33</v>
+      <c r="B289">
+        <v>7951802</v>
       </c>
       <c r="C289" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D289" s="2">
-        <v>45408.58333333334</v>
+        <v>45407.54166666666</v>
       </c>
       <c r="E289" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F289" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="G289">
+        <v>2</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+      <c r="I289" t="s">
+        <v>52</v>
       </c>
       <c r="J289">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="K289">
         <v>3.2</v>
       </c>
       <c r="L289">
+        <v>4.2</v>
+      </c>
+      <c r="M289">
+        <v>2.05</v>
+      </c>
+      <c r="N289">
+        <v>3.2</v>
+      </c>
+      <c r="O289">
+        <v>4</v>
+      </c>
+      <c r="P289">
+        <v>-0.5</v>
+      </c>
+      <c r="Q289">
+        <v>2.05</v>
+      </c>
+      <c r="R289">
+        <v>1.8</v>
+      </c>
+      <c r="S289">
+        <v>2</v>
+      </c>
+      <c r="T289">
+        <v>1.975</v>
+      </c>
+      <c r="U289">
+        <v>1.875</v>
+      </c>
+      <c r="V289">
+        <v>1.05</v>
+      </c>
+      <c r="W289">
+        <v>-1</v>
+      </c>
+      <c r="X289">
+        <v>-1</v>
+      </c>
+      <c r="Y289">
+        <v>1.05</v>
+      </c>
+      <c r="Z289">
+        <v>-1</v>
+      </c>
+      <c r="AA289">
+        <v>0</v>
+      </c>
+      <c r="AB289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:28">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>7951762</v>
+      </c>
+      <c r="C290" t="s">
+        <v>35</v>
+      </c>
+      <c r="D290" s="2">
+        <v>45407.65625</v>
+      </c>
+      <c r="E290" t="s">
+        <v>51</v>
+      </c>
+      <c r="F290" t="s">
+        <v>36</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>1</v>
+      </c>
+      <c r="I290" t="s">
+        <v>54</v>
+      </c>
+      <c r="J290">
+        <v>2.375</v>
+      </c>
+      <c r="K290">
+        <v>3.1</v>
+      </c>
+      <c r="L290">
+        <v>3.1</v>
+      </c>
+      <c r="M290">
+        <v>2.55</v>
+      </c>
+      <c r="N290">
+        <v>3.4</v>
+      </c>
+      <c r="O290">
+        <v>2.625</v>
+      </c>
+      <c r="P290">
+        <v>0</v>
+      </c>
+      <c r="Q290">
+        <v>1.875</v>
+      </c>
+      <c r="R290">
+        <v>1.975</v>
+      </c>
+      <c r="S290">
+        <v>2.75</v>
+      </c>
+      <c r="T290">
+        <v>1.8</v>
+      </c>
+      <c r="U290">
+        <v>2.05</v>
+      </c>
+      <c r="V290">
+        <v>-1</v>
+      </c>
+      <c r="W290">
+        <v>-1</v>
+      </c>
+      <c r="X290">
+        <v>1.625</v>
+      </c>
+      <c r="Y290">
+        <v>-1</v>
+      </c>
+      <c r="Z290">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA290">
+        <v>-1</v>
+      </c>
+      <c r="AB290">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="291" spans="1:28">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>27</v>
+      </c>
+      <c r="C291" t="s">
+        <v>35</v>
+      </c>
+      <c r="D291" s="2">
+        <v>45408.58333333334</v>
+      </c>
+      <c r="E291" t="s">
+        <v>43</v>
+      </c>
+      <c r="F291" t="s">
+        <v>42</v>
+      </c>
+      <c r="J291">
+        <v>2.2</v>
+      </c>
+      <c r="K291">
+        <v>3.2</v>
+      </c>
+      <c r="L291">
         <v>2.875</v>
       </c>
-      <c r="M289">
+      <c r="M291">
+        <v>1.95</v>
+      </c>
+      <c r="N291">
+        <v>3.4</v>
+      </c>
+      <c r="O291">
+        <v>3.3</v>
+      </c>
+      <c r="P291">
+        <v>-0.5</v>
+      </c>
+      <c r="Q291">
+        <v>2</v>
+      </c>
+      <c r="R291">
+        <v>1.85</v>
+      </c>
+      <c r="S291">
+        <v>2.5</v>
+      </c>
+      <c r="T291">
+        <v>1.975</v>
+      </c>
+      <c r="U291">
+        <v>1.875</v>
+      </c>
+      <c r="V291">
+        <v>0</v>
+      </c>
+      <c r="W291">
+        <v>0</v>
+      </c>
+      <c r="X291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:28">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>28</v>
+      </c>
+      <c r="C292" t="s">
+        <v>35</v>
+      </c>
+      <c r="D292" s="2">
+        <v>45409.47916666666</v>
+      </c>
+      <c r="E292" t="s">
+        <v>41</v>
+      </c>
+      <c r="F292" t="s">
+        <v>49</v>
+      </c>
+      <c r="J292">
+        <v>2.4</v>
+      </c>
+      <c r="K292">
+        <v>3.2</v>
+      </c>
+      <c r="L292">
+        <v>2.6</v>
+      </c>
+      <c r="M292">
+        <v>2.55</v>
+      </c>
+      <c r="N292">
+        <v>3.1</v>
+      </c>
+      <c r="O292">
+        <v>2.45</v>
+      </c>
+      <c r="P292">
+        <v>0</v>
+      </c>
+      <c r="Q292">
+        <v>1.975</v>
+      </c>
+      <c r="R292">
+        <v>1.875</v>
+      </c>
+      <c r="S292">
+        <v>2.25</v>
+      </c>
+      <c r="T292">
+        <v>1.875</v>
+      </c>
+      <c r="U292">
+        <v>1.975</v>
+      </c>
+      <c r="V292">
+        <v>0</v>
+      </c>
+      <c r="W292">
+        <v>0</v>
+      </c>
+      <c r="X292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:28">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>29</v>
+      </c>
+      <c r="C293" t="s">
+        <v>35</v>
+      </c>
+      <c r="D293" s="2">
+        <v>45409.60416666666</v>
+      </c>
+      <c r="E293" t="s">
+        <v>47</v>
+      </c>
+      <c r="F293" t="s">
+        <v>46</v>
+      </c>
+      <c r="J293">
+        <v>1.909</v>
+      </c>
+      <c r="K293">
+        <v>3.25</v>
+      </c>
+      <c r="L293">
+        <v>3.5</v>
+      </c>
+      <c r="M293">
+        <v>1.727</v>
+      </c>
+      <c r="N293">
+        <v>3.4</v>
+      </c>
+      <c r="O293">
+        <v>4</v>
+      </c>
+      <c r="P293">
+        <v>-0.5</v>
+      </c>
+      <c r="Q293">
+        <v>1.8</v>
+      </c>
+      <c r="R293">
+        <v>2.05</v>
+      </c>
+      <c r="S293">
+        <v>2.75</v>
+      </c>
+      <c r="T293">
+        <v>2.025</v>
+      </c>
+      <c r="U293">
+        <v>1.825</v>
+      </c>
+      <c r="V293">
+        <v>0</v>
+      </c>
+      <c r="W293">
+        <v>0</v>
+      </c>
+      <c r="X293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:28">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>30</v>
+      </c>
+      <c r="C294" t="s">
+        <v>35</v>
+      </c>
+      <c r="D294" s="2">
+        <v>45410.3125</v>
+      </c>
+      <c r="E294" t="s">
+        <v>37</v>
+      </c>
+      <c r="F294" t="s">
+        <v>39</v>
+      </c>
+      <c r="J294">
+        <v>2.4</v>
+      </c>
+      <c r="K294">
+        <v>3</v>
+      </c>
+      <c r="L294">
+        <v>2.75</v>
+      </c>
+      <c r="M294">
+        <v>2.45</v>
+      </c>
+      <c r="N294">
+        <v>3</v>
+      </c>
+      <c r="O294">
+        <v>2.7</v>
+      </c>
+      <c r="P294">
+        <v>0</v>
+      </c>
+      <c r="Q294">
+        <v>1.825</v>
+      </c>
+      <c r="R294">
+        <v>2.025</v>
+      </c>
+      <c r="S294">
+        <v>2</v>
+      </c>
+      <c r="T294">
+        <v>1.925</v>
+      </c>
+      <c r="U294">
+        <v>1.925</v>
+      </c>
+      <c r="V294">
+        <v>0</v>
+      </c>
+      <c r="W294">
+        <v>0</v>
+      </c>
+      <c r="X294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:28">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>31</v>
+      </c>
+      <c r="C295" t="s">
+        <v>35</v>
+      </c>
+      <c r="D295" s="2">
+        <v>45410.51041666666</v>
+      </c>
+      <c r="E295" t="s">
+        <v>48</v>
+      </c>
+      <c r="F295" t="s">
+        <v>45</v>
+      </c>
+      <c r="J295">
+        <v>2.4</v>
+      </c>
+      <c r="K295">
+        <v>3.2</v>
+      </c>
+      <c r="L295">
+        <v>2.6</v>
+      </c>
+      <c r="M295">
+        <v>2.25</v>
+      </c>
+      <c r="N295">
+        <v>3.2</v>
+      </c>
+      <c r="O295">
+        <v>2.875</v>
+      </c>
+      <c r="P295">
+        <v>-0.25</v>
+      </c>
+      <c r="Q295">
+        <v>2.025</v>
+      </c>
+      <c r="R295">
+        <v>1.825</v>
+      </c>
+      <c r="S295">
+        <v>2.25</v>
+      </c>
+      <c r="T295">
+        <v>1.925</v>
+      </c>
+      <c r="U295">
+        <v>1.925</v>
+      </c>
+      <c r="V295">
+        <v>0</v>
+      </c>
+      <c r="W295">
+        <v>0</v>
+      </c>
+      <c r="X295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:28">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>32</v>
+      </c>
+      <c r="C296" t="s">
+        <v>35</v>
+      </c>
+      <c r="D296" s="2">
+        <v>45410.625</v>
+      </c>
+      <c r="E296" t="s">
+        <v>36</v>
+      </c>
+      <c r="F296" t="s">
+        <v>44</v>
+      </c>
+      <c r="J296">
+        <v>1.8</v>
+      </c>
+      <c r="K296">
+        <v>3.25</v>
+      </c>
+      <c r="L296">
+        <v>4</v>
+      </c>
+      <c r="M296">
+        <v>1.571</v>
+      </c>
+      <c r="N296">
+        <v>3.5</v>
+      </c>
+      <c r="O296">
+        <v>5.25</v>
+      </c>
+      <c r="P296">
+        <v>-1</v>
+      </c>
+      <c r="Q296">
         <v>2.1</v>
       </c>
-      <c r="N289">
+      <c r="R296">
+        <v>1.775</v>
+      </c>
+      <c r="S296">
+        <v>2.5</v>
+      </c>
+      <c r="T296">
+        <v>1.925</v>
+      </c>
+      <c r="U296">
+        <v>1.925</v>
+      </c>
+      <c r="V296">
+        <v>0</v>
+      </c>
+      <c r="W296">
+        <v>0</v>
+      </c>
+      <c r="X296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:28">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>33</v>
+      </c>
+      <c r="C297" t="s">
+        <v>35</v>
+      </c>
+      <c r="D297" s="2">
+        <v>45411.47916666666</v>
+      </c>
+      <c r="E297" t="s">
+        <v>40</v>
+      </c>
+      <c r="F297" t="s">
+        <v>50</v>
+      </c>
+      <c r="J297">
+        <v>1.909</v>
+      </c>
+      <c r="K297">
         <v>3.25</v>
       </c>
-      <c r="O289">
-        <v>3</v>
-      </c>
-      <c r="P289">
+      <c r="L297">
+        <v>3.5</v>
+      </c>
+      <c r="M297">
+        <v>2</v>
+      </c>
+      <c r="N297">
+        <v>3.25</v>
+      </c>
+      <c r="O297">
+        <v>3.2</v>
+      </c>
+      <c r="P297">
         <v>-0.25</v>
       </c>
-      <c r="Q289">
+      <c r="Q297">
+        <v>1.825</v>
+      </c>
+      <c r="R297">
+        <v>2.025</v>
+      </c>
+      <c r="S297">
+        <v>2.25</v>
+      </c>
+      <c r="T297">
+        <v>2.1</v>
+      </c>
+      <c r="U297">
+        <v>1.775</v>
+      </c>
+      <c r="V297">
+        <v>0</v>
+      </c>
+      <c r="W297">
+        <v>0</v>
+      </c>
+      <c r="X297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:28">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>34</v>
+      </c>
+      <c r="C298" t="s">
+        <v>35</v>
+      </c>
+      <c r="D298" s="2">
+        <v>45411.60416666666</v>
+      </c>
+      <c r="E298" t="s">
+        <v>38</v>
+      </c>
+      <c r="F298" t="s">
+        <v>51</v>
+      </c>
+      <c r="J298">
+        <v>2.3</v>
+      </c>
+      <c r="K298">
+        <v>3.2</v>
+      </c>
+      <c r="L298">
+        <v>2.75</v>
+      </c>
+      <c r="M298">
+        <v>1.85</v>
+      </c>
+      <c r="N298">
+        <v>3.3</v>
+      </c>
+      <c r="O298">
+        <v>3.6</v>
+      </c>
+      <c r="P298">
+        <v>-0.5</v>
+      </c>
+      <c r="Q298">
+        <v>1.95</v>
+      </c>
+      <c r="R298">
         <v>1.9</v>
       </c>
-      <c r="R289">
-        <v>1.95</v>
-      </c>
-      <c r="S289">
-        <v>2</v>
-      </c>
-      <c r="T289">
-        <v>1.75</v>
-      </c>
-      <c r="U289">
-        <v>2.125</v>
-      </c>
-      <c r="V289">
-        <v>0</v>
-      </c>
-      <c r="W289">
-        <v>0</v>
-      </c>
-      <c r="X289">
+      <c r="S298">
+        <v>2.5</v>
+      </c>
+      <c r="T298">
+        <v>1.825</v>
+      </c>
+      <c r="U298">
+        <v>2.025</v>
+      </c>
+      <c r="V298">
+        <v>0</v>
+      </c>
+      <c r="W298">
+        <v>0</v>
+      </c>
+      <c r="X298">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7951807</t>
   </si>
   <si>
     <t>7951806</t>
@@ -540,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB298"/>
+  <dimension ref="A1:AB289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,16 +634,16 @@
         <v>6708870</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
         <v>45078.60416666666</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -655,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2">
         <v>1.7</v>
@@ -723,16 +720,16 @@
         <v>6831816</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
         <v>45121.52083333334</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -741,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -809,16 +806,16 @@
         <v>6871393</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2">
         <v>45121.64583333334</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -827,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4">
         <v>1.95</v>
@@ -895,16 +892,16 @@
         <v>6836102</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2">
         <v>45122.52083333334</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -913,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J5">
         <v>2.75</v>
@@ -981,16 +978,16 @@
         <v>6871392</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2">
         <v>45122.64583333334</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -999,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6">
         <v>1.363</v>
@@ -1067,16 +1064,16 @@
         <v>6836106</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2">
         <v>45123.52083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1085,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J7">
         <v>2.5</v>
@@ -1153,16 +1150,16 @@
         <v>6836105</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>45123.64583333334</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1171,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J8">
         <v>3.4</v>
@@ -1239,16 +1236,16 @@
         <v>6831939</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2">
         <v>45124.52083333334</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1257,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9">
         <v>2.05</v>
@@ -1325,16 +1322,16 @@
         <v>6836104</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2">
         <v>45124.64583333334</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1343,7 +1340,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J10">
         <v>3.5</v>
@@ -1411,16 +1408,16 @@
         <v>6836111</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>45128.52083333334</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1429,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J11">
         <v>1.75</v>
@@ -1497,16 +1494,16 @@
         <v>6836108</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2">
         <v>45128.64583333334</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1515,7 +1512,7 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12">
         <v>3.5</v>
@@ -1583,16 +1580,16 @@
         <v>6835772</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2">
         <v>45129.51041666666</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1601,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1669,16 +1666,16 @@
         <v>6836110</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2">
         <v>45129.64583333334</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1687,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J14">
         <v>1.533</v>
@@ -1755,16 +1752,16 @@
         <v>6836107</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2">
         <v>45130.52083333334</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1773,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15">
         <v>2.4</v>
@@ -1841,16 +1838,16 @@
         <v>6835195</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2">
         <v>45130.64583333334</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1859,7 +1856,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J16">
         <v>2.375</v>
@@ -1927,16 +1924,16 @@
         <v>6863931</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2">
         <v>45131.52083333334</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1945,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -2013,16 +2010,16 @@
         <v>6836109</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
         <v>45131.64583333334</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2031,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J18">
         <v>1.5</v>
@@ -2099,16 +2096,16 @@
         <v>6836117</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2">
         <v>45135.52083333334</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -2117,7 +2114,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J19">
         <v>2.25</v>
@@ -2185,16 +2182,16 @@
         <v>6835196</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2">
         <v>45135.64583333334</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2203,7 +2200,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J20">
         <v>1.4</v>
@@ -2271,16 +2268,16 @@
         <v>6836113</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2">
         <v>45136.52083333334</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2289,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J21">
         <v>1.909</v>
@@ -2357,16 +2354,16 @@
         <v>6836115</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2">
         <v>45136.64583333334</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2375,7 +2372,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J22">
         <v>4.75</v>
@@ -2443,16 +2440,16 @@
         <v>6836118</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2461,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J23">
         <v>1.615</v>
@@ -2529,16 +2526,16 @@
         <v>6836114</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2">
         <v>45137.64583333334</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2547,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J24">
         <v>2.15</v>
@@ -2615,16 +2612,16 @@
         <v>6835773</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2">
         <v>45138.52083333334</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2633,7 +2630,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J25">
         <v>2.55</v>
@@ -2701,16 +2698,16 @@
         <v>6836116</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2">
         <v>45138.64583333334</v>
       </c>
       <c r="E26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" t="s">
         <v>43</v>
-      </c>
-      <c r="F26" t="s">
-        <v>44</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2719,7 +2716,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J26">
         <v>3.75</v>
@@ -2787,16 +2784,16 @@
         <v>6836124</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2">
         <v>45142.52083333334</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2805,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -2873,16 +2870,16 @@
         <v>6836119</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2">
         <v>45142.64583333334</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2891,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J28">
         <v>1.615</v>
@@ -2959,16 +2956,16 @@
         <v>6836123</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2">
         <v>45143.52083333334</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2977,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J29">
         <v>2.375</v>
@@ -3045,16 +3042,16 @@
         <v>6836122</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2">
         <v>45143.64583333334</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3063,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J30">
         <v>2.2</v>
@@ -3131,16 +3128,16 @@
         <v>6836125</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2">
         <v>45144.51041666666</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3149,7 +3146,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J31">
         <v>2.875</v>
@@ -3217,16 +3214,16 @@
         <v>6836120</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2">
         <v>45144.64583333334</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3235,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J32">
         <v>2.1</v>
@@ -3303,16 +3300,16 @@
         <v>6836121</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2">
         <v>45145.52083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3321,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J33">
         <v>1.727</v>
@@ -3389,16 +3386,16 @@
         <v>6835197</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2">
         <v>45145.64583333334</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3407,7 +3404,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J34">
         <v>3.1</v>
@@ -3475,16 +3472,16 @@
         <v>6835774</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2">
         <v>45149.60416666666</v>
       </c>
       <c r="E35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
         <v>41</v>
-      </c>
-      <c r="F35" t="s">
-        <v>42</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -3493,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J35">
         <v>2.375</v>
@@ -3561,16 +3558,16 @@
         <v>6836128</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2">
         <v>45150.52083333334</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3579,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J36">
         <v>2.6</v>
@@ -3647,16 +3644,16 @@
         <v>6836130</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2">
         <v>45150.64583333334</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3665,7 +3662,7 @@
         <v>4</v>
       </c>
       <c r="I37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J37">
         <v>4</v>
@@ -3733,16 +3730,16 @@
         <v>6835198</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2">
         <v>45151.64583333334</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3751,7 +3748,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J38">
         <v>1.8</v>
@@ -3819,16 +3816,16 @@
         <v>6836129</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="2">
         <v>45152.60416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3837,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -3905,16 +3902,16 @@
         <v>6836136</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" s="2">
         <v>45156.52083333334</v>
       </c>
       <c r="E40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" t="s">
         <v>40</v>
-      </c>
-      <c r="F40" t="s">
-        <v>41</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -3923,7 +3920,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J40">
         <v>2.3</v>
@@ -3991,16 +3988,16 @@
         <v>6836137</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2">
         <v>45156.64583333334</v>
       </c>
       <c r="E41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -4009,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J41">
         <v>1.45</v>
@@ -4077,16 +4074,16 @@
         <v>6836134</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4095,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J42">
         <v>2.1</v>
@@ -4163,16 +4160,16 @@
         <v>6835775</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2">
         <v>45157.65625</v>
       </c>
       <c r="E43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s">
         <v>42</v>
-      </c>
-      <c r="F43" t="s">
-        <v>43</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4181,7 +4178,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J43">
         <v>1.95</v>
@@ -4249,16 +4246,16 @@
         <v>6835199</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2">
         <v>45158.51041666666</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -4267,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J44">
         <v>2.05</v>
@@ -4335,16 +4332,16 @@
         <v>6836135</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D45" s="2">
         <v>45158.64583333334</v>
       </c>
       <c r="E45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" t="s">
         <v>47</v>
-      </c>
-      <c r="F45" t="s">
-        <v>48</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4353,7 +4350,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J45">
         <v>1.45</v>
@@ -4421,16 +4418,16 @@
         <v>6836132</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D46" s="2">
         <v>45159.52083333334</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4439,7 +4436,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J46">
         <v>2.15</v>
@@ -4507,16 +4504,16 @@
         <v>6836133</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D47" s="2">
         <v>45159.64583333334</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4525,7 +4522,7 @@
         <v>4</v>
       </c>
       <c r="I47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J47">
         <v>4.2</v>
@@ -4593,16 +4590,16 @@
         <v>6835776</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D48" s="2">
         <v>45163.52083333334</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4611,7 +4608,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J48">
         <v>2.7</v>
@@ -4679,16 +4676,16 @@
         <v>6835200</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" s="2">
         <v>45163.64583333334</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -4697,7 +4694,7 @@
         <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J49">
         <v>2.7</v>
@@ -4765,16 +4762,16 @@
         <v>6836141</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4783,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J50">
         <v>1.363</v>
@@ -4851,16 +4848,16 @@
         <v>6836143</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D51" s="2">
         <v>45164.65625</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4869,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J51">
         <v>2.25</v>
@@ -4937,25 +4934,25 @@
         <v>6836139</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D52" s="2">
         <v>45165.64583333334</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
+        <v>50</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
         <v>51</v>
-      </c>
-      <c r="G52">
-        <v>2</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52" t="s">
-        <v>52</v>
       </c>
       <c r="J52">
         <v>2.6</v>
@@ -5023,16 +5020,16 @@
         <v>6836140</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D53" s="2">
         <v>45166.52083333334</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5041,7 +5038,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J53">
         <v>2.2</v>
@@ -5109,16 +5106,16 @@
         <v>6836138</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D54" s="2">
         <v>45166.64583333334</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5127,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J54">
         <v>4</v>
@@ -5195,16 +5192,16 @@
         <v>6836146</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D55" s="2">
         <v>45170.52083333334</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5213,7 +5210,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J55">
         <v>2.05</v>
@@ -5281,16 +5278,16 @@
         <v>6835201</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D56" s="2">
         <v>45170.64583333334</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G56">
         <v>4</v>
@@ -5299,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J56">
         <v>1.7</v>
@@ -5367,16 +5364,16 @@
         <v>6835777</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D57" s="2">
         <v>45171.54166666666</v>
       </c>
       <c r="E57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5385,7 +5382,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J57">
         <v>4.333</v>
@@ -5453,16 +5450,16 @@
         <v>6836148</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D58" s="2">
         <v>45171.65625</v>
       </c>
       <c r="E58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5471,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J58">
         <v>2.8</v>
@@ -5539,16 +5536,16 @@
         <v>6836149</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D59" s="2">
         <v>45172.64583333334</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G59">
         <v>4</v>
@@ -5557,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J59">
         <v>2.5</v>
@@ -5625,16 +5622,16 @@
         <v>6836145</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D60" s="2">
         <v>45173.29166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5643,7 +5640,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J60">
         <v>1.909</v>
@@ -5711,16 +5708,16 @@
         <v>6836144</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D61" s="2">
         <v>45173.52083333334</v>
       </c>
       <c r="E61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5729,7 +5726,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J61">
         <v>2.8</v>
@@ -5797,16 +5794,16 @@
         <v>6836147</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D62" s="2">
         <v>45173.64583333334</v>
       </c>
       <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
         <v>44</v>
-      </c>
-      <c r="F62" t="s">
-        <v>45</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5815,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J62">
         <v>1.65</v>
@@ -5883,16 +5880,16 @@
         <v>6836152</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D63" s="2">
         <v>45184.52083333334</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5901,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J63">
         <v>2.5</v>
@@ -5969,16 +5966,16 @@
         <v>6836154</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D64" s="2">
         <v>45184.64583333334</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5987,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J64">
         <v>2.75</v>
@@ -6055,16 +6052,16 @@
         <v>6836153</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D65" s="2">
         <v>45185.64583333334</v>
       </c>
       <c r="E65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6073,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J65">
         <v>1.909</v>
@@ -6141,16 +6138,16 @@
         <v>6835778</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D66" s="2">
         <v>45186.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -6159,7 +6156,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J66">
         <v>2</v>
@@ -6227,17 +6224,17 @@
         <v>6835202</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D67" s="2">
         <v>45186.55208333334</v>
       </c>
       <c r="E67" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" t="s">
         <v>37</v>
       </c>
-      <c r="F67" t="s">
-        <v>38</v>
-      </c>
       <c r="G67">
         <v>0</v>
       </c>
@@ -6245,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -6313,16 +6310,16 @@
         <v>6836155</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D68" s="2">
         <v>45186.65625</v>
       </c>
       <c r="E68" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" t="s">
         <v>46</v>
-      </c>
-      <c r="F68" t="s">
-        <v>47</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6331,7 +6328,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J68">
         <v>2.625</v>
@@ -6399,16 +6396,16 @@
         <v>6836150</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D69" s="2">
         <v>45187.52083333334</v>
       </c>
       <c r="E69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6417,7 +6414,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J69">
         <v>2.4</v>
@@ -6485,16 +6482,16 @@
         <v>6836151</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D70" s="2">
         <v>45187.64583333334</v>
       </c>
       <c r="E70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6503,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J70">
         <v>1.45</v>
@@ -6571,16 +6568,16 @@
         <v>6836126</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D71" s="2">
         <v>45190.58333333334</v>
       </c>
       <c r="E71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6589,7 +6586,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J71">
         <v>3.7</v>
@@ -6657,16 +6654,16 @@
         <v>6836159</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D72" s="2">
         <v>45191.5</v>
       </c>
       <c r="E72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6675,7 +6672,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J72">
         <v>1.95</v>
@@ -6743,16 +6740,16 @@
         <v>6836161</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D73" s="2">
         <v>45191.625</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6761,7 +6758,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J73">
         <v>3.3</v>
@@ -6829,16 +6826,16 @@
         <v>6835779</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D74" s="2">
         <v>45192.35416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6847,7 +6844,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J74">
         <v>2</v>
@@ -6915,16 +6912,16 @@
         <v>6836157</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D75" s="2">
         <v>45192.53125</v>
       </c>
       <c r="E75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -6933,7 +6930,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J75">
         <v>2.25</v>
@@ -7001,16 +6998,16 @@
         <v>6836158</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D76" s="2">
         <v>45192.64583333334</v>
       </c>
       <c r="E76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7019,7 +7016,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -7087,16 +7084,16 @@
         <v>6836156</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D77" s="2">
         <v>45193.51041666666</v>
       </c>
       <c r="E77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7105,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J77">
         <v>2.4</v>
@@ -7173,16 +7170,16 @@
         <v>6836160</v>
       </c>
       <c r="C78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D78" s="2">
         <v>45193.625</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7191,7 +7188,7 @@
         <v>5</v>
       </c>
       <c r="I78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J78">
         <v>2.7</v>
@@ -7259,16 +7256,16 @@
         <v>6835203</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D79" s="2">
         <v>45194.625</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7277,7 +7274,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J79">
         <v>2.8</v>
@@ -7345,16 +7342,16 @@
         <v>6836166</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D80" s="2">
         <v>45198.625</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7363,7 +7360,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J80">
         <v>2.3</v>
@@ -7431,16 +7428,16 @@
         <v>6835780</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D81" s="2">
         <v>45199.35416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7449,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J81">
         <v>2.2</v>
@@ -7517,16 +7514,16 @@
         <v>6836167</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D82" s="2">
         <v>45199.64583333334</v>
       </c>
       <c r="E82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7535,7 +7532,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J82">
         <v>2.2</v>
@@ -7603,16 +7600,16 @@
         <v>6836163</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D83" s="2">
         <v>45200.375</v>
       </c>
       <c r="E83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G83">
         <v>5</v>
@@ -7621,7 +7618,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J83">
         <v>1.444</v>
@@ -7689,16 +7686,16 @@
         <v>6835204</v>
       </c>
       <c r="C84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D84" s="2">
         <v>45200.5</v>
       </c>
       <c r="E84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7707,7 +7704,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J84">
         <v>2.875</v>
@@ -7775,16 +7772,16 @@
         <v>6836164</v>
       </c>
       <c r="C85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D85" s="2">
         <v>45200.625</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7793,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J85">
         <v>1.5</v>
@@ -7861,16 +7858,16 @@
         <v>6836162</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D86" s="2">
         <v>45201.5</v>
       </c>
       <c r="E86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7879,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J86">
         <v>2.9</v>
@@ -7947,16 +7944,16 @@
         <v>6836165</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D87" s="2">
         <v>45201.625</v>
       </c>
       <c r="E87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7965,7 +7962,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J87">
         <v>1.4</v>
@@ -8033,16 +8030,16 @@
         <v>6836127</v>
       </c>
       <c r="C88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D88" s="2">
         <v>45204.58333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8051,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J88">
         <v>1.8</v>
@@ -8119,16 +8116,16 @@
         <v>6836168</v>
       </c>
       <c r="C89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D89" s="2">
         <v>45205.5</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8137,7 +8134,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J89">
         <v>2.3</v>
@@ -8205,16 +8202,16 @@
         <v>6835205</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D90" s="2">
         <v>45205.625</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G90">
         <v>3</v>
@@ -8223,7 +8220,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J90">
         <v>1.5</v>
@@ -8291,16 +8288,16 @@
         <v>6836169</v>
       </c>
       <c r="C91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D91" s="2">
         <v>45206.33333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8309,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J91">
         <v>2.1</v>
@@ -8377,16 +8374,16 @@
         <v>6835781</v>
       </c>
       <c r="C92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D92" s="2">
         <v>45206.53125</v>
       </c>
       <c r="E92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8395,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J92">
         <v>4</v>
@@ -8463,16 +8460,16 @@
         <v>6836170</v>
       </c>
       <c r="C93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D93" s="2">
         <v>45206.64583333334</v>
       </c>
       <c r="E93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8481,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -8549,16 +8546,16 @@
         <v>6836173</v>
       </c>
       <c r="C94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D94" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8567,7 +8564,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J94">
         <v>2.75</v>
@@ -8635,16 +8632,16 @@
         <v>6836171</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D95" s="2">
         <v>45207.64583333334</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8653,7 +8650,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J95">
         <v>4</v>
@@ -8721,16 +8718,16 @@
         <v>6836172</v>
       </c>
       <c r="C96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D96" s="2">
         <v>45208.625</v>
       </c>
       <c r="E96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8739,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J96">
         <v>2.8</v>
@@ -8807,16 +8804,16 @@
         <v>7122732</v>
       </c>
       <c r="C97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D97" s="2">
         <v>45218.58333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8825,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J97">
         <v>2.625</v>
@@ -8893,16 +8890,16 @@
         <v>6835206</v>
       </c>
       <c r="C98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D98" s="2">
         <v>45219.625</v>
       </c>
       <c r="E98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8911,7 +8908,7 @@
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J98">
         <v>3.4</v>
@@ -8979,16 +8976,16 @@
         <v>6836174</v>
       </c>
       <c r="C99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D99" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G99">
         <v>4</v>
@@ -8997,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J99">
         <v>2.1</v>
@@ -9065,16 +9062,16 @@
         <v>6836179</v>
       </c>
       <c r="C100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D100" s="2">
         <v>45220.65625</v>
       </c>
       <c r="E100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9083,7 +9080,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J100">
         <v>1.833</v>
@@ -9151,16 +9148,16 @@
         <v>6836175</v>
       </c>
       <c r="C101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D101" s="2">
         <v>45221.39583333334</v>
       </c>
       <c r="E101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9169,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J101">
         <v>2.625</v>
@@ -9237,16 +9234,16 @@
         <v>6836176</v>
       </c>
       <c r="C102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D102" s="2">
         <v>45221.5</v>
       </c>
       <c r="E102" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9255,7 +9252,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J102">
         <v>1.571</v>
@@ -9323,16 +9320,16 @@
         <v>6835782</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D103" s="2">
         <v>45221.625</v>
       </c>
       <c r="E103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9341,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J103">
         <v>1.444</v>
@@ -9409,16 +9406,16 @@
         <v>6836177</v>
       </c>
       <c r="C104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D104" s="2">
         <v>45222.5</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F104" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G104">
         <v>5</v>
@@ -9427,7 +9424,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J104">
         <v>1.571</v>
@@ -9495,17 +9492,17 @@
         <v>6836178</v>
       </c>
       <c r="C105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D105" s="2">
         <v>45222.625</v>
       </c>
       <c r="E105" t="s">
+        <v>35</v>
+      </c>
+      <c r="F105" t="s">
         <v>36</v>
       </c>
-      <c r="F105" t="s">
-        <v>37</v>
-      </c>
       <c r="G105">
         <v>0</v>
       </c>
@@ -9513,7 +9510,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J105">
         <v>1.4</v>
@@ -9581,16 +9578,16 @@
         <v>6836131</v>
       </c>
       <c r="C106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D106" s="2">
         <v>45225.58333333334</v>
       </c>
       <c r="E106" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9599,7 +9596,7 @@
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J106">
         <v>1.65</v>
@@ -9667,16 +9664,16 @@
         <v>6835783</v>
       </c>
       <c r="C107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D107" s="2">
         <v>45226.47916666666</v>
       </c>
       <c r="E107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9685,7 +9682,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J107">
         <v>3</v>
@@ -9753,16 +9750,16 @@
         <v>6836181</v>
       </c>
       <c r="C108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D108" s="2">
         <v>45226.60416666666</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F108" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9771,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J108">
         <v>2.4</v>
@@ -9839,16 +9836,16 @@
         <v>6836180</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D109" s="2">
         <v>45227.33333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9857,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J109">
         <v>2.6</v>
@@ -9925,16 +9922,16 @@
         <v>6836183</v>
       </c>
       <c r="C110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D110" s="2">
         <v>45227.60416666666</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9943,7 +9940,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J110">
         <v>3.8</v>
@@ -10011,16 +10008,16 @@
         <v>6836182</v>
       </c>
       <c r="C111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D111" s="2">
         <v>45228.375</v>
       </c>
       <c r="E111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10029,7 +10026,7 @@
         <v>3</v>
       </c>
       <c r="I111" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J111">
         <v>2</v>
@@ -10097,25 +10094,25 @@
         <v>6835207</v>
       </c>
       <c r="C112" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D112" s="2">
         <v>45228.64583333334</v>
       </c>
       <c r="E112" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F112" t="s">
+        <v>50</v>
+      </c>
+      <c r="G112">
+        <v>2</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112" t="s">
         <v>51</v>
-      </c>
-      <c r="G112">
-        <v>2</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112" t="s">
-        <v>52</v>
       </c>
       <c r="J112">
         <v>2.3</v>
@@ -10183,16 +10180,16 @@
         <v>6836184</v>
       </c>
       <c r="C113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D113" s="2">
         <v>45229.52083333334</v>
       </c>
       <c r="E113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F113" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10201,7 +10198,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -10269,16 +10266,16 @@
         <v>6836185</v>
       </c>
       <c r="C114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D114" s="2">
         <v>45229.64583333334</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -10287,7 +10284,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J114">
         <v>1.909</v>
@@ -10355,16 +10352,16 @@
         <v>6836187</v>
       </c>
       <c r="C115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D115" s="2">
         <v>45233.54166666666</v>
       </c>
       <c r="E115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10373,7 +10370,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J115">
         <v>2.3</v>
@@ -10441,16 +10438,16 @@
         <v>6836190</v>
       </c>
       <c r="C116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D116" s="2">
         <v>45234.48958333334</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10459,7 +10456,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J116">
         <v>1.909</v>
@@ -10527,16 +10524,16 @@
         <v>6836189</v>
       </c>
       <c r="C117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D117" s="2">
         <v>45234.67708333334</v>
       </c>
       <c r="E117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10545,7 +10542,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J117">
         <v>1.75</v>
@@ -10613,16 +10610,16 @@
         <v>6835784</v>
       </c>
       <c r="C118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D118" s="2">
         <v>45235.41666666666</v>
       </c>
       <c r="E118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10631,7 +10628,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J118">
         <v>2</v>
@@ -10699,16 +10696,16 @@
         <v>6836191</v>
       </c>
       <c r="C119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D119" s="2">
         <v>45235.52083333334</v>
       </c>
       <c r="E119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10717,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J119">
         <v>1.5</v>
@@ -10785,16 +10782,16 @@
         <v>6835208</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D120" s="2">
         <v>45235.64583333334</v>
       </c>
       <c r="E120" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10803,7 +10800,7 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J120">
         <v>2</v>
@@ -10871,16 +10868,16 @@
         <v>6836188</v>
       </c>
       <c r="C121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D121" s="2">
         <v>45236.54166666666</v>
       </c>
       <c r="E121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10889,7 +10886,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J121">
         <v>1.909</v>
@@ -10957,16 +10954,16 @@
         <v>6836186</v>
       </c>
       <c r="C122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D122" s="2">
         <v>45236.66666666666</v>
       </c>
       <c r="E122" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10975,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J122">
         <v>3.5</v>
@@ -11043,16 +11040,16 @@
         <v>6835209</v>
       </c>
       <c r="C123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D123" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11061,7 +11058,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J123">
         <v>2.5</v>
@@ -11129,16 +11126,16 @@
         <v>6836197</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D124" s="2">
         <v>45241.375</v>
       </c>
       <c r="E124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11147,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J124">
         <v>2.2</v>
@@ -11215,16 +11212,16 @@
         <v>6836193</v>
       </c>
       <c r="C125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D125" s="2">
         <v>45241.57291666666</v>
       </c>
       <c r="E125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -11233,7 +11230,7 @@
         <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J125">
         <v>4.75</v>
@@ -11301,16 +11298,16 @@
         <v>6836192</v>
       </c>
       <c r="C126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D126" s="2">
         <v>45241.66666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11319,7 +11316,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J126">
         <v>1.833</v>
@@ -11387,16 +11384,16 @@
         <v>6835785</v>
       </c>
       <c r="C127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D127" s="2">
         <v>45242.35416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11405,7 +11402,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J127">
         <v>2.5</v>
@@ -11473,16 +11470,16 @@
         <v>6836195</v>
       </c>
       <c r="C128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D128" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E128" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11491,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J128">
         <v>1.333</v>
@@ -11559,16 +11556,16 @@
         <v>6836196</v>
       </c>
       <c r="C129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D129" s="2">
         <v>45242.66666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11577,7 +11574,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J129">
         <v>1.444</v>
@@ -11645,16 +11642,16 @@
         <v>6836194</v>
       </c>
       <c r="C130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D130" s="2">
         <v>45243.64583333334</v>
       </c>
       <c r="E130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11663,7 +11660,7 @@
         <v>4</v>
       </c>
       <c r="I130" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J130">
         <v>2.15</v>
@@ -11731,16 +11728,16 @@
         <v>6836198</v>
       </c>
       <c r="C131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D131" s="2">
         <v>45254.52083333334</v>
       </c>
       <c r="E131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11749,7 +11746,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J131">
         <v>2.05</v>
@@ -11817,16 +11814,16 @@
         <v>6836203</v>
       </c>
       <c r="C132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D132" s="2">
         <v>45254.64583333334</v>
       </c>
       <c r="E132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F132" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11835,7 +11832,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J132">
         <v>1.65</v>
@@ -11903,16 +11900,16 @@
         <v>6835786</v>
       </c>
       <c r="C133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D133" s="2">
         <v>45255.52083333334</v>
       </c>
       <c r="E133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G133">
         <v>4</v>
@@ -11921,7 +11918,7 @@
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J133">
         <v>3.2</v>
@@ -11989,16 +11986,16 @@
         <v>6836199</v>
       </c>
       <c r="C134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D134" s="2">
         <v>45255.64583333334</v>
       </c>
       <c r="E134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F134" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -12007,7 +12004,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J134">
         <v>1.45</v>
@@ -12075,16 +12072,16 @@
         <v>6836200</v>
       </c>
       <c r="C135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D135" s="2">
         <v>45256.52083333334</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F135" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12093,7 +12090,7 @@
         <v>3</v>
       </c>
       <c r="I135" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J135">
         <v>3.4</v>
@@ -12161,16 +12158,16 @@
         <v>6836201</v>
       </c>
       <c r="C136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D136" s="2">
         <v>45256.64583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12179,7 +12176,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J136">
         <v>9</v>
@@ -12247,16 +12244,16 @@
         <v>6836202</v>
       </c>
       <c r="C137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D137" s="2">
         <v>45257.52083333334</v>
       </c>
       <c r="E137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F137" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12265,7 +12262,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J137">
         <v>2.6</v>
@@ -12333,16 +12330,16 @@
         <v>6835210</v>
       </c>
       <c r="C138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D138" s="2">
         <v>45257.64583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12351,7 +12348,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J138">
         <v>1.833</v>
@@ -12419,16 +12416,16 @@
         <v>6835787</v>
       </c>
       <c r="C139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D139" s="2">
         <v>45261.5</v>
       </c>
       <c r="E139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12437,7 +12434,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J139">
         <v>2.3</v>
@@ -12505,16 +12502,16 @@
         <v>7528972</v>
       </c>
       <c r="C140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D140" s="2">
         <v>45261.625</v>
       </c>
       <c r="E140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F140" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12523,7 +12520,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J140">
         <v>3.3</v>
@@ -12591,16 +12588,16 @@
         <v>6836204</v>
       </c>
       <c r="C141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D141" s="2">
         <v>45262.375</v>
       </c>
       <c r="E141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -12609,7 +12606,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J141">
         <v>2.5</v>
@@ -12677,16 +12674,16 @@
         <v>6835211</v>
       </c>
       <c r="C142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D142" s="2">
         <v>45262.5</v>
       </c>
       <c r="E142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12695,7 +12692,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J142">
         <v>4.2</v>
@@ -12763,16 +12760,16 @@
         <v>6836205</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D143" s="2">
         <v>45262.64583333334</v>
       </c>
       <c r="E143" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12781,7 +12778,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J143">
         <v>2.6</v>
@@ -12849,16 +12846,16 @@
         <v>6836208</v>
       </c>
       <c r="C144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D144" s="2">
         <v>45263.45833333334</v>
       </c>
       <c r="E144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12867,7 +12864,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -12935,16 +12932,16 @@
         <v>6836206</v>
       </c>
       <c r="C145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D145" s="2">
         <v>45263.66666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -12953,7 +12950,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J145">
         <v>1.363</v>
@@ -13021,16 +13018,16 @@
         <v>6836207</v>
       </c>
       <c r="C146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D146" s="2">
         <v>45264.625</v>
       </c>
       <c r="E146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13039,7 +13036,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J146">
         <v>1.6</v>
@@ -13107,16 +13104,16 @@
         <v>6836215</v>
       </c>
       <c r="C147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D147" s="2">
         <v>45268.58333333334</v>
       </c>
       <c r="E147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F147" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13125,7 +13122,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J147">
         <v>2.3</v>
@@ -13193,16 +13190,16 @@
         <v>6835212</v>
       </c>
       <c r="C148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D148" s="2">
         <v>45269.65625</v>
       </c>
       <c r="E148" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13211,7 +13208,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J148">
         <v>1.7</v>
@@ -13279,16 +13276,16 @@
         <v>6836210</v>
       </c>
       <c r="C149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D149" s="2">
         <v>45270.375</v>
       </c>
       <c r="E149" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13297,7 +13294,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J149">
         <v>2.875</v>
@@ -13365,16 +13362,16 @@
         <v>6836216</v>
       </c>
       <c r="C150" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D150" s="2">
         <v>45270.5</v>
       </c>
       <c r="E150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13383,7 +13380,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J150">
         <v>1.9</v>
@@ -13451,16 +13448,16 @@
         <v>6836211</v>
       </c>
       <c r="C151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D151" s="2">
         <v>45270.625</v>
       </c>
       <c r="E151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F151" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13469,7 +13466,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J151">
         <v>2.7</v>
@@ -13537,16 +13534,16 @@
         <v>6836214</v>
       </c>
       <c r="C152" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D152" s="2">
         <v>45271.5</v>
       </c>
       <c r="E152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F152" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13555,7 +13552,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J152">
         <v>1.85</v>
@@ -13623,16 +13620,16 @@
         <v>6836213</v>
       </c>
       <c r="C153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D153" s="2">
         <v>45271.65625</v>
       </c>
       <c r="E153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F153" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13641,7 +13638,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J153">
         <v>3.25</v>
@@ -13709,16 +13706,16 @@
         <v>6836212</v>
       </c>
       <c r="C154" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D154" s="2">
         <v>45272.5</v>
       </c>
       <c r="E154" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13727,7 +13724,7 @@
         <v>3</v>
       </c>
       <c r="I154" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J154">
         <v>2.7</v>
@@ -13795,16 +13792,16 @@
         <v>6835788</v>
       </c>
       <c r="C155" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D155" s="2">
         <v>45275.5</v>
       </c>
       <c r="E155" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13813,7 +13810,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J155">
         <v>2.3</v>
@@ -13881,16 +13878,16 @@
         <v>6835213</v>
       </c>
       <c r="C156" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D156" s="2">
         <v>45275.625</v>
       </c>
       <c r="E156" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13899,7 +13896,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J156">
         <v>3.1</v>
@@ -13967,17 +13964,17 @@
         <v>6836222</v>
       </c>
       <c r="C157" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D157" s="2">
         <v>45276.375</v>
       </c>
       <c r="E157" t="s">
+        <v>44</v>
+      </c>
+      <c r="F157" t="s">
         <v>45</v>
       </c>
-      <c r="F157" t="s">
-        <v>46</v>
-      </c>
       <c r="G157">
         <v>0</v>
       </c>
@@ -13985,7 +13982,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J157">
         <v>3.1</v>
@@ -14053,16 +14050,16 @@
         <v>6836221</v>
       </c>
       <c r="C158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D158" s="2">
         <v>45276.5</v>
       </c>
       <c r="E158" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F158" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14071,7 +14068,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J158">
         <v>1.45</v>
@@ -14139,16 +14136,16 @@
         <v>6836217</v>
       </c>
       <c r="C159" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D159" s="2">
         <v>45276.625</v>
       </c>
       <c r="E159" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G159">
         <v>3</v>
@@ -14157,7 +14154,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J159">
         <v>1.666</v>
@@ -14225,16 +14222,16 @@
         <v>6836219</v>
       </c>
       <c r="C160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D160" s="2">
         <v>45277.41666666666</v>
       </c>
       <c r="E160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14243,7 +14240,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J160">
         <v>1.8</v>
@@ -14311,16 +14308,16 @@
         <v>6836218</v>
       </c>
       <c r="C161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D161" s="2">
         <v>45277.66666666666</v>
       </c>
       <c r="E161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -14329,7 +14326,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J161">
         <v>3.3</v>
@@ -14397,16 +14394,16 @@
         <v>6836220</v>
       </c>
       <c r="C162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D162" s="2">
         <v>45278.625</v>
       </c>
       <c r="E162" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -14415,7 +14412,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J162">
         <v>2.25</v>
@@ -14483,16 +14480,16 @@
         <v>6836227</v>
       </c>
       <c r="C163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D163" s="2">
         <v>45279.52083333334</v>
       </c>
       <c r="E163" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14501,7 +14498,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J163">
         <v>2.1</v>
@@ -14569,16 +14566,16 @@
         <v>6836226</v>
       </c>
       <c r="C164" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D164" s="2">
         <v>45279.64583333334</v>
       </c>
       <c r="E164" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F164" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14587,7 +14584,7 @@
         <v>3</v>
       </c>
       <c r="I164" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J164">
         <v>5.25</v>
@@ -14655,16 +14652,16 @@
         <v>6836228</v>
       </c>
       <c r="C165" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D165" s="2">
         <v>45280.52083333334</v>
       </c>
       <c r="E165" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F165" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14673,7 +14670,7 @@
         <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J165">
         <v>4.5</v>
@@ -14741,16 +14738,16 @@
         <v>6835214</v>
       </c>
       <c r="C166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D166" s="2">
         <v>45280.64583333334</v>
       </c>
       <c r="E166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14759,7 +14756,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J166">
         <v>2.25</v>
@@ -14827,16 +14824,16 @@
         <v>6836223</v>
       </c>
       <c r="C167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D167" s="2">
         <v>45281.5</v>
       </c>
       <c r="E167" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14845,7 +14842,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J167">
         <v>2.5</v>
@@ -14913,16 +14910,16 @@
         <v>6836224</v>
       </c>
       <c r="C168" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D168" s="2">
         <v>45281.61458333334</v>
       </c>
       <c r="E168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G168">
         <v>4</v>
@@ -14931,7 +14928,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J168">
         <v>1.95</v>
@@ -14999,16 +14996,16 @@
         <v>6836225</v>
       </c>
       <c r="C169" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D169" s="2">
         <v>45282.52083333334</v>
       </c>
       <c r="E169" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F169" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -15017,7 +15014,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J169">
         <v>1.909</v>
@@ -15085,16 +15082,16 @@
         <v>6835789</v>
       </c>
       <c r="C170" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D170" s="2">
         <v>45282.64583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15103,7 +15100,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J170">
         <v>2.875</v>
@@ -15171,16 +15168,16 @@
         <v>6836231</v>
       </c>
       <c r="C171" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D171" s="2">
         <v>45310.5</v>
       </c>
       <c r="E171" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G171">
         <v>6</v>
@@ -15189,7 +15186,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J171">
         <v>1.727</v>
@@ -15257,16 +15254,16 @@
         <v>6835215</v>
       </c>
       <c r="C172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D172" s="2">
         <v>45310.625</v>
       </c>
       <c r="E172" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G172">
         <v>4</v>
@@ -15275,7 +15272,7 @@
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J172">
         <v>1.833</v>
@@ -15343,16 +15340,16 @@
         <v>6836229</v>
       </c>
       <c r="C173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D173" s="2">
         <v>45311.5</v>
       </c>
       <c r="E173" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -15361,7 +15358,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J173">
         <v>2.1</v>
@@ -15429,16 +15426,16 @@
         <v>6836232</v>
       </c>
       <c r="C174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D174" s="2">
         <v>45311.625</v>
       </c>
       <c r="E174" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15447,7 +15444,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J174">
         <v>2</v>
@@ -15515,16 +15512,16 @@
         <v>6836230</v>
       </c>
       <c r="C175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D175" s="2">
         <v>45312.41666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15533,7 +15530,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J175">
         <v>4.75</v>
@@ -15601,16 +15598,16 @@
         <v>6836234</v>
       </c>
       <c r="C176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D176" s="2">
         <v>45312.625</v>
       </c>
       <c r="E176" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F176" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15619,7 +15616,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J176">
         <v>1.833</v>
@@ -15687,16 +15684,16 @@
         <v>6835790</v>
       </c>
       <c r="C177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D177" s="2">
         <v>45313.5</v>
       </c>
       <c r="E177" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15705,7 +15702,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J177">
         <v>2.625</v>
@@ -15773,16 +15770,16 @@
         <v>6836233</v>
       </c>
       <c r="C178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D178" s="2">
         <v>45313.625</v>
       </c>
       <c r="E178" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F178" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G178">
         <v>4</v>
@@ -15791,7 +15788,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J178">
         <v>1.363</v>
@@ -15859,16 +15856,16 @@
         <v>6836236</v>
       </c>
       <c r="C179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D179" s="2">
         <v>45317.625</v>
       </c>
       <c r="E179" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -15877,7 +15874,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J179">
         <v>1.85</v>
@@ -15945,16 +15942,16 @@
         <v>6836240</v>
       </c>
       <c r="C180" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D180" s="2">
         <v>45318.375</v>
       </c>
       <c r="E180" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F180" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -15963,7 +15960,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J180">
         <v>3</v>
@@ -16031,16 +16028,16 @@
         <v>6836239</v>
       </c>
       <c r="C181" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D181" s="2">
         <v>45318.5</v>
       </c>
       <c r="E181" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F181" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16049,7 +16046,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J181">
         <v>2.4</v>
@@ -16117,16 +16114,16 @@
         <v>6835216</v>
       </c>
       <c r="C182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D182" s="2">
         <v>45318.625</v>
       </c>
       <c r="E182" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F182" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16135,7 +16132,7 @@
         <v>2</v>
       </c>
       <c r="I182" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J182">
         <v>4</v>
@@ -16203,16 +16200,16 @@
         <v>6836237</v>
       </c>
       <c r="C183" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D183" s="2">
         <v>45319.375</v>
       </c>
       <c r="E183" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F183" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16221,7 +16218,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J183">
         <v>1.666</v>
@@ -16289,16 +16286,16 @@
         <v>6836238</v>
       </c>
       <c r="C184" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D184" s="2">
         <v>45319.5</v>
       </c>
       <c r="E184" t="s">
+        <v>47</v>
+      </c>
+      <c r="F184" t="s">
         <v>48</v>
-      </c>
-      <c r="F184" t="s">
-        <v>49</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16307,7 +16304,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J184">
         <v>3.3</v>
@@ -16375,16 +16372,16 @@
         <v>6836235</v>
       </c>
       <c r="C185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D185" s="2">
         <v>45319.625</v>
       </c>
       <c r="E185" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F185" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -16393,7 +16390,7 @@
         <v>3</v>
       </c>
       <c r="I185" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J185">
         <v>2.7</v>
@@ -16461,16 +16458,16 @@
         <v>6835791</v>
       </c>
       <c r="C186" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D186" s="2">
         <v>45320.625</v>
       </c>
       <c r="E186" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F186" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G186">
         <v>4</v>
@@ -16479,7 +16476,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J186">
         <v>1.571</v>
@@ -16547,16 +16544,16 @@
         <v>6836241</v>
       </c>
       <c r="C187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D187" s="2">
         <v>45324.5</v>
       </c>
       <c r="E187" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F187" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G187">
         <v>2</v>
@@ -16565,7 +16562,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J187">
         <v>2.5</v>
@@ -16633,16 +16630,16 @@
         <v>6836245</v>
       </c>
       <c r="C188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D188" s="2">
         <v>45324.625</v>
       </c>
       <c r="E188" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F188" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16651,7 +16648,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J188">
         <v>1.909</v>
@@ -16719,16 +16716,16 @@
         <v>6836242</v>
       </c>
       <c r="C189" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D189" s="2">
         <v>45325.5</v>
       </c>
       <c r="E189" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -16737,7 +16734,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J189">
         <v>3</v>
@@ -16805,16 +16802,16 @@
         <v>6835217</v>
       </c>
       <c r="C190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D190" s="2">
         <v>45325.625</v>
       </c>
       <c r="E190" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F190" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G190">
         <v>2</v>
@@ -16823,7 +16820,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J190">
         <v>1.8</v>
@@ -16891,16 +16888,16 @@
         <v>6836243</v>
       </c>
       <c r="C191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D191" s="2">
         <v>45326.33333333334</v>
       </c>
       <c r="E191" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F191" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16909,7 +16906,7 @@
         <v>3</v>
       </c>
       <c r="I191" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J191">
         <v>1.8</v>
@@ -16977,16 +16974,16 @@
         <v>6836244</v>
       </c>
       <c r="C192" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D192" s="2">
         <v>45326.4375</v>
       </c>
       <c r="E192" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F192" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -16995,7 +16992,7 @@
         <v>3</v>
       </c>
       <c r="I192" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J192">
         <v>2.6</v>
@@ -17063,16 +17060,16 @@
         <v>6835792</v>
       </c>
       <c r="C193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D193" s="2">
         <v>45327.5</v>
       </c>
       <c r="E193" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17081,7 +17078,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J193">
         <v>2.6</v>
@@ -17149,16 +17146,16 @@
         <v>6836246</v>
       </c>
       <c r="C194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D194" s="2">
         <v>45327.625</v>
       </c>
       <c r="E194" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F194" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17167,7 +17164,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J194">
         <v>1.8</v>
@@ -17235,16 +17232,16 @@
         <v>6836251</v>
       </c>
       <c r="C195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D195" s="2">
         <v>45331.5</v>
       </c>
       <c r="E195" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F195" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17253,7 +17250,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J195">
         <v>2.4</v>
@@ -17321,16 +17318,16 @@
         <v>6836250</v>
       </c>
       <c r="C196" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D196" s="2">
         <v>45331.625</v>
       </c>
       <c r="E196" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -17339,7 +17336,7 @@
         <v>2</v>
       </c>
       <c r="I196" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J196">
         <v>1.85</v>
@@ -17407,16 +17404,16 @@
         <v>6835793</v>
       </c>
       <c r="C197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D197" s="2">
         <v>45332.375</v>
       </c>
       <c r="E197" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F197" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -17425,7 +17422,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J197">
         <v>2.45</v>
@@ -17493,16 +17490,16 @@
         <v>6835218</v>
       </c>
       <c r="C198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D198" s="2">
         <v>45332.67708333334</v>
       </c>
       <c r="E198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F198" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -17511,7 +17508,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J198">
         <v>2.15</v>
@@ -17579,17 +17576,17 @@
         <v>6836247</v>
       </c>
       <c r="C199" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D199" s="2">
         <v>45333.55208333334</v>
       </c>
       <c r="E199" t="s">
+        <v>38</v>
+      </c>
+      <c r="F199" t="s">
         <v>39</v>
       </c>
-      <c r="F199" t="s">
-        <v>40</v>
-      </c>
       <c r="G199">
         <v>0</v>
       </c>
@@ -17597,7 +17594,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J199">
         <v>2.25</v>
@@ -17665,16 +17662,16 @@
         <v>6836252</v>
       </c>
       <c r="C200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D200" s="2">
         <v>45333.65625</v>
       </c>
       <c r="E200" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F200" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -17683,7 +17680,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J200">
         <v>1.666</v>
@@ -17751,16 +17748,16 @@
         <v>6836249</v>
       </c>
       <c r="C201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D201" s="2">
         <v>45334.5</v>
       </c>
       <c r="E201" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F201" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17769,7 +17766,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J201">
         <v>1.909</v>
@@ -17837,16 +17834,16 @@
         <v>6836253</v>
       </c>
       <c r="C202" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D202" s="2">
         <v>45334.625</v>
       </c>
       <c r="E202" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F202" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17855,7 +17852,7 @@
         <v>2</v>
       </c>
       <c r="I202" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J202">
         <v>1.55</v>
@@ -17923,16 +17920,16 @@
         <v>6836254</v>
       </c>
       <c r="C203" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D203" s="2">
         <v>45338.5</v>
       </c>
       <c r="E203" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F203" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17941,7 +17938,7 @@
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J203">
         <v>2.15</v>
@@ -18009,17 +18006,17 @@
         <v>6835219</v>
       </c>
       <c r="C204" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D204" s="2">
         <v>45338.625</v>
       </c>
       <c r="E204" t="s">
+        <v>37</v>
+      </c>
+      <c r="F204" t="s">
         <v>38</v>
       </c>
-      <c r="F204" t="s">
-        <v>39</v>
-      </c>
       <c r="G204">
         <v>2</v>
       </c>
@@ -18027,7 +18024,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J204">
         <v>1.833</v>
@@ -18095,16 +18092,16 @@
         <v>6835794</v>
       </c>
       <c r="C205" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D205" s="2">
         <v>45339.375</v>
       </c>
       <c r="E205" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F205" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -18113,7 +18110,7 @@
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J205">
         <v>2.4</v>
@@ -18181,16 +18178,16 @@
         <v>6836256</v>
       </c>
       <c r="C206" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D206" s="2">
         <v>45339.6875</v>
       </c>
       <c r="E206" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -18199,7 +18196,7 @@
         <v>3</v>
       </c>
       <c r="I206" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J206">
         <v>3.1</v>
@@ -18267,17 +18264,17 @@
         <v>6836255</v>
       </c>
       <c r="C207" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D207" s="2">
         <v>45340.51041666666</v>
       </c>
       <c r="E207" t="s">
+        <v>49</v>
+      </c>
+      <c r="F207" t="s">
         <v>50</v>
       </c>
-      <c r="F207" t="s">
-        <v>51</v>
-      </c>
       <c r="G207">
         <v>2</v>
       </c>
@@ -18285,7 +18282,7 @@
         <v>2</v>
       </c>
       <c r="I207" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J207">
         <v>3.4</v>
@@ -18353,16 +18350,16 @@
         <v>6836258</v>
       </c>
       <c r="C208" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D208" s="2">
         <v>45340.625</v>
       </c>
       <c r="E208" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G208">
         <v>3</v>
@@ -18371,7 +18368,7 @@
         <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J208">
         <v>2.5</v>
@@ -18439,16 +18436,16 @@
         <v>6836259</v>
       </c>
       <c r="C209" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D209" s="2">
         <v>45341.52083333334</v>
       </c>
       <c r="E209" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F209" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -18457,7 +18454,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J209">
         <v>2.3</v>
@@ -18525,16 +18522,16 @@
         <v>6836257</v>
       </c>
       <c r="C210" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D210" s="2">
         <v>45341.64583333334</v>
       </c>
       <c r="E210" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F210" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -18543,7 +18540,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J210">
         <v>3.6</v>
@@ -18611,16 +18608,16 @@
         <v>6836260</v>
       </c>
       <c r="C211" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D211" s="2">
         <v>45345.5</v>
       </c>
       <c r="E211" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F211" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18629,7 +18626,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J211">
         <v>2.1</v>
@@ -18697,16 +18694,16 @@
         <v>6836263</v>
       </c>
       <c r="C212" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D212" s="2">
         <v>45345.625</v>
       </c>
       <c r="E212" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F212" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G212">
         <v>4</v>
@@ -18715,7 +18712,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J212">
         <v>1.5</v>
@@ -18783,16 +18780,16 @@
         <v>6836261</v>
       </c>
       <c r="C213" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D213" s="2">
         <v>45346.375</v>
       </c>
       <c r="E213" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F213" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -18801,7 +18798,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J213">
         <v>2.4</v>
@@ -18869,16 +18866,16 @@
         <v>6836265</v>
       </c>
       <c r="C214" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D214" s="2">
         <v>45346.5</v>
       </c>
       <c r="E214" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F214" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -18887,7 +18884,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J214">
         <v>1.833</v>
@@ -18955,16 +18952,16 @@
         <v>6835220</v>
       </c>
       <c r="C215" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D215" s="2">
         <v>45346.625</v>
       </c>
       <c r="E215" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F215" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G215">
         <v>3</v>
@@ -18973,7 +18970,7 @@
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J215">
         <v>4.2</v>
@@ -19041,16 +19038,16 @@
         <v>6836264</v>
       </c>
       <c r="C216" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D216" s="2">
         <v>45347.375</v>
       </c>
       <c r="E216" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F216" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -19059,7 +19056,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J216">
         <v>2.25</v>
@@ -19127,16 +19124,16 @@
         <v>6836262</v>
       </c>
       <c r="C217" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D217" s="2">
         <v>45347.625</v>
       </c>
       <c r="E217" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F217" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G217">
         <v>3</v>
@@ -19145,7 +19142,7 @@
         <v>2</v>
       </c>
       <c r="I217" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J217">
         <v>1.363</v>
@@ -19213,16 +19210,16 @@
         <v>6835795</v>
       </c>
       <c r="C218" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D218" s="2">
         <v>45348.625</v>
       </c>
       <c r="E218" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F218" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19231,7 +19228,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J218">
         <v>1.533</v>
@@ -19299,16 +19296,16 @@
         <v>6836267</v>
       </c>
       <c r="C219" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D219" s="2">
         <v>45349.46875</v>
       </c>
       <c r="E219" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F219" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19317,7 +19314,7 @@
         <v>1</v>
       </c>
       <c r="I219" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J219">
         <v>1.615</v>
@@ -19385,16 +19382,16 @@
         <v>6836266</v>
       </c>
       <c r="C220" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D220" s="2">
         <v>45349.5625</v>
       </c>
       <c r="E220" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F220" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -19403,7 +19400,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J220">
         <v>2.3</v>
@@ -19471,16 +19468,16 @@
         <v>6836271</v>
       </c>
       <c r="C221" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D221" s="2">
         <v>45349.66666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F221" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G221">
         <v>2</v>
@@ -19489,7 +19486,7 @@
         <v>2</v>
       </c>
       <c r="I221" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J221">
         <v>4.2</v>
@@ -19557,16 +19554,16 @@
         <v>6836272</v>
       </c>
       <c r="C222" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D222" s="2">
         <v>45350.5625</v>
       </c>
       <c r="E222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -19575,7 +19572,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J222">
         <v>2.7</v>
@@ -19643,16 +19640,16 @@
         <v>6835221</v>
       </c>
       <c r="C223" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D223" s="2">
         <v>45350.66666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F223" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G223">
         <v>4</v>
@@ -19661,7 +19658,7 @@
         <v>1</v>
       </c>
       <c r="I223" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J223">
         <v>1.727</v>
@@ -19729,16 +19726,16 @@
         <v>6836270</v>
       </c>
       <c r="C224" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D224" s="2">
         <v>45351.46875</v>
       </c>
       <c r="E224" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F224" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19747,7 +19744,7 @@
         <v>2</v>
       </c>
       <c r="I224" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J224">
         <v>3.2</v>
@@ -19815,16 +19812,16 @@
         <v>6836268</v>
       </c>
       <c r="C225" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D225" s="2">
         <v>45351.5625</v>
       </c>
       <c r="E225" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F225" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -19833,7 +19830,7 @@
         <v>3</v>
       </c>
       <c r="I225" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J225">
         <v>3</v>
@@ -19901,16 +19898,16 @@
         <v>6836269</v>
       </c>
       <c r="C226" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D226" s="2">
         <v>45351.66666666666</v>
       </c>
       <c r="E226" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F226" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -19919,7 +19916,7 @@
         <v>2</v>
       </c>
       <c r="I226" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J226">
         <v>4</v>
@@ -19987,16 +19984,16 @@
         <v>6836274</v>
       </c>
       <c r="C227" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D227" s="2">
         <v>45352.625</v>
       </c>
       <c r="E227" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F227" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -20005,7 +20002,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J227">
         <v>2.4</v>
@@ -20073,16 +20070,16 @@
         <v>6836275</v>
       </c>
       <c r="C228" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D228" s="2">
         <v>45353.375</v>
       </c>
       <c r="E228" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F228" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G228">
         <v>3</v>
@@ -20091,7 +20088,7 @@
         <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J228">
         <v>2.25</v>
@@ -20159,16 +20156,16 @@
         <v>6836273</v>
       </c>
       <c r="C229" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D229" s="2">
         <v>45353.5</v>
       </c>
       <c r="E229" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F229" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G229">
         <v>4</v>
@@ -20177,7 +20174,7 @@
         <v>1</v>
       </c>
       <c r="I229" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J229">
         <v>2.1</v>
@@ -20245,16 +20242,16 @@
         <v>6907421</v>
       </c>
       <c r="C230" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D230" s="2">
         <v>45353.625</v>
       </c>
       <c r="E230" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F230" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20263,7 +20260,7 @@
         <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J230">
         <v>2.7</v>
@@ -20331,16 +20328,16 @@
         <v>6838744</v>
       </c>
       <c r="C231" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D231" s="2">
         <v>45354.39583333334</v>
       </c>
       <c r="E231" t="s">
+        <v>48</v>
+      </c>
+      <c r="F231" t="s">
         <v>49</v>
-      </c>
-      <c r="F231" t="s">
-        <v>50</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -20349,7 +20346,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J231">
         <v>1.8</v>
@@ -20417,16 +20414,16 @@
         <v>6848293</v>
       </c>
       <c r="C232" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D232" s="2">
         <v>45354.64583333334</v>
       </c>
       <c r="E232" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F232" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -20435,7 +20432,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J232">
         <v>1.6</v>
@@ -20503,16 +20500,16 @@
         <v>6848294</v>
       </c>
       <c r="C233" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D233" s="2">
         <v>45355.5</v>
       </c>
       <c r="E233" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F233" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G233">
         <v>4</v>
@@ -20521,7 +20518,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J233">
         <v>1.8</v>
@@ -20589,16 +20586,16 @@
         <v>6836276</v>
       </c>
       <c r="C234" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D234" s="2">
         <v>45355.625</v>
       </c>
       <c r="E234" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F234" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -20607,7 +20604,7 @@
         <v>1</v>
       </c>
       <c r="I234" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J234">
         <v>2.5</v>
@@ -20675,16 +20672,16 @@
         <v>6870268</v>
       </c>
       <c r="C235" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D235" s="2">
         <v>45359.625</v>
       </c>
       <c r="E235" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F235" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -20693,7 +20690,7 @@
         <v>2</v>
       </c>
       <c r="I235" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J235">
         <v>2.8</v>
@@ -20758,19 +20755,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6865915</v>
+        <v>6861095</v>
       </c>
       <c r="C236" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D236" s="2">
         <v>45359.625</v>
       </c>
       <c r="E236" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F236" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -20779,55 +20776,55 @@
         <v>0</v>
       </c>
       <c r="I236" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J236">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K236">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L236">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="M236">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N236">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O236">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="P236">
         <v>0.25</v>
       </c>
       <c r="Q236">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R236">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="S236">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T236">
+        <v>1.8</v>
+      </c>
+      <c r="U236">
         <v>2.05</v>
       </c>
-      <c r="U236">
-        <v>1.75</v>
-      </c>
       <c r="V236">
         <v>-1</v>
       </c>
       <c r="W236">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>0.4875</v>
+        <v>0.3875</v>
       </c>
       <c r="Z236">
         <v>-0.5</v>
@@ -20836,7 +20833,7 @@
         <v>-1</v>
       </c>
       <c r="AB236">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="237" spans="1:28">
@@ -20844,22 +20841,22 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6836277</v>
+        <v>6865915</v>
       </c>
       <c r="C237" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D237" s="2">
         <v>45359.625</v>
       </c>
       <c r="E237" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F237" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -20868,52 +20865,52 @@
         <v>52</v>
       </c>
       <c r="J237">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="K237">
+        <v>3.25</v>
+      </c>
+      <c r="L237">
+        <v>2.05</v>
+      </c>
+      <c r="M237">
         <v>3.4</v>
       </c>
-      <c r="L237">
-        <v>5</v>
-      </c>
-      <c r="M237">
-        <v>1.65</v>
-      </c>
       <c r="N237">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O237">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="P237">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q237">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R237">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S237">
         <v>2.25</v>
       </c>
       <c r="T237">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="U237">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V237">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="Z237">
         <v>-0.5</v>
@@ -20922,7 +20919,7 @@
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="238" spans="1:28">
@@ -20930,19 +20927,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6852370</v>
+        <v>6836277</v>
       </c>
       <c r="C238" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D238" s="2">
         <v>45359.625</v>
       </c>
       <c r="E238" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F238" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -20951,46 +20948,46 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J238">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="K238">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="L238">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M238">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="N238">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O238">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="P238">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q238">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R238">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S238">
         <v>2.25</v>
       </c>
       <c r="T238">
+        <v>1.875</v>
+      </c>
+      <c r="U238">
         <v>1.975</v>
       </c>
-      <c r="U238">
-        <v>1.875</v>
-      </c>
       <c r="V238">
-        <v>1.375</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W238">
         <v>-1</v>
@@ -20999,16 +20996,16 @@
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA238">
         <v>-1</v>
       </c>
       <c r="AB238">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:28">
@@ -21016,85 +21013,85 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6861095</v>
+        <v>6852370</v>
       </c>
       <c r="C239" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D239" s="2">
         <v>45359.625</v>
       </c>
       <c r="E239" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F239" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H239">
         <v>0</v>
       </c>
       <c r="I239" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J239">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="K239">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="L239">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="M239">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="N239">
         <v>3</v>
       </c>
       <c r="O239">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="P239">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q239">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R239">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S239">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T239">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U239">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V239">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W239">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="Z239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
         <v>-1</v>
       </c>
       <c r="AB239">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="240" spans="1:28">
@@ -21105,16 +21102,16 @@
         <v>6870267</v>
       </c>
       <c r="C240" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D240" s="2">
         <v>45360.625</v>
       </c>
       <c r="E240" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F240" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -21123,7 +21120,7 @@
         <v>4</v>
       </c>
       <c r="I240" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J240">
         <v>2.45</v>
@@ -21191,16 +21188,16 @@
         <v>6836278</v>
       </c>
       <c r="C241" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D241" s="2">
         <v>45361.65625</v>
       </c>
       <c r="E241" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F241" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -21209,7 +21206,7 @@
         <v>2</v>
       </c>
       <c r="I241" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J241">
         <v>3.6</v>
@@ -21277,16 +21274,16 @@
         <v>6836954</v>
       </c>
       <c r="C242" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D242" s="2">
         <v>45362.625</v>
       </c>
       <c r="E242" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F242" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -21295,7 +21292,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J242">
         <v>2.15</v>
@@ -21363,16 +21360,16 @@
         <v>7951557</v>
       </c>
       <c r="C243" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D243" s="2">
         <v>45366.52083333334</v>
       </c>
       <c r="E243" t="s">
+        <v>48</v>
+      </c>
+      <c r="F243" t="s">
         <v>49</v>
-      </c>
-      <c r="F243" t="s">
-        <v>50</v>
       </c>
       <c r="G243">
         <v>3</v>
@@ -21381,7 +21378,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J243">
         <v>1.615</v>
@@ -21449,16 +21446,16 @@
         <v>7949044</v>
       </c>
       <c r="C244" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D244" s="2">
         <v>45366.64583333334</v>
       </c>
       <c r="E244" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F244" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -21467,7 +21464,7 @@
         <v>2</v>
       </c>
       <c r="I244" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J244">
         <v>1.75</v>
@@ -21535,16 +21532,16 @@
         <v>7951558</v>
       </c>
       <c r="C245" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D245" s="2">
         <v>45367.5</v>
       </c>
       <c r="E245" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F245" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G245">
         <v>1</v>
@@ -21553,7 +21550,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J245">
         <v>2.1</v>
@@ -21621,16 +21618,16 @@
         <v>7949046</v>
       </c>
       <c r="C246" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D246" s="2">
         <v>45367.625</v>
       </c>
       <c r="E246" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F246" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G246">
         <v>1</v>
@@ -21639,7 +21636,7 @@
         <v>2</v>
       </c>
       <c r="I246" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J246">
         <v>2.05</v>
@@ -21707,16 +21704,16 @@
         <v>7951775</v>
       </c>
       <c r="C247" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D247" s="2">
         <v>45368.55208333334</v>
       </c>
       <c r="E247" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F247" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G247">
         <v>3</v>
@@ -21725,7 +21722,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J247">
         <v>1.909</v>
@@ -21793,16 +21790,16 @@
         <v>7953049</v>
       </c>
       <c r="C248" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D248" s="2">
         <v>45368.66666666666</v>
       </c>
       <c r="E248" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F248" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G248">
         <v>2</v>
@@ -21811,7 +21808,7 @@
         <v>1</v>
       </c>
       <c r="I248" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J248">
         <v>1.65</v>
@@ -21879,16 +21876,16 @@
         <v>7951776</v>
       </c>
       <c r="C249" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D249" s="2">
         <v>45369.52083333334</v>
       </c>
       <c r="E249" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F249" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G249">
         <v>4</v>
@@ -21897,7 +21894,7 @@
         <v>3</v>
       </c>
       <c r="I249" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J249">
         <v>1.909</v>
@@ -21965,16 +21962,16 @@
         <v>7951777</v>
       </c>
       <c r="C250" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D250" s="2">
         <v>45369.64583333334</v>
       </c>
       <c r="E250" t="s">
+        <v>39</v>
+      </c>
+      <c r="F250" t="s">
         <v>40</v>
-      </c>
-      <c r="F250" t="s">
-        <v>41</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -21983,7 +21980,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J250">
         <v>2.25</v>
@@ -22051,16 +22048,16 @@
         <v>7951781</v>
       </c>
       <c r="C251" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D251" s="2">
         <v>45380.52083333334</v>
       </c>
       <c r="E251" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F251" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -22069,7 +22066,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J251">
         <v>3</v>
@@ -22137,16 +22134,16 @@
         <v>7951750</v>
       </c>
       <c r="C252" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D252" s="2">
         <v>45380.64583333334</v>
       </c>
       <c r="E252" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F252" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G252">
         <v>1</v>
@@ -22155,7 +22152,7 @@
         <v>1</v>
       </c>
       <c r="I252" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J252">
         <v>3.3</v>
@@ -22223,16 +22220,16 @@
         <v>8010912</v>
       </c>
       <c r="C253" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D253" s="2">
         <v>45381.44791666666</v>
       </c>
       <c r="E253" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F253" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G253">
         <v>2</v>
@@ -22241,7 +22238,7 @@
         <v>1</v>
       </c>
       <c r="I253" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J253">
         <v>2.55</v>
@@ -22309,16 +22306,16 @@
         <v>8010913</v>
       </c>
       <c r="C254" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D254" s="2">
         <v>45381.54166666666</v>
       </c>
       <c r="E254" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F254" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -22327,7 +22324,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J254">
         <v>1.95</v>
@@ -22395,16 +22392,16 @@
         <v>7951749</v>
       </c>
       <c r="C255" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D255" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E255" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F255" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G255">
         <v>2</v>
@@ -22413,7 +22410,7 @@
         <v>1</v>
       </c>
       <c r="I255" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J255">
         <v>2.1</v>
@@ -22481,16 +22478,16 @@
         <v>7951779</v>
       </c>
       <c r="C256" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D256" s="2">
         <v>45382.33333333334</v>
       </c>
       <c r="E256" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F256" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G256">
         <v>1</v>
@@ -22499,7 +22496,7 @@
         <v>2</v>
       </c>
       <c r="I256" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J256">
         <v>2.3</v>
@@ -22567,16 +22564,16 @@
         <v>7951748</v>
       </c>
       <c r="C257" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D257" s="2">
         <v>45382.625</v>
       </c>
       <c r="E257" t="s">
+        <v>45</v>
+      </c>
+      <c r="F257" t="s">
         <v>46</v>
-      </c>
-      <c r="F257" t="s">
-        <v>47</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -22585,7 +22582,7 @@
         <v>1</v>
       </c>
       <c r="I257" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J257">
         <v>3.6</v>
@@ -22653,16 +22650,16 @@
         <v>7951780</v>
       </c>
       <c r="C258" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D258" s="2">
         <v>45383.60416666666</v>
       </c>
       <c r="E258" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F258" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -22671,7 +22668,7 @@
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J258">
         <v>2.3</v>
@@ -22739,16 +22736,16 @@
         <v>7951783</v>
       </c>
       <c r="C259" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D259" s="2">
         <v>45387.47916666666</v>
       </c>
       <c r="E259" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F259" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -22757,7 +22754,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J259">
         <v>1.95</v>
@@ -22825,16 +22822,16 @@
         <v>7951753</v>
       </c>
       <c r="C260" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D260" s="2">
         <v>45387.60416666666</v>
       </c>
       <c r="E260" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F260" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G260">
         <v>1</v>
@@ -22843,7 +22840,7 @@
         <v>1</v>
       </c>
       <c r="I260" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J260">
         <v>2.15</v>
@@ -22911,16 +22908,16 @@
         <v>7951785</v>
       </c>
       <c r="C261" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D261" s="2">
         <v>45388.47916666666</v>
       </c>
       <c r="E261" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F261" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -22929,7 +22926,7 @@
         <v>4</v>
       </c>
       <c r="I261" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J261">
         <v>1.95</v>
@@ -22997,16 +22994,16 @@
         <v>7951752</v>
       </c>
       <c r="C262" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D262" s="2">
         <v>45388.60416666666</v>
       </c>
       <c r="E262" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F262" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -23015,7 +23012,7 @@
         <v>4</v>
       </c>
       <c r="I262" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J262">
         <v>2.8</v>
@@ -23083,16 +23080,16 @@
         <v>7951784</v>
       </c>
       <c r="C263" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D263" s="2">
         <v>45389.35416666666</v>
       </c>
       <c r="E263" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F263" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G263">
         <v>1</v>
@@ -23101,7 +23098,7 @@
         <v>1</v>
       </c>
       <c r="I263" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J263">
         <v>2.4</v>
@@ -23169,25 +23166,25 @@
         <v>7951751</v>
       </c>
       <c r="C264" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D264" s="2">
         <v>45389.60416666666</v>
       </c>
       <c r="E264" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F264" t="s">
+        <v>50</v>
+      </c>
+      <c r="G264">
+        <v>2</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264" t="s">
         <v>51</v>
-      </c>
-      <c r="G264">
-        <v>2</v>
-      </c>
-      <c r="H264">
-        <v>0</v>
-      </c>
-      <c r="I264" t="s">
-        <v>52</v>
       </c>
       <c r="J264">
         <v>1.85</v>
@@ -23255,16 +23252,16 @@
         <v>7951787</v>
       </c>
       <c r="C265" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D265" s="2">
         <v>45390.47916666666</v>
       </c>
       <c r="E265" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F265" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -23273,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J265">
         <v>2.2</v>
@@ -23341,16 +23338,16 @@
         <v>7951786</v>
       </c>
       <c r="C266" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D266" s="2">
         <v>45390.60416666666</v>
       </c>
       <c r="E266" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F266" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -23359,7 +23356,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J266">
         <v>2.05</v>
@@ -23427,16 +23424,16 @@
         <v>7951792</v>
       </c>
       <c r="C267" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D267" s="2">
         <v>45394.47916666666</v>
       </c>
       <c r="E267" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F267" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -23445,7 +23442,7 @@
         <v>3</v>
       </c>
       <c r="I267" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J267">
         <v>2.3</v>
@@ -23513,16 +23510,16 @@
         <v>7951755</v>
       </c>
       <c r="C268" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D268" s="2">
         <v>45394.60416666666</v>
       </c>
       <c r="E268" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F268" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -23531,7 +23528,7 @@
         <v>2</v>
       </c>
       <c r="I268" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J268">
         <v>1.8</v>
@@ -23599,16 +23596,16 @@
         <v>7951790</v>
       </c>
       <c r="C269" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D269" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E269" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F269" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -23617,7 +23614,7 @@
         <v>1</v>
       </c>
       <c r="I269" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J269">
         <v>2.4</v>
@@ -23685,16 +23682,16 @@
         <v>7951791</v>
       </c>
       <c r="C270" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D270" s="2">
         <v>45395.64583333334</v>
       </c>
       <c r="E270" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F270" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -23703,7 +23700,7 @@
         <v>2</v>
       </c>
       <c r="I270" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J270">
         <v>1.909</v>
@@ -23771,16 +23768,16 @@
         <v>7951788</v>
       </c>
       <c r="C271" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D271" s="2">
         <v>45396.3125</v>
       </c>
       <c r="E271" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F271" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G271">
         <v>4</v>
@@ -23789,7 +23786,7 @@
         <v>1</v>
       </c>
       <c r="I271" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J271">
         <v>2.4</v>
@@ -23857,16 +23854,16 @@
         <v>7951789</v>
       </c>
       <c r="C272" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D272" s="2">
         <v>45396.51041666666</v>
       </c>
       <c r="E272" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F272" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -23875,7 +23872,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J272">
         <v>2.25</v>
@@ -23943,16 +23940,16 @@
         <v>7951754</v>
       </c>
       <c r="C273" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D273" s="2">
         <v>45396.625</v>
       </c>
       <c r="E273" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F273" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -23961,7 +23958,7 @@
         <v>1</v>
       </c>
       <c r="I273" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J273">
         <v>2.3</v>
@@ -24029,16 +24026,16 @@
         <v>7951756</v>
       </c>
       <c r="C274" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D274" s="2">
         <v>45397.60416666666</v>
       </c>
       <c r="E274" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F274" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -24047,7 +24044,7 @@
         <v>1</v>
       </c>
       <c r="I274" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J274">
         <v>1.95</v>
@@ -24115,16 +24112,16 @@
         <v>7951793</v>
       </c>
       <c r="C275" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D275" s="2">
         <v>45401.47916666666</v>
       </c>
       <c r="E275" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F275" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G275">
         <v>1</v>
@@ -24133,7 +24130,7 @@
         <v>1</v>
       </c>
       <c r="I275" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J275">
         <v>1.909</v>
@@ -24201,16 +24198,16 @@
         <v>7951758</v>
       </c>
       <c r="C276" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D276" s="2">
         <v>45401.60416666666</v>
       </c>
       <c r="E276" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F276" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G276">
         <v>5</v>
@@ -24219,7 +24216,7 @@
         <v>1</v>
       </c>
       <c r="I276" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J276">
         <v>3.1</v>
@@ -24287,16 +24284,16 @@
         <v>7951796</v>
       </c>
       <c r="C277" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D277" s="2">
         <v>45402.375</v>
       </c>
       <c r="E277" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F277" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G277">
         <v>3</v>
@@ -24305,7 +24302,7 @@
         <v>1</v>
       </c>
       <c r="I277" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J277">
         <v>2.25</v>
@@ -24373,16 +24370,16 @@
         <v>7951797</v>
       </c>
       <c r="C278" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D278" s="2">
         <v>45402.47916666666</v>
       </c>
       <c r="E278" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F278" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -24391,7 +24388,7 @@
         <v>1</v>
       </c>
       <c r="I278" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J278">
         <v>2.2</v>
@@ -24459,16 +24456,16 @@
         <v>7951757</v>
       </c>
       <c r="C279" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D279" s="2">
         <v>45402.60416666666</v>
       </c>
       <c r="E279" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F279" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G279">
         <v>2</v>
@@ -24477,7 +24474,7 @@
         <v>2</v>
       </c>
       <c r="I279" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J279">
         <v>1.85</v>
@@ -24545,16 +24542,16 @@
         <v>7951795</v>
       </c>
       <c r="C280" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D280" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E280" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F280" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G280">
         <v>1</v>
@@ -24563,7 +24560,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J280">
         <v>2.75</v>
@@ -24631,16 +24628,16 @@
         <v>7951759</v>
       </c>
       <c r="C281" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D281" s="2">
         <v>45403.54166666666</v>
       </c>
       <c r="E281" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F281" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -24649,7 +24646,7 @@
         <v>3</v>
       </c>
       <c r="I281" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J281">
         <v>2.6</v>
@@ -24717,16 +24714,16 @@
         <v>7951794</v>
       </c>
       <c r="C282" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D282" s="2">
         <v>45404.54166666666</v>
       </c>
       <c r="E282" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F282" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -24735,7 +24732,7 @@
         <v>1</v>
       </c>
       <c r="I282" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J282">
         <v>2.1</v>
@@ -24799,1207 +24796,454 @@
       <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283">
-        <v>7951799</v>
+      <c r="B283" t="s">
+        <v>27</v>
       </c>
       <c r="C283" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D283" s="2">
-        <v>45405.45833333334</v>
+        <v>45409.47916666666</v>
       </c>
       <c r="E283" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F283" t="s">
-        <v>41</v>
-      </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-      <c r="H283">
-        <v>0</v>
-      </c>
-      <c r="I283" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J283">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="K283">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L283">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="M283">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="N283">
         <v>3.2</v>
       </c>
       <c r="O283">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="P283">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q283">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R283">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S283">
         <v>2.25</v>
       </c>
       <c r="T283">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U283">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V283">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W283">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="X283">
-        <v>-1</v>
-      </c>
-      <c r="Y283">
-        <v>-0.5</v>
-      </c>
-      <c r="Z283">
-        <v>0.425</v>
-      </c>
-      <c r="AA283">
-        <v>-1</v>
-      </c>
-      <c r="AB283">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:28">
       <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284">
-        <v>7951798</v>
+      <c r="B284" t="s">
+        <v>28</v>
       </c>
       <c r="C284" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D284" s="2">
-        <v>45405.5625</v>
+        <v>45409.60416666666</v>
       </c>
       <c r="E284" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F284" t="s">
-        <v>43</v>
-      </c>
-      <c r="G284">
-        <v>2</v>
-      </c>
-      <c r="H284">
-        <v>1</v>
-      </c>
-      <c r="I284" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J284">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="K284">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L284">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M284">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="N284">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="O284">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="P284">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q284">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R284">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S284">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="T284">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U284">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V284">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="W284">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X284">
-        <v>-1</v>
-      </c>
-      <c r="Y284">
-        <v>0.875</v>
-      </c>
-      <c r="Z284">
-        <v>-1</v>
-      </c>
-      <c r="AA284">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AB284">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:28">
       <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285">
-        <v>7951800</v>
+      <c r="B285" t="s">
+        <v>29</v>
       </c>
       <c r="C285" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D285" s="2">
-        <v>45406.44791666666</v>
+        <v>45410.3125</v>
       </c>
       <c r="E285" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F285" t="s">
-        <v>48</v>
-      </c>
-      <c r="G285">
-        <v>1</v>
-      </c>
-      <c r="H285">
-        <v>0</v>
-      </c>
-      <c r="I285" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="J285">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="K285">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L285">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="M285">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="N285">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O285">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="P285">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q285">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R285">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S285">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T285">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U285">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V285">
-        <v>0.7270000000000001</v>
+        <v>0</v>
       </c>
       <c r="W285">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X285">
-        <v>-1</v>
-      </c>
-      <c r="Y285">
-        <v>0.5</v>
-      </c>
-      <c r="Z285">
-        <v>-0.5</v>
-      </c>
-      <c r="AA285">
-        <v>-1</v>
-      </c>
-      <c r="AB285">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:28">
       <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286">
-        <v>7951761</v>
+      <c r="B286" t="s">
+        <v>30</v>
       </c>
       <c r="C286" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D286" s="2">
-        <v>45406.54166666666</v>
+        <v>45410.51041666666</v>
       </c>
       <c r="E286" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F286" t="s">
-        <v>38</v>
-      </c>
-      <c r="G286">
-        <v>3</v>
-      </c>
-      <c r="H286">
-        <v>1</v>
-      </c>
-      <c r="I286" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J286">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="K286">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L286">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="M286">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="N286">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O286">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="P286">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q286">
+        <v>2</v>
+      </c>
+      <c r="R286">
+        <v>1.85</v>
+      </c>
+      <c r="S286">
+        <v>2.25</v>
+      </c>
+      <c r="T286">
         <v>1.925</v>
       </c>
-      <c r="R286">
+      <c r="U286">
         <v>1.925</v>
       </c>
-      <c r="S286">
-        <v>2.5</v>
-      </c>
-      <c r="T286">
-        <v>1.875</v>
-      </c>
-      <c r="U286">
-        <v>1.975</v>
-      </c>
       <c r="V286">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="W286">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X286">
-        <v>-1</v>
-      </c>
-      <c r="Y286">
-        <v>0.925</v>
-      </c>
-      <c r="Z286">
-        <v>-1</v>
-      </c>
-      <c r="AA286">
-        <v>0.875</v>
-      </c>
-      <c r="AB286">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:28">
       <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287">
-        <v>7951760</v>
+      <c r="B287" t="s">
+        <v>31</v>
       </c>
       <c r="C287" t="s">
+        <v>34</v>
+      </c>
+      <c r="D287" s="2">
+        <v>45410.625</v>
+      </c>
+      <c r="E287" t="s">
         <v>35</v>
       </c>
-      <c r="D287" s="2">
-        <v>45406.65625</v>
-      </c>
-      <c r="E287" t="s">
-        <v>44</v>
-      </c>
       <c r="F287" t="s">
-        <v>47</v>
-      </c>
-      <c r="G287">
-        <v>2</v>
-      </c>
-      <c r="H287">
-        <v>2</v>
-      </c>
-      <c r="I287" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J287">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="K287">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L287">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="M287">
-        <v>3.5</v>
+        <v>1.333</v>
       </c>
       <c r="N287">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="O287">
-        <v>2.05</v>
+        <v>8</v>
       </c>
       <c r="P287">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q287">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R287">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S287">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T287">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U287">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V287">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W287">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="X287">
-        <v>-1</v>
-      </c>
-      <c r="Y287">
-        <v>0.8</v>
-      </c>
-      <c r="Z287">
-        <v>-1</v>
-      </c>
-      <c r="AA287">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB287">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:28">
       <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288">
-        <v>7951801</v>
+      <c r="B288" t="s">
+        <v>32</v>
       </c>
       <c r="C288" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D288" s="2">
-        <v>45407.44791666666</v>
+        <v>45411.47916666666</v>
       </c>
       <c r="E288" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F288" t="s">
-        <v>37</v>
-      </c>
-      <c r="G288">
-        <v>3</v>
-      </c>
-      <c r="H288">
-        <v>1</v>
-      </c>
-      <c r="I288" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J288">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="K288">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L288">
+        <v>3.5</v>
+      </c>
+      <c r="M288">
+        <v>2</v>
+      </c>
+      <c r="N288">
+        <v>3.25</v>
+      </c>
+      <c r="O288">
         <v>3.2</v>
       </c>
-      <c r="M288">
-        <v>2.6</v>
-      </c>
-      <c r="N288">
-        <v>3.1</v>
-      </c>
-      <c r="O288">
-        <v>2.8</v>
-      </c>
       <c r="P288">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q288">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R288">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S288">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T288">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="U288">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V288">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="W288">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X288">
-        <v>-1</v>
-      </c>
-      <c r="Y288">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Z288">
-        <v>-1</v>
-      </c>
-      <c r="AA288">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB288">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:24">
       <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289">
-        <v>7951802</v>
+      <c r="B289" t="s">
+        <v>33</v>
       </c>
       <c r="C289" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D289" s="2">
-        <v>45407.54166666666</v>
+        <v>45411.60416666666</v>
       </c>
       <c r="E289" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F289" t="s">
-        <v>40</v>
-      </c>
-      <c r="G289">
-        <v>2</v>
-      </c>
-      <c r="H289">
-        <v>0</v>
-      </c>
-      <c r="I289" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J289">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="K289">
         <v>3.2</v>
       </c>
       <c r="L289">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M289">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="N289">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O289">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P289">
         <v>-0.5</v>
       </c>
       <c r="Q289">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R289">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S289">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T289">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U289">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V289">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="W289">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X289">
-        <v>-1</v>
-      </c>
-      <c r="Y289">
-        <v>1.05</v>
-      </c>
-      <c r="Z289">
-        <v>-1</v>
-      </c>
-      <c r="AA289">
-        <v>0</v>
-      </c>
-      <c r="AB289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:28">
-      <c r="A290" s="1">
-        <v>288</v>
-      </c>
-      <c r="B290">
-        <v>7951762</v>
-      </c>
-      <c r="C290" t="s">
-        <v>35</v>
-      </c>
-      <c r="D290" s="2">
-        <v>45407.65625</v>
-      </c>
-      <c r="E290" t="s">
-        <v>51</v>
-      </c>
-      <c r="F290" t="s">
-        <v>36</v>
-      </c>
-      <c r="G290">
-        <v>0</v>
-      </c>
-      <c r="H290">
-        <v>1</v>
-      </c>
-      <c r="I290" t="s">
-        <v>54</v>
-      </c>
-      <c r="J290">
-        <v>2.375</v>
-      </c>
-      <c r="K290">
-        <v>3.1</v>
-      </c>
-      <c r="L290">
-        <v>3.1</v>
-      </c>
-      <c r="M290">
-        <v>2.55</v>
-      </c>
-      <c r="N290">
-        <v>3.4</v>
-      </c>
-      <c r="O290">
-        <v>2.625</v>
-      </c>
-      <c r="P290">
-        <v>0</v>
-      </c>
-      <c r="Q290">
-        <v>1.875</v>
-      </c>
-      <c r="R290">
-        <v>1.975</v>
-      </c>
-      <c r="S290">
-        <v>2.75</v>
-      </c>
-      <c r="T290">
-        <v>1.8</v>
-      </c>
-      <c r="U290">
-        <v>2.05</v>
-      </c>
-      <c r="V290">
-        <v>-1</v>
-      </c>
-      <c r="W290">
-        <v>-1</v>
-      </c>
-      <c r="X290">
-        <v>1.625</v>
-      </c>
-      <c r="Y290">
-        <v>-1</v>
-      </c>
-      <c r="Z290">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA290">
-        <v>-1</v>
-      </c>
-      <c r="AB290">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="291" spans="1:28">
-      <c r="A291" s="1">
-        <v>289</v>
-      </c>
-      <c r="B291" t="s">
-        <v>27</v>
-      </c>
-      <c r="C291" t="s">
-        <v>35</v>
-      </c>
-      <c r="D291" s="2">
-        <v>45408.58333333334</v>
-      </c>
-      <c r="E291" t="s">
-        <v>43</v>
-      </c>
-      <c r="F291" t="s">
-        <v>42</v>
-      </c>
-      <c r="J291">
-        <v>2.2</v>
-      </c>
-      <c r="K291">
-        <v>3.2</v>
-      </c>
-      <c r="L291">
-        <v>2.875</v>
-      </c>
-      <c r="M291">
-        <v>1.95</v>
-      </c>
-      <c r="N291">
-        <v>3.4</v>
-      </c>
-      <c r="O291">
-        <v>3.3</v>
-      </c>
-      <c r="P291">
-        <v>-0.5</v>
-      </c>
-      <c r="Q291">
-        <v>2</v>
-      </c>
-      <c r="R291">
-        <v>1.85</v>
-      </c>
-      <c r="S291">
-        <v>2.5</v>
-      </c>
-      <c r="T291">
-        <v>1.975</v>
-      </c>
-      <c r="U291">
-        <v>1.875</v>
-      </c>
-      <c r="V291">
-        <v>0</v>
-      </c>
-      <c r="W291">
-        <v>0</v>
-      </c>
-      <c r="X291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:28">
-      <c r="A292" s="1">
-        <v>290</v>
-      </c>
-      <c r="B292" t="s">
-        <v>28</v>
-      </c>
-      <c r="C292" t="s">
-        <v>35</v>
-      </c>
-      <c r="D292" s="2">
-        <v>45409.47916666666</v>
-      </c>
-      <c r="E292" t="s">
-        <v>41</v>
-      </c>
-      <c r="F292" t="s">
-        <v>49</v>
-      </c>
-      <c r="J292">
-        <v>2.4</v>
-      </c>
-      <c r="K292">
-        <v>3.2</v>
-      </c>
-      <c r="L292">
-        <v>2.6</v>
-      </c>
-      <c r="M292">
-        <v>2.55</v>
-      </c>
-      <c r="N292">
-        <v>3.1</v>
-      </c>
-      <c r="O292">
-        <v>2.45</v>
-      </c>
-      <c r="P292">
-        <v>0</v>
-      </c>
-      <c r="Q292">
-        <v>1.975</v>
-      </c>
-      <c r="R292">
-        <v>1.875</v>
-      </c>
-      <c r="S292">
-        <v>2.25</v>
-      </c>
-      <c r="T292">
-        <v>1.875</v>
-      </c>
-      <c r="U292">
-        <v>1.975</v>
-      </c>
-      <c r="V292">
-        <v>0</v>
-      </c>
-      <c r="W292">
-        <v>0</v>
-      </c>
-      <c r="X292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:28">
-      <c r="A293" s="1">
-        <v>291</v>
-      </c>
-      <c r="B293" t="s">
-        <v>29</v>
-      </c>
-      <c r="C293" t="s">
-        <v>35</v>
-      </c>
-      <c r="D293" s="2">
-        <v>45409.60416666666</v>
-      </c>
-      <c r="E293" t="s">
-        <v>47</v>
-      </c>
-      <c r="F293" t="s">
-        <v>46</v>
-      </c>
-      <c r="J293">
-        <v>1.909</v>
-      </c>
-      <c r="K293">
-        <v>3.25</v>
-      </c>
-      <c r="L293">
-        <v>3.5</v>
-      </c>
-      <c r="M293">
-        <v>1.727</v>
-      </c>
-      <c r="N293">
-        <v>3.4</v>
-      </c>
-      <c r="O293">
-        <v>4</v>
-      </c>
-      <c r="P293">
-        <v>-0.5</v>
-      </c>
-      <c r="Q293">
-        <v>1.8</v>
-      </c>
-      <c r="R293">
-        <v>2.05</v>
-      </c>
-      <c r="S293">
-        <v>2.75</v>
-      </c>
-      <c r="T293">
-        <v>2.025</v>
-      </c>
-      <c r="U293">
-        <v>1.825</v>
-      </c>
-      <c r="V293">
-        <v>0</v>
-      </c>
-      <c r="W293">
-        <v>0</v>
-      </c>
-      <c r="X293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:28">
-      <c r="A294" s="1">
-        <v>292</v>
-      </c>
-      <c r="B294" t="s">
-        <v>30</v>
-      </c>
-      <c r="C294" t="s">
-        <v>35</v>
-      </c>
-      <c r="D294" s="2">
-        <v>45410.3125</v>
-      </c>
-      <c r="E294" t="s">
-        <v>37</v>
-      </c>
-      <c r="F294" t="s">
-        <v>39</v>
-      </c>
-      <c r="J294">
-        <v>2.4</v>
-      </c>
-      <c r="K294">
-        <v>3</v>
-      </c>
-      <c r="L294">
-        <v>2.75</v>
-      </c>
-      <c r="M294">
-        <v>2.45</v>
-      </c>
-      <c r="N294">
-        <v>3</v>
-      </c>
-      <c r="O294">
-        <v>2.7</v>
-      </c>
-      <c r="P294">
-        <v>0</v>
-      </c>
-      <c r="Q294">
-        <v>1.825</v>
-      </c>
-      <c r="R294">
-        <v>2.025</v>
-      </c>
-      <c r="S294">
-        <v>2</v>
-      </c>
-      <c r="T294">
-        <v>1.925</v>
-      </c>
-      <c r="U294">
-        <v>1.925</v>
-      </c>
-      <c r="V294">
-        <v>0</v>
-      </c>
-      <c r="W294">
-        <v>0</v>
-      </c>
-      <c r="X294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:28">
-      <c r="A295" s="1">
-        <v>293</v>
-      </c>
-      <c r="B295" t="s">
-        <v>31</v>
-      </c>
-      <c r="C295" t="s">
-        <v>35</v>
-      </c>
-      <c r="D295" s="2">
-        <v>45410.51041666666</v>
-      </c>
-      <c r="E295" t="s">
-        <v>48</v>
-      </c>
-      <c r="F295" t="s">
-        <v>45</v>
-      </c>
-      <c r="J295">
-        <v>2.4</v>
-      </c>
-      <c r="K295">
-        <v>3.2</v>
-      </c>
-      <c r="L295">
-        <v>2.6</v>
-      </c>
-      <c r="M295">
-        <v>2.25</v>
-      </c>
-      <c r="N295">
-        <v>3.2</v>
-      </c>
-      <c r="O295">
-        <v>2.875</v>
-      </c>
-      <c r="P295">
-        <v>-0.25</v>
-      </c>
-      <c r="Q295">
-        <v>2.025</v>
-      </c>
-      <c r="R295">
-        <v>1.825</v>
-      </c>
-      <c r="S295">
-        <v>2.25</v>
-      </c>
-      <c r="T295">
-        <v>1.925</v>
-      </c>
-      <c r="U295">
-        <v>1.925</v>
-      </c>
-      <c r="V295">
-        <v>0</v>
-      </c>
-      <c r="W295">
-        <v>0</v>
-      </c>
-      <c r="X295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:28">
-      <c r="A296" s="1">
-        <v>294</v>
-      </c>
-      <c r="B296" t="s">
-        <v>32</v>
-      </c>
-      <c r="C296" t="s">
-        <v>35</v>
-      </c>
-      <c r="D296" s="2">
-        <v>45410.625</v>
-      </c>
-      <c r="E296" t="s">
-        <v>36</v>
-      </c>
-      <c r="F296" t="s">
-        <v>44</v>
-      </c>
-      <c r="J296">
-        <v>1.8</v>
-      </c>
-      <c r="K296">
-        <v>3.25</v>
-      </c>
-      <c r="L296">
-        <v>4</v>
-      </c>
-      <c r="M296">
-        <v>1.571</v>
-      </c>
-      <c r="N296">
-        <v>3.5</v>
-      </c>
-      <c r="O296">
-        <v>5.25</v>
-      </c>
-      <c r="P296">
-        <v>-1</v>
-      </c>
-      <c r="Q296">
-        <v>2.1</v>
-      </c>
-      <c r="R296">
-        <v>1.775</v>
-      </c>
-      <c r="S296">
-        <v>2.5</v>
-      </c>
-      <c r="T296">
-        <v>1.925</v>
-      </c>
-      <c r="U296">
-        <v>1.925</v>
-      </c>
-      <c r="V296">
-        <v>0</v>
-      </c>
-      <c r="W296">
-        <v>0</v>
-      </c>
-      <c r="X296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:28">
-      <c r="A297" s="1">
-        <v>295</v>
-      </c>
-      <c r="B297" t="s">
-        <v>33</v>
-      </c>
-      <c r="C297" t="s">
-        <v>35</v>
-      </c>
-      <c r="D297" s="2">
-        <v>45411.47916666666</v>
-      </c>
-      <c r="E297" t="s">
-        <v>40</v>
-      </c>
-      <c r="F297" t="s">
-        <v>50</v>
-      </c>
-      <c r="J297">
-        <v>1.909</v>
-      </c>
-      <c r="K297">
-        <v>3.25</v>
-      </c>
-      <c r="L297">
-        <v>3.5</v>
-      </c>
-      <c r="M297">
-        <v>2</v>
-      </c>
-      <c r="N297">
-        <v>3.25</v>
-      </c>
-      <c r="O297">
-        <v>3.2</v>
-      </c>
-      <c r="P297">
-        <v>-0.25</v>
-      </c>
-      <c r="Q297">
-        <v>1.825</v>
-      </c>
-      <c r="R297">
-        <v>2.025</v>
-      </c>
-      <c r="S297">
-        <v>2.25</v>
-      </c>
-      <c r="T297">
-        <v>2.1</v>
-      </c>
-      <c r="U297">
-        <v>1.775</v>
-      </c>
-      <c r="V297">
-        <v>0</v>
-      </c>
-      <c r="W297">
-        <v>0</v>
-      </c>
-      <c r="X297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:28">
-      <c r="A298" s="1">
-        <v>296</v>
-      </c>
-      <c r="B298" t="s">
-        <v>34</v>
-      </c>
-      <c r="C298" t="s">
-        <v>35</v>
-      </c>
-      <c r="D298" s="2">
-        <v>45411.60416666666</v>
-      </c>
-      <c r="E298" t="s">
-        <v>38</v>
-      </c>
-      <c r="F298" t="s">
-        <v>51</v>
-      </c>
-      <c r="J298">
-        <v>2.3</v>
-      </c>
-      <c r="K298">
-        <v>3.2</v>
-      </c>
-      <c r="L298">
-        <v>2.75</v>
-      </c>
-      <c r="M298">
-        <v>1.85</v>
-      </c>
-      <c r="N298">
-        <v>3.3</v>
-      </c>
-      <c r="O298">
-        <v>3.6</v>
-      </c>
-      <c r="P298">
-        <v>-0.5</v>
-      </c>
-      <c r="Q298">
-        <v>1.95</v>
-      </c>
-      <c r="R298">
-        <v>1.9</v>
-      </c>
-      <c r="S298">
-        <v>2.5</v>
-      </c>
-      <c r="T298">
-        <v>1.825</v>
-      </c>
-      <c r="U298">
-        <v>2.025</v>
-      </c>
-      <c r="V298">
-        <v>0</v>
-      </c>
-      <c r="W298">
-        <v>0</v>
-      </c>
-      <c r="X298">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB289"/>
+  <dimension ref="A1:AB298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20669,7 +20669,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6870268</v>
+        <v>6861095</v>
       </c>
       <c r="C235" t="s">
         <v>34</v>
@@ -20678,76 +20678,76 @@
         <v>45359.625</v>
       </c>
       <c r="E235" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F235" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J235">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="K235">
+        <v>3.4</v>
+      </c>
+      <c r="L235">
+        <v>1.909</v>
+      </c>
+      <c r="M235">
+        <v>3.1</v>
+      </c>
+      <c r="N235">
         <v>3</v>
       </c>
-      <c r="L235">
-        <v>2.55</v>
-      </c>
-      <c r="M235">
-        <v>3</v>
-      </c>
-      <c r="N235">
-        <v>3.2</v>
-      </c>
       <c r="O235">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="P235">
         <v>0.25</v>
       </c>
       <c r="Q235">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="R235">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S235">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T235">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U235">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V235">
         <v>-1</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X235">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="Z235">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA235">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="236" spans="1:28">
@@ -20755,7 +20755,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6861095</v>
+        <v>6865915</v>
       </c>
       <c r="C236" t="s">
         <v>34</v>
@@ -20764,10 +20764,10 @@
         <v>45359.625</v>
       </c>
       <c r="E236" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F236" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -20779,52 +20779,52 @@
         <v>52</v>
       </c>
       <c r="J236">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K236">
+        <v>3.25</v>
+      </c>
+      <c r="L236">
+        <v>2.05</v>
+      </c>
+      <c r="M236">
         <v>3.4</v>
       </c>
-      <c r="L236">
-        <v>1.909</v>
-      </c>
-      <c r="M236">
+      <c r="N236">
         <v>3.1</v>
       </c>
-      <c r="N236">
-        <v>3</v>
-      </c>
       <c r="O236">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="P236">
         <v>0.25</v>
       </c>
       <c r="Q236">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R236">
+        <v>1.875</v>
+      </c>
+      <c r="S236">
+        <v>2.25</v>
+      </c>
+      <c r="T236">
+        <v>2.05</v>
+      </c>
+      <c r="U236">
+        <v>1.75</v>
+      </c>
+      <c r="V236">
+        <v>-1</v>
+      </c>
+      <c r="W236">
         <v>2.1</v>
       </c>
-      <c r="S236">
-        <v>2</v>
-      </c>
-      <c r="T236">
-        <v>1.8</v>
-      </c>
-      <c r="U236">
-        <v>2.05</v>
-      </c>
-      <c r="V236">
-        <v>-1</v>
-      </c>
-      <c r="W236">
-        <v>2</v>
-      </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>0.3875</v>
+        <v>0.4875</v>
       </c>
       <c r="Z236">
         <v>-0.5</v>
@@ -20833,7 +20833,7 @@
         <v>-1</v>
       </c>
       <c r="AB236">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="237" spans="1:28">
@@ -20841,7 +20841,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6865915</v>
+        <v>6870268</v>
       </c>
       <c r="C237" t="s">
         <v>34</v>
@@ -20850,76 +20850,76 @@
         <v>45359.625</v>
       </c>
       <c r="E237" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F237" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J237">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="K237">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L237">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="M237">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N237">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O237">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P237">
         <v>0.25</v>
       </c>
       <c r="Q237">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R237">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S237">
         <v>2.25</v>
       </c>
       <c r="T237">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U237">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V237">
         <v>-1</v>
       </c>
       <c r="W237">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y237">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA237">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB237">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:28">
@@ -20927,7 +20927,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6836277</v>
+        <v>6852370</v>
       </c>
       <c r="C238" t="s">
         <v>34</v>
@@ -20936,10 +20936,10 @@
         <v>45359.625</v>
       </c>
       <c r="E238" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F238" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -20951,43 +20951,43 @@
         <v>51</v>
       </c>
       <c r="J238">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="K238">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="L238">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M238">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="N238">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O238">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P238">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q238">
+        <v>2</v>
+      </c>
+      <c r="R238">
         <v>1.85</v>
-      </c>
-      <c r="R238">
-        <v>2</v>
       </c>
       <c r="S238">
         <v>2.25</v>
       </c>
       <c r="T238">
+        <v>1.975</v>
+      </c>
+      <c r="U238">
         <v>1.875</v>
       </c>
-      <c r="U238">
-        <v>1.975</v>
-      </c>
       <c r="V238">
-        <v>0.6499999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="W238">
         <v>-1</v>
@@ -20996,16 +20996,16 @@
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="Z238">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
         <v>-1</v>
       </c>
       <c r="AB238">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="239" spans="1:28">
@@ -21013,7 +21013,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6852370</v>
+        <v>6836277</v>
       </c>
       <c r="C239" t="s">
         <v>34</v>
@@ -21022,10 +21022,10 @@
         <v>45359.625</v>
       </c>
       <c r="E239" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F239" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -21037,43 +21037,43 @@
         <v>51</v>
       </c>
       <c r="J239">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="K239">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="L239">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M239">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="N239">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O239">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="P239">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q239">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R239">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S239">
         <v>2.25</v>
       </c>
       <c r="T239">
+        <v>1.875</v>
+      </c>
+      <c r="U239">
         <v>1.975</v>
       </c>
-      <c r="U239">
-        <v>1.875</v>
-      </c>
       <c r="V239">
-        <v>1.375</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W239">
         <v>-1</v>
@@ -21082,16 +21082,16 @@
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA239">
         <v>-1</v>
       </c>
       <c r="AB239">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="240" spans="1:28">
@@ -24796,454 +24796,1228 @@
       <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="s">
-        <v>27</v>
+      <c r="B283">
+        <v>7951799</v>
       </c>
       <c r="C283" t="s">
         <v>34</v>
       </c>
       <c r="D283" s="2">
-        <v>45409.47916666666</v>
+        <v>45405.45833333334</v>
       </c>
       <c r="E283" t="s">
+        <v>41</v>
+      </c>
+      <c r="F283" t="s">
         <v>40</v>
       </c>
-      <c r="F283" t="s">
-        <v>48</v>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283" t="s">
+        <v>52</v>
       </c>
       <c r="J283">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="K283">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L283">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="M283">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="N283">
         <v>3.2</v>
       </c>
       <c r="O283">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="P283">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q283">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R283">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S283">
         <v>2.25</v>
       </c>
       <c r="T283">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U283">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V283">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W283">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="X283">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y283">
+        <v>-0.5</v>
+      </c>
+      <c r="Z283">
+        <v>0.425</v>
+      </c>
+      <c r="AA283">
+        <v>-1</v>
+      </c>
+      <c r="AB283">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="284" spans="1:28">
       <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="s">
-        <v>28</v>
+      <c r="B284">
+        <v>7951798</v>
       </c>
       <c r="C284" t="s">
         <v>34</v>
       </c>
       <c r="D284" s="2">
-        <v>45409.60416666666</v>
+        <v>45405.5625</v>
       </c>
       <c r="E284" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F284" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="G284">
+        <v>2</v>
+      </c>
+      <c r="H284">
+        <v>1</v>
+      </c>
+      <c r="I284" t="s">
+        <v>51</v>
       </c>
       <c r="J284">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="K284">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L284">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M284">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="N284">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="O284">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="P284">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q284">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R284">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S284">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="T284">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U284">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V284">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="W284">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X284">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y284">
+        <v>0.875</v>
+      </c>
+      <c r="Z284">
+        <v>-1</v>
+      </c>
+      <c r="AA284">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB284">
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:28">
       <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="s">
-        <v>29</v>
+      <c r="B285">
+        <v>7951800</v>
       </c>
       <c r="C285" t="s">
         <v>34</v>
       </c>
       <c r="D285" s="2">
-        <v>45410.3125</v>
+        <v>45406.44791666666</v>
       </c>
       <c r="E285" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F285" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="G285">
+        <v>1</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285" t="s">
+        <v>51</v>
       </c>
       <c r="J285">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="K285">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L285">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="M285">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="N285">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O285">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="P285">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q285">
+        <v>2</v>
+      </c>
+      <c r="R285">
+        <v>1.85</v>
+      </c>
+      <c r="S285">
+        <v>2.25</v>
+      </c>
+      <c r="T285">
+        <v>2.025</v>
+      </c>
+      <c r="U285">
         <v>1.825</v>
       </c>
-      <c r="R285">
-        <v>2.025</v>
-      </c>
-      <c r="S285">
-        <v>2</v>
-      </c>
-      <c r="T285">
-        <v>1.925</v>
-      </c>
-      <c r="U285">
-        <v>1.925</v>
-      </c>
       <c r="V285">
-        <v>0</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W285">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X285">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y285">
+        <v>0.5</v>
+      </c>
+      <c r="Z285">
+        <v>-0.5</v>
+      </c>
+      <c r="AA285">
+        <v>-1</v>
+      </c>
+      <c r="AB285">
+        <v>0.825</v>
       </c>
     </row>
     <row r="286" spans="1:28">
       <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="s">
-        <v>30</v>
+      <c r="B286">
+        <v>7951761</v>
       </c>
       <c r="C286" t="s">
         <v>34</v>
       </c>
       <c r="D286" s="2">
-        <v>45410.51041666666</v>
+        <v>45406.54166666666</v>
       </c>
       <c r="E286" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F286" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="G286">
+        <v>3</v>
+      </c>
+      <c r="H286">
+        <v>1</v>
+      </c>
+      <c r="I286" t="s">
+        <v>51</v>
       </c>
       <c r="J286">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="K286">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L286">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="M286">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="N286">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O286">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="P286">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q286">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R286">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S286">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T286">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U286">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V286">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W286">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X286">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y286">
+        <v>0.925</v>
+      </c>
+      <c r="Z286">
+        <v>-1</v>
+      </c>
+      <c r="AA286">
+        <v>0.875</v>
+      </c>
+      <c r="AB286">
+        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:28">
       <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="s">
-        <v>31</v>
+      <c r="B287">
+        <v>7951760</v>
       </c>
       <c r="C287" t="s">
         <v>34</v>
       </c>
       <c r="D287" s="2">
-        <v>45410.625</v>
+        <v>45406.65625</v>
       </c>
       <c r="E287" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F287" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="G287">
+        <v>2</v>
+      </c>
+      <c r="H287">
+        <v>2</v>
+      </c>
+      <c r="I287" t="s">
+        <v>52</v>
       </c>
       <c r="J287">
+        <v>3.1</v>
+      </c>
+      <c r="K287">
+        <v>3.4</v>
+      </c>
+      <c r="L287">
+        <v>2.2</v>
+      </c>
+      <c r="M287">
+        <v>3.5</v>
+      </c>
+      <c r="N287">
+        <v>3.5</v>
+      </c>
+      <c r="O287">
+        <v>2.05</v>
+      </c>
+      <c r="P287">
+        <v>0.5</v>
+      </c>
+      <c r="Q287">
         <v>1.8</v>
       </c>
-      <c r="K287">
-        <v>3.25</v>
-      </c>
-      <c r="L287">
-        <v>4</v>
-      </c>
-      <c r="M287">
-        <v>1.333</v>
-      </c>
-      <c r="N287">
-        <v>4.333</v>
-      </c>
-      <c r="O287">
-        <v>8</v>
-      </c>
-      <c r="P287">
-        <v>-1.25</v>
-      </c>
-      <c r="Q287">
-        <v>1.825</v>
-      </c>
       <c r="R287">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S287">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T287">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U287">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V287">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W287">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X287">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y287">
+        <v>0.8</v>
+      </c>
+      <c r="Z287">
+        <v>-1</v>
+      </c>
+      <c r="AA287">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB287">
+        <v>-1</v>
       </c>
     </row>
     <row r="288" spans="1:28">
       <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="s">
-        <v>32</v>
+      <c r="B288">
+        <v>7951801</v>
       </c>
       <c r="C288" t="s">
         <v>34</v>
       </c>
       <c r="D288" s="2">
-        <v>45411.47916666666</v>
+        <v>45407.44791666666</v>
       </c>
       <c r="E288" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F288" t="s">
-        <v>49</v>
+        <v>36</v>
+      </c>
+      <c r="G288">
+        <v>3</v>
+      </c>
+      <c r="H288">
+        <v>1</v>
+      </c>
+      <c r="I288" t="s">
+        <v>51</v>
       </c>
       <c r="J288">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="K288">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L288">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M288">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="N288">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O288">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P288">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q288">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R288">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S288">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T288">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="U288">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V288">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W288">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:24">
+        <v>-1</v>
+      </c>
+      <c r="Y288">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z288">
+        <v>-1</v>
+      </c>
+      <c r="AA288">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB288">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:28">
       <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="s">
-        <v>33</v>
+      <c r="B289">
+        <v>7951802</v>
       </c>
       <c r="C289" t="s">
         <v>34</v>
       </c>
       <c r="D289" s="2">
-        <v>45411.60416666666</v>
+        <v>45407.54166666666</v>
       </c>
       <c r="E289" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F289" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="G289">
+        <v>2</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+      <c r="I289" t="s">
+        <v>51</v>
       </c>
       <c r="J289">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="K289">
         <v>3.2</v>
       </c>
       <c r="L289">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="M289">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="N289">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O289">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P289">
         <v>-0.5</v>
       </c>
       <c r="Q289">
+        <v>2.05</v>
+      </c>
+      <c r="R289">
+        <v>1.8</v>
+      </c>
+      <c r="S289">
+        <v>2</v>
+      </c>
+      <c r="T289">
+        <v>1.975</v>
+      </c>
+      <c r="U289">
+        <v>1.875</v>
+      </c>
+      <c r="V289">
+        <v>1.05</v>
+      </c>
+      <c r="W289">
+        <v>-1</v>
+      </c>
+      <c r="X289">
+        <v>-1</v>
+      </c>
+      <c r="Y289">
+        <v>1.05</v>
+      </c>
+      <c r="Z289">
+        <v>-1</v>
+      </c>
+      <c r="AA289">
+        <v>0</v>
+      </c>
+      <c r="AB289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:28">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>7951762</v>
+      </c>
+      <c r="C290" t="s">
+        <v>34</v>
+      </c>
+      <c r="D290" s="2">
+        <v>45407.65625</v>
+      </c>
+      <c r="E290" t="s">
+        <v>50</v>
+      </c>
+      <c r="F290" t="s">
+        <v>35</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>1</v>
+      </c>
+      <c r="I290" t="s">
+        <v>53</v>
+      </c>
+      <c r="J290">
+        <v>2.375</v>
+      </c>
+      <c r="K290">
+        <v>3.1</v>
+      </c>
+      <c r="L290">
+        <v>3.1</v>
+      </c>
+      <c r="M290">
+        <v>2.55</v>
+      </c>
+      <c r="N290">
+        <v>3.4</v>
+      </c>
+      <c r="O290">
+        <v>2.625</v>
+      </c>
+      <c r="P290">
+        <v>0</v>
+      </c>
+      <c r="Q290">
+        <v>1.875</v>
+      </c>
+      <c r="R290">
+        <v>1.975</v>
+      </c>
+      <c r="S290">
+        <v>2.75</v>
+      </c>
+      <c r="T290">
+        <v>1.8</v>
+      </c>
+      <c r="U290">
+        <v>2.05</v>
+      </c>
+      <c r="V290">
+        <v>-1</v>
+      </c>
+      <c r="W290">
+        <v>-1</v>
+      </c>
+      <c r="X290">
+        <v>1.625</v>
+      </c>
+      <c r="Y290">
+        <v>-1</v>
+      </c>
+      <c r="Z290">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA290">
+        <v>-1</v>
+      </c>
+      <c r="AB290">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="291" spans="1:28">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>7951807</v>
+      </c>
+      <c r="C291" t="s">
+        <v>34</v>
+      </c>
+      <c r="D291" s="2">
+        <v>45408.58333333334</v>
+      </c>
+      <c r="E291" t="s">
+        <v>42</v>
+      </c>
+      <c r="F291" t="s">
+        <v>41</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="H291">
+        <v>1</v>
+      </c>
+      <c r="I291" t="s">
+        <v>52</v>
+      </c>
+      <c r="J291">
+        <v>2.2</v>
+      </c>
+      <c r="K291">
+        <v>3.2</v>
+      </c>
+      <c r="L291">
+        <v>2.875</v>
+      </c>
+      <c r="M291">
+        <v>2.05</v>
+      </c>
+      <c r="N291">
+        <v>3</v>
+      </c>
+      <c r="O291">
+        <v>3.6</v>
+      </c>
+      <c r="P291">
+        <v>-0.25</v>
+      </c>
+      <c r="Q291">
+        <v>1.8</v>
+      </c>
+      <c r="R291">
+        <v>2.05</v>
+      </c>
+      <c r="S291">
+        <v>1.75</v>
+      </c>
+      <c r="T291">
+        <v>1.775</v>
+      </c>
+      <c r="U291">
+        <v>2.1</v>
+      </c>
+      <c r="V291">
+        <v>-1</v>
+      </c>
+      <c r="W291">
+        <v>2</v>
+      </c>
+      <c r="X291">
+        <v>-1</v>
+      </c>
+      <c r="Y291">
+        <v>-0.5</v>
+      </c>
+      <c r="Z291">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA291">
+        <v>0.3875</v>
+      </c>
+      <c r="AB291">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:28">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>27</v>
+      </c>
+      <c r="C292" t="s">
+        <v>34</v>
+      </c>
+      <c r="D292" s="2">
+        <v>45409.47916666666</v>
+      </c>
+      <c r="E292" t="s">
+        <v>40</v>
+      </c>
+      <c r="F292" t="s">
+        <v>48</v>
+      </c>
+      <c r="J292">
+        <v>2.4</v>
+      </c>
+      <c r="K292">
+        <v>3.2</v>
+      </c>
+      <c r="L292">
+        <v>2.6</v>
+      </c>
+      <c r="M292">
+        <v>2.7</v>
+      </c>
+      <c r="N292">
+        <v>3</v>
+      </c>
+      <c r="O292">
+        <v>2.45</v>
+      </c>
+      <c r="P292">
+        <v>0</v>
+      </c>
+      <c r="Q292">
+        <v>2.025</v>
+      </c>
+      <c r="R292">
+        <v>1.825</v>
+      </c>
+      <c r="S292">
+        <v>2</v>
+      </c>
+      <c r="T292">
+        <v>1.8</v>
+      </c>
+      <c r="U292">
+        <v>2.05</v>
+      </c>
+      <c r="V292">
+        <v>0</v>
+      </c>
+      <c r="W292">
+        <v>0</v>
+      </c>
+      <c r="X292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:28">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>28</v>
+      </c>
+      <c r="C293" t="s">
+        <v>34</v>
+      </c>
+      <c r="D293" s="2">
+        <v>45409.60416666666</v>
+      </c>
+      <c r="E293" t="s">
+        <v>46</v>
+      </c>
+      <c r="F293" t="s">
+        <v>45</v>
+      </c>
+      <c r="J293">
+        <v>1.909</v>
+      </c>
+      <c r="K293">
+        <v>3.25</v>
+      </c>
+      <c r="L293">
+        <v>3.5</v>
+      </c>
+      <c r="M293">
+        <v>1.8</v>
+      </c>
+      <c r="N293">
+        <v>3.4</v>
+      </c>
+      <c r="O293">
+        <v>3.75</v>
+      </c>
+      <c r="P293">
+        <v>-0.5</v>
+      </c>
+      <c r="Q293">
+        <v>1.85</v>
+      </c>
+      <c r="R293">
+        <v>2</v>
+      </c>
+      <c r="S293">
+        <v>2.75</v>
+      </c>
+      <c r="T293">
+        <v>1.9</v>
+      </c>
+      <c r="U293">
         <v>1.95</v>
       </c>
-      <c r="R289">
+      <c r="V293">
+        <v>0</v>
+      </c>
+      <c r="W293">
+        <v>0</v>
+      </c>
+      <c r="X293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:28">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>29</v>
+      </c>
+      <c r="C294" t="s">
+        <v>34</v>
+      </c>
+      <c r="D294" s="2">
+        <v>45410.3125</v>
+      </c>
+      <c r="E294" t="s">
+        <v>36</v>
+      </c>
+      <c r="F294" t="s">
+        <v>38</v>
+      </c>
+      <c r="J294">
+        <v>2.4</v>
+      </c>
+      <c r="K294">
+        <v>3</v>
+      </c>
+      <c r="L294">
+        <v>2.75</v>
+      </c>
+      <c r="M294">
+        <v>2.45</v>
+      </c>
+      <c r="N294">
+        <v>3</v>
+      </c>
+      <c r="O294">
+        <v>2.7</v>
+      </c>
+      <c r="P294">
+        <v>0</v>
+      </c>
+      <c r="Q294">
+        <v>1.825</v>
+      </c>
+      <c r="R294">
+        <v>2.025</v>
+      </c>
+      <c r="S294">
+        <v>2</v>
+      </c>
+      <c r="T294">
+        <v>1.95</v>
+      </c>
+      <c r="U294">
         <v>1.9</v>
       </c>
-      <c r="S289">
+      <c r="V294">
+        <v>0</v>
+      </c>
+      <c r="W294">
+        <v>0</v>
+      </c>
+      <c r="X294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:28">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>30</v>
+      </c>
+      <c r="C295" t="s">
+        <v>34</v>
+      </c>
+      <c r="D295" s="2">
+        <v>45410.51041666666</v>
+      </c>
+      <c r="E295" t="s">
+        <v>47</v>
+      </c>
+      <c r="F295" t="s">
+        <v>44</v>
+      </c>
+      <c r="J295">
+        <v>2.4</v>
+      </c>
+      <c r="K295">
+        <v>3.2</v>
+      </c>
+      <c r="L295">
+        <v>2.6</v>
+      </c>
+      <c r="M295">
+        <v>2.25</v>
+      </c>
+      <c r="N295">
+        <v>3.2</v>
+      </c>
+      <c r="O295">
+        <v>2.875</v>
+      </c>
+      <c r="P295">
+        <v>-0.25</v>
+      </c>
+      <c r="Q295">
+        <v>2</v>
+      </c>
+      <c r="R295">
+        <v>1.85</v>
+      </c>
+      <c r="S295">
+        <v>2.25</v>
+      </c>
+      <c r="T295">
+        <v>1.925</v>
+      </c>
+      <c r="U295">
+        <v>1.925</v>
+      </c>
+      <c r="V295">
+        <v>0</v>
+      </c>
+      <c r="W295">
+        <v>0</v>
+      </c>
+      <c r="X295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:28">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>31</v>
+      </c>
+      <c r="C296" t="s">
+        <v>34</v>
+      </c>
+      <c r="D296" s="2">
+        <v>45410.625</v>
+      </c>
+      <c r="E296" t="s">
+        <v>35</v>
+      </c>
+      <c r="F296" t="s">
+        <v>43</v>
+      </c>
+      <c r="J296">
+        <v>1.8</v>
+      </c>
+      <c r="K296">
+        <v>3.25</v>
+      </c>
+      <c r="L296">
+        <v>4</v>
+      </c>
+      <c r="M296">
+        <v>1.4</v>
+      </c>
+      <c r="N296">
+        <v>4</v>
+      </c>
+      <c r="O296">
+        <v>6.5</v>
+      </c>
+      <c r="P296">
+        <v>-1.25</v>
+      </c>
+      <c r="Q296">
+        <v>1.975</v>
+      </c>
+      <c r="R296">
+        <v>1.875</v>
+      </c>
+      <c r="S296">
+        <v>2.75</v>
+      </c>
+      <c r="T296">
+        <v>2.025</v>
+      </c>
+      <c r="U296">
+        <v>1.825</v>
+      </c>
+      <c r="V296">
+        <v>0</v>
+      </c>
+      <c r="W296">
+        <v>0</v>
+      </c>
+      <c r="X296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:28">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>32</v>
+      </c>
+      <c r="C297" t="s">
+        <v>34</v>
+      </c>
+      <c r="D297" s="2">
+        <v>45411.47916666666</v>
+      </c>
+      <c r="E297" t="s">
+        <v>39</v>
+      </c>
+      <c r="F297" t="s">
+        <v>49</v>
+      </c>
+      <c r="J297">
+        <v>1.909</v>
+      </c>
+      <c r="K297">
+        <v>3.25</v>
+      </c>
+      <c r="L297">
+        <v>3.5</v>
+      </c>
+      <c r="M297">
+        <v>2</v>
+      </c>
+      <c r="N297">
+        <v>3.25</v>
+      </c>
+      <c r="O297">
+        <v>3.2</v>
+      </c>
+      <c r="P297">
+        <v>-0.25</v>
+      </c>
+      <c r="Q297">
+        <v>1.825</v>
+      </c>
+      <c r="R297">
+        <v>2.025</v>
+      </c>
+      <c r="S297">
+        <v>2.25</v>
+      </c>
+      <c r="T297">
+        <v>2.1</v>
+      </c>
+      <c r="U297">
+        <v>1.775</v>
+      </c>
+      <c r="V297">
+        <v>0</v>
+      </c>
+      <c r="W297">
+        <v>0</v>
+      </c>
+      <c r="X297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:28">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>33</v>
+      </c>
+      <c r="C298" t="s">
+        <v>34</v>
+      </c>
+      <c r="D298" s="2">
+        <v>45411.60416666666</v>
+      </c>
+      <c r="E298" t="s">
+        <v>37</v>
+      </c>
+      <c r="F298" t="s">
+        <v>50</v>
+      </c>
+      <c r="J298">
+        <v>2.3</v>
+      </c>
+      <c r="K298">
+        <v>3.2</v>
+      </c>
+      <c r="L298">
+        <v>2.75</v>
+      </c>
+      <c r="M298">
+        <v>2</v>
+      </c>
+      <c r="N298">
+        <v>3.25</v>
+      </c>
+      <c r="O298">
+        <v>3.2</v>
+      </c>
+      <c r="P298">
+        <v>-0.25</v>
+      </c>
+      <c r="Q298">
+        <v>1.825</v>
+      </c>
+      <c r="R298">
+        <v>2.025</v>
+      </c>
+      <c r="S298">
         <v>2.5</v>
       </c>
-      <c r="T289">
-        <v>1.825</v>
-      </c>
-      <c r="U289">
-        <v>2.025</v>
-      </c>
-      <c r="V289">
-        <v>0</v>
-      </c>
-      <c r="W289">
-        <v>0</v>
-      </c>
-      <c r="X289">
+      <c r="T298">
+        <v>1.925</v>
+      </c>
+      <c r="U298">
+        <v>1.925</v>
+      </c>
+      <c r="V298">
+        <v>0</v>
+      </c>
+      <c r="W298">
+        <v>0</v>
+      </c>
+      <c r="X298">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -20669,7 +20669,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6861095</v>
+        <v>6870268</v>
       </c>
       <c r="C235" t="s">
         <v>34</v>
@@ -20678,76 +20678,76 @@
         <v>45359.625</v>
       </c>
       <c r="E235" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F235" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J235">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="K235">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L235">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="M235">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N235">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O235">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="P235">
         <v>0.25</v>
       </c>
       <c r="Q235">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="R235">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S235">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T235">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U235">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V235">
         <v>-1</v>
       </c>
       <c r="W235">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y235">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB235">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:28">
@@ -20841,7 +20841,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6870268</v>
+        <v>6861095</v>
       </c>
       <c r="C237" t="s">
         <v>34</v>
@@ -20850,76 +20850,76 @@
         <v>45359.625</v>
       </c>
       <c r="E237" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F237" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J237">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="K237">
+        <v>3.4</v>
+      </c>
+      <c r="L237">
+        <v>1.909</v>
+      </c>
+      <c r="M237">
+        <v>3.1</v>
+      </c>
+      <c r="N237">
         <v>3</v>
       </c>
-      <c r="L237">
-        <v>2.55</v>
-      </c>
-      <c r="M237">
-        <v>3</v>
-      </c>
-      <c r="N237">
-        <v>3.2</v>
-      </c>
       <c r="O237">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="P237">
         <v>0.25</v>
       </c>
       <c r="Q237">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="R237">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S237">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T237">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U237">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V237">
         <v>-1</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X237">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="Z237">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA237">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="238" spans="1:28">
@@ -20927,7 +20927,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6852370</v>
+        <v>6836277</v>
       </c>
       <c r="C238" t="s">
         <v>34</v>
@@ -20936,10 +20936,10 @@
         <v>45359.625</v>
       </c>
       <c r="E238" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F238" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -20951,43 +20951,43 @@
         <v>51</v>
       </c>
       <c r="J238">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="K238">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="L238">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M238">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="N238">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O238">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="P238">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q238">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R238">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S238">
         <v>2.25</v>
       </c>
       <c r="T238">
+        <v>1.875</v>
+      </c>
+      <c r="U238">
         <v>1.975</v>
       </c>
-      <c r="U238">
-        <v>1.875</v>
-      </c>
       <c r="V238">
-        <v>1.375</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W238">
         <v>-1</v>
@@ -20996,16 +20996,16 @@
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA238">
         <v>-1</v>
       </c>
       <c r="AB238">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:28">
@@ -21013,7 +21013,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6836277</v>
+        <v>6852370</v>
       </c>
       <c r="C239" t="s">
         <v>34</v>
@@ -21022,10 +21022,10 @@
         <v>45359.625</v>
       </c>
       <c r="E239" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F239" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -21037,43 +21037,43 @@
         <v>51</v>
       </c>
       <c r="J239">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="K239">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="L239">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M239">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="N239">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O239">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P239">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q239">
+        <v>2</v>
+      </c>
+      <c r="R239">
         <v>1.85</v>
-      </c>
-      <c r="R239">
-        <v>2</v>
       </c>
       <c r="S239">
         <v>2.25</v>
       </c>
       <c r="T239">
+        <v>1.975</v>
+      </c>
+      <c r="U239">
         <v>1.875</v>
       </c>
-      <c r="U239">
-        <v>1.975</v>
-      </c>
       <c r="V239">
-        <v>0.6499999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="W239">
         <v>-1</v>
@@ -21082,16 +21082,16 @@
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="Z239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
         <v>-1</v>
       </c>
       <c r="AB239">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="240" spans="1:28">
@@ -25607,19 +25607,19 @@
         <v>0</v>
       </c>
       <c r="Q292">
+        <v>2</v>
+      </c>
+      <c r="R292">
+        <v>1.85</v>
+      </c>
+      <c r="S292">
+        <v>2</v>
+      </c>
+      <c r="T292">
+        <v>1.825</v>
+      </c>
+      <c r="U292">
         <v>2.025</v>
-      </c>
-      <c r="R292">
-        <v>1.825</v>
-      </c>
-      <c r="S292">
-        <v>2</v>
-      </c>
-      <c r="T292">
-        <v>1.8</v>
-      </c>
-      <c r="U292">
-        <v>2.05</v>
       </c>
       <c r="V292">
         <v>0</v>
@@ -25672,19 +25672,19 @@
         <v>-0.5</v>
       </c>
       <c r="Q293">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R293">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S293">
         <v>2.75</v>
       </c>
       <c r="T293">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U293">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V293">
         <v>0</v>
@@ -25858,7 +25858,7 @@
         <v>1.4</v>
       </c>
       <c r="N296">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O296">
         <v>6.5</v>
@@ -25876,10 +25876,10 @@
         <v>2.75</v>
       </c>
       <c r="T296">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U296">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V296">
         <v>0</v>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -95,15 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7951806</t>
-  </si>
-  <si>
-    <t>7951763</t>
-  </si>
-  <si>
-    <t>7951804</t>
   </si>
   <si>
     <t>7951805</t>
@@ -537,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB298"/>
+  <dimension ref="A1:AB295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,16 +625,16 @@
         <v>6708870</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2">
         <v>45078.60416666666</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -652,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J2">
         <v>1.7</v>
@@ -720,16 +711,16 @@
         <v>6831816</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2">
         <v>45121.52083333334</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -738,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -806,16 +797,16 @@
         <v>6871393</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2">
         <v>45121.64583333334</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -824,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J4">
         <v>1.95</v>
@@ -892,16 +883,16 @@
         <v>6836102</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2">
         <v>45122.52083333334</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -910,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J5">
         <v>2.75</v>
@@ -978,16 +969,16 @@
         <v>6871392</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>45122.64583333334</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -996,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J6">
         <v>1.363</v>
@@ -1064,16 +1055,16 @@
         <v>6836106</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2">
         <v>45123.52083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1082,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J7">
         <v>2.5</v>
@@ -1150,16 +1141,16 @@
         <v>6836105</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2">
         <v>45123.64583333334</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1168,7 +1159,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J8">
         <v>3.4</v>
@@ -1236,16 +1227,16 @@
         <v>6831939</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2">
         <v>45124.52083333334</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1254,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J9">
         <v>2.05</v>
@@ -1322,25 +1313,25 @@
         <v>6836104</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>45124.64583333334</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
         <v>50</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>53</v>
       </c>
       <c r="J10">
         <v>3.5</v>
@@ -1408,16 +1399,16 @@
         <v>6836111</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>45128.52083333334</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1426,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J11">
         <v>1.75</v>
@@ -1494,16 +1485,16 @@
         <v>6836108</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
         <v>45128.64583333334</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1512,7 +1503,7 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J12">
         <v>3.5</v>
@@ -1580,16 +1571,16 @@
         <v>6835772</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>45129.51041666666</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1598,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1666,16 +1657,16 @@
         <v>6836110</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2">
         <v>45129.64583333334</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1684,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J14">
         <v>1.533</v>
@@ -1752,16 +1743,16 @@
         <v>6836107</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2">
         <v>45130.52083333334</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1770,7 +1761,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J15">
         <v>2.4</v>
@@ -1838,16 +1829,16 @@
         <v>6835195</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>45130.64583333334</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1856,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J16">
         <v>2.375</v>
@@ -1924,16 +1915,16 @@
         <v>6863931</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2">
         <v>45131.52083333334</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1942,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -2010,16 +2001,16 @@
         <v>6836109</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2">
         <v>45131.64583333334</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2028,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J18">
         <v>1.5</v>
@@ -2096,16 +2087,16 @@
         <v>6836117</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2">
         <v>45135.52083333334</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -2114,7 +2105,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J19">
         <v>2.25</v>
@@ -2182,25 +2173,25 @@
         <v>6835196</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2">
         <v>45135.64583333334</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
         <v>49</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20" t="s">
-        <v>52</v>
       </c>
       <c r="J20">
         <v>1.4</v>
@@ -2268,16 +2259,16 @@
         <v>6836113</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2">
         <v>45136.52083333334</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2286,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J21">
         <v>1.909</v>
@@ -2354,16 +2345,16 @@
         <v>6836115</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2">
         <v>45136.64583333334</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2372,7 +2363,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J22">
         <v>4.75</v>
@@ -2440,16 +2431,16 @@
         <v>6836118</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2458,7 +2449,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J23">
         <v>1.615</v>
@@ -2526,16 +2517,16 @@
         <v>6836114</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2">
         <v>45137.64583333334</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2544,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J24">
         <v>2.15</v>
@@ -2612,16 +2603,16 @@
         <v>6835773</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2">
         <v>45138.52083333334</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2630,7 +2621,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J25">
         <v>2.55</v>
@@ -2698,16 +2689,16 @@
         <v>6836116</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2">
         <v>45138.64583333334</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2716,7 +2707,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J26">
         <v>3.75</v>
@@ -2784,16 +2775,16 @@
         <v>6836124</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2">
         <v>45142.52083333334</v>
       </c>
       <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s">
         <v>44</v>
-      </c>
-      <c r="F27" t="s">
-        <v>47</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2802,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -2870,16 +2861,16 @@
         <v>6836119</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2">
         <v>45142.64583333334</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2888,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J28">
         <v>1.615</v>
@@ -2956,16 +2947,16 @@
         <v>6836123</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2">
         <v>45143.52083333334</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2974,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J29">
         <v>2.375</v>
@@ -3042,16 +3033,16 @@
         <v>6836122</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2">
         <v>45143.64583333334</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3060,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J30">
         <v>2.2</v>
@@ -3128,16 +3119,16 @@
         <v>6836125</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2">
         <v>45144.51041666666</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3146,7 +3137,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J31">
         <v>2.875</v>
@@ -3214,16 +3205,16 @@
         <v>6836120</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2">
         <v>45144.64583333334</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3232,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J32">
         <v>2.1</v>
@@ -3300,16 +3291,16 @@
         <v>6836121</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D33" s="2">
         <v>45145.52083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3318,7 +3309,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J33">
         <v>1.727</v>
@@ -3386,16 +3377,16 @@
         <v>6835197</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D34" s="2">
         <v>45145.64583333334</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3404,7 +3395,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J34">
         <v>3.1</v>
@@ -3472,16 +3463,16 @@
         <v>6835774</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D35" s="2">
         <v>45149.60416666666</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -3490,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J35">
         <v>2.375</v>
@@ -3558,16 +3549,16 @@
         <v>6836128</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D36" s="2">
         <v>45150.52083333334</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3576,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J36">
         <v>2.6</v>
@@ -3644,16 +3635,16 @@
         <v>6836130</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D37" s="2">
         <v>45150.64583333334</v>
       </c>
       <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
         <v>47</v>
-      </c>
-      <c r="F37" t="s">
-        <v>50</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3662,7 +3653,7 @@
         <v>4</v>
       </c>
       <c r="I37" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J37">
         <v>4</v>
@@ -3730,16 +3721,16 @@
         <v>6835198</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2">
         <v>45151.64583333334</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3748,7 +3739,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J38">
         <v>1.8</v>
@@ -3816,16 +3807,16 @@
         <v>6836129</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D39" s="2">
         <v>45152.60416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3834,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -3902,16 +3893,16 @@
         <v>6836136</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D40" s="2">
         <v>45156.52083333334</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -3920,7 +3911,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J40">
         <v>2.3</v>
@@ -3988,16 +3979,16 @@
         <v>6836137</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D41" s="2">
         <v>45156.64583333334</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -4006,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J41">
         <v>1.45</v>
@@ -4074,25 +4065,25 @@
         <v>6836134</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D42" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
         <v>49</v>
-      </c>
-      <c r="F42" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42" t="s">
-        <v>52</v>
       </c>
       <c r="J42">
         <v>2.1</v>
@@ -4160,16 +4151,16 @@
         <v>6835775</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D43" s="2">
         <v>45157.65625</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4178,7 +4169,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J43">
         <v>1.95</v>
@@ -4246,16 +4237,16 @@
         <v>6835199</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D44" s="2">
         <v>45158.51041666666</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -4264,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J44">
         <v>2.05</v>
@@ -4332,16 +4323,16 @@
         <v>6836135</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D45" s="2">
         <v>45158.64583333334</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4350,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J45">
         <v>1.45</v>
@@ -4418,16 +4409,16 @@
         <v>6836132</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D46" s="2">
         <v>45159.52083333334</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4436,7 +4427,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J46">
         <v>2.15</v>
@@ -4504,16 +4495,16 @@
         <v>6836133</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D47" s="2">
         <v>45159.64583333334</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4522,7 +4513,7 @@
         <v>4</v>
       </c>
       <c r="I47" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J47">
         <v>4.2</v>
@@ -4590,16 +4581,16 @@
         <v>6835776</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D48" s="2">
         <v>45163.52083333334</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4608,7 +4599,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J48">
         <v>2.7</v>
@@ -4676,16 +4667,16 @@
         <v>6835200</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D49" s="2">
         <v>45163.64583333334</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -4694,7 +4685,7 @@
         <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J49">
         <v>2.7</v>
@@ -4762,16 +4753,16 @@
         <v>6836141</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D50" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4780,7 +4771,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J50">
         <v>1.363</v>
@@ -4848,16 +4839,16 @@
         <v>6836143</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D51" s="2">
         <v>45164.65625</v>
       </c>
       <c r="E51" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4866,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J51">
         <v>2.25</v>
@@ -4934,16 +4925,16 @@
         <v>6836139</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D52" s="2">
         <v>45165.64583333334</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F52" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4952,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J52">
         <v>2.6</v>
@@ -5020,16 +5011,16 @@
         <v>6836140</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D53" s="2">
         <v>45166.52083333334</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5038,7 +5029,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J53">
         <v>2.2</v>
@@ -5106,16 +5097,16 @@
         <v>6836138</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D54" s="2">
         <v>45166.64583333334</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5124,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J54">
         <v>4</v>
@@ -5192,16 +5183,16 @@
         <v>6836146</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D55" s="2">
         <v>45170.52083333334</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5210,7 +5201,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J55">
         <v>2.05</v>
@@ -5278,16 +5269,16 @@
         <v>6835201</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D56" s="2">
         <v>45170.64583333334</v>
       </c>
       <c r="E56" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G56">
         <v>4</v>
@@ -5296,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J56">
         <v>1.7</v>
@@ -5364,16 +5355,16 @@
         <v>6835777</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D57" s="2">
         <v>45171.54166666666</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5382,7 +5373,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J57">
         <v>4.333</v>
@@ -5450,16 +5441,16 @@
         <v>6836148</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D58" s="2">
         <v>45171.65625</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5468,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J58">
         <v>2.8</v>
@@ -5536,16 +5527,16 @@
         <v>6836149</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D59" s="2">
         <v>45172.64583333334</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G59">
         <v>4</v>
@@ -5554,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J59">
         <v>2.5</v>
@@ -5622,16 +5613,16 @@
         <v>6836145</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D60" s="2">
         <v>45173.29166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5640,7 +5631,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J60">
         <v>1.909</v>
@@ -5708,25 +5699,25 @@
         <v>6836144</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D61" s="2">
         <v>45173.52083333334</v>
       </c>
       <c r="E61" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61" t="s">
         <v>49</v>
-      </c>
-      <c r="F61" t="s">
-        <v>38</v>
-      </c>
-      <c r="G61">
-        <v>2</v>
-      </c>
-      <c r="H61">
-        <v>2</v>
-      </c>
-      <c r="I61" t="s">
-        <v>52</v>
       </c>
       <c r="J61">
         <v>2.8</v>
@@ -5794,16 +5785,16 @@
         <v>6836147</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D62" s="2">
         <v>45173.64583333334</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5812,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J62">
         <v>1.65</v>
@@ -5880,16 +5871,16 @@
         <v>6836152</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D63" s="2">
         <v>45184.52083333334</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5898,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J63">
         <v>2.5</v>
@@ -5966,16 +5957,16 @@
         <v>6836154</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D64" s="2">
         <v>45184.64583333334</v>
       </c>
       <c r="E64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5984,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J64">
         <v>2.75</v>
@@ -6052,16 +6043,16 @@
         <v>6836153</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D65" s="2">
         <v>45185.64583333334</v>
       </c>
       <c r="E65" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F65" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6070,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J65">
         <v>1.909</v>
@@ -6138,16 +6129,16 @@
         <v>6835778</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D66" s="2">
         <v>45186.45833333334</v>
       </c>
       <c r="E66" t="s">
+        <v>35</v>
+      </c>
+      <c r="F66" t="s">
         <v>38</v>
-      </c>
-      <c r="F66" t="s">
-        <v>41</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -6156,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J66">
         <v>2</v>
@@ -6224,16 +6215,16 @@
         <v>6835202</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D67" s="2">
         <v>45186.55208333334</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6242,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -6310,16 +6301,16 @@
         <v>6836155</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D68" s="2">
         <v>45186.65625</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F68" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6328,7 +6319,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J68">
         <v>2.625</v>
@@ -6396,16 +6387,16 @@
         <v>6836150</v>
       </c>
       <c r="C69" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D69" s="2">
         <v>45187.52083333334</v>
       </c>
       <c r="E69" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6414,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J69">
         <v>2.4</v>
@@ -6482,16 +6473,16 @@
         <v>6836151</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D70" s="2">
         <v>45187.64583333334</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6500,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J70">
         <v>1.45</v>
@@ -6568,16 +6559,16 @@
         <v>6836126</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D71" s="2">
         <v>45190.58333333334</v>
       </c>
       <c r="E71" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6586,7 +6577,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J71">
         <v>3.7</v>
@@ -6654,16 +6645,16 @@
         <v>6836159</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D72" s="2">
         <v>45191.5</v>
       </c>
       <c r="E72" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6672,7 +6663,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J72">
         <v>1.95</v>
@@ -6740,17 +6731,17 @@
         <v>6836161</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D73" s="2">
         <v>45191.625</v>
       </c>
       <c r="E73" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" t="s">
         <v>42</v>
       </c>
-      <c r="F73" t="s">
-        <v>45</v>
-      </c>
       <c r="G73">
         <v>0</v>
       </c>
@@ -6758,7 +6749,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J73">
         <v>3.3</v>
@@ -6826,16 +6817,16 @@
         <v>6835779</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D74" s="2">
         <v>45192.35416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6844,7 +6835,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J74">
         <v>2</v>
@@ -6912,25 +6903,25 @@
         <v>6836157</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D75" s="2">
         <v>45192.53125</v>
       </c>
       <c r="E75" t="s">
+        <v>46</v>
+      </c>
+      <c r="F75" t="s">
+        <v>41</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75" t="s">
         <v>49</v>
-      </c>
-      <c r="F75" t="s">
-        <v>44</v>
-      </c>
-      <c r="G75">
-        <v>2</v>
-      </c>
-      <c r="H75">
-        <v>2</v>
-      </c>
-      <c r="I75" t="s">
-        <v>52</v>
       </c>
       <c r="J75">
         <v>2.25</v>
@@ -6998,16 +6989,16 @@
         <v>6836158</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D76" s="2">
         <v>45192.64583333334</v>
       </c>
       <c r="E76" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7016,7 +7007,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -7084,16 +7075,16 @@
         <v>6836156</v>
       </c>
       <c r="C77" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D77" s="2">
         <v>45193.51041666666</v>
       </c>
       <c r="E77" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7102,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J77">
         <v>2.4</v>
@@ -7170,16 +7161,16 @@
         <v>6836160</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D78" s="2">
         <v>45193.625</v>
       </c>
       <c r="E78" t="s">
+        <v>40</v>
+      </c>
+      <c r="F78" t="s">
         <v>43</v>
-      </c>
-      <c r="F78" t="s">
-        <v>46</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7188,7 +7179,7 @@
         <v>5</v>
       </c>
       <c r="I78" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J78">
         <v>2.7</v>
@@ -7256,16 +7247,16 @@
         <v>6835203</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D79" s="2">
         <v>45194.625</v>
       </c>
       <c r="E79" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7274,7 +7265,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J79">
         <v>2.8</v>
@@ -7342,16 +7333,16 @@
         <v>6836166</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D80" s="2">
         <v>45198.625</v>
       </c>
       <c r="E80" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7360,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J80">
         <v>2.3</v>
@@ -7428,16 +7419,16 @@
         <v>6835780</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D81" s="2">
         <v>45199.35416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7446,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J81">
         <v>2.2</v>
@@ -7514,16 +7505,16 @@
         <v>6836167</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D82" s="2">
         <v>45199.64583333334</v>
       </c>
       <c r="E82" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7532,7 +7523,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J82">
         <v>2.2</v>
@@ -7600,16 +7591,16 @@
         <v>6836163</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D83" s="2">
         <v>45200.375</v>
       </c>
       <c r="E83" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G83">
         <v>5</v>
@@ -7618,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J83">
         <v>1.444</v>
@@ -7686,16 +7677,16 @@
         <v>6835204</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D84" s="2">
         <v>45200.5</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7704,7 +7695,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J84">
         <v>2.875</v>
@@ -7772,16 +7763,16 @@
         <v>6836164</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D85" s="2">
         <v>45200.625</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7790,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J85">
         <v>1.5</v>
@@ -7858,16 +7849,16 @@
         <v>6836162</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D86" s="2">
         <v>45201.5</v>
       </c>
       <c r="E86" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7876,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J86">
         <v>2.9</v>
@@ -7944,16 +7935,16 @@
         <v>6836165</v>
       </c>
       <c r="C87" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D87" s="2">
         <v>45201.625</v>
       </c>
       <c r="E87" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7962,7 +7953,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J87">
         <v>1.4</v>
@@ -8030,16 +8021,16 @@
         <v>6836127</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D88" s="2">
         <v>45204.58333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8048,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J88">
         <v>1.8</v>
@@ -8116,16 +8107,16 @@
         <v>6836168</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D89" s="2">
         <v>45205.5</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8134,7 +8125,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J89">
         <v>2.3</v>
@@ -8202,16 +8193,16 @@
         <v>6835205</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D90" s="2">
         <v>45205.625</v>
       </c>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G90">
         <v>3</v>
@@ -8220,7 +8211,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J90">
         <v>1.5</v>
@@ -8288,16 +8279,16 @@
         <v>6836169</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D91" s="2">
         <v>45206.33333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8306,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J91">
         <v>2.1</v>
@@ -8374,16 +8365,16 @@
         <v>6835781</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D92" s="2">
         <v>45206.53125</v>
       </c>
       <c r="E92" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8392,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J92">
         <v>4</v>
@@ -8460,16 +8451,16 @@
         <v>6836170</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D93" s="2">
         <v>45206.64583333334</v>
       </c>
       <c r="E93" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8478,7 +8469,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -8546,16 +8537,16 @@
         <v>6836173</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D94" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E94" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F94" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8564,7 +8555,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J94">
         <v>2.75</v>
@@ -8632,16 +8623,16 @@
         <v>6836171</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D95" s="2">
         <v>45207.64583333334</v>
       </c>
       <c r="E95" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8650,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J95">
         <v>4</v>
@@ -8718,16 +8709,16 @@
         <v>6836172</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D96" s="2">
         <v>45208.625</v>
       </c>
       <c r="E96" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8736,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J96">
         <v>2.8</v>
@@ -8804,16 +8795,16 @@
         <v>7122732</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D97" s="2">
         <v>45218.58333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8822,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J97">
         <v>2.625</v>
@@ -8890,16 +8881,16 @@
         <v>6835206</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D98" s="2">
         <v>45219.625</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8908,7 +8899,7 @@
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J98">
         <v>3.4</v>
@@ -8976,16 +8967,16 @@
         <v>6836174</v>
       </c>
       <c r="C99" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D99" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G99">
         <v>4</v>
@@ -8994,7 +8985,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J99">
         <v>2.1</v>
@@ -9062,16 +9053,16 @@
         <v>6836179</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D100" s="2">
         <v>45220.65625</v>
       </c>
       <c r="E100" t="s">
+        <v>42</v>
+      </c>
+      <c r="F100" t="s">
         <v>45</v>
-      </c>
-      <c r="F100" t="s">
-        <v>48</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9080,7 +9071,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J100">
         <v>1.833</v>
@@ -9148,16 +9139,16 @@
         <v>6836175</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D101" s="2">
         <v>45221.39583333334</v>
       </c>
       <c r="E101" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9166,7 +9157,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J101">
         <v>2.625</v>
@@ -9234,16 +9225,16 @@
         <v>6836176</v>
       </c>
       <c r="C102" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D102" s="2">
         <v>45221.5</v>
       </c>
       <c r="E102" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9252,7 +9243,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J102">
         <v>1.571</v>
@@ -9320,16 +9311,16 @@
         <v>6835782</v>
       </c>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D103" s="2">
         <v>45221.625</v>
       </c>
       <c r="E103" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9338,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J103">
         <v>1.444</v>
@@ -9406,16 +9397,16 @@
         <v>6836177</v>
       </c>
       <c r="C104" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D104" s="2">
         <v>45222.5</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G104">
         <v>5</v>
@@ -9424,7 +9415,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J104">
         <v>1.571</v>
@@ -9492,16 +9483,16 @@
         <v>6836178</v>
       </c>
       <c r="C105" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D105" s="2">
         <v>45222.625</v>
       </c>
       <c r="E105" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9510,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J105">
         <v>1.4</v>
@@ -9578,16 +9569,16 @@
         <v>6836131</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D106" s="2">
         <v>45225.58333333334</v>
       </c>
       <c r="E106" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F106" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9596,7 +9587,7 @@
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J106">
         <v>1.65</v>
@@ -9664,16 +9655,16 @@
         <v>6835783</v>
       </c>
       <c r="C107" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D107" s="2">
         <v>45226.47916666666</v>
       </c>
       <c r="E107" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9682,7 +9673,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J107">
         <v>3</v>
@@ -9750,16 +9741,16 @@
         <v>6836181</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D108" s="2">
         <v>45226.60416666666</v>
       </c>
       <c r="E108" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F108" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9768,7 +9759,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J108">
         <v>2.4</v>
@@ -9836,16 +9827,16 @@
         <v>6836180</v>
       </c>
       <c r="C109" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D109" s="2">
         <v>45227.33333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9854,7 +9845,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J109">
         <v>2.6</v>
@@ -9922,16 +9913,16 @@
         <v>6836183</v>
       </c>
       <c r="C110" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D110" s="2">
         <v>45227.60416666666</v>
       </c>
       <c r="E110" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F110" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9940,7 +9931,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J110">
         <v>3.8</v>
@@ -10008,16 +9999,16 @@
         <v>6836182</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D111" s="2">
         <v>45228.375</v>
       </c>
       <c r="E111" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F111" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10026,7 +10017,7 @@
         <v>3</v>
       </c>
       <c r="I111" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J111">
         <v>2</v>
@@ -10094,16 +10085,16 @@
         <v>6835207</v>
       </c>
       <c r="C112" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D112" s="2">
         <v>45228.64583333334</v>
       </c>
       <c r="E112" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F112" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10112,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J112">
         <v>2.3</v>
@@ -10180,16 +10171,16 @@
         <v>6836184</v>
       </c>
       <c r="C113" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D113" s="2">
         <v>45229.52083333334</v>
       </c>
       <c r="E113" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F113" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10198,7 +10189,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -10266,16 +10257,16 @@
         <v>6836185</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D114" s="2">
         <v>45229.64583333334</v>
       </c>
       <c r="E114" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F114" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -10284,7 +10275,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J114">
         <v>1.909</v>
@@ -10352,16 +10343,16 @@
         <v>6836187</v>
       </c>
       <c r="C115" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D115" s="2">
         <v>45233.54166666666</v>
       </c>
       <c r="E115" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10370,7 +10361,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J115">
         <v>2.3</v>
@@ -10438,16 +10429,16 @@
         <v>6836190</v>
       </c>
       <c r="C116" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D116" s="2">
         <v>45234.48958333334</v>
       </c>
       <c r="E116" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10456,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J116">
         <v>1.909</v>
@@ -10524,16 +10515,16 @@
         <v>6836189</v>
       </c>
       <c r="C117" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D117" s="2">
         <v>45234.67708333334</v>
       </c>
       <c r="E117" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10542,7 +10533,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J117">
         <v>1.75</v>
@@ -10610,16 +10601,16 @@
         <v>6835784</v>
       </c>
       <c r="C118" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D118" s="2">
         <v>45235.41666666666</v>
       </c>
       <c r="E118" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10628,7 +10619,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J118">
         <v>2</v>
@@ -10696,16 +10687,16 @@
         <v>6836191</v>
       </c>
       <c r="C119" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D119" s="2">
         <v>45235.52083333334</v>
       </c>
       <c r="E119" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F119" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10714,7 +10705,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J119">
         <v>1.5</v>
@@ -10782,16 +10773,16 @@
         <v>6835208</v>
       </c>
       <c r="C120" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D120" s="2">
         <v>45235.64583333334</v>
       </c>
       <c r="E120" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10800,7 +10791,7 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J120">
         <v>2</v>
@@ -10868,16 +10859,16 @@
         <v>6836188</v>
       </c>
       <c r="C121" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D121" s="2">
         <v>45236.54166666666</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10886,7 +10877,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J121">
         <v>1.909</v>
@@ -10954,16 +10945,16 @@
         <v>6836186</v>
       </c>
       <c r="C122" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D122" s="2">
         <v>45236.66666666666</v>
       </c>
       <c r="E122" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10972,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J122">
         <v>3.5</v>
@@ -11040,16 +11031,16 @@
         <v>6835209</v>
       </c>
       <c r="C123" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D123" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E123" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11058,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J123">
         <v>2.5</v>
@@ -11126,16 +11117,16 @@
         <v>6836197</v>
       </c>
       <c r="C124" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D124" s="2">
         <v>45241.375</v>
       </c>
       <c r="E124" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11144,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J124">
         <v>2.2</v>
@@ -11212,16 +11203,16 @@
         <v>6836193</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D125" s="2">
         <v>45241.57291666666</v>
       </c>
       <c r="E125" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -11230,7 +11221,7 @@
         <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J125">
         <v>4.75</v>
@@ -11298,16 +11289,16 @@
         <v>6836192</v>
       </c>
       <c r="C126" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D126" s="2">
         <v>45241.66666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11316,7 +11307,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J126">
         <v>1.833</v>
@@ -11384,16 +11375,16 @@
         <v>6835785</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D127" s="2">
         <v>45242.35416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11402,7 +11393,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J127">
         <v>2.5</v>
@@ -11470,16 +11461,16 @@
         <v>6836195</v>
       </c>
       <c r="C128" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D128" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E128" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11488,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J128">
         <v>1.333</v>
@@ -11556,16 +11547,16 @@
         <v>6836196</v>
       </c>
       <c r="C129" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D129" s="2">
         <v>45242.66666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11574,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J129">
         <v>1.444</v>
@@ -11642,16 +11633,16 @@
         <v>6836194</v>
       </c>
       <c r="C130" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D130" s="2">
         <v>45243.64583333334</v>
       </c>
       <c r="E130" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11660,7 +11651,7 @@
         <v>4</v>
       </c>
       <c r="I130" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J130">
         <v>2.15</v>
@@ -11728,16 +11719,16 @@
         <v>6836198</v>
       </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D131" s="2">
         <v>45254.52083333334</v>
       </c>
       <c r="E131" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F131" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11746,7 +11737,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J131">
         <v>2.05</v>
@@ -11814,16 +11805,16 @@
         <v>6836203</v>
       </c>
       <c r="C132" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D132" s="2">
         <v>45254.64583333334</v>
       </c>
       <c r="E132" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F132" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11832,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J132">
         <v>1.65</v>
@@ -11900,16 +11891,16 @@
         <v>6835786</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D133" s="2">
         <v>45255.52083333334</v>
       </c>
       <c r="E133" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F133" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G133">
         <v>4</v>
@@ -11918,7 +11909,7 @@
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J133">
         <v>3.2</v>
@@ -11986,16 +11977,16 @@
         <v>6836199</v>
       </c>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D134" s="2">
         <v>45255.64583333334</v>
       </c>
       <c r="E134" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -12004,7 +11995,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J134">
         <v>1.45</v>
@@ -12072,16 +12063,16 @@
         <v>6836200</v>
       </c>
       <c r="C135" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D135" s="2">
         <v>45256.52083333334</v>
       </c>
       <c r="E135" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F135" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12090,7 +12081,7 @@
         <v>3</v>
       </c>
       <c r="I135" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J135">
         <v>3.4</v>
@@ -12158,16 +12149,16 @@
         <v>6836201</v>
       </c>
       <c r="C136" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D136" s="2">
         <v>45256.64583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F136" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12176,7 +12167,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J136">
         <v>9</v>
@@ -12244,16 +12235,16 @@
         <v>6836202</v>
       </c>
       <c r="C137" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D137" s="2">
         <v>45257.52083333334</v>
       </c>
       <c r="E137" t="s">
+        <v>37</v>
+      </c>
+      <c r="F137" t="s">
         <v>40</v>
-      </c>
-      <c r="F137" t="s">
-        <v>43</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12262,7 +12253,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J137">
         <v>2.6</v>
@@ -12330,16 +12321,16 @@
         <v>6835210</v>
       </c>
       <c r="C138" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D138" s="2">
         <v>45257.64583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F138" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12348,7 +12339,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J138">
         <v>1.833</v>
@@ -12416,16 +12407,16 @@
         <v>6835787</v>
       </c>
       <c r="C139" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D139" s="2">
         <v>45261.5</v>
       </c>
       <c r="E139" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12434,7 +12425,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J139">
         <v>2.3</v>
@@ -12502,16 +12493,16 @@
         <v>7528972</v>
       </c>
       <c r="C140" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D140" s="2">
         <v>45261.625</v>
       </c>
       <c r="E140" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F140" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12520,7 +12511,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J140">
         <v>3.3</v>
@@ -12588,16 +12579,16 @@
         <v>6836204</v>
       </c>
       <c r="C141" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D141" s="2">
         <v>45262.375</v>
       </c>
       <c r="E141" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -12606,7 +12597,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J141">
         <v>2.5</v>
@@ -12674,25 +12665,25 @@
         <v>6835211</v>
       </c>
       <c r="C142" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D142" s="2">
         <v>45262.5</v>
       </c>
       <c r="E142" t="s">
+        <v>46</v>
+      </c>
+      <c r="F142" t="s">
+        <v>34</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142" t="s">
         <v>49</v>
-      </c>
-      <c r="F142" t="s">
-        <v>37</v>
-      </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="H142">
-        <v>0</v>
-      </c>
-      <c r="I142" t="s">
-        <v>52</v>
       </c>
       <c r="J142">
         <v>4.2</v>
@@ -12760,16 +12751,16 @@
         <v>6836205</v>
       </c>
       <c r="C143" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D143" s="2">
         <v>45262.64583333334</v>
       </c>
       <c r="E143" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12778,7 +12769,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J143">
         <v>2.6</v>
@@ -12846,16 +12837,16 @@
         <v>6836208</v>
       </c>
       <c r="C144" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D144" s="2">
         <v>45263.45833333334</v>
       </c>
       <c r="E144" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12864,7 +12855,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -12932,16 +12923,16 @@
         <v>6836206</v>
       </c>
       <c r="C145" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D145" s="2">
         <v>45263.66666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -12950,7 +12941,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J145">
         <v>1.363</v>
@@ -13018,16 +13009,16 @@
         <v>6836207</v>
       </c>
       <c r="C146" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D146" s="2">
         <v>45264.625</v>
       </c>
       <c r="E146" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13036,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J146">
         <v>1.6</v>
@@ -13104,16 +13095,16 @@
         <v>6836215</v>
       </c>
       <c r="C147" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D147" s="2">
         <v>45268.58333333334</v>
       </c>
       <c r="E147" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F147" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13122,7 +13113,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J147">
         <v>2.3</v>
@@ -13190,16 +13181,16 @@
         <v>6835212</v>
       </c>
       <c r="C148" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D148" s="2">
         <v>45269.65625</v>
       </c>
       <c r="E148" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13208,7 +13199,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J148">
         <v>1.7</v>
@@ -13276,16 +13267,16 @@
         <v>6836210</v>
       </c>
       <c r="C149" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D149" s="2">
         <v>45270.375</v>
       </c>
       <c r="E149" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F149" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13294,7 +13285,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J149">
         <v>2.875</v>
@@ -13362,16 +13353,16 @@
         <v>6836216</v>
       </c>
       <c r="C150" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D150" s="2">
         <v>45270.5</v>
       </c>
       <c r="E150" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13380,7 +13371,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J150">
         <v>1.9</v>
@@ -13448,16 +13439,16 @@
         <v>6836211</v>
       </c>
       <c r="C151" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D151" s="2">
         <v>45270.625</v>
       </c>
       <c r="E151" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F151" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13466,7 +13457,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J151">
         <v>2.7</v>
@@ -13534,16 +13525,16 @@
         <v>6836214</v>
       </c>
       <c r="C152" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D152" s="2">
         <v>45271.5</v>
       </c>
       <c r="E152" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F152" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13552,7 +13543,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J152">
         <v>1.85</v>
@@ -13620,16 +13611,16 @@
         <v>6836213</v>
       </c>
       <c r="C153" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D153" s="2">
         <v>45271.65625</v>
       </c>
       <c r="E153" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F153" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13638,7 +13629,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J153">
         <v>3.25</v>
@@ -13706,16 +13697,16 @@
         <v>6836212</v>
       </c>
       <c r="C154" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D154" s="2">
         <v>45272.5</v>
       </c>
       <c r="E154" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13724,7 +13715,7 @@
         <v>3</v>
       </c>
       <c r="I154" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J154">
         <v>2.7</v>
@@ -13792,16 +13783,16 @@
         <v>6835788</v>
       </c>
       <c r="C155" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D155" s="2">
         <v>45275.5</v>
       </c>
       <c r="E155" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13810,7 +13801,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J155">
         <v>2.3</v>
@@ -13878,16 +13869,16 @@
         <v>6835213</v>
       </c>
       <c r="C156" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D156" s="2">
         <v>45275.625</v>
       </c>
       <c r="E156" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13896,7 +13887,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J156">
         <v>3.1</v>
@@ -13964,16 +13955,16 @@
         <v>6836222</v>
       </c>
       <c r="C157" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D157" s="2">
         <v>45276.375</v>
       </c>
       <c r="E157" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F157" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13982,7 +13973,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J157">
         <v>3.1</v>
@@ -14050,16 +14041,16 @@
         <v>6836221</v>
       </c>
       <c r="C158" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D158" s="2">
         <v>45276.5</v>
       </c>
       <c r="E158" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F158" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14068,7 +14059,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J158">
         <v>1.45</v>
@@ -14136,16 +14127,16 @@
         <v>6836217</v>
       </c>
       <c r="C159" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D159" s="2">
         <v>45276.625</v>
       </c>
       <c r="E159" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G159">
         <v>3</v>
@@ -14154,7 +14145,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J159">
         <v>1.666</v>
@@ -14222,16 +14213,16 @@
         <v>6836219</v>
       </c>
       <c r="C160" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D160" s="2">
         <v>45277.41666666666</v>
       </c>
       <c r="E160" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14240,7 +14231,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J160">
         <v>1.8</v>
@@ -14308,16 +14299,16 @@
         <v>6836218</v>
       </c>
       <c r="C161" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D161" s="2">
         <v>45277.66666666666</v>
       </c>
       <c r="E161" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -14326,7 +14317,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J161">
         <v>3.3</v>
@@ -14394,16 +14385,16 @@
         <v>6836220</v>
       </c>
       <c r="C162" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D162" s="2">
         <v>45278.625</v>
       </c>
       <c r="E162" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F162" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -14412,7 +14403,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J162">
         <v>2.25</v>
@@ -14480,16 +14471,16 @@
         <v>6836227</v>
       </c>
       <c r="C163" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D163" s="2">
         <v>45279.52083333334</v>
       </c>
       <c r="E163" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F163" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14498,7 +14489,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J163">
         <v>2.1</v>
@@ -14566,16 +14557,16 @@
         <v>6836226</v>
       </c>
       <c r="C164" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D164" s="2">
         <v>45279.64583333334</v>
       </c>
       <c r="E164" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F164" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14584,7 +14575,7 @@
         <v>3</v>
       </c>
       <c r="I164" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J164">
         <v>5.25</v>
@@ -14652,16 +14643,16 @@
         <v>6836228</v>
       </c>
       <c r="C165" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D165" s="2">
         <v>45280.52083333334</v>
       </c>
       <c r="E165" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F165" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14670,7 +14661,7 @@
         <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J165">
         <v>4.5</v>
@@ -14738,16 +14729,16 @@
         <v>6835214</v>
       </c>
       <c r="C166" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D166" s="2">
         <v>45280.64583333334</v>
       </c>
       <c r="E166" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14756,7 +14747,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J166">
         <v>2.25</v>
@@ -14824,16 +14815,16 @@
         <v>6836223</v>
       </c>
       <c r="C167" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D167" s="2">
         <v>45281.5</v>
       </c>
       <c r="E167" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F167" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14842,7 +14833,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J167">
         <v>2.5</v>
@@ -14910,16 +14901,16 @@
         <v>6836224</v>
       </c>
       <c r="C168" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D168" s="2">
         <v>45281.61458333334</v>
       </c>
       <c r="E168" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F168" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G168">
         <v>4</v>
@@ -14928,7 +14919,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J168">
         <v>1.95</v>
@@ -14996,16 +14987,16 @@
         <v>6836225</v>
       </c>
       <c r="C169" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D169" s="2">
         <v>45282.52083333334</v>
       </c>
       <c r="E169" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F169" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -15014,7 +15005,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J169">
         <v>1.909</v>
@@ -15082,16 +15073,16 @@
         <v>6835789</v>
       </c>
       <c r="C170" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D170" s="2">
         <v>45282.64583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F170" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15100,7 +15091,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J170">
         <v>2.875</v>
@@ -15168,16 +15159,16 @@
         <v>6836231</v>
       </c>
       <c r="C171" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D171" s="2">
         <v>45310.5</v>
       </c>
       <c r="E171" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F171" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G171">
         <v>6</v>
@@ -15186,7 +15177,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J171">
         <v>1.727</v>
@@ -15254,16 +15245,16 @@
         <v>6835215</v>
       </c>
       <c r="C172" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D172" s="2">
         <v>45310.625</v>
       </c>
       <c r="E172" t="s">
+        <v>34</v>
+      </c>
+      <c r="F172" t="s">
         <v>37</v>
-      </c>
-      <c r="F172" t="s">
-        <v>40</v>
       </c>
       <c r="G172">
         <v>4</v>
@@ -15272,7 +15263,7 @@
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J172">
         <v>1.833</v>
@@ -15340,16 +15331,16 @@
         <v>6836229</v>
       </c>
       <c r="C173" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D173" s="2">
         <v>45311.5</v>
       </c>
       <c r="E173" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -15358,7 +15349,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J173">
         <v>2.1</v>
@@ -15426,16 +15417,16 @@
         <v>6836232</v>
       </c>
       <c r="C174" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D174" s="2">
         <v>45311.625</v>
       </c>
       <c r="E174" t="s">
+        <v>36</v>
+      </c>
+      <c r="F174" t="s">
         <v>39</v>
-      </c>
-      <c r="F174" t="s">
-        <v>42</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15444,7 +15435,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J174">
         <v>2</v>
@@ -15512,16 +15503,16 @@
         <v>6836230</v>
       </c>
       <c r="C175" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D175" s="2">
         <v>45312.41666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15530,7 +15521,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J175">
         <v>4.75</v>
@@ -15598,16 +15589,16 @@
         <v>6836234</v>
       </c>
       <c r="C176" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D176" s="2">
         <v>45312.625</v>
       </c>
       <c r="E176" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F176" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15616,7 +15607,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J176">
         <v>1.833</v>
@@ -15684,16 +15675,16 @@
         <v>6835790</v>
       </c>
       <c r="C177" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D177" s="2">
         <v>45313.5</v>
       </c>
       <c r="E177" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15702,7 +15693,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J177">
         <v>2.625</v>
@@ -15770,16 +15761,16 @@
         <v>6836233</v>
       </c>
       <c r="C178" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D178" s="2">
         <v>45313.625</v>
       </c>
       <c r="E178" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F178" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G178">
         <v>4</v>
@@ -15788,7 +15779,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J178">
         <v>1.363</v>
@@ -15856,16 +15847,16 @@
         <v>6836236</v>
       </c>
       <c r="C179" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D179" s="2">
         <v>45317.625</v>
       </c>
       <c r="E179" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -15874,7 +15865,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J179">
         <v>1.85</v>
@@ -15942,16 +15933,16 @@
         <v>6836240</v>
       </c>
       <c r="C180" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D180" s="2">
         <v>45318.375</v>
       </c>
       <c r="E180" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F180" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -15960,7 +15951,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J180">
         <v>3</v>
@@ -16028,17 +16019,17 @@
         <v>6836239</v>
       </c>
       <c r="C181" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D181" s="2">
         <v>45318.5</v>
       </c>
       <c r="E181" t="s">
+        <v>33</v>
+      </c>
+      <c r="F181" t="s">
         <v>36</v>
       </c>
-      <c r="F181" t="s">
-        <v>39</v>
-      </c>
       <c r="G181">
         <v>0</v>
       </c>
@@ -16046,7 +16037,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J181">
         <v>2.4</v>
@@ -16114,16 +16105,16 @@
         <v>6835216</v>
       </c>
       <c r="C182" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D182" s="2">
         <v>45318.625</v>
       </c>
       <c r="E182" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16132,7 +16123,7 @@
         <v>2</v>
       </c>
       <c r="I182" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J182">
         <v>4</v>
@@ -16200,16 +16191,16 @@
         <v>6836237</v>
       </c>
       <c r="C183" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D183" s="2">
         <v>45319.375</v>
       </c>
       <c r="E183" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F183" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16218,7 +16209,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J183">
         <v>1.666</v>
@@ -16286,16 +16277,16 @@
         <v>6836238</v>
       </c>
       <c r="C184" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D184" s="2">
         <v>45319.5</v>
       </c>
       <c r="E184" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F184" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16304,7 +16295,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J184">
         <v>3.3</v>
@@ -16372,16 +16363,16 @@
         <v>6836235</v>
       </c>
       <c r="C185" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D185" s="2">
         <v>45319.625</v>
       </c>
       <c r="E185" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F185" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -16390,7 +16381,7 @@
         <v>3</v>
       </c>
       <c r="I185" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J185">
         <v>2.7</v>
@@ -16458,16 +16449,16 @@
         <v>6835791</v>
       </c>
       <c r="C186" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D186" s="2">
         <v>45320.625</v>
       </c>
       <c r="E186" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F186" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G186">
         <v>4</v>
@@ -16476,7 +16467,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J186">
         <v>1.571</v>
@@ -16544,16 +16535,16 @@
         <v>6836241</v>
       </c>
       <c r="C187" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D187" s="2">
         <v>45324.5</v>
       </c>
       <c r="E187" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F187" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G187">
         <v>2</v>
@@ -16562,7 +16553,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J187">
         <v>2.5</v>
@@ -16630,16 +16621,16 @@
         <v>6836245</v>
       </c>
       <c r="C188" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D188" s="2">
         <v>45324.625</v>
       </c>
       <c r="E188" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F188" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16648,7 +16639,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J188">
         <v>1.909</v>
@@ -16716,16 +16707,16 @@
         <v>6836242</v>
       </c>
       <c r="C189" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D189" s="2">
         <v>45325.5</v>
       </c>
       <c r="E189" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -16734,7 +16725,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J189">
         <v>3</v>
@@ -16802,16 +16793,16 @@
         <v>6835217</v>
       </c>
       <c r="C190" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D190" s="2">
         <v>45325.625</v>
       </c>
       <c r="E190" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F190" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G190">
         <v>2</v>
@@ -16820,7 +16811,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J190">
         <v>1.8</v>
@@ -16888,16 +16879,16 @@
         <v>6836243</v>
       </c>
       <c r="C191" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D191" s="2">
         <v>45326.33333333334</v>
       </c>
       <c r="E191" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F191" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16906,7 +16897,7 @@
         <v>3</v>
       </c>
       <c r="I191" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J191">
         <v>1.8</v>
@@ -16974,16 +16965,16 @@
         <v>6836244</v>
       </c>
       <c r="C192" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D192" s="2">
         <v>45326.4375</v>
       </c>
       <c r="E192" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F192" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -16992,7 +16983,7 @@
         <v>3</v>
       </c>
       <c r="I192" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J192">
         <v>2.6</v>
@@ -17060,16 +17051,16 @@
         <v>6835792</v>
       </c>
       <c r="C193" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D193" s="2">
         <v>45327.5</v>
       </c>
       <c r="E193" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F193" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17078,7 +17069,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J193">
         <v>2.6</v>
@@ -17146,16 +17137,16 @@
         <v>6836246</v>
       </c>
       <c r="C194" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D194" s="2">
         <v>45327.625</v>
       </c>
       <c r="E194" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F194" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17164,7 +17155,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J194">
         <v>1.8</v>
@@ -17232,16 +17223,16 @@
         <v>6836251</v>
       </c>
       <c r="C195" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D195" s="2">
         <v>45331.5</v>
       </c>
       <c r="E195" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F195" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17250,7 +17241,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J195">
         <v>2.4</v>
@@ -17318,16 +17309,16 @@
         <v>6836250</v>
       </c>
       <c r="C196" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D196" s="2">
         <v>45331.625</v>
       </c>
       <c r="E196" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F196" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -17336,7 +17327,7 @@
         <v>2</v>
       </c>
       <c r="I196" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J196">
         <v>1.85</v>
@@ -17404,16 +17395,16 @@
         <v>6835793</v>
       </c>
       <c r="C197" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D197" s="2">
         <v>45332.375</v>
       </c>
       <c r="E197" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -17422,7 +17413,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J197">
         <v>2.45</v>
@@ -17490,16 +17481,16 @@
         <v>6835218</v>
       </c>
       <c r="C198" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D198" s="2">
         <v>45332.67708333334</v>
       </c>
       <c r="E198" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -17508,7 +17499,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J198">
         <v>2.15</v>
@@ -17576,16 +17567,16 @@
         <v>6836247</v>
       </c>
       <c r="C199" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D199" s="2">
         <v>45333.55208333334</v>
       </c>
       <c r="E199" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F199" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -17594,7 +17585,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J199">
         <v>2.25</v>
@@ -17662,16 +17653,16 @@
         <v>6836252</v>
       </c>
       <c r="C200" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D200" s="2">
         <v>45333.65625</v>
       </c>
       <c r="E200" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F200" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -17680,7 +17671,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J200">
         <v>1.666</v>
@@ -17748,25 +17739,25 @@
         <v>6836249</v>
       </c>
       <c r="C201" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D201" s="2">
         <v>45334.5</v>
       </c>
       <c r="E201" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F201" t="s">
+        <v>46</v>
+      </c>
+      <c r="G201">
+        <v>2</v>
+      </c>
+      <c r="H201">
+        <v>2</v>
+      </c>
+      <c r="I201" t="s">
         <v>49</v>
-      </c>
-      <c r="G201">
-        <v>2</v>
-      </c>
-      <c r="H201">
-        <v>2</v>
-      </c>
-      <c r="I201" t="s">
-        <v>52</v>
       </c>
       <c r="J201">
         <v>1.909</v>
@@ -17834,16 +17825,16 @@
         <v>6836253</v>
       </c>
       <c r="C202" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D202" s="2">
         <v>45334.625</v>
       </c>
       <c r="E202" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F202" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17852,7 +17843,7 @@
         <v>2</v>
       </c>
       <c r="I202" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J202">
         <v>1.55</v>
@@ -17920,16 +17911,16 @@
         <v>6836254</v>
       </c>
       <c r="C203" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D203" s="2">
         <v>45338.5</v>
       </c>
       <c r="E203" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F203" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17938,7 +17929,7 @@
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J203">
         <v>2.15</v>
@@ -18006,16 +17997,16 @@
         <v>6835219</v>
       </c>
       <c r="C204" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D204" s="2">
         <v>45338.625</v>
       </c>
       <c r="E204" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F204" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G204">
         <v>2</v>
@@ -18024,7 +18015,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J204">
         <v>1.833</v>
@@ -18092,16 +18083,16 @@
         <v>6835794</v>
       </c>
       <c r="C205" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D205" s="2">
         <v>45339.375</v>
       </c>
       <c r="E205" t="s">
+        <v>38</v>
+      </c>
+      <c r="F205" t="s">
         <v>41</v>
-      </c>
-      <c r="F205" t="s">
-        <v>44</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -18110,7 +18101,7 @@
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J205">
         <v>2.4</v>
@@ -18178,16 +18169,16 @@
         <v>6836256</v>
       </c>
       <c r="C206" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D206" s="2">
         <v>45339.6875</v>
       </c>
       <c r="E206" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F206" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -18196,7 +18187,7 @@
         <v>3</v>
       </c>
       <c r="I206" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J206">
         <v>3.1</v>
@@ -18264,25 +18255,25 @@
         <v>6836255</v>
       </c>
       <c r="C207" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D207" s="2">
         <v>45340.51041666666</v>
       </c>
       <c r="E207" t="s">
+        <v>46</v>
+      </c>
+      <c r="F207" t="s">
+        <v>47</v>
+      </c>
+      <c r="G207">
+        <v>2</v>
+      </c>
+      <c r="H207">
+        <v>2</v>
+      </c>
+      <c r="I207" t="s">
         <v>49</v>
-      </c>
-      <c r="F207" t="s">
-        <v>50</v>
-      </c>
-      <c r="G207">
-        <v>2</v>
-      </c>
-      <c r="H207">
-        <v>2</v>
-      </c>
-      <c r="I207" t="s">
-        <v>52</v>
       </c>
       <c r="J207">
         <v>3.4</v>
@@ -18350,16 +18341,16 @@
         <v>6836258</v>
       </c>
       <c r="C208" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D208" s="2">
         <v>45340.625</v>
       </c>
       <c r="E208" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F208" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G208">
         <v>3</v>
@@ -18368,7 +18359,7 @@
         <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J208">
         <v>2.5</v>
@@ -18436,16 +18427,16 @@
         <v>6836259</v>
       </c>
       <c r="C209" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D209" s="2">
         <v>45341.52083333334</v>
       </c>
       <c r="E209" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F209" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -18454,7 +18445,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J209">
         <v>2.3</v>
@@ -18522,16 +18513,16 @@
         <v>6836257</v>
       </c>
       <c r="C210" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D210" s="2">
         <v>45341.64583333334</v>
       </c>
       <c r="E210" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F210" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -18540,7 +18531,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J210">
         <v>3.6</v>
@@ -18608,16 +18599,16 @@
         <v>6836260</v>
       </c>
       <c r="C211" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D211" s="2">
         <v>45345.5</v>
       </c>
       <c r="E211" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F211" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18626,7 +18617,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J211">
         <v>2.1</v>
@@ -18694,16 +18685,16 @@
         <v>6836263</v>
       </c>
       <c r="C212" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D212" s="2">
         <v>45345.625</v>
       </c>
       <c r="E212" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F212" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G212">
         <v>4</v>
@@ -18712,7 +18703,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J212">
         <v>1.5</v>
@@ -18780,16 +18771,16 @@
         <v>6836261</v>
       </c>
       <c r="C213" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D213" s="2">
         <v>45346.375</v>
       </c>
       <c r="E213" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F213" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -18798,7 +18789,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J213">
         <v>2.4</v>
@@ -18866,16 +18857,16 @@
         <v>6836265</v>
       </c>
       <c r="C214" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D214" s="2">
         <v>45346.5</v>
       </c>
       <c r="E214" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F214" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -18884,7 +18875,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J214">
         <v>1.833</v>
@@ -18952,16 +18943,16 @@
         <v>6835220</v>
       </c>
       <c r="C215" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D215" s="2">
         <v>45346.625</v>
       </c>
       <c r="E215" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F215" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G215">
         <v>3</v>
@@ -18970,7 +18961,7 @@
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J215">
         <v>4.2</v>
@@ -19038,16 +19029,16 @@
         <v>6836264</v>
       </c>
       <c r="C216" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D216" s="2">
         <v>45347.375</v>
       </c>
       <c r="E216" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F216" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -19056,7 +19047,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J216">
         <v>2.25</v>
@@ -19124,16 +19115,16 @@
         <v>6836262</v>
       </c>
       <c r="C217" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D217" s="2">
         <v>45347.625</v>
       </c>
       <c r="E217" t="s">
+        <v>43</v>
+      </c>
+      <c r="F217" t="s">
         <v>46</v>
-      </c>
-      <c r="F217" t="s">
-        <v>49</v>
       </c>
       <c r="G217">
         <v>3</v>
@@ -19142,7 +19133,7 @@
         <v>2</v>
       </c>
       <c r="I217" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J217">
         <v>1.363</v>
@@ -19210,16 +19201,16 @@
         <v>6835795</v>
       </c>
       <c r="C218" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D218" s="2">
         <v>45348.625</v>
       </c>
       <c r="E218" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F218" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19228,7 +19219,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J218">
         <v>1.533</v>
@@ -19296,16 +19287,16 @@
         <v>6836267</v>
       </c>
       <c r="C219" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D219" s="2">
         <v>45349.46875</v>
       </c>
       <c r="E219" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F219" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19314,7 +19305,7 @@
         <v>1</v>
       </c>
       <c r="I219" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J219">
         <v>1.615</v>
@@ -19382,16 +19373,16 @@
         <v>6836266</v>
       </c>
       <c r="C220" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D220" s="2">
         <v>45349.5625</v>
       </c>
       <c r="E220" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F220" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -19400,7 +19391,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J220">
         <v>2.3</v>
@@ -19468,16 +19459,16 @@
         <v>6836271</v>
       </c>
       <c r="C221" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D221" s="2">
         <v>45349.66666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F221" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G221">
         <v>2</v>
@@ -19486,7 +19477,7 @@
         <v>2</v>
       </c>
       <c r="I221" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J221">
         <v>4.2</v>
@@ -19554,16 +19545,16 @@
         <v>6836272</v>
       </c>
       <c r="C222" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D222" s="2">
         <v>45350.5625</v>
       </c>
       <c r="E222" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F222" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -19572,7 +19563,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J222">
         <v>2.7</v>
@@ -19640,16 +19631,16 @@
         <v>6835221</v>
       </c>
       <c r="C223" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D223" s="2">
         <v>45350.66666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F223" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G223">
         <v>4</v>
@@ -19658,7 +19649,7 @@
         <v>1</v>
       </c>
       <c r="I223" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J223">
         <v>1.727</v>
@@ -19726,16 +19717,16 @@
         <v>6836270</v>
       </c>
       <c r="C224" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D224" s="2">
         <v>45351.46875</v>
       </c>
       <c r="E224" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F224" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19744,7 +19735,7 @@
         <v>2</v>
       </c>
       <c r="I224" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J224">
         <v>3.2</v>
@@ -19812,16 +19803,16 @@
         <v>6836268</v>
       </c>
       <c r="C225" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D225" s="2">
         <v>45351.5625</v>
       </c>
       <c r="E225" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F225" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -19830,7 +19821,7 @@
         <v>3</v>
       </c>
       <c r="I225" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J225">
         <v>3</v>
@@ -19898,16 +19889,16 @@
         <v>6836269</v>
       </c>
       <c r="C226" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D226" s="2">
         <v>45351.66666666666</v>
       </c>
       <c r="E226" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F226" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -19916,7 +19907,7 @@
         <v>2</v>
       </c>
       <c r="I226" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J226">
         <v>4</v>
@@ -19984,16 +19975,16 @@
         <v>6836274</v>
       </c>
       <c r="C227" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D227" s="2">
         <v>45352.625</v>
       </c>
       <c r="E227" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F227" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -20002,7 +19993,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J227">
         <v>2.4</v>
@@ -20070,16 +20061,16 @@
         <v>6836275</v>
       </c>
       <c r="C228" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D228" s="2">
         <v>45353.375</v>
       </c>
       <c r="E228" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F228" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G228">
         <v>3</v>
@@ -20088,7 +20079,7 @@
         <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J228">
         <v>2.25</v>
@@ -20156,16 +20147,16 @@
         <v>6836273</v>
       </c>
       <c r="C229" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D229" s="2">
         <v>45353.5</v>
       </c>
       <c r="E229" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F229" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G229">
         <v>4</v>
@@ -20174,7 +20165,7 @@
         <v>1</v>
       </c>
       <c r="I229" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J229">
         <v>2.1</v>
@@ -20242,16 +20233,16 @@
         <v>6907421</v>
       </c>
       <c r="C230" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D230" s="2">
         <v>45353.625</v>
       </c>
       <c r="E230" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F230" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20260,7 +20251,7 @@
         <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J230">
         <v>2.7</v>
@@ -20328,16 +20319,16 @@
         <v>6838744</v>
       </c>
       <c r="C231" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D231" s="2">
         <v>45354.39583333334</v>
       </c>
       <c r="E231" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F231" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -20346,7 +20337,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J231">
         <v>1.8</v>
@@ -20414,16 +20405,16 @@
         <v>6848293</v>
       </c>
       <c r="C232" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D232" s="2">
         <v>45354.64583333334</v>
       </c>
       <c r="E232" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F232" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -20432,7 +20423,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J232">
         <v>1.6</v>
@@ -20500,16 +20491,16 @@
         <v>6848294</v>
       </c>
       <c r="C233" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D233" s="2">
         <v>45355.5</v>
       </c>
       <c r="E233" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F233" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G233">
         <v>4</v>
@@ -20518,7 +20509,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J233">
         <v>1.8</v>
@@ -20586,16 +20577,16 @@
         <v>6836276</v>
       </c>
       <c r="C234" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D234" s="2">
         <v>45355.625</v>
       </c>
       <c r="E234" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F234" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -20604,7 +20595,7 @@
         <v>1</v>
       </c>
       <c r="I234" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J234">
         <v>2.5</v>
@@ -20672,16 +20663,16 @@
         <v>6870268</v>
       </c>
       <c r="C235" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D235" s="2">
         <v>45359.625</v>
       </c>
       <c r="E235" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F235" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -20690,7 +20681,7 @@
         <v>2</v>
       </c>
       <c r="I235" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J235">
         <v>2.8</v>
@@ -20758,16 +20749,16 @@
         <v>6865915</v>
       </c>
       <c r="C236" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D236" s="2">
         <v>45359.625</v>
       </c>
       <c r="E236" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F236" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -20776,7 +20767,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J236">
         <v>3.5</v>
@@ -20844,25 +20835,25 @@
         <v>6861095</v>
       </c>
       <c r="C237" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D237" s="2">
         <v>45359.625</v>
       </c>
       <c r="E237" t="s">
+        <v>46</v>
+      </c>
+      <c r="F237" t="s">
+        <v>42</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237" t="s">
         <v>49</v>
-      </c>
-      <c r="F237" t="s">
-        <v>45</v>
-      </c>
-      <c r="G237">
-        <v>0</v>
-      </c>
-      <c r="H237">
-        <v>0</v>
-      </c>
-      <c r="I237" t="s">
-        <v>52</v>
       </c>
       <c r="J237">
         <v>3.75</v>
@@ -20927,19 +20918,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6836277</v>
+        <v>6852370</v>
       </c>
       <c r="C238" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D238" s="2">
         <v>45359.625</v>
       </c>
       <c r="E238" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F238" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -20948,46 +20939,46 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J238">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="K238">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="L238">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M238">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="N238">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O238">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P238">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q238">
+        <v>2</v>
+      </c>
+      <c r="R238">
         <v>1.85</v>
-      </c>
-      <c r="R238">
-        <v>2</v>
       </c>
       <c r="S238">
         <v>2.25</v>
       </c>
       <c r="T238">
+        <v>1.975</v>
+      </c>
+      <c r="U238">
         <v>1.875</v>
       </c>
-      <c r="U238">
-        <v>1.975</v>
-      </c>
       <c r="V238">
-        <v>0.6499999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="W238">
         <v>-1</v>
@@ -20996,16 +20987,16 @@
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="Z238">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
         <v>-1</v>
       </c>
       <c r="AB238">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="239" spans="1:28">
@@ -21013,19 +21004,19 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6852370</v>
+        <v>6836277</v>
       </c>
       <c r="C239" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D239" s="2">
         <v>45359.625</v>
       </c>
       <c r="E239" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F239" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -21034,46 +21025,46 @@
         <v>0</v>
       </c>
       <c r="I239" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J239">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="K239">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="L239">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M239">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="N239">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O239">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="P239">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q239">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R239">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S239">
         <v>2.25</v>
       </c>
       <c r="T239">
+        <v>1.875</v>
+      </c>
+      <c r="U239">
         <v>1.975</v>
       </c>
-      <c r="U239">
-        <v>1.875</v>
-      </c>
       <c r="V239">
-        <v>1.375</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W239">
         <v>-1</v>
@@ -21082,16 +21073,16 @@
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA239">
         <v>-1</v>
       </c>
       <c r="AB239">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="240" spans="1:28">
@@ -21102,16 +21093,16 @@
         <v>6870267</v>
       </c>
       <c r="C240" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D240" s="2">
         <v>45360.625</v>
       </c>
       <c r="E240" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F240" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -21120,7 +21111,7 @@
         <v>4</v>
       </c>
       <c r="I240" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J240">
         <v>2.45</v>
@@ -21188,16 +21179,16 @@
         <v>6836278</v>
       </c>
       <c r="C241" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D241" s="2">
         <v>45361.65625</v>
       </c>
       <c r="E241" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F241" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -21206,7 +21197,7 @@
         <v>2</v>
       </c>
       <c r="I241" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J241">
         <v>3.6</v>
@@ -21274,16 +21265,16 @@
         <v>6836954</v>
       </c>
       <c r="C242" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D242" s="2">
         <v>45362.625</v>
       </c>
       <c r="E242" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F242" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -21292,7 +21283,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J242">
         <v>2.15</v>
@@ -21360,16 +21351,16 @@
         <v>7951557</v>
       </c>
       <c r="C243" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D243" s="2">
         <v>45366.52083333334</v>
       </c>
       <c r="E243" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F243" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G243">
         <v>3</v>
@@ -21378,7 +21369,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J243">
         <v>1.615</v>
@@ -21446,16 +21437,16 @@
         <v>7949044</v>
       </c>
       <c r="C244" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D244" s="2">
         <v>45366.64583333334</v>
       </c>
       <c r="E244" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F244" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -21464,7 +21455,7 @@
         <v>2</v>
       </c>
       <c r="I244" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J244">
         <v>1.75</v>
@@ -21532,16 +21523,16 @@
         <v>7951558</v>
       </c>
       <c r="C245" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D245" s="2">
         <v>45367.5</v>
       </c>
       <c r="E245" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F245" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G245">
         <v>1</v>
@@ -21550,7 +21541,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J245">
         <v>2.1</v>
@@ -21618,16 +21609,16 @@
         <v>7949046</v>
       </c>
       <c r="C246" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D246" s="2">
         <v>45367.625</v>
       </c>
       <c r="E246" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F246" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G246">
         <v>1</v>
@@ -21636,7 +21627,7 @@
         <v>2</v>
       </c>
       <c r="I246" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J246">
         <v>2.05</v>
@@ -21704,16 +21695,16 @@
         <v>7951775</v>
       </c>
       <c r="C247" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D247" s="2">
         <v>45368.55208333334</v>
       </c>
       <c r="E247" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F247" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G247">
         <v>3</v>
@@ -21722,7 +21713,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J247">
         <v>1.909</v>
@@ -21790,16 +21781,16 @@
         <v>7953049</v>
       </c>
       <c r="C248" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D248" s="2">
         <v>45368.66666666666</v>
       </c>
       <c r="E248" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F248" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G248">
         <v>2</v>
@@ -21808,7 +21799,7 @@
         <v>1</v>
       </c>
       <c r="I248" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J248">
         <v>1.65</v>
@@ -21876,16 +21867,16 @@
         <v>7951776</v>
       </c>
       <c r="C249" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D249" s="2">
         <v>45369.52083333334</v>
       </c>
       <c r="E249" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F249" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G249">
         <v>4</v>
@@ -21894,7 +21885,7 @@
         <v>3</v>
       </c>
       <c r="I249" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J249">
         <v>1.909</v>
@@ -21962,16 +21953,16 @@
         <v>7951777</v>
       </c>
       <c r="C250" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D250" s="2">
         <v>45369.64583333334</v>
       </c>
       <c r="E250" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F250" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -21980,7 +21971,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J250">
         <v>2.25</v>
@@ -22048,16 +22039,16 @@
         <v>7951781</v>
       </c>
       <c r="C251" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D251" s="2">
         <v>45380.52083333334</v>
       </c>
       <c r="E251" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F251" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -22066,7 +22057,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J251">
         <v>3</v>
@@ -22134,16 +22125,16 @@
         <v>7951750</v>
       </c>
       <c r="C252" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D252" s="2">
         <v>45380.64583333334</v>
       </c>
       <c r="E252" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F252" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G252">
         <v>1</v>
@@ -22152,7 +22143,7 @@
         <v>1</v>
       </c>
       <c r="I252" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J252">
         <v>3.3</v>
@@ -22220,16 +22211,16 @@
         <v>8010912</v>
       </c>
       <c r="C253" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D253" s="2">
         <v>45381.44791666666</v>
       </c>
       <c r="E253" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F253" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G253">
         <v>2</v>
@@ -22238,7 +22229,7 @@
         <v>1</v>
       </c>
       <c r="I253" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J253">
         <v>2.55</v>
@@ -22306,16 +22297,16 @@
         <v>8010913</v>
       </c>
       <c r="C254" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D254" s="2">
         <v>45381.54166666666</v>
       </c>
       <c r="E254" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F254" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -22324,7 +22315,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J254">
         <v>1.95</v>
@@ -22392,16 +22383,16 @@
         <v>7951749</v>
       </c>
       <c r="C255" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D255" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E255" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F255" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G255">
         <v>2</v>
@@ -22410,7 +22401,7 @@
         <v>1</v>
       </c>
       <c r="I255" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J255">
         <v>2.1</v>
@@ -22478,16 +22469,16 @@
         <v>7951779</v>
       </c>
       <c r="C256" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D256" s="2">
         <v>45382.33333333334</v>
       </c>
       <c r="E256" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F256" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G256">
         <v>1</v>
@@ -22496,7 +22487,7 @@
         <v>2</v>
       </c>
       <c r="I256" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J256">
         <v>2.3</v>
@@ -22564,16 +22555,16 @@
         <v>7951748</v>
       </c>
       <c r="C257" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D257" s="2">
         <v>45382.625</v>
       </c>
       <c r="E257" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F257" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -22582,7 +22573,7 @@
         <v>1</v>
       </c>
       <c r="I257" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J257">
         <v>3.6</v>
@@ -22650,16 +22641,16 @@
         <v>7951780</v>
       </c>
       <c r="C258" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D258" s="2">
         <v>45383.60416666666</v>
       </c>
       <c r="E258" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F258" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -22668,7 +22659,7 @@
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J258">
         <v>2.3</v>
@@ -22736,16 +22727,16 @@
         <v>7951783</v>
       </c>
       <c r="C259" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D259" s="2">
         <v>45387.47916666666</v>
       </c>
       <c r="E259" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F259" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -22754,7 +22745,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J259">
         <v>1.95</v>
@@ -22822,16 +22813,16 @@
         <v>7951753</v>
       </c>
       <c r="C260" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D260" s="2">
         <v>45387.60416666666</v>
       </c>
       <c r="E260" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F260" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G260">
         <v>1</v>
@@ -22840,7 +22831,7 @@
         <v>1</v>
       </c>
       <c r="I260" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J260">
         <v>2.15</v>
@@ -22908,16 +22899,16 @@
         <v>7951785</v>
       </c>
       <c r="C261" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D261" s="2">
         <v>45388.47916666666</v>
       </c>
       <c r="E261" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F261" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -22926,7 +22917,7 @@
         <v>4</v>
       </c>
       <c r="I261" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J261">
         <v>1.95</v>
@@ -22994,16 +22985,16 @@
         <v>7951752</v>
       </c>
       <c r="C262" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D262" s="2">
         <v>45388.60416666666</v>
       </c>
       <c r="E262" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F262" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -23012,7 +23003,7 @@
         <v>4</v>
       </c>
       <c r="I262" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J262">
         <v>2.8</v>
@@ -23080,16 +23071,16 @@
         <v>7951784</v>
       </c>
       <c r="C263" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D263" s="2">
         <v>45389.35416666666</v>
       </c>
       <c r="E263" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F263" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G263">
         <v>1</v>
@@ -23098,7 +23089,7 @@
         <v>1</v>
       </c>
       <c r="I263" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J263">
         <v>2.4</v>
@@ -23166,16 +23157,16 @@
         <v>7951751</v>
       </c>
       <c r="C264" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D264" s="2">
         <v>45389.60416666666</v>
       </c>
       <c r="E264" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F264" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G264">
         <v>2</v>
@@ -23184,7 +23175,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J264">
         <v>1.85</v>
@@ -23252,16 +23243,16 @@
         <v>7951787</v>
       </c>
       <c r="C265" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D265" s="2">
         <v>45390.47916666666</v>
       </c>
       <c r="E265" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F265" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -23270,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J265">
         <v>2.2</v>
@@ -23338,16 +23329,16 @@
         <v>7951786</v>
       </c>
       <c r="C266" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D266" s="2">
         <v>45390.60416666666</v>
       </c>
       <c r="E266" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F266" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -23356,7 +23347,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J266">
         <v>2.05</v>
@@ -23424,16 +23415,16 @@
         <v>7951792</v>
       </c>
       <c r="C267" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D267" s="2">
         <v>45394.47916666666</v>
       </c>
       <c r="E267" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F267" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -23442,7 +23433,7 @@
         <v>3</v>
       </c>
       <c r="I267" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J267">
         <v>2.3</v>
@@ -23510,16 +23501,16 @@
         <v>7951755</v>
       </c>
       <c r="C268" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D268" s="2">
         <v>45394.60416666666</v>
       </c>
       <c r="E268" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F268" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -23528,7 +23519,7 @@
         <v>2</v>
       </c>
       <c r="I268" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J268">
         <v>1.8</v>
@@ -23596,16 +23587,16 @@
         <v>7951790</v>
       </c>
       <c r="C269" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D269" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E269" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F269" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -23614,7 +23605,7 @@
         <v>1</v>
       </c>
       <c r="I269" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J269">
         <v>2.4</v>
@@ -23682,16 +23673,16 @@
         <v>7951791</v>
       </c>
       <c r="C270" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D270" s="2">
         <v>45395.64583333334</v>
       </c>
       <c r="E270" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F270" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -23700,7 +23691,7 @@
         <v>2</v>
       </c>
       <c r="I270" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J270">
         <v>1.909</v>
@@ -23768,16 +23759,16 @@
         <v>7951788</v>
       </c>
       <c r="C271" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D271" s="2">
         <v>45396.3125</v>
       </c>
       <c r="E271" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F271" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G271">
         <v>4</v>
@@ -23786,7 +23777,7 @@
         <v>1</v>
       </c>
       <c r="I271" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J271">
         <v>2.4</v>
@@ -23854,16 +23845,16 @@
         <v>7951789</v>
       </c>
       <c r="C272" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D272" s="2">
         <v>45396.51041666666</v>
       </c>
       <c r="E272" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F272" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -23872,7 +23863,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J272">
         <v>2.25</v>
@@ -23940,16 +23931,16 @@
         <v>7951754</v>
       </c>
       <c r="C273" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D273" s="2">
         <v>45396.625</v>
       </c>
       <c r="E273" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F273" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -23958,7 +23949,7 @@
         <v>1</v>
       </c>
       <c r="I273" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J273">
         <v>2.3</v>
@@ -24026,16 +24017,16 @@
         <v>7951756</v>
       </c>
       <c r="C274" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D274" s="2">
         <v>45397.60416666666</v>
       </c>
       <c r="E274" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F274" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -24044,7 +24035,7 @@
         <v>1</v>
       </c>
       <c r="I274" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J274">
         <v>1.95</v>
@@ -24112,16 +24103,16 @@
         <v>7951793</v>
       </c>
       <c r="C275" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D275" s="2">
         <v>45401.47916666666</v>
       </c>
       <c r="E275" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F275" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G275">
         <v>1</v>
@@ -24130,7 +24121,7 @@
         <v>1</v>
       </c>
       <c r="I275" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J275">
         <v>1.909</v>
@@ -24198,16 +24189,16 @@
         <v>7951758</v>
       </c>
       <c r="C276" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D276" s="2">
         <v>45401.60416666666</v>
       </c>
       <c r="E276" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F276" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G276">
         <v>5</v>
@@ -24216,7 +24207,7 @@
         <v>1</v>
       </c>
       <c r="I276" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J276">
         <v>3.1</v>
@@ -24284,16 +24275,16 @@
         <v>7951796</v>
       </c>
       <c r="C277" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D277" s="2">
         <v>45402.375</v>
       </c>
       <c r="E277" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F277" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G277">
         <v>3</v>
@@ -24302,7 +24293,7 @@
         <v>1</v>
       </c>
       <c r="I277" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J277">
         <v>2.25</v>
@@ -24370,16 +24361,16 @@
         <v>7951797</v>
       </c>
       <c r="C278" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D278" s="2">
         <v>45402.47916666666</v>
       </c>
       <c r="E278" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F278" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -24388,7 +24379,7 @@
         <v>1</v>
       </c>
       <c r="I278" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J278">
         <v>2.2</v>
@@ -24456,16 +24447,16 @@
         <v>7951757</v>
       </c>
       <c r="C279" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D279" s="2">
         <v>45402.60416666666</v>
       </c>
       <c r="E279" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F279" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G279">
         <v>2</v>
@@ -24474,7 +24465,7 @@
         <v>2</v>
       </c>
       <c r="I279" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J279">
         <v>1.85</v>
@@ -24542,16 +24533,16 @@
         <v>7951795</v>
       </c>
       <c r="C280" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D280" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E280" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F280" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G280">
         <v>1</v>
@@ -24560,7 +24551,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J280">
         <v>2.75</v>
@@ -24628,16 +24619,16 @@
         <v>7951759</v>
       </c>
       <c r="C281" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D281" s="2">
         <v>45403.54166666666</v>
       </c>
       <c r="E281" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F281" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -24646,7 +24637,7 @@
         <v>3</v>
       </c>
       <c r="I281" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J281">
         <v>2.6</v>
@@ -24714,16 +24705,16 @@
         <v>7951794</v>
       </c>
       <c r="C282" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D282" s="2">
         <v>45404.54166666666</v>
       </c>
       <c r="E282" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F282" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -24732,7 +24723,7 @@
         <v>1</v>
       </c>
       <c r="I282" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J282">
         <v>2.1</v>
@@ -24800,16 +24791,16 @@
         <v>7951799</v>
       </c>
       <c r="C283" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D283" s="2">
         <v>45405.45833333334</v>
       </c>
       <c r="E283" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F283" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -24818,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J283">
         <v>2.375</v>
@@ -24886,16 +24877,16 @@
         <v>7951798</v>
       </c>
       <c r="C284" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D284" s="2">
         <v>45405.5625</v>
       </c>
       <c r="E284" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F284" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G284">
         <v>2</v>
@@ -24904,7 +24895,7 @@
         <v>1</v>
       </c>
       <c r="I284" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J284">
         <v>2.375</v>
@@ -24972,16 +24963,16 @@
         <v>7951800</v>
       </c>
       <c r="C285" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D285" s="2">
         <v>45406.44791666666</v>
       </c>
       <c r="E285" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F285" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G285">
         <v>1</v>
@@ -24990,7 +24981,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J285">
         <v>1.75</v>
@@ -25058,16 +25049,16 @@
         <v>7951761</v>
       </c>
       <c r="C286" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D286" s="2">
         <v>45406.54166666666</v>
       </c>
       <c r="E286" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F286" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G286">
         <v>3</v>
@@ -25076,7 +25067,7 @@
         <v>1</v>
       </c>
       <c r="I286" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J286">
         <v>2.625</v>
@@ -25144,17 +25135,17 @@
         <v>7951760</v>
       </c>
       <c r="C287" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D287" s="2">
         <v>45406.65625</v>
       </c>
       <c r="E287" t="s">
+        <v>40</v>
+      </c>
+      <c r="F287" t="s">
         <v>43</v>
       </c>
-      <c r="F287" t="s">
-        <v>46</v>
-      </c>
       <c r="G287">
         <v>2</v>
       </c>
@@ -25162,7 +25153,7 @@
         <v>2</v>
       </c>
       <c r="I287" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J287">
         <v>3.1</v>
@@ -25230,16 +25221,16 @@
         <v>7951801</v>
       </c>
       <c r="C288" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D288" s="2">
         <v>45407.44791666666</v>
       </c>
       <c r="E288" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F288" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G288">
         <v>3</v>
@@ -25248,7 +25239,7 @@
         <v>1</v>
       </c>
       <c r="I288" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J288">
         <v>2.3</v>
@@ -25316,16 +25307,16 @@
         <v>7951802</v>
       </c>
       <c r="C289" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D289" s="2">
         <v>45407.54166666666</v>
       </c>
       <c r="E289" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F289" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G289">
         <v>2</v>
@@ -25334,7 +25325,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J289">
         <v>1.95</v>
@@ -25402,16 +25393,16 @@
         <v>7951762</v>
       </c>
       <c r="C290" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D290" s="2">
         <v>45407.65625</v>
       </c>
       <c r="E290" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F290" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G290">
         <v>0</v>
@@ -25420,7 +25411,7 @@
         <v>1</v>
       </c>
       <c r="I290" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J290">
         <v>2.375</v>
@@ -25488,16 +25479,16 @@
         <v>7951807</v>
       </c>
       <c r="C291" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D291" s="2">
         <v>45408.58333333334</v>
       </c>
       <c r="E291" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F291" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G291">
         <v>1</v>
@@ -25506,7 +25497,7 @@
         <v>1</v>
       </c>
       <c r="I291" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J291">
         <v>2.2</v>
@@ -25574,16 +25565,16 @@
         <v>27</v>
       </c>
       <c r="C292" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D292" s="2">
-        <v>45409.47916666666</v>
+        <v>45410.51041666666</v>
       </c>
       <c r="E292" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F292" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="J292">
         <v>2.4</v>
@@ -25595,31 +25586,31 @@
         <v>2.6</v>
       </c>
       <c r="M292">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="N292">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O292">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="P292">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q292">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R292">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S292">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T292">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U292">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V292">
         <v>0</v>
@@ -25639,52 +25630,52 @@
         <v>28</v>
       </c>
       <c r="C293" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D293" s="2">
-        <v>45409.60416666666</v>
+        <v>45410.625</v>
       </c>
       <c r="E293" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F293" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J293">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="K293">
         <v>3.25</v>
       </c>
       <c r="L293">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M293">
+        <v>1.45</v>
+      </c>
+      <c r="N293">
+        <v>4</v>
+      </c>
+      <c r="O293">
+        <v>5.5</v>
+      </c>
+      <c r="P293">
+        <v>-1</v>
+      </c>
+      <c r="Q293">
         <v>1.8</v>
       </c>
-      <c r="N293">
-        <v>3.4</v>
-      </c>
-      <c r="O293">
-        <v>3.75</v>
-      </c>
-      <c r="P293">
-        <v>-0.5</v>
-      </c>
-      <c r="Q293">
-        <v>1.875</v>
-      </c>
       <c r="R293">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S293">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T293">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U293">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V293">
         <v>0</v>
@@ -25704,52 +25695,52 @@
         <v>29</v>
       </c>
       <c r="C294" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D294" s="2">
-        <v>45410.3125</v>
+        <v>45411.47916666666</v>
       </c>
       <c r="E294" t="s">
         <v>36</v>
       </c>
       <c r="F294" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J294">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="K294">
+        <v>3.25</v>
+      </c>
+      <c r="L294">
+        <v>3.5</v>
+      </c>
+      <c r="M294">
+        <v>2.1</v>
+      </c>
+      <c r="N294">
+        <v>3.2</v>
+      </c>
+      <c r="O294">
         <v>3</v>
       </c>
-      <c r="L294">
-        <v>2.75</v>
-      </c>
-      <c r="M294">
-        <v>2.45</v>
-      </c>
-      <c r="N294">
-        <v>3</v>
-      </c>
-      <c r="O294">
-        <v>2.7</v>
-      </c>
       <c r="P294">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q294">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R294">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S294">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T294">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="U294">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V294">
         <v>0</v>
@@ -25769,28 +25760,28 @@
         <v>30</v>
       </c>
       <c r="C295" t="s">
+        <v>31</v>
+      </c>
+      <c r="D295" s="2">
+        <v>45411.60416666666</v>
+      </c>
+      <c r="E295" t="s">
         <v>34</v>
       </c>
-      <c r="D295" s="2">
-        <v>45410.51041666666</v>
-      </c>
-      <c r="E295" t="s">
+      <c r="F295" t="s">
         <v>47</v>
       </c>
-      <c r="F295" t="s">
-        <v>44</v>
-      </c>
       <c r="J295">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K295">
         <v>3.2</v>
       </c>
       <c r="L295">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M295">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N295">
         <v>3.2</v>
@@ -25802,19 +25793,19 @@
         <v>-0.25</v>
       </c>
       <c r="Q295">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R295">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S295">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T295">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U295">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V295">
         <v>0</v>
@@ -25823,201 +25814,6 @@
         <v>0</v>
       </c>
       <c r="X295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:28">
-      <c r="A296" s="1">
-        <v>294</v>
-      </c>
-      <c r="B296" t="s">
-        <v>31</v>
-      </c>
-      <c r="C296" t="s">
-        <v>34</v>
-      </c>
-      <c r="D296" s="2">
-        <v>45410.625</v>
-      </c>
-      <c r="E296" t="s">
-        <v>35</v>
-      </c>
-      <c r="F296" t="s">
-        <v>43</v>
-      </c>
-      <c r="J296">
-        <v>1.8</v>
-      </c>
-      <c r="K296">
-        <v>3.25</v>
-      </c>
-      <c r="L296">
-        <v>4</v>
-      </c>
-      <c r="M296">
-        <v>1.4</v>
-      </c>
-      <c r="N296">
-        <v>4.2</v>
-      </c>
-      <c r="O296">
-        <v>6.5</v>
-      </c>
-      <c r="P296">
-        <v>-1.25</v>
-      </c>
-      <c r="Q296">
-        <v>1.975</v>
-      </c>
-      <c r="R296">
-        <v>1.875</v>
-      </c>
-      <c r="S296">
-        <v>2.75</v>
-      </c>
-      <c r="T296">
-        <v>1.85</v>
-      </c>
-      <c r="U296">
-        <v>2</v>
-      </c>
-      <c r="V296">
-        <v>0</v>
-      </c>
-      <c r="W296">
-        <v>0</v>
-      </c>
-      <c r="X296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:28">
-      <c r="A297" s="1">
-        <v>295</v>
-      </c>
-      <c r="B297" t="s">
-        <v>32</v>
-      </c>
-      <c r="C297" t="s">
-        <v>34</v>
-      </c>
-      <c r="D297" s="2">
-        <v>45411.47916666666</v>
-      </c>
-      <c r="E297" t="s">
-        <v>39</v>
-      </c>
-      <c r="F297" t="s">
-        <v>49</v>
-      </c>
-      <c r="J297">
-        <v>1.909</v>
-      </c>
-      <c r="K297">
-        <v>3.25</v>
-      </c>
-      <c r="L297">
-        <v>3.5</v>
-      </c>
-      <c r="M297">
-        <v>2</v>
-      </c>
-      <c r="N297">
-        <v>3.25</v>
-      </c>
-      <c r="O297">
-        <v>3.2</v>
-      </c>
-      <c r="P297">
-        <v>-0.25</v>
-      </c>
-      <c r="Q297">
-        <v>1.825</v>
-      </c>
-      <c r="R297">
-        <v>2.025</v>
-      </c>
-      <c r="S297">
-        <v>2.25</v>
-      </c>
-      <c r="T297">
-        <v>2.1</v>
-      </c>
-      <c r="U297">
-        <v>1.775</v>
-      </c>
-      <c r="V297">
-        <v>0</v>
-      </c>
-      <c r="W297">
-        <v>0</v>
-      </c>
-      <c r="X297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:28">
-      <c r="A298" s="1">
-        <v>296</v>
-      </c>
-      <c r="B298" t="s">
-        <v>33</v>
-      </c>
-      <c r="C298" t="s">
-        <v>34</v>
-      </c>
-      <c r="D298" s="2">
-        <v>45411.60416666666</v>
-      </c>
-      <c r="E298" t="s">
-        <v>37</v>
-      </c>
-      <c r="F298" t="s">
-        <v>50</v>
-      </c>
-      <c r="J298">
-        <v>2.3</v>
-      </c>
-      <c r="K298">
-        <v>3.2</v>
-      </c>
-      <c r="L298">
-        <v>2.75</v>
-      </c>
-      <c r="M298">
-        <v>2</v>
-      </c>
-      <c r="N298">
-        <v>3.25</v>
-      </c>
-      <c r="O298">
-        <v>3.2</v>
-      </c>
-      <c r="P298">
-        <v>-0.25</v>
-      </c>
-      <c r="Q298">
-        <v>1.825</v>
-      </c>
-      <c r="R298">
-        <v>2.025</v>
-      </c>
-      <c r="S298">
-        <v>2.5</v>
-      </c>
-      <c r="T298">
-        <v>1.925</v>
-      </c>
-      <c r="U298">
-        <v>1.925</v>
-      </c>
-      <c r="V298">
-        <v>0</v>
-      </c>
-      <c r="W298">
-        <v>0</v>
-      </c>
-      <c r="X298">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -26200,31 +26200,31 @@
         <v>3.8</v>
       </c>
       <c r="M299">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="N299">
         <v>3.6</v>
       </c>
       <c r="O299">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="P299">
         <v>-0.75</v>
       </c>
       <c r="Q299">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R299">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S299">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T299">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U299">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V299">
         <v>0</v>
@@ -26265,10 +26265,10 @@
         <v>3.3</v>
       </c>
       <c r="M300">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N300">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O300">
         <v>3.2</v>
@@ -26277,19 +26277,19 @@
         <v>-0.25</v>
       </c>
       <c r="Q300">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R300">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S300">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T300">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U300">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V300">
         <v>0</v>
@@ -26333,28 +26333,28 @@
         <v>2.55</v>
       </c>
       <c r="N301">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O301">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="P301">
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R301">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S301">
         <v>2</v>
       </c>
       <c r="T301">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U301">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V301">
         <v>0</v>
@@ -26407,10 +26407,10 @@
         <v>-0.25</v>
       </c>
       <c r="Q302">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R302">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S302">
         <v>2</v>
@@ -26655,31 +26655,31 @@
         <v>4.2</v>
       </c>
       <c r="M306">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="N306">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O306">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P306">
         <v>-0.75</v>
       </c>
       <c r="Q306">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="R306">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S306">
         <v>2.75</v>
       </c>
       <c r="T306">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U306">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V306">
         <v>0</v>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7951768</t>
   </si>
   <si>
     <t>7951808</t>
@@ -540,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB306"/>
+  <dimension ref="A1:AB305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,16 +634,16 @@
         <v>6708870</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
         <v>45078.60416666666</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -655,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2">
         <v>1.7</v>
@@ -723,16 +720,16 @@
         <v>6831816</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
         <v>45121.52083333334</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -741,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -809,16 +806,16 @@
         <v>6871393</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2">
         <v>45121.64583333334</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -827,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4">
         <v>1.95</v>
@@ -895,16 +892,16 @@
         <v>6836102</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2">
         <v>45122.52083333334</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -913,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J5">
         <v>2.75</v>
@@ -981,16 +978,16 @@
         <v>6871392</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2">
         <v>45122.64583333334</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -999,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6">
         <v>1.363</v>
@@ -1067,16 +1064,16 @@
         <v>6836106</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2">
         <v>45123.52083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1085,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J7">
         <v>2.5</v>
@@ -1153,16 +1150,16 @@
         <v>6836105</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>45123.64583333334</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1171,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J8">
         <v>3.4</v>
@@ -1239,16 +1236,16 @@
         <v>6831939</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2">
         <v>45124.52083333334</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1257,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9">
         <v>2.05</v>
@@ -1325,16 +1322,16 @@
         <v>6836104</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2">
         <v>45124.64583333334</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1343,7 +1340,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J10">
         <v>3.5</v>
@@ -1411,16 +1408,16 @@
         <v>6836111</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>45128.52083333334</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1429,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J11">
         <v>1.75</v>
@@ -1497,16 +1494,16 @@
         <v>6836108</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2">
         <v>45128.64583333334</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1515,7 +1512,7 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12">
         <v>3.5</v>
@@ -1583,16 +1580,16 @@
         <v>6835772</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2">
         <v>45129.51041666666</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1601,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1669,16 +1666,16 @@
         <v>6836110</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2">
         <v>45129.64583333334</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1687,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J14">
         <v>1.533</v>
@@ -1755,16 +1752,16 @@
         <v>6836107</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2">
         <v>45130.52083333334</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1773,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15">
         <v>2.4</v>
@@ -1841,16 +1838,16 @@
         <v>6835195</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2">
         <v>45130.64583333334</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1859,7 +1856,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J16">
         <v>2.375</v>
@@ -1927,16 +1924,16 @@
         <v>6863931</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2">
         <v>45131.52083333334</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1945,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -2013,16 +2010,16 @@
         <v>6836109</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
         <v>45131.64583333334</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2031,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J18">
         <v>1.5</v>
@@ -2099,16 +2096,16 @@
         <v>6836117</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2">
         <v>45135.52083333334</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -2117,7 +2114,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J19">
         <v>2.25</v>
@@ -2185,16 +2182,16 @@
         <v>6835196</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2">
         <v>45135.64583333334</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2203,7 +2200,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J20">
         <v>1.4</v>
@@ -2271,16 +2268,16 @@
         <v>6836113</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2">
         <v>45136.52083333334</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2289,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J21">
         <v>1.909</v>
@@ -2357,16 +2354,16 @@
         <v>6836115</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2">
         <v>45136.64583333334</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2375,7 +2372,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J22">
         <v>4.75</v>
@@ -2443,16 +2440,16 @@
         <v>6836118</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2461,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J23">
         <v>1.615</v>
@@ -2529,16 +2526,16 @@
         <v>6836114</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2">
         <v>45137.64583333334</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2547,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J24">
         <v>2.15</v>
@@ -2615,16 +2612,16 @@
         <v>6835773</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2">
         <v>45138.52083333334</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2633,7 +2630,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J25">
         <v>2.55</v>
@@ -2701,16 +2698,16 @@
         <v>6836116</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2">
         <v>45138.64583333334</v>
       </c>
       <c r="E26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" t="s">
         <v>43</v>
-      </c>
-      <c r="F26" t="s">
-        <v>44</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2719,7 +2716,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J26">
         <v>3.75</v>
@@ -2787,16 +2784,16 @@
         <v>6836124</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2">
         <v>45142.52083333334</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2805,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -2873,16 +2870,16 @@
         <v>6836119</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2">
         <v>45142.64583333334</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2891,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J28">
         <v>1.615</v>
@@ -2959,16 +2956,16 @@
         <v>6836123</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2">
         <v>45143.52083333334</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2977,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J29">
         <v>2.375</v>
@@ -3045,16 +3042,16 @@
         <v>6836122</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2">
         <v>45143.64583333334</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3063,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J30">
         <v>2.2</v>
@@ -3131,16 +3128,16 @@
         <v>6836125</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2">
         <v>45144.51041666666</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3149,7 +3146,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J31">
         <v>2.875</v>
@@ -3217,16 +3214,16 @@
         <v>6836120</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2">
         <v>45144.64583333334</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3235,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J32">
         <v>2.1</v>
@@ -3303,16 +3300,16 @@
         <v>6836121</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2">
         <v>45145.52083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3321,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J33">
         <v>1.727</v>
@@ -3389,16 +3386,16 @@
         <v>6835197</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2">
         <v>45145.64583333334</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3407,7 +3404,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J34">
         <v>3.1</v>
@@ -3475,16 +3472,16 @@
         <v>6835774</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2">
         <v>45149.60416666666</v>
       </c>
       <c r="E35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
         <v>41</v>
-      </c>
-      <c r="F35" t="s">
-        <v>42</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -3493,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J35">
         <v>2.375</v>
@@ -3561,16 +3558,16 @@
         <v>6836128</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2">
         <v>45150.52083333334</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3579,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J36">
         <v>2.6</v>
@@ -3647,16 +3644,16 @@
         <v>6836130</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2">
         <v>45150.64583333334</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3665,7 +3662,7 @@
         <v>4</v>
       </c>
       <c r="I37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J37">
         <v>4</v>
@@ -3733,16 +3730,16 @@
         <v>6835198</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2">
         <v>45151.64583333334</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3751,7 +3748,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J38">
         <v>1.8</v>
@@ -3819,16 +3816,16 @@
         <v>6836129</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="2">
         <v>45152.60416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3837,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -3905,16 +3902,16 @@
         <v>6836136</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" s="2">
         <v>45156.52083333334</v>
       </c>
       <c r="E40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" t="s">
         <v>40</v>
-      </c>
-      <c r="F40" t="s">
-        <v>41</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -3923,7 +3920,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J40">
         <v>2.3</v>
@@ -3991,16 +3988,16 @@
         <v>6836137</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2">
         <v>45156.64583333334</v>
       </c>
       <c r="E41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -4009,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J41">
         <v>1.45</v>
@@ -4077,16 +4074,16 @@
         <v>6836134</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4095,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J42">
         <v>2.1</v>
@@ -4163,16 +4160,16 @@
         <v>6835775</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2">
         <v>45157.65625</v>
       </c>
       <c r="E43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s">
         <v>42</v>
-      </c>
-      <c r="F43" t="s">
-        <v>43</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4181,7 +4178,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J43">
         <v>1.95</v>
@@ -4249,16 +4246,16 @@
         <v>6835199</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2">
         <v>45158.51041666666</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -4267,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J44">
         <v>2.05</v>
@@ -4335,16 +4332,16 @@
         <v>6836135</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D45" s="2">
         <v>45158.64583333334</v>
       </c>
       <c r="E45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" t="s">
         <v>47</v>
-      </c>
-      <c r="F45" t="s">
-        <v>48</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4353,7 +4350,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J45">
         <v>1.45</v>
@@ -4421,16 +4418,16 @@
         <v>6836132</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D46" s="2">
         <v>45159.52083333334</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4439,7 +4436,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J46">
         <v>2.15</v>
@@ -4507,16 +4504,16 @@
         <v>6836133</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D47" s="2">
         <v>45159.64583333334</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4525,7 +4522,7 @@
         <v>4</v>
       </c>
       <c r="I47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J47">
         <v>4.2</v>
@@ -4593,16 +4590,16 @@
         <v>6835776</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D48" s="2">
         <v>45163.52083333334</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4611,7 +4608,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J48">
         <v>2.7</v>
@@ -4679,16 +4676,16 @@
         <v>6835200</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" s="2">
         <v>45163.64583333334</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -4697,7 +4694,7 @@
         <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J49">
         <v>2.7</v>
@@ -4765,16 +4762,16 @@
         <v>6836141</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4783,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J50">
         <v>1.363</v>
@@ -4851,16 +4848,16 @@
         <v>6836143</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D51" s="2">
         <v>45164.65625</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4869,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J51">
         <v>2.25</v>
@@ -4937,25 +4934,25 @@
         <v>6836139</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D52" s="2">
         <v>45165.64583333334</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
+        <v>50</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
         <v>51</v>
-      </c>
-      <c r="G52">
-        <v>2</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52" t="s">
-        <v>52</v>
       </c>
       <c r="J52">
         <v>2.6</v>
@@ -5023,16 +5020,16 @@
         <v>6836140</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D53" s="2">
         <v>45166.52083333334</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5041,7 +5038,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J53">
         <v>2.2</v>
@@ -5109,16 +5106,16 @@
         <v>6836138</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D54" s="2">
         <v>45166.64583333334</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5127,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J54">
         <v>4</v>
@@ -5195,16 +5192,16 @@
         <v>6836146</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D55" s="2">
         <v>45170.52083333334</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5213,7 +5210,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J55">
         <v>2.05</v>
@@ -5281,16 +5278,16 @@
         <v>6835201</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D56" s="2">
         <v>45170.64583333334</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G56">
         <v>4</v>
@@ -5299,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J56">
         <v>1.7</v>
@@ -5367,16 +5364,16 @@
         <v>6835777</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D57" s="2">
         <v>45171.54166666666</v>
       </c>
       <c r="E57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5385,7 +5382,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J57">
         <v>4.333</v>
@@ -5453,16 +5450,16 @@
         <v>6836148</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D58" s="2">
         <v>45171.65625</v>
       </c>
       <c r="E58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5471,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J58">
         <v>2.8</v>
@@ -5539,16 +5536,16 @@
         <v>6836149</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D59" s="2">
         <v>45172.64583333334</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G59">
         <v>4</v>
@@ -5557,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J59">
         <v>2.5</v>
@@ -5625,16 +5622,16 @@
         <v>6836145</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D60" s="2">
         <v>45173.29166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5643,7 +5640,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J60">
         <v>1.909</v>
@@ -5711,16 +5708,16 @@
         <v>6836144</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D61" s="2">
         <v>45173.52083333334</v>
       </c>
       <c r="E61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5729,7 +5726,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J61">
         <v>2.8</v>
@@ -5797,16 +5794,16 @@
         <v>6836147</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D62" s="2">
         <v>45173.64583333334</v>
       </c>
       <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
         <v>44</v>
-      </c>
-      <c r="F62" t="s">
-        <v>45</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5815,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J62">
         <v>1.65</v>
@@ -5883,16 +5880,16 @@
         <v>6836152</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D63" s="2">
         <v>45184.52083333334</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5901,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J63">
         <v>2.5</v>
@@ -5969,16 +5966,16 @@
         <v>6836154</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D64" s="2">
         <v>45184.64583333334</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5987,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J64">
         <v>2.75</v>
@@ -6055,16 +6052,16 @@
         <v>6836153</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D65" s="2">
         <v>45185.64583333334</v>
       </c>
       <c r="E65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6073,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J65">
         <v>1.909</v>
@@ -6141,16 +6138,16 @@
         <v>6835778</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D66" s="2">
         <v>45186.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -6159,7 +6156,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J66">
         <v>2</v>
@@ -6227,17 +6224,17 @@
         <v>6835202</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D67" s="2">
         <v>45186.55208333334</v>
       </c>
       <c r="E67" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" t="s">
         <v>37</v>
       </c>
-      <c r="F67" t="s">
-        <v>38</v>
-      </c>
       <c r="G67">
         <v>0</v>
       </c>
@@ -6245,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -6313,16 +6310,16 @@
         <v>6836155</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D68" s="2">
         <v>45186.65625</v>
       </c>
       <c r="E68" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" t="s">
         <v>46</v>
-      </c>
-      <c r="F68" t="s">
-        <v>47</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6331,7 +6328,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J68">
         <v>2.625</v>
@@ -6399,16 +6396,16 @@
         <v>6836150</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D69" s="2">
         <v>45187.52083333334</v>
       </c>
       <c r="E69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6417,7 +6414,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J69">
         <v>2.4</v>
@@ -6485,16 +6482,16 @@
         <v>6836151</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D70" s="2">
         <v>45187.64583333334</v>
       </c>
       <c r="E70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6503,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J70">
         <v>1.45</v>
@@ -6571,16 +6568,16 @@
         <v>6836126</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D71" s="2">
         <v>45190.58333333334</v>
       </c>
       <c r="E71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6589,7 +6586,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J71">
         <v>3.7</v>
@@ -6657,16 +6654,16 @@
         <v>6836159</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D72" s="2">
         <v>45191.5</v>
       </c>
       <c r="E72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6675,7 +6672,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J72">
         <v>1.95</v>
@@ -6743,16 +6740,16 @@
         <v>6836161</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D73" s="2">
         <v>45191.625</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6761,7 +6758,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J73">
         <v>3.3</v>
@@ -6829,16 +6826,16 @@
         <v>6835779</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D74" s="2">
         <v>45192.35416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6847,7 +6844,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J74">
         <v>2</v>
@@ -6915,16 +6912,16 @@
         <v>6836157</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D75" s="2">
         <v>45192.53125</v>
       </c>
       <c r="E75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -6933,7 +6930,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J75">
         <v>2.25</v>
@@ -7001,16 +6998,16 @@
         <v>6836158</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D76" s="2">
         <v>45192.64583333334</v>
       </c>
       <c r="E76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7019,7 +7016,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -7087,16 +7084,16 @@
         <v>6836156</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D77" s="2">
         <v>45193.51041666666</v>
       </c>
       <c r="E77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7105,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J77">
         <v>2.4</v>
@@ -7173,16 +7170,16 @@
         <v>6836160</v>
       </c>
       <c r="C78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D78" s="2">
         <v>45193.625</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7191,7 +7188,7 @@
         <v>5</v>
       </c>
       <c r="I78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J78">
         <v>2.7</v>
@@ -7259,16 +7256,16 @@
         <v>6835203</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D79" s="2">
         <v>45194.625</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7277,7 +7274,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J79">
         <v>2.8</v>
@@ -7345,16 +7342,16 @@
         <v>6836166</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D80" s="2">
         <v>45198.625</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7363,7 +7360,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J80">
         <v>2.3</v>
@@ -7431,16 +7428,16 @@
         <v>6835780</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D81" s="2">
         <v>45199.35416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7449,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J81">
         <v>2.2</v>
@@ -7517,16 +7514,16 @@
         <v>6836167</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D82" s="2">
         <v>45199.64583333334</v>
       </c>
       <c r="E82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7535,7 +7532,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J82">
         <v>2.2</v>
@@ -7603,16 +7600,16 @@
         <v>6836163</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D83" s="2">
         <v>45200.375</v>
       </c>
       <c r="E83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G83">
         <v>5</v>
@@ -7621,7 +7618,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J83">
         <v>1.444</v>
@@ -7689,16 +7686,16 @@
         <v>6835204</v>
       </c>
       <c r="C84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D84" s="2">
         <v>45200.5</v>
       </c>
       <c r="E84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7707,7 +7704,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J84">
         <v>2.875</v>
@@ -7775,16 +7772,16 @@
         <v>6836164</v>
       </c>
       <c r="C85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D85" s="2">
         <v>45200.625</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7793,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J85">
         <v>1.5</v>
@@ -7861,16 +7858,16 @@
         <v>6836162</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D86" s="2">
         <v>45201.5</v>
       </c>
       <c r="E86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7879,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J86">
         <v>2.9</v>
@@ -7947,16 +7944,16 @@
         <v>6836165</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D87" s="2">
         <v>45201.625</v>
       </c>
       <c r="E87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7965,7 +7962,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J87">
         <v>1.4</v>
@@ -8033,16 +8030,16 @@
         <v>6836127</v>
       </c>
       <c r="C88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D88" s="2">
         <v>45204.58333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8051,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J88">
         <v>1.8</v>
@@ -8119,16 +8116,16 @@
         <v>6836168</v>
       </c>
       <c r="C89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D89" s="2">
         <v>45205.5</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8137,7 +8134,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J89">
         <v>2.3</v>
@@ -8205,16 +8202,16 @@
         <v>6835205</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D90" s="2">
         <v>45205.625</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G90">
         <v>3</v>
@@ -8223,7 +8220,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J90">
         <v>1.5</v>
@@ -8291,16 +8288,16 @@
         <v>6836169</v>
       </c>
       <c r="C91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D91" s="2">
         <v>45206.33333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8309,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J91">
         <v>2.1</v>
@@ -8377,16 +8374,16 @@
         <v>6835781</v>
       </c>
       <c r="C92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D92" s="2">
         <v>45206.53125</v>
       </c>
       <c r="E92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8395,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J92">
         <v>4</v>
@@ -8463,16 +8460,16 @@
         <v>6836170</v>
       </c>
       <c r="C93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D93" s="2">
         <v>45206.64583333334</v>
       </c>
       <c r="E93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8481,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -8549,16 +8546,16 @@
         <v>6836173</v>
       </c>
       <c r="C94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D94" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8567,7 +8564,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J94">
         <v>2.75</v>
@@ -8635,16 +8632,16 @@
         <v>6836171</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D95" s="2">
         <v>45207.64583333334</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8653,7 +8650,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J95">
         <v>4</v>
@@ -8721,16 +8718,16 @@
         <v>6836172</v>
       </c>
       <c r="C96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D96" s="2">
         <v>45208.625</v>
       </c>
       <c r="E96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8739,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J96">
         <v>2.8</v>
@@ -8807,16 +8804,16 @@
         <v>7122732</v>
       </c>
       <c r="C97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D97" s="2">
         <v>45218.58333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8825,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J97">
         <v>2.625</v>
@@ -8893,16 +8890,16 @@
         <v>6835206</v>
       </c>
       <c r="C98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D98" s="2">
         <v>45219.625</v>
       </c>
       <c r="E98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8911,7 +8908,7 @@
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J98">
         <v>3.4</v>
@@ -8979,16 +8976,16 @@
         <v>6836174</v>
       </c>
       <c r="C99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D99" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G99">
         <v>4</v>
@@ -8997,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J99">
         <v>2.1</v>
@@ -9065,16 +9062,16 @@
         <v>6836179</v>
       </c>
       <c r="C100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D100" s="2">
         <v>45220.65625</v>
       </c>
       <c r="E100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9083,7 +9080,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J100">
         <v>1.833</v>
@@ -9151,16 +9148,16 @@
         <v>6836175</v>
       </c>
       <c r="C101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D101" s="2">
         <v>45221.39583333334</v>
       </c>
       <c r="E101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9169,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J101">
         <v>2.625</v>
@@ -9237,16 +9234,16 @@
         <v>6836176</v>
       </c>
       <c r="C102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D102" s="2">
         <v>45221.5</v>
       </c>
       <c r="E102" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9255,7 +9252,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J102">
         <v>1.571</v>
@@ -9323,16 +9320,16 @@
         <v>6835782</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D103" s="2">
         <v>45221.625</v>
       </c>
       <c r="E103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9341,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J103">
         <v>1.444</v>
@@ -9409,16 +9406,16 @@
         <v>6836177</v>
       </c>
       <c r="C104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D104" s="2">
         <v>45222.5</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F104" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G104">
         <v>5</v>
@@ -9427,7 +9424,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J104">
         <v>1.571</v>
@@ -9495,17 +9492,17 @@
         <v>6836178</v>
       </c>
       <c r="C105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D105" s="2">
         <v>45222.625</v>
       </c>
       <c r="E105" t="s">
+        <v>35</v>
+      </c>
+      <c r="F105" t="s">
         <v>36</v>
       </c>
-      <c r="F105" t="s">
-        <v>37</v>
-      </c>
       <c r="G105">
         <v>0</v>
       </c>
@@ -9513,7 +9510,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J105">
         <v>1.4</v>
@@ -9581,16 +9578,16 @@
         <v>6836131</v>
       </c>
       <c r="C106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D106" s="2">
         <v>45225.58333333334</v>
       </c>
       <c r="E106" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9599,7 +9596,7 @@
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J106">
         <v>1.65</v>
@@ -9667,16 +9664,16 @@
         <v>6835783</v>
       </c>
       <c r="C107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D107" s="2">
         <v>45226.47916666666</v>
       </c>
       <c r="E107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9685,7 +9682,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J107">
         <v>3</v>
@@ -9753,16 +9750,16 @@
         <v>6836181</v>
       </c>
       <c r="C108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D108" s="2">
         <v>45226.60416666666</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F108" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9771,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J108">
         <v>2.4</v>
@@ -9839,16 +9836,16 @@
         <v>6836180</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D109" s="2">
         <v>45227.33333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9857,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J109">
         <v>2.6</v>
@@ -9925,16 +9922,16 @@
         <v>6836183</v>
       </c>
       <c r="C110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D110" s="2">
         <v>45227.60416666666</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9943,7 +9940,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J110">
         <v>3.8</v>
@@ -10011,16 +10008,16 @@
         <v>6836182</v>
       </c>
       <c r="C111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D111" s="2">
         <v>45228.375</v>
       </c>
       <c r="E111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10029,7 +10026,7 @@
         <v>3</v>
       </c>
       <c r="I111" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J111">
         <v>2</v>
@@ -10097,25 +10094,25 @@
         <v>6835207</v>
       </c>
       <c r="C112" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D112" s="2">
         <v>45228.64583333334</v>
       </c>
       <c r="E112" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F112" t="s">
+        <v>50</v>
+      </c>
+      <c r="G112">
+        <v>2</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112" t="s">
         <v>51</v>
-      </c>
-      <c r="G112">
-        <v>2</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112" t="s">
-        <v>52</v>
       </c>
       <c r="J112">
         <v>2.3</v>
@@ -10183,16 +10180,16 @@
         <v>6836184</v>
       </c>
       <c r="C113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D113" s="2">
         <v>45229.52083333334</v>
       </c>
       <c r="E113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F113" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10201,7 +10198,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -10269,16 +10266,16 @@
         <v>6836185</v>
       </c>
       <c r="C114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D114" s="2">
         <v>45229.64583333334</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -10287,7 +10284,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J114">
         <v>1.909</v>
@@ -10355,16 +10352,16 @@
         <v>6836187</v>
       </c>
       <c r="C115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D115" s="2">
         <v>45233.54166666666</v>
       </c>
       <c r="E115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10373,7 +10370,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J115">
         <v>2.3</v>
@@ -10441,16 +10438,16 @@
         <v>6836190</v>
       </c>
       <c r="C116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D116" s="2">
         <v>45234.48958333334</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10459,7 +10456,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J116">
         <v>1.909</v>
@@ -10527,16 +10524,16 @@
         <v>6836189</v>
       </c>
       <c r="C117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D117" s="2">
         <v>45234.67708333334</v>
       </c>
       <c r="E117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10545,7 +10542,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J117">
         <v>1.75</v>
@@ -10613,16 +10610,16 @@
         <v>6835784</v>
       </c>
       <c r="C118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D118" s="2">
         <v>45235.41666666666</v>
       </c>
       <c r="E118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10631,7 +10628,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J118">
         <v>2</v>
@@ -10699,16 +10696,16 @@
         <v>6836191</v>
       </c>
       <c r="C119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D119" s="2">
         <v>45235.52083333334</v>
       </c>
       <c r="E119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10717,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J119">
         <v>1.5</v>
@@ -10785,16 +10782,16 @@
         <v>6835208</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D120" s="2">
         <v>45235.64583333334</v>
       </c>
       <c r="E120" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10803,7 +10800,7 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J120">
         <v>2</v>
@@ -10871,16 +10868,16 @@
         <v>6836188</v>
       </c>
       <c r="C121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D121" s="2">
         <v>45236.54166666666</v>
       </c>
       <c r="E121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10889,7 +10886,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J121">
         <v>1.909</v>
@@ -10957,16 +10954,16 @@
         <v>6836186</v>
       </c>
       <c r="C122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D122" s="2">
         <v>45236.66666666666</v>
       </c>
       <c r="E122" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10975,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J122">
         <v>3.5</v>
@@ -11043,16 +11040,16 @@
         <v>6835209</v>
       </c>
       <c r="C123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D123" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11061,7 +11058,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J123">
         <v>2.5</v>
@@ -11129,16 +11126,16 @@
         <v>6836197</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D124" s="2">
         <v>45241.375</v>
       </c>
       <c r="E124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11147,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J124">
         <v>2.2</v>
@@ -11215,16 +11212,16 @@
         <v>6836193</v>
       </c>
       <c r="C125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D125" s="2">
         <v>45241.57291666666</v>
       </c>
       <c r="E125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -11233,7 +11230,7 @@
         <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J125">
         <v>4.75</v>
@@ -11301,16 +11298,16 @@
         <v>6836192</v>
       </c>
       <c r="C126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D126" s="2">
         <v>45241.66666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11319,7 +11316,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J126">
         <v>1.833</v>
@@ -11387,16 +11384,16 @@
         <v>6835785</v>
       </c>
       <c r="C127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D127" s="2">
         <v>45242.35416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11405,7 +11402,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J127">
         <v>2.5</v>
@@ -11473,16 +11470,16 @@
         <v>6836195</v>
       </c>
       <c r="C128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D128" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E128" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11491,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J128">
         <v>1.333</v>
@@ -11559,16 +11556,16 @@
         <v>6836196</v>
       </c>
       <c r="C129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D129" s="2">
         <v>45242.66666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11577,7 +11574,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J129">
         <v>1.444</v>
@@ -11645,16 +11642,16 @@
         <v>6836194</v>
       </c>
       <c r="C130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D130" s="2">
         <v>45243.64583333334</v>
       </c>
       <c r="E130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11663,7 +11660,7 @@
         <v>4</v>
       </c>
       <c r="I130" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J130">
         <v>2.15</v>
@@ -11731,16 +11728,16 @@
         <v>6836198</v>
       </c>
       <c r="C131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D131" s="2">
         <v>45254.52083333334</v>
       </c>
       <c r="E131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11749,7 +11746,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J131">
         <v>2.05</v>
@@ -11817,16 +11814,16 @@
         <v>6836203</v>
       </c>
       <c r="C132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D132" s="2">
         <v>45254.64583333334</v>
       </c>
       <c r="E132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F132" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11835,7 +11832,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J132">
         <v>1.65</v>
@@ -11903,16 +11900,16 @@
         <v>6835786</v>
       </c>
       <c r="C133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D133" s="2">
         <v>45255.52083333334</v>
       </c>
       <c r="E133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G133">
         <v>4</v>
@@ -11921,7 +11918,7 @@
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J133">
         <v>3.2</v>
@@ -11989,16 +11986,16 @@
         <v>6836199</v>
       </c>
       <c r="C134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D134" s="2">
         <v>45255.64583333334</v>
       </c>
       <c r="E134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F134" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -12007,7 +12004,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J134">
         <v>1.45</v>
@@ -12075,16 +12072,16 @@
         <v>6836200</v>
       </c>
       <c r="C135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D135" s="2">
         <v>45256.52083333334</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F135" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12093,7 +12090,7 @@
         <v>3</v>
       </c>
       <c r="I135" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J135">
         <v>3.4</v>
@@ -12161,16 +12158,16 @@
         <v>6836201</v>
       </c>
       <c r="C136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D136" s="2">
         <v>45256.64583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12179,7 +12176,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J136">
         <v>9</v>
@@ -12247,16 +12244,16 @@
         <v>6836202</v>
       </c>
       <c r="C137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D137" s="2">
         <v>45257.52083333334</v>
       </c>
       <c r="E137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F137" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12265,7 +12262,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J137">
         <v>2.6</v>
@@ -12333,16 +12330,16 @@
         <v>6835210</v>
       </c>
       <c r="C138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D138" s="2">
         <v>45257.64583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12351,7 +12348,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J138">
         <v>1.833</v>
@@ -12419,16 +12416,16 @@
         <v>6835787</v>
       </c>
       <c r="C139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D139" s="2">
         <v>45261.5</v>
       </c>
       <c r="E139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12437,7 +12434,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J139">
         <v>2.3</v>
@@ -12505,16 +12502,16 @@
         <v>7528972</v>
       </c>
       <c r="C140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D140" s="2">
         <v>45261.625</v>
       </c>
       <c r="E140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F140" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12523,7 +12520,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J140">
         <v>3.3</v>
@@ -12591,16 +12588,16 @@
         <v>6836204</v>
       </c>
       <c r="C141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D141" s="2">
         <v>45262.375</v>
       </c>
       <c r="E141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -12609,7 +12606,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J141">
         <v>2.5</v>
@@ -12677,16 +12674,16 @@
         <v>6835211</v>
       </c>
       <c r="C142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D142" s="2">
         <v>45262.5</v>
       </c>
       <c r="E142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12695,7 +12692,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J142">
         <v>4.2</v>
@@ -12763,16 +12760,16 @@
         <v>6836205</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D143" s="2">
         <v>45262.64583333334</v>
       </c>
       <c r="E143" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12781,7 +12778,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J143">
         <v>2.6</v>
@@ -12849,16 +12846,16 @@
         <v>6836208</v>
       </c>
       <c r="C144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D144" s="2">
         <v>45263.45833333334</v>
       </c>
       <c r="E144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12867,7 +12864,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -12935,16 +12932,16 @@
         <v>6836206</v>
       </c>
       <c r="C145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D145" s="2">
         <v>45263.66666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -12953,7 +12950,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J145">
         <v>1.363</v>
@@ -13021,16 +13018,16 @@
         <v>6836207</v>
       </c>
       <c r="C146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D146" s="2">
         <v>45264.625</v>
       </c>
       <c r="E146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13039,7 +13036,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J146">
         <v>1.6</v>
@@ -13107,16 +13104,16 @@
         <v>6836215</v>
       </c>
       <c r="C147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D147" s="2">
         <v>45268.58333333334</v>
       </c>
       <c r="E147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F147" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13125,7 +13122,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J147">
         <v>2.3</v>
@@ -13193,16 +13190,16 @@
         <v>6835212</v>
       </c>
       <c r="C148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D148" s="2">
         <v>45269.65625</v>
       </c>
       <c r="E148" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13211,7 +13208,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J148">
         <v>1.7</v>
@@ -13279,16 +13276,16 @@
         <v>6836210</v>
       </c>
       <c r="C149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D149" s="2">
         <v>45270.375</v>
       </c>
       <c r="E149" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13297,7 +13294,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J149">
         <v>2.875</v>
@@ -13365,16 +13362,16 @@
         <v>6836216</v>
       </c>
       <c r="C150" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D150" s="2">
         <v>45270.5</v>
       </c>
       <c r="E150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13383,7 +13380,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J150">
         <v>1.9</v>
@@ -13451,16 +13448,16 @@
         <v>6836211</v>
       </c>
       <c r="C151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D151" s="2">
         <v>45270.625</v>
       </c>
       <c r="E151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F151" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13469,7 +13466,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J151">
         <v>2.7</v>
@@ -13537,16 +13534,16 @@
         <v>6836214</v>
       </c>
       <c r="C152" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D152" s="2">
         <v>45271.5</v>
       </c>
       <c r="E152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F152" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13555,7 +13552,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J152">
         <v>1.85</v>
@@ -13623,16 +13620,16 @@
         <v>6836213</v>
       </c>
       <c r="C153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D153" s="2">
         <v>45271.65625</v>
       </c>
       <c r="E153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F153" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13641,7 +13638,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J153">
         <v>3.25</v>
@@ -13709,16 +13706,16 @@
         <v>6836212</v>
       </c>
       <c r="C154" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D154" s="2">
         <v>45272.5</v>
       </c>
       <c r="E154" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13727,7 +13724,7 @@
         <v>3</v>
       </c>
       <c r="I154" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J154">
         <v>2.7</v>
@@ -13795,16 +13792,16 @@
         <v>6835788</v>
       </c>
       <c r="C155" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D155" s="2">
         <v>45275.5</v>
       </c>
       <c r="E155" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13813,7 +13810,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J155">
         <v>2.3</v>
@@ -13881,16 +13878,16 @@
         <v>6835213</v>
       </c>
       <c r="C156" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D156" s="2">
         <v>45275.625</v>
       </c>
       <c r="E156" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13899,7 +13896,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J156">
         <v>3.1</v>
@@ -13967,17 +13964,17 @@
         <v>6836222</v>
       </c>
       <c r="C157" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D157" s="2">
         <v>45276.375</v>
       </c>
       <c r="E157" t="s">
+        <v>44</v>
+      </c>
+      <c r="F157" t="s">
         <v>45</v>
       </c>
-      <c r="F157" t="s">
-        <v>46</v>
-      </c>
       <c r="G157">
         <v>0</v>
       </c>
@@ -13985,7 +13982,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J157">
         <v>3.1</v>
@@ -14053,16 +14050,16 @@
         <v>6836221</v>
       </c>
       <c r="C158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D158" s="2">
         <v>45276.5</v>
       </c>
       <c r="E158" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F158" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14071,7 +14068,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J158">
         <v>1.45</v>
@@ -14139,16 +14136,16 @@
         <v>6836217</v>
       </c>
       <c r="C159" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D159" s="2">
         <v>45276.625</v>
       </c>
       <c r="E159" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G159">
         <v>3</v>
@@ -14157,7 +14154,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J159">
         <v>1.666</v>
@@ -14225,16 +14222,16 @@
         <v>6836219</v>
       </c>
       <c r="C160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D160" s="2">
         <v>45277.41666666666</v>
       </c>
       <c r="E160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14243,7 +14240,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J160">
         <v>1.8</v>
@@ -14311,16 +14308,16 @@
         <v>6836218</v>
       </c>
       <c r="C161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D161" s="2">
         <v>45277.66666666666</v>
       </c>
       <c r="E161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -14329,7 +14326,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J161">
         <v>3.3</v>
@@ -14397,16 +14394,16 @@
         <v>6836220</v>
       </c>
       <c r="C162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D162" s="2">
         <v>45278.625</v>
       </c>
       <c r="E162" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -14415,7 +14412,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J162">
         <v>2.25</v>
@@ -14483,16 +14480,16 @@
         <v>6836227</v>
       </c>
       <c r="C163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D163" s="2">
         <v>45279.52083333334</v>
       </c>
       <c r="E163" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14501,7 +14498,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J163">
         <v>2.1</v>
@@ -14569,16 +14566,16 @@
         <v>6836226</v>
       </c>
       <c r="C164" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D164" s="2">
         <v>45279.64583333334</v>
       </c>
       <c r="E164" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F164" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14587,7 +14584,7 @@
         <v>3</v>
       </c>
       <c r="I164" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J164">
         <v>5.25</v>
@@ -14655,16 +14652,16 @@
         <v>6836228</v>
       </c>
       <c r="C165" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D165" s="2">
         <v>45280.52083333334</v>
       </c>
       <c r="E165" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F165" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14673,7 +14670,7 @@
         <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J165">
         <v>4.5</v>
@@ -14741,16 +14738,16 @@
         <v>6835214</v>
       </c>
       <c r="C166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D166" s="2">
         <v>45280.64583333334</v>
       </c>
       <c r="E166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14759,7 +14756,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J166">
         <v>2.25</v>
@@ -14827,16 +14824,16 @@
         <v>6836223</v>
       </c>
       <c r="C167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D167" s="2">
         <v>45281.5</v>
       </c>
       <c r="E167" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14845,7 +14842,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J167">
         <v>2.5</v>
@@ -14913,16 +14910,16 @@
         <v>6836224</v>
       </c>
       <c r="C168" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D168" s="2">
         <v>45281.61458333334</v>
       </c>
       <c r="E168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G168">
         <v>4</v>
@@ -14931,7 +14928,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J168">
         <v>1.95</v>
@@ -14999,16 +14996,16 @@
         <v>6836225</v>
       </c>
       <c r="C169" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D169" s="2">
         <v>45282.52083333334</v>
       </c>
       <c r="E169" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F169" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -15017,7 +15014,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J169">
         <v>1.909</v>
@@ -15085,16 +15082,16 @@
         <v>6835789</v>
       </c>
       <c r="C170" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D170" s="2">
         <v>45282.64583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15103,7 +15100,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J170">
         <v>2.875</v>
@@ -15171,16 +15168,16 @@
         <v>6836231</v>
       </c>
       <c r="C171" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D171" s="2">
         <v>45310.5</v>
       </c>
       <c r="E171" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G171">
         <v>6</v>
@@ -15189,7 +15186,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J171">
         <v>1.727</v>
@@ -15257,16 +15254,16 @@
         <v>6835215</v>
       </c>
       <c r="C172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D172" s="2">
         <v>45310.625</v>
       </c>
       <c r="E172" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G172">
         <v>4</v>
@@ -15275,7 +15272,7 @@
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J172">
         <v>1.833</v>
@@ -15343,16 +15340,16 @@
         <v>6836229</v>
       </c>
       <c r="C173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D173" s="2">
         <v>45311.5</v>
       </c>
       <c r="E173" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -15361,7 +15358,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J173">
         <v>2.1</v>
@@ -15429,16 +15426,16 @@
         <v>6836232</v>
       </c>
       <c r="C174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D174" s="2">
         <v>45311.625</v>
       </c>
       <c r="E174" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15447,7 +15444,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J174">
         <v>2</v>
@@ -15515,16 +15512,16 @@
         <v>6836230</v>
       </c>
       <c r="C175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D175" s="2">
         <v>45312.41666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15533,7 +15530,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J175">
         <v>4.75</v>
@@ -15601,16 +15598,16 @@
         <v>6836234</v>
       </c>
       <c r="C176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D176" s="2">
         <v>45312.625</v>
       </c>
       <c r="E176" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F176" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15619,7 +15616,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J176">
         <v>1.833</v>
@@ -15687,16 +15684,16 @@
         <v>6835790</v>
       </c>
       <c r="C177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D177" s="2">
         <v>45313.5</v>
       </c>
       <c r="E177" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15705,7 +15702,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J177">
         <v>2.625</v>
@@ -15773,16 +15770,16 @@
         <v>6836233</v>
       </c>
       <c r="C178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D178" s="2">
         <v>45313.625</v>
       </c>
       <c r="E178" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F178" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G178">
         <v>4</v>
@@ -15791,7 +15788,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J178">
         <v>1.363</v>
@@ -15859,16 +15856,16 @@
         <v>6836236</v>
       </c>
       <c r="C179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D179" s="2">
         <v>45317.625</v>
       </c>
       <c r="E179" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -15877,7 +15874,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J179">
         <v>1.85</v>
@@ -15945,16 +15942,16 @@
         <v>6836240</v>
       </c>
       <c r="C180" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D180" s="2">
         <v>45318.375</v>
       </c>
       <c r="E180" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F180" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -15963,7 +15960,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J180">
         <v>3</v>
@@ -16031,16 +16028,16 @@
         <v>6836239</v>
       </c>
       <c r="C181" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D181" s="2">
         <v>45318.5</v>
       </c>
       <c r="E181" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F181" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16049,7 +16046,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J181">
         <v>2.4</v>
@@ -16117,16 +16114,16 @@
         <v>6835216</v>
       </c>
       <c r="C182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D182" s="2">
         <v>45318.625</v>
       </c>
       <c r="E182" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F182" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16135,7 +16132,7 @@
         <v>2</v>
       </c>
       <c r="I182" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J182">
         <v>4</v>
@@ -16203,16 +16200,16 @@
         <v>6836237</v>
       </c>
       <c r="C183" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D183" s="2">
         <v>45319.375</v>
       </c>
       <c r="E183" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F183" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16221,7 +16218,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J183">
         <v>1.666</v>
@@ -16289,16 +16286,16 @@
         <v>6836238</v>
       </c>
       <c r="C184" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D184" s="2">
         <v>45319.5</v>
       </c>
       <c r="E184" t="s">
+        <v>47</v>
+      </c>
+      <c r="F184" t="s">
         <v>48</v>
-      </c>
-      <c r="F184" t="s">
-        <v>49</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16307,7 +16304,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J184">
         <v>3.3</v>
@@ -16375,16 +16372,16 @@
         <v>6836235</v>
       </c>
       <c r="C185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D185" s="2">
         <v>45319.625</v>
       </c>
       <c r="E185" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F185" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -16393,7 +16390,7 @@
         <v>3</v>
       </c>
       <c r="I185" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J185">
         <v>2.7</v>
@@ -16461,16 +16458,16 @@
         <v>6835791</v>
       </c>
       <c r="C186" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D186" s="2">
         <v>45320.625</v>
       </c>
       <c r="E186" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F186" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G186">
         <v>4</v>
@@ -16479,7 +16476,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J186">
         <v>1.571</v>
@@ -16547,16 +16544,16 @@
         <v>6836241</v>
       </c>
       <c r="C187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D187" s="2">
         <v>45324.5</v>
       </c>
       <c r="E187" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F187" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G187">
         <v>2</v>
@@ -16565,7 +16562,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J187">
         <v>2.5</v>
@@ -16633,16 +16630,16 @@
         <v>6836245</v>
       </c>
       <c r="C188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D188" s="2">
         <v>45324.625</v>
       </c>
       <c r="E188" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F188" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16651,7 +16648,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J188">
         <v>1.909</v>
@@ -16719,16 +16716,16 @@
         <v>6836242</v>
       </c>
       <c r="C189" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D189" s="2">
         <v>45325.5</v>
       </c>
       <c r="E189" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -16737,7 +16734,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J189">
         <v>3</v>
@@ -16805,16 +16802,16 @@
         <v>6835217</v>
       </c>
       <c r="C190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D190" s="2">
         <v>45325.625</v>
       </c>
       <c r="E190" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F190" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G190">
         <v>2</v>
@@ -16823,7 +16820,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J190">
         <v>1.8</v>
@@ -16891,16 +16888,16 @@
         <v>6836243</v>
       </c>
       <c r="C191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D191" s="2">
         <v>45326.33333333334</v>
       </c>
       <c r="E191" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F191" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16909,7 +16906,7 @@
         <v>3</v>
       </c>
       <c r="I191" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J191">
         <v>1.8</v>
@@ -16977,16 +16974,16 @@
         <v>6836244</v>
       </c>
       <c r="C192" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D192" s="2">
         <v>45326.4375</v>
       </c>
       <c r="E192" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F192" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -16995,7 +16992,7 @@
         <v>3</v>
       </c>
       <c r="I192" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J192">
         <v>2.6</v>
@@ -17063,16 +17060,16 @@
         <v>6835792</v>
       </c>
       <c r="C193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D193" s="2">
         <v>45327.5</v>
       </c>
       <c r="E193" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17081,7 +17078,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J193">
         <v>2.6</v>
@@ -17149,16 +17146,16 @@
         <v>6836246</v>
       </c>
       <c r="C194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D194" s="2">
         <v>45327.625</v>
       </c>
       <c r="E194" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F194" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17167,7 +17164,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J194">
         <v>1.8</v>
@@ -17235,16 +17232,16 @@
         <v>6836251</v>
       </c>
       <c r="C195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D195" s="2">
         <v>45331.5</v>
       </c>
       <c r="E195" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F195" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17253,7 +17250,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J195">
         <v>2.4</v>
@@ -17321,16 +17318,16 @@
         <v>6836250</v>
       </c>
       <c r="C196" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D196" s="2">
         <v>45331.625</v>
       </c>
       <c r="E196" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -17339,7 +17336,7 @@
         <v>2</v>
       </c>
       <c r="I196" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J196">
         <v>1.85</v>
@@ -17407,16 +17404,16 @@
         <v>6835793</v>
       </c>
       <c r="C197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D197" s="2">
         <v>45332.375</v>
       </c>
       <c r="E197" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F197" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -17425,7 +17422,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J197">
         <v>2.45</v>
@@ -17493,16 +17490,16 @@
         <v>6835218</v>
       </c>
       <c r="C198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D198" s="2">
         <v>45332.67708333334</v>
       </c>
       <c r="E198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F198" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -17511,7 +17508,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J198">
         <v>2.15</v>
@@ -17579,17 +17576,17 @@
         <v>6836247</v>
       </c>
       <c r="C199" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D199" s="2">
         <v>45333.55208333334</v>
       </c>
       <c r="E199" t="s">
+        <v>38</v>
+      </c>
+      <c r="F199" t="s">
         <v>39</v>
       </c>
-      <c r="F199" t="s">
-        <v>40</v>
-      </c>
       <c r="G199">
         <v>0</v>
       </c>
@@ -17597,7 +17594,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J199">
         <v>2.25</v>
@@ -17665,16 +17662,16 @@
         <v>6836252</v>
       </c>
       <c r="C200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D200" s="2">
         <v>45333.65625</v>
       </c>
       <c r="E200" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F200" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -17683,7 +17680,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J200">
         <v>1.666</v>
@@ -17751,16 +17748,16 @@
         <v>6836249</v>
       </c>
       <c r="C201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D201" s="2">
         <v>45334.5</v>
       </c>
       <c r="E201" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F201" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17769,7 +17766,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J201">
         <v>1.909</v>
@@ -17837,16 +17834,16 @@
         <v>6836253</v>
       </c>
       <c r="C202" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D202" s="2">
         <v>45334.625</v>
       </c>
       <c r="E202" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F202" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17855,7 +17852,7 @@
         <v>2</v>
       </c>
       <c r="I202" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J202">
         <v>1.55</v>
@@ -17923,16 +17920,16 @@
         <v>6836254</v>
       </c>
       <c r="C203" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D203" s="2">
         <v>45338.5</v>
       </c>
       <c r="E203" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F203" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17941,7 +17938,7 @@
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J203">
         <v>2.15</v>
@@ -18009,17 +18006,17 @@
         <v>6835219</v>
       </c>
       <c r="C204" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D204" s="2">
         <v>45338.625</v>
       </c>
       <c r="E204" t="s">
+        <v>37</v>
+      </c>
+      <c r="F204" t="s">
         <v>38</v>
       </c>
-      <c r="F204" t="s">
-        <v>39</v>
-      </c>
       <c r="G204">
         <v>2</v>
       </c>
@@ -18027,7 +18024,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J204">
         <v>1.833</v>
@@ -18095,16 +18092,16 @@
         <v>6835794</v>
       </c>
       <c r="C205" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D205" s="2">
         <v>45339.375</v>
       </c>
       <c r="E205" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F205" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -18113,7 +18110,7 @@
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J205">
         <v>2.4</v>
@@ -18181,16 +18178,16 @@
         <v>6836256</v>
       </c>
       <c r="C206" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D206" s="2">
         <v>45339.6875</v>
       </c>
       <c r="E206" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -18199,7 +18196,7 @@
         <v>3</v>
       </c>
       <c r="I206" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J206">
         <v>3.1</v>
@@ -18267,17 +18264,17 @@
         <v>6836255</v>
       </c>
       <c r="C207" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D207" s="2">
         <v>45340.51041666666</v>
       </c>
       <c r="E207" t="s">
+        <v>49</v>
+      </c>
+      <c r="F207" t="s">
         <v>50</v>
       </c>
-      <c r="F207" t="s">
-        <v>51</v>
-      </c>
       <c r="G207">
         <v>2</v>
       </c>
@@ -18285,7 +18282,7 @@
         <v>2</v>
       </c>
       <c r="I207" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J207">
         <v>3.4</v>
@@ -18353,16 +18350,16 @@
         <v>6836258</v>
       </c>
       <c r="C208" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D208" s="2">
         <v>45340.625</v>
       </c>
       <c r="E208" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G208">
         <v>3</v>
@@ -18371,7 +18368,7 @@
         <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J208">
         <v>2.5</v>
@@ -18439,16 +18436,16 @@
         <v>6836259</v>
       </c>
       <c r="C209" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D209" s="2">
         <v>45341.52083333334</v>
       </c>
       <c r="E209" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F209" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -18457,7 +18454,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J209">
         <v>2.3</v>
@@ -18525,16 +18522,16 @@
         <v>6836257</v>
       </c>
       <c r="C210" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D210" s="2">
         <v>45341.64583333334</v>
       </c>
       <c r="E210" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F210" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -18543,7 +18540,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J210">
         <v>3.6</v>
@@ -18611,16 +18608,16 @@
         <v>6836260</v>
       </c>
       <c r="C211" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D211" s="2">
         <v>45345.5</v>
       </c>
       <c r="E211" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F211" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18629,7 +18626,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J211">
         <v>2.1</v>
@@ -18697,16 +18694,16 @@
         <v>6836263</v>
       </c>
       <c r="C212" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D212" s="2">
         <v>45345.625</v>
       </c>
       <c r="E212" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F212" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G212">
         <v>4</v>
@@ -18715,7 +18712,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J212">
         <v>1.5</v>
@@ -18783,16 +18780,16 @@
         <v>6836261</v>
       </c>
       <c r="C213" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D213" s="2">
         <v>45346.375</v>
       </c>
       <c r="E213" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F213" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -18801,7 +18798,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J213">
         <v>2.4</v>
@@ -18869,16 +18866,16 @@
         <v>6836265</v>
       </c>
       <c r="C214" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D214" s="2">
         <v>45346.5</v>
       </c>
       <c r="E214" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F214" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -18887,7 +18884,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J214">
         <v>1.833</v>
@@ -18955,16 +18952,16 @@
         <v>6835220</v>
       </c>
       <c r="C215" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D215" s="2">
         <v>45346.625</v>
       </c>
       <c r="E215" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F215" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G215">
         <v>3</v>
@@ -18973,7 +18970,7 @@
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J215">
         <v>4.2</v>
@@ -19041,16 +19038,16 @@
         <v>6836264</v>
       </c>
       <c r="C216" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D216" s="2">
         <v>45347.375</v>
       </c>
       <c r="E216" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F216" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -19059,7 +19056,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J216">
         <v>2.25</v>
@@ -19127,16 +19124,16 @@
         <v>6836262</v>
       </c>
       <c r="C217" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D217" s="2">
         <v>45347.625</v>
       </c>
       <c r="E217" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F217" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G217">
         <v>3</v>
@@ -19145,7 +19142,7 @@
         <v>2</v>
       </c>
       <c r="I217" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J217">
         <v>1.363</v>
@@ -19213,16 +19210,16 @@
         <v>6835795</v>
       </c>
       <c r="C218" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D218" s="2">
         <v>45348.625</v>
       </c>
       <c r="E218" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F218" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19231,7 +19228,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J218">
         <v>1.533</v>
@@ -19299,16 +19296,16 @@
         <v>6836267</v>
       </c>
       <c r="C219" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D219" s="2">
         <v>45349.46875</v>
       </c>
       <c r="E219" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F219" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19317,7 +19314,7 @@
         <v>1</v>
       </c>
       <c r="I219" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J219">
         <v>1.615</v>
@@ -19385,16 +19382,16 @@
         <v>6836266</v>
       </c>
       <c r="C220" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D220" s="2">
         <v>45349.5625</v>
       </c>
       <c r="E220" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F220" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -19403,7 +19400,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J220">
         <v>2.3</v>
@@ -19471,16 +19468,16 @@
         <v>6836271</v>
       </c>
       <c r="C221" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D221" s="2">
         <v>45349.66666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F221" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G221">
         <v>2</v>
@@ -19489,7 +19486,7 @@
         <v>2</v>
       </c>
       <c r="I221" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J221">
         <v>4.2</v>
@@ -19557,16 +19554,16 @@
         <v>6836272</v>
       </c>
       <c r="C222" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D222" s="2">
         <v>45350.5625</v>
       </c>
       <c r="E222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -19575,7 +19572,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J222">
         <v>2.7</v>
@@ -19643,16 +19640,16 @@
         <v>6835221</v>
       </c>
       <c r="C223" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D223" s="2">
         <v>45350.66666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F223" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G223">
         <v>4</v>
@@ -19661,7 +19658,7 @@
         <v>1</v>
       </c>
       <c r="I223" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J223">
         <v>1.727</v>
@@ -19729,16 +19726,16 @@
         <v>6836270</v>
       </c>
       <c r="C224" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D224" s="2">
         <v>45351.46875</v>
       </c>
       <c r="E224" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F224" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19747,7 +19744,7 @@
         <v>2</v>
       </c>
       <c r="I224" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J224">
         <v>3.2</v>
@@ -19815,16 +19812,16 @@
         <v>6836268</v>
       </c>
       <c r="C225" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D225" s="2">
         <v>45351.5625</v>
       </c>
       <c r="E225" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F225" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -19833,7 +19830,7 @@
         <v>3</v>
       </c>
       <c r="I225" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J225">
         <v>3</v>
@@ -19901,16 +19898,16 @@
         <v>6836269</v>
       </c>
       <c r="C226" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D226" s="2">
         <v>45351.66666666666</v>
       </c>
       <c r="E226" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F226" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -19919,7 +19916,7 @@
         <v>2</v>
       </c>
       <c r="I226" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J226">
         <v>4</v>
@@ -19987,16 +19984,16 @@
         <v>6836274</v>
       </c>
       <c r="C227" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D227" s="2">
         <v>45352.625</v>
       </c>
       <c r="E227" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F227" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -20005,7 +20002,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J227">
         <v>2.4</v>
@@ -20073,16 +20070,16 @@
         <v>6836275</v>
       </c>
       <c r="C228" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D228" s="2">
         <v>45353.375</v>
       </c>
       <c r="E228" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F228" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G228">
         <v>3</v>
@@ -20091,7 +20088,7 @@
         <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J228">
         <v>2.25</v>
@@ -20159,16 +20156,16 @@
         <v>6836273</v>
       </c>
       <c r="C229" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D229" s="2">
         <v>45353.5</v>
       </c>
       <c r="E229" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F229" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G229">
         <v>4</v>
@@ -20177,7 +20174,7 @@
         <v>1</v>
       </c>
       <c r="I229" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J229">
         <v>2.1</v>
@@ -20245,16 +20242,16 @@
         <v>6907421</v>
       </c>
       <c r="C230" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D230" s="2">
         <v>45353.625</v>
       </c>
       <c r="E230" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F230" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20263,7 +20260,7 @@
         <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J230">
         <v>2.7</v>
@@ -20331,16 +20328,16 @@
         <v>6838744</v>
       </c>
       <c r="C231" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D231" s="2">
         <v>45354.39583333334</v>
       </c>
       <c r="E231" t="s">
+        <v>48</v>
+      </c>
+      <c r="F231" t="s">
         <v>49</v>
-      </c>
-      <c r="F231" t="s">
-        <v>50</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -20349,7 +20346,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J231">
         <v>1.8</v>
@@ -20417,16 +20414,16 @@
         <v>6848293</v>
       </c>
       <c r="C232" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D232" s="2">
         <v>45354.64583333334</v>
       </c>
       <c r="E232" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F232" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -20435,7 +20432,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J232">
         <v>1.6</v>
@@ -20503,16 +20500,16 @@
         <v>6848294</v>
       </c>
       <c r="C233" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D233" s="2">
         <v>45355.5</v>
       </c>
       <c r="E233" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F233" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G233">
         <v>4</v>
@@ -20521,7 +20518,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J233">
         <v>1.8</v>
@@ -20589,16 +20586,16 @@
         <v>6836276</v>
       </c>
       <c r="C234" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D234" s="2">
         <v>45355.625</v>
       </c>
       <c r="E234" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F234" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -20607,7 +20604,7 @@
         <v>1</v>
       </c>
       <c r="I234" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J234">
         <v>2.5</v>
@@ -20675,16 +20672,16 @@
         <v>6836277</v>
       </c>
       <c r="C235" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D235" s="2">
         <v>45359.625</v>
       </c>
       <c r="E235" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F235" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -20693,7 +20690,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J235">
         <v>1.7</v>
@@ -20761,16 +20758,16 @@
         <v>6852370</v>
       </c>
       <c r="C236" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D236" s="2">
         <v>45359.625</v>
       </c>
       <c r="E236" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F236" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -20779,7 +20776,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J236">
         <v>2.55</v>
@@ -20847,16 +20844,16 @@
         <v>6870268</v>
       </c>
       <c r="C237" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D237" s="2">
         <v>45359.625</v>
       </c>
       <c r="E237" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F237" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G237">
         <v>1</v>
@@ -20865,7 +20862,7 @@
         <v>2</v>
       </c>
       <c r="I237" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J237">
         <v>2.8</v>
@@ -20933,16 +20930,16 @@
         <v>6861095</v>
       </c>
       <c r="C238" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D238" s="2">
         <v>45359.625</v>
       </c>
       <c r="E238" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F238" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -20951,7 +20948,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J238">
         <v>3.75</v>
@@ -21019,16 +21016,16 @@
         <v>6865915</v>
       </c>
       <c r="C239" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D239" s="2">
         <v>45359.625</v>
       </c>
       <c r="E239" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F239" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -21037,7 +21034,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J239">
         <v>3.5</v>
@@ -21105,16 +21102,16 @@
         <v>6870267</v>
       </c>
       <c r="C240" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D240" s="2">
         <v>45360.625</v>
       </c>
       <c r="E240" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F240" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -21123,7 +21120,7 @@
         <v>4</v>
       </c>
       <c r="I240" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J240">
         <v>2.45</v>
@@ -21191,16 +21188,16 @@
         <v>6836278</v>
       </c>
       <c r="C241" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D241" s="2">
         <v>45361.65625</v>
       </c>
       <c r="E241" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F241" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -21209,7 +21206,7 @@
         <v>2</v>
       </c>
       <c r="I241" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J241">
         <v>3.6</v>
@@ -21277,16 +21274,16 @@
         <v>6836954</v>
       </c>
       <c r="C242" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D242" s="2">
         <v>45362.625</v>
       </c>
       <c r="E242" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F242" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -21295,7 +21292,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J242">
         <v>2.15</v>
@@ -21363,16 +21360,16 @@
         <v>7951557</v>
       </c>
       <c r="C243" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D243" s="2">
         <v>45366.52083333334</v>
       </c>
       <c r="E243" t="s">
+        <v>48</v>
+      </c>
+      <c r="F243" t="s">
         <v>49</v>
-      </c>
-      <c r="F243" t="s">
-        <v>50</v>
       </c>
       <c r="G243">
         <v>3</v>
@@ -21381,7 +21378,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J243">
         <v>1.615</v>
@@ -21449,16 +21446,16 @@
         <v>7949044</v>
       </c>
       <c r="C244" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D244" s="2">
         <v>45366.64583333334</v>
       </c>
       <c r="E244" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F244" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -21467,7 +21464,7 @@
         <v>2</v>
       </c>
       <c r="I244" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J244">
         <v>1.75</v>
@@ -21535,16 +21532,16 @@
         <v>7951558</v>
       </c>
       <c r="C245" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D245" s="2">
         <v>45367.5</v>
       </c>
       <c r="E245" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F245" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G245">
         <v>1</v>
@@ -21553,7 +21550,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J245">
         <v>2.1</v>
@@ -21621,16 +21618,16 @@
         <v>7949046</v>
       </c>
       <c r="C246" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D246" s="2">
         <v>45367.625</v>
       </c>
       <c r="E246" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F246" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G246">
         <v>1</v>
@@ -21639,7 +21636,7 @@
         <v>2</v>
       </c>
       <c r="I246" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J246">
         <v>2.05</v>
@@ -21707,16 +21704,16 @@
         <v>7951775</v>
       </c>
       <c r="C247" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D247" s="2">
         <v>45368.55208333334</v>
       </c>
       <c r="E247" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F247" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G247">
         <v>3</v>
@@ -21725,7 +21722,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J247">
         <v>1.909</v>
@@ -21793,16 +21790,16 @@
         <v>7953049</v>
       </c>
       <c r="C248" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D248" s="2">
         <v>45368.66666666666</v>
       </c>
       <c r="E248" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F248" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G248">
         <v>2</v>
@@ -21811,7 +21808,7 @@
         <v>1</v>
       </c>
       <c r="I248" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J248">
         <v>1.65</v>
@@ -21879,16 +21876,16 @@
         <v>7951776</v>
       </c>
       <c r="C249" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D249" s="2">
         <v>45369.52083333334</v>
       </c>
       <c r="E249" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F249" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G249">
         <v>4</v>
@@ -21897,7 +21894,7 @@
         <v>3</v>
       </c>
       <c r="I249" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J249">
         <v>1.909</v>
@@ -21965,16 +21962,16 @@
         <v>7951777</v>
       </c>
       <c r="C250" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D250" s="2">
         <v>45369.64583333334</v>
       </c>
       <c r="E250" t="s">
+        <v>39</v>
+      </c>
+      <c r="F250" t="s">
         <v>40</v>
-      </c>
-      <c r="F250" t="s">
-        <v>41</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -21983,7 +21980,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J250">
         <v>2.25</v>
@@ -22051,16 +22048,16 @@
         <v>7951781</v>
       </c>
       <c r="C251" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D251" s="2">
         <v>45380.52083333334</v>
       </c>
       <c r="E251" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F251" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -22069,7 +22066,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J251">
         <v>3</v>
@@ -22137,16 +22134,16 @@
         <v>7951750</v>
       </c>
       <c r="C252" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D252" s="2">
         <v>45380.64583333334</v>
       </c>
       <c r="E252" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F252" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G252">
         <v>1</v>
@@ -22155,7 +22152,7 @@
         <v>1</v>
       </c>
       <c r="I252" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J252">
         <v>3.3</v>
@@ -22223,16 +22220,16 @@
         <v>8010912</v>
       </c>
       <c r="C253" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D253" s="2">
         <v>45381.44791666666</v>
       </c>
       <c r="E253" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F253" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G253">
         <v>2</v>
@@ -22241,7 +22238,7 @@
         <v>1</v>
       </c>
       <c r="I253" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J253">
         <v>2.55</v>
@@ -22309,16 +22306,16 @@
         <v>8010913</v>
       </c>
       <c r="C254" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D254" s="2">
         <v>45381.54166666666</v>
       </c>
       <c r="E254" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F254" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -22327,7 +22324,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J254">
         <v>1.95</v>
@@ -22395,16 +22392,16 @@
         <v>7951749</v>
       </c>
       <c r="C255" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D255" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E255" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F255" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G255">
         <v>2</v>
@@ -22413,7 +22410,7 @@
         <v>1</v>
       </c>
       <c r="I255" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J255">
         <v>2.1</v>
@@ -22481,16 +22478,16 @@
         <v>7951779</v>
       </c>
       <c r="C256" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D256" s="2">
         <v>45382.33333333334</v>
       </c>
       <c r="E256" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F256" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G256">
         <v>1</v>
@@ -22499,7 +22496,7 @@
         <v>2</v>
       </c>
       <c r="I256" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J256">
         <v>2.3</v>
@@ -22567,16 +22564,16 @@
         <v>7951748</v>
       </c>
       <c r="C257" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D257" s="2">
         <v>45382.625</v>
       </c>
       <c r="E257" t="s">
+        <v>45</v>
+      </c>
+      <c r="F257" t="s">
         <v>46</v>
-      </c>
-      <c r="F257" t="s">
-        <v>47</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -22585,7 +22582,7 @@
         <v>1</v>
       </c>
       <c r="I257" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J257">
         <v>3.6</v>
@@ -22653,16 +22650,16 @@
         <v>7951780</v>
       </c>
       <c r="C258" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D258" s="2">
         <v>45383.60416666666</v>
       </c>
       <c r="E258" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F258" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -22671,7 +22668,7 @@
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J258">
         <v>2.3</v>
@@ -22739,16 +22736,16 @@
         <v>7951783</v>
       </c>
       <c r="C259" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D259" s="2">
         <v>45387.47916666666</v>
       </c>
       <c r="E259" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F259" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -22757,7 +22754,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J259">
         <v>1.95</v>
@@ -22825,16 +22822,16 @@
         <v>7951753</v>
       </c>
       <c r="C260" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D260" s="2">
         <v>45387.60416666666</v>
       </c>
       <c r="E260" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F260" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G260">
         <v>1</v>
@@ -22843,7 +22840,7 @@
         <v>1</v>
       </c>
       <c r="I260" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J260">
         <v>2.15</v>
@@ -22911,16 +22908,16 @@
         <v>7951785</v>
       </c>
       <c r="C261" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D261" s="2">
         <v>45388.47916666666</v>
       </c>
       <c r="E261" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F261" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -22929,7 +22926,7 @@
         <v>4</v>
       </c>
       <c r="I261" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J261">
         <v>1.95</v>
@@ -22997,16 +22994,16 @@
         <v>7951752</v>
       </c>
       <c r="C262" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D262" s="2">
         <v>45388.60416666666</v>
       </c>
       <c r="E262" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F262" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -23015,7 +23012,7 @@
         <v>4</v>
       </c>
       <c r="I262" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J262">
         <v>2.8</v>
@@ -23083,16 +23080,16 @@
         <v>7951784</v>
       </c>
       <c r="C263" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D263" s="2">
         <v>45389.35416666666</v>
       </c>
       <c r="E263" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F263" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G263">
         <v>1</v>
@@ -23101,7 +23098,7 @@
         <v>1</v>
       </c>
       <c r="I263" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J263">
         <v>2.4</v>
@@ -23169,25 +23166,25 @@
         <v>7951751</v>
       </c>
       <c r="C264" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D264" s="2">
         <v>45389.60416666666</v>
       </c>
       <c r="E264" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F264" t="s">
+        <v>50</v>
+      </c>
+      <c r="G264">
+        <v>2</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264" t="s">
         <v>51</v>
-      </c>
-      <c r="G264">
-        <v>2</v>
-      </c>
-      <c r="H264">
-        <v>0</v>
-      </c>
-      <c r="I264" t="s">
-        <v>52</v>
       </c>
       <c r="J264">
         <v>1.85</v>
@@ -23255,16 +23252,16 @@
         <v>7951787</v>
       </c>
       <c r="C265" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D265" s="2">
         <v>45390.47916666666</v>
       </c>
       <c r="E265" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F265" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -23273,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J265">
         <v>2.2</v>
@@ -23341,16 +23338,16 @@
         <v>7951786</v>
       </c>
       <c r="C266" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D266" s="2">
         <v>45390.60416666666</v>
       </c>
       <c r="E266" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F266" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -23359,7 +23356,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J266">
         <v>2.05</v>
@@ -23427,16 +23424,16 @@
         <v>7951792</v>
       </c>
       <c r="C267" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D267" s="2">
         <v>45394.47916666666</v>
       </c>
       <c r="E267" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F267" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -23445,7 +23442,7 @@
         <v>3</v>
       </c>
       <c r="I267" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J267">
         <v>2.3</v>
@@ -23513,16 +23510,16 @@
         <v>7951755</v>
       </c>
       <c r="C268" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D268" s="2">
         <v>45394.60416666666</v>
       </c>
       <c r="E268" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F268" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -23531,7 +23528,7 @@
         <v>2</v>
       </c>
       <c r="I268" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J268">
         <v>1.8</v>
@@ -23599,16 +23596,16 @@
         <v>7951790</v>
       </c>
       <c r="C269" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D269" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E269" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F269" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -23617,7 +23614,7 @@
         <v>1</v>
       </c>
       <c r="I269" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J269">
         <v>2.4</v>
@@ -23685,16 +23682,16 @@
         <v>7951791</v>
       </c>
       <c r="C270" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D270" s="2">
         <v>45395.64583333334</v>
       </c>
       <c r="E270" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F270" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -23703,7 +23700,7 @@
         <v>2</v>
       </c>
       <c r="I270" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J270">
         <v>1.909</v>
@@ -23771,16 +23768,16 @@
         <v>7951788</v>
       </c>
       <c r="C271" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D271" s="2">
         <v>45396.3125</v>
       </c>
       <c r="E271" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F271" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G271">
         <v>4</v>
@@ -23789,7 +23786,7 @@
         <v>1</v>
       </c>
       <c r="I271" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J271">
         <v>2.4</v>
@@ -23857,16 +23854,16 @@
         <v>7951789</v>
       </c>
       <c r="C272" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D272" s="2">
         <v>45396.51041666666</v>
       </c>
       <c r="E272" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F272" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -23875,7 +23872,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J272">
         <v>2.25</v>
@@ -23943,16 +23940,16 @@
         <v>7951754</v>
       </c>
       <c r="C273" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D273" s="2">
         <v>45396.625</v>
       </c>
       <c r="E273" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F273" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -23961,7 +23958,7 @@
         <v>1</v>
       </c>
       <c r="I273" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J273">
         <v>2.3</v>
@@ -24029,16 +24026,16 @@
         <v>7951756</v>
       </c>
       <c r="C274" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D274" s="2">
         <v>45397.60416666666</v>
       </c>
       <c r="E274" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F274" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -24047,7 +24044,7 @@
         <v>1</v>
       </c>
       <c r="I274" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J274">
         <v>1.95</v>
@@ -24115,16 +24112,16 @@
         <v>7951793</v>
       </c>
       <c r="C275" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D275" s="2">
         <v>45401.47916666666</v>
       </c>
       <c r="E275" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F275" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G275">
         <v>1</v>
@@ -24133,7 +24130,7 @@
         <v>1</v>
       </c>
       <c r="I275" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J275">
         <v>1.909</v>
@@ -24201,16 +24198,16 @@
         <v>7951758</v>
       </c>
       <c r="C276" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D276" s="2">
         <v>45401.60416666666</v>
       </c>
       <c r="E276" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F276" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G276">
         <v>5</v>
@@ -24219,7 +24216,7 @@
         <v>1</v>
       </c>
       <c r="I276" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J276">
         <v>3.1</v>
@@ -24287,16 +24284,16 @@
         <v>7951796</v>
       </c>
       <c r="C277" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D277" s="2">
         <v>45402.375</v>
       </c>
       <c r="E277" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F277" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G277">
         <v>3</v>
@@ -24305,7 +24302,7 @@
         <v>1</v>
       </c>
       <c r="I277" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J277">
         <v>2.25</v>
@@ -24373,16 +24370,16 @@
         <v>7951797</v>
       </c>
       <c r="C278" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D278" s="2">
         <v>45402.47916666666</v>
       </c>
       <c r="E278" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F278" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -24391,7 +24388,7 @@
         <v>1</v>
       </c>
       <c r="I278" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J278">
         <v>2.2</v>
@@ -24459,16 +24456,16 @@
         <v>7951757</v>
       </c>
       <c r="C279" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D279" s="2">
         <v>45402.60416666666</v>
       </c>
       <c r="E279" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F279" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G279">
         <v>2</v>
@@ -24477,7 +24474,7 @@
         <v>2</v>
       </c>
       <c r="I279" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J279">
         <v>1.85</v>
@@ -24545,16 +24542,16 @@
         <v>7951795</v>
       </c>
       <c r="C280" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D280" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E280" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F280" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G280">
         <v>1</v>
@@ -24563,7 +24560,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J280">
         <v>2.75</v>
@@ -24631,16 +24628,16 @@
         <v>7951759</v>
       </c>
       <c r="C281" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D281" s="2">
         <v>45403.54166666666</v>
       </c>
       <c r="E281" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F281" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -24649,7 +24646,7 @@
         <v>3</v>
       </c>
       <c r="I281" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J281">
         <v>2.6</v>
@@ -24717,16 +24714,16 @@
         <v>7951794</v>
       </c>
       <c r="C282" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D282" s="2">
         <v>45404.54166666666</v>
       </c>
       <c r="E282" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F282" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -24735,7 +24732,7 @@
         <v>1</v>
       </c>
       <c r="I282" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J282">
         <v>2.1</v>
@@ -24803,16 +24800,16 @@
         <v>7951799</v>
       </c>
       <c r="C283" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D283" s="2">
         <v>45405.45833333334</v>
       </c>
       <c r="E283" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F283" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -24821,7 +24818,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J283">
         <v>2.375</v>
@@ -24889,16 +24886,16 @@
         <v>7951798</v>
       </c>
       <c r="C284" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D284" s="2">
         <v>45405.5625</v>
       </c>
       <c r="E284" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F284" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G284">
         <v>2</v>
@@ -24907,7 +24904,7 @@
         <v>1</v>
       </c>
       <c r="I284" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J284">
         <v>2.375</v>
@@ -24975,16 +24972,16 @@
         <v>7951800</v>
       </c>
       <c r="C285" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D285" s="2">
         <v>45406.44791666666</v>
       </c>
       <c r="E285" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F285" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G285">
         <v>1</v>
@@ -24993,7 +24990,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J285">
         <v>1.75</v>
@@ -25061,16 +25058,16 @@
         <v>7951761</v>
       </c>
       <c r="C286" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D286" s="2">
         <v>45406.54166666666</v>
       </c>
       <c r="E286" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F286" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G286">
         <v>3</v>
@@ -25079,7 +25076,7 @@
         <v>1</v>
       </c>
       <c r="I286" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J286">
         <v>2.625</v>
@@ -25147,16 +25144,16 @@
         <v>7951760</v>
       </c>
       <c r="C287" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D287" s="2">
         <v>45406.65625</v>
       </c>
       <c r="E287" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F287" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G287">
         <v>2</v>
@@ -25165,7 +25162,7 @@
         <v>2</v>
       </c>
       <c r="I287" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J287">
         <v>3.1</v>
@@ -25233,16 +25230,16 @@
         <v>7951801</v>
       </c>
       <c r="C288" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D288" s="2">
         <v>45407.44791666666</v>
       </c>
       <c r="E288" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F288" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G288">
         <v>3</v>
@@ -25251,7 +25248,7 @@
         <v>1</v>
       </c>
       <c r="I288" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J288">
         <v>2.3</v>
@@ -25319,17 +25316,17 @@
         <v>7951802</v>
       </c>
       <c r="C289" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D289" s="2">
         <v>45407.54166666666</v>
       </c>
       <c r="E289" t="s">
+        <v>38</v>
+      </c>
+      <c r="F289" t="s">
         <v>39</v>
       </c>
-      <c r="F289" t="s">
-        <v>40</v>
-      </c>
       <c r="G289">
         <v>2</v>
       </c>
@@ -25337,7 +25334,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J289">
         <v>1.95</v>
@@ -25405,16 +25402,16 @@
         <v>7951762</v>
       </c>
       <c r="C290" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D290" s="2">
         <v>45407.65625</v>
       </c>
       <c r="E290" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F290" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G290">
         <v>0</v>
@@ -25423,7 +25420,7 @@
         <v>1</v>
       </c>
       <c r="I290" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J290">
         <v>2.375</v>
@@ -25491,16 +25488,16 @@
         <v>7951807</v>
       </c>
       <c r="C291" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D291" s="2">
         <v>45408.58333333334</v>
       </c>
       <c r="E291" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F291" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G291">
         <v>1</v>
@@ -25509,7 +25506,7 @@
         <v>1</v>
       </c>
       <c r="I291" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J291">
         <v>2.2</v>
@@ -25577,16 +25574,16 @@
         <v>7951806</v>
       </c>
       <c r="C292" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D292" s="2">
         <v>45409.47916666666</v>
       </c>
       <c r="E292" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F292" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G292">
         <v>3</v>
@@ -25595,7 +25592,7 @@
         <v>2</v>
       </c>
       <c r="I292" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J292">
         <v>2.4</v>
@@ -25663,16 +25660,16 @@
         <v>7951763</v>
       </c>
       <c r="C293" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D293" s="2">
         <v>45409.60416666666</v>
       </c>
       <c r="E293" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F293" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G293">
         <v>2</v>
@@ -25681,7 +25678,7 @@
         <v>1</v>
       </c>
       <c r="I293" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J293">
         <v>1.909</v>
@@ -25749,16 +25746,16 @@
         <v>7951804</v>
       </c>
       <c r="C294" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D294" s="2">
         <v>45410.3125</v>
       </c>
       <c r="E294" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F294" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G294">
         <v>1</v>
@@ -25767,7 +25764,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J294">
         <v>2.4</v>
@@ -25835,16 +25832,16 @@
         <v>7951805</v>
       </c>
       <c r="C295" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D295" s="2">
         <v>45410.51041666666</v>
       </c>
       <c r="E295" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F295" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -25853,7 +25850,7 @@
         <v>2</v>
       </c>
       <c r="I295" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J295">
         <v>2.4</v>
@@ -25921,16 +25918,16 @@
         <v>7951765</v>
       </c>
       <c r="C296" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D296" s="2">
         <v>45410.625</v>
       </c>
       <c r="E296" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F296" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G296">
         <v>2</v>
@@ -25939,7 +25936,7 @@
         <v>1</v>
       </c>
       <c r="I296" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J296">
         <v>1.8</v>
@@ -26007,16 +26004,16 @@
         <v>7951803</v>
       </c>
       <c r="C297" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D297" s="2">
         <v>45411.47916666666</v>
       </c>
       <c r="E297" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F297" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G297">
         <v>1</v>
@@ -26025,7 +26022,7 @@
         <v>2</v>
       </c>
       <c r="I297" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J297">
         <v>1.909</v>
@@ -26093,16 +26090,16 @@
         <v>7951764</v>
       </c>
       <c r="C298" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D298" s="2">
         <v>45411.60416666666</v>
       </c>
       <c r="E298" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F298" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G298">
         <v>1</v>
@@ -26111,7 +26108,7 @@
         <v>2</v>
       </c>
       <c r="I298" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J298">
         <v>2.3</v>
@@ -26179,52 +26176,52 @@
         <v>27</v>
       </c>
       <c r="C299" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D299" s="2">
-        <v>45415.58333333334</v>
+        <v>45416.35416666666</v>
       </c>
       <c r="E299" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F299" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J299">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="K299">
+        <v>3</v>
+      </c>
+      <c r="L299">
         <v>3.3</v>
       </c>
-      <c r="L299">
-        <v>3.8</v>
-      </c>
       <c r="M299">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="N299">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O299">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="P299">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q299">
+        <v>1.925</v>
+      </c>
+      <c r="R299">
+        <v>1.925</v>
+      </c>
+      <c r="S299">
+        <v>2.5</v>
+      </c>
+      <c r="T299">
+        <v>2.025</v>
+      </c>
+      <c r="U299">
         <v>1.825</v>
-      </c>
-      <c r="R299">
-        <v>2.025</v>
-      </c>
-      <c r="S299">
-        <v>2.75</v>
-      </c>
-      <c r="T299">
-        <v>2</v>
-      </c>
-      <c r="U299">
-        <v>1.85</v>
       </c>
       <c r="V299">
         <v>0</v>
@@ -26244,13 +26241,13 @@
         <v>28</v>
       </c>
       <c r="C300" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D300" s="2">
-        <v>45416.35416666666</v>
+        <v>45416.58333333334</v>
       </c>
       <c r="E300" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F300" t="s">
         <v>42</v>
@@ -26259,37 +26256,37 @@
         <v>2.3</v>
       </c>
       <c r="K300">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L300">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M300">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N300">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O300">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="P300">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q300">
+        <v>2.05</v>
+      </c>
+      <c r="R300">
+        <v>1.8</v>
+      </c>
+      <c r="S300">
+        <v>2</v>
+      </c>
+      <c r="T300">
         <v>1.925</v>
       </c>
-      <c r="R300">
+      <c r="U300">
         <v>1.925</v>
-      </c>
-      <c r="S300">
-        <v>2.5</v>
-      </c>
-      <c r="T300">
-        <v>2.05</v>
-      </c>
-      <c r="U300">
-        <v>1.8</v>
       </c>
       <c r="V300">
         <v>0</v>
@@ -26309,52 +26306,52 @@
         <v>29</v>
       </c>
       <c r="C301" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D301" s="2">
-        <v>45416.58333333334</v>
+        <v>45417.39583333334</v>
       </c>
       <c r="E301" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F301" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J301">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K301">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L301">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M301">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="N301">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O301">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P301">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q301">
+        <v>1.925</v>
+      </c>
+      <c r="R301">
+        <v>1.925</v>
+      </c>
+      <c r="S301">
+        <v>2</v>
+      </c>
+      <c r="T301">
+        <v>1.975</v>
+      </c>
+      <c r="U301">
         <v>1.875</v>
-      </c>
-      <c r="R301">
-        <v>1.975</v>
-      </c>
-      <c r="S301">
-        <v>2</v>
-      </c>
-      <c r="T301">
-        <v>2.025</v>
-      </c>
-      <c r="U301">
-        <v>1.825</v>
       </c>
       <c r="V301">
         <v>0</v>
@@ -26374,52 +26371,52 @@
         <v>30</v>
       </c>
       <c r="C302" t="s">
+        <v>34</v>
+      </c>
+      <c r="D302" s="2">
+        <v>45417.64583333334</v>
+      </c>
+      <c r="E302" t="s">
         <v>35</v>
-      </c>
-      <c r="D302" s="2">
-        <v>45417.39583333334</v>
-      </c>
-      <c r="E302" t="s">
-        <v>40</v>
       </c>
       <c r="F302" t="s">
         <v>37</v>
       </c>
       <c r="J302">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="K302">
+        <v>4.333</v>
+      </c>
+      <c r="L302">
+        <v>7</v>
+      </c>
+      <c r="M302">
+        <v>1.4</v>
+      </c>
+      <c r="N302">
+        <v>4.5</v>
+      </c>
+      <c r="O302">
+        <v>7</v>
+      </c>
+      <c r="P302">
+        <v>-1.25</v>
+      </c>
+      <c r="Q302">
+        <v>1.875</v>
+      </c>
+      <c r="R302">
+        <v>1.975</v>
+      </c>
+      <c r="S302">
         <v>3</v>
       </c>
-      <c r="L302">
-        <v>3.6</v>
-      </c>
-      <c r="M302">
-        <v>2.2</v>
-      </c>
-      <c r="N302">
-        <v>3</v>
-      </c>
-      <c r="O302">
-        <v>3.6</v>
-      </c>
-      <c r="P302">
-        <v>-0.25</v>
-      </c>
-      <c r="Q302">
+      <c r="T302">
         <v>1.925</v>
       </c>
-      <c r="R302">
+      <c r="U302">
         <v>1.925</v>
-      </c>
-      <c r="S302">
-        <v>2</v>
-      </c>
-      <c r="T302">
-        <v>1.975</v>
-      </c>
-      <c r="U302">
-        <v>1.875</v>
       </c>
       <c r="V302">
         <v>0</v>
@@ -26439,37 +26436,37 @@
         <v>31</v>
       </c>
       <c r="C303" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D303" s="2">
-        <v>45417.64583333334</v>
+        <v>45418.375</v>
       </c>
       <c r="E303" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F303" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J303">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="K303">
+        <v>3.3</v>
+      </c>
+      <c r="L303">
+        <v>4.75</v>
+      </c>
+      <c r="M303">
+        <v>1.909</v>
+      </c>
+      <c r="N303">
+        <v>3.25</v>
+      </c>
+      <c r="O303">
         <v>4.333</v>
       </c>
-      <c r="L303">
-        <v>7</v>
-      </c>
-      <c r="M303">
-        <v>1.4</v>
-      </c>
-      <c r="N303">
-        <v>4.333</v>
-      </c>
-      <c r="O303">
-        <v>7</v>
-      </c>
       <c r="P303">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q303">
         <v>1.925</v>
@@ -26478,13 +26475,13 @@
         <v>1.925</v>
       </c>
       <c r="S303">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T303">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U303">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V303">
         <v>0</v>
@@ -26504,52 +26501,52 @@
         <v>32</v>
       </c>
       <c r="C304" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D304" s="2">
-        <v>45418.375</v>
+        <v>45418.5</v>
       </c>
       <c r="E304" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F304" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J304">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="K304">
+        <v>3.1</v>
+      </c>
+      <c r="L304">
         <v>3.3</v>
       </c>
-      <c r="L304">
-        <v>4.75</v>
-      </c>
       <c r="M304">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="N304">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O304">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P304">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q304">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R304">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S304">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T304">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U304">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V304">
         <v>0</v>
@@ -26569,52 +26566,52 @@
         <v>33</v>
       </c>
       <c r="C305" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D305" s="2">
-        <v>45418.5</v>
+        <v>45418.625</v>
       </c>
       <c r="E305" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F305" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J305">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="K305">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L305">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M305">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="N305">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O305">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P305">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q305">
+        <v>1.875</v>
+      </c>
+      <c r="R305">
         <v>1.975</v>
       </c>
-      <c r="R305">
-        <v>1.875</v>
-      </c>
       <c r="S305">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T305">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U305">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V305">
         <v>0</v>
@@ -26623,71 +26620,6 @@
         <v>0</v>
       </c>
       <c r="X305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:24">
-      <c r="A306" s="1">
-        <v>304</v>
-      </c>
-      <c r="B306" t="s">
-        <v>34</v>
-      </c>
-      <c r="C306" t="s">
-        <v>35</v>
-      </c>
-      <c r="D306" s="2">
-        <v>45418.625</v>
-      </c>
-      <c r="E306" t="s">
-        <v>51</v>
-      </c>
-      <c r="F306" t="s">
-        <v>47</v>
-      </c>
-      <c r="J306">
-        <v>1.85</v>
-      </c>
-      <c r="K306">
-        <v>3.4</v>
-      </c>
-      <c r="L306">
-        <v>4.2</v>
-      </c>
-      <c r="M306">
-        <v>1.727</v>
-      </c>
-      <c r="N306">
-        <v>3.6</v>
-      </c>
-      <c r="O306">
-        <v>4.75</v>
-      </c>
-      <c r="P306">
-        <v>-0.75</v>
-      </c>
-      <c r="Q306">
-        <v>1.95</v>
-      </c>
-      <c r="R306">
-        <v>1.9</v>
-      </c>
-      <c r="S306">
-        <v>2.75</v>
-      </c>
-      <c r="T306">
-        <v>1.925</v>
-      </c>
-      <c r="U306">
-        <v>1.925</v>
-      </c>
-      <c r="V306">
-        <v>0</v>
-      </c>
-      <c r="W306">
-        <v>0</v>
-      </c>
-      <c r="X306">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -26855,7 +26855,7 @@
         <v>30</v>
       </c>
       <c r="D307" s="2">
-        <v>45422.58333333334</v>
+        <v>45422.60416666666</v>
       </c>
       <c r="E307" t="s">
         <v>39</v>
@@ -26873,31 +26873,31 @@
         <v>2.625</v>
       </c>
       <c r="M307">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="N307">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O307">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="P307">
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R307">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S307">
         <v>2.75</v>
       </c>
       <c r="T307">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U307">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V307">
         <v>0</v>
@@ -27003,22 +27003,22 @@
         <v>2.55</v>
       </c>
       <c r="M309">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N309">
         <v>3.4</v>
       </c>
       <c r="O309">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P309">
         <v>-0.25</v>
       </c>
       <c r="Q309">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="R309">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S309">
         <v>2.75</v>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -101,6 +101,21 @@
   </si>
   <si>
     <t>7951769</t>
+  </si>
+  <si>
+    <t>8191462</t>
+  </si>
+  <si>
+    <t>8191463</t>
+  </si>
+  <si>
+    <t>8191475</t>
+  </si>
+  <si>
+    <t>8191476</t>
+  </si>
+  <si>
+    <t>8191523</t>
   </si>
   <si>
     <t>7951770</t>
@@ -525,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB309"/>
+  <dimension ref="A1:AB314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,16 +637,16 @@
         <v>6708870</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2">
         <v>45078.60416666666</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -640,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J2">
         <v>1.7</v>
@@ -708,16 +723,16 @@
         <v>6831816</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2">
         <v>45121.52083333334</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -726,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -794,16 +809,16 @@
         <v>6871393</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2">
         <v>45121.64583333334</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -812,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J4">
         <v>1.95</v>
@@ -880,16 +895,16 @@
         <v>6836102</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2">
         <v>45122.52083333334</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -898,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J5">
         <v>2.75</v>
@@ -966,16 +981,16 @@
         <v>6871392</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2">
         <v>45122.64583333334</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -984,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J6">
         <v>1.363</v>
@@ -1052,16 +1067,16 @@
         <v>6836106</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2">
         <v>45123.52083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1070,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J7">
         <v>2.5</v>
@@ -1138,16 +1153,16 @@
         <v>6836105</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2">
         <v>45123.64583333334</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1156,7 +1171,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J8">
         <v>3.4</v>
@@ -1224,16 +1239,16 @@
         <v>6831939</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2">
         <v>45124.52083333334</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1242,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J9">
         <v>2.05</v>
@@ -1310,16 +1325,16 @@
         <v>6836104</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2">
         <v>45124.64583333334</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1328,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J10">
         <v>3.5</v>
@@ -1396,16 +1411,16 @@
         <v>6836111</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2">
         <v>45128.52083333334</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1414,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J11">
         <v>1.75</v>
@@ -1482,16 +1497,16 @@
         <v>6836108</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2">
         <v>45128.64583333334</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1500,7 +1515,7 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J12">
         <v>3.5</v>
@@ -1568,16 +1583,16 @@
         <v>6835772</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2">
         <v>45129.51041666666</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1586,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1654,16 +1669,16 @@
         <v>6836110</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2">
         <v>45129.64583333334</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1672,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J14">
         <v>1.533</v>
@@ -1740,16 +1755,16 @@
         <v>6836107</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2">
         <v>45130.52083333334</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1758,7 +1773,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J15">
         <v>2.4</v>
@@ -1826,16 +1841,16 @@
         <v>6835195</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2">
         <v>45130.64583333334</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1844,7 +1859,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J16">
         <v>2.375</v>
@@ -1912,16 +1927,16 @@
         <v>6863931</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2">
         <v>45131.52083333334</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1930,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1998,16 +2013,16 @@
         <v>6836109</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2">
         <v>45131.64583333334</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2016,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J18">
         <v>1.5</v>
@@ -2084,16 +2099,16 @@
         <v>6836117</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2">
         <v>45135.52083333334</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -2102,7 +2117,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J19">
         <v>2.25</v>
@@ -2170,16 +2185,16 @@
         <v>6835196</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2">
         <v>45135.64583333334</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2188,7 +2203,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J20">
         <v>1.4</v>
@@ -2256,16 +2271,16 @@
         <v>6836113</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2">
         <v>45136.52083333334</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2274,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J21">
         <v>1.909</v>
@@ -2342,16 +2357,16 @@
         <v>6836115</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2">
         <v>45136.64583333334</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2360,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J22">
         <v>4.75</v>
@@ -2428,16 +2443,16 @@
         <v>6836118</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2446,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J23">
         <v>1.615</v>
@@ -2514,16 +2529,16 @@
         <v>6836114</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2">
         <v>45137.64583333334</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2532,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J24">
         <v>2.15</v>
@@ -2600,16 +2615,16 @@
         <v>6835773</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2">
         <v>45138.52083333334</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2618,7 +2633,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J25">
         <v>2.55</v>
@@ -2686,16 +2701,16 @@
         <v>6836116</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2">
         <v>45138.64583333334</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2704,7 +2719,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J26">
         <v>3.75</v>
@@ -2772,16 +2787,16 @@
         <v>6836124</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2">
         <v>45142.52083333334</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2790,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -2858,16 +2873,16 @@
         <v>6836119</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2">
         <v>45142.64583333334</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2876,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J28">
         <v>1.615</v>
@@ -2944,16 +2959,16 @@
         <v>6836123</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2">
         <v>45143.52083333334</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2962,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J29">
         <v>2.375</v>
@@ -3030,16 +3045,16 @@
         <v>6836122</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2">
         <v>45143.64583333334</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3048,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J30">
         <v>2.2</v>
@@ -3116,16 +3131,16 @@
         <v>6836125</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D31" s="2">
         <v>45144.51041666666</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3134,7 +3149,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J31">
         <v>2.875</v>
@@ -3202,16 +3217,16 @@
         <v>6836120</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D32" s="2">
         <v>45144.64583333334</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3220,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J32">
         <v>2.1</v>
@@ -3288,16 +3303,16 @@
         <v>6836121</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D33" s="2">
         <v>45145.52083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3306,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J33">
         <v>1.727</v>
@@ -3374,16 +3389,16 @@
         <v>6835197</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D34" s="2">
         <v>45145.64583333334</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3392,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J34">
         <v>3.1</v>
@@ -3460,16 +3475,16 @@
         <v>6835774</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D35" s="2">
         <v>45149.60416666666</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -3478,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J35">
         <v>2.375</v>
@@ -3546,16 +3561,16 @@
         <v>6836128</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D36" s="2">
         <v>45150.52083333334</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3564,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J36">
         <v>2.6</v>
@@ -3632,16 +3647,16 @@
         <v>6836130</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2">
         <v>45150.64583333334</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3650,7 +3665,7 @@
         <v>4</v>
       </c>
       <c r="I37" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J37">
         <v>4</v>
@@ -3718,16 +3733,16 @@
         <v>6835198</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D38" s="2">
         <v>45151.64583333334</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3736,7 +3751,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J38">
         <v>1.8</v>
@@ -3804,16 +3819,16 @@
         <v>6836129</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D39" s="2">
         <v>45152.60416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3822,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -3890,16 +3905,16 @@
         <v>6836136</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D40" s="2">
         <v>45156.52083333334</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -3908,7 +3923,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J40">
         <v>2.3</v>
@@ -3976,16 +3991,16 @@
         <v>6836137</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2">
         <v>45156.64583333334</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -3994,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J41">
         <v>1.45</v>
@@ -4062,16 +4077,16 @@
         <v>6836134</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D42" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4080,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J42">
         <v>2.1</v>
@@ -4148,16 +4163,16 @@
         <v>6835775</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D43" s="2">
         <v>45157.65625</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4166,7 +4181,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J43">
         <v>1.95</v>
@@ -4234,16 +4249,16 @@
         <v>6835199</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2">
         <v>45158.51041666666</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -4252,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J44">
         <v>2.05</v>
@@ -4320,16 +4335,16 @@
         <v>6836135</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D45" s="2">
         <v>45158.64583333334</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4338,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J45">
         <v>1.45</v>
@@ -4406,16 +4421,16 @@
         <v>6836132</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D46" s="2">
         <v>45159.52083333334</v>
       </c>
       <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
         <v>39</v>
-      </c>
-      <c r="F46" t="s">
-        <v>34</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4424,7 +4439,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J46">
         <v>2.15</v>
@@ -4492,16 +4507,16 @@
         <v>6836133</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D47" s="2">
         <v>45159.64583333334</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4510,7 +4525,7 @@
         <v>4</v>
       </c>
       <c r="I47" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J47">
         <v>4.2</v>
@@ -4578,16 +4593,16 @@
         <v>6835776</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D48" s="2">
         <v>45163.52083333334</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4596,7 +4611,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J48">
         <v>2.7</v>
@@ -4664,16 +4679,16 @@
         <v>6835200</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D49" s="2">
         <v>45163.64583333334</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -4682,7 +4697,7 @@
         <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J49">
         <v>2.7</v>
@@ -4750,16 +4765,16 @@
         <v>6836141</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D50" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4768,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J50">
         <v>1.363</v>
@@ -4836,16 +4851,16 @@
         <v>6836143</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D51" s="2">
         <v>45164.65625</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4854,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J51">
         <v>2.25</v>
@@ -4922,16 +4937,16 @@
         <v>6836139</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D52" s="2">
         <v>45165.64583333334</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F52" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4940,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J52">
         <v>2.6</v>
@@ -5008,16 +5023,16 @@
         <v>6836140</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D53" s="2">
         <v>45166.52083333334</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5026,7 +5041,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J53">
         <v>2.2</v>
@@ -5094,16 +5109,16 @@
         <v>6836138</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D54" s="2">
         <v>45166.64583333334</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5112,7 +5127,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J54">
         <v>4</v>
@@ -5180,16 +5195,16 @@
         <v>6836146</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D55" s="2">
         <v>45170.52083333334</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5198,7 +5213,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J55">
         <v>2.05</v>
@@ -5266,16 +5281,16 @@
         <v>6835201</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D56" s="2">
         <v>45170.64583333334</v>
       </c>
       <c r="E56" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G56">
         <v>4</v>
@@ -5284,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J56">
         <v>1.7</v>
@@ -5352,16 +5367,16 @@
         <v>6835777</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D57" s="2">
         <v>45171.54166666666</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5370,7 +5385,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J57">
         <v>4.333</v>
@@ -5438,16 +5453,16 @@
         <v>6836148</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D58" s="2">
         <v>45171.65625</v>
       </c>
       <c r="E58" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5456,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J58">
         <v>2.8</v>
@@ -5524,16 +5539,16 @@
         <v>6836149</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D59" s="2">
         <v>45172.64583333334</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G59">
         <v>4</v>
@@ -5542,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J59">
         <v>2.5</v>
@@ -5610,16 +5625,16 @@
         <v>6836145</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D60" s="2">
         <v>45173.29166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F60" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5628,7 +5643,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J60">
         <v>1.909</v>
@@ -5696,16 +5711,16 @@
         <v>6836144</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D61" s="2">
         <v>45173.52083333334</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5714,7 +5729,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J61">
         <v>2.8</v>
@@ -5782,16 +5797,16 @@
         <v>6836147</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D62" s="2">
         <v>45173.64583333334</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5800,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J62">
         <v>1.65</v>
@@ -5868,16 +5883,16 @@
         <v>6836152</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D63" s="2">
         <v>45184.52083333334</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5886,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J63">
         <v>2.5</v>
@@ -5954,16 +5969,16 @@
         <v>6836154</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D64" s="2">
         <v>45184.64583333334</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5972,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J64">
         <v>2.75</v>
@@ -6040,16 +6055,16 @@
         <v>6836153</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D65" s="2">
         <v>45185.64583333334</v>
       </c>
       <c r="E65" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6058,7 +6073,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J65">
         <v>1.909</v>
@@ -6126,16 +6141,16 @@
         <v>6835778</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D66" s="2">
         <v>45186.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -6144,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J66">
         <v>2</v>
@@ -6212,16 +6227,16 @@
         <v>6835202</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D67" s="2">
         <v>45186.55208333334</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6230,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -6298,16 +6313,16 @@
         <v>6836155</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D68" s="2">
         <v>45186.65625</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6316,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J68">
         <v>2.625</v>
@@ -6384,16 +6399,16 @@
         <v>6836150</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D69" s="2">
         <v>45187.52083333334</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6402,7 +6417,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J69">
         <v>2.4</v>
@@ -6470,16 +6485,16 @@
         <v>6836151</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D70" s="2">
         <v>45187.64583333334</v>
       </c>
       <c r="E70" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6488,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J70">
         <v>1.45</v>
@@ -6556,16 +6571,16 @@
         <v>6836126</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D71" s="2">
         <v>45190.58333333334</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6574,7 +6589,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J71">
         <v>3.7</v>
@@ -6642,16 +6657,16 @@
         <v>6836159</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D72" s="2">
         <v>45191.5</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6660,7 +6675,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J72">
         <v>1.95</v>
@@ -6728,16 +6743,16 @@
         <v>6836161</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D73" s="2">
         <v>45191.625</v>
       </c>
       <c r="E73" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6746,7 +6761,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J73">
         <v>3.3</v>
@@ -6814,16 +6829,16 @@
         <v>6835779</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D74" s="2">
         <v>45192.35416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F74" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6832,7 +6847,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J74">
         <v>2</v>
@@ -6900,17 +6915,17 @@
         <v>6836157</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D75" s="2">
         <v>45192.53125</v>
       </c>
       <c r="E75" t="s">
+        <v>50</v>
+      </c>
+      <c r="F75" t="s">
         <v>45</v>
       </c>
-      <c r="F75" t="s">
-        <v>40</v>
-      </c>
       <c r="G75">
         <v>2</v>
       </c>
@@ -6918,7 +6933,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J75">
         <v>2.25</v>
@@ -6986,16 +7001,16 @@
         <v>6836158</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D76" s="2">
         <v>45192.64583333334</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7004,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -7072,16 +7087,16 @@
         <v>6836156</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D77" s="2">
         <v>45193.51041666666</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7090,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J77">
         <v>2.4</v>
@@ -7158,16 +7173,16 @@
         <v>6836160</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D78" s="2">
         <v>45193.625</v>
       </c>
       <c r="E78" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7176,7 +7191,7 @@
         <v>5</v>
       </c>
       <c r="I78" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J78">
         <v>2.7</v>
@@ -7244,16 +7259,16 @@
         <v>6835203</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D79" s="2">
         <v>45194.625</v>
       </c>
       <c r="E79" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7262,7 +7277,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J79">
         <v>2.8</v>
@@ -7330,16 +7345,16 @@
         <v>6836166</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D80" s="2">
         <v>45198.625</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7348,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J80">
         <v>2.3</v>
@@ -7416,16 +7431,16 @@
         <v>6835780</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D81" s="2">
         <v>45199.35416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7434,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J81">
         <v>2.2</v>
@@ -7502,16 +7517,16 @@
         <v>6836167</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D82" s="2">
         <v>45199.64583333334</v>
       </c>
       <c r="E82" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7520,7 +7535,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J82">
         <v>2.2</v>
@@ -7588,16 +7603,16 @@
         <v>6836163</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D83" s="2">
         <v>45200.375</v>
       </c>
       <c r="E83" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F83" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G83">
         <v>5</v>
@@ -7606,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J83">
         <v>1.444</v>
@@ -7674,16 +7689,16 @@
         <v>6835204</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D84" s="2">
         <v>45200.5</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7692,7 +7707,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J84">
         <v>2.875</v>
@@ -7760,16 +7775,16 @@
         <v>6836164</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D85" s="2">
         <v>45200.625</v>
       </c>
       <c r="E85" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7778,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J85">
         <v>1.5</v>
@@ -7846,16 +7861,16 @@
         <v>6836162</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D86" s="2">
         <v>45201.5</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7864,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J86">
         <v>2.9</v>
@@ -7932,16 +7947,16 @@
         <v>6836165</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D87" s="2">
         <v>45201.625</v>
       </c>
       <c r="E87" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7950,7 +7965,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J87">
         <v>1.4</v>
@@ -8018,16 +8033,16 @@
         <v>6836127</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D88" s="2">
         <v>45204.58333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8036,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J88">
         <v>1.8</v>
@@ -8104,16 +8119,16 @@
         <v>6836168</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D89" s="2">
         <v>45205.5</v>
       </c>
       <c r="E89" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8122,7 +8137,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J89">
         <v>2.3</v>
@@ -8190,16 +8205,16 @@
         <v>6835205</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D90" s="2">
         <v>45205.625</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G90">
         <v>3</v>
@@ -8208,7 +8223,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J90">
         <v>1.5</v>
@@ -8276,16 +8291,16 @@
         <v>6836169</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D91" s="2">
         <v>45206.33333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8294,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J91">
         <v>2.1</v>
@@ -8362,16 +8377,16 @@
         <v>6835781</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D92" s="2">
         <v>45206.53125</v>
       </c>
       <c r="E92" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F92" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8380,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J92">
         <v>4</v>
@@ -8448,16 +8463,16 @@
         <v>6836170</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D93" s="2">
         <v>45206.64583333334</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8466,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -8534,16 +8549,16 @@
         <v>6836173</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D94" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E94" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8552,7 +8567,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J94">
         <v>2.75</v>
@@ -8620,16 +8635,16 @@
         <v>6836171</v>
       </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D95" s="2">
         <v>45207.64583333334</v>
       </c>
       <c r="E95" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8638,7 +8653,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J95">
         <v>4</v>
@@ -8706,16 +8721,16 @@
         <v>6836172</v>
       </c>
       <c r="C96" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D96" s="2">
         <v>45208.625</v>
       </c>
       <c r="E96" t="s">
+        <v>49</v>
+      </c>
+      <c r="F96" t="s">
         <v>44</v>
-      </c>
-      <c r="F96" t="s">
-        <v>39</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8724,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J96">
         <v>2.8</v>
@@ -8792,16 +8807,16 @@
         <v>7122732</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D97" s="2">
         <v>45218.58333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8810,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J97">
         <v>2.625</v>
@@ -8878,16 +8893,16 @@
         <v>6835206</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D98" s="2">
         <v>45219.625</v>
       </c>
       <c r="E98" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8896,7 +8911,7 @@
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J98">
         <v>3.4</v>
@@ -8964,16 +8979,16 @@
         <v>6836174</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D99" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G99">
         <v>4</v>
@@ -8982,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J99">
         <v>2.1</v>
@@ -9050,16 +9065,16 @@
         <v>6836179</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D100" s="2">
         <v>45220.65625</v>
       </c>
       <c r="E100" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F100" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9068,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J100">
         <v>1.833</v>
@@ -9136,16 +9151,16 @@
         <v>6836175</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D101" s="2">
         <v>45221.39583333334</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9154,7 +9169,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J101">
         <v>2.625</v>
@@ -9222,16 +9237,16 @@
         <v>6836176</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D102" s="2">
         <v>45221.5</v>
       </c>
       <c r="E102" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9240,7 +9255,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J102">
         <v>1.571</v>
@@ -9308,17 +9323,17 @@
         <v>6835782</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D103" s="2">
         <v>45221.625</v>
       </c>
       <c r="E103" t="s">
+        <v>47</v>
+      </c>
+      <c r="F103" t="s">
         <v>42</v>
       </c>
-      <c r="F103" t="s">
-        <v>37</v>
-      </c>
       <c r="G103">
         <v>0</v>
       </c>
@@ -9326,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J103">
         <v>1.444</v>
@@ -9394,16 +9409,16 @@
         <v>6836177</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D104" s="2">
         <v>45222.5</v>
       </c>
       <c r="E104" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G104">
         <v>5</v>
@@ -9412,7 +9427,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J104">
         <v>1.571</v>
@@ -9480,16 +9495,16 @@
         <v>6836178</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D105" s="2">
         <v>45222.625</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9498,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J105">
         <v>1.4</v>
@@ -9566,16 +9581,16 @@
         <v>6836131</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D106" s="2">
         <v>45225.58333333334</v>
       </c>
       <c r="E106" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9584,7 +9599,7 @@
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J106">
         <v>1.65</v>
@@ -9652,16 +9667,16 @@
         <v>6835783</v>
       </c>
       <c r="C107" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D107" s="2">
         <v>45226.47916666666</v>
       </c>
       <c r="E107" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9670,7 +9685,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J107">
         <v>3</v>
@@ -9738,16 +9753,16 @@
         <v>6836181</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D108" s="2">
         <v>45226.60416666666</v>
       </c>
       <c r="E108" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9756,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J108">
         <v>2.4</v>
@@ -9824,16 +9839,16 @@
         <v>6836180</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D109" s="2">
         <v>45227.33333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9842,7 +9857,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J109">
         <v>2.6</v>
@@ -9910,16 +9925,16 @@
         <v>6836183</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D110" s="2">
         <v>45227.60416666666</v>
       </c>
       <c r="E110" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9928,7 +9943,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J110">
         <v>3.8</v>
@@ -9996,16 +10011,16 @@
         <v>6836182</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D111" s="2">
         <v>45228.375</v>
       </c>
       <c r="E111" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10014,7 +10029,7 @@
         <v>3</v>
       </c>
       <c r="I111" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J111">
         <v>2</v>
@@ -10082,16 +10097,16 @@
         <v>6835207</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D112" s="2">
         <v>45228.64583333334</v>
       </c>
       <c r="E112" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10100,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J112">
         <v>2.3</v>
@@ -10168,16 +10183,16 @@
         <v>6836184</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D113" s="2">
         <v>45229.52083333334</v>
       </c>
       <c r="E113" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10186,7 +10201,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -10254,16 +10269,16 @@
         <v>6836185</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D114" s="2">
         <v>45229.64583333334</v>
       </c>
       <c r="E114" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -10272,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J114">
         <v>1.909</v>
@@ -10340,16 +10355,16 @@
         <v>6836187</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D115" s="2">
         <v>45233.54166666666</v>
       </c>
       <c r="E115" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10358,7 +10373,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J115">
         <v>2.3</v>
@@ -10426,16 +10441,16 @@
         <v>6836190</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D116" s="2">
         <v>45234.48958333334</v>
       </c>
       <c r="E116" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10444,7 +10459,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J116">
         <v>1.909</v>
@@ -10512,16 +10527,16 @@
         <v>6836189</v>
       </c>
       <c r="C117" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D117" s="2">
         <v>45234.67708333334</v>
       </c>
       <c r="E117" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10530,7 +10545,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J117">
         <v>1.75</v>
@@ -10598,16 +10613,16 @@
         <v>6835784</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D118" s="2">
         <v>45235.41666666666</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10616,7 +10631,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J118">
         <v>2</v>
@@ -10684,16 +10699,16 @@
         <v>6836191</v>
       </c>
       <c r="C119" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D119" s="2">
         <v>45235.52083333334</v>
       </c>
       <c r="E119" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F119" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10702,7 +10717,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J119">
         <v>1.5</v>
@@ -10770,16 +10785,16 @@
         <v>6835208</v>
       </c>
       <c r="C120" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D120" s="2">
         <v>45235.64583333334</v>
       </c>
       <c r="E120" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10788,7 +10803,7 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J120">
         <v>2</v>
@@ -10856,16 +10871,16 @@
         <v>6836188</v>
       </c>
       <c r="C121" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D121" s="2">
         <v>45236.54166666666</v>
       </c>
       <c r="E121" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10874,7 +10889,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J121">
         <v>1.909</v>
@@ -10942,16 +10957,16 @@
         <v>6836186</v>
       </c>
       <c r="C122" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D122" s="2">
         <v>45236.66666666666</v>
       </c>
       <c r="E122" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10960,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J122">
         <v>3.5</v>
@@ -11028,16 +11043,16 @@
         <v>6835209</v>
       </c>
       <c r="C123" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D123" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E123" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11046,7 +11061,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J123">
         <v>2.5</v>
@@ -11114,16 +11129,16 @@
         <v>6836197</v>
       </c>
       <c r="C124" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D124" s="2">
         <v>45241.375</v>
       </c>
       <c r="E124" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11132,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J124">
         <v>2.2</v>
@@ -11200,16 +11215,16 @@
         <v>6836193</v>
       </c>
       <c r="C125" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D125" s="2">
         <v>45241.57291666666</v>
       </c>
       <c r="E125" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -11218,7 +11233,7 @@
         <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J125">
         <v>4.75</v>
@@ -11286,16 +11301,16 @@
         <v>6836192</v>
       </c>
       <c r="C126" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D126" s="2">
         <v>45241.66666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11304,7 +11319,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J126">
         <v>1.833</v>
@@ -11372,16 +11387,16 @@
         <v>6835785</v>
       </c>
       <c r="C127" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D127" s="2">
         <v>45242.35416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11390,7 +11405,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J127">
         <v>2.5</v>
@@ -11458,16 +11473,16 @@
         <v>6836195</v>
       </c>
       <c r="C128" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D128" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E128" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11476,7 +11491,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J128">
         <v>1.333</v>
@@ -11544,16 +11559,16 @@
         <v>6836196</v>
       </c>
       <c r="C129" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D129" s="2">
         <v>45242.66666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11562,7 +11577,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J129">
         <v>1.444</v>
@@ -11630,16 +11645,16 @@
         <v>6836194</v>
       </c>
       <c r="C130" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D130" s="2">
         <v>45243.64583333334</v>
       </c>
       <c r="E130" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11648,7 +11663,7 @@
         <v>4</v>
       </c>
       <c r="I130" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J130">
         <v>2.15</v>
@@ -11716,16 +11731,16 @@
         <v>6836198</v>
       </c>
       <c r="C131" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D131" s="2">
         <v>45254.52083333334</v>
       </c>
       <c r="E131" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F131" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11734,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J131">
         <v>2.05</v>
@@ -11802,16 +11817,16 @@
         <v>6836203</v>
       </c>
       <c r="C132" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D132" s="2">
         <v>45254.64583333334</v>
       </c>
       <c r="E132" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11820,7 +11835,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J132">
         <v>1.65</v>
@@ -11888,16 +11903,16 @@
         <v>6835786</v>
       </c>
       <c r="C133" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D133" s="2">
         <v>45255.52083333334</v>
       </c>
       <c r="E133" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G133">
         <v>4</v>
@@ -11906,7 +11921,7 @@
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J133">
         <v>3.2</v>
@@ -11974,16 +11989,16 @@
         <v>6836199</v>
       </c>
       <c r="C134" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D134" s="2">
         <v>45255.64583333334</v>
       </c>
       <c r="E134" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F134" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -11992,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J134">
         <v>1.45</v>
@@ -12060,16 +12075,16 @@
         <v>6836200</v>
       </c>
       <c r="C135" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D135" s="2">
         <v>45256.52083333334</v>
       </c>
       <c r="E135" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F135" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12078,7 +12093,7 @@
         <v>3</v>
       </c>
       <c r="I135" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J135">
         <v>3.4</v>
@@ -12146,16 +12161,16 @@
         <v>6836201</v>
       </c>
       <c r="C136" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D136" s="2">
         <v>45256.64583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12164,7 +12179,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J136">
         <v>9</v>
@@ -12232,16 +12247,16 @@
         <v>6836202</v>
       </c>
       <c r="C137" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D137" s="2">
         <v>45257.52083333334</v>
       </c>
       <c r="E137" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12250,7 +12265,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J137">
         <v>2.6</v>
@@ -12318,16 +12333,16 @@
         <v>6835210</v>
       </c>
       <c r="C138" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D138" s="2">
         <v>45257.64583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F138" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12336,7 +12351,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J138">
         <v>1.833</v>
@@ -12404,16 +12419,16 @@
         <v>6835787</v>
       </c>
       <c r="C139" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D139" s="2">
         <v>45261.5</v>
       </c>
       <c r="E139" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12422,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J139">
         <v>2.3</v>
@@ -12490,16 +12505,16 @@
         <v>7528972</v>
       </c>
       <c r="C140" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D140" s="2">
         <v>45261.625</v>
       </c>
       <c r="E140" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12508,7 +12523,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J140">
         <v>3.3</v>
@@ -12576,16 +12591,16 @@
         <v>6836204</v>
       </c>
       <c r="C141" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D141" s="2">
         <v>45262.375</v>
       </c>
       <c r="E141" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -12594,7 +12609,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J141">
         <v>2.5</v>
@@ -12662,16 +12677,16 @@
         <v>6835211</v>
       </c>
       <c r="C142" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D142" s="2">
         <v>45262.5</v>
       </c>
       <c r="E142" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12680,7 +12695,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J142">
         <v>4.2</v>
@@ -12748,16 +12763,16 @@
         <v>6836205</v>
       </c>
       <c r="C143" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D143" s="2">
         <v>45262.64583333334</v>
       </c>
       <c r="E143" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12766,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J143">
         <v>2.6</v>
@@ -12834,16 +12849,16 @@
         <v>6836208</v>
       </c>
       <c r="C144" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D144" s="2">
         <v>45263.45833333334</v>
       </c>
       <c r="E144" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12852,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -12920,16 +12935,16 @@
         <v>6836206</v>
       </c>
       <c r="C145" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D145" s="2">
         <v>45263.66666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -12938,7 +12953,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J145">
         <v>1.363</v>
@@ -13006,16 +13021,16 @@
         <v>6836207</v>
       </c>
       <c r="C146" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D146" s="2">
         <v>45264.625</v>
       </c>
       <c r="E146" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13024,7 +13039,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J146">
         <v>1.6</v>
@@ -13092,16 +13107,16 @@
         <v>6836215</v>
       </c>
       <c r="C147" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D147" s="2">
         <v>45268.58333333334</v>
       </c>
       <c r="E147" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13110,7 +13125,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J147">
         <v>2.3</v>
@@ -13178,16 +13193,16 @@
         <v>6835212</v>
       </c>
       <c r="C148" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D148" s="2">
         <v>45269.65625</v>
       </c>
       <c r="E148" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13196,7 +13211,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J148">
         <v>1.7</v>
@@ -13264,16 +13279,16 @@
         <v>6836210</v>
       </c>
       <c r="C149" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D149" s="2">
         <v>45270.375</v>
       </c>
       <c r="E149" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F149" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13282,7 +13297,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J149">
         <v>2.875</v>
@@ -13350,16 +13365,16 @@
         <v>6836216</v>
       </c>
       <c r="C150" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D150" s="2">
         <v>45270.5</v>
       </c>
       <c r="E150" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13368,7 +13383,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J150">
         <v>1.9</v>
@@ -13436,16 +13451,16 @@
         <v>6836211</v>
       </c>
       <c r="C151" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D151" s="2">
         <v>45270.625</v>
       </c>
       <c r="E151" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13454,7 +13469,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J151">
         <v>2.7</v>
@@ -13522,16 +13537,16 @@
         <v>6836214</v>
       </c>
       <c r="C152" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D152" s="2">
         <v>45271.5</v>
       </c>
       <c r="E152" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F152" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13540,7 +13555,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J152">
         <v>1.85</v>
@@ -13608,16 +13623,16 @@
         <v>6836213</v>
       </c>
       <c r="C153" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D153" s="2">
         <v>45271.65625</v>
       </c>
       <c r="E153" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F153" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13626,7 +13641,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J153">
         <v>3.25</v>
@@ -13694,16 +13709,16 @@
         <v>6836212</v>
       </c>
       <c r="C154" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D154" s="2">
         <v>45272.5</v>
       </c>
       <c r="E154" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F154" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13712,7 +13727,7 @@
         <v>3</v>
       </c>
       <c r="I154" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J154">
         <v>2.7</v>
@@ -13780,16 +13795,16 @@
         <v>6835788</v>
       </c>
       <c r="C155" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D155" s="2">
         <v>45275.5</v>
       </c>
       <c r="E155" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13798,7 +13813,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J155">
         <v>2.3</v>
@@ -13866,16 +13881,16 @@
         <v>6835213</v>
       </c>
       <c r="C156" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D156" s="2">
         <v>45275.625</v>
       </c>
       <c r="E156" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13884,7 +13899,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J156">
         <v>3.1</v>
@@ -13952,16 +13967,16 @@
         <v>6836222</v>
       </c>
       <c r="C157" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D157" s="2">
         <v>45276.375</v>
       </c>
       <c r="E157" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F157" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13970,7 +13985,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J157">
         <v>3.1</v>
@@ -14038,16 +14053,16 @@
         <v>6836221</v>
       </c>
       <c r="C158" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D158" s="2">
         <v>45276.5</v>
       </c>
       <c r="E158" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14056,7 +14071,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J158">
         <v>1.45</v>
@@ -14124,16 +14139,16 @@
         <v>6836217</v>
       </c>
       <c r="C159" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D159" s="2">
         <v>45276.625</v>
       </c>
       <c r="E159" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G159">
         <v>3</v>
@@ -14142,7 +14157,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J159">
         <v>1.666</v>
@@ -14210,16 +14225,16 @@
         <v>6836219</v>
       </c>
       <c r="C160" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D160" s="2">
         <v>45277.41666666666</v>
       </c>
       <c r="E160" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14228,7 +14243,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J160">
         <v>1.8</v>
@@ -14296,16 +14311,16 @@
         <v>6836218</v>
       </c>
       <c r="C161" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D161" s="2">
         <v>45277.66666666666</v>
       </c>
       <c r="E161" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -14314,7 +14329,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J161">
         <v>3.3</v>
@@ -14382,16 +14397,16 @@
         <v>6836220</v>
       </c>
       <c r="C162" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D162" s="2">
         <v>45278.625</v>
       </c>
       <c r="E162" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -14400,7 +14415,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J162">
         <v>2.25</v>
@@ -14468,16 +14483,16 @@
         <v>6836227</v>
       </c>
       <c r="C163" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D163" s="2">
         <v>45279.52083333334</v>
       </c>
       <c r="E163" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14486,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J163">
         <v>2.1</v>
@@ -14554,16 +14569,16 @@
         <v>6836226</v>
       </c>
       <c r="C164" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D164" s="2">
         <v>45279.64583333334</v>
       </c>
       <c r="E164" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F164" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14572,7 +14587,7 @@
         <v>3</v>
       </c>
       <c r="I164" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J164">
         <v>5.25</v>
@@ -14640,16 +14655,16 @@
         <v>6836228</v>
       </c>
       <c r="C165" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D165" s="2">
         <v>45280.52083333334</v>
       </c>
       <c r="E165" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F165" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14658,7 +14673,7 @@
         <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J165">
         <v>4.5</v>
@@ -14726,16 +14741,16 @@
         <v>6835214</v>
       </c>
       <c r="C166" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D166" s="2">
         <v>45280.64583333334</v>
       </c>
       <c r="E166" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14744,7 +14759,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J166">
         <v>2.25</v>
@@ -14812,16 +14827,16 @@
         <v>6836223</v>
       </c>
       <c r="C167" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D167" s="2">
         <v>45281.5</v>
       </c>
       <c r="E167" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14830,7 +14845,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J167">
         <v>2.5</v>
@@ -14898,16 +14913,16 @@
         <v>6836224</v>
       </c>
       <c r="C168" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D168" s="2">
         <v>45281.61458333334</v>
       </c>
       <c r="E168" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F168" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G168">
         <v>4</v>
@@ -14916,7 +14931,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J168">
         <v>1.95</v>
@@ -14984,16 +14999,16 @@
         <v>6836225</v>
       </c>
       <c r="C169" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D169" s="2">
         <v>45282.52083333334</v>
       </c>
       <c r="E169" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F169" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -15002,7 +15017,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J169">
         <v>1.909</v>
@@ -15070,16 +15085,16 @@
         <v>6835789</v>
       </c>
       <c r="C170" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D170" s="2">
         <v>45282.64583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15088,7 +15103,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J170">
         <v>2.875</v>
@@ -15156,16 +15171,16 @@
         <v>6836231</v>
       </c>
       <c r="C171" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D171" s="2">
         <v>45310.5</v>
       </c>
       <c r="E171" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F171" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G171">
         <v>6</v>
@@ -15174,7 +15189,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J171">
         <v>1.727</v>
@@ -15242,16 +15257,16 @@
         <v>6835215</v>
       </c>
       <c r="C172" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D172" s="2">
         <v>45310.625</v>
       </c>
       <c r="E172" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G172">
         <v>4</v>
@@ -15260,7 +15275,7 @@
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J172">
         <v>1.833</v>
@@ -15328,16 +15343,16 @@
         <v>6836229</v>
       </c>
       <c r="C173" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D173" s="2">
         <v>45311.5</v>
       </c>
       <c r="E173" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -15346,7 +15361,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J173">
         <v>2.1</v>
@@ -15414,16 +15429,16 @@
         <v>6836232</v>
       </c>
       <c r="C174" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D174" s="2">
         <v>45311.625</v>
       </c>
       <c r="E174" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F174" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15432,7 +15447,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J174">
         <v>2</v>
@@ -15500,16 +15515,16 @@
         <v>6836230</v>
       </c>
       <c r="C175" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D175" s="2">
         <v>45312.41666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15518,7 +15533,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J175">
         <v>4.75</v>
@@ -15586,16 +15601,16 @@
         <v>6836234</v>
       </c>
       <c r="C176" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D176" s="2">
         <v>45312.625</v>
       </c>
       <c r="E176" t="s">
+        <v>51</v>
+      </c>
+      <c r="F176" t="s">
         <v>46</v>
-      </c>
-      <c r="F176" t="s">
-        <v>41</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15604,7 +15619,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J176">
         <v>1.833</v>
@@ -15672,16 +15687,16 @@
         <v>6835790</v>
       </c>
       <c r="C177" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D177" s="2">
         <v>45313.5</v>
       </c>
       <c r="E177" t="s">
+        <v>42</v>
+      </c>
+      <c r="F177" t="s">
         <v>37</v>
-      </c>
-      <c r="F177" t="s">
-        <v>32</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15690,7 +15705,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J177">
         <v>2.625</v>
@@ -15758,16 +15773,16 @@
         <v>6836233</v>
       </c>
       <c r="C178" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D178" s="2">
         <v>45313.625</v>
       </c>
       <c r="E178" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F178" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G178">
         <v>4</v>
@@ -15776,7 +15791,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J178">
         <v>1.363</v>
@@ -15844,16 +15859,16 @@
         <v>6836236</v>
       </c>
       <c r="C179" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D179" s="2">
         <v>45317.625</v>
       </c>
       <c r="E179" t="s">
+        <v>46</v>
+      </c>
+      <c r="F179" t="s">
         <v>41</v>
-      </c>
-      <c r="F179" t="s">
-        <v>36</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -15862,7 +15877,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J179">
         <v>1.85</v>
@@ -15930,16 +15945,16 @@
         <v>6836240</v>
       </c>
       <c r="C180" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D180" s="2">
         <v>45318.375</v>
       </c>
       <c r="E180" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -15948,7 +15963,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J180">
         <v>3</v>
@@ -16016,16 +16031,16 @@
         <v>6836239</v>
       </c>
       <c r="C181" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D181" s="2">
         <v>45318.5</v>
       </c>
       <c r="E181" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F181" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16034,7 +16049,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J181">
         <v>2.4</v>
@@ -16102,16 +16117,16 @@
         <v>6835216</v>
       </c>
       <c r="C182" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D182" s="2">
         <v>45318.625</v>
       </c>
       <c r="E182" t="s">
+        <v>43</v>
+      </c>
+      <c r="F182" t="s">
         <v>38</v>
-      </c>
-      <c r="F182" t="s">
-        <v>33</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16120,7 +16135,7 @@
         <v>2</v>
       </c>
       <c r="I182" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J182">
         <v>4</v>
@@ -16188,16 +16203,16 @@
         <v>6836237</v>
       </c>
       <c r="C183" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D183" s="2">
         <v>45319.375</v>
       </c>
       <c r="E183" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F183" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16206,7 +16221,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J183">
         <v>1.666</v>
@@ -16274,16 +16289,16 @@
         <v>6836238</v>
       </c>
       <c r="C184" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D184" s="2">
         <v>45319.5</v>
       </c>
       <c r="E184" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16292,7 +16307,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J184">
         <v>3.3</v>
@@ -16360,16 +16375,16 @@
         <v>6836235</v>
       </c>
       <c r="C185" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D185" s="2">
         <v>45319.625</v>
       </c>
       <c r="E185" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F185" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -16378,7 +16393,7 @@
         <v>3</v>
       </c>
       <c r="I185" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J185">
         <v>2.7</v>
@@ -16446,16 +16461,16 @@
         <v>6835791</v>
       </c>
       <c r="C186" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D186" s="2">
         <v>45320.625</v>
       </c>
       <c r="E186" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F186" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G186">
         <v>4</v>
@@ -16464,7 +16479,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J186">
         <v>1.571</v>
@@ -16532,16 +16547,16 @@
         <v>6836241</v>
       </c>
       <c r="C187" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D187" s="2">
         <v>45324.5</v>
       </c>
       <c r="E187" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G187">
         <v>2</v>
@@ -16550,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J187">
         <v>2.5</v>
@@ -16618,16 +16633,16 @@
         <v>6836245</v>
       </c>
       <c r="C188" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D188" s="2">
         <v>45324.625</v>
       </c>
       <c r="E188" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16636,7 +16651,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J188">
         <v>1.909</v>
@@ -16704,16 +16719,16 @@
         <v>6836242</v>
       </c>
       <c r="C189" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D189" s="2">
         <v>45325.5</v>
       </c>
       <c r="E189" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -16722,7 +16737,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J189">
         <v>3</v>
@@ -16790,16 +16805,16 @@
         <v>6835217</v>
       </c>
       <c r="C190" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D190" s="2">
         <v>45325.625</v>
       </c>
       <c r="E190" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F190" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G190">
         <v>2</v>
@@ -16808,7 +16823,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J190">
         <v>1.8</v>
@@ -16876,16 +16891,16 @@
         <v>6836243</v>
       </c>
       <c r="C191" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D191" s="2">
         <v>45326.33333333334</v>
       </c>
       <c r="E191" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F191" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16894,7 +16909,7 @@
         <v>3</v>
       </c>
       <c r="I191" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J191">
         <v>1.8</v>
@@ -16962,16 +16977,16 @@
         <v>6836244</v>
       </c>
       <c r="C192" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D192" s="2">
         <v>45326.4375</v>
       </c>
       <c r="E192" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F192" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -16980,7 +16995,7 @@
         <v>3</v>
       </c>
       <c r="I192" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J192">
         <v>2.6</v>
@@ -17048,16 +17063,16 @@
         <v>6835792</v>
       </c>
       <c r="C193" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D193" s="2">
         <v>45327.5</v>
       </c>
       <c r="E193" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F193" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17066,7 +17081,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J193">
         <v>2.6</v>
@@ -17134,16 +17149,16 @@
         <v>6836246</v>
       </c>
       <c r="C194" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D194" s="2">
         <v>45327.625</v>
       </c>
       <c r="E194" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F194" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17152,7 +17167,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J194">
         <v>1.8</v>
@@ -17220,16 +17235,16 @@
         <v>6836251</v>
       </c>
       <c r="C195" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D195" s="2">
         <v>45331.5</v>
       </c>
       <c r="E195" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F195" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17238,7 +17253,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J195">
         <v>2.4</v>
@@ -17306,16 +17321,16 @@
         <v>6836250</v>
       </c>
       <c r="C196" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D196" s="2">
         <v>45331.625</v>
       </c>
       <c r="E196" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F196" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -17324,7 +17339,7 @@
         <v>2</v>
       </c>
       <c r="I196" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J196">
         <v>1.85</v>
@@ -17392,16 +17407,16 @@
         <v>6835793</v>
       </c>
       <c r="C197" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D197" s="2">
         <v>45332.375</v>
       </c>
       <c r="E197" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F197" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -17410,7 +17425,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J197">
         <v>2.45</v>
@@ -17478,16 +17493,16 @@
         <v>6835218</v>
       </c>
       <c r="C198" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D198" s="2">
         <v>45332.67708333334</v>
       </c>
       <c r="E198" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -17496,7 +17511,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J198">
         <v>2.15</v>
@@ -17564,16 +17579,16 @@
         <v>6836247</v>
       </c>
       <c r="C199" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D199" s="2">
         <v>45333.55208333334</v>
       </c>
       <c r="E199" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F199" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -17582,7 +17597,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J199">
         <v>2.25</v>
@@ -17650,16 +17665,16 @@
         <v>6836252</v>
       </c>
       <c r="C200" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D200" s="2">
         <v>45333.65625</v>
       </c>
       <c r="E200" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F200" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -17668,7 +17683,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J200">
         <v>1.666</v>
@@ -17736,16 +17751,16 @@
         <v>6836249</v>
       </c>
       <c r="C201" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D201" s="2">
         <v>45334.5</v>
       </c>
       <c r="E201" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F201" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17754,7 +17769,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J201">
         <v>1.909</v>
@@ -17822,16 +17837,16 @@
         <v>6836253</v>
       </c>
       <c r="C202" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D202" s="2">
         <v>45334.625</v>
       </c>
       <c r="E202" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F202" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17840,7 +17855,7 @@
         <v>2</v>
       </c>
       <c r="I202" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J202">
         <v>1.55</v>
@@ -17908,16 +17923,16 @@
         <v>6836254</v>
       </c>
       <c r="C203" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D203" s="2">
         <v>45338.5</v>
       </c>
       <c r="E203" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F203" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17926,7 +17941,7 @@
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J203">
         <v>2.15</v>
@@ -17994,16 +18009,16 @@
         <v>6835219</v>
       </c>
       <c r="C204" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D204" s="2">
         <v>45338.625</v>
       </c>
       <c r="E204" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F204" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G204">
         <v>2</v>
@@ -18012,7 +18027,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J204">
         <v>1.833</v>
@@ -18080,16 +18095,16 @@
         <v>6835794</v>
       </c>
       <c r="C205" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D205" s="2">
         <v>45339.375</v>
       </c>
       <c r="E205" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F205" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -18098,7 +18113,7 @@
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J205">
         <v>2.4</v>
@@ -18166,16 +18181,16 @@
         <v>6836256</v>
       </c>
       <c r="C206" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D206" s="2">
         <v>45339.6875</v>
       </c>
       <c r="E206" t="s">
+        <v>41</v>
+      </c>
+      <c r="F206" t="s">
         <v>36</v>
-      </c>
-      <c r="F206" t="s">
-        <v>31</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -18184,7 +18199,7 @@
         <v>3</v>
       </c>
       <c r="I206" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J206">
         <v>3.1</v>
@@ -18252,16 +18267,16 @@
         <v>6836255</v>
       </c>
       <c r="C207" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D207" s="2">
         <v>45340.51041666666</v>
       </c>
       <c r="E207" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F207" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18270,7 +18285,7 @@
         <v>2</v>
       </c>
       <c r="I207" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J207">
         <v>3.4</v>
@@ -18338,16 +18353,16 @@
         <v>6836258</v>
       </c>
       <c r="C208" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D208" s="2">
         <v>45340.625</v>
       </c>
       <c r="E208" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F208" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G208">
         <v>3</v>
@@ -18356,7 +18371,7 @@
         <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J208">
         <v>2.5</v>
@@ -18424,16 +18439,16 @@
         <v>6836259</v>
       </c>
       <c r="C209" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D209" s="2">
         <v>45341.52083333334</v>
       </c>
       <c r="E209" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F209" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -18442,7 +18457,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J209">
         <v>2.3</v>
@@ -18510,16 +18525,16 @@
         <v>6836257</v>
       </c>
       <c r="C210" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D210" s="2">
         <v>45341.64583333334</v>
       </c>
       <c r="E210" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F210" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -18528,7 +18543,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J210">
         <v>3.6</v>
@@ -18596,16 +18611,16 @@
         <v>6836260</v>
       </c>
       <c r="C211" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D211" s="2">
         <v>45345.5</v>
       </c>
       <c r="E211" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F211" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18614,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J211">
         <v>2.1</v>
@@ -18682,16 +18697,16 @@
         <v>6836263</v>
       </c>
       <c r="C212" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D212" s="2">
         <v>45345.625</v>
       </c>
       <c r="E212" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F212" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G212">
         <v>4</v>
@@ -18700,7 +18715,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J212">
         <v>1.5</v>
@@ -18768,16 +18783,16 @@
         <v>6836261</v>
       </c>
       <c r="C213" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D213" s="2">
         <v>45346.375</v>
       </c>
       <c r="E213" t="s">
+        <v>45</v>
+      </c>
+      <c r="F213" t="s">
         <v>40</v>
-      </c>
-      <c r="F213" t="s">
-        <v>35</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -18786,7 +18801,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J213">
         <v>2.4</v>
@@ -18854,16 +18869,16 @@
         <v>6836265</v>
       </c>
       <c r="C214" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D214" s="2">
         <v>45346.5</v>
       </c>
       <c r="E214" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -18872,7 +18887,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J214">
         <v>1.833</v>
@@ -18940,16 +18955,16 @@
         <v>6835220</v>
       </c>
       <c r="C215" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D215" s="2">
         <v>45346.625</v>
       </c>
       <c r="E215" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G215">
         <v>3</v>
@@ -18958,7 +18973,7 @@
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J215">
         <v>4.2</v>
@@ -19026,16 +19041,16 @@
         <v>6836264</v>
       </c>
       <c r="C216" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D216" s="2">
         <v>45347.375</v>
       </c>
       <c r="E216" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F216" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -19044,7 +19059,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J216">
         <v>2.25</v>
@@ -19112,16 +19127,16 @@
         <v>6836262</v>
       </c>
       <c r="C217" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D217" s="2">
         <v>45347.625</v>
       </c>
       <c r="E217" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F217" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G217">
         <v>3</v>
@@ -19130,7 +19145,7 @@
         <v>2</v>
       </c>
       <c r="I217" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J217">
         <v>1.363</v>
@@ -19198,16 +19213,16 @@
         <v>6835795</v>
       </c>
       <c r="C218" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D218" s="2">
         <v>45348.625</v>
       </c>
       <c r="E218" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F218" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19216,7 +19231,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J218">
         <v>1.533</v>
@@ -19284,16 +19299,16 @@
         <v>6836267</v>
       </c>
       <c r="C219" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D219" s="2">
         <v>45349.46875</v>
       </c>
       <c r="E219" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F219" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19302,7 +19317,7 @@
         <v>1</v>
       </c>
       <c r="I219" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J219">
         <v>1.615</v>
@@ -19370,16 +19385,16 @@
         <v>6836266</v>
       </c>
       <c r="C220" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D220" s="2">
         <v>45349.5625</v>
       </c>
       <c r="E220" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F220" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -19388,7 +19403,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J220">
         <v>2.3</v>
@@ -19456,16 +19471,16 @@
         <v>6836271</v>
       </c>
       <c r="C221" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D221" s="2">
         <v>45349.66666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F221" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G221">
         <v>2</v>
@@ -19474,7 +19489,7 @@
         <v>2</v>
       </c>
       <c r="I221" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J221">
         <v>4.2</v>
@@ -19542,16 +19557,16 @@
         <v>6836272</v>
       </c>
       <c r="C222" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D222" s="2">
         <v>45350.5625</v>
       </c>
       <c r="E222" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F222" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -19560,7 +19575,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J222">
         <v>2.7</v>
@@ -19628,16 +19643,16 @@
         <v>6835221</v>
       </c>
       <c r="C223" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D223" s="2">
         <v>45350.66666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F223" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G223">
         <v>4</v>
@@ -19646,7 +19661,7 @@
         <v>1</v>
       </c>
       <c r="I223" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J223">
         <v>1.727</v>
@@ -19714,16 +19729,16 @@
         <v>6836270</v>
       </c>
       <c r="C224" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D224" s="2">
         <v>45351.46875</v>
       </c>
       <c r="E224" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F224" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19732,7 +19747,7 @@
         <v>2</v>
       </c>
       <c r="I224" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J224">
         <v>3.2</v>
@@ -19800,16 +19815,16 @@
         <v>6836268</v>
       </c>
       <c r="C225" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D225" s="2">
         <v>45351.5625</v>
       </c>
       <c r="E225" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F225" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -19818,7 +19833,7 @@
         <v>3</v>
       </c>
       <c r="I225" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J225">
         <v>3</v>
@@ -19886,16 +19901,16 @@
         <v>6836269</v>
       </c>
       <c r="C226" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D226" s="2">
         <v>45351.66666666666</v>
       </c>
       <c r="E226" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F226" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -19904,7 +19919,7 @@
         <v>2</v>
       </c>
       <c r="I226" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J226">
         <v>4</v>
@@ -19972,17 +19987,17 @@
         <v>6836274</v>
       </c>
       <c r="C227" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D227" s="2">
         <v>45352.625</v>
       </c>
       <c r="E227" t="s">
+        <v>48</v>
+      </c>
+      <c r="F227" t="s">
         <v>43</v>
       </c>
-      <c r="F227" t="s">
-        <v>38</v>
-      </c>
       <c r="G227">
         <v>0</v>
       </c>
@@ -19990,7 +20005,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J227">
         <v>2.4</v>
@@ -20058,16 +20073,16 @@
         <v>6836275</v>
       </c>
       <c r="C228" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D228" s="2">
         <v>45353.375</v>
       </c>
       <c r="E228" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F228" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G228">
         <v>3</v>
@@ -20076,7 +20091,7 @@
         <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J228">
         <v>2.25</v>
@@ -20144,16 +20159,16 @@
         <v>6836273</v>
       </c>
       <c r="C229" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D229" s="2">
         <v>45353.5</v>
       </c>
       <c r="E229" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G229">
         <v>4</v>
@@ -20162,7 +20177,7 @@
         <v>1</v>
       </c>
       <c r="I229" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J229">
         <v>2.1</v>
@@ -20230,16 +20245,16 @@
         <v>6907421</v>
       </c>
       <c r="C230" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D230" s="2">
         <v>45353.625</v>
       </c>
       <c r="E230" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F230" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20248,7 +20263,7 @@
         <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J230">
         <v>2.7</v>
@@ -20316,16 +20331,16 @@
         <v>6838744</v>
       </c>
       <c r="C231" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D231" s="2">
         <v>45354.39583333334</v>
       </c>
       <c r="E231" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F231" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -20334,7 +20349,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J231">
         <v>1.8</v>
@@ -20402,16 +20417,16 @@
         <v>6848293</v>
       </c>
       <c r="C232" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D232" s="2">
         <v>45354.64583333334</v>
       </c>
       <c r="E232" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F232" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -20420,7 +20435,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J232">
         <v>1.6</v>
@@ -20488,16 +20503,16 @@
         <v>6848294</v>
       </c>
       <c r="C233" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D233" s="2">
         <v>45355.5</v>
       </c>
       <c r="E233" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F233" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G233">
         <v>4</v>
@@ -20506,7 +20521,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J233">
         <v>1.8</v>
@@ -20574,16 +20589,16 @@
         <v>6836276</v>
       </c>
       <c r="C234" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D234" s="2">
         <v>45355.625</v>
       </c>
       <c r="E234" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F234" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -20592,7 +20607,7 @@
         <v>1</v>
       </c>
       <c r="I234" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J234">
         <v>2.5</v>
@@ -20660,16 +20675,16 @@
         <v>6836277</v>
       </c>
       <c r="C235" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D235" s="2">
         <v>45359.625</v>
       </c>
       <c r="E235" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F235" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -20678,7 +20693,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J235">
         <v>1.7</v>
@@ -20743,85 +20758,85 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6852370</v>
+        <v>6865915</v>
       </c>
       <c r="C236" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D236" s="2">
         <v>45359.625</v>
       </c>
       <c r="E236" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F236" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H236">
         <v>0</v>
       </c>
       <c r="I236" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J236">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="K236">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="L236">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="M236">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="N236">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O236">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="P236">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q236">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R236">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S236">
         <v>2.25</v>
       </c>
       <c r="T236">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="U236">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V236">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA236">
         <v>-1</v>
       </c>
       <c r="AB236">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="237" spans="1:28">
@@ -20832,16 +20847,16 @@
         <v>6861095</v>
       </c>
       <c r="C237" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D237" s="2">
         <v>45359.625</v>
       </c>
       <c r="E237" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F237" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -20850,7 +20865,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J237">
         <v>3.75</v>
@@ -20915,85 +20930,85 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6865915</v>
+        <v>6870268</v>
       </c>
       <c r="C238" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D238" s="2">
         <v>45359.625</v>
       </c>
       <c r="E238" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F238" t="s">
         <v>44</v>
       </c>
       <c r="G238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J238">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="K238">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L238">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="M238">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N238">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O238">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P238">
         <v>0.25</v>
       </c>
       <c r="Q238">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R238">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S238">
         <v>2.25</v>
       </c>
       <c r="T238">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U238">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V238">
         <v>-1</v>
       </c>
       <c r="W238">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y238">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB238">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:28">
@@ -21001,85 +21016,85 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6870268</v>
+        <v>6852370</v>
       </c>
       <c r="C239" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D239" s="2">
         <v>45359.625</v>
       </c>
       <c r="E239" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F239" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G239">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J239">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="K239">
+        <v>2.875</v>
+      </c>
+      <c r="L239">
         <v>3</v>
       </c>
-      <c r="L239">
-        <v>2.55</v>
-      </c>
       <c r="M239">
+        <v>2.375</v>
+      </c>
+      <c r="N239">
         <v>3</v>
       </c>
-      <c r="N239">
-        <v>3.2</v>
-      </c>
       <c r="O239">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="P239">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q239">
+        <v>2</v>
+      </c>
+      <c r="R239">
         <v>1.85</v>
-      </c>
-      <c r="R239">
-        <v>2</v>
       </c>
       <c r="S239">
         <v>2.25</v>
       </c>
       <c r="T239">
+        <v>1.975</v>
+      </c>
+      <c r="U239">
         <v>1.875</v>
       </c>
-      <c r="U239">
-        <v>1.975</v>
-      </c>
       <c r="V239">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z239">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
+        <v>-1</v>
+      </c>
+      <c r="AB239">
         <v>0.875</v>
-      </c>
-      <c r="AB239">
-        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:28">
@@ -21090,16 +21105,16 @@
         <v>6870267</v>
       </c>
       <c r="C240" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D240" s="2">
         <v>45360.625</v>
       </c>
       <c r="E240" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F240" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -21108,7 +21123,7 @@
         <v>4</v>
       </c>
       <c r="I240" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J240">
         <v>2.45</v>
@@ -21176,16 +21191,16 @@
         <v>6836278</v>
       </c>
       <c r="C241" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D241" s="2">
         <v>45361.65625</v>
       </c>
       <c r="E241" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F241" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -21194,7 +21209,7 @@
         <v>2</v>
       </c>
       <c r="I241" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J241">
         <v>3.6</v>
@@ -21262,16 +21277,16 @@
         <v>6836954</v>
       </c>
       <c r="C242" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D242" s="2">
         <v>45362.625</v>
       </c>
       <c r="E242" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F242" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -21280,7 +21295,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J242">
         <v>2.15</v>
@@ -21348,16 +21363,16 @@
         <v>7951557</v>
       </c>
       <c r="C243" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D243" s="2">
         <v>45366.52083333334</v>
       </c>
       <c r="E243" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F243" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G243">
         <v>3</v>
@@ -21366,7 +21381,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J243">
         <v>1.615</v>
@@ -21434,16 +21449,16 @@
         <v>7949044</v>
       </c>
       <c r="C244" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D244" s="2">
         <v>45366.64583333334</v>
       </c>
       <c r="E244" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F244" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -21452,7 +21467,7 @@
         <v>2</v>
       </c>
       <c r="I244" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J244">
         <v>1.75</v>
@@ -21520,16 +21535,16 @@
         <v>7951558</v>
       </c>
       <c r="C245" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D245" s="2">
         <v>45367.5</v>
       </c>
       <c r="E245" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F245" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G245">
         <v>1</v>
@@ -21538,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J245">
         <v>2.1</v>
@@ -21606,16 +21621,16 @@
         <v>7949046</v>
       </c>
       <c r="C246" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D246" s="2">
         <v>45367.625</v>
       </c>
       <c r="E246" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F246" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G246">
         <v>1</v>
@@ -21624,7 +21639,7 @@
         <v>2</v>
       </c>
       <c r="I246" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J246">
         <v>2.05</v>
@@ -21692,16 +21707,16 @@
         <v>7951775</v>
       </c>
       <c r="C247" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D247" s="2">
         <v>45368.55208333334</v>
       </c>
       <c r="E247" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F247" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G247">
         <v>3</v>
@@ -21710,7 +21725,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J247">
         <v>1.909</v>
@@ -21778,16 +21793,16 @@
         <v>7953049</v>
       </c>
       <c r="C248" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D248" s="2">
         <v>45368.66666666666</v>
       </c>
       <c r="E248" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F248" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G248">
         <v>2</v>
@@ -21796,7 +21811,7 @@
         <v>1</v>
       </c>
       <c r="I248" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J248">
         <v>1.65</v>
@@ -21864,16 +21879,16 @@
         <v>7951776</v>
       </c>
       <c r="C249" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D249" s="2">
         <v>45369.52083333334</v>
       </c>
       <c r="E249" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F249" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G249">
         <v>4</v>
@@ -21882,7 +21897,7 @@
         <v>3</v>
       </c>
       <c r="I249" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J249">
         <v>1.909</v>
@@ -21950,16 +21965,16 @@
         <v>7951777</v>
       </c>
       <c r="C250" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D250" s="2">
         <v>45369.64583333334</v>
       </c>
       <c r="E250" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F250" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -21968,7 +21983,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J250">
         <v>2.25</v>
@@ -22036,16 +22051,16 @@
         <v>7951781</v>
       </c>
       <c r="C251" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D251" s="2">
         <v>45380.52083333334</v>
       </c>
       <c r="E251" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F251" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -22054,7 +22069,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J251">
         <v>3</v>
@@ -22122,16 +22137,16 @@
         <v>7951750</v>
       </c>
       <c r="C252" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D252" s="2">
         <v>45380.64583333334</v>
       </c>
       <c r="E252" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F252" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G252">
         <v>1</v>
@@ -22140,7 +22155,7 @@
         <v>1</v>
       </c>
       <c r="I252" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J252">
         <v>3.3</v>
@@ -22208,16 +22223,16 @@
         <v>8010912</v>
       </c>
       <c r="C253" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D253" s="2">
         <v>45381.44791666666</v>
       </c>
       <c r="E253" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F253" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G253">
         <v>2</v>
@@ -22226,7 +22241,7 @@
         <v>1</v>
       </c>
       <c r="I253" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J253">
         <v>2.55</v>
@@ -22294,16 +22309,16 @@
         <v>8010913</v>
       </c>
       <c r="C254" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D254" s="2">
         <v>45381.54166666666</v>
       </c>
       <c r="E254" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F254" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -22312,7 +22327,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J254">
         <v>1.95</v>
@@ -22380,16 +22395,16 @@
         <v>7951749</v>
       </c>
       <c r="C255" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D255" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E255" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F255" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G255">
         <v>2</v>
@@ -22398,7 +22413,7 @@
         <v>1</v>
       </c>
       <c r="I255" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J255">
         <v>2.1</v>
@@ -22466,16 +22481,16 @@
         <v>7951779</v>
       </c>
       <c r="C256" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D256" s="2">
         <v>45382.33333333334</v>
       </c>
       <c r="E256" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F256" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G256">
         <v>1</v>
@@ -22484,7 +22499,7 @@
         <v>2</v>
       </c>
       <c r="I256" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J256">
         <v>2.3</v>
@@ -22552,16 +22567,16 @@
         <v>7951748</v>
       </c>
       <c r="C257" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D257" s="2">
         <v>45382.625</v>
       </c>
       <c r="E257" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F257" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -22570,7 +22585,7 @@
         <v>1</v>
       </c>
       <c r="I257" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J257">
         <v>3.6</v>
@@ -22638,16 +22653,16 @@
         <v>7951780</v>
       </c>
       <c r="C258" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D258" s="2">
         <v>45383.60416666666</v>
       </c>
       <c r="E258" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F258" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -22656,7 +22671,7 @@
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J258">
         <v>2.3</v>
@@ -22724,16 +22739,16 @@
         <v>7951783</v>
       </c>
       <c r="C259" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D259" s="2">
         <v>45387.47916666666</v>
       </c>
       <c r="E259" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F259" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -22742,7 +22757,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J259">
         <v>1.95</v>
@@ -22810,16 +22825,16 @@
         <v>7951753</v>
       </c>
       <c r="C260" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D260" s="2">
         <v>45387.60416666666</v>
       </c>
       <c r="E260" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F260" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G260">
         <v>1</v>
@@ -22828,7 +22843,7 @@
         <v>1</v>
       </c>
       <c r="I260" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J260">
         <v>2.15</v>
@@ -22896,16 +22911,16 @@
         <v>7951785</v>
       </c>
       <c r="C261" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D261" s="2">
         <v>45388.47916666666</v>
       </c>
       <c r="E261" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F261" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -22914,7 +22929,7 @@
         <v>4</v>
       </c>
       <c r="I261" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J261">
         <v>1.95</v>
@@ -22982,16 +22997,16 @@
         <v>7951752</v>
       </c>
       <c r="C262" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D262" s="2">
         <v>45388.60416666666</v>
       </c>
       <c r="E262" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F262" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -23000,7 +23015,7 @@
         <v>4</v>
       </c>
       <c r="I262" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J262">
         <v>2.8</v>
@@ -23068,16 +23083,16 @@
         <v>7951784</v>
       </c>
       <c r="C263" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D263" s="2">
         <v>45389.35416666666</v>
       </c>
       <c r="E263" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F263" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G263">
         <v>1</v>
@@ -23086,7 +23101,7 @@
         <v>1</v>
       </c>
       <c r="I263" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J263">
         <v>2.4</v>
@@ -23154,16 +23169,16 @@
         <v>7951751</v>
       </c>
       <c r="C264" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D264" s="2">
         <v>45389.60416666666</v>
       </c>
       <c r="E264" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F264" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G264">
         <v>2</v>
@@ -23172,7 +23187,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J264">
         <v>1.85</v>
@@ -23240,16 +23255,16 @@
         <v>7951787</v>
       </c>
       <c r="C265" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D265" s="2">
         <v>45390.47916666666</v>
       </c>
       <c r="E265" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F265" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -23258,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J265">
         <v>2.2</v>
@@ -23326,16 +23341,16 @@
         <v>7951786</v>
       </c>
       <c r="C266" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D266" s="2">
         <v>45390.60416666666</v>
       </c>
       <c r="E266" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F266" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -23344,7 +23359,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J266">
         <v>2.05</v>
@@ -23412,16 +23427,16 @@
         <v>7951792</v>
       </c>
       <c r="C267" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D267" s="2">
         <v>45394.47916666666</v>
       </c>
       <c r="E267" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F267" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -23430,7 +23445,7 @@
         <v>3</v>
       </c>
       <c r="I267" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J267">
         <v>2.3</v>
@@ -23498,16 +23513,16 @@
         <v>7951755</v>
       </c>
       <c r="C268" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D268" s="2">
         <v>45394.60416666666</v>
       </c>
       <c r="E268" t="s">
+        <v>51</v>
+      </c>
+      <c r="F268" t="s">
         <v>46</v>
-      </c>
-      <c r="F268" t="s">
-        <v>41</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -23516,7 +23531,7 @@
         <v>2</v>
       </c>
       <c r="I268" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J268">
         <v>1.8</v>
@@ -23584,16 +23599,16 @@
         <v>7951790</v>
       </c>
       <c r="C269" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D269" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E269" t="s">
+        <v>42</v>
+      </c>
+      <c r="F269" t="s">
         <v>37</v>
-      </c>
-      <c r="F269" t="s">
-        <v>32</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -23602,7 +23617,7 @@
         <v>1</v>
       </c>
       <c r="I269" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J269">
         <v>2.4</v>
@@ -23670,16 +23685,16 @@
         <v>7951791</v>
       </c>
       <c r="C270" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D270" s="2">
         <v>45395.64583333334</v>
       </c>
       <c r="E270" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F270" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -23688,7 +23703,7 @@
         <v>2</v>
       </c>
       <c r="I270" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J270">
         <v>1.909</v>
@@ -23756,16 +23771,16 @@
         <v>7951788</v>
       </c>
       <c r="C271" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D271" s="2">
         <v>45396.3125</v>
       </c>
       <c r="E271" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F271" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G271">
         <v>4</v>
@@ -23774,7 +23789,7 @@
         <v>1</v>
       </c>
       <c r="I271" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J271">
         <v>2.4</v>
@@ -23842,16 +23857,16 @@
         <v>7951789</v>
       </c>
       <c r="C272" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D272" s="2">
         <v>45396.51041666666</v>
       </c>
       <c r="E272" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F272" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -23860,7 +23875,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J272">
         <v>2.25</v>
@@ -23928,16 +23943,16 @@
         <v>7951754</v>
       </c>
       <c r="C273" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D273" s="2">
         <v>45396.625</v>
       </c>
       <c r="E273" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F273" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -23946,7 +23961,7 @@
         <v>1</v>
       </c>
       <c r="I273" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J273">
         <v>2.3</v>
@@ -24014,16 +24029,16 @@
         <v>7951756</v>
       </c>
       <c r="C274" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D274" s="2">
         <v>45397.60416666666</v>
       </c>
       <c r="E274" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F274" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -24032,7 +24047,7 @@
         <v>1</v>
       </c>
       <c r="I274" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J274">
         <v>1.95</v>
@@ -24100,16 +24115,16 @@
         <v>7951793</v>
       </c>
       <c r="C275" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D275" s="2">
         <v>45401.47916666666</v>
       </c>
       <c r="E275" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F275" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G275">
         <v>1</v>
@@ -24118,7 +24133,7 @@
         <v>1</v>
       </c>
       <c r="I275" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J275">
         <v>1.909</v>
@@ -24186,16 +24201,16 @@
         <v>7951758</v>
       </c>
       <c r="C276" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D276" s="2">
         <v>45401.60416666666</v>
       </c>
       <c r="E276" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F276" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G276">
         <v>5</v>
@@ -24204,7 +24219,7 @@
         <v>1</v>
       </c>
       <c r="I276" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J276">
         <v>3.1</v>
@@ -24272,16 +24287,16 @@
         <v>7951796</v>
       </c>
       <c r="C277" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D277" s="2">
         <v>45402.375</v>
       </c>
       <c r="E277" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F277" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G277">
         <v>3</v>
@@ -24290,7 +24305,7 @@
         <v>1</v>
       </c>
       <c r="I277" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J277">
         <v>2.25</v>
@@ -24358,16 +24373,16 @@
         <v>7951797</v>
       </c>
       <c r="C278" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D278" s="2">
         <v>45402.47916666666</v>
       </c>
       <c r="E278" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F278" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -24376,7 +24391,7 @@
         <v>1</v>
       </c>
       <c r="I278" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J278">
         <v>2.2</v>
@@ -24444,16 +24459,16 @@
         <v>7951757</v>
       </c>
       <c r="C279" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D279" s="2">
         <v>45402.60416666666</v>
       </c>
       <c r="E279" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F279" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G279">
         <v>2</v>
@@ -24462,7 +24477,7 @@
         <v>2</v>
       </c>
       <c r="I279" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J279">
         <v>1.85</v>
@@ -24530,16 +24545,16 @@
         <v>7951795</v>
       </c>
       <c r="C280" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D280" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E280" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F280" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G280">
         <v>1</v>
@@ -24548,7 +24563,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J280">
         <v>2.75</v>
@@ -24616,16 +24631,16 @@
         <v>7951759</v>
       </c>
       <c r="C281" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D281" s="2">
         <v>45403.54166666666</v>
       </c>
       <c r="E281" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F281" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -24634,7 +24649,7 @@
         <v>3</v>
       </c>
       <c r="I281" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J281">
         <v>2.6</v>
@@ -24702,16 +24717,16 @@
         <v>7951794</v>
       </c>
       <c r="C282" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D282" s="2">
         <v>45404.54166666666</v>
       </c>
       <c r="E282" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F282" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -24720,7 +24735,7 @@
         <v>1</v>
       </c>
       <c r="I282" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J282">
         <v>2.1</v>
@@ -24788,16 +24803,16 @@
         <v>7951799</v>
       </c>
       <c r="C283" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D283" s="2">
         <v>45405.45833333334</v>
       </c>
       <c r="E283" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F283" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -24806,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J283">
         <v>2.375</v>
@@ -24874,16 +24889,16 @@
         <v>7951798</v>
       </c>
       <c r="C284" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D284" s="2">
         <v>45405.5625</v>
       </c>
       <c r="E284" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F284" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G284">
         <v>2</v>
@@ -24892,7 +24907,7 @@
         <v>1</v>
       </c>
       <c r="I284" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J284">
         <v>2.375</v>
@@ -24960,16 +24975,16 @@
         <v>7951800</v>
       </c>
       <c r="C285" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D285" s="2">
         <v>45406.44791666666</v>
       </c>
       <c r="E285" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F285" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G285">
         <v>1</v>
@@ -24978,7 +24993,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J285">
         <v>1.75</v>
@@ -25046,16 +25061,16 @@
         <v>7951761</v>
       </c>
       <c r="C286" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D286" s="2">
         <v>45406.54166666666</v>
       </c>
       <c r="E286" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F286" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G286">
         <v>3</v>
@@ -25064,7 +25079,7 @@
         <v>1</v>
       </c>
       <c r="I286" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J286">
         <v>2.625</v>
@@ -25132,16 +25147,16 @@
         <v>7951760</v>
       </c>
       <c r="C287" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D287" s="2">
         <v>45406.65625</v>
       </c>
       <c r="E287" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F287" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G287">
         <v>2</v>
@@ -25150,7 +25165,7 @@
         <v>2</v>
       </c>
       <c r="I287" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J287">
         <v>3.1</v>
@@ -25218,16 +25233,16 @@
         <v>7951801</v>
       </c>
       <c r="C288" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D288" s="2">
         <v>45407.44791666666</v>
       </c>
       <c r="E288" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F288" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G288">
         <v>3</v>
@@ -25236,7 +25251,7 @@
         <v>1</v>
       </c>
       <c r="I288" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J288">
         <v>2.3</v>
@@ -25304,16 +25319,16 @@
         <v>7951802</v>
       </c>
       <c r="C289" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D289" s="2">
         <v>45407.54166666666</v>
       </c>
       <c r="E289" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F289" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G289">
         <v>2</v>
@@ -25322,7 +25337,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J289">
         <v>1.95</v>
@@ -25390,16 +25405,16 @@
         <v>7951762</v>
       </c>
       <c r="C290" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D290" s="2">
         <v>45407.65625</v>
       </c>
       <c r="E290" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F290" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G290">
         <v>0</v>
@@ -25408,7 +25423,7 @@
         <v>1</v>
       </c>
       <c r="I290" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J290">
         <v>2.375</v>
@@ -25476,16 +25491,16 @@
         <v>7951807</v>
       </c>
       <c r="C291" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D291" s="2">
         <v>45408.58333333334</v>
       </c>
       <c r="E291" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F291" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G291">
         <v>1</v>
@@ -25494,7 +25509,7 @@
         <v>1</v>
       </c>
       <c r="I291" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J291">
         <v>2.2</v>
@@ -25562,16 +25577,16 @@
         <v>7951806</v>
       </c>
       <c r="C292" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D292" s="2">
         <v>45409.47916666666</v>
       </c>
       <c r="E292" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F292" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G292">
         <v>3</v>
@@ -25580,7 +25595,7 @@
         <v>2</v>
       </c>
       <c r="I292" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J292">
         <v>2.4</v>
@@ -25648,16 +25663,16 @@
         <v>7951763</v>
       </c>
       <c r="C293" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D293" s="2">
         <v>45409.60416666666</v>
       </c>
       <c r="E293" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F293" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G293">
         <v>2</v>
@@ -25666,7 +25681,7 @@
         <v>1</v>
       </c>
       <c r="I293" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J293">
         <v>1.909</v>
@@ -25734,16 +25749,16 @@
         <v>7951804</v>
       </c>
       <c r="C294" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D294" s="2">
         <v>45410.3125</v>
       </c>
       <c r="E294" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F294" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G294">
         <v>1</v>
@@ -25752,7 +25767,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J294">
         <v>2.4</v>
@@ -25820,16 +25835,16 @@
         <v>7951805</v>
       </c>
       <c r="C295" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D295" s="2">
         <v>45410.51041666666</v>
       </c>
       <c r="E295" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F295" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -25838,7 +25853,7 @@
         <v>2</v>
       </c>
       <c r="I295" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J295">
         <v>2.4</v>
@@ -25906,16 +25921,16 @@
         <v>7951765</v>
       </c>
       <c r="C296" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D296" s="2">
         <v>45410.625</v>
       </c>
       <c r="E296" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F296" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G296">
         <v>2</v>
@@ -25924,7 +25939,7 @@
         <v>1</v>
       </c>
       <c r="I296" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J296">
         <v>1.8</v>
@@ -25992,16 +26007,16 @@
         <v>7951803</v>
       </c>
       <c r="C297" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D297" s="2">
         <v>45411.47916666666</v>
       </c>
       <c r="E297" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F297" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G297">
         <v>1</v>
@@ -26010,7 +26025,7 @@
         <v>2</v>
       </c>
       <c r="I297" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J297">
         <v>1.909</v>
@@ -26078,16 +26093,16 @@
         <v>7951764</v>
       </c>
       <c r="C298" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D298" s="2">
         <v>45411.60416666666</v>
       </c>
       <c r="E298" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F298" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G298">
         <v>1</v>
@@ -26096,7 +26111,7 @@
         <v>2</v>
       </c>
       <c r="I298" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J298">
         <v>2.3</v>
@@ -26164,16 +26179,16 @@
         <v>7951768</v>
       </c>
       <c r="C299" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D299" s="2">
         <v>45415.58333333334</v>
       </c>
       <c r="E299" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F299" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G299">
         <v>1</v>
@@ -26182,7 +26197,7 @@
         <v>4</v>
       </c>
       <c r="I299" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J299">
         <v>2</v>
@@ -26250,16 +26265,16 @@
         <v>7951808</v>
       </c>
       <c r="C300" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D300" s="2">
         <v>45416.35416666666</v>
       </c>
       <c r="E300" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F300" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G300">
         <v>0</v>
@@ -26268,7 +26283,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J300">
         <v>2.3</v>
@@ -26336,16 +26351,16 @@
         <v>7951809</v>
       </c>
       <c r="C301" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D301" s="2">
         <v>45416.58333333334</v>
       </c>
       <c r="E301" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F301" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G301">
         <v>3</v>
@@ -26354,7 +26369,7 @@
         <v>3</v>
       </c>
       <c r="I301" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J301">
         <v>2.3</v>
@@ -26422,16 +26437,16 @@
         <v>7951812</v>
       </c>
       <c r="C302" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D302" s="2">
         <v>45417.39583333334</v>
       </c>
       <c r="E302" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F302" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G302">
         <v>2</v>
@@ -26440,7 +26455,7 @@
         <v>1</v>
       </c>
       <c r="I302" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J302">
         <v>2.2</v>
@@ -26508,16 +26523,16 @@
         <v>7951767</v>
       </c>
       <c r="C303" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D303" s="2">
         <v>45417.64583333334</v>
       </c>
       <c r="E303" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F303" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G303">
         <v>3</v>
@@ -26526,7 +26541,7 @@
         <v>2</v>
       </c>
       <c r="I303" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J303">
         <v>1.4</v>
@@ -26594,16 +26609,16 @@
         <v>7951811</v>
       </c>
       <c r="C304" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D304" s="2">
         <v>45418.375</v>
       </c>
       <c r="E304" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F304" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G304">
         <v>0</v>
@@ -26612,7 +26627,7 @@
         <v>1</v>
       </c>
       <c r="I304" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J304">
         <v>1.833</v>
@@ -26680,16 +26695,16 @@
         <v>7951810</v>
       </c>
       <c r="C305" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D305" s="2">
         <v>45418.5</v>
       </c>
       <c r="E305" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F305" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G305">
         <v>3</v>
@@ -26698,7 +26713,7 @@
         <v>1</v>
       </c>
       <c r="I305" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J305">
         <v>2.3</v>
@@ -26766,16 +26781,16 @@
         <v>7951766</v>
       </c>
       <c r="C306" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D306" s="2">
         <v>45418.625</v>
       </c>
       <c r="E306" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F306" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G306">
         <v>2</v>
@@ -26784,7 +26799,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J306">
         <v>1.85</v>
@@ -26852,16 +26867,16 @@
         <v>27</v>
       </c>
       <c r="C307" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D307" s="2">
         <v>45422.60416666666</v>
       </c>
       <c r="E307" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F307" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J307">
         <v>2.5</v>
@@ -26876,7 +26891,7 @@
         <v>2.45</v>
       </c>
       <c r="N307">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O307">
         <v>2.625</v>
@@ -26894,10 +26909,10 @@
         <v>2.75</v>
       </c>
       <c r="T307">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U307">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V307">
         <v>0</v>
@@ -26917,16 +26932,16 @@
         <v>28</v>
       </c>
       <c r="C308" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D308" s="2">
         <v>45423.58333333334</v>
       </c>
       <c r="E308" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F308" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J308">
         <v>3.1</v>
@@ -26956,13 +26971,13 @@
         <v>1.925</v>
       </c>
       <c r="S308">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T308">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U308">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V308">
         <v>0</v>
@@ -26982,60 +26997,385 @@
         <v>29</v>
       </c>
       <c r="C309" t="s">
+        <v>35</v>
+      </c>
+      <c r="D309" s="2">
+        <v>45424.64583333334</v>
+      </c>
+      <c r="E309" t="s">
+        <v>48</v>
+      </c>
+      <c r="F309" t="s">
+        <v>40</v>
+      </c>
+      <c r="J309">
+        <v>2.1</v>
+      </c>
+      <c r="K309">
+        <v>3.3</v>
+      </c>
+      <c r="L309">
+        <v>3.1</v>
+      </c>
+      <c r="M309">
+        <v>1.55</v>
+      </c>
+      <c r="N309">
+        <v>3.5</v>
+      </c>
+      <c r="O309">
+        <v>5.75</v>
+      </c>
+      <c r="P309">
+        <v>-0.75</v>
+      </c>
+      <c r="Q309">
+        <v>1.775</v>
+      </c>
+      <c r="R309">
+        <v>2.1</v>
+      </c>
+      <c r="S309">
+        <v>2.25</v>
+      </c>
+      <c r="T309">
+        <v>2</v>
+      </c>
+      <c r="U309">
+        <v>1.85</v>
+      </c>
+      <c r="V309">
+        <v>0</v>
+      </c>
+      <c r="W309">
+        <v>0</v>
+      </c>
+      <c r="X309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:28">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
         <v>30</v>
       </c>
-      <c r="D309" s="2">
+      <c r="C310" t="s">
+        <v>35</v>
+      </c>
+      <c r="D310" s="2">
+        <v>45424.64583333334</v>
+      </c>
+      <c r="E310" t="s">
+        <v>43</v>
+      </c>
+      <c r="F310" t="s">
+        <v>45</v>
+      </c>
+      <c r="J310">
+        <v>1.833</v>
+      </c>
+      <c r="K310">
+        <v>3.4</v>
+      </c>
+      <c r="L310">
+        <v>3.6</v>
+      </c>
+      <c r="M310">
+        <v>1.8</v>
+      </c>
+      <c r="N310">
+        <v>3.3</v>
+      </c>
+      <c r="O310">
+        <v>4</v>
+      </c>
+      <c r="P310">
+        <v>-0.5</v>
+      </c>
+      <c r="Q310">
+        <v>1.85</v>
+      </c>
+      <c r="R310">
+        <v>2</v>
+      </c>
+      <c r="S310">
+        <v>2.25</v>
+      </c>
+      <c r="T310">
+        <v>1.875</v>
+      </c>
+      <c r="U310">
+        <v>1.975</v>
+      </c>
+      <c r="V310">
+        <v>0</v>
+      </c>
+      <c r="W310">
+        <v>0</v>
+      </c>
+      <c r="X310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:28">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>31</v>
+      </c>
+      <c r="C311" t="s">
+        <v>35</v>
+      </c>
+      <c r="D311" s="2">
+        <v>45424.64583333334</v>
+      </c>
+      <c r="E311" t="s">
+        <v>41</v>
+      </c>
+      <c r="F311" t="s">
+        <v>39</v>
+      </c>
+      <c r="J311">
+        <v>2.625</v>
+      </c>
+      <c r="K311">
+        <v>3.3</v>
+      </c>
+      <c r="L311">
+        <v>2.45</v>
+      </c>
+      <c r="M311">
+        <v>2.05</v>
+      </c>
+      <c r="N311">
+        <v>3.3</v>
+      </c>
+      <c r="O311">
+        <v>3</v>
+      </c>
+      <c r="P311">
+        <v>-0.25</v>
+      </c>
+      <c r="Q311">
+        <v>1.875</v>
+      </c>
+      <c r="R311">
+        <v>1.975</v>
+      </c>
+      <c r="S311">
+        <v>2.25</v>
+      </c>
+      <c r="T311">
+        <v>2.025</v>
+      </c>
+      <c r="U311">
+        <v>1.825</v>
+      </c>
+      <c r="V311">
+        <v>0</v>
+      </c>
+      <c r="W311">
+        <v>0</v>
+      </c>
+      <c r="X311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:28">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>32</v>
+      </c>
+      <c r="C312" t="s">
+        <v>35</v>
+      </c>
+      <c r="D312" s="2">
+        <v>45424.64583333334</v>
+      </c>
+      <c r="E312" t="s">
+        <v>42</v>
+      </c>
+      <c r="F312" t="s">
+        <v>49</v>
+      </c>
+      <c r="J312">
+        <v>3.05</v>
+      </c>
+      <c r="K312">
+        <v>3.3</v>
+      </c>
+      <c r="L312">
+        <v>2.15</v>
+      </c>
+      <c r="M312">
+        <v>2.25</v>
+      </c>
+      <c r="N312">
+        <v>3.4</v>
+      </c>
+      <c r="O312">
+        <v>2.75</v>
+      </c>
+      <c r="P312">
+        <v>-0.25</v>
+      </c>
+      <c r="Q312">
+        <v>2.05</v>
+      </c>
+      <c r="R312">
+        <v>1.8</v>
+      </c>
+      <c r="S312">
+        <v>2.25</v>
+      </c>
+      <c r="T312">
+        <v>2.1</v>
+      </c>
+      <c r="U312">
+        <v>1.775</v>
+      </c>
+      <c r="V312">
+        <v>0</v>
+      </c>
+      <c r="W312">
+        <v>0</v>
+      </c>
+      <c r="X312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:28">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>33</v>
+      </c>
+      <c r="C313" t="s">
+        <v>35</v>
+      </c>
+      <c r="D313" s="2">
+        <v>45424.64583333334</v>
+      </c>
+      <c r="E313" t="s">
+        <v>37</v>
+      </c>
+      <c r="F313" t="s">
+        <v>50</v>
+      </c>
+      <c r="J313">
+        <v>1.666</v>
+      </c>
+      <c r="K313">
+        <v>3.6</v>
+      </c>
+      <c r="L313">
+        <v>4.6</v>
+      </c>
+      <c r="M313">
+        <v>2.4</v>
+      </c>
+      <c r="N313">
+        <v>3.6</v>
+      </c>
+      <c r="O313">
+        <v>2.45</v>
+      </c>
+      <c r="P313">
+        <v>0</v>
+      </c>
+      <c r="Q313">
+        <v>1.875</v>
+      </c>
+      <c r="R313">
+        <v>1.975</v>
+      </c>
+      <c r="S313">
+        <v>2.25</v>
+      </c>
+      <c r="T313">
+        <v>2.1</v>
+      </c>
+      <c r="U313">
+        <v>1.775</v>
+      </c>
+      <c r="V313">
+        <v>0</v>
+      </c>
+      <c r="W313">
+        <v>0</v>
+      </c>
+      <c r="X313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:28">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>34</v>
+      </c>
+      <c r="C314" t="s">
+        <v>35</v>
+      </c>
+      <c r="D314" s="2">
         <v>45425.60416666666</v>
       </c>
-      <c r="E309" t="s">
-        <v>41</v>
-      </c>
-      <c r="F309" t="s">
+      <c r="E314" t="s">
         <v>46</v>
       </c>
-      <c r="J309">
+      <c r="F314" t="s">
+        <v>51</v>
+      </c>
+      <c r="J314">
         <v>2.375</v>
       </c>
-      <c r="K309">
+      <c r="K314">
         <v>3.4</v>
       </c>
-      <c r="L309">
+      <c r="L314">
         <v>2.55</v>
       </c>
-      <c r="M309">
+      <c r="M314">
         <v>2.2</v>
       </c>
-      <c r="N309">
+      <c r="N314">
         <v>3.4</v>
       </c>
-      <c r="O309">
+      <c r="O314">
         <v>2.8</v>
       </c>
-      <c r="P309">
+      <c r="P314">
         <v>-0.25</v>
       </c>
-      <c r="Q309">
+      <c r="Q314">
         <v>2.025</v>
       </c>
-      <c r="R309">
+      <c r="R314">
         <v>1.825</v>
       </c>
-      <c r="S309">
+      <c r="S314">
         <v>2.75</v>
       </c>
-      <c r="T309">
+      <c r="T314">
         <v>1.975</v>
       </c>
-      <c r="U309">
+      <c r="U314">
         <v>1.875</v>
       </c>
-      <c r="V309">
-        <v>0</v>
-      </c>
-      <c r="W309">
-        <v>0</v>
-      </c>
-      <c r="X309">
+      <c r="V314">
+        <v>0</v>
+      </c>
+      <c r="W314">
+        <v>0</v>
+      </c>
+      <c r="X314">
         <v>0</v>
       </c>
     </row>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -95,30 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7951771</t>
-  </si>
-  <si>
-    <t>7951769</t>
-  </si>
-  <si>
-    <t>8191462</t>
-  </si>
-  <si>
-    <t>8191463</t>
-  </si>
-  <si>
-    <t>8191475</t>
-  </si>
-  <si>
-    <t>8191476</t>
-  </si>
-  <si>
-    <t>8191523</t>
-  </si>
-  <si>
-    <t>7951770</t>
   </si>
   <si>
     <t>Romania Liga I</t>
@@ -540,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB314"/>
+  <dimension ref="A1:AB306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,16 +613,16 @@
         <v>6708870</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45078.60416666666</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -655,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J2">
         <v>1.7</v>
@@ -723,16 +699,16 @@
         <v>6831816</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45121.52083333334</v>
       </c>
       <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
         <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -741,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -809,16 +785,16 @@
         <v>6871393</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45121.64583333334</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -827,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J4">
         <v>1.95</v>
@@ -895,16 +871,16 @@
         <v>6836102</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45122.52083333334</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -913,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J5">
         <v>2.75</v>
@@ -981,16 +957,16 @@
         <v>6871392</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45122.64583333334</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -999,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>1.363</v>
@@ -1067,16 +1043,16 @@
         <v>6836106</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45123.52083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1085,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J7">
         <v>2.5</v>
@@ -1153,16 +1129,16 @@
         <v>6836105</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45123.64583333334</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1171,7 +1147,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J8">
         <v>3.4</v>
@@ -1239,16 +1215,16 @@
         <v>6831939</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45124.52083333334</v>
       </c>
       <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
         <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1257,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J9">
         <v>2.05</v>
@@ -1325,17 +1301,17 @@
         <v>6836104</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45124.64583333334</v>
       </c>
       <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
         <v>43</v>
       </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
       <c r="G10">
         <v>0</v>
       </c>
@@ -1343,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J10">
         <v>3.5</v>
@@ -1411,16 +1387,16 @@
         <v>6836111</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45128.52083333334</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1429,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J11">
         <v>1.75</v>
@@ -1497,16 +1473,16 @@
         <v>6836108</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45128.64583333334</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1515,7 +1491,7 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J12">
         <v>3.5</v>
@@ -1583,16 +1559,16 @@
         <v>6835772</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45129.51041666666</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1601,7 +1577,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1669,16 +1645,16 @@
         <v>6836110</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45129.64583333334</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1687,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J14">
         <v>1.533</v>
@@ -1755,16 +1731,16 @@
         <v>6836107</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45130.52083333334</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1773,7 +1749,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J15">
         <v>2.4</v>
@@ -1841,16 +1817,16 @@
         <v>6835195</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45130.64583333334</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1859,7 +1835,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J16">
         <v>2.375</v>
@@ -1927,16 +1903,16 @@
         <v>6863931</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45131.52083333334</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1945,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -2013,16 +1989,16 @@
         <v>6836109</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45131.64583333334</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2031,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J18">
         <v>1.5</v>
@@ -2099,16 +2075,16 @@
         <v>6836117</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45135.52083333334</v>
       </c>
       <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
         <v>41</v>
-      </c>
-      <c r="F19" t="s">
-        <v>49</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -2117,7 +2093,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J19">
         <v>2.25</v>
@@ -2185,16 +2161,16 @@
         <v>6835196</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45135.64583333334</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2203,7 +2179,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J20">
         <v>1.4</v>
@@ -2271,16 +2247,16 @@
         <v>6836113</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45136.52083333334</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2289,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>1.909</v>
@@ -2357,16 +2333,16 @@
         <v>6836115</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45136.64583333334</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2375,7 +2351,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J22">
         <v>4.75</v>
@@ -2443,16 +2419,16 @@
         <v>6836118</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2461,7 +2437,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J23">
         <v>1.615</v>
@@ -2529,16 +2505,16 @@
         <v>6836114</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45137.64583333334</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2547,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J24">
         <v>2.15</v>
@@ -2615,16 +2591,16 @@
         <v>6835773</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45138.52083333334</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2633,7 +2609,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J25">
         <v>2.55</v>
@@ -2701,16 +2677,16 @@
         <v>6836116</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45138.64583333334</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2719,7 +2695,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J26">
         <v>3.75</v>
@@ -2787,16 +2763,16 @@
         <v>6836124</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45142.52083333334</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2805,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -2873,16 +2849,16 @@
         <v>6836119</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45142.64583333334</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2891,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J28">
         <v>1.615</v>
@@ -2959,16 +2935,16 @@
         <v>6836123</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45143.52083333334</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2977,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J29">
         <v>2.375</v>
@@ -3045,16 +3021,16 @@
         <v>6836122</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45143.64583333334</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3063,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J30">
         <v>2.2</v>
@@ -3131,16 +3107,16 @@
         <v>6836125</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45144.51041666666</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3149,7 +3125,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J31">
         <v>2.875</v>
@@ -3217,16 +3193,16 @@
         <v>6836120</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45144.64583333334</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3235,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J32">
         <v>2.1</v>
@@ -3303,16 +3279,16 @@
         <v>6836121</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45145.52083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3321,7 +3297,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J33">
         <v>1.727</v>
@@ -3389,16 +3365,16 @@
         <v>6835197</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45145.64583333334</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3407,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J34">
         <v>3.1</v>
@@ -3475,16 +3451,16 @@
         <v>6835774</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45149.60416666666</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -3493,7 +3469,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J35">
         <v>2.375</v>
@@ -3561,16 +3537,16 @@
         <v>6836128</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45150.52083333334</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3579,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J36">
         <v>2.6</v>
@@ -3647,16 +3623,16 @@
         <v>6836130</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45150.64583333334</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3665,7 +3641,7 @@
         <v>4</v>
       </c>
       <c r="I37" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J37">
         <v>4</v>
@@ -3733,16 +3709,16 @@
         <v>6835198</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45151.64583333334</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3751,7 +3727,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J38">
         <v>1.8</v>
@@ -3819,16 +3795,16 @@
         <v>6836129</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45152.60416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3837,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -3905,16 +3881,16 @@
         <v>6836136</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45156.52083333334</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -3923,7 +3899,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J40">
         <v>2.3</v>
@@ -3991,16 +3967,16 @@
         <v>6836137</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45156.64583333334</v>
       </c>
       <c r="E41" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -4009,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J41">
         <v>1.45</v>
@@ -4077,16 +4053,16 @@
         <v>6836134</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4095,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J42">
         <v>2.1</v>
@@ -4163,16 +4139,16 @@
         <v>6835775</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45157.65625</v>
       </c>
       <c r="E43" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4181,7 +4157,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J43">
         <v>1.95</v>
@@ -4249,16 +4225,16 @@
         <v>6835199</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45158.51041666666</v>
       </c>
       <c r="E44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s">
         <v>38</v>
-      </c>
-      <c r="F44" t="s">
-        <v>46</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -4267,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J44">
         <v>2.05</v>
@@ -4335,16 +4311,16 @@
         <v>6836135</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45158.64583333334</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4353,7 +4329,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J45">
         <v>1.45</v>
@@ -4421,16 +4397,16 @@
         <v>6836132</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45159.52083333334</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4439,7 +4415,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J46">
         <v>2.15</v>
@@ -4507,16 +4483,16 @@
         <v>6836133</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45159.64583333334</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4525,7 +4501,7 @@
         <v>4</v>
       </c>
       <c r="I47" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J47">
         <v>4.2</v>
@@ -4593,16 +4569,16 @@
         <v>6835776</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45163.52083333334</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4611,7 +4587,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J48">
         <v>2.7</v>
@@ -4679,16 +4655,16 @@
         <v>6835200</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45163.64583333334</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -4697,7 +4673,7 @@
         <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J49">
         <v>2.7</v>
@@ -4765,16 +4741,16 @@
         <v>6836141</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4783,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J50">
         <v>1.363</v>
@@ -4851,16 +4827,16 @@
         <v>6836143</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45164.65625</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4869,7 +4845,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J51">
         <v>2.25</v>
@@ -4937,16 +4913,16 @@
         <v>6836139</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45165.64583333334</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4955,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J52">
         <v>2.6</v>
@@ -5023,16 +4999,16 @@
         <v>6836140</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45166.52083333334</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5041,7 +5017,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J53">
         <v>2.2</v>
@@ -5109,16 +5085,16 @@
         <v>6836138</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45166.64583333334</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F54" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5127,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J54">
         <v>4</v>
@@ -5195,16 +5171,16 @@
         <v>6836146</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45170.52083333334</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5213,7 +5189,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J55">
         <v>2.05</v>
@@ -5281,16 +5257,16 @@
         <v>6835201</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45170.64583333334</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G56">
         <v>4</v>
@@ -5299,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J56">
         <v>1.7</v>
@@ -5367,16 +5343,16 @@
         <v>6835777</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45171.54166666666</v>
       </c>
       <c r="E57" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5385,7 +5361,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J57">
         <v>4.333</v>
@@ -5453,16 +5429,16 @@
         <v>6836148</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45171.65625</v>
       </c>
       <c r="E58" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5471,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J58">
         <v>2.8</v>
@@ -5539,16 +5515,16 @@
         <v>6836149</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45172.64583333334</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G59">
         <v>4</v>
@@ -5557,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J59">
         <v>2.5</v>
@@ -5625,16 +5601,16 @@
         <v>6836145</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45173.29166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F60" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5643,7 +5619,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J60">
         <v>1.909</v>
@@ -5711,16 +5687,16 @@
         <v>6836144</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45173.52083333334</v>
       </c>
       <c r="E61" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5729,7 +5705,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J61">
         <v>2.8</v>
@@ -5797,16 +5773,16 @@
         <v>6836147</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45173.64583333334</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5815,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J62">
         <v>1.65</v>
@@ -5883,16 +5859,16 @@
         <v>6836152</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45184.52083333334</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5901,7 +5877,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J63">
         <v>2.5</v>
@@ -5969,16 +5945,16 @@
         <v>6836154</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45184.64583333334</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5987,7 +5963,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J64">
         <v>2.75</v>
@@ -6055,16 +6031,16 @@
         <v>6836153</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45185.64583333334</v>
       </c>
       <c r="E65" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6073,7 +6049,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J65">
         <v>1.909</v>
@@ -6141,16 +6117,16 @@
         <v>6835778</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45186.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -6159,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J66">
         <v>2</v>
@@ -6227,16 +6203,16 @@
         <v>6835202</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45186.55208333334</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6245,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -6313,16 +6289,16 @@
         <v>6836155</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45186.65625</v>
       </c>
       <c r="E68" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6331,7 +6307,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J68">
         <v>2.625</v>
@@ -6399,16 +6375,16 @@
         <v>6836150</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45187.52083333334</v>
       </c>
       <c r="E69" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F69" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6417,7 +6393,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J69">
         <v>2.4</v>
@@ -6485,16 +6461,16 @@
         <v>6836151</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45187.64583333334</v>
       </c>
       <c r="E70" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6503,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J70">
         <v>1.45</v>
@@ -6571,17 +6547,17 @@
         <v>6836126</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45190.58333333334</v>
       </c>
       <c r="E71" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" t="s">
         <v>39</v>
       </c>
-      <c r="F71" t="s">
-        <v>47</v>
-      </c>
       <c r="G71">
         <v>2</v>
       </c>
@@ -6589,7 +6565,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J71">
         <v>3.7</v>
@@ -6657,16 +6633,16 @@
         <v>6836159</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45191.5</v>
       </c>
       <c r="E72" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6675,7 +6651,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J72">
         <v>1.95</v>
@@ -6743,25 +6719,25 @@
         <v>6836161</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45191.625</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
+        <v>38</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73" t="s">
         <v>46</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>2</v>
-      </c>
-      <c r="I73" t="s">
-        <v>54</v>
       </c>
       <c r="J73">
         <v>3.3</v>
@@ -6829,16 +6805,16 @@
         <v>6835779</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45192.35416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F74" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6847,7 +6823,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J74">
         <v>2</v>
@@ -6915,25 +6891,25 @@
         <v>6836157</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45192.53125</v>
       </c>
       <c r="E75" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F75" t="s">
+        <v>37</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75" t="s">
         <v>45</v>
-      </c>
-      <c r="G75">
-        <v>2</v>
-      </c>
-      <c r="H75">
-        <v>2</v>
-      </c>
-      <c r="I75" t="s">
-        <v>53</v>
       </c>
       <c r="J75">
         <v>2.25</v>
@@ -7001,16 +6977,16 @@
         <v>6836158</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45192.64583333334</v>
       </c>
       <c r="E76" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F76" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7019,7 +6995,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -7087,16 +7063,16 @@
         <v>6836156</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45193.51041666666</v>
       </c>
       <c r="E77" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7105,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J77">
         <v>2.4</v>
@@ -7173,16 +7149,16 @@
         <v>6836160</v>
       </c>
       <c r="C78" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45193.625</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F78" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7191,7 +7167,7 @@
         <v>5</v>
       </c>
       <c r="I78" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J78">
         <v>2.7</v>
@@ -7259,16 +7235,16 @@
         <v>6835203</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45194.625</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7277,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J79">
         <v>2.8</v>
@@ -7345,16 +7321,16 @@
         <v>6836166</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45198.625</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7363,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J80">
         <v>2.3</v>
@@ -7431,25 +7407,25 @@
         <v>6835780</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45199.35416666666</v>
       </c>
       <c r="E81" t="s">
+        <v>37</v>
+      </c>
+      <c r="F81" t="s">
+        <v>34</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81" t="s">
         <v>45</v>
-      </c>
-      <c r="F81" t="s">
-        <v>42</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81" t="s">
-        <v>53</v>
       </c>
       <c r="J81">
         <v>2.2</v>
@@ -7517,16 +7493,16 @@
         <v>6836167</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45199.64583333334</v>
       </c>
       <c r="E82" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7535,7 +7511,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J82">
         <v>2.2</v>
@@ -7603,16 +7579,16 @@
         <v>6836163</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45200.375</v>
       </c>
       <c r="E83" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F83" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G83">
         <v>5</v>
@@ -7621,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J83">
         <v>1.444</v>
@@ -7689,16 +7665,16 @@
         <v>6835204</v>
       </c>
       <c r="C84" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45200.5</v>
       </c>
       <c r="E84" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7707,7 +7683,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J84">
         <v>2.875</v>
@@ -7775,16 +7751,16 @@
         <v>6836164</v>
       </c>
       <c r="C85" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45200.625</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7793,7 +7769,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J85">
         <v>1.5</v>
@@ -7861,16 +7837,16 @@
         <v>6836162</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45201.5</v>
       </c>
       <c r="E86" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7879,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J86">
         <v>2.9</v>
@@ -7947,16 +7923,16 @@
         <v>6836165</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45201.625</v>
       </c>
       <c r="E87" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F87" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7965,7 +7941,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J87">
         <v>1.4</v>
@@ -8033,16 +8009,16 @@
         <v>6836127</v>
       </c>
       <c r="C88" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45204.58333333334</v>
       </c>
       <c r="E88" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" t="s">
         <v>36</v>
-      </c>
-      <c r="F88" t="s">
-        <v>44</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8051,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J88">
         <v>1.8</v>
@@ -8119,16 +8095,16 @@
         <v>6836168</v>
       </c>
       <c r="C89" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45205.5</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8137,7 +8113,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J89">
         <v>2.3</v>
@@ -8205,16 +8181,16 @@
         <v>6835205</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45205.625</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G90">
         <v>3</v>
@@ -8223,7 +8199,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J90">
         <v>1.5</v>
@@ -8291,25 +8267,25 @@
         <v>6836169</v>
       </c>
       <c r="C91" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45206.33333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F91" t="s">
+        <v>37</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91" t="s">
         <v>45</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91" t="s">
-        <v>53</v>
       </c>
       <c r="J91">
         <v>2.1</v>
@@ -8377,16 +8353,16 @@
         <v>6835781</v>
       </c>
       <c r="C92" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45206.53125</v>
       </c>
       <c r="E92" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F92" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8395,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J92">
         <v>4</v>
@@ -8463,16 +8439,16 @@
         <v>6836170</v>
       </c>
       <c r="C93" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45206.64583333334</v>
       </c>
       <c r="E93" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F93" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8481,7 +8457,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -8549,16 +8525,16 @@
         <v>6836173</v>
       </c>
       <c r="C94" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E94" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F94" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8567,7 +8543,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J94">
         <v>2.75</v>
@@ -8635,16 +8611,16 @@
         <v>6836171</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45207.64583333334</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8653,7 +8629,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J95">
         <v>4</v>
@@ -8721,16 +8697,16 @@
         <v>6836172</v>
       </c>
       <c r="C96" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45208.625</v>
       </c>
       <c r="E96" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8739,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J96">
         <v>2.8</v>
@@ -8807,16 +8783,16 @@
         <v>7122732</v>
       </c>
       <c r="C97" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45218.58333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8825,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J97">
         <v>2.625</v>
@@ -8893,25 +8869,25 @@
         <v>6835206</v>
       </c>
       <c r="C98" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45219.625</v>
       </c>
       <c r="E98" t="s">
+        <v>37</v>
+      </c>
+      <c r="F98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G98">
+        <v>2</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98" t="s">
         <v>45</v>
-      </c>
-      <c r="F98" t="s">
-        <v>38</v>
-      </c>
-      <c r="G98">
-        <v>2</v>
-      </c>
-      <c r="H98">
-        <v>2</v>
-      </c>
-      <c r="I98" t="s">
-        <v>53</v>
       </c>
       <c r="J98">
         <v>3.4</v>
@@ -8979,16 +8955,16 @@
         <v>6836174</v>
       </c>
       <c r="C99" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F99" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G99">
         <v>4</v>
@@ -8997,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J99">
         <v>2.1</v>
@@ -9065,16 +9041,16 @@
         <v>6836179</v>
       </c>
       <c r="C100" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45220.65625</v>
       </c>
       <c r="E100" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9083,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J100">
         <v>1.833</v>
@@ -9151,16 +9127,16 @@
         <v>6836175</v>
       </c>
       <c r="C101" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45221.39583333334</v>
       </c>
       <c r="E101" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9169,7 +9145,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J101">
         <v>2.625</v>
@@ -9237,16 +9213,16 @@
         <v>6836176</v>
       </c>
       <c r="C102" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45221.5</v>
       </c>
       <c r="E102" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9255,7 +9231,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J102">
         <v>1.571</v>
@@ -9323,16 +9299,16 @@
         <v>6835782</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45221.625</v>
       </c>
       <c r="E103" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9341,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J103">
         <v>1.444</v>
@@ -9409,16 +9385,16 @@
         <v>6836177</v>
       </c>
       <c r="C104" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45222.5</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G104">
         <v>5</v>
@@ -9427,7 +9403,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J104">
         <v>1.571</v>
@@ -9495,16 +9471,16 @@
         <v>6836178</v>
       </c>
       <c r="C105" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45222.625</v>
       </c>
       <c r="E105" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9513,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J105">
         <v>1.4</v>
@@ -9581,25 +9557,25 @@
         <v>6836131</v>
       </c>
       <c r="C106" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45225.58333333334</v>
       </c>
       <c r="E106" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F106" t="s">
+        <v>37</v>
+      </c>
+      <c r="G106">
+        <v>2</v>
+      </c>
+      <c r="H106">
+        <v>2</v>
+      </c>
+      <c r="I106" t="s">
         <v>45</v>
-      </c>
-      <c r="G106">
-        <v>2</v>
-      </c>
-      <c r="H106">
-        <v>2</v>
-      </c>
-      <c r="I106" t="s">
-        <v>53</v>
       </c>
       <c r="J106">
         <v>1.65</v>
@@ -9667,16 +9643,16 @@
         <v>6835783</v>
       </c>
       <c r="C107" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45226.47916666666</v>
       </c>
       <c r="E107" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F107" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9685,7 +9661,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J107">
         <v>3</v>
@@ -9753,16 +9729,16 @@
         <v>6836181</v>
       </c>
       <c r="C108" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45226.60416666666</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F108" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9771,7 +9747,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J108">
         <v>2.4</v>
@@ -9839,16 +9815,16 @@
         <v>6836180</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45227.33333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9857,7 +9833,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J109">
         <v>2.6</v>
@@ -9925,16 +9901,16 @@
         <v>6836183</v>
       </c>
       <c r="C110" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45227.60416666666</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F110" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9943,7 +9919,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J110">
         <v>3.8</v>
@@ -10011,16 +9987,16 @@
         <v>6836182</v>
       </c>
       <c r="C111" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45228.375</v>
       </c>
       <c r="E111" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F111" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10029,7 +10005,7 @@
         <v>3</v>
       </c>
       <c r="I111" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J111">
         <v>2</v>
@@ -10097,16 +10073,16 @@
         <v>6835207</v>
       </c>
       <c r="C112" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45228.64583333334</v>
       </c>
       <c r="E112" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F112" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10115,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J112">
         <v>2.3</v>
@@ -10183,16 +10159,16 @@
         <v>6836184</v>
       </c>
       <c r="C113" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45229.52083333334</v>
       </c>
       <c r="E113" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F113" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10201,7 +10177,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -10269,16 +10245,16 @@
         <v>6836185</v>
       </c>
       <c r="C114" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45229.64583333334</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F114" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -10287,7 +10263,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J114">
         <v>1.909</v>
@@ -10355,16 +10331,16 @@
         <v>6836187</v>
       </c>
       <c r="C115" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45233.54166666666</v>
       </c>
       <c r="E115" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10373,7 +10349,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J115">
         <v>2.3</v>
@@ -10441,16 +10417,16 @@
         <v>6836190</v>
       </c>
       <c r="C116" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45234.48958333334</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10459,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J116">
         <v>1.909</v>
@@ -10527,16 +10503,16 @@
         <v>6836189</v>
       </c>
       <c r="C117" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45234.67708333334</v>
       </c>
       <c r="E117" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10545,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J117">
         <v>1.75</v>
@@ -10613,16 +10589,16 @@
         <v>6835784</v>
       </c>
       <c r="C118" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45235.41666666666</v>
       </c>
       <c r="E118" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10631,7 +10607,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J118">
         <v>2</v>
@@ -10699,16 +10675,16 @@
         <v>6836191</v>
       </c>
       <c r="C119" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45235.52083333334</v>
       </c>
       <c r="E119" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10717,7 +10693,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J119">
         <v>1.5</v>
@@ -10785,16 +10761,16 @@
         <v>6835208</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45235.64583333334</v>
       </c>
       <c r="E120" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10803,7 +10779,7 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J120">
         <v>2</v>
@@ -10871,16 +10847,16 @@
         <v>6836188</v>
       </c>
       <c r="C121" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45236.54166666666</v>
       </c>
       <c r="E121" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10889,7 +10865,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J121">
         <v>1.909</v>
@@ -10957,16 +10933,16 @@
         <v>6836186</v>
       </c>
       <c r="C122" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45236.66666666666</v>
       </c>
       <c r="E122" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10975,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J122">
         <v>3.5</v>
@@ -11043,16 +11019,16 @@
         <v>6835209</v>
       </c>
       <c r="C123" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E123" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11061,7 +11037,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J123">
         <v>2.5</v>
@@ -11129,16 +11105,16 @@
         <v>6836197</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45241.375</v>
       </c>
       <c r="E124" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11147,7 +11123,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J124">
         <v>2.2</v>
@@ -11215,16 +11191,16 @@
         <v>6836193</v>
       </c>
       <c r="C125" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45241.57291666666</v>
       </c>
       <c r="E125" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -11233,7 +11209,7 @@
         <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J125">
         <v>4.75</v>
@@ -11301,16 +11277,16 @@
         <v>6836192</v>
       </c>
       <c r="C126" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45241.66666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11319,7 +11295,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J126">
         <v>1.833</v>
@@ -11387,16 +11363,16 @@
         <v>6835785</v>
       </c>
       <c r="C127" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45242.35416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11405,7 +11381,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J127">
         <v>2.5</v>
@@ -11473,16 +11449,16 @@
         <v>6836195</v>
       </c>
       <c r="C128" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E128" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11491,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J128">
         <v>1.333</v>
@@ -11559,16 +11535,16 @@
         <v>6836196</v>
       </c>
       <c r="C129" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45242.66666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11577,7 +11553,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J129">
         <v>1.444</v>
@@ -11645,16 +11621,16 @@
         <v>6836194</v>
       </c>
       <c r="C130" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45243.64583333334</v>
       </c>
       <c r="E130" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11663,7 +11639,7 @@
         <v>4</v>
       </c>
       <c r="I130" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J130">
         <v>2.15</v>
@@ -11731,16 +11707,16 @@
         <v>6836198</v>
       </c>
       <c r="C131" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45254.52083333334</v>
       </c>
       <c r="E131" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F131" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11749,7 +11725,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J131">
         <v>2.05</v>
@@ -11817,16 +11793,16 @@
         <v>6836203</v>
       </c>
       <c r="C132" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45254.64583333334</v>
       </c>
       <c r="E132" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F132" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11835,7 +11811,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J132">
         <v>1.65</v>
@@ -11903,16 +11879,16 @@
         <v>6835786</v>
       </c>
       <c r="C133" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45255.52083333334</v>
       </c>
       <c r="E133" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G133">
         <v>4</v>
@@ -11921,7 +11897,7 @@
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J133">
         <v>3.2</v>
@@ -11989,25 +11965,25 @@
         <v>6836199</v>
       </c>
       <c r="C134" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45255.64583333334</v>
       </c>
       <c r="E134" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F134" t="s">
+        <v>37</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134" t="s">
         <v>45</v>
-      </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-      <c r="I134" t="s">
-        <v>53</v>
       </c>
       <c r="J134">
         <v>1.45</v>
@@ -12075,16 +12051,16 @@
         <v>6836200</v>
       </c>
       <c r="C135" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45256.52083333334</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F135" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12093,7 +12069,7 @@
         <v>3</v>
       </c>
       <c r="I135" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J135">
         <v>3.4</v>
@@ -12161,16 +12137,16 @@
         <v>6836201</v>
       </c>
       <c r="C136" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45256.64583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F136" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12179,7 +12155,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J136">
         <v>9</v>
@@ -12247,16 +12223,16 @@
         <v>6836202</v>
       </c>
       <c r="C137" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45257.52083333334</v>
       </c>
       <c r="E137" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F137" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12265,7 +12241,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J137">
         <v>2.6</v>
@@ -12333,16 +12309,16 @@
         <v>6835210</v>
       </c>
       <c r="C138" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45257.64583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F138" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12351,7 +12327,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J138">
         <v>1.833</v>
@@ -12419,16 +12395,16 @@
         <v>6835787</v>
       </c>
       <c r="C139" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45261.5</v>
       </c>
       <c r="E139" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12437,7 +12413,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J139">
         <v>2.3</v>
@@ -12505,16 +12481,16 @@
         <v>7528972</v>
       </c>
       <c r="C140" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45261.625</v>
       </c>
       <c r="E140" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F140" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12523,7 +12499,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J140">
         <v>3.3</v>
@@ -12591,16 +12567,16 @@
         <v>6836204</v>
       </c>
       <c r="C141" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45262.375</v>
       </c>
       <c r="E141" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -12609,7 +12585,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J141">
         <v>2.5</v>
@@ -12677,16 +12653,16 @@
         <v>6835211</v>
       </c>
       <c r="C142" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45262.5</v>
       </c>
       <c r="E142" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12695,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J142">
         <v>4.2</v>
@@ -12763,16 +12739,16 @@
         <v>6836205</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45262.64583333334</v>
       </c>
       <c r="E143" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12781,7 +12757,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J143">
         <v>2.6</v>
@@ -12849,16 +12825,16 @@
         <v>6836208</v>
       </c>
       <c r="C144" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45263.45833333334</v>
       </c>
       <c r="E144" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12867,7 +12843,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -12935,16 +12911,16 @@
         <v>6836206</v>
       </c>
       <c r="C145" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45263.66666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -12953,7 +12929,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J145">
         <v>1.363</v>
@@ -13021,16 +12997,16 @@
         <v>6836207</v>
       </c>
       <c r="C146" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45264.625</v>
       </c>
       <c r="E146" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13039,7 +13015,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J146">
         <v>1.6</v>
@@ -13107,16 +13083,16 @@
         <v>6836215</v>
       </c>
       <c r="C147" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45268.58333333334</v>
       </c>
       <c r="E147" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F147" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13125,7 +13101,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J147">
         <v>2.3</v>
@@ -13193,16 +13169,16 @@
         <v>6835212</v>
       </c>
       <c r="C148" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45269.65625</v>
       </c>
       <c r="E148" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13211,7 +13187,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J148">
         <v>1.7</v>
@@ -13279,16 +13255,16 @@
         <v>6836210</v>
       </c>
       <c r="C149" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45270.375</v>
       </c>
       <c r="E149" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F149" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13297,7 +13273,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J149">
         <v>2.875</v>
@@ -13365,16 +13341,16 @@
         <v>6836216</v>
       </c>
       <c r="C150" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45270.5</v>
       </c>
       <c r="E150" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13383,7 +13359,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J150">
         <v>1.9</v>
@@ -13451,16 +13427,16 @@
         <v>6836211</v>
       </c>
       <c r="C151" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45270.625</v>
       </c>
       <c r="E151" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F151" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13469,7 +13445,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J151">
         <v>2.7</v>
@@ -13537,16 +13513,16 @@
         <v>6836214</v>
       </c>
       <c r="C152" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45271.5</v>
       </c>
       <c r="E152" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F152" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13555,7 +13531,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J152">
         <v>1.85</v>
@@ -13623,16 +13599,16 @@
         <v>6836213</v>
       </c>
       <c r="C153" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45271.65625</v>
       </c>
       <c r="E153" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F153" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13641,7 +13617,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J153">
         <v>3.25</v>
@@ -13709,16 +13685,16 @@
         <v>6836212</v>
       </c>
       <c r="C154" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45272.5</v>
       </c>
       <c r="E154" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F154" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13727,7 +13703,7 @@
         <v>3</v>
       </c>
       <c r="I154" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J154">
         <v>2.7</v>
@@ -13795,16 +13771,16 @@
         <v>6835788</v>
       </c>
       <c r="C155" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45275.5</v>
       </c>
       <c r="E155" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13813,7 +13789,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J155">
         <v>2.3</v>
@@ -13881,16 +13857,16 @@
         <v>6835213</v>
       </c>
       <c r="C156" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45275.625</v>
       </c>
       <c r="E156" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13899,7 +13875,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J156">
         <v>3.1</v>
@@ -13967,25 +13943,25 @@
         <v>6836222</v>
       </c>
       <c r="C157" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45276.375</v>
       </c>
       <c r="E157" t="s">
+        <v>37</v>
+      </c>
+      <c r="F157" t="s">
+        <v>38</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157" t="s">
         <v>45</v>
-      </c>
-      <c r="F157" t="s">
-        <v>46</v>
-      </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-      <c r="H157">
-        <v>0</v>
-      </c>
-      <c r="I157" t="s">
-        <v>53</v>
       </c>
       <c r="J157">
         <v>3.1</v>
@@ -14053,16 +14029,16 @@
         <v>6836221</v>
       </c>
       <c r="C158" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45276.5</v>
       </c>
       <c r="E158" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F158" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14071,7 +14047,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J158">
         <v>1.45</v>
@@ -14139,16 +14115,16 @@
         <v>6836217</v>
       </c>
       <c r="C159" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45276.625</v>
       </c>
       <c r="E159" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G159">
         <v>3</v>
@@ -14157,7 +14133,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J159">
         <v>1.666</v>
@@ -14225,16 +14201,16 @@
         <v>6836219</v>
       </c>
       <c r="C160" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45277.41666666666</v>
       </c>
       <c r="E160" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14243,7 +14219,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J160">
         <v>1.8</v>
@@ -14311,16 +14287,16 @@
         <v>6836218</v>
       </c>
       <c r="C161" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45277.66666666666</v>
       </c>
       <c r="E161" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -14329,7 +14305,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J161">
         <v>3.3</v>
@@ -14397,16 +14373,16 @@
         <v>6836220</v>
       </c>
       <c r="C162" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45278.625</v>
       </c>
       <c r="E162" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -14415,7 +14391,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J162">
         <v>2.25</v>
@@ -14483,16 +14459,16 @@
         <v>6836227</v>
       </c>
       <c r="C163" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2">
         <v>45279.52083333334</v>
       </c>
       <c r="E163" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14501,7 +14477,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J163">
         <v>2.1</v>
@@ -14569,16 +14545,16 @@
         <v>6836226</v>
       </c>
       <c r="C164" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2">
         <v>45279.64583333334</v>
       </c>
       <c r="E164" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F164" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14587,7 +14563,7 @@
         <v>3</v>
       </c>
       <c r="I164" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J164">
         <v>5.25</v>
@@ -14655,25 +14631,25 @@
         <v>6836228</v>
       </c>
       <c r="C165" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
         <v>45280.52083333334</v>
       </c>
       <c r="E165" t="s">
+        <v>37</v>
+      </c>
+      <c r="F165" t="s">
+        <v>43</v>
+      </c>
+      <c r="G165">
+        <v>2</v>
+      </c>
+      <c r="H165">
+        <v>2</v>
+      </c>
+      <c r="I165" t="s">
         <v>45</v>
-      </c>
-      <c r="F165" t="s">
-        <v>51</v>
-      </c>
-      <c r="G165">
-        <v>2</v>
-      </c>
-      <c r="H165">
-        <v>2</v>
-      </c>
-      <c r="I165" t="s">
-        <v>53</v>
       </c>
       <c r="J165">
         <v>4.5</v>
@@ -14741,16 +14717,16 @@
         <v>6835214</v>
       </c>
       <c r="C166" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2">
         <v>45280.64583333334</v>
       </c>
       <c r="E166" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14759,7 +14735,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J166">
         <v>2.25</v>
@@ -14827,16 +14803,16 @@
         <v>6836223</v>
       </c>
       <c r="C167" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2">
         <v>45281.5</v>
       </c>
       <c r="E167" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F167" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14845,7 +14821,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J167">
         <v>2.5</v>
@@ -14913,16 +14889,16 @@
         <v>6836224</v>
       </c>
       <c r="C168" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D168" s="2">
         <v>45281.61458333334</v>
       </c>
       <c r="E168" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F168" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G168">
         <v>4</v>
@@ -14931,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J168">
         <v>1.95</v>
@@ -14999,16 +14975,16 @@
         <v>6836225</v>
       </c>
       <c r="C169" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D169" s="2">
         <v>45282.52083333334</v>
       </c>
       <c r="E169" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F169" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -15017,7 +14993,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J169">
         <v>1.909</v>
@@ -15085,16 +15061,16 @@
         <v>6835789</v>
       </c>
       <c r="C170" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D170" s="2">
         <v>45282.64583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15103,7 +15079,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J170">
         <v>2.875</v>
@@ -15171,16 +15147,16 @@
         <v>6836231</v>
       </c>
       <c r="C171" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D171" s="2">
         <v>45310.5</v>
       </c>
       <c r="E171" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F171" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G171">
         <v>6</v>
@@ -15189,7 +15165,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J171">
         <v>1.727</v>
@@ -15257,16 +15233,16 @@
         <v>6835215</v>
       </c>
       <c r="C172" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D172" s="2">
         <v>45310.625</v>
       </c>
       <c r="E172" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G172">
         <v>4</v>
@@ -15275,7 +15251,7 @@
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J172">
         <v>1.833</v>
@@ -15343,16 +15319,16 @@
         <v>6836229</v>
       </c>
       <c r="C173" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D173" s="2">
         <v>45311.5</v>
       </c>
       <c r="E173" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -15361,7 +15337,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J173">
         <v>2.1</v>
@@ -15429,16 +15405,16 @@
         <v>6836232</v>
       </c>
       <c r="C174" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D174" s="2">
         <v>45311.625</v>
       </c>
       <c r="E174" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15447,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J174">
         <v>2</v>
@@ -15515,16 +15491,16 @@
         <v>6836230</v>
       </c>
       <c r="C175" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D175" s="2">
         <v>45312.41666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15533,7 +15509,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J175">
         <v>4.75</v>
@@ -15601,16 +15577,16 @@
         <v>6836234</v>
       </c>
       <c r="C176" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D176" s="2">
         <v>45312.625</v>
       </c>
       <c r="E176" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F176" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15619,7 +15595,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J176">
         <v>1.833</v>
@@ -15687,16 +15663,16 @@
         <v>6835790</v>
       </c>
       <c r="C177" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D177" s="2">
         <v>45313.5</v>
       </c>
       <c r="E177" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15705,7 +15681,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J177">
         <v>2.625</v>
@@ -15773,16 +15749,16 @@
         <v>6836233</v>
       </c>
       <c r="C178" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D178" s="2">
         <v>45313.625</v>
       </c>
       <c r="E178" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F178" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G178">
         <v>4</v>
@@ -15791,7 +15767,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J178">
         <v>1.363</v>
@@ -15859,16 +15835,16 @@
         <v>6836236</v>
       </c>
       <c r="C179" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D179" s="2">
         <v>45317.625</v>
       </c>
       <c r="E179" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -15877,7 +15853,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J179">
         <v>1.85</v>
@@ -15945,16 +15921,16 @@
         <v>6836240</v>
       </c>
       <c r="C180" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D180" s="2">
         <v>45318.375</v>
       </c>
       <c r="E180" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F180" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -15963,7 +15939,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J180">
         <v>3</v>
@@ -16031,16 +16007,16 @@
         <v>6836239</v>
       </c>
       <c r="C181" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D181" s="2">
         <v>45318.5</v>
       </c>
       <c r="E181" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F181" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16049,7 +16025,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J181">
         <v>2.4</v>
@@ -16117,16 +16093,16 @@
         <v>6835216</v>
       </c>
       <c r="C182" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D182" s="2">
         <v>45318.625</v>
       </c>
       <c r="E182" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F182" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16135,7 +16111,7 @@
         <v>2</v>
       </c>
       <c r="I182" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J182">
         <v>4</v>
@@ -16203,16 +16179,16 @@
         <v>6836237</v>
       </c>
       <c r="C183" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D183" s="2">
         <v>45319.375</v>
       </c>
       <c r="E183" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F183" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16221,7 +16197,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J183">
         <v>1.666</v>
@@ -16289,16 +16265,16 @@
         <v>6836238</v>
       </c>
       <c r="C184" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D184" s="2">
         <v>45319.5</v>
       </c>
       <c r="E184" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F184" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16307,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J184">
         <v>3.3</v>
@@ -16375,16 +16351,16 @@
         <v>6836235</v>
       </c>
       <c r="C185" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D185" s="2">
         <v>45319.625</v>
       </c>
       <c r="E185" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F185" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -16393,7 +16369,7 @@
         <v>3</v>
       </c>
       <c r="I185" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J185">
         <v>2.7</v>
@@ -16461,16 +16437,16 @@
         <v>6835791</v>
       </c>
       <c r="C186" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D186" s="2">
         <v>45320.625</v>
       </c>
       <c r="E186" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F186" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G186">
         <v>4</v>
@@ -16479,7 +16455,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J186">
         <v>1.571</v>
@@ -16547,16 +16523,16 @@
         <v>6836241</v>
       </c>
       <c r="C187" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D187" s="2">
         <v>45324.5</v>
       </c>
       <c r="E187" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F187" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G187">
         <v>2</v>
@@ -16565,7 +16541,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J187">
         <v>2.5</v>
@@ -16633,16 +16609,16 @@
         <v>6836245</v>
       </c>
       <c r="C188" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D188" s="2">
         <v>45324.625</v>
       </c>
       <c r="E188" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F188" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16651,7 +16627,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J188">
         <v>1.909</v>
@@ -16719,16 +16695,16 @@
         <v>6836242</v>
       </c>
       <c r="C189" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D189" s="2">
         <v>45325.5</v>
       </c>
       <c r="E189" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -16737,7 +16713,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J189">
         <v>3</v>
@@ -16805,16 +16781,16 @@
         <v>6835217</v>
       </c>
       <c r="C190" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D190" s="2">
         <v>45325.625</v>
       </c>
       <c r="E190" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F190" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G190">
         <v>2</v>
@@ -16823,7 +16799,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J190">
         <v>1.8</v>
@@ -16891,16 +16867,16 @@
         <v>6836243</v>
       </c>
       <c r="C191" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D191" s="2">
         <v>45326.33333333334</v>
       </c>
       <c r="E191" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F191" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16909,7 +16885,7 @@
         <v>3</v>
       </c>
       <c r="I191" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J191">
         <v>1.8</v>
@@ -16977,16 +16953,16 @@
         <v>6836244</v>
       </c>
       <c r="C192" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D192" s="2">
         <v>45326.4375</v>
       </c>
       <c r="E192" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F192" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -16995,7 +16971,7 @@
         <v>3</v>
       </c>
       <c r="I192" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J192">
         <v>2.6</v>
@@ -17063,16 +17039,16 @@
         <v>6835792</v>
       </c>
       <c r="C193" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D193" s="2">
         <v>45327.5</v>
       </c>
       <c r="E193" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17081,7 +17057,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J193">
         <v>2.6</v>
@@ -17149,16 +17125,16 @@
         <v>6836246</v>
       </c>
       <c r="C194" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D194" s="2">
         <v>45327.625</v>
       </c>
       <c r="E194" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F194" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17167,7 +17143,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J194">
         <v>1.8</v>
@@ -17235,16 +17211,16 @@
         <v>6836251</v>
       </c>
       <c r="C195" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D195" s="2">
         <v>45331.5</v>
       </c>
       <c r="E195" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F195" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17253,7 +17229,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J195">
         <v>2.4</v>
@@ -17321,16 +17297,16 @@
         <v>6836250</v>
       </c>
       <c r="C196" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D196" s="2">
         <v>45331.625</v>
       </c>
       <c r="E196" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F196" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -17339,7 +17315,7 @@
         <v>2</v>
       </c>
       <c r="I196" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J196">
         <v>1.85</v>
@@ -17407,16 +17383,16 @@
         <v>6835793</v>
       </c>
       <c r="C197" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D197" s="2">
         <v>45332.375</v>
       </c>
       <c r="E197" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F197" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -17425,7 +17401,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J197">
         <v>2.45</v>
@@ -17493,16 +17469,16 @@
         <v>6835218</v>
       </c>
       <c r="C198" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D198" s="2">
         <v>45332.67708333334</v>
       </c>
       <c r="E198" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F198" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -17511,7 +17487,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J198">
         <v>2.15</v>
@@ -17579,16 +17555,16 @@
         <v>6836247</v>
       </c>
       <c r="C199" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D199" s="2">
         <v>45333.55208333334</v>
       </c>
       <c r="E199" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F199" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -17597,7 +17573,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J199">
         <v>2.25</v>
@@ -17665,16 +17641,16 @@
         <v>6836252</v>
       </c>
       <c r="C200" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D200" s="2">
         <v>45333.65625</v>
       </c>
       <c r="E200" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F200" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -17683,7 +17659,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J200">
         <v>1.666</v>
@@ -17751,25 +17727,25 @@
         <v>6836249</v>
       </c>
       <c r="C201" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D201" s="2">
         <v>45334.5</v>
       </c>
       <c r="E201" t="s">
+        <v>37</v>
+      </c>
+      <c r="F201" t="s">
+        <v>42</v>
+      </c>
+      <c r="G201">
+        <v>2</v>
+      </c>
+      <c r="H201">
+        <v>2</v>
+      </c>
+      <c r="I201" t="s">
         <v>45</v>
-      </c>
-      <c r="F201" t="s">
-        <v>50</v>
-      </c>
-      <c r="G201">
-        <v>2</v>
-      </c>
-      <c r="H201">
-        <v>2</v>
-      </c>
-      <c r="I201" t="s">
-        <v>53</v>
       </c>
       <c r="J201">
         <v>1.909</v>
@@ -17837,25 +17813,25 @@
         <v>6836253</v>
       </c>
       <c r="C202" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D202" s="2">
         <v>45334.625</v>
       </c>
       <c r="E202" t="s">
+        <v>38</v>
+      </c>
+      <c r="F202" t="s">
+        <v>35</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>2</v>
+      </c>
+      <c r="I202" t="s">
         <v>46</v>
-      </c>
-      <c r="F202" t="s">
-        <v>43</v>
-      </c>
-      <c r="G202">
-        <v>0</v>
-      </c>
-      <c r="H202">
-        <v>2</v>
-      </c>
-      <c r="I202" t="s">
-        <v>54</v>
       </c>
       <c r="J202">
         <v>1.55</v>
@@ -17923,16 +17899,16 @@
         <v>6836254</v>
       </c>
       <c r="C203" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D203" s="2">
         <v>45338.5</v>
       </c>
       <c r="E203" t="s">
+        <v>32</v>
+      </c>
+      <c r="F203" t="s">
         <v>40</v>
-      </c>
-      <c r="F203" t="s">
-        <v>48</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17941,7 +17917,7 @@
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J203">
         <v>2.15</v>
@@ -18009,16 +17985,16 @@
         <v>6835219</v>
       </c>
       <c r="C204" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D204" s="2">
         <v>45338.625</v>
       </c>
       <c r="E204" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G204">
         <v>2</v>
@@ -18027,7 +18003,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J204">
         <v>1.833</v>
@@ -18095,16 +18071,16 @@
         <v>6835794</v>
       </c>
       <c r="C205" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D205" s="2">
         <v>45339.375</v>
       </c>
       <c r="E205" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F205" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -18113,7 +18089,7 @@
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J205">
         <v>2.4</v>
@@ -18181,16 +18157,16 @@
         <v>6836256</v>
       </c>
       <c r="C206" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D206" s="2">
         <v>45339.6875</v>
       </c>
       <c r="E206" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -18199,7 +18175,7 @@
         <v>3</v>
       </c>
       <c r="I206" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J206">
         <v>3.1</v>
@@ -18267,16 +18243,16 @@
         <v>6836255</v>
       </c>
       <c r="C207" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D207" s="2">
         <v>45340.51041666666</v>
       </c>
       <c r="E207" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F207" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18285,7 +18261,7 @@
         <v>2</v>
       </c>
       <c r="I207" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J207">
         <v>3.4</v>
@@ -18353,16 +18329,16 @@
         <v>6836258</v>
       </c>
       <c r="C208" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D208" s="2">
         <v>45340.625</v>
       </c>
       <c r="E208" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G208">
         <v>3</v>
@@ -18371,7 +18347,7 @@
         <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J208">
         <v>2.5</v>
@@ -18439,16 +18415,16 @@
         <v>6836259</v>
       </c>
       <c r="C209" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D209" s="2">
         <v>45341.52083333334</v>
       </c>
       <c r="E209" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F209" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -18457,7 +18433,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J209">
         <v>2.3</v>
@@ -18525,16 +18501,16 @@
         <v>6836257</v>
       </c>
       <c r="C210" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D210" s="2">
         <v>45341.64583333334</v>
       </c>
       <c r="E210" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F210" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -18543,7 +18519,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J210">
         <v>3.6</v>
@@ -18611,16 +18587,16 @@
         <v>6836260</v>
       </c>
       <c r="C211" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D211" s="2">
         <v>45345.5</v>
       </c>
       <c r="E211" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F211" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18629,7 +18605,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J211">
         <v>2.1</v>
@@ -18697,16 +18673,16 @@
         <v>6836263</v>
       </c>
       <c r="C212" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D212" s="2">
         <v>45345.625</v>
       </c>
       <c r="E212" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F212" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G212">
         <v>4</v>
@@ -18715,7 +18691,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J212">
         <v>1.5</v>
@@ -18783,16 +18759,16 @@
         <v>6836261</v>
       </c>
       <c r="C213" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D213" s="2">
         <v>45346.375</v>
       </c>
       <c r="E213" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F213" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -18801,7 +18777,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J213">
         <v>2.4</v>
@@ -18869,16 +18845,16 @@
         <v>6836265</v>
       </c>
       <c r="C214" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D214" s="2">
         <v>45346.5</v>
       </c>
       <c r="E214" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F214" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -18887,7 +18863,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J214">
         <v>1.833</v>
@@ -18955,16 +18931,16 @@
         <v>6835220</v>
       </c>
       <c r="C215" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D215" s="2">
         <v>45346.625</v>
       </c>
       <c r="E215" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F215" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G215">
         <v>3</v>
@@ -18973,7 +18949,7 @@
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J215">
         <v>4.2</v>
@@ -19041,16 +19017,16 @@
         <v>6836264</v>
       </c>
       <c r="C216" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D216" s="2">
         <v>45347.375</v>
       </c>
       <c r="E216" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F216" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -19059,7 +19035,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J216">
         <v>2.25</v>
@@ -19127,16 +19103,16 @@
         <v>6836262</v>
       </c>
       <c r="C217" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D217" s="2">
         <v>45347.625</v>
       </c>
       <c r="E217" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F217" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G217">
         <v>3</v>
@@ -19145,7 +19121,7 @@
         <v>2</v>
       </c>
       <c r="I217" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J217">
         <v>1.363</v>
@@ -19213,16 +19189,16 @@
         <v>6835795</v>
       </c>
       <c r="C218" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D218" s="2">
         <v>45348.625</v>
       </c>
       <c r="E218" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F218" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19231,7 +19207,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J218">
         <v>1.533</v>
@@ -19299,16 +19275,16 @@
         <v>6836267</v>
       </c>
       <c r="C219" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D219" s="2">
         <v>45349.46875</v>
       </c>
       <c r="E219" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F219" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19317,7 +19293,7 @@
         <v>1</v>
       </c>
       <c r="I219" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J219">
         <v>1.615</v>
@@ -19385,16 +19361,16 @@
         <v>6836266</v>
       </c>
       <c r="C220" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D220" s="2">
         <v>45349.5625</v>
       </c>
       <c r="E220" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F220" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -19403,7 +19379,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J220">
         <v>2.3</v>
@@ -19471,16 +19447,16 @@
         <v>6836271</v>
       </c>
       <c r="C221" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D221" s="2">
         <v>45349.66666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F221" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G221">
         <v>2</v>
@@ -19489,7 +19465,7 @@
         <v>2</v>
       </c>
       <c r="I221" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J221">
         <v>4.2</v>
@@ -19557,16 +19533,16 @@
         <v>6836272</v>
       </c>
       <c r="C222" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D222" s="2">
         <v>45350.5625</v>
       </c>
       <c r="E222" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F222" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -19575,7 +19551,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J222">
         <v>2.7</v>
@@ -19643,16 +19619,16 @@
         <v>6835221</v>
       </c>
       <c r="C223" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D223" s="2">
         <v>45350.66666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F223" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G223">
         <v>4</v>
@@ -19661,7 +19637,7 @@
         <v>1</v>
       </c>
       <c r="I223" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J223">
         <v>1.727</v>
@@ -19729,16 +19705,16 @@
         <v>6836270</v>
       </c>
       <c r="C224" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D224" s="2">
         <v>45351.46875</v>
       </c>
       <c r="E224" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F224" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19747,7 +19723,7 @@
         <v>2</v>
       </c>
       <c r="I224" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J224">
         <v>3.2</v>
@@ -19815,16 +19791,16 @@
         <v>6836268</v>
       </c>
       <c r="C225" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D225" s="2">
         <v>45351.5625</v>
       </c>
       <c r="E225" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F225" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -19833,7 +19809,7 @@
         <v>3</v>
       </c>
       <c r="I225" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J225">
         <v>3</v>
@@ -19901,16 +19877,16 @@
         <v>6836269</v>
       </c>
       <c r="C226" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D226" s="2">
         <v>45351.66666666666</v>
       </c>
       <c r="E226" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F226" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -19919,7 +19895,7 @@
         <v>2</v>
       </c>
       <c r="I226" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J226">
         <v>4</v>
@@ -19987,16 +19963,16 @@
         <v>6836274</v>
       </c>
       <c r="C227" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D227" s="2">
         <v>45352.625</v>
       </c>
       <c r="E227" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F227" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -20005,7 +19981,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J227">
         <v>2.4</v>
@@ -20073,16 +20049,16 @@
         <v>6836275</v>
       </c>
       <c r="C228" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D228" s="2">
         <v>45353.375</v>
       </c>
       <c r="E228" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F228" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G228">
         <v>3</v>
@@ -20091,7 +20067,7 @@
         <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J228">
         <v>2.25</v>
@@ -20159,16 +20135,16 @@
         <v>6836273</v>
       </c>
       <c r="C229" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D229" s="2">
         <v>45353.5</v>
       </c>
       <c r="E229" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F229" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G229">
         <v>4</v>
@@ -20177,7 +20153,7 @@
         <v>1</v>
       </c>
       <c r="I229" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J229">
         <v>2.1</v>
@@ -20245,16 +20221,16 @@
         <v>6907421</v>
       </c>
       <c r="C230" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D230" s="2">
         <v>45353.625</v>
       </c>
       <c r="E230" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F230" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20263,7 +20239,7 @@
         <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J230">
         <v>2.7</v>
@@ -20331,16 +20307,16 @@
         <v>6838744</v>
       </c>
       <c r="C231" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D231" s="2">
         <v>45354.39583333334</v>
       </c>
       <c r="E231" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F231" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -20349,7 +20325,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J231">
         <v>1.8</v>
@@ -20417,16 +20393,16 @@
         <v>6848293</v>
       </c>
       <c r="C232" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D232" s="2">
         <v>45354.64583333334</v>
       </c>
       <c r="E232" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F232" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -20435,7 +20411,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J232">
         <v>1.6</v>
@@ -20503,16 +20479,16 @@
         <v>6848294</v>
       </c>
       <c r="C233" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D233" s="2">
         <v>45355.5</v>
       </c>
       <c r="E233" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F233" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G233">
         <v>4</v>
@@ -20521,7 +20497,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J233">
         <v>1.8</v>
@@ -20589,16 +20565,16 @@
         <v>6836276</v>
       </c>
       <c r="C234" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D234" s="2">
         <v>45355.625</v>
       </c>
       <c r="E234" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F234" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -20607,7 +20583,7 @@
         <v>1</v>
       </c>
       <c r="I234" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J234">
         <v>2.5</v>
@@ -20672,76 +20648,76 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6836277</v>
+        <v>6861095</v>
       </c>
       <c r="C235" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D235" s="2">
         <v>45359.625</v>
       </c>
       <c r="E235" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F235" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235">
         <v>0</v>
       </c>
       <c r="I235" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J235">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="K235">
         <v>3.4</v>
       </c>
       <c r="L235">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="M235">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="N235">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O235">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="P235">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q235">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="R235">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S235">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T235">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U235">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V235">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>0.425</v>
+        <v>0.3875</v>
       </c>
       <c r="Z235">
         <v>-0.5</v>
@@ -20750,7 +20726,7 @@
         <v>-1</v>
       </c>
       <c r="AB235">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="236" spans="1:28">
@@ -20758,85 +20734,85 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6865915</v>
+        <v>6870268</v>
       </c>
       <c r="C236" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D236" s="2">
         <v>45359.625</v>
       </c>
       <c r="E236" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F236" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J236">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="K236">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L236">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="M236">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N236">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O236">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P236">
         <v>0.25</v>
       </c>
       <c r="Q236">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R236">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S236">
         <v>2.25</v>
       </c>
       <c r="T236">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U236">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V236">
         <v>-1</v>
       </c>
       <c r="W236">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y236">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB236">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:28">
@@ -20844,19 +20820,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6861095</v>
+        <v>6865915</v>
       </c>
       <c r="C237" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D237" s="2">
         <v>45359.625</v>
       </c>
       <c r="E237" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F237" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -20865,55 +20841,55 @@
         <v>0</v>
       </c>
       <c r="I237" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J237">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K237">
+        <v>3.25</v>
+      </c>
+      <c r="L237">
+        <v>2.05</v>
+      </c>
+      <c r="M237">
         <v>3.4</v>
       </c>
-      <c r="L237">
-        <v>1.909</v>
-      </c>
-      <c r="M237">
+      <c r="N237">
         <v>3.1</v>
       </c>
-      <c r="N237">
-        <v>3</v>
-      </c>
       <c r="O237">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="P237">
         <v>0.25</v>
       </c>
       <c r="Q237">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R237">
+        <v>1.875</v>
+      </c>
+      <c r="S237">
+        <v>2.25</v>
+      </c>
+      <c r="T237">
+        <v>2.05</v>
+      </c>
+      <c r="U237">
+        <v>1.75</v>
+      </c>
+      <c r="V237">
+        <v>-1</v>
+      </c>
+      <c r="W237">
         <v>2.1</v>
       </c>
-      <c r="S237">
-        <v>2</v>
-      </c>
-      <c r="T237">
-        <v>1.8</v>
-      </c>
-      <c r="U237">
-        <v>2.05</v>
-      </c>
-      <c r="V237">
-        <v>-1</v>
-      </c>
-      <c r="W237">
-        <v>2</v>
-      </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>0.3875</v>
+        <v>0.4875</v>
       </c>
       <c r="Z237">
         <v>-0.5</v>
@@ -20922,7 +20898,7 @@
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="238" spans="1:28">
@@ -20930,49 +20906,49 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6870268</v>
+        <v>6836277</v>
       </c>
       <c r="C238" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D238" s="2">
         <v>45359.625</v>
       </c>
       <c r="E238" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F238" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G238">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J238">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="K238">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L238">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="M238">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="N238">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O238">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="P238">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q238">
         <v>1.85</v>
@@ -20990,25 +20966,25 @@
         <v>1.975</v>
       </c>
       <c r="V238">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z238">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA238">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:28">
@@ -21019,16 +20995,16 @@
         <v>6852370</v>
       </c>
       <c r="C239" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D239" s="2">
         <v>45359.625</v>
       </c>
       <c r="E239" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F239" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -21037,7 +21013,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J239">
         <v>2.55</v>
@@ -21105,16 +21081,16 @@
         <v>6870267</v>
       </c>
       <c r="C240" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D240" s="2">
         <v>45360.625</v>
       </c>
       <c r="E240" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F240" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -21123,7 +21099,7 @@
         <v>4</v>
       </c>
       <c r="I240" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J240">
         <v>2.45</v>
@@ -21191,16 +21167,16 @@
         <v>6836278</v>
       </c>
       <c r="C241" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D241" s="2">
         <v>45361.65625</v>
       </c>
       <c r="E241" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F241" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -21209,7 +21185,7 @@
         <v>2</v>
       </c>
       <c r="I241" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J241">
         <v>3.6</v>
@@ -21277,16 +21253,16 @@
         <v>6836954</v>
       </c>
       <c r="C242" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D242" s="2">
         <v>45362.625</v>
       </c>
       <c r="E242" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F242" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -21295,7 +21271,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J242">
         <v>2.15</v>
@@ -21363,16 +21339,16 @@
         <v>7951557</v>
       </c>
       <c r="C243" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D243" s="2">
         <v>45366.52083333334</v>
       </c>
       <c r="E243" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F243" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G243">
         <v>3</v>
@@ -21381,7 +21357,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J243">
         <v>1.615</v>
@@ -21449,16 +21425,16 @@
         <v>7949044</v>
       </c>
       <c r="C244" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D244" s="2">
         <v>45366.64583333334</v>
       </c>
       <c r="E244" t="s">
+        <v>30</v>
+      </c>
+      <c r="F244" t="s">
         <v>38</v>
-      </c>
-      <c r="F244" t="s">
-        <v>46</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -21467,7 +21443,7 @@
         <v>2</v>
       </c>
       <c r="I244" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J244">
         <v>1.75</v>
@@ -21535,16 +21511,16 @@
         <v>7951558</v>
       </c>
       <c r="C245" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D245" s="2">
         <v>45367.5</v>
       </c>
       <c r="E245" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F245" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G245">
         <v>1</v>
@@ -21553,7 +21529,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J245">
         <v>2.1</v>
@@ -21621,16 +21597,16 @@
         <v>7949046</v>
       </c>
       <c r="C246" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D246" s="2">
         <v>45367.625</v>
       </c>
       <c r="E246" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F246" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G246">
         <v>1</v>
@@ -21639,7 +21615,7 @@
         <v>2</v>
       </c>
       <c r="I246" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J246">
         <v>2.05</v>
@@ -21707,16 +21683,16 @@
         <v>7951775</v>
       </c>
       <c r="C247" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D247" s="2">
         <v>45368.55208333334</v>
       </c>
       <c r="E247" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F247" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G247">
         <v>3</v>
@@ -21725,7 +21701,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J247">
         <v>1.909</v>
@@ -21793,16 +21769,16 @@
         <v>7953049</v>
       </c>
       <c r="C248" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D248" s="2">
         <v>45368.66666666666</v>
       </c>
       <c r="E248" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F248" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G248">
         <v>2</v>
@@ -21811,7 +21787,7 @@
         <v>1</v>
       </c>
       <c r="I248" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J248">
         <v>1.65</v>
@@ -21879,16 +21855,16 @@
         <v>7951776</v>
       </c>
       <c r="C249" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D249" s="2">
         <v>45369.52083333334</v>
       </c>
       <c r="E249" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F249" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G249">
         <v>4</v>
@@ -21897,7 +21873,7 @@
         <v>3</v>
       </c>
       <c r="I249" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J249">
         <v>1.909</v>
@@ -21965,16 +21941,16 @@
         <v>7951777</v>
       </c>
       <c r="C250" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D250" s="2">
         <v>45369.64583333334</v>
       </c>
       <c r="E250" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F250" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -21983,7 +21959,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J250">
         <v>2.25</v>
@@ -22051,16 +22027,16 @@
         <v>7951781</v>
       </c>
       <c r="C251" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D251" s="2">
         <v>45380.52083333334</v>
       </c>
       <c r="E251" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F251" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -22069,7 +22045,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J251">
         <v>3</v>
@@ -22137,16 +22113,16 @@
         <v>7951750</v>
       </c>
       <c r="C252" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D252" s="2">
         <v>45380.64583333334</v>
       </c>
       <c r="E252" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F252" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G252">
         <v>1</v>
@@ -22155,7 +22131,7 @@
         <v>1</v>
       </c>
       <c r="I252" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J252">
         <v>3.3</v>
@@ -22223,16 +22199,16 @@
         <v>8010912</v>
       </c>
       <c r="C253" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D253" s="2">
         <v>45381.44791666666</v>
       </c>
       <c r="E253" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F253" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G253">
         <v>2</v>
@@ -22241,7 +22217,7 @@
         <v>1</v>
       </c>
       <c r="I253" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J253">
         <v>2.55</v>
@@ -22309,25 +22285,25 @@
         <v>8010913</v>
       </c>
       <c r="C254" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D254" s="2">
         <v>45381.54166666666</v>
       </c>
       <c r="E254" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F254" t="s">
+        <v>37</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254" t="s">
         <v>45</v>
-      </c>
-      <c r="G254">
-        <v>0</v>
-      </c>
-      <c r="H254">
-        <v>0</v>
-      </c>
-      <c r="I254" t="s">
-        <v>53</v>
       </c>
       <c r="J254">
         <v>1.95</v>
@@ -22395,16 +22371,16 @@
         <v>7951749</v>
       </c>
       <c r="C255" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D255" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E255" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F255" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G255">
         <v>2</v>
@@ -22413,7 +22389,7 @@
         <v>1</v>
       </c>
       <c r="I255" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J255">
         <v>2.1</v>
@@ -22481,16 +22457,16 @@
         <v>7951779</v>
       </c>
       <c r="C256" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D256" s="2">
         <v>45382.33333333334</v>
       </c>
       <c r="E256" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F256" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G256">
         <v>1</v>
@@ -22499,7 +22475,7 @@
         <v>2</v>
       </c>
       <c r="I256" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J256">
         <v>2.3</v>
@@ -22567,16 +22543,16 @@
         <v>7951748</v>
       </c>
       <c r="C257" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D257" s="2">
         <v>45382.625</v>
       </c>
       <c r="E257" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F257" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -22585,7 +22561,7 @@
         <v>1</v>
       </c>
       <c r="I257" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J257">
         <v>3.6</v>
@@ -22653,16 +22629,16 @@
         <v>7951780</v>
       </c>
       <c r="C258" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D258" s="2">
         <v>45383.60416666666</v>
       </c>
       <c r="E258" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F258" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -22671,7 +22647,7 @@
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J258">
         <v>2.3</v>
@@ -22739,16 +22715,16 @@
         <v>7951783</v>
       </c>
       <c r="C259" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D259" s="2">
         <v>45387.47916666666</v>
       </c>
       <c r="E259" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F259" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -22757,7 +22733,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J259">
         <v>1.95</v>
@@ -22825,16 +22801,16 @@
         <v>7951753</v>
       </c>
       <c r="C260" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D260" s="2">
         <v>45387.60416666666</v>
       </c>
       <c r="E260" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F260" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G260">
         <v>1</v>
@@ -22843,7 +22819,7 @@
         <v>1</v>
       </c>
       <c r="I260" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J260">
         <v>2.15</v>
@@ -22911,16 +22887,16 @@
         <v>7951785</v>
       </c>
       <c r="C261" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D261" s="2">
         <v>45388.47916666666</v>
       </c>
       <c r="E261" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F261" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -22929,7 +22905,7 @@
         <v>4</v>
       </c>
       <c r="I261" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J261">
         <v>1.95</v>
@@ -22997,16 +22973,16 @@
         <v>7951752</v>
       </c>
       <c r="C262" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D262" s="2">
         <v>45388.60416666666</v>
       </c>
       <c r="E262" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F262" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -23015,7 +22991,7 @@
         <v>4</v>
       </c>
       <c r="I262" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J262">
         <v>2.8</v>
@@ -23083,16 +23059,16 @@
         <v>7951784</v>
       </c>
       <c r="C263" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D263" s="2">
         <v>45389.35416666666</v>
       </c>
       <c r="E263" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F263" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G263">
         <v>1</v>
@@ -23101,7 +23077,7 @@
         <v>1</v>
       </c>
       <c r="I263" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J263">
         <v>2.4</v>
@@ -23169,16 +23145,16 @@
         <v>7951751</v>
       </c>
       <c r="C264" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D264" s="2">
         <v>45389.60416666666</v>
       </c>
       <c r="E264" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F264" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G264">
         <v>2</v>
@@ -23187,7 +23163,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J264">
         <v>1.85</v>
@@ -23255,16 +23231,16 @@
         <v>7951787</v>
       </c>
       <c r="C265" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D265" s="2">
         <v>45390.47916666666</v>
       </c>
       <c r="E265" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F265" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -23273,7 +23249,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J265">
         <v>2.2</v>
@@ -23341,16 +23317,16 @@
         <v>7951786</v>
       </c>
       <c r="C266" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D266" s="2">
         <v>45390.60416666666</v>
       </c>
       <c r="E266" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F266" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -23359,7 +23335,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J266">
         <v>2.05</v>
@@ -23427,16 +23403,16 @@
         <v>7951792</v>
       </c>
       <c r="C267" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D267" s="2">
         <v>45394.47916666666</v>
       </c>
       <c r="E267" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F267" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -23445,7 +23421,7 @@
         <v>3</v>
       </c>
       <c r="I267" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J267">
         <v>2.3</v>
@@ -23513,16 +23489,16 @@
         <v>7951755</v>
       </c>
       <c r="C268" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D268" s="2">
         <v>45394.60416666666</v>
       </c>
       <c r="E268" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F268" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -23531,7 +23507,7 @@
         <v>2</v>
       </c>
       <c r="I268" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J268">
         <v>1.8</v>
@@ -23599,16 +23575,16 @@
         <v>7951790</v>
       </c>
       <c r="C269" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D269" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E269" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F269" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -23617,7 +23593,7 @@
         <v>1</v>
       </c>
       <c r="I269" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J269">
         <v>2.4</v>
@@ -23685,16 +23661,16 @@
         <v>7951791</v>
       </c>
       <c r="C270" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D270" s="2">
         <v>45395.64583333334</v>
       </c>
       <c r="E270" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F270" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -23703,7 +23679,7 @@
         <v>2</v>
       </c>
       <c r="I270" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J270">
         <v>1.909</v>
@@ -23771,16 +23747,16 @@
         <v>7951788</v>
       </c>
       <c r="C271" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D271" s="2">
         <v>45396.3125</v>
       </c>
       <c r="E271" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F271" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G271">
         <v>4</v>
@@ -23789,7 +23765,7 @@
         <v>1</v>
       </c>
       <c r="I271" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J271">
         <v>2.4</v>
@@ -23857,16 +23833,16 @@
         <v>7951789</v>
       </c>
       <c r="C272" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D272" s="2">
         <v>45396.51041666666</v>
       </c>
       <c r="E272" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F272" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -23875,7 +23851,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J272">
         <v>2.25</v>
@@ -23943,16 +23919,16 @@
         <v>7951754</v>
       </c>
       <c r="C273" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D273" s="2">
         <v>45396.625</v>
       </c>
       <c r="E273" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F273" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -23961,7 +23937,7 @@
         <v>1</v>
       </c>
       <c r="I273" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J273">
         <v>2.3</v>
@@ -24029,16 +24005,16 @@
         <v>7951756</v>
       </c>
       <c r="C274" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D274" s="2">
         <v>45397.60416666666</v>
       </c>
       <c r="E274" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F274" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -24047,7 +24023,7 @@
         <v>1</v>
       </c>
       <c r="I274" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J274">
         <v>1.95</v>
@@ -24115,16 +24091,16 @@
         <v>7951793</v>
       </c>
       <c r="C275" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D275" s="2">
         <v>45401.47916666666</v>
       </c>
       <c r="E275" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F275" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G275">
         <v>1</v>
@@ -24133,7 +24109,7 @@
         <v>1</v>
       </c>
       <c r="I275" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J275">
         <v>1.909</v>
@@ -24201,16 +24177,16 @@
         <v>7951758</v>
       </c>
       <c r="C276" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D276" s="2">
         <v>45401.60416666666</v>
       </c>
       <c r="E276" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F276" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G276">
         <v>5</v>
@@ -24219,7 +24195,7 @@
         <v>1</v>
       </c>
       <c r="I276" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J276">
         <v>3.1</v>
@@ -24287,16 +24263,16 @@
         <v>7951796</v>
       </c>
       <c r="C277" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D277" s="2">
         <v>45402.375</v>
       </c>
       <c r="E277" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F277" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G277">
         <v>3</v>
@@ -24305,7 +24281,7 @@
         <v>1</v>
       </c>
       <c r="I277" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J277">
         <v>2.25</v>
@@ -24373,16 +24349,16 @@
         <v>7951797</v>
       </c>
       <c r="C278" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D278" s="2">
         <v>45402.47916666666</v>
       </c>
       <c r="E278" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F278" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -24391,7 +24367,7 @@
         <v>1</v>
       </c>
       <c r="I278" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J278">
         <v>2.2</v>
@@ -24459,16 +24435,16 @@
         <v>7951757</v>
       </c>
       <c r="C279" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D279" s="2">
         <v>45402.60416666666</v>
       </c>
       <c r="E279" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F279" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G279">
         <v>2</v>
@@ -24477,7 +24453,7 @@
         <v>2</v>
       </c>
       <c r="I279" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J279">
         <v>1.85</v>
@@ -24545,16 +24521,16 @@
         <v>7951795</v>
       </c>
       <c r="C280" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D280" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E280" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F280" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G280">
         <v>1</v>
@@ -24563,7 +24539,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J280">
         <v>2.75</v>
@@ -24631,16 +24607,16 @@
         <v>7951759</v>
       </c>
       <c r="C281" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D281" s="2">
         <v>45403.54166666666</v>
       </c>
       <c r="E281" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F281" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -24649,7 +24625,7 @@
         <v>3</v>
       </c>
       <c r="I281" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J281">
         <v>2.6</v>
@@ -24717,16 +24693,16 @@
         <v>7951794</v>
       </c>
       <c r="C282" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D282" s="2">
         <v>45404.54166666666</v>
       </c>
       <c r="E282" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F282" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -24735,7 +24711,7 @@
         <v>1</v>
       </c>
       <c r="I282" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J282">
         <v>2.1</v>
@@ -24803,16 +24779,16 @@
         <v>7951799</v>
       </c>
       <c r="C283" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D283" s="2">
         <v>45405.45833333334</v>
       </c>
       <c r="E283" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F283" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -24821,7 +24797,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J283">
         <v>2.375</v>
@@ -24889,16 +24865,16 @@
         <v>7951798</v>
       </c>
       <c r="C284" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D284" s="2">
         <v>45405.5625</v>
       </c>
       <c r="E284" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F284" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G284">
         <v>2</v>
@@ -24907,7 +24883,7 @@
         <v>1</v>
       </c>
       <c r="I284" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J284">
         <v>2.375</v>
@@ -24975,16 +24951,16 @@
         <v>7951800</v>
       </c>
       <c r="C285" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D285" s="2">
         <v>45406.44791666666</v>
       </c>
       <c r="E285" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F285" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G285">
         <v>1</v>
@@ -24993,7 +24969,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J285">
         <v>1.75</v>
@@ -25061,16 +25037,16 @@
         <v>7951761</v>
       </c>
       <c r="C286" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D286" s="2">
         <v>45406.54166666666</v>
       </c>
       <c r="E286" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F286" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G286">
         <v>3</v>
@@ -25079,7 +25055,7 @@
         <v>1</v>
       </c>
       <c r="I286" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J286">
         <v>2.625</v>
@@ -25147,16 +25123,16 @@
         <v>7951760</v>
       </c>
       <c r="C287" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D287" s="2">
         <v>45406.65625</v>
       </c>
       <c r="E287" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F287" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G287">
         <v>2</v>
@@ -25165,7 +25141,7 @@
         <v>2</v>
       </c>
       <c r="I287" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J287">
         <v>3.1</v>
@@ -25233,16 +25209,16 @@
         <v>7951801</v>
       </c>
       <c r="C288" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D288" s="2">
         <v>45407.44791666666</v>
       </c>
       <c r="E288" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F288" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G288">
         <v>3</v>
@@ -25251,7 +25227,7 @@
         <v>1</v>
       </c>
       <c r="I288" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J288">
         <v>2.3</v>
@@ -25319,16 +25295,16 @@
         <v>7951802</v>
       </c>
       <c r="C289" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D289" s="2">
         <v>45407.54166666666</v>
       </c>
       <c r="E289" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F289" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G289">
         <v>2</v>
@@ -25337,7 +25313,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J289">
         <v>1.95</v>
@@ -25405,16 +25381,16 @@
         <v>7951762</v>
       </c>
       <c r="C290" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D290" s="2">
         <v>45407.65625</v>
       </c>
       <c r="E290" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F290" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G290">
         <v>0</v>
@@ -25423,7 +25399,7 @@
         <v>1</v>
       </c>
       <c r="I290" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J290">
         <v>2.375</v>
@@ -25491,16 +25467,16 @@
         <v>7951807</v>
       </c>
       <c r="C291" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D291" s="2">
         <v>45408.58333333334</v>
       </c>
       <c r="E291" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F291" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G291">
         <v>1</v>
@@ -25509,7 +25485,7 @@
         <v>1</v>
       </c>
       <c r="I291" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J291">
         <v>2.2</v>
@@ -25577,16 +25553,16 @@
         <v>7951806</v>
       </c>
       <c r="C292" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D292" s="2">
         <v>45409.47916666666</v>
       </c>
       <c r="E292" t="s">
+        <v>33</v>
+      </c>
+      <c r="F292" t="s">
         <v>41</v>
-      </c>
-      <c r="F292" t="s">
-        <v>49</v>
       </c>
       <c r="G292">
         <v>3</v>
@@ -25595,7 +25571,7 @@
         <v>2</v>
       </c>
       <c r="I292" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J292">
         <v>2.4</v>
@@ -25663,16 +25639,16 @@
         <v>7951763</v>
       </c>
       <c r="C293" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D293" s="2">
         <v>45409.60416666666</v>
       </c>
       <c r="E293" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F293" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G293">
         <v>2</v>
@@ -25681,7 +25657,7 @@
         <v>1</v>
       </c>
       <c r="I293" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J293">
         <v>1.909</v>
@@ -25749,16 +25725,16 @@
         <v>7951804</v>
       </c>
       <c r="C294" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D294" s="2">
         <v>45410.3125</v>
       </c>
       <c r="E294" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F294" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G294">
         <v>1</v>
@@ -25767,7 +25743,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J294">
         <v>2.4</v>
@@ -25835,16 +25811,16 @@
         <v>7951805</v>
       </c>
       <c r="C295" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D295" s="2">
         <v>45410.51041666666</v>
       </c>
       <c r="E295" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F295" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -25853,7 +25829,7 @@
         <v>2</v>
       </c>
       <c r="I295" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J295">
         <v>2.4</v>
@@ -25921,16 +25897,16 @@
         <v>7951765</v>
       </c>
       <c r="C296" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D296" s="2">
         <v>45410.625</v>
       </c>
       <c r="E296" t="s">
+        <v>28</v>
+      </c>
+      <c r="F296" t="s">
         <v>36</v>
-      </c>
-      <c r="F296" t="s">
-        <v>44</v>
       </c>
       <c r="G296">
         <v>2</v>
@@ -25939,7 +25915,7 @@
         <v>1</v>
       </c>
       <c r="I296" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J296">
         <v>1.8</v>
@@ -26007,16 +25983,16 @@
         <v>7951803</v>
       </c>
       <c r="C297" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D297" s="2">
         <v>45411.47916666666</v>
       </c>
       <c r="E297" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F297" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G297">
         <v>1</v>
@@ -26025,7 +26001,7 @@
         <v>2</v>
       </c>
       <c r="I297" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J297">
         <v>1.909</v>
@@ -26093,16 +26069,16 @@
         <v>7951764</v>
       </c>
       <c r="C298" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D298" s="2">
         <v>45411.60416666666</v>
       </c>
       <c r="E298" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F298" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G298">
         <v>1</v>
@@ -26111,7 +26087,7 @@
         <v>2</v>
       </c>
       <c r="I298" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J298">
         <v>2.3</v>
@@ -26179,16 +26155,16 @@
         <v>7951768</v>
       </c>
       <c r="C299" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D299" s="2">
         <v>45415.58333333334</v>
       </c>
       <c r="E299" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F299" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G299">
         <v>1</v>
@@ -26197,7 +26173,7 @@
         <v>4</v>
       </c>
       <c r="I299" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J299">
         <v>2</v>
@@ -26265,16 +26241,16 @@
         <v>7951808</v>
       </c>
       <c r="C300" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D300" s="2">
         <v>45416.35416666666</v>
       </c>
       <c r="E300" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F300" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G300">
         <v>0</v>
@@ -26283,7 +26259,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J300">
         <v>2.3</v>
@@ -26351,16 +26327,16 @@
         <v>7951809</v>
       </c>
       <c r="C301" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D301" s="2">
         <v>45416.58333333334</v>
       </c>
       <c r="E301" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F301" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G301">
         <v>3</v>
@@ -26369,7 +26345,7 @@
         <v>3</v>
       </c>
       <c r="I301" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J301">
         <v>2.3</v>
@@ -26437,16 +26413,16 @@
         <v>7951812</v>
       </c>
       <c r="C302" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D302" s="2">
         <v>45417.39583333334</v>
       </c>
       <c r="E302" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F302" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G302">
         <v>2</v>
@@ -26455,7 +26431,7 @@
         <v>1</v>
       </c>
       <c r="I302" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J302">
         <v>2.2</v>
@@ -26523,16 +26499,16 @@
         <v>7951767</v>
       </c>
       <c r="C303" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D303" s="2">
         <v>45417.64583333334</v>
       </c>
       <c r="E303" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F303" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G303">
         <v>3</v>
@@ -26541,7 +26517,7 @@
         <v>2</v>
       </c>
       <c r="I303" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J303">
         <v>1.4</v>
@@ -26609,16 +26585,16 @@
         <v>7951811</v>
       </c>
       <c r="C304" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D304" s="2">
         <v>45418.375</v>
       </c>
       <c r="E304" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F304" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G304">
         <v>0</v>
@@ -26627,7 +26603,7 @@
         <v>1</v>
       </c>
       <c r="I304" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J304">
         <v>1.833</v>
@@ -26695,16 +26671,16 @@
         <v>7951810</v>
       </c>
       <c r="C305" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D305" s="2">
         <v>45418.5</v>
       </c>
       <c r="E305" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F305" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G305">
         <v>3</v>
@@ -26713,7 +26689,7 @@
         <v>1</v>
       </c>
       <c r="I305" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J305">
         <v>2.3</v>
@@ -26781,16 +26757,16 @@
         <v>7951766</v>
       </c>
       <c r="C306" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D306" s="2">
         <v>45418.625</v>
       </c>
       <c r="E306" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F306" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G306">
         <v>2</v>
@@ -26799,7 +26775,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J306">
         <v>1.85</v>
@@ -26857,526 +26833,6 @@
       </c>
       <c r="AB306">
         <v>0.925</v>
-      </c>
-    </row>
-    <row r="307" spans="1:28">
-      <c r="A307" s="1">
-        <v>305</v>
-      </c>
-      <c r="B307" t="s">
-        <v>27</v>
-      </c>
-      <c r="C307" t="s">
-        <v>35</v>
-      </c>
-      <c r="D307" s="2">
-        <v>45422.60416666666</v>
-      </c>
-      <c r="E307" t="s">
-        <v>44</v>
-      </c>
-      <c r="F307" t="s">
-        <v>38</v>
-      </c>
-      <c r="J307">
-        <v>2.5</v>
-      </c>
-      <c r="K307">
-        <v>3.4</v>
-      </c>
-      <c r="L307">
-        <v>2.625</v>
-      </c>
-      <c r="M307">
-        <v>2.45</v>
-      </c>
-      <c r="N307">
-        <v>3.5</v>
-      </c>
-      <c r="O307">
-        <v>2.625</v>
-      </c>
-      <c r="P307">
-        <v>0</v>
-      </c>
-      <c r="Q307">
-        <v>1.85</v>
-      </c>
-      <c r="R307">
-        <v>2</v>
-      </c>
-      <c r="S307">
-        <v>2.75</v>
-      </c>
-      <c r="T307">
-        <v>1.85</v>
-      </c>
-      <c r="U307">
-        <v>2</v>
-      </c>
-      <c r="V307">
-        <v>0</v>
-      </c>
-      <c r="W307">
-        <v>0</v>
-      </c>
-      <c r="X307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:28">
-      <c r="A308" s="1">
-        <v>306</v>
-      </c>
-      <c r="B308" t="s">
-        <v>28</v>
-      </c>
-      <c r="C308" t="s">
-        <v>35</v>
-      </c>
-      <c r="D308" s="2">
-        <v>45423.58333333334</v>
-      </c>
-      <c r="E308" t="s">
-        <v>47</v>
-      </c>
-      <c r="F308" t="s">
-        <v>36</v>
-      </c>
-      <c r="J308">
-        <v>3.1</v>
-      </c>
-      <c r="K308">
-        <v>3.4</v>
-      </c>
-      <c r="L308">
-        <v>2.2</v>
-      </c>
-      <c r="M308">
-        <v>3.1</v>
-      </c>
-      <c r="N308">
-        <v>3.4</v>
-      </c>
-      <c r="O308">
-        <v>2.2</v>
-      </c>
-      <c r="P308">
-        <v>0.25</v>
-      </c>
-      <c r="Q308">
-        <v>1.925</v>
-      </c>
-      <c r="R308">
-        <v>1.925</v>
-      </c>
-      <c r="S308">
-        <v>2.75</v>
-      </c>
-      <c r="T308">
-        <v>2</v>
-      </c>
-      <c r="U308">
-        <v>1.85</v>
-      </c>
-      <c r="V308">
-        <v>0</v>
-      </c>
-      <c r="W308">
-        <v>0</v>
-      </c>
-      <c r="X308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:28">
-      <c r="A309" s="1">
-        <v>307</v>
-      </c>
-      <c r="B309" t="s">
-        <v>29</v>
-      </c>
-      <c r="C309" t="s">
-        <v>35</v>
-      </c>
-      <c r="D309" s="2">
-        <v>45424.64583333334</v>
-      </c>
-      <c r="E309" t="s">
-        <v>48</v>
-      </c>
-      <c r="F309" t="s">
-        <v>40</v>
-      </c>
-      <c r="J309">
-        <v>2.1</v>
-      </c>
-      <c r="K309">
-        <v>3.3</v>
-      </c>
-      <c r="L309">
-        <v>3.1</v>
-      </c>
-      <c r="M309">
-        <v>1.55</v>
-      </c>
-      <c r="N309">
-        <v>3.5</v>
-      </c>
-      <c r="O309">
-        <v>5.75</v>
-      </c>
-      <c r="P309">
-        <v>-0.75</v>
-      </c>
-      <c r="Q309">
-        <v>1.775</v>
-      </c>
-      <c r="R309">
-        <v>2.1</v>
-      </c>
-      <c r="S309">
-        <v>2.25</v>
-      </c>
-      <c r="T309">
-        <v>2</v>
-      </c>
-      <c r="U309">
-        <v>1.85</v>
-      </c>
-      <c r="V309">
-        <v>0</v>
-      </c>
-      <c r="W309">
-        <v>0</v>
-      </c>
-      <c r="X309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:28">
-      <c r="A310" s="1">
-        <v>308</v>
-      </c>
-      <c r="B310" t="s">
-        <v>30</v>
-      </c>
-      <c r="C310" t="s">
-        <v>35</v>
-      </c>
-      <c r="D310" s="2">
-        <v>45424.64583333334</v>
-      </c>
-      <c r="E310" t="s">
-        <v>43</v>
-      </c>
-      <c r="F310" t="s">
-        <v>45</v>
-      </c>
-      <c r="J310">
-        <v>1.833</v>
-      </c>
-      <c r="K310">
-        <v>3.4</v>
-      </c>
-      <c r="L310">
-        <v>3.6</v>
-      </c>
-      <c r="M310">
-        <v>1.8</v>
-      </c>
-      <c r="N310">
-        <v>3.3</v>
-      </c>
-      <c r="O310">
-        <v>4</v>
-      </c>
-      <c r="P310">
-        <v>-0.5</v>
-      </c>
-      <c r="Q310">
-        <v>1.85</v>
-      </c>
-      <c r="R310">
-        <v>2</v>
-      </c>
-      <c r="S310">
-        <v>2.25</v>
-      </c>
-      <c r="T310">
-        <v>1.875</v>
-      </c>
-      <c r="U310">
-        <v>1.975</v>
-      </c>
-      <c r="V310">
-        <v>0</v>
-      </c>
-      <c r="W310">
-        <v>0</v>
-      </c>
-      <c r="X310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:28">
-      <c r="A311" s="1">
-        <v>309</v>
-      </c>
-      <c r="B311" t="s">
-        <v>31</v>
-      </c>
-      <c r="C311" t="s">
-        <v>35</v>
-      </c>
-      <c r="D311" s="2">
-        <v>45424.64583333334</v>
-      </c>
-      <c r="E311" t="s">
-        <v>41</v>
-      </c>
-      <c r="F311" t="s">
-        <v>39</v>
-      </c>
-      <c r="J311">
-        <v>2.625</v>
-      </c>
-      <c r="K311">
-        <v>3.3</v>
-      </c>
-      <c r="L311">
-        <v>2.45</v>
-      </c>
-      <c r="M311">
-        <v>2.05</v>
-      </c>
-      <c r="N311">
-        <v>3.3</v>
-      </c>
-      <c r="O311">
-        <v>3</v>
-      </c>
-      <c r="P311">
-        <v>-0.25</v>
-      </c>
-      <c r="Q311">
-        <v>1.875</v>
-      </c>
-      <c r="R311">
-        <v>1.975</v>
-      </c>
-      <c r="S311">
-        <v>2.25</v>
-      </c>
-      <c r="T311">
-        <v>2.025</v>
-      </c>
-      <c r="U311">
-        <v>1.825</v>
-      </c>
-      <c r="V311">
-        <v>0</v>
-      </c>
-      <c r="W311">
-        <v>0</v>
-      </c>
-      <c r="X311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:28">
-      <c r="A312" s="1">
-        <v>310</v>
-      </c>
-      <c r="B312" t="s">
-        <v>32</v>
-      </c>
-      <c r="C312" t="s">
-        <v>35</v>
-      </c>
-      <c r="D312" s="2">
-        <v>45424.64583333334</v>
-      </c>
-      <c r="E312" t="s">
-        <v>42</v>
-      </c>
-      <c r="F312" t="s">
-        <v>49</v>
-      </c>
-      <c r="J312">
-        <v>3.05</v>
-      </c>
-      <c r="K312">
-        <v>3.3</v>
-      </c>
-      <c r="L312">
-        <v>2.15</v>
-      </c>
-      <c r="M312">
-        <v>2.25</v>
-      </c>
-      <c r="N312">
-        <v>3.4</v>
-      </c>
-      <c r="O312">
-        <v>2.75</v>
-      </c>
-      <c r="P312">
-        <v>-0.25</v>
-      </c>
-      <c r="Q312">
-        <v>2.05</v>
-      </c>
-      <c r="R312">
-        <v>1.8</v>
-      </c>
-      <c r="S312">
-        <v>2.25</v>
-      </c>
-      <c r="T312">
-        <v>2.1</v>
-      </c>
-      <c r="U312">
-        <v>1.775</v>
-      </c>
-      <c r="V312">
-        <v>0</v>
-      </c>
-      <c r="W312">
-        <v>0</v>
-      </c>
-      <c r="X312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:28">
-      <c r="A313" s="1">
-        <v>311</v>
-      </c>
-      <c r="B313" t="s">
-        <v>33</v>
-      </c>
-      <c r="C313" t="s">
-        <v>35</v>
-      </c>
-      <c r="D313" s="2">
-        <v>45424.64583333334</v>
-      </c>
-      <c r="E313" t="s">
-        <v>37</v>
-      </c>
-      <c r="F313" t="s">
-        <v>50</v>
-      </c>
-      <c r="J313">
-        <v>1.666</v>
-      </c>
-      <c r="K313">
-        <v>3.6</v>
-      </c>
-      <c r="L313">
-        <v>4.6</v>
-      </c>
-      <c r="M313">
-        <v>2.4</v>
-      </c>
-      <c r="N313">
-        <v>3.6</v>
-      </c>
-      <c r="O313">
-        <v>2.45</v>
-      </c>
-      <c r="P313">
-        <v>0</v>
-      </c>
-      <c r="Q313">
-        <v>1.875</v>
-      </c>
-      <c r="R313">
-        <v>1.975</v>
-      </c>
-      <c r="S313">
-        <v>2.25</v>
-      </c>
-      <c r="T313">
-        <v>2.1</v>
-      </c>
-      <c r="U313">
-        <v>1.775</v>
-      </c>
-      <c r="V313">
-        <v>0</v>
-      </c>
-      <c r="W313">
-        <v>0</v>
-      </c>
-      <c r="X313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:28">
-      <c r="A314" s="1">
-        <v>312</v>
-      </c>
-      <c r="B314" t="s">
-        <v>34</v>
-      </c>
-      <c r="C314" t="s">
-        <v>35</v>
-      </c>
-      <c r="D314" s="2">
-        <v>45425.60416666666</v>
-      </c>
-      <c r="E314" t="s">
-        <v>46</v>
-      </c>
-      <c r="F314" t="s">
-        <v>51</v>
-      </c>
-      <c r="J314">
-        <v>2.375</v>
-      </c>
-      <c r="K314">
-        <v>3.4</v>
-      </c>
-      <c r="L314">
-        <v>2.55</v>
-      </c>
-      <c r="M314">
-        <v>2.2</v>
-      </c>
-      <c r="N314">
-        <v>3.4</v>
-      </c>
-      <c r="O314">
-        <v>2.8</v>
-      </c>
-      <c r="P314">
-        <v>-0.25</v>
-      </c>
-      <c r="Q314">
-        <v>2.025</v>
-      </c>
-      <c r="R314">
-        <v>1.825</v>
-      </c>
-      <c r="S314">
-        <v>2.75</v>
-      </c>
-      <c r="T314">
-        <v>1.975</v>
-      </c>
-      <c r="U314">
-        <v>1.875</v>
-      </c>
-      <c r="V314">
-        <v>0</v>
-      </c>
-      <c r="W314">
-        <v>0</v>
-      </c>
-      <c r="X314">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Romania Liga I/Romania Liga I.xlsx
+++ b/Romania Liga I/Romania Liga I.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7951774</t>
   </si>
   <si>
     <t>Romania Liga I</t>
@@ -516,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB306"/>
+  <dimension ref="A1:AB315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,16 +616,16 @@
         <v>6708870</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45078.60416666666</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -631,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2">
         <v>1.7</v>
@@ -699,16 +702,16 @@
         <v>6831816</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45121.52083333334</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -717,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -785,16 +788,16 @@
         <v>6871393</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45121.64583333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -803,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4">
         <v>1.95</v>
@@ -871,16 +874,16 @@
         <v>6836102</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45122.52083333334</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -889,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J5">
         <v>2.75</v>
@@ -957,16 +960,16 @@
         <v>6871392</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45122.64583333334</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -975,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6">
         <v>1.363</v>
@@ -1043,16 +1046,16 @@
         <v>6836106</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45123.52083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1061,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7">
         <v>2.5</v>
@@ -1129,16 +1132,16 @@
         <v>6836105</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45123.64583333334</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1147,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J8">
         <v>3.4</v>
@@ -1215,16 +1218,16 @@
         <v>6831939</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45124.52083333334</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1233,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J9">
         <v>2.05</v>
@@ -1301,16 +1304,16 @@
         <v>6836104</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45124.64583333334</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1319,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J10">
         <v>3.5</v>
@@ -1387,16 +1390,16 @@
         <v>6836111</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45128.52083333334</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1405,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J11">
         <v>1.75</v>
@@ -1473,16 +1476,16 @@
         <v>6836108</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45128.64583333334</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1491,7 +1494,7 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J12">
         <v>3.5</v>
@@ -1559,16 +1562,16 @@
         <v>6835772</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45129.51041666666</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1577,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1645,16 +1648,16 @@
         <v>6836110</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45129.64583333334</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1663,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J14">
         <v>1.533</v>
@@ -1731,16 +1734,16 @@
         <v>6836107</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45130.52083333334</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1749,7 +1752,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J15">
         <v>2.4</v>
@@ -1817,16 +1820,16 @@
         <v>6835195</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45130.64583333334</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1835,7 +1838,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J16">
         <v>2.375</v>
@@ -1903,16 +1906,16 @@
         <v>6863931</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45131.52083333334</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1921,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1989,16 +1992,16 @@
         <v>6836109</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45131.64583333334</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2007,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J18">
         <v>1.5</v>
@@ -2075,16 +2078,16 @@
         <v>6836117</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45135.52083333334</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -2093,7 +2096,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J19">
         <v>2.25</v>
@@ -2161,16 +2164,16 @@
         <v>6835196</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45135.64583333334</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2179,7 +2182,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J20">
         <v>1.4</v>
@@ -2247,16 +2250,16 @@
         <v>6836113</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45136.52083333334</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2265,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J21">
         <v>1.909</v>
@@ -2333,16 +2336,16 @@
         <v>6836115</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45136.64583333334</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2351,7 +2354,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J22">
         <v>4.75</v>
@@ -2419,16 +2422,16 @@
         <v>6836118</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2437,7 +2440,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J23">
         <v>1.615</v>
@@ -2505,16 +2508,16 @@
         <v>6836114</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45137.64583333334</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2523,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J24">
         <v>2.15</v>
@@ -2591,16 +2594,16 @@
         <v>6835773</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45138.52083333334</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2609,7 +2612,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J25">
         <v>2.55</v>
@@ -2677,16 +2680,16 @@
         <v>6836116</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45138.64583333334</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2695,7 +2698,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J26">
         <v>3.75</v>
@@ -2763,16 +2766,16 @@
         <v>6836124</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45142.52083333334</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2781,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -2849,16 +2852,16 @@
         <v>6836119</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45142.64583333334</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2867,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J28">
         <v>1.615</v>
@@ -2935,16 +2938,16 @@
         <v>6836123</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45143.52083333334</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2953,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J29">
         <v>2.375</v>
@@ -3021,16 +3024,16 @@
         <v>6836122</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45143.64583333334</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3039,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J30">
         <v>2.2</v>
@@ -3107,16 +3110,16 @@
         <v>6836125</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45144.51041666666</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3125,7 +3128,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J31">
         <v>2.875</v>
@@ -3193,16 +3196,16 @@
         <v>6836120</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45144.64583333334</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3211,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J32">
         <v>2.1</v>
@@ -3279,16 +3282,16 @@
         <v>6836121</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45145.52083333334</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3297,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J33">
         <v>1.727</v>
@@ -3365,16 +3368,16 @@
         <v>6835197</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45145.64583333334</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3383,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J34">
         <v>3.1</v>
@@ -3451,16 +3454,16 @@
         <v>6835774</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45149.60416666666</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -3469,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J35">
         <v>2.375</v>
@@ -3537,16 +3540,16 @@
         <v>6836128</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45150.52083333334</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3555,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J36">
         <v>2.6</v>
@@ -3623,16 +3626,16 @@
         <v>6836130</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45150.64583333334</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3641,7 +3644,7 @@
         <v>4</v>
       </c>
       <c r="I37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J37">
         <v>4</v>
@@ -3709,16 +3712,16 @@
         <v>6835198</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45151.64583333334</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3727,7 +3730,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J38">
         <v>1.8</v>
@@ -3795,16 +3798,16 @@
         <v>6836129</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45152.60416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3813,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -3881,16 +3884,16 @@
         <v>6836136</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45156.52083333334</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -3899,7 +3902,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J40">
         <v>2.3</v>
@@ -3967,16 +3970,16 @@
         <v>6836137</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45156.64583333334</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -3985,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J41">
         <v>1.45</v>
@@ -4053,16 +4056,16 @@
         <v>6836134</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4071,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J42">
         <v>2.1</v>
@@ -4139,16 +4142,16 @@
         <v>6835775</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45157.65625</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4157,7 +4160,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J43">
         <v>1.95</v>
@@ -4225,16 +4228,16 @@
         <v>6835199</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45158.51041666666</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -4243,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J44">
         <v>2.05</v>
@@ -4311,16 +4314,16 @@
         <v>6836135</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45158.64583333334</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4329,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J45">
         <v>1.45</v>
@@ -4397,16 +4400,16 @@
         <v>6836132</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45159.52083333334</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4415,7 +4418,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J46">
         <v>2.15</v>
@@ -4483,16 +4486,16 @@
         <v>6836133</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45159.64583333334</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4501,7 +4504,7 @@
         <v>4</v>
       </c>
       <c r="I47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J47">
         <v>4.2</v>
@@ -4569,16 +4572,16 @@
         <v>6835776</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45163.52083333334</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4587,7 +4590,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J48">
         <v>2.7</v>
@@ -4655,16 +4658,16 @@
         <v>6835200</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45163.64583333334</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -4673,7 +4676,7 @@
         <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J49">
         <v>2.7</v>
@@ -4741,16 +4744,16 @@
         <v>6836141</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4759,7 +4762,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J50">
         <v>1.363</v>
@@ -4827,16 +4830,16 @@
         <v>6836143</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45164.65625</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4845,7 +4848,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J51">
         <v>2.25</v>
@@ -4913,16 +4916,16 @@
         <v>6836139</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45165.64583333334</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4931,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J52">
         <v>2.6</v>
@@ -4999,16 +5002,16 @@
         <v>6836140</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45166.52083333334</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5017,7 +5020,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J53">
         <v>2.2</v>
@@ -5085,16 +5088,16 @@
         <v>6836138</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45166.64583333334</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5103,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J54">
         <v>4</v>
@@ -5171,16 +5174,16 @@
         <v>6836146</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45170.52083333334</v>
       </c>
       <c r="E55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5189,7 +5192,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J55">
         <v>2.05</v>
@@ -5257,16 +5260,16 @@
         <v>6835201</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45170.64583333334</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G56">
         <v>4</v>
@@ -5275,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J56">
         <v>1.7</v>
@@ -5343,16 +5346,16 @@
         <v>6835777</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45171.54166666666</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5361,7 +5364,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J57">
         <v>4.333</v>
@@ -5429,16 +5432,16 @@
         <v>6836148</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45171.65625</v>
       </c>
       <c r="E58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5447,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J58">
         <v>2.8</v>
@@ -5515,16 +5518,16 @@
         <v>6836149</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45172.64583333334</v>
       </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G59">
         <v>4</v>
@@ -5533,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J59">
         <v>2.5</v>
@@ -5601,17 +5604,17 @@
         <v>6836145</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45173.29166666666</v>
       </c>
       <c r="E60" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60" t="s">
         <v>41</v>
       </c>
-      <c r="F60" t="s">
-        <v>40</v>
-      </c>
       <c r="G60">
         <v>0</v>
       </c>
@@ -5619,7 +5622,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J60">
         <v>1.909</v>
@@ -5687,16 +5690,16 @@
         <v>6836144</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45173.52083333334</v>
       </c>
       <c r="E61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5705,7 +5708,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J61">
         <v>2.8</v>
@@ -5773,16 +5776,16 @@
         <v>6836147</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45173.64583333334</v>
       </c>
       <c r="E62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5791,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J62">
         <v>1.65</v>
@@ -5859,16 +5862,16 @@
         <v>6836152</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45184.52083333334</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5877,7 +5880,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J63">
         <v>2.5</v>
@@ -5945,16 +5948,16 @@
         <v>6836154</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45184.64583333334</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5963,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J64">
         <v>2.75</v>
@@ -6031,16 +6034,16 @@
         <v>6836153</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45185.64583333334</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6049,7 +6052,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J65">
         <v>1.909</v>
@@ -6117,16 +6120,16 @@
         <v>6835778</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45186.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -6135,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J66">
         <v>2</v>
@@ -6203,16 +6206,16 @@
         <v>6835202</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45186.55208333334</v>
       </c>
       <c r="E67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6221,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -6289,16 +6292,16 @@
         <v>6836155</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45186.65625</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6307,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J68">
         <v>2.625</v>
@@ -6375,16 +6378,16 @@
         <v>6836150</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45187.52083333334</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6393,7 +6396,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J69">
         <v>2.4</v>
@@ -6461,16 +6464,16 @@
         <v>6836151</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45187.64583333334</v>
       </c>
       <c r="E70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6479,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J70">
         <v>1.45</v>
@@ -6547,16 +6550,16 @@
         <v>6836126</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45190.58333333334</v>
       </c>
       <c r="E71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6565,7 +6568,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J71">
         <v>3.7</v>
@@ -6633,16 +6636,16 @@
         <v>6836159</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45191.5</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6651,7 +6654,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J72">
         <v>1.95</v>
@@ -6719,16 +6722,16 @@
         <v>6836161</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45191.625</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6737,7 +6740,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J73">
         <v>3.3</v>
@@ -6805,16 +6808,16 @@
         <v>6835779</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45192.35416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6823,7 +6826,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J74">
         <v>2</v>
@@ -6891,16 +6894,16 @@
         <v>6836157</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45192.53125</v>
       </c>
       <c r="E75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -6909,7 +6912,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J75">
         <v>2.25</v>
@@ -6977,16 +6980,16 @@
         <v>6836158</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45192.64583333334</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6995,7 +6998,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -7063,17 +7066,17 @@
         <v>6836156</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45193.51041666666</v>
       </c>
       <c r="E77" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77" t="s">
         <v>32</v>
       </c>
-      <c r="F77" t="s">
-        <v>31</v>
-      </c>
       <c r="G77">
         <v>0</v>
       </c>
@@ -7081,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J77">
         <v>2.4</v>
@@ -7149,16 +7152,16 @@
         <v>6836160</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45193.625</v>
       </c>
       <c r="E78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7167,7 +7170,7 @@
         <v>5</v>
       </c>
       <c r="I78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J78">
         <v>2.7</v>
@@ -7235,16 +7238,16 @@
         <v>6835203</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45194.625</v>
       </c>
       <c r="E79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F79" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7253,7 +7256,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J79">
         <v>2.8</v>
@@ -7321,16 +7324,16 @@
         <v>6836166</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45198.625</v>
       </c>
       <c r="E80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7339,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J80">
         <v>2.3</v>
@@ -7407,16 +7410,16 @@
         <v>6835780</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45199.35416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7425,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J81">
         <v>2.2</v>
@@ -7493,16 +7496,16 @@
         <v>6836167</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45199.64583333334</v>
       </c>
       <c r="E82" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7511,7 +7514,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J82">
         <v>2.2</v>
@@ -7579,16 +7582,16 @@
         <v>6836163</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45200.375</v>
       </c>
       <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
         <v>43</v>
-      </c>
-      <c r="F83" t="s">
-        <v>42</v>
       </c>
       <c r="G83">
         <v>5</v>
@@ -7597,7 +7600,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J83">
         <v>1.444</v>
@@ -7665,16 +7668,16 @@
         <v>6835204</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45200.5</v>
       </c>
       <c r="E84" t="s">
+        <v>32</v>
+      </c>
+      <c r="F84" t="s">
         <v>31</v>
-      </c>
-      <c r="F84" t="s">
-        <v>30</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7683,7 +7686,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J84">
         <v>2.875</v>
@@ -7751,16 +7754,16 @@
         <v>6836164</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45200.625</v>
       </c>
       <c r="E85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7769,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J85">
         <v>1.5</v>
@@ -7837,16 +7840,16 @@
         <v>6836162</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45201.5</v>
       </c>
       <c r="E86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7855,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J86">
         <v>2.9</v>
@@ -7923,16 +7926,16 @@
         <v>6836165</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45201.625</v>
       </c>
       <c r="E87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7941,7 +7944,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J87">
         <v>1.4</v>
@@ -8009,16 +8012,16 @@
         <v>6836127</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45204.58333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -8027,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J88">
         <v>1.8</v>
@@ -8095,16 +8098,16 @@
         <v>6836168</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45205.5</v>
       </c>
       <c r="E89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8113,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J89">
         <v>2.3</v>
@@ -8181,16 +8184,16 @@
         <v>6835205</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45205.625</v>
       </c>
       <c r="E90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G90">
         <v>3</v>
@@ -8199,7 +8202,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J90">
         <v>1.5</v>
@@ -8267,16 +8270,16 @@
         <v>6836169</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45206.33333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8285,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J91">
         <v>2.1</v>
@@ -8353,16 +8356,16 @@
         <v>6835781</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45206.53125</v>
       </c>
       <c r="E92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8371,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J92">
         <v>4</v>
@@ -8439,16 +8442,16 @@
         <v>6836170</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45206.64583333334</v>
       </c>
       <c r="E93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8457,7 +8460,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -8525,16 +8528,16 @@
         <v>6836173</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8543,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J94">
         <v>2.75</v>
@@ -8611,16 +8614,16 @@
         <v>6836171</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45207.64583333334</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8629,7 +8632,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J95">
         <v>4</v>
@@ -8697,16 +8700,16 @@
         <v>6836172</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45208.625</v>
       </c>
       <c r="E96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8715,7 +8718,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J96">
         <v>2.8</v>
@@ -8783,16 +8786,16 @@
         <v>7122732</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45218.58333333334</v>
       </c>
       <c r="E97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8801,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J97">
         <v>2.625</v>
@@ -8869,16 +8872,16 @@
         <v>6835206</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45219.625</v>
       </c>
       <c r="E98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8887,7 +8890,7 @@
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J98">
         <v>3.4</v>
@@ -8955,16 +8958,16 @@
         <v>6836174</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G99">
         <v>4</v>
@@ -8973,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J99">
         <v>2.1</v>
@@ -9041,16 +9044,16 @@
         <v>6836179</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45220.65625</v>
       </c>
       <c r="E100" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9059,7 +9062,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J100">
         <v>1.833</v>
@@ -9127,16 +9130,16 @@
         <v>6836175</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45221.39583333334</v>
       </c>
       <c r="E101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9145,7 +9148,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J101">
         <v>2.625</v>
@@ -9213,16 +9216,16 @@
         <v>6836176</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45221.5</v>
       </c>
       <c r="E102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9231,7 +9234,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J102">
         <v>1.571</v>
@@ -9299,16 +9302,16 @@
         <v>6835782</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45221.625</v>
       </c>
       <c r="E103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9317,7 +9320,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J103">
         <v>1.444</v>
@@ -9385,16 +9388,16 @@
         <v>6836177</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45222.5</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G104">
         <v>5</v>
@@ -9403,7 +9406,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J104">
         <v>1.571</v>
@@ -9471,16 +9474,16 @@
         <v>6836178</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45222.625</v>
       </c>
       <c r="E105" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9489,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J105">
         <v>1.4</v>
@@ -9557,17 +9560,17 @@
         <v>6836131</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45225.58333333334</v>
       </c>
       <c r="E106" t="s">
+        <v>39</v>
+      </c>
+      <c r="F106" t="s">
         <v>38</v>
       </c>
-      <c r="F106" t="s">
-        <v>37</v>
-      </c>
       <c r="G106">
         <v>2</v>
       </c>
@@ -9575,7 +9578,7 @@
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J106">
         <v>1.65</v>
@@ -9643,16 +9646,16 @@
         <v>6835783</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45226.47916666666</v>
       </c>
       <c r="E107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9661,7 +9664,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J107">
         <v>3</v>
@@ -9729,16 +9732,16 @@
         <v>6836181</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45226.60416666666</v>
       </c>
       <c r="E108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9747,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J108">
         <v>2.4</v>
@@ -9815,16 +9818,16 @@
         <v>6836180</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45227.33333333334</v>
       </c>
       <c r="E109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9833,7 +9836,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J109">
         <v>2.6</v>
@@ -9901,16 +9904,16 @@
         <v>6836183</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45227.60416666666</v>
       </c>
       <c r="E110" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9919,7 +9922,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J110">
         <v>3.8</v>
@@ -9987,16 +9990,16 @@
         <v>6836182</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45228.375</v>
       </c>
       <c r="E111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10005,7 +10008,7 @@
         <v>3</v>
       </c>
       <c r="I111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J111">
         <v>2</v>
@@ -10073,16 +10076,16 @@
         <v>6835207</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45228.64583333334</v>
       </c>
       <c r="E112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10091,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J112">
         <v>2.3</v>
@@ -10159,16 +10162,16 @@
         <v>6836184</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45229.52083333334</v>
       </c>
       <c r="E113" t="s">
+        <v>43</v>
+      </c>
+      <c r="F113" t="s">
         <v>42</v>
-      </c>
-      <c r="F113" t="s">
-        <v>41</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10177,7 +10180,7 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -10245,16 +10248,16 @@
         <v>6836185</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45229.64583333334</v>
       </c>
       <c r="E114" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -10263,7 +10266,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J114">
         <v>1.909</v>
@@ -10331,16 +10334,16 @@
         <v>6836187</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45233.54166666666</v>
       </c>
       <c r="E115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10349,7 +10352,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J115">
         <v>2.3</v>
@@ -10417,16 +10420,16 @@
         <v>6836190</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45234.48958333334</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10435,7 +10438,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J116">
         <v>1.909</v>
@@ -10503,16 +10506,16 @@
         <v>6836189</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45234.67708333334</v>
       </c>
       <c r="E117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10521,7 +10524,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J117">
         <v>1.75</v>
@@ -10589,16 +10592,16 @@
         <v>6835784</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45235.41666666666</v>
       </c>
       <c r="E118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10607,7 +10610,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J118">
         <v>2</v>
@@ -10675,16 +10678,16 @@
         <v>6836191</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45235.52083333334</v>
       </c>
       <c r="E119" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10693,7 +10696,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J119">
         <v>1.5</v>
@@ -10761,16 +10764,16 @@
         <v>6835208</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45235.64583333334</v>
       </c>
       <c r="E120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10779,7 +10782,7 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J120">
         <v>2</v>
@@ -10847,16 +10850,16 @@
         <v>6836188</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45236.54166666666</v>
       </c>
       <c r="E121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10865,7 +10868,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J121">
         <v>1.909</v>
@@ -10933,16 +10936,16 @@
         <v>6836186</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45236.66666666666</v>
       </c>
       <c r="E122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F122" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10951,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J122">
         <v>3.5</v>
@@ -11019,16 +11022,16 @@
         <v>6835209</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11037,7 +11040,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J123">
         <v>2.5</v>
@@ -11105,16 +11108,16 @@
         <v>6836197</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45241.375</v>
       </c>
       <c r="E124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11123,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J124">
         <v>2.2</v>
@@ -11191,16 +11194,16 @@
         <v>6836193</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45241.57291666666</v>
       </c>
       <c r="E125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F125" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -11209,7 +11212,7 @@
         <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J125">
         <v>4.75</v>
@@ -11277,16 +11280,16 @@
         <v>6836192</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45241.66666666666</v>
       </c>
       <c r="E126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11295,7 +11298,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J126">
         <v>1.833</v>
@@ -11363,16 +11366,16 @@
         <v>6835785</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45242.35416666666</v>
       </c>
       <c r="E127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11381,7 +11384,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J127">
         <v>2.5</v>
@@ -11449,16 +11452,16 @@
         <v>6836195</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E128" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11467,7 +11470,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J128">
         <v>1.333</v>
@@ -11535,16 +11538,16 @@
         <v>6836196</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45242.66666666666</v>
       </c>
       <c r="E129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11553,7 +11556,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J129">
         <v>1.444</v>
@@ -11621,16 +11624,16 @@
         <v>6836194</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45243.64583333334</v>
       </c>
       <c r="E130" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11639,7 +11642,7 @@
         <v>4</v>
       </c>
       <c r="I130" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J130">
         <v>2.15</v>
@@ -11707,16 +11710,16 @@
         <v>6836198</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45254.52083333334</v>
       </c>
       <c r="E131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11725,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J131">
         <v>2.05</v>
@@ -11793,16 +11796,16 @@
         <v>6836203</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45254.64583333334</v>
       </c>
       <c r="E132" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11811,7 +11814,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J132">
         <v>1.65</v>
@@ -11879,16 +11882,16 @@
         <v>6835786</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45255.52083333334</v>
       </c>
       <c r="E133" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G133">
         <v>4</v>
@@ -11897,7 +11900,7 @@
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J133">
         <v>3.2</v>
@@ -11965,16 +11968,16 @@
         <v>6836199</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45255.64583333334</v>
       </c>
       <c r="E134" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -11983,7 +11986,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J134">
         <v>1.45</v>
@@ -12051,16 +12054,16 @@
         <v>6836200</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45256.52083333334</v>
       </c>
       <c r="E135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12069,7 +12072,7 @@
         <v>3</v>
       </c>
       <c r="I135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J135">
         <v>3.4</v>
@@ -12137,16 +12140,16 @@
         <v>6836201</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
         <v>45256.64583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12155,7 +12158,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J136">
         <v>9</v>
@@ -12223,16 +12226,16 @@
         <v>6836202</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45257.52083333334</v>
       </c>
       <c r="E137" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12241,7 +12244,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J137">
         <v>2.6</v>
@@ -12309,16 +12312,16 @@
         <v>6835210</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>45257.64583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12327,7 +12330,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J138">
         <v>1.833</v>
@@ -12395,16 +12398,16 @@
         <v>6835787</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
         <v>45261.5</v>
       </c>
       <c r="E139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12413,7 +12416,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J139">
         <v>2.3</v>
@@ -12481,16 +12484,16 @@
         <v>7528972</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2">
         <v>45261.625</v>
       </c>
       <c r="E140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12499,7 +12502,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J140">
         <v>3.3</v>
@@ -12567,16 +12570,16 @@
         <v>6836204</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>45262.375</v>
       </c>
       <c r="E141" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -12585,7 +12588,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J141">
         <v>2.5</v>
@@ -12653,16 +12656,16 @@
         <v>6835211</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>45262.5</v>
       </c>
       <c r="E142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12671,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J142">
         <v>4.2</v>
@@ -12739,16 +12742,16 @@
         <v>6836205</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
         <v>45262.64583333334</v>
       </c>
       <c r="E143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F143" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12757,7 +12760,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J143">
         <v>2.6</v>
@@ -12825,16 +12828,16 @@
         <v>6836208</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
         <v>45263.45833333334</v>
       </c>
       <c r="E144" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12843,7 +12846,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -12911,16 +12914,16 @@
         <v>6836206</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2">
         <v>45263.66666666666</v>
       </c>
       <c r="E145" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -12929,7 +12932,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J145">
         <v>1.363</v>
@@ -12997,16 +13000,16 @@
         <v>6836207</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2">
         <v>45264.625</v>
       </c>
       <c r="E146" t="s">
+        <v>37</v>
+      </c>
+      <c r="F146" t="s">
         <v>36</v>
-      </c>
-      <c r="F146" t="s">
-        <v>35</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13015,7 +13018,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J146">
         <v>1.6</v>
@@ -13083,16 +13086,16 @@
         <v>6836215</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2">
         <v>45268.58333333334</v>
       </c>
       <c r="E147" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13101,7 +13104,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J147">
         <v>2.3</v>
@@ -13169,16 +13172,16 @@
         <v>6835212</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2">
         <v>45269.65625</v>
       </c>
       <c r="E148" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13187,7 +13190,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J148">
         <v>1.7</v>
@@ -13255,16 +13258,16 @@
         <v>6836210</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2">
         <v>45270.375</v>
       </c>
       <c r="E149" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13273,7 +13276,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J149">
         <v>2.875</v>
@@ -13341,16 +13344,16 @@
         <v>6836216</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D150" s="2">
         <v>45270.5</v>
       </c>
       <c r="E150" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13359,7 +13362,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J150">
         <v>1.9</v>
@@ -13427,16 +13430,16 @@
         <v>6836211</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D151" s="2">
         <v>45270.625</v>
       </c>
       <c r="E151" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13445,7 +13448,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J151">
         <v>2.7</v>
@@ -13513,16 +13516,16 @@
         <v>6836214</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D152" s="2">
         <v>45271.5</v>
       </c>
       <c r="E152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13531,7 +13534,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J152">
         <v>1.85</v>
@@ -13599,16 +13602,16 @@
         <v>6836213</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D153" s="2">
         <v>45271.65625</v>
       </c>
       <c r="E153" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13617,7 +13620,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J153">
         <v>3.25</v>
@@ -13685,16 +13688,16 @@
         <v>6836212</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D154" s="2">
         <v>45272.5</v>
       </c>
       <c r="E154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13703,7 +13706,7 @@
         <v>3</v>
       </c>
       <c r="I154" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J154">
         <v>2.7</v>
@@ -13771,16 +13774,16 @@
         <v>6835788</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D155" s="2">
         <v>45275.5</v>
       </c>
       <c r="E155" t="s">
+        <v>35</v>
+      </c>
+      <c r="F155" t="s">
         <v>34</v>
-      </c>
-      <c r="F155" t="s">
-        <v>33</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13789,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J155">
         <v>2.3</v>
@@ -13857,16 +13860,16 @@
         <v>6835213</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D156" s="2">
         <v>45275.625</v>
       </c>
       <c r="E156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13875,7 +13878,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J156">
         <v>3.1</v>
@@ -13943,16 +13946,16 @@
         <v>6836222</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D157" s="2">
         <v>45276.375</v>
       </c>
       <c r="E157" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13961,7 +13964,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J157">
         <v>3.1</v>
@@ -14029,16 +14032,16 @@
         <v>6836221</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D158" s="2">
         <v>45276.5</v>
       </c>
       <c r="E158" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14047,7 +14050,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J158">
         <v>1.45</v>
@@ -14115,16 +14118,16 @@
         <v>6836217</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D159" s="2">
         <v>45276.625</v>
       </c>
       <c r="E159" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G159">
         <v>3</v>
@@ -14133,7 +14136,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J159">
         <v>1.666</v>
@@ -14201,16 +14204,16 @@
         <v>6836219</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D160" s="2">
         <v>45277.41666666666</v>
       </c>
       <c r="E160" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -14219,7 +14222,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J160">
         <v>1.8</v>
@@ -14287,16 +14290,16 @@
         <v>6836218</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D161" s="2">
         <v>45277.66666666666</v>
       </c>
       <c r="E161" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F161" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -14305,7 +14308,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J161">
         <v>3.3</v>
@@ -14373,16 +14376,16 @@
         <v>6836220</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D162" s="2">
         <v>45278.625</v>
       </c>
       <c r="E162" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -14391,7 +14394,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J162">
         <v>2.25</v>
@@ -14459,17 +14462,17 @@
         <v>6836227</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D163" s="2">
         <v>45279.52083333334</v>
       </c>
       <c r="E163" t="s">
+        <v>34</v>
+      </c>
+      <c r="F163" t="s">
         <v>33</v>
       </c>
-      <c r="F163" t="s">
-        <v>32</v>
-      </c>
       <c r="G163">
         <v>2</v>
       </c>
@@ -14477,7 +14480,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J163">
         <v>2.1</v>
@@ -14545,16 +14548,16 @@
         <v>6836226</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D164" s="2">
         <v>45279.64583333334</v>
       </c>
       <c r="E164" t="s">
+        <v>41</v>
+      </c>
+      <c r="F164" t="s">
         <v>40</v>
-      </c>
-      <c r="F164" t="s">
-        <v>39</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14563,7 +14566,7 @@
         <v>3</v>
       </c>
       <c r="I164" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J164">
         <v>5.25</v>
@@ -14631,16 +14634,16 @@
         <v>6836228</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D165" s="2">
         <v>45280.52083333334</v>
       </c>
       <c r="E165" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14649,7 +14652,7 @@
         <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J165">
         <v>4.5</v>
@@ -14717,16 +14720,16 @@
         <v>6835214</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D166" s="2">
         <v>45280.64583333334</v>
       </c>
       <c r="E166" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14735,7 +14738,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J166">
         <v>2.25</v>
@@ -14803,16 +14806,16 @@
         <v>6836223</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D167" s="2">
         <v>45281.5</v>
       </c>
       <c r="E167" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14821,7 +14824,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J167">
         <v>2.5</v>
@@ -14889,16 +14892,16 @@
         <v>6836224</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D168" s="2">
         <v>45281.61458333334</v>
       </c>
       <c r="E168" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F168" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G168">
         <v>4</v>
@@ -14907,7 +14910,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J168">
         <v>1.95</v>
@@ -14975,16 +14978,16 @@
         <v>6836225</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D169" s="2">
         <v>45282.52083333334</v>
       </c>
       <c r="E169" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F169" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -14993,7 +14996,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J169">
         <v>1.909</v>
@@ -15061,16 +15064,16 @@
         <v>6835789</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D170" s="2">
         <v>45282.64583333334</v>
       </c>
       <c r="E170" t="s">
+        <v>36</v>
+      </c>
+      <c r="F170" t="s">
         <v>35</v>
-      </c>
-      <c r="F170" t="s">
-        <v>34</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15079,7 +15082,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J170">
         <v>2.875</v>
@@ -15147,16 +15150,16 @@
         <v>6836231</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D171" s="2">
         <v>45310.5</v>
       </c>
       <c r="E171" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F171" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G171">
         <v>6</v>
@@ -15165,7 +15168,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J171">
         <v>1.727</v>
@@ -15233,16 +15236,16 @@
         <v>6835215</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D172" s="2">
         <v>45310.625</v>
       </c>
       <c r="E172" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G172">
         <v>4</v>
@@ -15251,7 +15254,7 @@
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J172">
         <v>1.833</v>
@@ -15319,16 +15322,16 @@
         <v>6836229</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D173" s="2">
         <v>45311.5</v>
       </c>
       <c r="E173" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -15337,7 +15340,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J173">
         <v>2.1</v>
@@ -15405,16 +15408,16 @@
         <v>6836232</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D174" s="2">
         <v>45311.625</v>
       </c>
       <c r="E174" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15423,7 +15426,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J174">
         <v>2</v>
@@ -15491,16 +15494,16 @@
         <v>6836230</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D175" s="2">
         <v>45312.41666666666</v>
       </c>
       <c r="E175" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F175" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15509,7 +15512,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J175">
         <v>4.75</v>
@@ -15577,16 +15580,16 @@
         <v>6836234</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D176" s="2">
         <v>45312.625</v>
       </c>
       <c r="E176" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F176" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15595,7 +15598,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J176">
         <v>1.833</v>
@@ -15663,16 +15666,16 @@
         <v>6835790</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D177" s="2">
         <v>45313.5</v>
       </c>
       <c r="E177" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15681,7 +15684,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J177">
         <v>2.625</v>
@@ -15749,16 +15752,16 @@
         <v>6836233</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D178" s="2">
         <v>45313.625</v>
       </c>
       <c r="E178" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F178" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G178">
         <v>4</v>
@@ -15767,7 +15770,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J178">
         <v>1.363</v>
@@ -15835,16 +15838,16 @@
         <v>6836236</v>
       </c>
       <c r="C179" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D179" s="2">
         <v>45317.625</v>
       </c>
       <c r="E179" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -15853,7 +15856,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J179">
         <v>1.85</v>
@@ -15921,16 +15924,16 @@
         <v>6836240</v>
       </c>
       <c r="C180" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D180" s="2">
         <v>45318.375</v>
       </c>
       <c r="E180" t="s">
+        <v>38</v>
+      </c>
+      <c r="F180" t="s">
         <v>37</v>
-      </c>
-      <c r="F180" t="s">
-        <v>36</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -15939,7 +15942,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J180">
         <v>3</v>
@@ -16007,16 +16010,16 @@
         <v>6836239</v>
       </c>
       <c r="C181" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D181" s="2">
         <v>45318.5</v>
       </c>
       <c r="E181" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16025,7 +16028,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J181">
         <v>2.4</v>
@@ -16093,16 +16096,16 @@
         <v>6835216</v>
       </c>
       <c r="C182" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D182" s="2">
         <v>45318.625</v>
       </c>
       <c r="E182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16111,7 +16114,7 @@
         <v>2</v>
       </c>
       <c r="I182" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J182">
         <v>4</v>
@@ -16179,16 +16182,16 @@
         <v>6836237</v>
       </c>
       <c r="C183" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D183" s="2">
         <v>45319.375</v>
       </c>
       <c r="E183" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F183" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16197,7 +16200,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J183">
         <v>1.666</v>
@@ -16265,16 +16268,16 @@
         <v>6836238</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D184" s="2">
         <v>45319.5</v>
       </c>
       <c r="E184" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F184" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16283,7 +16286,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J184">
         <v>3.3</v>
@@ -16351,16 +16354,16 @@
         <v>6836235</v>
       </c>
       <c r="C185" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D185" s="2">
         <v>45319.625</v>
       </c>
       <c r="E185" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -16369,7 +16372,7 @@
         <v>3</v>
       </c>
       <c r="I185" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J185">
         <v>2.7</v>
@@ -16437,16 +16440,16 @@
         <v>6835791</v>
       </c>
       <c r="C186" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D186" s="2">
         <v>45320.625</v>
       </c>
       <c r="E186" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G186">
         <v>4</v>
@@ -16455,7 +16458,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J186">
         <v>1.571</v>
@@ -16523,16 +16526,16 @@
         <v>6836241</v>
       </c>
       <c r="C187" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D187" s="2">
         <v>45324.5</v>
       </c>
       <c r="E187" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G187">
         <v>2</v>
@@ -16541,7 +16544,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J187">
         <v>2.5</v>
@@ -16609,16 +16612,16 @@
         <v>6836245</v>
       </c>
       <c r="C188" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D188" s="2">
         <v>45324.625</v>
       </c>
       <c r="E188" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16627,7 +16630,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J188">
         <v>1.909</v>
@@ -16695,16 +16698,16 @@
         <v>6836242</v>
       </c>
       <c r="C189" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D189" s="2">
         <v>45325.5</v>
       </c>
       <c r="E189" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F189" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -16713,7 +16716,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J189">
         <v>3</v>
@@ -16781,16 +16784,16 @@
         <v>6835217</v>
       </c>
       <c r="C190" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D190" s="2">
         <v>45325.625</v>
       </c>
       <c r="E190" t="s">
+        <v>31</v>
+      </c>
+      <c r="F190" t="s">
         <v>30</v>
-      </c>
-      <c r="F190" t="s">
-        <v>29</v>
       </c>
       <c r="G190">
         <v>2</v>
@@ -16799,7 +16802,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J190">
         <v>1.8</v>
@@ -16867,16 +16870,16 @@
         <v>6836243</v>
       </c>
       <c r="C191" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D191" s="2">
         <v>45326.33333333334</v>
       </c>
       <c r="E191" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F191" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16885,7 +16888,7 @@
         <v>3</v>
       </c>
       <c r="I191" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J191">
         <v>1.8</v>
@@ -16953,16 +16956,16 @@
         <v>6836244</v>
       </c>
       <c r="C192" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D192" s="2">
         <v>45326.4375</v>
       </c>
       <c r="E192" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F192" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -16971,7 +16974,7 @@
         <v>3</v>
       </c>
       <c r="I192" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J192">
         <v>2.6</v>
@@ -17039,16 +17042,16 @@
         <v>6835792</v>
       </c>
       <c r="C193" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D193" s="2">
         <v>45327.5</v>
       </c>
       <c r="E193" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F193" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -17057,7 +17060,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J193">
         <v>2.6</v>
@@ -17125,16 +17128,16 @@
         <v>6836246</v>
       </c>
       <c r="C194" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D194" s="2">
         <v>45327.625</v>
       </c>
       <c r="E194" t="s">
+        <v>40</v>
+      </c>
+      <c r="F194" t="s">
         <v>39</v>
-      </c>
-      <c r="F194" t="s">
-        <v>38</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17143,7 +17146,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J194">
         <v>1.8</v>
@@ -17211,16 +17214,16 @@
         <v>6836251</v>
       </c>
       <c r="C195" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D195" s="2">
         <v>45331.5</v>
       </c>
       <c r="E195" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17229,7 +17232,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J195">
         <v>2.4</v>
@@ -17297,16 +17300,16 @@
         <v>6836250</v>
       </c>
       <c r="C196" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D196" s="2">
         <v>45331.625</v>
       </c>
       <c r="E196" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -17315,7 +17318,7 @@
         <v>2</v>
       </c>
       <c r="I196" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J196">
         <v>1.85</v>
@@ -17383,16 +17386,16 @@
         <v>6835793</v>
       </c>
       <c r="C197" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D197" s="2">
         <v>45332.375</v>
       </c>
       <c r="E197" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -17401,7 +17404,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J197">
         <v>2.45</v>
@@ -17469,16 +17472,16 @@
         <v>6835218</v>
       </c>
       <c r="C198" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D198" s="2">
         <v>45332.67708333334</v>
       </c>
       <c r="E198" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F198" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -17487,7 +17490,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J198">
         <v>2.15</v>
@@ -17555,16 +17558,16 @@
         <v>6836247</v>
       </c>
       <c r="C199" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D199" s="2">
         <v>45333.55208333334</v>
       </c>
       <c r="E199" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F199" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -17573,7 +17576,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J199">
         <v>2.25</v>
@@ -17641,16 +17644,16 @@
         <v>6836252</v>
       </c>
       <c r="C200" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D200" s="2">
         <v>45333.65625</v>
       </c>
       <c r="E200" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -17659,7 +17662,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J200">
         <v>1.666</v>
@@ -17727,16 +17730,16 @@
         <v>6836249</v>
       </c>
       <c r="C201" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D201" s="2">
         <v>45334.5</v>
       </c>
       <c r="E201" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F201" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17745,7 +17748,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J201">
         <v>1.909</v>
@@ -17813,16 +17816,16 @@
         <v>6836253</v>
       </c>
       <c r="C202" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D202" s="2">
         <v>45334.625</v>
       </c>
       <c r="E202" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F202" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17831,7 +17834,7 @@
         <v>2</v>
       </c>
       <c r="I202" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J202">
         <v>1.55</v>
@@ -17899,16 +17902,16 @@
         <v>6836254</v>
       </c>
       <c r="C203" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D203" s="2">
         <v>45338.5</v>
       </c>
       <c r="E203" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F203" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17917,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J203">
         <v>2.15</v>
@@ -17985,16 +17988,16 @@
         <v>6835219</v>
       </c>
       <c r="C204" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D204" s="2">
         <v>45338.625</v>
       </c>
       <c r="E204" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G204">
         <v>2</v>
@@ -18003,7 +18006,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J204">
         <v>1.833</v>
@@ -18071,16 +18074,16 @@
         <v>6835794</v>
       </c>
       <c r="C205" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D205" s="2">
         <v>45339.375</v>
       </c>
       <c r="E205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F205" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -18089,7 +18092,7 @@
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J205">
         <v>2.4</v>
@@ -18157,16 +18160,16 @@
         <v>6836256</v>
       </c>
       <c r="C206" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D206" s="2">
         <v>45339.6875</v>
       </c>
       <c r="E206" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F206" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -18175,7 +18178,7 @@
         <v>3</v>
       </c>
       <c r="I206" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J206">
         <v>3.1</v>
@@ -18243,16 +18246,16 @@
         <v>6836255</v>
       </c>
       <c r="C207" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D207" s="2">
         <v>45340.51041666666</v>
       </c>
       <c r="E207" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F207" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18261,7 +18264,7 @@
         <v>2</v>
       </c>
       <c r="I207" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J207">
         <v>3.4</v>
@@ -18329,16 +18332,16 @@
         <v>6836258</v>
       </c>
       <c r="C208" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D208" s="2">
         <v>45340.625</v>
       </c>
       <c r="E208" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F208" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G208">
         <v>3</v>
@@ -18347,7 +18350,7 @@
         <v>1</v>
       </c>
       <c r="I208" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J208">
         <v>2.5</v>
@@ -18415,16 +18418,16 @@
         <v>6836259</v>
       </c>
       <c r="C209" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D209" s="2">
         <v>45341.52083333334</v>
       </c>
       <c r="E209" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F209" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -18433,7 +18436,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J209">
         <v>2.3</v>
@@ -18501,16 +18504,16 @@
         <v>6836257</v>
       </c>
       <c r="C210" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D210" s="2">
         <v>45341.64583333334</v>
       </c>
       <c r="E210" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F210" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -18519,7 +18522,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J210">
         <v>3.6</v>
@@ -18587,16 +18590,16 @@
         <v>6836260</v>
       </c>
       <c r="C211" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D211" s="2">
         <v>45345.5</v>
       </c>
       <c r="E211" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F211" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18605,7 +18608,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J211">
         <v>2.1</v>
@@ -18673,16 +18676,16 @@
         <v>6836263</v>
       </c>
       <c r="C212" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D212" s="2">
         <v>45345.625</v>
       </c>
       <c r="E212" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F212" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G212">
         <v>4</v>
@@ -18691,7 +18694,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J212">
         <v>1.5</v>
@@ -18759,16 +18762,16 @@
         <v>6836261</v>
       </c>
       <c r="C213" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D213" s="2">
         <v>45346.375</v>
       </c>
       <c r="E213" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -18777,7 +18780,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J213">
         <v>2.4</v>
@@ -18845,16 +18848,16 @@
         <v>6836265</v>
       </c>
       <c r="C214" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D214" s="2">
         <v>45346.5</v>
       </c>
       <c r="E214" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F214" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -18863,7 +18866,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J214">
         <v>1.833</v>
@@ -18931,16 +18934,16 @@
         <v>6835220</v>
       </c>
       <c r="C215" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D215" s="2">
         <v>45346.625</v>
       </c>
       <c r="E215" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F215" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G215">
         <v>3</v>
@@ -18949,7 +18952,7 @@
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J215">
         <v>4.2</v>
@@ -19017,16 +19020,16 @@
         <v>6836264</v>
       </c>
       <c r="C216" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D216" s="2">
         <v>45347.375</v>
       </c>
       <c r="E216" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F216" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -19035,7 +19038,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J216">
         <v>2.25</v>
@@ -19103,16 +19106,16 @@
         <v>6836262</v>
       </c>
       <c r="C217" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D217" s="2">
         <v>45347.625</v>
       </c>
       <c r="E217" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F217" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G217">
         <v>3</v>
@@ -19121,7 +19124,7 @@
         <v>2</v>
       </c>
       <c r="I217" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J217">
         <v>1.363</v>
@@ -19189,16 +19192,16 @@
         <v>6835795</v>
       </c>
       <c r="C218" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D218" s="2">
         <v>45348.625</v>
       </c>
       <c r="E218" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19207,7 +19210,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J218">
         <v>1.533</v>
@@ -19275,16 +19278,16 @@
         <v>6836267</v>
       </c>
       <c r="C219" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D219" s="2">
         <v>45349.46875</v>
       </c>
       <c r="E219" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F219" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19293,7 +19296,7 @@
         <v>1</v>
       </c>
       <c r="I219" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J219">
         <v>1.615</v>
@@ -19361,16 +19364,16 @@
         <v>6836266</v>
       </c>
       <c r="C220" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D220" s="2">
         <v>45349.5625</v>
       </c>
       <c r="E220" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F220" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -19379,7 +19382,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J220">
         <v>2.3</v>
@@ -19447,17 +19450,17 @@
         <v>6836271</v>
       </c>
       <c r="C221" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D221" s="2">
         <v>45349.66666666666</v>
       </c>
       <c r="E221" t="s">
+        <v>30</v>
+      </c>
+      <c r="F221" t="s">
         <v>29</v>
       </c>
-      <c r="F221" t="s">
-        <v>28</v>
-      </c>
       <c r="G221">
         <v>2</v>
       </c>
@@ -19465,7 +19468,7 @@
         <v>2</v>
       </c>
       <c r="I221" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J221">
         <v>4.2</v>
@@ -19533,16 +19536,16 @@
         <v>6836272</v>
       </c>
       <c r="C222" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D222" s="2">
         <v>45350.5625</v>
       </c>
       <c r="E222" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F222" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -19551,7 +19554,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J222">
         <v>2.7</v>
@@ -19619,16 +19622,16 @@
         <v>6835221</v>
       </c>
       <c r="C223" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D223" s="2">
         <v>45350.66666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F223" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G223">
         <v>4</v>
@@ -19637,7 +19640,7 @@
         <v>1</v>
       </c>
       <c r="I223" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J223">
         <v>1.727</v>
@@ -19705,16 +19708,16 @@
         <v>6836270</v>
       </c>
       <c r="C224" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D224" s="2">
         <v>45351.46875</v>
       </c>
       <c r="E224" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F224" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19723,7 +19726,7 @@
         <v>2</v>
       </c>
       <c r="I224" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J224">
         <v>3.2</v>
@@ -19791,16 +19794,16 @@
         <v>6836268</v>
       </c>
       <c r="C225" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D225" s="2">
         <v>45351.5625</v>
       </c>
       <c r="E225" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F225" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -19809,7 +19812,7 @@
         <v>3</v>
       </c>
       <c r="I225" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J225">
         <v>3</v>
@@ -19877,16 +19880,16 @@
         <v>6836269</v>
       </c>
       <c r="C226" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D226" s="2">
         <v>45351.66666666666</v>
       </c>
       <c r="E226" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F226" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G226">
         <v>1</v>
@@ -19895,7 +19898,7 @@
         <v>2</v>
       </c>
       <c r="I226" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J226">
         <v>4</v>
@@ -19963,16 +19966,16 @@
         <v>6836274</v>
       </c>
       <c r="C227" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D227" s="2">
         <v>45352.625</v>
       </c>
       <c r="E227" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F227" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -19981,7 +19984,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J227">
         <v>2.4</v>
@@ -20049,16 +20052,16 @@
         <v>6836275</v>
       </c>
       <c r="C228" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D228" s="2">
         <v>45353.375</v>
       </c>
       <c r="E228" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F228" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G228">
         <v>3</v>
@@ -20067,7 +20070,7 @@
         <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J228">
         <v>2.25</v>
@@ -20135,16 +20138,16 @@
         <v>6836273</v>
       </c>
       <c r="C229" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D229" s="2">
         <v>45353.5</v>
       </c>
       <c r="E229" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F229" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G229">
         <v>4</v>
@@ -20153,7 +20156,7 @@
         <v>1</v>
       </c>
       <c r="I229" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J229">
         <v>2.1</v>
@@ -20221,16 +20224,16 @@
         <v>6907421</v>
       </c>
       <c r="C230" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D230" s="2">
         <v>45353.625</v>
       </c>
       <c r="E230" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F230" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20239,7 +20242,7 @@
         <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J230">
         <v>2.7</v>
@@ -20307,16 +20310,16 @@
         <v>6838744</v>
       </c>
       <c r="C231" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D231" s="2">
         <v>45354.39583333334</v>
       </c>
       <c r="E231" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F231" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -20325,7 +20328,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J231">
         <v>1.8</v>
@@ -20393,16 +20396,16 @@
         <v>6848293</v>
       </c>
       <c r="C232" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D232" s="2">
         <v>45354.64583333334</v>
       </c>
       <c r="E232" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F232" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -20411,7 +20414,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J232">
         <v>1.6</v>
@@ -20479,16 +20482,16 @@
         <v>6848294</v>
       </c>
       <c r="C233" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D233" s="2">
         <v>45355.5</v>
       </c>
       <c r="E233" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F233" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G233">
         <v>4</v>
@@ -20497,7 +20500,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J233">
         <v>1.8</v>
@@ -20565,16 +20568,16 @@
         <v>6836276</v>
       </c>
       <c r="C234" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D234" s="2">
         <v>45355.625</v>
       </c>
       <c r="E234" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F234" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -20583,7 +20586,7 @@
         <v>1</v>
       </c>
       <c r="I234" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J234">
         <v>2.5</v>
@@ -20648,85 +20651,85 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6861095</v>
+        <v>6870268</v>
       </c>
       <c r="C235" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D235" s="2">
         <v>45359.625</v>
       </c>
       <c r="E235" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F235" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J235">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="K235">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L235">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="M235">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N235">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O235">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="P235">
         <v>0.25</v>
       </c>
       <c r="Q235">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="R235">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S235">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T235">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U235">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V235">
         <v>-1</v>
       </c>
       <c r="W235">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y235">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB235">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:28">
@@ -20734,85 +20737,85 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6870268</v>
+        <v>6861095</v>
       </c>
       <c r="C236" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D236" s="2">
         <v>45359.625</v>
       </c>
       <c r="E236" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F236" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="s">
         <v>46</v>
       </c>
       <c r="J236">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="K236">
+        <v>3.4</v>
+      </c>
+      <c r="L236">
+        <v>1.909</v>
+      </c>
+      <c r="M236">
+        <v>3.1</v>
+      </c>
+      <c r="N236">
         <v>3</v>
       </c>
-      <c r="L236">
-        <v>2.55</v>
-      </c>
-      <c r="M236">
-        <v>3</v>
-      </c>
-      <c r="N236">
-        <v>3.2</v>
-      </c>
       <c r="O236">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="P236">
         <v>0.25</v>
       </c>
       <c r="Q236">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="R236">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S236">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T236">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U236">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V236">
         <v>-1</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X236">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="Z236">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA236">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="237" spans="1:28">
@@ -20820,22 +20823,22 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6865915</v>
+        <v>6852370</v>
       </c>
       <c r="C237" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D237" s="2">
         <v>45359.625</v>
       </c>
       <c r="E237" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F237" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -20844,61 +20847,61 @@
         <v>45</v>
       </c>
       <c r="J237">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="K237">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="L237">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="M237">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="N237">
+        <v>3</v>
+      </c>
+      <c r="O237">
         <v>3.1</v>
       </c>
-      <c r="O237">
-        <v>2.15</v>
-      </c>
       <c r="P237">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q237">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R237">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S237">
         <v>2.25</v>
       </c>
       <c r="T237">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U237">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V237">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W237">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="Z237">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA237">
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="238" spans="1:28">
@@ -20909,16 +20912,16 @@
         <v>6836277</v>
       </c>
       <c r="C238" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D238" s="2">
         <v>45359.625</v>
       </c>
       <c r="E238" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F238" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -20927,7 +20930,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J238">
         <v>1.7</v>
@@ -20992,10 +20995,10 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6852370</v>
+        <v>6865915</v>
       </c>
       <c r="C239" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D239" s="2">
         <v>45359.625</v>
@@ -21004,73 +21007,73 @@
         <v>35</v>
       </c>
       <c r="F239" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H239">
         <v>0</v>
       </c>
       <c r="I239" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J239">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="K239">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="L239">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="M239">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="N239">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O239">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="P239">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q239">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R239">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S239">
         <v>2.25</v>
       </c>
       <c r="T239">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="U239">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V239">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA239">
         <v>-1</v>
       </c>
       <c r="AB239">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="240" spans="1:28">
@@ -21081,16 +21084,16 @@
         <v>6870267</v>
       </c>
       <c r="C240" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D240" s="2">
         <v>45360.625</v>
       </c>
       <c r="E240" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F240" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -21099,7 +21102,7 @@
         <v>4</v>
       </c>
       <c r="I240" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J240">
         <v>2.45</v>
@@ -21167,16 +21170,16 @@
         <v>6836278</v>
       </c>
       <c r="C241" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D241" s="2">
         <v>45361.65625</v>
       </c>
       <c r="E241" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F241" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -21185,7 +21188,7 @@
         <v>2</v>
       </c>
       <c r="I241" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J241">
         <v>3.6</v>
@@ -21253,16 +21256,16 @@
         <v>6836954</v>
       </c>
       <c r="C242" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D242" s="2">
         <v>45362.625</v>
       </c>
       <c r="E242" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F242" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -21271,7 +21274,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J242">
         <v>2.15</v>
@@ -21339,16 +21342,16 @@
         <v>7951557</v>
       </c>
       <c r="C243" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D243" s="2">
         <v>45366.52083333334</v>
       </c>
       <c r="E243" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F243" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G243">
         <v>3</v>
@@ -21357,7 +21360,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J243">
         <v>1.615</v>
@@ -21425,16 +21428,16 @@
         <v>7949044</v>
       </c>
       <c r="C244" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D244" s="2">
         <v>45366.64583333334</v>
       </c>
       <c r="E244" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F244" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -21443,7 +21446,7 @@
         <v>2</v>
       </c>
       <c r="I244" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J244">
         <v>1.75</v>
@@ -21511,16 +21514,16 @@
         <v>7951558</v>
       </c>
       <c r="C245" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D245" s="2">
         <v>45367.5</v>
       </c>
       <c r="E245" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F245" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G245">
         <v>1</v>
@@ -21529,7 +21532,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J245">
         <v>2.1</v>
@@ -21597,16 +21600,16 @@
         <v>7949046</v>
       </c>
       <c r="C246" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D246" s="2">
         <v>45367.625</v>
       </c>
       <c r="E246" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F246" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G246">
         <v>1</v>
@@ -21615,7 +21618,7 @@
         <v>2</v>
       </c>
       <c r="I246" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J246">
         <v>2.05</v>
@@ -21683,16 +21686,16 @@
         <v>7951775</v>
       </c>
       <c r="C247" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D247" s="2">
         <v>45368.55208333334</v>
       </c>
       <c r="E247" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F247" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G247">
         <v>3</v>
@@ -21701,7 +21704,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J247">
         <v>1.909</v>
@@ -21769,16 +21772,16 @@
         <v>7953049</v>
       </c>
       <c r="C248" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D248" s="2">
         <v>45368.66666666666</v>
       </c>
       <c r="E248" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F248" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G248">
         <v>2</v>
@@ -21787,7 +21790,7 @@
         <v>1</v>
       </c>
       <c r="I248" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J248">
         <v>1.65</v>
@@ -21855,16 +21858,16 @@
         <v>7951776</v>
       </c>
       <c r="C249" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D249" s="2">
         <v>45369.52083333334</v>
       </c>
       <c r="E249" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F249" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G249">
         <v>4</v>
@@ -21873,7 +21876,7 @@
         <v>3</v>
       </c>
       <c r="I249" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J249">
         <v>1.909</v>
@@ -21941,16 +21944,16 @@
         <v>7951777</v>
       </c>
       <c r="C250" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D250" s="2">
         <v>45369.64583333334</v>
       </c>
       <c r="E250" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F250" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -21959,7 +21962,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J250">
         <v>2.25</v>
@@ -22027,16 +22030,16 @@
         <v>7951781</v>
       </c>
       <c r="C251" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D251" s="2">
         <v>45380.52083333334</v>
       </c>
       <c r="E251" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F251" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -22045,7 +22048,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J251">
         <v>3</v>
@@ -22113,16 +22116,16 @@
         <v>7951750</v>
       </c>
       <c r="C252" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D252" s="2">
         <v>45380.64583333334</v>
       </c>
       <c r="E252" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F252" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G252">
         <v>1</v>
@@ -22131,7 +22134,7 @@
         <v>1</v>
       </c>
       <c r="I252" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J252">
         <v>3.3</v>
@@ -22199,16 +22202,16 @@
         <v>8010912</v>
       </c>
       <c r="C253" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D253" s="2">
         <v>45381.44791666666</v>
       </c>
       <c r="E253" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F253" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G253">
         <v>2</v>
@@ -22217,7 +22220,7 @@
         <v>1</v>
       </c>
       <c r="I253" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J253">
         <v>2.55</v>
@@ -22285,16 +22288,16 @@
         <v>8010913</v>
       </c>
       <c r="C254" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D254" s="2">
         <v>45381.54166666666</v>
       </c>
       <c r="E254" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F254" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -22303,7 +22306,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J254">
         <v>1.95</v>
@@ -22371,16 +22374,16 @@
         <v>7951749</v>
       </c>
       <c r="C255" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D255" s="2">
         <v>45381.66666666666</v>
       </c>
       <c r="E255" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F255" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G255">
         <v>2</v>
@@ -22389,7 +22392,7 @@
         <v>1</v>
       </c>
       <c r="I255" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J255">
         <v>2.1</v>
@@ -22457,16 +22460,16 @@
         <v>7951779</v>
       </c>
       <c r="C256" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D256" s="2">
         <v>45382.33333333334</v>
       </c>
       <c r="E256" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F256" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G256">
         <v>1</v>
@@ -22475,7 +22478,7 @@
         <v>2</v>
       </c>
       <c r="I256" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J256">
         <v>2.3</v>
@@ -22543,16 +22546,16 @@
         <v>7951748</v>
       </c>
       <c r="C257" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D257" s="2">
         <v>45382.625</v>
       </c>
       <c r="E257" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F257" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -22561,7 +22564,7 @@
         <v>1</v>
       </c>
       <c r="I257" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J257">
         <v>3.6</v>
@@ -22629,16 +22632,16 @@
         <v>7951780</v>
       </c>
       <c r="C258" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D258" s="2">
         <v>45383.60416666666</v>
       </c>
       <c r="E258" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F258" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -22647,7 +22650,7 @@
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J258">
         <v>2.3</v>
@@ -22715,16 +22718,16 @@
         <v>7951783</v>
       </c>
       <c r="C259" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D259" s="2">
         <v>45387.47916666666</v>
       </c>
       <c r="E259" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F259" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -22733,7 +22736,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J259">
         <v>1.95</v>
@@ -22801,16 +22804,16 @@
         <v>7951753</v>
       </c>
       <c r="C260" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D260" s="2">
         <v>45387.60416666666</v>
       </c>
       <c r="E260" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F260" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G260">
         <v>1</v>
@@ -22819,7 +22822,7 @@
         <v>1</v>
       </c>
       <c r="I260" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J260">
         <v>2.15</v>
@@ -22887,16 +22890,16 @@
         <v>7951785</v>
       </c>
       <c r="C261" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D261" s="2">
         <v>45388.47916666666</v>
       </c>
       <c r="E261" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F261" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -22905,7 +22908,7 @@
         <v>4</v>
       </c>
       <c r="I261" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J261">
         <v>1.95</v>
@@ -22973,16 +22976,16 @@
         <v>7951752</v>
       </c>
       <c r="C262" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D262" s="2">
         <v>45388.60416666666</v>
       </c>
       <c r="E262" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F262" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -22991,7 +22994,7 @@
         <v>4</v>
       </c>
       <c r="I262" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J262">
         <v>2.8</v>
@@ -23059,16 +23062,16 @@
         <v>7951784</v>
       </c>
       <c r="C263" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D263" s="2">
         <v>45389.35416666666</v>
       </c>
       <c r="E263" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F263" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G263">
         <v>1</v>
@@ -23077,7 +23080,7 @@
         <v>1</v>
       </c>
       <c r="I263" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J263">
         <v>2.4</v>
@@ -23145,16 +23148,16 @@
         <v>7951751</v>
       </c>
       <c r="C264" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D264" s="2">
         <v>45389.60416666666</v>
       </c>
       <c r="E264" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F264" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G264">
         <v>2</v>
@@ -23163,7 +23166,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J264">
         <v>1.85</v>
@@ -23231,16 +23234,16 @@
         <v>7951787</v>
       </c>
       <c r="C265" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D265" s="2">
         <v>45390.47916666666</v>
       </c>
       <c r="E265" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F265" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -23249,7 +23252,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J265">
         <v>2.2</v>
@@ -23317,16 +23320,16 @@
         <v>7951786</v>
       </c>
       <c r="C266" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D266" s="2">
         <v>45390.60416666666</v>
       </c>
       <c r="E266" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F266" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G266">
         <v>1</v>
@@ -23335,7 +23338,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J266">
         <v>2.05</v>
@@ -23403,16 +23406,16 @@
         <v>7951792</v>
       </c>
       <c r="C267" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D267" s="2">
         <v>45394.47916666666</v>
       </c>
       <c r="E267" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F267" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G267">
         <v>1</v>
@@ -23421,7 +23424,7 @@
         <v>3</v>
       </c>
       <c r="I267" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J267">
         <v>2.3</v>
@@ -23489,16 +23492,16 @@
         <v>7951755</v>
       </c>
       <c r="C268" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D268" s="2">
         <v>45394.60416666666</v>
       </c>
       <c r="E268" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F268" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -23507,7 +23510,7 @@
         <v>2</v>
       </c>
       <c r="I268" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J268">
         <v>1.8</v>
@@ -23575,16 +23578,16 @@
         <v>7951790</v>
       </c>
       <c r="C269" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D269" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E269" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F269" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -23593,7 +23596,7 @@
         <v>1</v>
       </c>
       <c r="I269" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J269">
         <v>2.4</v>
@@ -23661,16 +23664,16 @@
         <v>7951791</v>
       </c>
       <c r="C270" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D270" s="2">
         <v>45395.64583333334</v>
       </c>
       <c r="E270" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F270" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -23679,7 +23682,7 @@
         <v>2</v>
       </c>
       <c r="I270" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J270">
         <v>1.909</v>
@@ -23747,16 +23750,16 @@
         <v>7951788</v>
       </c>
       <c r="C271" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D271" s="2">
         <v>45396.3125</v>
       </c>
       <c r="E271" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F271" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G271">
         <v>4</v>
@@ -23765,7 +23768,7 @@
         <v>1</v>
       </c>
       <c r="I271" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J271">
         <v>2.4</v>
@@ -23833,16 +23836,16 @@
         <v>7951789</v>
       </c>
       <c r="C272" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D272" s="2">
         <v>45396.51041666666</v>
       </c>
       <c r="E272" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F272" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -23851,7 +23854,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J272">
         <v>2.25</v>
@@ -23919,16 +23922,16 @@
         <v>7951754</v>
       </c>
       <c r="C273" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D273" s="2">
         <v>45396.625</v>
       </c>
       <c r="E273" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F273" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -23937,7 +23940,7 @@
         <v>1</v>
       </c>
       <c r="I273" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J273">
         <v>2.3</v>
@@ -24005,16 +24008,16 @@
         <v>7951756</v>
       </c>
       <c r="C274" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D274" s="2">
         <v>45397.60416666666</v>
       </c>
       <c r="E274" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F274" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -24023,7 +24026,7 @@
         <v>1</v>
       </c>
       <c r="I274" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J274">
         <v>1.95</v>
@@ -24091,16 +24094,16 @@
         <v>7951793</v>
       </c>
       <c r="C275" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D275" s="2">
         <v>45401.47916666666</v>
       </c>
       <c r="E275" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F275" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G275">
         <v>1</v>
@@ -24109,7 +24112,7 @@
         <v>1</v>
       </c>
       <c r="I275" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J275">
         <v>1.909</v>
@@ -24177,16 +24180,16 @@
         <v>7951758</v>
       </c>
       <c r="C276" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D276" s="2">
         <v>45401.60416666666</v>
       </c>
       <c r="E276" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F276" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G276">
         <v>5</v>
@@ -24195,7 +24198,7 @@
         <v>1</v>
       </c>
       <c r="I276" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J276">
         <v>3.1</v>
@@ -24263,16 +24266,16 @@
         <v>7951796</v>
       </c>
       <c r="C277" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D277" s="2">
         <v>45402.375</v>
       </c>
       <c r="E277" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F277" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G277">
         <v>3</v>
@@ -24281,7 +24284,7 @@
         <v>1</v>
       </c>
       <c r="I277" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J277">
         <v>2.25</v>
@@ -24349,16 +24352,16 @@
         <v>7951797</v>
       </c>
       <c r="C278" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D278" s="2">
         <v>45402.47916666666</v>
       </c>
       <c r="E278" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F278" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -24367,7 +24370,7 @@
         <v>1</v>
       </c>
       <c r="I278" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J278">
         <v>2.2</v>
@@ -24435,16 +24438,16 @@
         <v>7951757</v>
       </c>
       <c r="C279" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D279" s="2">
         <v>45402.60416666666</v>
       </c>
       <c r="E279" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F279" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G279">
         <v>2</v>
@@ -24453,7 +24456,7 @@
         <v>2</v>
       </c>
       <c r="I279" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J279">
         <v>1.85</v>
@@ -24521,16 +24524,16 @@
         <v>7951795</v>
       </c>
       <c r="C280" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D280" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E280" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F280" t="s">
-     